--- a/moduls/1С.xlsx
+++ b/moduls/1С.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Uaer4\Desktop\ПОКОМ ЗПФ\moduls\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\перенос данных\ПОКОМ ЗПФ\pokom_zpf\moduls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62C09053-565A-4729-8281-0F37B0C5566C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{586BBE19-F071-4720-A34D-8C494A97E4B3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$F$124</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$F$126</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="392">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="573" uniqueCount="394">
   <si>
     <t>1С</t>
   </si>
@@ -1211,6 +1211,12 @@
   </si>
   <si>
     <t>Сосиски Оригинальные заморож. ТМ Стародворье в вак 0,33 кг  Поком</t>
+  </si>
+  <si>
+    <t>Пельмени отборные  с говядиной и свининой 0,43кг  Поком</t>
+  </si>
+  <si>
+    <t>Пельмени отборные с говядиной 0,43кг Поком</t>
   </si>
 </sst>
 </file>
@@ -1685,11 +1691,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G238"/>
+  <dimension ref="A1:G240"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G15" sqref="G15"/>
+      <selection pane="bottomLeft" activeCell="A132" sqref="A132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3552,7 +3558,7 @@
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="11" t="s">
-        <v>239</v>
+        <v>392</v>
       </c>
       <c r="B89" s="3" t="s">
         <v>236</v>
@@ -3573,28 +3579,28 @@
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="11" t="s">
-        <v>208</v>
+        <v>239</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>128</v>
+        <v>236</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>129</v>
+        <v>237</v>
       </c>
       <c r="D90" s="4">
-        <v>4301070827</v>
+        <v>4301070917</v>
       </c>
       <c r="E90" s="3">
-        <v>4607111036216</v>
+        <v>4607111035912</v>
       </c>
       <c r="F90" s="5" t="s">
-        <v>130</v>
+        <v>238</v>
       </c>
       <c r="G90" s="6"/>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="11" t="s">
-        <v>89</v>
+        <v>208</v>
       </c>
       <c r="B91" s="3" t="s">
         <v>128</v>
@@ -3615,49 +3621,49 @@
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D92" s="4">
-        <v>4301070882</v>
+        <v>4301070827</v>
       </c>
       <c r="E92" s="3">
-        <v>4607111035899</v>
+        <v>4607111036216</v>
       </c>
       <c r="F92" s="5" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="G92" s="6"/>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="11" t="s">
-        <v>212</v>
+        <v>90</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>210</v>
+        <v>131</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>211</v>
+        <v>132</v>
       </c>
       <c r="D93" s="4">
-        <v>4301070873</v>
+        <v>4301070882</v>
       </c>
       <c r="E93" s="3">
-        <v>4607111035080</v>
+        <v>4607111035899</v>
       </c>
       <c r="F93" s="5" t="s">
-        <v>212</v>
+        <v>133</v>
       </c>
       <c r="G93" s="6"/>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="11" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="B94" s="3" t="s">
         <v>210</v>
@@ -3678,28 +3684,28 @@
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="11" t="s">
-        <v>305</v>
+        <v>209</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>382</v>
+        <v>210</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>383</v>
+        <v>211</v>
       </c>
       <c r="D95" s="4">
-        <v>4301135161</v>
+        <v>4301070873</v>
       </c>
       <c r="E95" s="3">
-        <v>4607111037305</v>
+        <v>4607111035080</v>
       </c>
       <c r="F95" s="5" t="s">
-        <v>384</v>
+        <v>212</v>
       </c>
       <c r="G95" s="6"/>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="11" t="s">
-        <v>213</v>
+        <v>305</v>
       </c>
       <c r="B96" s="3" t="s">
         <v>382</v>
@@ -3720,112 +3726,112 @@
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="11" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>215</v>
+        <v>382</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>216</v>
+        <v>383</v>
       </c>
       <c r="D97" s="4">
-        <v>4301070858</v>
+        <v>4301135161</v>
       </c>
       <c r="E97" s="3">
-        <v>4607111036193</v>
+        <v>4607111037305</v>
       </c>
       <c r="F97" s="5" t="s">
-        <v>217</v>
+        <v>384</v>
       </c>
       <c r="G97" s="6"/>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="11" t="s">
-        <v>92</v>
+        <v>214</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>134</v>
+        <v>215</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>135</v>
+        <v>216</v>
       </c>
       <c r="D98" s="4">
-        <v>4301135112</v>
+        <v>4301070858</v>
       </c>
       <c r="E98" s="3">
-        <v>4607111034199</v>
+        <v>4607111036193</v>
       </c>
       <c r="F98" s="5" t="s">
-        <v>136</v>
+        <v>217</v>
       </c>
       <c r="G98" s="6"/>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="11" t="s">
-        <v>150</v>
+        <v>92</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>307</v>
+        <v>134</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>308</v>
+        <v>135</v>
       </c>
       <c r="D99" s="4">
-        <v>4301131012</v>
+        <v>4301135112</v>
       </c>
       <c r="E99" s="3">
-        <v>4607111034137</v>
+        <v>4607111034199</v>
       </c>
       <c r="F99" s="5" t="s">
-        <v>157</v>
+        <v>136</v>
       </c>
       <c r="G99" s="6"/>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>158</v>
+        <v>307</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>159</v>
+        <v>308</v>
       </c>
       <c r="D100" s="4">
-        <v>4301131011</v>
+        <v>4301131012</v>
       </c>
       <c r="E100" s="3">
-        <v>4607111034120</v>
+        <v>4607111034137</v>
       </c>
       <c r="F100" s="5" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="G100" s="6"/>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="11" t="s">
-        <v>321</v>
+        <v>151</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>371</v>
+        <v>158</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>372</v>
+        <v>159</v>
       </c>
       <c r="D101" s="4">
-        <v>4301131018</v>
+        <v>4301131011</v>
       </c>
       <c r="E101" s="3">
-        <v>4607111037930</v>
+        <v>4607111034120</v>
       </c>
       <c r="F101" s="5" t="s">
-        <v>373</v>
+        <v>160</v>
       </c>
       <c r="G101" s="6"/>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="11" t="s">
-        <v>218</v>
+        <v>321</v>
       </c>
       <c r="B102" s="3" t="s">
         <v>371</v>
@@ -3846,28 +3852,28 @@
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="11" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>161</v>
+        <v>371</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>162</v>
+        <v>372</v>
       </c>
       <c r="D103" s="4">
-        <v>4301190014</v>
+        <v>4301131018</v>
       </c>
       <c r="E103" s="3">
-        <v>4607111037053</v>
+        <v>4607111037930</v>
       </c>
       <c r="F103" s="5" t="s">
-        <v>163</v>
+        <v>373</v>
       </c>
       <c r="G103" s="6"/>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="11" t="s">
-        <v>152</v>
+        <v>219</v>
       </c>
       <c r="B104" s="3" t="s">
         <v>161</v>
@@ -3888,28 +3894,28 @@
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="11" t="s">
-        <v>220</v>
+        <v>152</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D105" s="4">
-        <v>4301190015</v>
+        <v>4301190014</v>
       </c>
       <c r="E105" s="3">
-        <v>4607111037060</v>
+        <v>4607111037053</v>
       </c>
       <c r="F105" s="5" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="G105" s="6"/>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="11" t="s">
-        <v>153</v>
+        <v>220</v>
       </c>
       <c r="B106" s="3" t="s">
         <v>164</v>
@@ -3926,137 +3932,137 @@
       <c r="F106" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="G106" s="1"/>
+      <c r="G106" s="6"/>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="11" t="s">
-        <v>243</v>
+        <v>153</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>240</v>
+        <v>164</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>241</v>
+        <v>165</v>
       </c>
       <c r="D107" s="4">
-        <v>4301135053</v>
+        <v>4301190015</v>
       </c>
       <c r="E107" s="3">
-        <v>4607111036407</v>
+        <v>4607111037060</v>
       </c>
       <c r="F107" s="5" t="s">
-        <v>242</v>
+        <v>166</v>
       </c>
       <c r="G107" s="1"/>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="11" t="s">
-        <v>274</v>
+        <v>243</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>137</v>
+        <v>240</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>221</v>
+        <v>241</v>
       </c>
       <c r="D108" s="4">
-        <v>4301135162</v>
+        <v>4301135053</v>
       </c>
       <c r="E108" s="3">
-        <v>4607111034014</v>
+        <v>4607111036407</v>
       </c>
       <c r="F108" s="5" t="s">
-        <v>303</v>
+        <v>242</v>
       </c>
       <c r="G108" s="1"/>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="11" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>140</v>
+        <v>221</v>
       </c>
       <c r="D109" s="4">
-        <v>4301135117</v>
+        <v>4301135162</v>
       </c>
       <c r="E109" s="3">
-        <v>4607111033994</v>
+        <v>4607111034014</v>
       </c>
       <c r="F109" s="5" t="s">
-        <v>141</v>
+        <v>303</v>
       </c>
       <c r="G109" s="1"/>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="11" t="s">
-        <v>93</v>
+        <v>275</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>221</v>
+        <v>140</v>
       </c>
       <c r="D110" s="4">
-        <v>4301135162</v>
+        <v>4301135117</v>
       </c>
       <c r="E110" s="3">
-        <v>4607111034014</v>
+        <v>4607111033994</v>
       </c>
       <c r="F110" s="5" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="G110" s="1"/>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>140</v>
+        <v>221</v>
       </c>
       <c r="D111" s="4">
-        <v>4301135117</v>
+        <v>4301135162</v>
       </c>
       <c r="E111" s="3">
-        <v>4607111033994</v>
+        <v>4607111034014</v>
       </c>
       <c r="F111" s="5" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="G111" s="1"/>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="11" t="s">
-        <v>222</v>
+        <v>94</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>374</v>
+        <v>139</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>375</v>
+        <v>140</v>
       </c>
       <c r="D112" s="4">
-        <v>4301136008</v>
+        <v>4301135117</v>
       </c>
       <c r="E112" s="3">
-        <v>4607111036438</v>
+        <v>4607111033994</v>
       </c>
       <c r="F112" s="5" t="s">
-        <v>376</v>
+        <v>141</v>
       </c>
       <c r="G112" s="1"/>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="11" t="s">
-        <v>154</v>
+        <v>222</v>
       </c>
       <c r="B113" s="3" t="s">
         <v>374</v>
@@ -4077,49 +4083,49 @@
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="11" t="s">
-        <v>95</v>
+        <v>154</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="D114" s="4">
-        <v>4301136001</v>
+        <v>4301136008</v>
       </c>
       <c r="E114" s="3">
-        <v>4607111035714</v>
+        <v>4607111036438</v>
       </c>
       <c r="F114" s="5" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="G114" s="1"/>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="11" t="s">
-        <v>333</v>
+        <v>95</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>145</v>
+        <v>377</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>146</v>
+        <v>378</v>
       </c>
       <c r="D115" s="4">
-        <v>4301135177</v>
+        <v>4301136001</v>
       </c>
       <c r="E115" s="3">
-        <v>4607111037862</v>
+        <v>4607111035714</v>
       </c>
       <c r="F115" s="5" t="s">
-        <v>147</v>
+        <v>379</v>
       </c>
       <c r="G115" s="1"/>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="11" t="s">
-        <v>309</v>
+        <v>333</v>
       </c>
       <c r="B116" s="3" t="s">
         <v>145</v>
@@ -4140,133 +4146,133 @@
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="11" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>312</v>
+        <v>145</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>313</v>
+        <v>146</v>
       </c>
       <c r="D117" s="4">
-        <v>4301070915</v>
+        <v>4301135177</v>
       </c>
       <c r="E117" s="3">
-        <v>4607111035882</v>
+        <v>4607111037862</v>
       </c>
       <c r="F117" s="5" t="s">
-        <v>314</v>
+        <v>147</v>
       </c>
       <c r="G117" s="1"/>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="11" t="s">
-        <v>317</v>
+        <v>393</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="D118" s="4">
-        <v>4301070874</v>
+        <v>4301070915</v>
       </c>
       <c r="E118" s="3">
-        <v>4607111035332</v>
+        <v>4607111035882</v>
       </c>
       <c r="F118" s="5" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="G118" s="1"/>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="11" t="s">
-        <v>348</v>
+        <v>314</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="D119" s="4">
-        <v>4301136014</v>
+        <v>4301070915</v>
       </c>
       <c r="E119" s="3">
-        <v>4607111035370</v>
+        <v>4607111035882</v>
       </c>
       <c r="F119" s="5" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="G119" s="1"/>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="11" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="D120" s="4">
-        <v>4301136014</v>
+        <v>4301070874</v>
       </c>
       <c r="E120" s="3">
-        <v>4607111035370</v>
+        <v>4607111035332</v>
       </c>
       <c r="F120" s="5" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="G120" s="1"/>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="11" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="D121" s="4">
-        <v>4301051320</v>
+        <v>4301136014</v>
       </c>
       <c r="E121" s="3">
-        <v>4680115881334</v>
+        <v>4607111035370</v>
       </c>
       <c r="F121" s="5" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="G121" s="1"/>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="11" t="s">
-        <v>391</v>
+        <v>320</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="D122" s="4">
-        <v>4301051320</v>
+        <v>4301136014</v>
       </c>
       <c r="E122" s="3">
-        <v>4680115881334</v>
+        <v>4607111035370</v>
       </c>
       <c r="F122" s="5" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="G122" s="1"/>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" s="11" t="s">
-        <v>328</v>
+        <v>347</v>
       </c>
       <c r="B123" s="3" t="s">
         <v>325</v>
@@ -4287,41 +4293,65 @@
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" s="11" t="s">
+        <v>391</v>
+      </c>
+      <c r="B124" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="C124" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="D124" s="4">
+        <v>4301051320</v>
+      </c>
+      <c r="E124" s="3">
+        <v>4680115881334</v>
+      </c>
+      <c r="F124" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="G124" s="1"/>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A125" s="11" t="s">
+        <v>328</v>
+      </c>
+      <c r="B125" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="C125" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="D125" s="4">
+        <v>4301051320</v>
+      </c>
+      <c r="E125" s="3">
+        <v>4680115881334</v>
+      </c>
+      <c r="F125" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="G125" s="1"/>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A126" s="11" t="s">
         <v>332</v>
       </c>
-      <c r="B124" s="3" t="s">
+      <c r="B126" s="3" t="s">
         <v>329</v>
       </c>
-      <c r="C124" s="3" t="s">
+      <c r="C126" s="3" t="s">
         <v>330</v>
       </c>
-      <c r="D124" s="4">
+      <c r="D126" s="4">
         <v>4301051319</v>
       </c>
-      <c r="E124" s="3">
+      <c r="E126" s="3">
         <v>4680115881204</v>
       </c>
-      <c r="F124" s="5" t="s">
+      <c r="F126" s="5" t="s">
         <v>331</v>
       </c>
-      <c r="G124" s="1"/>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A125" s="11"/>
-      <c r="B125" s="3"/>
-      <c r="C125" s="3"/>
-      <c r="D125" s="4"/>
-      <c r="E125" s="3"/>
-      <c r="F125" s="5"/>
-      <c r="G125" s="1"/>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A126" s="11"/>
-      <c r="B126" s="3"/>
-      <c r="C126" s="3"/>
-      <c r="D126" s="4"/>
-      <c r="E126" s="3"/>
-      <c r="F126" s="5"/>
       <c r="G126" s="1"/>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
@@ -4533,11 +4563,11 @@
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" s="11"/>
-      <c r="B150" s="13"/>
-      <c r="C150" s="13"/>
-      <c r="D150" s="14"/>
-      <c r="E150" s="15"/>
-      <c r="F150" s="16"/>
+      <c r="B150" s="3"/>
+      <c r="C150" s="3"/>
+      <c r="D150" s="4"/>
+      <c r="E150" s="3"/>
+      <c r="F150" s="5"/>
       <c r="G150" s="1"/>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
@@ -4551,11 +4581,11 @@
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" s="11"/>
-      <c r="B152" s="3"/>
-      <c r="C152" s="3"/>
-      <c r="D152" s="4"/>
-      <c r="E152" s="3"/>
-      <c r="F152" s="5"/>
+      <c r="B152" s="13"/>
+      <c r="C152" s="13"/>
+      <c r="D152" s="14"/>
+      <c r="E152" s="15"/>
+      <c r="F152" s="16"/>
       <c r="G152" s="1"/>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
@@ -4614,11 +4644,11 @@
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" s="11"/>
-      <c r="B159" s="13"/>
-      <c r="C159" s="13"/>
-      <c r="D159" s="14"/>
-      <c r="E159" s="15"/>
-      <c r="F159" s="16"/>
+      <c r="B159" s="3"/>
+      <c r="C159" s="3"/>
+      <c r="D159" s="4"/>
+      <c r="E159" s="3"/>
+      <c r="F159" s="5"/>
       <c r="G159" s="1"/>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
@@ -4632,11 +4662,11 @@
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" s="11"/>
-      <c r="B161" s="3"/>
-      <c r="C161" s="3"/>
-      <c r="D161" s="4"/>
-      <c r="E161" s="3"/>
-      <c r="F161" s="5"/>
+      <c r="B161" s="13"/>
+      <c r="C161" s="13"/>
+      <c r="D161" s="14"/>
+      <c r="E161" s="15"/>
+      <c r="F161" s="16"/>
       <c r="G161" s="1"/>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
@@ -4682,7 +4712,7 @@
       <c r="D166" s="4"/>
       <c r="E166" s="3"/>
       <c r="F166" s="5"/>
-      <c r="G166" s="6"/>
+      <c r="G166" s="1"/>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" s="11"/>
@@ -4700,7 +4730,7 @@
       <c r="D168" s="4"/>
       <c r="E168" s="3"/>
       <c r="F168" s="5"/>
-      <c r="G168" s="1"/>
+      <c r="G168" s="6"/>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" s="11"/>
@@ -5307,20 +5337,20 @@
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A236" s="11"/>
-      <c r="B236" s="1"/>
-      <c r="C236" s="1"/>
-      <c r="D236" s="1"/>
-      <c r="E236" s="1"/>
-      <c r="F236" s="1"/>
+      <c r="B236" s="3"/>
+      <c r="C236" s="3"/>
+      <c r="D236" s="4"/>
+      <c r="E236" s="3"/>
+      <c r="F236" s="5"/>
       <c r="G236" s="1"/>
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A237" s="11"/>
-      <c r="B237" s="1"/>
-      <c r="C237" s="1"/>
-      <c r="D237" s="1"/>
-      <c r="E237" s="1"/>
-      <c r="F237" s="1"/>
+      <c r="B237" s="3"/>
+      <c r="C237" s="3"/>
+      <c r="D237" s="4"/>
+      <c r="E237" s="3"/>
+      <c r="F237" s="5"/>
       <c r="G237" s="1"/>
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.25">
@@ -5332,9 +5362,27 @@
       <c r="F238" s="1"/>
       <c r="G238" s="1"/>
     </row>
+    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A239" s="11"/>
+      <c r="B239" s="1"/>
+      <c r="C239" s="1"/>
+      <c r="D239" s="1"/>
+      <c r="E239" s="1"/>
+      <c r="F239" s="1"/>
+      <c r="G239" s="1"/>
+    </row>
+    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A240" s="11"/>
+      <c r="B240" s="1"/>
+      <c r="C240" s="1"/>
+      <c r="D240" s="1"/>
+      <c r="E240" s="1"/>
+      <c r="F240" s="1"/>
+      <c r="G240" s="1"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:F124" xr:uid="{08353A06-E006-45C7-BD45-850F7C3953DF}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F116">
+  <autoFilter ref="A1:F126" xr:uid="{08353A06-E006-45C7-BD45-850F7C3953DF}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F117">
       <sortCondition ref="A1:A77"/>
     </sortState>
   </autoFilter>

--- a/moduls/1С.xlsx
+++ b/moduls/1С.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\перенос данных\ПОКОМ ЗПФ\pokom_zpf\moduls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{586BBE19-F071-4720-A34D-8C494A97E4B3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AAB0293-21FE-4F75-9E4D-F16B263EBF1A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,9 +17,9 @@
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$F$126</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$F$127</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="181029" refMode="R1C1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="573" uniqueCount="394">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="398">
   <si>
     <t>1С</t>
   </si>
@@ -1217,6 +1217,18 @@
   </si>
   <si>
     <t>Пельмени отборные с говядиной 0,43кг Поком</t>
+  </si>
+  <si>
+    <t>Чебуреки с мясом, грибами и картофелем. ВЕС  ПОКОМ</t>
+  </si>
+  <si>
+    <t>SU002407</t>
+  </si>
+  <si>
+    <t>P002684</t>
+  </si>
+  <si>
+    <t>Чебуреки с мясом, грибами и картофелем No name Весовые No name 2,7 кг</t>
   </si>
 </sst>
 </file>
@@ -1695,7 +1707,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A132" sqref="A132"/>
+      <selection pane="bottomLeft" activeCell="F132" sqref="F132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3120,21 +3132,21 @@
         <v>390</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>195</v>
+        <v>124</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>196</v>
+        <v>387</v>
       </c>
       <c r="D68" s="4">
-        <v>4301070928</v>
+        <v>4301070973</v>
       </c>
       <c r="E68" s="3">
-        <v>4607111037091</v>
+        <v>4607111033987</v>
       </c>
       <c r="F68" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="G68" s="6"/>
+        <v>388</v>
+      </c>
+      <c r="G68" s="1"/>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="11" t="s">
@@ -4355,12 +4367,24 @@
       <c r="G126" s="1"/>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A127" s="11"/>
-      <c r="B127" s="3"/>
-      <c r="C127" s="3"/>
-      <c r="D127" s="4"/>
-      <c r="E127" s="3"/>
-      <c r="F127" s="5"/>
+      <c r="A127" s="11" t="s">
+        <v>394</v>
+      </c>
+      <c r="B127" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="C127" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="D127" s="4">
+        <v>4301136007</v>
+      </c>
+      <c r="E127" s="3">
+        <v>4607111036636</v>
+      </c>
+      <c r="F127" s="5" t="s">
+        <v>397</v>
+      </c>
       <c r="G127" s="1"/>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
@@ -5381,7 +5405,7 @@
       <c r="G240" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F126" xr:uid="{08353A06-E006-45C7-BD45-850F7C3953DF}">
+  <autoFilter ref="A1:F127" xr:uid="{08353A06-E006-45C7-BD45-850F7C3953DF}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F117">
       <sortCondition ref="A1:A77"/>
     </sortState>

--- a/moduls/1С.xlsx
+++ b/moduls/1С.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\перенос данных\ПОКОМ ЗПФ\pokom_zpf\moduls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AAB0293-21FE-4F75-9E4D-F16B263EBF1A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{073389BB-D838-4623-A549-6B7FBE0AE2D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="398">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="400">
   <si>
     <t>1С</t>
   </si>
@@ -601,634 +601,640 @@
     <t>SU002708</t>
   </si>
   <si>
-    <t>P003085</t>
-  </si>
-  <si>
-    <t>Пельмени Бигбули #МЕГАВКУСИЩЕ с сочной грудинкой Бигбули ГШ 0,9 сфера Горячая штучка</t>
-  </si>
-  <si>
     <t>Пельмени Бигбули с мясом, Горячая штучка 0,43кг  ПОКОМ</t>
   </si>
   <si>
     <t>SU002625</t>
   </si>
   <si>
-    <t>P002963</t>
-  </si>
-  <si>
-    <t>Пельмени Бигбули с мясом Бигбули ГШ 0,43 Сфера Горячая штучка</t>
-  </si>
-  <si>
     <t>Пельмени Бигбули со сливоч.маслом (Мегамаслище) ТМ БУЛЬМЕНИ сфера 0,43. замор. ПОКОМ</t>
   </si>
   <si>
     <t>SU002707</t>
   </si>
   <si>
+    <t>Пельмени Бигбули #МЕГАМАСЛИЩЕ со сливочным маслом Бигбули ГШ 0,43 сфера Горячая штучка</t>
+  </si>
+  <si>
+    <t>Пельмени Бигбули со сливочным маслом #МЕГАМАСЛИЩЕ Горячая штучка 0,9 кг  ПОКОМ</t>
+  </si>
+  <si>
+    <t>SU002838</t>
+  </si>
+  <si>
+    <t>P003251</t>
+  </si>
+  <si>
+    <t>Пельмени Бигбули #МЕГАМАСЛИЩЕ со сливочным маслом Бигбули ГШ ф/в 0,9 Горячая штучка</t>
+  </si>
+  <si>
+    <t>Пельмени Мясорубские ТМ Стародворье фоупак равиоли 0,7 кг  ПОКОМ</t>
+  </si>
+  <si>
+    <t>Пельмени Мясорубские Стародворье ЗПФ 0,7 Равиоли Стародворье</t>
+  </si>
+  <si>
+    <t>Пельмени Отборные с говядиной 0,9 кг НОВА ТМ Стародворье ТС Медвежье ушко  ПОКОМ</t>
+  </si>
+  <si>
+    <t>SU002068</t>
+  </si>
+  <si>
+    <t>P003005</t>
+  </si>
+  <si>
+    <t>Пельмени Отборные из говядины Медвежье ушко 0,9 Псевдозащип Стародворье</t>
+  </si>
+  <si>
+    <t>Пельмени С говядиной и свининой, ВЕС, сфера пуговки Мясная Галерея  ПОКОМ</t>
+  </si>
+  <si>
+    <t>Пельмени Сочные сфера 0,9 кг ТМ Стародворье ПОКОМ</t>
+  </si>
+  <si>
+    <t>SU001776</t>
+  </si>
+  <si>
+    <t>P002719</t>
+  </si>
+  <si>
+    <t>Пельмени Сочные Сочные 0,9 Сфера Стародворье</t>
+  </si>
+  <si>
+    <t>Фрайпицца с ветчиной и грибами 3,0 кг. ВЕС.  ПОКОМ</t>
+  </si>
+  <si>
+    <t>Хинкали Классические хинкали ВЕС,  ПОКОМ</t>
+  </si>
+  <si>
+    <t>SU002314</t>
+  </si>
+  <si>
+    <t>P002579</t>
+  </si>
+  <si>
+    <t>Пельмени Классические No name Весовые Хинкали No name 5 кг</t>
+  </si>
+  <si>
+    <t>Хрустящие крылышки. В панировке куриные жареные.ВЕС  ПОКОМ</t>
+  </si>
+  <si>
+    <t>Чебупай сочное яблоко ТМ Горячая штучка 0,2 кг зам.  ПОКОМ</t>
+  </si>
+  <si>
+    <t>Чебупай спелая вишня ТМ Горячая штучка 0,2 кг зам.  ПОКОМ</t>
+  </si>
+  <si>
+    <t>P003286</t>
+  </si>
+  <si>
+    <t>Чебуреки Мясные вес 2,7  ПОКОМ</t>
+  </si>
+  <si>
+    <t>SU002573</t>
+  </si>
+  <si>
+    <t>P002893</t>
+  </si>
+  <si>
+    <t>Чебуреки с мясом Базовый ассортимент Штучка 0,09 Пленка Горячая штучка</t>
+  </si>
+  <si>
+    <t>Готовые чебуреки с мясом ТМ Горячая штучка 0,09 кг флоу-пак ПОКОМ</t>
+  </si>
+  <si>
+    <t>Жар-мени с картофелем и сочной грудинкой. ВЕС  ПОКОМ</t>
+  </si>
+  <si>
+    <t>SU002891</t>
+  </si>
+  <si>
+    <t>P003301</t>
+  </si>
+  <si>
+    <t>Пельмени "Быстромени" Весовой ТМ "No Name" 5</t>
+  </si>
+  <si>
+    <t>Пельмени Быстромени сфера, ВЕС  ПОКОМ</t>
+  </si>
+  <si>
+    <t>SU002408</t>
+  </si>
+  <si>
+    <t>P002686</t>
+  </si>
+  <si>
+    <t>Пельмени Левантские Особая без свинины 0,8 Сфера Особый рецепт</t>
+  </si>
+  <si>
+    <t>Пельмени Левантские ТМ Особый рецепт 0,8 кг  ПОКОМ</t>
+  </si>
+  <si>
+    <t>SU002069</t>
+  </si>
+  <si>
+    <t>P003001</t>
+  </si>
+  <si>
+    <t>Пельмени Отборные из свинины и говядины Медвежье ушко 0,43 Псевдозащип Стародворье</t>
+  </si>
+  <si>
+    <t>Пельмени Отборные с говядиной и свининой 0,43 кг ТМ Стародворье ТС Медвежье ушко</t>
+  </si>
+  <si>
+    <t>SU002293</t>
+  </si>
+  <si>
+    <t>P002566</t>
+  </si>
+  <si>
+    <t>Чебупели Курочка гриль Базовый ассортимент Фикс.вес 0,3 Пакет Горячая штучка</t>
+  </si>
+  <si>
+    <t>Чебупели Курочка гриль ТМ Горячая штучка, 0,3 кг зам  ПОКОМ</t>
+  </si>
+  <si>
+    <t>Готовые бельмеши 0,3 кг Горячая штучка Тандер</t>
+  </si>
+  <si>
+    <t>Готовые Хотстеры 1 уп Горячая штучка</t>
+  </si>
+  <si>
+    <t>Готовые чебупели 0,3 кг Горячая Штучка острые с мясом</t>
+  </si>
+  <si>
+    <t>Готовые чебупели 0,3 кг Горячая Штучка с ветчиной и сыром</t>
+  </si>
+  <si>
+    <t>Готовые чебупели 0,3 кг Горячая штучка с мясом   НТУ</t>
+  </si>
+  <si>
+    <t>Готовые чебупели 0,3 кг Горячая Штучка сочные с мясом</t>
+  </si>
+  <si>
+    <t>Готовые чебуреки 0,09 кг Горячая Штучка Шоу-бокс с мясом тара 2</t>
+  </si>
+  <si>
+    <t>Готовые чебуреки 1 уп Горячая Штучка New Box со свининой и говядиной</t>
+  </si>
+  <si>
+    <t>Жар-мени 1 кг изделия кулинарные рубленые в тесте куриные жареные 5,5 кг</t>
+  </si>
+  <si>
+    <t>Жар-мени 1 кг с картофелем и сочной грудинкой вес 3,5кг</t>
+  </si>
+  <si>
+    <t>Круггетсы 0,25 кг Горячая Штучка с сырным соусом</t>
+  </si>
+  <si>
+    <t>Круггетсы 0,25 кг Горячая Штучка сочные</t>
+  </si>
+  <si>
+    <t>Крылышки 0,3 кг Горячая штучка хрустящие острые к пиву Тандер</t>
+  </si>
+  <si>
+    <t>Крылышки 0,3 кг Горячая штучка хрустящие Тандер</t>
+  </si>
+  <si>
+    <t>Мини-сосиски 1 кг в тесте Фрайпики 3,7кг</t>
+  </si>
+  <si>
+    <t>Наггетсы 0,25 кг Горячая штучка  Нагетосы Сочная курочка в хрустящей панировке</t>
+  </si>
+  <si>
+    <t>Наггетсы 0,25 кг Горячая штучка  Нагетосы Сочная курочка со сладкой паприкой  ф/в</t>
+  </si>
+  <si>
+    <t>Наггетсы 0,25 кг Горячая штучка Нагетосы Сочная курочка со сметаной и зеленью ф/в</t>
+  </si>
+  <si>
+    <t>Наггетсы из печи 0,25 кг Вязанка Няняггетсы Сливушки</t>
+  </si>
+  <si>
+    <t>Пекерсы 0,25 кг Горячая штучка с индейкой в сливочном соусе  ТС Пекерсы</t>
+  </si>
+  <si>
+    <t>Пельмени  0,43 кг Горячая штучка Бигбули #МЕГАВКУСИЩЕ с сочной грудинкой Бигбули ГШ сфера</t>
+  </si>
+  <si>
+    <t>Пельмени  0,75 кг Горячая штучка Grandmeni с говядиной  флоу-пак сфера</t>
+  </si>
+  <si>
+    <t>Пельмени 0,43 кг Горячая штучка Бигбули со сливочным маслом Бигбули ГШ ф/в</t>
+  </si>
+  <si>
+    <t>Пельмени 0,43 кг Горячая штучка Бульмени Сибирские с говядиной и свининой</t>
+  </si>
+  <si>
+    <t>Пельмени 0,43 кг Горячая штучка Бульмени со сливочным маслом</t>
+  </si>
+  <si>
+    <t>Пельмени 0,75 кг Горячая штучка Grandmeni с говядиной в сливочном соусе  флоу-пак сфера</t>
+  </si>
+  <si>
+    <t>Пельмени 0,75 кг Горячая штучка Grandmeni со сливочным маслом  ф/п сф ф/в</t>
+  </si>
+  <si>
+    <t>Пельмени 0,9 кг Горячая штучка Бигбули #МЕГАВКУСИЩЕ с сочной грудинкой Бигбули ГШ  сфера</t>
+  </si>
+  <si>
+    <t>Пельмени 0,9 кг Горячая штучка Бульмени  с говядиной и свининой</t>
+  </si>
+  <si>
+    <t>Пельмени 0,9 кг Горячая штучка Бульмени со сливочным маслом</t>
+  </si>
+  <si>
+    <t>Чебупицца 0,25 кг Горячая штучка курочка по-итальянски Тандер</t>
+  </si>
+  <si>
+    <t>Чебупицца 0,25 кг Горячая штучка Папперони Тандер</t>
+  </si>
+  <si>
+    <t>SU002560</t>
+  </si>
+  <si>
+    <t>P002878</t>
+  </si>
+  <si>
+    <t>Бельмеши сочные с мясом Базовый ассортимент Фикс.вес 0,3 Лоток Горячая штучка</t>
+  </si>
+  <si>
+    <t>SU002572</t>
+  </si>
+  <si>
+    <t>P002888</t>
+  </si>
+  <si>
+    <t>Чебупели с мясом без свинины Базовый ассортимент Фикс.вес 0,3 Лоток Горячая штучка</t>
+  </si>
+  <si>
+    <t>SU002558</t>
+  </si>
+  <si>
+    <t>P002889</t>
+  </si>
+  <si>
+    <t>Чебуреки со свининой и говядиной Базовый ассортимент Фикс.вес 0,36 Лоток Горячая штучка</t>
+  </si>
+  <si>
+    <t>SU002761</t>
+  </si>
+  <si>
+    <t>P003144</t>
+  </si>
+  <si>
+    <t>Нагетосы Сочная курочка в хрустящей панировке Наггетсы ГШ Фикс.вес 0,25 Лоток Горячая штучка</t>
+  </si>
+  <si>
+    <t>SU002760</t>
+  </si>
+  <si>
+    <t>P003142</t>
+  </si>
+  <si>
+    <t>Нагетосы Сочная курочка со сладкой паприкой Наггетсы ГШ Фикс.вес 0,25 Лоток Горячая штучка</t>
+  </si>
+  <si>
+    <t>SU002762</t>
+  </si>
+  <si>
+    <t>P003141</t>
+  </si>
+  <si>
+    <t>Нагетосы Сочная курочка в хрустящей панировке со сметаной и зеленью Наггетсы ГШ Фикс.вес 0,25 Лоток Горячая штучка</t>
+  </si>
+  <si>
+    <t>SU002669</t>
+  </si>
+  <si>
+    <t>P003041</t>
+  </si>
+  <si>
+    <t>Снеки Пекерсы с индейкой в сливочном соусе Пекерсы Фикс.вес 0,25 Лоток Горячая штучка НД</t>
+  </si>
+  <si>
+    <t>SU002346</t>
+  </si>
+  <si>
+    <t>P002646</t>
+  </si>
+  <si>
+    <t>Пельмени Grandmeni с говядиной Grandmeni 0,75 Сфера Горячая штучка</t>
+  </si>
+  <si>
+    <t>SU002321</t>
+  </si>
+  <si>
+    <t>P002599</t>
+  </si>
+  <si>
+    <t>Пельмени Grandmeni с говядиной в сливочном соусе Grandmeni 0,75 Сфера Горячая штучка</t>
+  </si>
+  <si>
+    <t>"Чебупицца курочка По-итальянски" Фикс.вес 0,25 Лоток ТМ "Горячая штучка"</t>
+  </si>
+  <si>
+    <t>Мини-сосиски в тесте "Фрайпики" 3,7кг ВЕС,  ПОКОМ</t>
+  </si>
+  <si>
+    <t>Фрай-пицца с ветчиной и грибами 3,0 кг. ВЕС.  ПОКОМ</t>
+  </si>
+  <si>
+    <t>Круггетсы Сочные Круггетсы Фикс.вес 0,25 Лоток Горячая штучка</t>
+  </si>
+  <si>
+    <t>SU002564</t>
+  </si>
+  <si>
+    <t>P002882</t>
+  </si>
+  <si>
+    <t>Мини-сосиски в тесте "Фрайпики" 1,8кг ВЕС,  ПОКОМ</t>
+  </si>
+  <si>
+    <t>Пельмени Бульмени с говядиной и свининой Бигбули 0,43 Сфера Горячая штучка</t>
+  </si>
+  <si>
+    <t>Пельмени Бульмени с говядиной и свининой Бигбули 0,9 Сфера Горячая штучка</t>
+  </si>
+  <si>
+    <t>SU002067</t>
+  </si>
+  <si>
+    <t>P002999</t>
+  </si>
+  <si>
+    <t>Пельмени Отборные из говядины Медвежье ушко 0,43 Псевдозащип Стародворье</t>
+  </si>
+  <si>
+    <t>SU001859</t>
+  </si>
+  <si>
+    <t>P002720</t>
+  </si>
+  <si>
+    <t>Пельмени Сочные Сочные 0,43 Сфера Стародворье</t>
+  </si>
+  <si>
+    <t>SU002570</t>
+  </si>
+  <si>
+    <t>P002894</t>
+  </si>
+  <si>
+    <t>Чебуречище Базовый ассортимент Штучка 0,14 Пленка Горячая штучка</t>
+  </si>
+  <si>
+    <t>Хрустящие крылышки. Изделия кулинарные кусковые в панировке куриные жареные первый сорт.</t>
+  </si>
+  <si>
+    <t>SU002566</t>
+  </si>
+  <si>
+    <t>P002880</t>
+  </si>
+  <si>
+    <t>Круггетсы с сырным соусом Фикс.вес 0,25 Лоток ТМ "Горячая штучка"</t>
+  </si>
+  <si>
+    <t>SU002678</t>
+  </si>
+  <si>
+    <t>P003054</t>
+  </si>
+  <si>
+    <t>Сосиски "Оригинальные" замороженные Фикс.вес 0,33 п/а ТМ "Стародворье"</t>
+  </si>
+  <si>
+    <t>Сосиски Оригинальные ТМ Стародворье  0,33 кг.  ПОКОМ</t>
+  </si>
+  <si>
+    <t>SU002677</t>
+  </si>
+  <si>
+    <t>P003053</t>
+  </si>
+  <si>
+    <t>Сосиски "Сливушки #нежнушки" замороженные Фикс.вес 0,33 п/а ТМ "Вязанка"</t>
+  </si>
+  <si>
+    <t>Сосиски Сливушки #нежнушки ТМ Вязанка  0,33 кг.  ПОКОМ</t>
+  </si>
+  <si>
+    <t>Мини-сосиски в тесте "Фрайпики" тара1. Кулинарные изделия рубленые в тесте куриные жареные</t>
+  </si>
+  <si>
+    <t>Жар-ладушки с клубникой и вишней. Изделия хлебобулочные жареные с начинкой замороженные</t>
+  </si>
+  <si>
+    <t>SU002772</t>
+  </si>
+  <si>
+    <t>P003159</t>
+  </si>
+  <si>
+    <t>Жар-боллы с курочкой и сыром No Name ПГП Весовой No Name</t>
+  </si>
+  <si>
+    <t>SU002567</t>
+  </si>
+  <si>
+    <t>P002879</t>
+  </si>
+  <si>
+    <t>«Круггетсы Сочные» Фикс.вес 0,25 Лоток ТМ «Горячая штучка»</t>
+  </si>
+  <si>
+    <t>SU002920</t>
+  </si>
+  <si>
+    <t>P003355</t>
+  </si>
+  <si>
+    <t>Пельмени Мясорубские ТМ Стародворье фоу-пак равиоли 0,7 кг.  Поком</t>
+  </si>
+  <si>
+    <t>Сосиски «Оригинальные» замороженные Фикс.вес 0,33 п/а ТМ «Стародворье»</t>
+  </si>
+  <si>
+    <t>Чебуречище горячая штучка 0,14кг Поком</t>
+  </si>
+  <si>
+    <t>SU002953</t>
+  </si>
+  <si>
+    <t>P003377</t>
+  </si>
+  <si>
+    <t>«Жар-ладушки с клубникой и вишней» Весовые ТМ «No name»</t>
+  </si>
+  <si>
+    <t>SU002494</t>
+  </si>
+  <si>
+    <t>P002789</t>
+  </si>
+  <si>
+    <t>Жар-ладушки с мясом, картофелем и грибами No name ПГП Весовые No name 3,7 кг</t>
+  </si>
+  <si>
+    <t>SU002441</t>
+  </si>
+  <si>
+    <t>P002732</t>
+  </si>
+  <si>
+    <t>Жар-ладушки с мясом No name ПГП Весовые No name  3,7 кг</t>
+  </si>
+  <si>
+    <t>SU002484</t>
+  </si>
+  <si>
+    <t>P002778</t>
+  </si>
+  <si>
+    <t>Жар-ладушки с яблоком и грушей No name ПГП Весовые No name 3,7 кг</t>
+  </si>
+  <si>
+    <t>SU002442</t>
+  </si>
+  <si>
+    <t>P002970</t>
+  </si>
+  <si>
+    <t>Мини-сосиски в тесте Фрайпики No name Весовые No name 3,7 кг</t>
+  </si>
+  <si>
+    <t>P003686</t>
+  </si>
+  <si>
+    <t>Пельмени «Бульмени с говядиной и свининой» 0,9 Сфера ТМ «Горячая штучка»</t>
+  </si>
+  <si>
+    <t>P003697</t>
+  </si>
+  <si>
+    <t>Пельмени «Бульмени с говядиной и свининой Наваристые» Весовые Сфера ТМ «Горячая штучка» 5 кг</t>
+  </si>
+  <si>
+    <t>SU002046</t>
+  </si>
+  <si>
+    <t>P002167</t>
+  </si>
+  <si>
+    <t>Снеки Жар-мени No Name Весовые No name 5,5 кг дистр</t>
+  </si>
+  <si>
+    <t>SU002975</t>
+  </si>
+  <si>
+    <t>P003432</t>
+  </si>
+  <si>
+    <t>Крылья «Хрустящие крылышки» Весовой ТМ «No Name»</t>
+  </si>
+  <si>
+    <t>SU002406</t>
+  </si>
+  <si>
+    <t>P002685</t>
+  </si>
+  <si>
+    <t>Чебуреки Мясные No name Весовые No name 2,7 кг</t>
+  </si>
+  <si>
+    <t>SU002045</t>
+  </si>
+  <si>
+    <t>P002166</t>
+  </si>
+  <si>
+    <t>Чебуреки Чебуреки Сочные No Name Весовые No name 5 кг дистр</t>
+  </si>
+  <si>
+    <t>P003684</t>
+  </si>
+  <si>
+    <t>Пельмени «Бульмени со сливочным маслом» 0,9 Сфера ТМ «Горячая штучка»</t>
+  </si>
+  <si>
+    <t>SU002794</t>
+  </si>
+  <si>
+    <t>P003192</t>
+  </si>
+  <si>
+    <t>Снеки «Фрай-пицца с ветчиной и грибами» Весовые ТМ «No name» 3 кг</t>
+  </si>
+  <si>
+    <t>P003685</t>
+  </si>
+  <si>
+    <t>Пельмени «Бульмени с говядиной и свининой» 0,43 Сфера ТМ «Горячая штучка»</t>
+  </si>
+  <si>
+    <t>P003683</t>
+  </si>
+  <si>
+    <t>Пельмени «Бульмени со сливочным маслом» 0,43 Сфера ТМ «Горячая штучка»</t>
+  </si>
+  <si>
+    <t>Пельмени Бигбули со слив.маслом 0,9 кг   Поком</t>
+  </si>
+  <si>
+    <t>Пельмени Бугбули со сливочным маслом ТМ Горячая штучка БУЛЬМЕНИ 0,43 кг  ПОКОМ</t>
+  </si>
+  <si>
+    <t>Сосиски Оригинальные заморож. ТМ Стародворье в вак 0,33 кг  Поком</t>
+  </si>
+  <si>
+    <t>Пельмени отборные  с говядиной и свининой 0,43кг  Поком</t>
+  </si>
+  <si>
+    <t>Пельмени отборные с говядиной 0,43кг Поком</t>
+  </si>
+  <si>
+    <t>Чебуреки с мясом, грибами и картофелем. ВЕС  ПОКОМ</t>
+  </si>
+  <si>
+    <t>SU002407</t>
+  </si>
+  <si>
+    <t>P002684</t>
+  </si>
+  <si>
+    <t>Чебуреки с мясом, грибами и картофелем No name Весовые No name 2,7 кг</t>
+  </si>
+  <si>
+    <t>SU002405</t>
+  </si>
+  <si>
+    <t>P002964</t>
+  </si>
+  <si>
+    <t>Снеки Жар-мени с картофелем и сочной грудинкой No name Весовые No name 3,5 кг</t>
+  </si>
+  <si>
+    <t>P003682</t>
+  </si>
+  <si>
+    <t>Пельмени «Бигбули #МЕГАВКУСИЩЕ с сочной грудинкой» 0,9 сфера ТМ «Горячая штучка»</t>
+  </si>
+  <si>
+    <t>P003679</t>
+  </si>
+  <si>
+    <t>Пельмени «Бигбули с мясом» 0,43 Сфера ТМ «Горячая штучка»</t>
+  </si>
+  <si>
+    <t>P003680</t>
+  </si>
+  <si>
+    <t>Пельмени «Бигбули #МЕГАМАСЛИЩЕ со сливочным маслом» 0,43 сфера ТМ «Горячая штучка»</t>
+  </si>
+  <si>
     <t>P003081</t>
-  </si>
-  <si>
-    <t>Пельмени Бигбули #МЕГАМАСЛИЩЕ со сливочным маслом Бигбули ГШ 0,43 сфера Горячая штучка</t>
-  </si>
-  <si>
-    <t>Пельмени Бигбули со сливочным маслом #МЕГАМАСЛИЩЕ Горячая штучка 0,9 кг  ПОКОМ</t>
-  </si>
-  <si>
-    <t>SU002838</t>
-  </si>
-  <si>
-    <t>P003251</t>
-  </si>
-  <si>
-    <t>Пельмени Бигбули #МЕГАМАСЛИЩЕ со сливочным маслом Бигбули ГШ ф/в 0,9 Горячая штучка</t>
-  </si>
-  <si>
-    <t>Пельмени Мясорубские ТМ Стародворье фоупак равиоли 0,7 кг  ПОКОМ</t>
-  </si>
-  <si>
-    <t>Пельмени Мясорубские Стародворье ЗПФ 0,7 Равиоли Стародворье</t>
-  </si>
-  <si>
-    <t>Пельмени Отборные с говядиной 0,9 кг НОВА ТМ Стародворье ТС Медвежье ушко  ПОКОМ</t>
-  </si>
-  <si>
-    <t>SU002068</t>
-  </si>
-  <si>
-    <t>P003005</t>
-  </si>
-  <si>
-    <t>Пельмени Отборные из говядины Медвежье ушко 0,9 Псевдозащип Стародворье</t>
-  </si>
-  <si>
-    <t>Пельмени С говядиной и свининой, ВЕС, сфера пуговки Мясная Галерея  ПОКОМ</t>
-  </si>
-  <si>
-    <t>Пельмени Сочные сфера 0,9 кг ТМ Стародворье ПОКОМ</t>
-  </si>
-  <si>
-    <t>SU001776</t>
-  </si>
-  <si>
-    <t>P002719</t>
-  </si>
-  <si>
-    <t>Пельмени Сочные Сочные 0,9 Сфера Стародворье</t>
-  </si>
-  <si>
-    <t>Фрайпицца с ветчиной и грибами 3,0 кг. ВЕС.  ПОКОМ</t>
-  </si>
-  <si>
-    <t>Хинкали Классические хинкали ВЕС,  ПОКОМ</t>
-  </si>
-  <si>
-    <t>SU002314</t>
-  </si>
-  <si>
-    <t>P002579</t>
-  </si>
-  <si>
-    <t>Пельмени Классические No name Весовые Хинкали No name 5 кг</t>
-  </si>
-  <si>
-    <t>Хрустящие крылышки. В панировке куриные жареные.ВЕС  ПОКОМ</t>
-  </si>
-  <si>
-    <t>Чебупай сочное яблоко ТМ Горячая штучка 0,2 кг зам.  ПОКОМ</t>
-  </si>
-  <si>
-    <t>Чебупай спелая вишня ТМ Горячая штучка 0,2 кг зам.  ПОКОМ</t>
-  </si>
-  <si>
-    <t>P003286</t>
-  </si>
-  <si>
-    <t>Чебуреки Мясные вес 2,7  ПОКОМ</t>
-  </si>
-  <si>
-    <t>SU002573</t>
-  </si>
-  <si>
-    <t>P002893</t>
-  </si>
-  <si>
-    <t>Чебуреки с мясом Базовый ассортимент Штучка 0,09 Пленка Горячая штучка</t>
-  </si>
-  <si>
-    <t>Готовые чебуреки с мясом ТМ Горячая штучка 0,09 кг флоу-пак ПОКОМ</t>
-  </si>
-  <si>
-    <t>Жар-мени с картофелем и сочной грудинкой. ВЕС  ПОКОМ</t>
-  </si>
-  <si>
-    <t>SU002891</t>
-  </si>
-  <si>
-    <t>P003301</t>
-  </si>
-  <si>
-    <t>Пельмени "Быстромени" Весовой ТМ "No Name" 5</t>
-  </si>
-  <si>
-    <t>Пельмени Быстромени сфера, ВЕС  ПОКОМ</t>
-  </si>
-  <si>
-    <t>SU002408</t>
-  </si>
-  <si>
-    <t>P002686</t>
-  </si>
-  <si>
-    <t>Пельмени Левантские Особая без свинины 0,8 Сфера Особый рецепт</t>
-  </si>
-  <si>
-    <t>Пельмени Левантские ТМ Особый рецепт 0,8 кг  ПОКОМ</t>
-  </si>
-  <si>
-    <t>SU002069</t>
-  </si>
-  <si>
-    <t>P003001</t>
-  </si>
-  <si>
-    <t>Пельмени Отборные из свинины и говядины Медвежье ушко 0,43 Псевдозащип Стародворье</t>
-  </si>
-  <si>
-    <t>Пельмени Отборные с говядиной и свининой 0,43 кг ТМ Стародворье ТС Медвежье ушко</t>
-  </si>
-  <si>
-    <t>SU002293</t>
-  </si>
-  <si>
-    <t>P002566</t>
-  </si>
-  <si>
-    <t>Чебупели Курочка гриль Базовый ассортимент Фикс.вес 0,3 Пакет Горячая штучка</t>
-  </si>
-  <si>
-    <t>Чебупели Курочка гриль ТМ Горячая штучка, 0,3 кг зам  ПОКОМ</t>
-  </si>
-  <si>
-    <t>Готовые бельмеши 0,3 кг Горячая штучка Тандер</t>
-  </si>
-  <si>
-    <t>Готовые Хотстеры 1 уп Горячая штучка</t>
-  </si>
-  <si>
-    <t>Готовые чебупели 0,3 кг Горячая Штучка острые с мясом</t>
-  </si>
-  <si>
-    <t>Готовые чебупели 0,3 кг Горячая Штучка с ветчиной и сыром</t>
-  </si>
-  <si>
-    <t>Готовые чебупели 0,3 кг Горячая штучка с мясом   НТУ</t>
-  </si>
-  <si>
-    <t>Готовые чебупели 0,3 кг Горячая Штучка сочные с мясом</t>
-  </si>
-  <si>
-    <t>Готовые чебуреки 0,09 кг Горячая Штучка Шоу-бокс с мясом тара 2</t>
-  </si>
-  <si>
-    <t>Готовые чебуреки 1 уп Горячая Штучка New Box со свининой и говядиной</t>
-  </si>
-  <si>
-    <t>Жар-мени 1 кг изделия кулинарные рубленые в тесте куриные жареные 5,5 кг</t>
-  </si>
-  <si>
-    <t>Жар-мени 1 кг с картофелем и сочной грудинкой вес 3,5кг</t>
-  </si>
-  <si>
-    <t>Круггетсы 0,25 кг Горячая Штучка с сырным соусом</t>
-  </si>
-  <si>
-    <t>Круггетсы 0,25 кг Горячая Штучка сочные</t>
-  </si>
-  <si>
-    <t>Крылышки 0,3 кг Горячая штучка хрустящие острые к пиву Тандер</t>
-  </si>
-  <si>
-    <t>Крылышки 0,3 кг Горячая штучка хрустящие Тандер</t>
-  </si>
-  <si>
-    <t>Мини-сосиски 1 кг в тесте Фрайпики 3,7кг</t>
-  </si>
-  <si>
-    <t>Наггетсы 0,25 кг Горячая штучка  Нагетосы Сочная курочка в хрустящей панировке</t>
-  </si>
-  <si>
-    <t>Наггетсы 0,25 кг Горячая штучка  Нагетосы Сочная курочка со сладкой паприкой  ф/в</t>
-  </si>
-  <si>
-    <t>Наггетсы 0,25 кг Горячая штучка Нагетосы Сочная курочка со сметаной и зеленью ф/в</t>
-  </si>
-  <si>
-    <t>Наггетсы из печи 0,25 кг Вязанка Няняггетсы Сливушки</t>
-  </si>
-  <si>
-    <t>Пекерсы 0,25 кг Горячая штучка с индейкой в сливочном соусе  ТС Пекерсы</t>
-  </si>
-  <si>
-    <t>Пельмени  0,43 кг Горячая штучка Бигбули #МЕГАВКУСИЩЕ с сочной грудинкой Бигбули ГШ сфера</t>
-  </si>
-  <si>
-    <t>Пельмени  0,75 кг Горячая штучка Grandmeni с говядиной  флоу-пак сфера</t>
-  </si>
-  <si>
-    <t>Пельмени 0,43 кг Горячая штучка Бигбули со сливочным маслом Бигбули ГШ ф/в</t>
-  </si>
-  <si>
-    <t>Пельмени 0,43 кг Горячая штучка Бульмени Сибирские с говядиной и свининой</t>
-  </si>
-  <si>
-    <t>Пельмени 0,43 кг Горячая штучка Бульмени со сливочным маслом</t>
-  </si>
-  <si>
-    <t>Пельмени 0,75 кг Горячая штучка Grandmeni с говядиной в сливочном соусе  флоу-пак сфера</t>
-  </si>
-  <si>
-    <t>Пельмени 0,75 кг Горячая штучка Grandmeni со сливочным маслом  ф/п сф ф/в</t>
-  </si>
-  <si>
-    <t>Пельмени 0,9 кг Горячая штучка Бигбули #МЕГАВКУСИЩЕ с сочной грудинкой Бигбули ГШ  сфера</t>
-  </si>
-  <si>
-    <t>Пельмени 0,9 кг Горячая штучка Бульмени  с говядиной и свининой</t>
-  </si>
-  <si>
-    <t>Пельмени 0,9 кг Горячая штучка Бульмени со сливочным маслом</t>
-  </si>
-  <si>
-    <t>Чебупицца 0,25 кг Горячая штучка курочка по-итальянски Тандер</t>
-  </si>
-  <si>
-    <t>Чебупицца 0,25 кг Горячая штучка Папперони Тандер</t>
-  </si>
-  <si>
-    <t>SU002560</t>
-  </si>
-  <si>
-    <t>P002878</t>
-  </si>
-  <si>
-    <t>Бельмеши сочные с мясом Базовый ассортимент Фикс.вес 0,3 Лоток Горячая штучка</t>
-  </si>
-  <si>
-    <t>SU002572</t>
-  </si>
-  <si>
-    <t>P002888</t>
-  </si>
-  <si>
-    <t>Чебупели с мясом без свинины Базовый ассортимент Фикс.вес 0,3 Лоток Горячая штучка</t>
-  </si>
-  <si>
-    <t>SU002558</t>
-  </si>
-  <si>
-    <t>P002889</t>
-  </si>
-  <si>
-    <t>Чебуреки со свининой и говядиной Базовый ассортимент Фикс.вес 0,36 Лоток Горячая штучка</t>
-  </si>
-  <si>
-    <t>SU002761</t>
-  </si>
-  <si>
-    <t>P003144</t>
-  </si>
-  <si>
-    <t>Нагетосы Сочная курочка в хрустящей панировке Наггетсы ГШ Фикс.вес 0,25 Лоток Горячая штучка</t>
-  </si>
-  <si>
-    <t>SU002760</t>
-  </si>
-  <si>
-    <t>P003142</t>
-  </si>
-  <si>
-    <t>Нагетосы Сочная курочка со сладкой паприкой Наггетсы ГШ Фикс.вес 0,25 Лоток Горячая штучка</t>
-  </si>
-  <si>
-    <t>SU002762</t>
-  </si>
-  <si>
-    <t>P003141</t>
-  </si>
-  <si>
-    <t>Нагетосы Сочная курочка в хрустящей панировке со сметаной и зеленью Наггетсы ГШ Фикс.вес 0,25 Лоток Горячая штучка</t>
-  </si>
-  <si>
-    <t>SU002669</t>
-  </si>
-  <si>
-    <t>P003041</t>
-  </si>
-  <si>
-    <t>Снеки Пекерсы с индейкой в сливочном соусе Пекерсы Фикс.вес 0,25 Лоток Горячая штучка НД</t>
-  </si>
-  <si>
-    <t>SU002346</t>
-  </si>
-  <si>
-    <t>P002646</t>
-  </si>
-  <si>
-    <t>Пельмени Grandmeni с говядиной Grandmeni 0,75 Сфера Горячая штучка</t>
-  </si>
-  <si>
-    <t>SU002321</t>
-  </si>
-  <si>
-    <t>P002599</t>
-  </si>
-  <si>
-    <t>Пельмени Grandmeni с говядиной в сливочном соусе Grandmeni 0,75 Сфера Горячая штучка</t>
-  </si>
-  <si>
-    <t>"Чебупицца курочка По-итальянски" Фикс.вес 0,25 Лоток ТМ "Горячая штучка"</t>
-  </si>
-  <si>
-    <t>Мини-сосиски в тесте "Фрайпики" 3,7кг ВЕС,  ПОКОМ</t>
-  </si>
-  <si>
-    <t>Фрай-пицца с ветчиной и грибами 3,0 кг. ВЕС.  ПОКОМ</t>
-  </si>
-  <si>
-    <t>Круггетсы Сочные Круггетсы Фикс.вес 0,25 Лоток Горячая штучка</t>
-  </si>
-  <si>
-    <t>SU002564</t>
-  </si>
-  <si>
-    <t>P002882</t>
-  </si>
-  <si>
-    <t>Мини-сосиски в тесте "Фрайпики" 1,8кг ВЕС,  ПОКОМ</t>
-  </si>
-  <si>
-    <t>Пельмени Бульмени с говядиной и свининой Бигбули 0,43 Сфера Горячая штучка</t>
-  </si>
-  <si>
-    <t>Пельмени Бульмени с говядиной и свининой Бигбули 0,9 Сфера Горячая штучка</t>
-  </si>
-  <si>
-    <t>SU002067</t>
-  </si>
-  <si>
-    <t>P002999</t>
-  </si>
-  <si>
-    <t>Пельмени Отборные из говядины Медвежье ушко 0,43 Псевдозащип Стародворье</t>
-  </si>
-  <si>
-    <t>SU001859</t>
-  </si>
-  <si>
-    <t>P002720</t>
-  </si>
-  <si>
-    <t>Пельмени Сочные Сочные 0,43 Сфера Стародворье</t>
-  </si>
-  <si>
-    <t>SU002570</t>
-  </si>
-  <si>
-    <t>P002894</t>
-  </si>
-  <si>
-    <t>Чебуречище Базовый ассортимент Штучка 0,14 Пленка Горячая штучка</t>
-  </si>
-  <si>
-    <t>Хрустящие крылышки. Изделия кулинарные кусковые в панировке куриные жареные первый сорт.</t>
-  </si>
-  <si>
-    <t>SU002566</t>
-  </si>
-  <si>
-    <t>P002880</t>
-  </si>
-  <si>
-    <t>Круггетсы с сырным соусом Фикс.вес 0,25 Лоток ТМ "Горячая штучка"</t>
-  </si>
-  <si>
-    <t>SU002678</t>
-  </si>
-  <si>
-    <t>P003054</t>
-  </si>
-  <si>
-    <t>Сосиски "Оригинальные" замороженные Фикс.вес 0,33 п/а ТМ "Стародворье"</t>
-  </si>
-  <si>
-    <t>Сосиски Оригинальные ТМ Стародворье  0,33 кг.  ПОКОМ</t>
-  </si>
-  <si>
-    <t>SU002677</t>
-  </si>
-  <si>
-    <t>P003053</t>
-  </si>
-  <si>
-    <t>Сосиски "Сливушки #нежнушки" замороженные Фикс.вес 0,33 п/а ТМ "Вязанка"</t>
-  </si>
-  <si>
-    <t>Сосиски Сливушки #нежнушки ТМ Вязанка  0,33 кг.  ПОКОМ</t>
-  </si>
-  <si>
-    <t>Мини-сосиски в тесте "Фрайпики" тара1. Кулинарные изделия рубленые в тесте куриные жареные</t>
-  </si>
-  <si>
-    <t>Жар-ладушки с клубникой и вишней. Изделия хлебобулочные жареные с начинкой замороженные</t>
-  </si>
-  <si>
-    <t>SU003014</t>
-  </si>
-  <si>
-    <t>P003480</t>
-  </si>
-  <si>
-    <t>Снеки Жар-мени с картофелем и сочной грудинкой ТМ Зареченские ТС Зареченские продукты вес 3,5 кг МГ</t>
-  </si>
-  <si>
-    <t>SU002772</t>
-  </si>
-  <si>
-    <t>P003159</t>
-  </si>
-  <si>
-    <t>Жар-боллы с курочкой и сыром No Name ПГП Весовой No Name</t>
-  </si>
-  <si>
-    <t>SU002567</t>
-  </si>
-  <si>
-    <t>P002879</t>
-  </si>
-  <si>
-    <t>«Круггетсы Сочные» Фикс.вес 0,25 Лоток ТМ «Горячая штучка»</t>
-  </si>
-  <si>
-    <t>SU002920</t>
-  </si>
-  <si>
-    <t>P003355</t>
-  </si>
-  <si>
-    <t>Пельмени Мясорубские ТМ Стародворье фоу-пак равиоли 0,7 кг.  Поком</t>
-  </si>
-  <si>
-    <t>Сосиски «Оригинальные» замороженные Фикс.вес 0,33 п/а ТМ «Стародворье»</t>
-  </si>
-  <si>
-    <t>Чебуречище горячая штучка 0,14кг Поком</t>
-  </si>
-  <si>
-    <t>SU002953</t>
-  </si>
-  <si>
-    <t>P003377</t>
-  </si>
-  <si>
-    <t>«Жар-ладушки с клубникой и вишней» Весовые ТМ «No name»</t>
-  </si>
-  <si>
-    <t>SU002494</t>
-  </si>
-  <si>
-    <t>P002789</t>
-  </si>
-  <si>
-    <t>Жар-ладушки с мясом, картофелем и грибами No name ПГП Весовые No name 3,7 кг</t>
-  </si>
-  <si>
-    <t>SU002441</t>
-  </si>
-  <si>
-    <t>P002732</t>
-  </si>
-  <si>
-    <t>Жар-ладушки с мясом No name ПГП Весовые No name  3,7 кг</t>
-  </si>
-  <si>
-    <t>SU002484</t>
-  </si>
-  <si>
-    <t>P002778</t>
-  </si>
-  <si>
-    <t>Жар-ладушки с яблоком и грушей No name ПГП Весовые No name 3,7 кг</t>
-  </si>
-  <si>
-    <t>SU002442</t>
-  </si>
-  <si>
-    <t>P002970</t>
-  </si>
-  <si>
-    <t>Мини-сосиски в тесте Фрайпики No name Весовые No name 3,7 кг</t>
-  </si>
-  <si>
-    <t>P003686</t>
-  </si>
-  <si>
-    <t>Пельмени «Бульмени с говядиной и свининой» 0,9 Сфера ТМ «Горячая штучка»</t>
-  </si>
-  <si>
-    <t>P003697</t>
-  </si>
-  <si>
-    <t>Пельмени «Бульмени с говядиной и свининой Наваристые» Весовые Сфера ТМ «Горячая штучка» 5 кг</t>
-  </si>
-  <si>
-    <t>SU002046</t>
-  </si>
-  <si>
-    <t>P002167</t>
-  </si>
-  <si>
-    <t>Снеки Жар-мени No Name Весовые No name 5,5 кг дистр</t>
-  </si>
-  <si>
-    <t>SU002975</t>
-  </si>
-  <si>
-    <t>P003432</t>
-  </si>
-  <si>
-    <t>Крылья «Хрустящие крылышки» Весовой ТМ «No Name»</t>
-  </si>
-  <si>
-    <t>SU002406</t>
-  </si>
-  <si>
-    <t>P002685</t>
-  </si>
-  <si>
-    <t>Чебуреки Мясные No name Весовые No name 2,7 кг</t>
-  </si>
-  <si>
-    <t>SU002045</t>
-  </si>
-  <si>
-    <t>P002166</t>
-  </si>
-  <si>
-    <t>Чебуреки Чебуреки Сочные No Name Весовые No name 5 кг дистр</t>
-  </si>
-  <si>
-    <t>P003684</t>
-  </si>
-  <si>
-    <t>Пельмени «Бульмени со сливочным маслом» 0,9 Сфера ТМ «Горячая штучка»</t>
-  </si>
-  <si>
-    <t>SU002794</t>
-  </si>
-  <si>
-    <t>P003192</t>
-  </si>
-  <si>
-    <t>Снеки «Фрай-пицца с ветчиной и грибами» Весовые ТМ «No name» 3 кг</t>
-  </si>
-  <si>
-    <t>P003685</t>
-  </si>
-  <si>
-    <t>Пельмени «Бульмени с говядиной и свининой» 0,43 Сфера ТМ «Горячая штучка»</t>
-  </si>
-  <si>
-    <t>P003683</t>
-  </si>
-  <si>
-    <t>Пельмени «Бульмени со сливочным маслом» 0,43 Сфера ТМ «Горячая штучка»</t>
-  </si>
-  <si>
-    <t>Пельмени Бигбули со слив.маслом 0,9 кг   Поком</t>
-  </si>
-  <si>
-    <t>Пельмени Бугбули со сливочным маслом ТМ Горячая штучка БУЛЬМЕНИ 0,43 кг  ПОКОМ</t>
-  </si>
-  <si>
-    <t>Сосиски Оригинальные заморож. ТМ Стародворье в вак 0,33 кг  Поком</t>
-  </si>
-  <si>
-    <t>Пельмени отборные  с говядиной и свининой 0,43кг  Поком</t>
-  </si>
-  <si>
-    <t>Пельмени отборные с говядиной 0,43кг Поком</t>
-  </si>
-  <si>
-    <t>Чебуреки с мясом, грибами и картофелем. ВЕС  ПОКОМ</t>
-  </si>
-  <si>
-    <t>SU002407</t>
-  </si>
-  <si>
-    <t>P002684</t>
-  </si>
-  <si>
-    <t>Чебуреки с мясом, грибами и картофелем No name Весовые No name 2,7 кг</t>
   </si>
 </sst>
 </file>
@@ -1707,7 +1713,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F132" sqref="F132"/>
+      <selection pane="bottomLeft" activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1764,13 +1770,13 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="D3" s="4">
         <v>4301135113</v>
@@ -1779,13 +1785,13 @@
         <v>4607111033659</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>134</v>
@@ -1806,7 +1812,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>172</v>
@@ -1827,7 +1833,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>96</v>
@@ -1848,13 +1854,13 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="D7" s="4">
         <v>4301135120</v>
@@ -1863,13 +1869,13 @@
         <v>4607111035141</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="G7" s="1"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>99</v>
@@ -1974,13 +1980,13 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="D13" s="4">
         <v>4301136013</v>
@@ -1989,19 +1995,19 @@
         <v>4607025784012</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="G13" s="1"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="D14" s="4">
         <v>4301136012</v>
@@ -2010,19 +2016,19 @@
         <v>4607025784319</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="G14" s="1"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="D15" s="4">
         <v>4301136013</v>
@@ -2031,19 +2037,19 @@
         <v>4607025784012</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="G15" s="1"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="D16" s="4">
         <v>4301136013</v>
@@ -2052,7 +2058,7 @@
         <v>4607025784012</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="G16" s="1"/>
     </row>
@@ -2082,10 +2088,10 @@
         <v>176</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="D18" s="4">
         <v>4301135156</v>
@@ -2094,7 +2100,7 @@
         <v>4607111037275</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="G18" s="1"/>
     </row>
@@ -2103,10 +2109,10 @@
         <v>148</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="D19" s="4">
         <v>4301135156</v>
@@ -2115,19 +2121,19 @@
         <v>4607111037275</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="G19" s="1"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="D20" s="4">
         <v>4301135179</v>
@@ -2136,7 +2142,7 @@
         <v>4607111037923</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="G20" s="1"/>
     </row>
@@ -2145,10 +2151,10 @@
         <v>177</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="D21" s="4">
         <v>4301135179</v>
@@ -2157,7 +2163,7 @@
         <v>4607111037923</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="G21" s="1"/>
     </row>
@@ -2166,10 +2172,10 @@
         <v>178</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="D22" s="4">
         <v>4301135097</v>
@@ -2178,7 +2184,7 @@
         <v>4607111037206</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="G22" s="1"/>
     </row>
@@ -2187,10 +2193,10 @@
         <v>179</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="D23" s="4">
         <v>4301135085</v>
@@ -2199,7 +2205,7 @@
         <v>4607111037220</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="G23" s="1"/>
     </row>
@@ -2208,10 +2214,10 @@
         <v>180</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="D24" s="4">
         <v>4301135091</v>
@@ -2220,7 +2226,7 @@
         <v>4607111037244</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="G24" s="1"/>
     </row>
@@ -2229,10 +2235,10 @@
         <v>149</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="D25" s="4">
         <v>4301135091</v>
@@ -2241,7 +2247,7 @@
         <v>4607111037244</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="G25" s="1"/>
     </row>
@@ -2250,10 +2256,10 @@
         <v>91</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="D26" s="4">
         <v>4301135004</v>
@@ -2262,19 +2268,19 @@
         <v>4607111035707</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="G26" s="6"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="11" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="D27" s="4">
         <v>4301135004</v>
@@ -2283,61 +2289,61 @@
         <v>4607111035707</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="G27" s="1"/>
     </row>
-    <row r="28" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="11" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>335</v>
+        <v>390</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>336</v>
+        <v>391</v>
       </c>
       <c r="D28" s="4">
-        <v>4301135187</v>
+        <v>4301135129</v>
       </c>
       <c r="E28" s="3">
-        <v>4640242180328</v>
+        <v>4607111036841</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>337</v>
+        <v>392</v>
       </c>
       <c r="G28" s="1"/>
     </row>
-    <row r="29" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="11" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>335</v>
+        <v>390</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>336</v>
+        <v>391</v>
       </c>
       <c r="D29" s="4">
-        <v>4301135187</v>
+        <v>4301135129</v>
       </c>
       <c r="E29" s="3">
-        <v>4640242180328</v>
+        <v>4607111036841</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>337</v>
+        <v>392</v>
       </c>
       <c r="G29" s="1"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="11" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="D30" s="4">
         <v>4301135115</v>
@@ -2346,7 +2352,7 @@
         <v>4607111034380</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="G30" s="1"/>
     </row>
@@ -2355,10 +2361,10 @@
         <v>181</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="D31" s="4">
         <v>4301135115</v>
@@ -2367,19 +2373,19 @@
         <v>4607111034380</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="G31" s="1"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="11" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="D32" s="4">
         <v>4301135114</v>
@@ -2388,19 +2394,19 @@
         <v>4607111034397</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="G32" s="1"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="11" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="D33" s="4">
         <v>4301135114</v>
@@ -2409,7 +2415,7 @@
         <v>4607111034397</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="G33" s="1"/>
     </row>
@@ -2418,10 +2424,10 @@
         <v>75</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="D34" s="4">
         <v>4301135114</v>
@@ -2430,13 +2436,13 @@
         <v>4607111034397</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="G34" s="1"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="11" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>155</v>
@@ -2457,7 +2463,7 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="11" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>158</v>
@@ -2478,13 +2484,13 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="11" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="D37" s="4">
         <v>4301135128</v>
@@ -2493,19 +2499,19 @@
         <v>4607111036797</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="G37" s="1"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="11" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="D38" s="4">
         <v>4301135128</v>
@@ -2514,7 +2520,7 @@
         <v>4607111036797</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="G38" s="1"/>
     </row>
@@ -2523,10 +2529,10 @@
         <v>76</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="D39" s="4">
         <v>4301135128</v>
@@ -2535,19 +2541,19 @@
         <v>4607111036797</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="G39" s="1"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="11" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="D40" s="4">
         <v>4301132066</v>
@@ -2556,19 +2562,19 @@
         <v>4607111036520</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="G40" s="1"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="11" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="D41" s="4">
         <v>4301132066</v>
@@ -2577,19 +2583,19 @@
         <v>4607111036520</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="G41" s="1"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="11" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="D42" s="4">
         <v>4301132065</v>
@@ -2598,19 +2604,19 @@
         <v>4607111036599</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="G42" s="1"/>
     </row>
     <row r="43" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A43" s="11" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="D43" s="4">
         <v>4301132063</v>
@@ -2619,13 +2625,13 @@
         <v>4607111036605</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="G43" s="1"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="11" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>102</v>
@@ -2772,13 +2778,13 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="11" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="D51" s="4">
         <v>4301135134</v>
@@ -2787,13 +2793,13 @@
         <v>4607111035806</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="G51" s="1"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="11" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="B52" s="3" t="s">
         <v>183</v>
@@ -2814,13 +2820,13 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="11" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="D53" s="4">
         <v>4301070865</v>
@@ -2829,181 +2835,181 @@
         <v>4607111036285</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="G53" s="1"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="11" t="s">
-        <v>266</v>
+        <v>192</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>196</v>
+        <v>397</v>
       </c>
       <c r="D54" s="4">
-        <v>4301070928</v>
+        <v>4301070970</v>
       </c>
       <c r="E54" s="3">
         <v>4607111037091</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="G54" s="1"/>
+        <v>398</v>
+      </c>
+      <c r="G54" s="6"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="11" t="s">
-        <v>267</v>
+        <v>190</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>121</v>
+        <v>191</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>385</v>
+        <v>397</v>
       </c>
       <c r="D55" s="4">
-        <v>4301070975</v>
+        <v>4301070970</v>
       </c>
       <c r="E55" s="3">
-        <v>4607111033970</v>
+        <v>4607111037091</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>386</v>
-      </c>
-      <c r="G55" s="1"/>
+        <v>398</v>
+      </c>
+      <c r="G55" s="6"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="11" t="s">
-        <v>268</v>
+        <v>382</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>124</v>
+        <v>191</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>387</v>
+        <v>399</v>
       </c>
       <c r="D56" s="4">
-        <v>4301070973</v>
+        <v>4301070928</v>
       </c>
       <c r="E56" s="3">
-        <v>4607111033987</v>
+        <v>4607111037091</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>388</v>
+        <v>192</v>
       </c>
       <c r="G56" s="1"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="11" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>300</v>
+        <v>191</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>301</v>
+        <v>397</v>
       </c>
       <c r="D57" s="4">
-        <v>4301070861</v>
+        <v>4301070970</v>
       </c>
       <c r="E57" s="3">
-        <v>4607111036308</v>
+        <v>4607111037091</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>302</v>
+        <v>398</v>
       </c>
       <c r="G57" s="1"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="11" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>115</v>
+        <v>377</v>
       </c>
       <c r="D58" s="4">
-        <v>4301070864</v>
+        <v>4301070975</v>
       </c>
       <c r="E58" s="3">
-        <v>4607111036292</v>
+        <v>4607111033970</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>116</v>
+        <v>378</v>
       </c>
       <c r="G58" s="1"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="11" t="s">
-        <v>271</v>
+        <v>87</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>187</v>
+        <v>124</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>188</v>
+        <v>379</v>
       </c>
       <c r="D59" s="4">
-        <v>4301070929</v>
+        <v>4301070973</v>
       </c>
       <c r="E59" s="3">
-        <v>4607111037183</v>
+        <v>4607111033987</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>189</v>
-      </c>
-      <c r="G59" s="1"/>
+        <v>380</v>
+      </c>
+      <c r="G59" s="6"/>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="11" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>364</v>
+        <v>379</v>
       </c>
       <c r="D60" s="4">
-        <v>4301070976</v>
+        <v>4301070973</v>
       </c>
       <c r="E60" s="3">
-        <v>4607111034144</v>
+        <v>4607111033987</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>365</v>
+        <v>380</v>
       </c>
       <c r="G60" s="1"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="11" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>123</v>
+        <v>295</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>380</v>
+        <v>296</v>
       </c>
       <c r="D61" s="4">
-        <v>4301070974</v>
+        <v>4301070861</v>
       </c>
       <c r="E61" s="3">
-        <v>4607111034151</v>
+        <v>4607111036308</v>
       </c>
       <c r="F61" s="5" t="s">
-        <v>381</v>
+        <v>297</v>
       </c>
       <c r="G61" s="1"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="11" t="s">
-        <v>81</v>
+        <v>265</v>
       </c>
       <c r="B62" s="3" t="s">
         <v>114</v>
@@ -3024,181 +3030,181 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="11" t="s">
-        <v>182</v>
+        <v>266</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>184</v>
+        <v>393</v>
       </c>
       <c r="D63" s="4">
-        <v>4301070935</v>
+        <v>4301070972</v>
       </c>
       <c r="E63" s="3">
-        <v>4607111037190</v>
+        <v>4607111037183</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>185</v>
+        <v>394</v>
       </c>
       <c r="G63" s="1"/>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="11" t="s">
-        <v>186</v>
+        <v>267</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>187</v>
+        <v>120</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>188</v>
+        <v>356</v>
       </c>
       <c r="D64" s="4">
-        <v>4301070929</v>
+        <v>4301070976</v>
       </c>
       <c r="E64" s="3">
-        <v>4607111037183</v>
+        <v>4607111034144</v>
       </c>
       <c r="F64" s="5" t="s">
-        <v>189</v>
+        <v>357</v>
       </c>
       <c r="G64" s="1"/>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="11" t="s">
-        <v>190</v>
+        <v>268</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>191</v>
+        <v>123</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>192</v>
+        <v>372</v>
       </c>
       <c r="D65" s="4">
-        <v>4301070938</v>
+        <v>4301070974</v>
       </c>
       <c r="E65" s="3">
-        <v>4607111036858</v>
+        <v>4607111034151</v>
       </c>
       <c r="F65" s="5" t="s">
-        <v>193</v>
+        <v>373</v>
       </c>
       <c r="G65" s="1"/>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D66" s="4">
-        <v>4301070909</v>
+        <v>4301070864</v>
       </c>
       <c r="E66" s="3">
-        <v>4607111036889</v>
+        <v>4607111036292</v>
       </c>
       <c r="F66" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="G66" s="6"/>
+        <v>116</v>
+      </c>
+      <c r="G66" s="1"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="11" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="D67" s="4">
-        <v>4301070928</v>
+        <v>4301070935</v>
       </c>
       <c r="E67" s="3">
-        <v>4607111037091</v>
+        <v>4607111037190</v>
       </c>
       <c r="F67" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="G67" s="6"/>
+        <v>185</v>
+      </c>
+      <c r="G67" s="1"/>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="11" t="s">
-        <v>390</v>
+        <v>186</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>124</v>
+        <v>187</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="D68" s="4">
-        <v>4301070973</v>
+        <v>4301070972</v>
       </c>
       <c r="E68" s="3">
-        <v>4607111033987</v>
+        <v>4607111037183</v>
       </c>
       <c r="F68" s="5" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="G68" s="1"/>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="11" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>196</v>
+        <v>395</v>
       </c>
       <c r="D69" s="4">
-        <v>4301070928</v>
+        <v>4301070969</v>
       </c>
       <c r="E69" s="3">
-        <v>4607111037091</v>
+        <v>4607111036858</v>
       </c>
       <c r="F69" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="G69" s="6"/>
+        <v>396</v>
+      </c>
+      <c r="G69" s="1"/>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="11" t="s">
-        <v>201</v>
+        <v>82</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>199</v>
+        <v>117</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>200</v>
+        <v>118</v>
       </c>
       <c r="D70" s="4">
-        <v>4301070944</v>
+        <v>4301070909</v>
       </c>
       <c r="E70" s="3">
-        <v>4607111036902</v>
+        <v>4607111036889</v>
       </c>
       <c r="F70" s="5" t="s">
-        <v>201</v>
+        <v>119</v>
       </c>
       <c r="G70" s="6"/>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="11" t="s">
-        <v>389</v>
+        <v>196</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="D71" s="4">
         <v>4301070944</v>
@@ -3207,19 +3213,19 @@
         <v>4607111036902</v>
       </c>
       <c r="F71" s="5" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="G71" s="6"/>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="11" t="s">
-        <v>198</v>
+        <v>381</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="D72" s="4">
         <v>4301070944</v>
@@ -3228,40 +3234,40 @@
         <v>4607111036902</v>
       </c>
       <c r="F72" s="5" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="G72" s="6"/>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="11" t="s">
-        <v>311</v>
+        <v>193</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>120</v>
+        <v>194</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>364</v>
+        <v>195</v>
       </c>
       <c r="D73" s="4">
-        <v>4301070976</v>
+        <v>4301070944</v>
       </c>
       <c r="E73" s="3">
-        <v>4607111034144</v>
+        <v>4607111036902</v>
       </c>
       <c r="F73" s="5" t="s">
-        <v>365</v>
+        <v>196</v>
       </c>
       <c r="G73" s="6"/>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="11" t="s">
-        <v>83</v>
+        <v>306</v>
       </c>
       <c r="B74" s="3" t="s">
         <v>120</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="D74" s="4">
         <v>4301070976</v>
@@ -3270,40 +3276,40 @@
         <v>4607111034144</v>
       </c>
       <c r="F74" s="5" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="G74" s="6"/>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="11" t="s">
-        <v>310</v>
+        <v>83</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>385</v>
+        <v>356</v>
       </c>
       <c r="D75" s="4">
-        <v>4301070975</v>
+        <v>4301070976</v>
       </c>
       <c r="E75" s="3">
-        <v>4607111033970</v>
+        <v>4607111034144</v>
       </c>
       <c r="F75" s="5" t="s">
-        <v>386</v>
+        <v>357</v>
       </c>
       <c r="G75" s="6"/>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="11" t="s">
-        <v>84</v>
+        <v>305</v>
       </c>
       <c r="B76" s="3" t="s">
         <v>121</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="D76" s="4">
         <v>4301070975</v>
@@ -3312,82 +3318,82 @@
         <v>4607111033970</v>
       </c>
       <c r="F76" s="5" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="G76" s="6"/>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>366</v>
+        <v>377</v>
       </c>
       <c r="D77" s="4">
-        <v>4301070981</v>
+        <v>4301070975</v>
       </c>
       <c r="E77" s="3">
-        <v>4607111036728</v>
+        <v>4607111033970</v>
       </c>
       <c r="F77" s="5" t="s">
-        <v>367</v>
+        <v>378</v>
       </c>
       <c r="G77" s="6"/>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>380</v>
+        <v>358</v>
       </c>
       <c r="D78" s="4">
-        <v>4301070974</v>
+        <v>4301070981</v>
       </c>
       <c r="E78" s="3">
-        <v>4607111034151</v>
+        <v>4607111036728</v>
       </c>
       <c r="F78" s="5" t="s">
-        <v>381</v>
+        <v>359</v>
       </c>
       <c r="G78" s="6"/>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>387</v>
+        <v>372</v>
       </c>
       <c r="D79" s="4">
-        <v>4301070973</v>
+        <v>4301070974</v>
       </c>
       <c r="E79" s="3">
-        <v>4607111033987</v>
+        <v>4607111034151</v>
       </c>
       <c r="F79" s="5" t="s">
-        <v>388</v>
+        <v>373</v>
       </c>
       <c r="G79" s="6"/>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="11" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="D80" s="4">
         <v>4301071010</v>
@@ -3396,19 +3402,19 @@
         <v>4607111037701</v>
       </c>
       <c r="F80" s="5" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="G80" s="6"/>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="11" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="D81" s="4">
         <v>4301070870</v>
@@ -3417,19 +3423,19 @@
         <v>4607111036711</v>
       </c>
       <c r="F81" s="5" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="G81" s="6"/>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="11" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="D82" s="4">
         <v>4301070948</v>
@@ -3438,19 +3444,19 @@
         <v>4607111037022</v>
       </c>
       <c r="F82" s="5" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="G82" s="6"/>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="11" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="D83" s="4">
         <v>4301070948</v>
@@ -3459,19 +3465,19 @@
         <v>4607111037022</v>
       </c>
       <c r="F83" s="5" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="G83" s="6"/>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="11" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="D84" s="4">
         <v>4301070948</v>
@@ -3480,7 +3486,7 @@
         <v>4607111037022</v>
       </c>
       <c r="F84" s="5" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="G84" s="6"/>
     </row>
@@ -3507,13 +3513,13 @@
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="11" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="D86" s="4">
         <v>4301070921</v>
@@ -3522,19 +3528,19 @@
         <v>4607111035905</v>
       </c>
       <c r="F86" s="5" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="G86" s="6"/>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="11" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="D87" s="4">
         <v>4301070921</v>
@@ -3543,19 +3549,19 @@
         <v>4607111035905</v>
       </c>
       <c r="F87" s="5" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="G87" s="6"/>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="11" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="D88" s="4">
         <v>4301070917</v>
@@ -3564,19 +3570,19 @@
         <v>4607111035912</v>
       </c>
       <c r="F88" s="5" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="G88" s="6"/>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="11" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="D89" s="4">
         <v>4301070917</v>
@@ -3585,19 +3591,19 @@
         <v>4607111035912</v>
       </c>
       <c r="F89" s="5" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="G89" s="6"/>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="11" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="D90" s="4">
         <v>4301070917</v>
@@ -3606,13 +3612,13 @@
         <v>4607111035912</v>
       </c>
       <c r="F90" s="5" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="G90" s="6"/>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="11" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="B91" s="3" t="s">
         <v>128</v>
@@ -3675,13 +3681,13 @@
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="11" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="D94" s="4">
         <v>4301070873</v>
@@ -3690,19 +3696,19 @@
         <v>4607111035080</v>
       </c>
       <c r="F94" s="5" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="G94" s="6"/>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="11" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="D95" s="4">
         <v>4301070873</v>
@@ -3711,19 +3717,19 @@
         <v>4607111035080</v>
       </c>
       <c r="F95" s="5" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="G95" s="6"/>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="11" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="D96" s="4">
         <v>4301135161</v>
@@ -3732,19 +3738,19 @@
         <v>4607111037305</v>
       </c>
       <c r="F96" s="5" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="G96" s="6"/>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="11" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="D97" s="4">
         <v>4301135161</v>
@@ -3753,19 +3759,19 @@
         <v>4607111037305</v>
       </c>
       <c r="F97" s="5" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="G97" s="6"/>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="11" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="D98" s="4">
         <v>4301070858</v>
@@ -3774,7 +3780,7 @@
         <v>4607111036193</v>
       </c>
       <c r="F98" s="5" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="G98" s="6"/>
     </row>
@@ -3804,10 +3810,10 @@
         <v>150</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="D100" s="4">
         <v>4301131012</v>
@@ -3843,13 +3849,13 @@
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="11" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="D102" s="4">
         <v>4301131018</v>
@@ -3858,19 +3864,19 @@
         <v>4607111037930</v>
       </c>
       <c r="F102" s="5" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="G102" s="6"/>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="11" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="D103" s="4">
         <v>4301131018</v>
@@ -3879,13 +3885,13 @@
         <v>4607111037930</v>
       </c>
       <c r="F103" s="5" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="G103" s="6"/>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="11" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="B104" s="3" t="s">
         <v>161</v>
@@ -3927,7 +3933,7 @@
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="11" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="B106" s="3" t="s">
         <v>164</v>
@@ -3969,13 +3975,13 @@
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="11" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="D108" s="4">
         <v>4301135053</v>
@@ -3984,19 +3990,19 @@
         <v>4607111036407</v>
       </c>
       <c r="F108" s="5" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="G108" s="1"/>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="11" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="B109" s="3" t="s">
         <v>137</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="D109" s="4">
         <v>4301135162</v>
@@ -4005,13 +4011,13 @@
         <v>4607111034014</v>
       </c>
       <c r="F109" s="5" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="G109" s="1"/>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="11" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="B110" s="3" t="s">
         <v>139</v>
@@ -4038,7 +4044,7 @@
         <v>137</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="D111" s="4">
         <v>4301135162</v>
@@ -4074,13 +4080,13 @@
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="11" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="D113" s="4">
         <v>4301136008</v>
@@ -4089,7 +4095,7 @@
         <v>4607111036438</v>
       </c>
       <c r="F113" s="5" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="G113" s="1"/>
     </row>
@@ -4098,10 +4104,10 @@
         <v>154</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="D114" s="4">
         <v>4301136008</v>
@@ -4110,7 +4116,7 @@
         <v>4607111036438</v>
       </c>
       <c r="F114" s="5" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="G114" s="1"/>
     </row>
@@ -4119,10 +4125,10 @@
         <v>95</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="D115" s="4">
         <v>4301136001</v>
@@ -4131,13 +4137,13 @@
         <v>4607111035714</v>
       </c>
       <c r="F115" s="5" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="G115" s="1"/>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="11" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="B116" s="3" t="s">
         <v>145</v>
@@ -4158,7 +4164,7 @@
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="11" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="B117" s="3" t="s">
         <v>145</v>
@@ -4179,13 +4185,13 @@
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="11" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="D118" s="4">
         <v>4301070915</v>
@@ -4194,19 +4200,19 @@
         <v>4607111035882</v>
       </c>
       <c r="F118" s="5" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="G118" s="1"/>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="11" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="D119" s="4">
         <v>4301070915</v>
@@ -4215,19 +4221,19 @@
         <v>4607111035882</v>
       </c>
       <c r="F119" s="5" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="G119" s="1"/>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="11" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="D120" s="4">
         <v>4301070874</v>
@@ -4236,19 +4242,19 @@
         <v>4607111035332</v>
       </c>
       <c r="F120" s="5" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="G120" s="1"/>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="11" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="D121" s="4">
         <v>4301136014</v>
@@ -4257,19 +4263,19 @@
         <v>4607111035370</v>
       </c>
       <c r="F121" s="5" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="G121" s="1"/>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="11" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="D122" s="4">
         <v>4301136014</v>
@@ -4278,19 +4284,19 @@
         <v>4607111035370</v>
       </c>
       <c r="F122" s="5" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="G122" s="1"/>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" s="11" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="D123" s="4">
         <v>4301051320</v>
@@ -4299,19 +4305,19 @@
         <v>4680115881334</v>
       </c>
       <c r="F123" s="5" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="G123" s="1"/>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" s="11" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="D124" s="4">
         <v>4301051320</v>
@@ -4320,19 +4326,19 @@
         <v>4680115881334</v>
       </c>
       <c r="F124" s="5" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="G124" s="1"/>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="11" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="D125" s="4">
         <v>4301051320</v>
@@ -4341,19 +4347,19 @@
         <v>4680115881334</v>
       </c>
       <c r="F125" s="5" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="G125" s="1"/>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" s="11" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="D126" s="4">
         <v>4301051319</v>
@@ -4362,19 +4368,19 @@
         <v>4680115881204</v>
       </c>
       <c r="F126" s="5" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="G126" s="1"/>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" s="11" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="D127" s="4">
         <v>4301136007</v>
@@ -4383,7 +4389,7 @@
         <v>4607111036636</v>
       </c>
       <c r="F127" s="5" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="G127" s="1"/>
     </row>
@@ -5407,7 +5413,7 @@
   </sheetData>
   <autoFilter ref="A1:F127" xr:uid="{08353A06-E006-45C7-BD45-850F7C3953DF}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F117">
-      <sortCondition ref="A1:A77"/>
+      <sortCondition ref="A1:A78"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/moduls/1С.xlsx
+++ b/moduls/1С.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\перенос данных\ПОКОМ ЗПФ\pokom_zpf\moduls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{073389BB-D838-4623-A549-6B7FBE0AE2D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AB1CC0B-F5EA-4415-BFB4-B89092A90AC3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$F$127</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$F$128</definedName>
   </definedNames>
   <calcPr calcId="181029" refMode="R1C1"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="400">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="400">
   <si>
     <t>1С</t>
   </si>
@@ -370,15 +370,6 @@
     <t>Наггетсы С индейкой Наггетсы Фикс.вес 0,25 Лоток Вязанка</t>
   </si>
   <si>
-    <t>SU002644</t>
-  </si>
-  <si>
-    <t>P003016</t>
-  </si>
-  <si>
-    <t>Наггетсы Хрустящие No Name Весовые No Name 6 кг ТОП-ЛКК, дистр</t>
-  </si>
-  <si>
     <t>SU002345</t>
   </si>
   <si>
@@ -1027,15 +1018,6 @@
     <t>Жар-ладушки с клубникой и вишней. Изделия хлебобулочные жареные с начинкой замороженные</t>
   </si>
   <si>
-    <t>SU002772</t>
-  </si>
-  <si>
-    <t>P003159</t>
-  </si>
-  <si>
-    <t>Жар-боллы с курочкой и сыром No Name ПГП Весовой No Name</t>
-  </si>
-  <si>
     <t>SU002567</t>
   </si>
   <si>
@@ -1060,51 +1042,6 @@
     <t>Чебуречище горячая штучка 0,14кг Поком</t>
   </si>
   <si>
-    <t>SU002953</t>
-  </si>
-  <si>
-    <t>P003377</t>
-  </si>
-  <si>
-    <t>«Жар-ладушки с клубникой и вишней» Весовые ТМ «No name»</t>
-  </si>
-  <si>
-    <t>SU002494</t>
-  </si>
-  <si>
-    <t>P002789</t>
-  </si>
-  <si>
-    <t>Жар-ладушки с мясом, картофелем и грибами No name ПГП Весовые No name 3,7 кг</t>
-  </si>
-  <si>
-    <t>SU002441</t>
-  </si>
-  <si>
-    <t>P002732</t>
-  </si>
-  <si>
-    <t>Жар-ладушки с мясом No name ПГП Весовые No name  3,7 кг</t>
-  </si>
-  <si>
-    <t>SU002484</t>
-  </si>
-  <si>
-    <t>P002778</t>
-  </si>
-  <si>
-    <t>Жар-ладушки с яблоком и грушей No name ПГП Весовые No name 3,7 кг</t>
-  </si>
-  <si>
-    <t>SU002442</t>
-  </si>
-  <si>
-    <t>P002970</t>
-  </si>
-  <si>
-    <t>Мини-сосиски в тесте Фрайпики No name Весовые No name 3,7 кг</t>
-  </si>
-  <si>
     <t>P003686</t>
   </si>
   <si>
@@ -1117,15 +1054,6 @@
     <t>Пельмени «Бульмени с говядиной и свининой Наваристые» Весовые Сфера ТМ «Горячая штучка» 5 кг</t>
   </si>
   <si>
-    <t>SU002046</t>
-  </si>
-  <si>
-    <t>P002167</t>
-  </si>
-  <si>
-    <t>Снеки Жар-мени No Name Весовые No name 5,5 кг дистр</t>
-  </si>
-  <si>
     <t>SU002975</t>
   </si>
   <si>
@@ -1135,39 +1063,12 @@
     <t>Крылья «Хрустящие крылышки» Весовой ТМ «No Name»</t>
   </si>
   <si>
-    <t>SU002406</t>
-  </si>
-  <si>
-    <t>P002685</t>
-  </si>
-  <si>
-    <t>Чебуреки Мясные No name Весовые No name 2,7 кг</t>
-  </si>
-  <si>
-    <t>SU002045</t>
-  </si>
-  <si>
-    <t>P002166</t>
-  </si>
-  <si>
-    <t>Чебуреки Чебуреки Сочные No Name Весовые No name 5 кг дистр</t>
-  </si>
-  <si>
     <t>P003684</t>
   </si>
   <si>
     <t>Пельмени «Бульмени со сливочным маслом» 0,9 Сфера ТМ «Горячая штучка»</t>
   </si>
   <si>
-    <t>SU002794</t>
-  </si>
-  <si>
-    <t>P003192</t>
-  </si>
-  <si>
-    <t>Снеки «Фрай-пицца с ветчиной и грибами» Весовые ТМ «No name» 3 кг</t>
-  </si>
-  <si>
     <t>P003685</t>
   </si>
   <si>
@@ -1198,24 +1099,6 @@
     <t>Чебуреки с мясом, грибами и картофелем. ВЕС  ПОКОМ</t>
   </si>
   <si>
-    <t>SU002407</t>
-  </si>
-  <si>
-    <t>P002684</t>
-  </si>
-  <si>
-    <t>Чебуреки с мясом, грибами и картофелем No name Весовые No name 2,7 кг</t>
-  </si>
-  <si>
-    <t>SU002405</t>
-  </si>
-  <si>
-    <t>P002964</t>
-  </si>
-  <si>
-    <t>Снеки Жар-мени с картофелем и сочной грудинкой No name Весовые No name 3,5 кг</t>
-  </si>
-  <si>
     <t>P003682</t>
   </si>
   <si>
@@ -1234,7 +1117,124 @@
     <t>Пельмени «Бигбули #МЕГАМАСЛИЩЕ со сливочным маслом» 0,43 сфера ТМ «Горячая штучка»</t>
   </si>
   <si>
-    <t>P003081</t>
+    <t>SU003023</t>
+  </si>
+  <si>
+    <t>P003490</t>
+  </si>
+  <si>
+    <t>Снеки «Жар-ладушки с клубникой и вишней» Весовые ТМ «Зареченские» 3,7 кг</t>
+  </si>
+  <si>
+    <t>SU003016</t>
+  </si>
+  <si>
+    <t>P003482</t>
+  </si>
+  <si>
+    <t>Снеки «Жар-ладушки с мясом, картофелем и грибами» Весовые ТМ «Зареченские» 3,7 кг</t>
+  </si>
+  <si>
+    <t>SU003015</t>
+  </si>
+  <si>
+    <t>P003481</t>
+  </si>
+  <si>
+    <t>Снеки «Жар-ладушки с мясом» Весовые ТМ «Зареченские» 3,7 кг</t>
+  </si>
+  <si>
+    <t>SU003014</t>
+  </si>
+  <si>
+    <t>P003480</t>
+  </si>
+  <si>
+    <t>Снеки «Жар-мени с картофелем и сочной грудинкой» Весовые ТМ «Зареченские» 3,5 кг</t>
+  </si>
+  <si>
+    <t>SU003019</t>
+  </si>
+  <si>
+    <t>P003485</t>
+  </si>
+  <si>
+    <t>Снеки «Мини-сосиски в тесте Фрайпики» Весовые ТМ «Зареченские» 3,7 кг</t>
+  </si>
+  <si>
+    <t>SU003020</t>
+  </si>
+  <si>
+    <t>P003486</t>
+  </si>
+  <si>
+    <t>Наггетсы «Хрустящие» Весовые ТМ «Зареченские» 6 кг</t>
+  </si>
+  <si>
+    <t>SU003013</t>
+  </si>
+  <si>
+    <t>P003479</t>
+  </si>
+  <si>
+    <t>Снеки «Жар-мени» Весовые ТМ «Зареченские» 5,5 кг</t>
+  </si>
+  <si>
+    <t>SU003021</t>
+  </si>
+  <si>
+    <t>P003489</t>
+  </si>
+  <si>
+    <t>Снеки «Фрай-пицца с ветчиной и грибами» Весовые ТМ «Зареченские» 3 кг</t>
+  </si>
+  <si>
+    <t>SU003012</t>
+  </si>
+  <si>
+    <t>P003478</t>
+  </si>
+  <si>
+    <t>Чебуреки «Мясные» Весовые ТМ «Зареченские» 2,7 кг</t>
+  </si>
+  <si>
+    <t>SU003010</t>
+  </si>
+  <si>
+    <t>P003476</t>
+  </si>
+  <si>
+    <t>Чебуреки «Сочные» Весовые ТМ «Зареченские» 5 кг</t>
+  </si>
+  <si>
+    <t>SU003017</t>
+  </si>
+  <si>
+    <t>P003483</t>
+  </si>
+  <si>
+    <t>Снеки «Жар-ладушки с яблоком и грушей» Весовые ТМ «Зареченские» 3,7 кг</t>
+  </si>
+  <si>
+    <t>SU003011</t>
+  </si>
+  <si>
+    <t>P003477</t>
+  </si>
+  <si>
+    <t>Чебуреки «с мясом, грибами и картофелем» Весовые ТМ «Зареченские» 2,7 кг</t>
+  </si>
+  <si>
+    <t>SU003018</t>
+  </si>
+  <si>
+    <t>P003484</t>
+  </si>
+  <si>
+    <t>Снеки «Жар-боллы с курочкой и сыром» Весовой ТМ «Зареченские» 3 кг</t>
+  </si>
+  <si>
+    <t>Пельмени отборные  с говядиной и свининой 0,43кг ушко  Поком</t>
   </si>
 </sst>
 </file>
@@ -1709,11 +1709,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G240"/>
+  <dimension ref="A1:G241"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G7" sqref="G7"/>
+      <selection pane="bottomLeft" activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1749,13 +1749,13 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D2" s="4">
         <v>4301080153</v>
@@ -1764,19 +1764,19 @@
         <v>4607111036827</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="D3" s="4">
         <v>4301135113</v>
@@ -1785,19 +1785,19 @@
         <v>4607111033659</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D4" s="4">
         <v>4301135112</v>
@@ -1806,19 +1806,19 @@
         <v>4607111034199</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="G4" s="1"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D5" s="4">
         <v>4301135122</v>
@@ -1827,13 +1827,13 @@
         <v>4607111033628</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="G5" s="1"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>96</v>
@@ -1854,13 +1854,13 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D7" s="4">
         <v>4301135120</v>
@@ -1869,13 +1869,13 @@
         <v>4607111035141</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="G7" s="1"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>99</v>
@@ -1896,13 +1896,13 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D9" s="4">
         <v>4301135122</v>
@@ -1911,19 +1911,19 @@
         <v>4607111033628</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="G9" s="1"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D10" s="4">
         <v>4301135122</v>
@@ -1932,7 +1932,7 @@
         <v>4607111033628</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="G10" s="1"/>
     </row>
@@ -1980,13 +1980,13 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D13" s="4">
         <v>4301136013</v>
@@ -1995,19 +1995,19 @@
         <v>4607025784012</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="G13" s="1"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="D14" s="4">
         <v>4301136012</v>
@@ -2016,19 +2016,19 @@
         <v>4607025784319</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="G14" s="1"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D15" s="4">
         <v>4301136013</v>
@@ -2037,19 +2037,19 @@
         <v>4607025784012</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="G15" s="1"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D16" s="4">
         <v>4301136013</v>
@@ -2058,19 +2058,19 @@
         <v>4607025784012</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="G16" s="1"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D17" s="4">
         <v>4301136025</v>
@@ -2079,175 +2079,175 @@
         <v>4607111038029</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="G17" s="1"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>330</v>
+        <v>396</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>331</v>
+        <v>397</v>
       </c>
       <c r="D18" s="4">
-        <v>4301135156</v>
+        <v>4301135191</v>
       </c>
       <c r="E18" s="3">
-        <v>4607111037275</v>
+        <v>4640242180373</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>332</v>
+        <v>398</v>
       </c>
       <c r="G18" s="1"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>330</v>
+        <v>396</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>331</v>
+        <v>397</v>
       </c>
       <c r="D19" s="4">
-        <v>4301135156</v>
+        <v>4301135191</v>
       </c>
       <c r="E19" s="3">
-        <v>4607111037275</v>
+        <v>4640242180373</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>332</v>
+        <v>398</v>
       </c>
       <c r="G19" s="1"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>341</v>
+        <v>360</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>342</v>
+        <v>361</v>
       </c>
       <c r="D20" s="4">
-        <v>4301135179</v>
+        <v>4301135195</v>
       </c>
       <c r="E20" s="3">
-        <v>4607111037923</v>
+        <v>4640242180366</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>343</v>
+        <v>362</v>
       </c>
       <c r="G20" s="1"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>341</v>
+        <v>360</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>342</v>
+        <v>361</v>
       </c>
       <c r="D21" s="4">
-        <v>4301135179</v>
+        <v>4301135195</v>
       </c>
       <c r="E21" s="3">
-        <v>4607111037923</v>
+        <v>4640242180366</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>343</v>
+        <v>362</v>
       </c>
       <c r="G21" s="1"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>344</v>
+        <v>363</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>345</v>
+        <v>364</v>
       </c>
       <c r="D22" s="4">
-        <v>4301135097</v>
+        <v>4301135189</v>
       </c>
       <c r="E22" s="3">
-        <v>4607111037206</v>
+        <v>4640242180342</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>346</v>
+        <v>365</v>
       </c>
       <c r="G22" s="1"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>347</v>
+        <v>366</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>348</v>
+        <v>367</v>
       </c>
       <c r="D23" s="4">
-        <v>4301135085</v>
+        <v>4301135188</v>
       </c>
       <c r="E23" s="3">
-        <v>4607111037220</v>
+        <v>4640242180335</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>349</v>
+        <v>368</v>
       </c>
       <c r="G23" s="1"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="11" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>350</v>
+        <v>390</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>351</v>
+        <v>391</v>
       </c>
       <c r="D24" s="4">
-        <v>4301135091</v>
+        <v>4301135190</v>
       </c>
       <c r="E24" s="3">
-        <v>4607111037244</v>
+        <v>4640242180359</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>352</v>
+        <v>392</v>
       </c>
       <c r="G24" s="1"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="11" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>350</v>
+        <v>390</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>351</v>
+        <v>391</v>
       </c>
       <c r="D25" s="4">
-        <v>4301135091</v>
+        <v>4301135190</v>
       </c>
       <c r="E25" s="3">
-        <v>4607111037244</v>
+        <v>4640242180359</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>352</v>
+        <v>392</v>
       </c>
       <c r="G25" s="1"/>
     </row>
@@ -2256,94 +2256,94 @@
         <v>91</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>360</v>
+        <v>378</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>361</v>
+        <v>379</v>
       </c>
       <c r="D26" s="4">
-        <v>4301135004</v>
+        <v>4301135186</v>
       </c>
       <c r="E26" s="3">
-        <v>4607111035707</v>
+        <v>4640242180311</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>362</v>
+        <v>380</v>
       </c>
       <c r="G26" s="6"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="11" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>360</v>
+        <v>378</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>361</v>
+        <v>379</v>
       </c>
       <c r="D27" s="4">
-        <v>4301135004</v>
+        <v>4301135186</v>
       </c>
       <c r="E27" s="3">
-        <v>4607111035707</v>
+        <v>4640242180311</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>362</v>
+        <v>380</v>
       </c>
       <c r="G27" s="1"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="11" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>390</v>
+        <v>369</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>391</v>
+        <v>370</v>
       </c>
       <c r="D28" s="4">
-        <v>4301135129</v>
+        <v>4301135187</v>
       </c>
       <c r="E28" s="3">
-        <v>4607111036841</v>
+        <v>4640242180328</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>392</v>
+        <v>371</v>
       </c>
       <c r="G28" s="1"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="11" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>390</v>
+        <v>369</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>391</v>
+        <v>370</v>
       </c>
       <c r="D29" s="4">
-        <v>4301135129</v>
+        <v>4301135187</v>
       </c>
       <c r="E29" s="3">
-        <v>4607111036841</v>
+        <v>4640242180328</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>392</v>
+        <v>371</v>
       </c>
       <c r="G29" s="1"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="11" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="D30" s="4">
         <v>4301135115</v>
@@ -2352,19 +2352,19 @@
         <v>4607111034380</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="G30" s="1"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="11" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="D31" s="4">
         <v>4301135115</v>
@@ -2373,19 +2373,19 @@
         <v>4607111034380</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="G31" s="1"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="11" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="D32" s="4">
         <v>4301135114</v>
@@ -2394,19 +2394,19 @@
         <v>4607111034397</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="G32" s="1"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="11" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="D33" s="4">
         <v>4301135114</v>
@@ -2415,7 +2415,7 @@
         <v>4607111034397</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="G33" s="1"/>
     </row>
@@ -2424,10 +2424,10 @@
         <v>75</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="D34" s="4">
         <v>4301135114</v>
@@ -2436,19 +2436,19 @@
         <v>4607111034397</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="G34" s="1"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="11" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D35" s="4">
         <v>4301131016</v>
@@ -2457,19 +2457,19 @@
         <v>4607111034137</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="G35" s="1"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="11" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D36" s="4">
         <v>4301131011</v>
@@ -2478,49 +2478,49 @@
         <v>4607111034120</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="G36" s="1"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="11" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>353</v>
+        <v>372</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>354</v>
+        <v>373</v>
       </c>
       <c r="D37" s="4">
-        <v>4301135128</v>
+        <v>4301135192</v>
       </c>
       <c r="E37" s="3">
-        <v>4607111036797</v>
+        <v>4640242180380</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>355</v>
+        <v>374</v>
       </c>
       <c r="G37" s="1"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="11" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>353</v>
+        <v>372</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>354</v>
+        <v>373</v>
       </c>
       <c r="D38" s="4">
-        <v>4301135128</v>
+        <v>4301135192</v>
       </c>
       <c r="E38" s="3">
-        <v>4607111036797</v>
+        <v>4640242180380</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>355</v>
+        <v>374</v>
       </c>
       <c r="G38" s="1"/>
     </row>
@@ -2529,31 +2529,31 @@
         <v>76</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>353</v>
+        <v>372</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>354</v>
+        <v>373</v>
       </c>
       <c r="D39" s="4">
-        <v>4301135128</v>
+        <v>4301135192</v>
       </c>
       <c r="E39" s="3">
-        <v>4607111036797</v>
+        <v>4640242180380</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>355</v>
+        <v>374</v>
       </c>
       <c r="G39" s="1"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="11" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="D40" s="4">
         <v>4301132066</v>
@@ -2562,19 +2562,19 @@
         <v>4607111036520</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="G40" s="1"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="11" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="D41" s="4">
         <v>4301132066</v>
@@ -2583,19 +2583,19 @@
         <v>4607111036520</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="G41" s="1"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="11" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="D42" s="4">
         <v>4301132065</v>
@@ -2604,19 +2604,19 @@
         <v>4607111036599</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="G42" s="1"/>
     </row>
     <row r="43" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A43" s="11" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="D43" s="4">
         <v>4301132063</v>
@@ -2625,13 +2625,13 @@
         <v>4607111036605</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="G43" s="1"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="11" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>102</v>
@@ -2760,31 +2760,31 @@
         <v>80</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>111</v>
+        <v>375</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>112</v>
+        <v>376</v>
       </c>
       <c r="D50" s="4">
-        <v>4301132052</v>
+        <v>4301132080</v>
       </c>
       <c r="E50" s="3">
-        <v>4607111036872</v>
+        <v>4640242180397</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>113</v>
+        <v>377</v>
       </c>
       <c r="G50" s="1"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="11" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="D51" s="4">
         <v>4301135134</v>
@@ -2793,19 +2793,19 @@
         <v>4607111035806</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="G51" s="1"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="11" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D52" s="4">
         <v>4301070935</v>
@@ -2814,19 +2814,19 @@
         <v>4607111037190</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="G52" s="1"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="11" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="D53" s="4">
         <v>4301070865</v>
@@ -2835,19 +2835,19 @@
         <v>4607111036285</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="G53" s="1"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="11" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>397</v>
+        <v>358</v>
       </c>
       <c r="D54" s="4">
         <v>4301070970</v>
@@ -2856,19 +2856,19 @@
         <v>4607111037091</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>398</v>
+        <v>359</v>
       </c>
       <c r="G54" s="6"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="11" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>397</v>
+        <v>358</v>
       </c>
       <c r="D55" s="4">
         <v>4301070970</v>
@@ -2877,40 +2877,40 @@
         <v>4607111037091</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>398</v>
+        <v>359</v>
       </c>
       <c r="G55" s="6"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="11" t="s">
-        <v>382</v>
+        <v>349</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>399</v>
+        <v>358</v>
       </c>
       <c r="D56" s="4">
-        <v>4301070928</v>
+        <v>4301070970</v>
       </c>
       <c r="E56" s="3">
         <v>4607111037091</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>192</v>
+        <v>359</v>
       </c>
       <c r="G56" s="1"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="11" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>397</v>
+        <v>358</v>
       </c>
       <c r="D57" s="4">
         <v>4301070970</v>
@@ -2919,19 +2919,19 @@
         <v>4607111037091</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>398</v>
+        <v>359</v>
       </c>
       <c r="G57" s="1"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="11" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>377</v>
+        <v>344</v>
       </c>
       <c r="D58" s="4">
         <v>4301070975</v>
@@ -2940,7 +2940,7 @@
         <v>4607111033970</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>378</v>
+        <v>345</v>
       </c>
       <c r="G58" s="1"/>
     </row>
@@ -2949,10 +2949,10 @@
         <v>87</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>379</v>
+        <v>346</v>
       </c>
       <c r="D59" s="4">
         <v>4301070973</v>
@@ -2961,19 +2961,19 @@
         <v>4607111033987</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>380</v>
+        <v>347</v>
       </c>
       <c r="G59" s="6"/>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="11" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>379</v>
+        <v>346</v>
       </c>
       <c r="D60" s="4">
         <v>4301070973</v>
@@ -2982,19 +2982,19 @@
         <v>4607111033987</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>380</v>
+        <v>347</v>
       </c>
       <c r="G60" s="1"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="11" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="D61" s="4">
         <v>4301070861</v>
@@ -3003,19 +3003,19 @@
         <v>4607111036308</v>
       </c>
       <c r="F61" s="5" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="G61" s="1"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="11" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D62" s="4">
         <v>4301070864</v>
@@ -3024,19 +3024,19 @@
         <v>4607111036292</v>
       </c>
       <c r="F62" s="5" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="G62" s="1"/>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="11" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>393</v>
+        <v>354</v>
       </c>
       <c r="D63" s="4">
         <v>4301070972</v>
@@ -3045,19 +3045,19 @@
         <v>4607111037183</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>394</v>
+        <v>355</v>
       </c>
       <c r="G63" s="1"/>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="11" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>356</v>
+        <v>335</v>
       </c>
       <c r="D64" s="4">
         <v>4301070976</v>
@@ -3066,19 +3066,19 @@
         <v>4607111034144</v>
       </c>
       <c r="F64" s="5" t="s">
-        <v>357</v>
+        <v>336</v>
       </c>
       <c r="G64" s="1"/>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="11" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>372</v>
+        <v>342</v>
       </c>
       <c r="D65" s="4">
         <v>4301070974</v>
@@ -3087,7 +3087,7 @@
         <v>4607111034151</v>
       </c>
       <c r="F65" s="5" t="s">
-        <v>373</v>
+        <v>343</v>
       </c>
       <c r="G65" s="1"/>
     </row>
@@ -3096,10 +3096,10 @@
         <v>81</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D66" s="4">
         <v>4301070864</v>
@@ -3108,19 +3108,19 @@
         <v>4607111036292</v>
       </c>
       <c r="F66" s="5" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="G66" s="1"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="11" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D67" s="4">
         <v>4301070935</v>
@@ -3129,19 +3129,19 @@
         <v>4607111037190</v>
       </c>
       <c r="F67" s="5" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="G67" s="1"/>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="11" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>393</v>
+        <v>354</v>
       </c>
       <c r="D68" s="4">
         <v>4301070972</v>
@@ -3150,19 +3150,19 @@
         <v>4607111037183</v>
       </c>
       <c r="F68" s="5" t="s">
-        <v>394</v>
+        <v>355</v>
       </c>
       <c r="G68" s="1"/>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="11" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>395</v>
+        <v>356</v>
       </c>
       <c r="D69" s="4">
         <v>4301070969</v>
@@ -3171,7 +3171,7 @@
         <v>4607111036858</v>
       </c>
       <c r="F69" s="5" t="s">
-        <v>396</v>
+        <v>357</v>
       </c>
       <c r="G69" s="1"/>
     </row>
@@ -3180,10 +3180,10 @@
         <v>82</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D70" s="4">
         <v>4301070909</v>
@@ -3192,19 +3192,19 @@
         <v>4607111036889</v>
       </c>
       <c r="F70" s="5" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="G70" s="6"/>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="11" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="D71" s="4">
         <v>4301070944</v>
@@ -3213,19 +3213,19 @@
         <v>4607111036902</v>
       </c>
       <c r="F71" s="5" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="G71" s="6"/>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="11" t="s">
-        <v>381</v>
+        <v>348</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="D72" s="4">
         <v>4301070944</v>
@@ -3234,19 +3234,19 @@
         <v>4607111036902</v>
       </c>
       <c r="F72" s="5" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="G72" s="6"/>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="11" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="D73" s="4">
         <v>4301070944</v>
@@ -3255,19 +3255,19 @@
         <v>4607111036902</v>
       </c>
       <c r="F73" s="5" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="G73" s="6"/>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="11" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>356</v>
+        <v>335</v>
       </c>
       <c r="D74" s="4">
         <v>4301070976</v>
@@ -3276,7 +3276,7 @@
         <v>4607111034144</v>
       </c>
       <c r="F74" s="5" t="s">
-        <v>357</v>
+        <v>336</v>
       </c>
       <c r="G74" s="6"/>
     </row>
@@ -3285,10 +3285,10 @@
         <v>83</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>356</v>
+        <v>335</v>
       </c>
       <c r="D75" s="4">
         <v>4301070976</v>
@@ -3297,19 +3297,19 @@
         <v>4607111034144</v>
       </c>
       <c r="F75" s="5" t="s">
-        <v>357</v>
+        <v>336</v>
       </c>
       <c r="G75" s="6"/>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="11" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>377</v>
+        <v>344</v>
       </c>
       <c r="D76" s="4">
         <v>4301070975</v>
@@ -3318,7 +3318,7 @@
         <v>4607111033970</v>
       </c>
       <c r="F76" s="5" t="s">
-        <v>378</v>
+        <v>345</v>
       </c>
       <c r="G76" s="6"/>
     </row>
@@ -3327,10 +3327,10 @@
         <v>84</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>377</v>
+        <v>344</v>
       </c>
       <c r="D77" s="4">
         <v>4301070975</v>
@@ -3339,7 +3339,7 @@
         <v>4607111033970</v>
       </c>
       <c r="F77" s="5" t="s">
-        <v>378</v>
+        <v>345</v>
       </c>
       <c r="G77" s="6"/>
     </row>
@@ -3348,10 +3348,10 @@
         <v>85</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>358</v>
+        <v>337</v>
       </c>
       <c r="D78" s="4">
         <v>4301070981</v>
@@ -3360,7 +3360,7 @@
         <v>4607111036728</v>
       </c>
       <c r="F78" s="5" t="s">
-        <v>359</v>
+        <v>338</v>
       </c>
       <c r="G78" s="6"/>
     </row>
@@ -3369,10 +3369,10 @@
         <v>86</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>372</v>
+        <v>342</v>
       </c>
       <c r="D79" s="4">
         <v>4301070974</v>
@@ -3381,19 +3381,19 @@
         <v>4607111034151</v>
       </c>
       <c r="F79" s="5" t="s">
-        <v>373</v>
+        <v>343</v>
       </c>
       <c r="G79" s="6"/>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="11" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D80" s="4">
         <v>4301071010</v>
@@ -3402,19 +3402,19 @@
         <v>4607111037701</v>
       </c>
       <c r="F80" s="5" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="G80" s="6"/>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="11" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="D81" s="4">
         <v>4301070870</v>
@@ -3423,19 +3423,19 @@
         <v>4607111036711</v>
       </c>
       <c r="F81" s="5" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="G81" s="6"/>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="11" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="D82" s="4">
         <v>4301070948</v>
@@ -3444,19 +3444,19 @@
         <v>4607111037022</v>
       </c>
       <c r="F82" s="5" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G82" s="6"/>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="11" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="D83" s="4">
         <v>4301070948</v>
@@ -3465,19 +3465,19 @@
         <v>4607111037022</v>
       </c>
       <c r="F83" s="5" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G83" s="6"/>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="11" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="D84" s="4">
         <v>4301070948</v>
@@ -3486,7 +3486,7 @@
         <v>4607111037022</v>
       </c>
       <c r="F84" s="5" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G84" s="6"/>
     </row>
@@ -3495,10 +3495,10 @@
         <v>88</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D85" s="4">
         <v>4301070920</v>
@@ -3507,19 +3507,19 @@
         <v>4607111035929</v>
       </c>
       <c r="F85" s="5" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="G85" s="6"/>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="11" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D86" s="4">
         <v>4301070921</v>
@@ -3528,19 +3528,19 @@
         <v>4607111035905</v>
       </c>
       <c r="F86" s="5" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="G86" s="6"/>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="11" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D87" s="4">
         <v>4301070921</v>
@@ -3549,19 +3549,19 @@
         <v>4607111035905</v>
       </c>
       <c r="F87" s="5" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="G87" s="6"/>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="11" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="D88" s="4">
         <v>4301070917</v>
@@ -3570,19 +3570,19 @@
         <v>4607111035912</v>
       </c>
       <c r="F88" s="5" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="G88" s="6"/>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="11" t="s">
-        <v>384</v>
+        <v>351</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="D89" s="4">
         <v>4301070917</v>
@@ -3591,19 +3591,19 @@
         <v>4607111035912</v>
       </c>
       <c r="F89" s="5" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="G89" s="6"/>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="11" t="s">
-        <v>234</v>
+        <v>399</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="D90" s="4">
         <v>4301070917</v>
@@ -3612,40 +3612,40 @@
         <v>4607111035912</v>
       </c>
       <c r="F90" s="5" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="G90" s="6"/>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="11" t="s">
-        <v>203</v>
+        <v>231</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>128</v>
+        <v>228</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>129</v>
+        <v>229</v>
       </c>
       <c r="D91" s="4">
-        <v>4301070827</v>
+        <v>4301070917</v>
       </c>
       <c r="E91" s="3">
-        <v>4607111036216</v>
+        <v>4607111035912</v>
       </c>
       <c r="F91" s="5" t="s">
-        <v>130</v>
+        <v>230</v>
       </c>
       <c r="G91" s="6"/>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="11" t="s">
-        <v>89</v>
+        <v>200</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D92" s="4">
         <v>4301070827</v>
@@ -3654,49 +3654,49 @@
         <v>4607111036216</v>
       </c>
       <c r="F92" s="5" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="G92" s="6"/>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="D93" s="4">
-        <v>4301070882</v>
+        <v>4301070827</v>
       </c>
       <c r="E93" s="3">
-        <v>4607111035899</v>
+        <v>4607111036216</v>
       </c>
       <c r="F93" s="5" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="G93" s="6"/>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="11" t="s">
-        <v>207</v>
+        <v>90</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>205</v>
+        <v>128</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>206</v>
+        <v>129</v>
       </c>
       <c r="D94" s="4">
-        <v>4301070873</v>
+        <v>4301070882</v>
       </c>
       <c r="E94" s="3">
-        <v>4607111035080</v>
+        <v>4607111035899</v>
       </c>
       <c r="F94" s="5" t="s">
-        <v>207</v>
+        <v>130</v>
       </c>
       <c r="G94" s="6"/>
     </row>
@@ -3705,10 +3705,10 @@
         <v>204</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D95" s="4">
         <v>4301070873</v>
@@ -3717,166 +3717,166 @@
         <v>4607111035080</v>
       </c>
       <c r="F95" s="5" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="G95" s="6"/>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="11" t="s">
-        <v>300</v>
+        <v>201</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>374</v>
+        <v>202</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>375</v>
+        <v>203</v>
       </c>
       <c r="D96" s="4">
-        <v>4301135161</v>
+        <v>4301070873</v>
       </c>
       <c r="E96" s="3">
-        <v>4607111037305</v>
+        <v>4607111035080</v>
       </c>
       <c r="F96" s="5" t="s">
-        <v>376</v>
+        <v>204</v>
       </c>
       <c r="G96" s="6"/>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="11" t="s">
-        <v>208</v>
+        <v>297</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>374</v>
+        <v>381</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>375</v>
+        <v>382</v>
       </c>
       <c r="D97" s="4">
-        <v>4301135161</v>
+        <v>4301135193</v>
       </c>
       <c r="E97" s="3">
-        <v>4607111037305</v>
+        <v>4640242180403</v>
       </c>
       <c r="F97" s="5" t="s">
-        <v>376</v>
+        <v>383</v>
       </c>
       <c r="G97" s="6"/>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="11" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>210</v>
+        <v>381</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>211</v>
+        <v>382</v>
       </c>
       <c r="D98" s="4">
-        <v>4301070858</v>
+        <v>4301135193</v>
       </c>
       <c r="E98" s="3">
-        <v>4607111036193</v>
+        <v>4640242180403</v>
       </c>
       <c r="F98" s="5" t="s">
-        <v>212</v>
+        <v>383</v>
       </c>
       <c r="G98" s="6"/>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="11" t="s">
-        <v>92</v>
+        <v>206</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>134</v>
+        <v>207</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>135</v>
+        <v>208</v>
       </c>
       <c r="D99" s="4">
-        <v>4301135112</v>
+        <v>4301070858</v>
       </c>
       <c r="E99" s="3">
-        <v>4607111034199</v>
+        <v>4607111036193</v>
       </c>
       <c r="F99" s="5" t="s">
-        <v>136</v>
+        <v>209</v>
       </c>
       <c r="G99" s="6"/>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="11" t="s">
-        <v>150</v>
+        <v>92</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>302</v>
+        <v>131</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>303</v>
+        <v>132</v>
       </c>
       <c r="D100" s="4">
-        <v>4301131012</v>
+        <v>4301135112</v>
       </c>
       <c r="E100" s="3">
-        <v>4607111034137</v>
+        <v>4607111034199</v>
       </c>
       <c r="F100" s="5" t="s">
-        <v>157</v>
+        <v>133</v>
       </c>
       <c r="G100" s="6"/>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="11" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>158</v>
+        <v>299</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>159</v>
+        <v>300</v>
       </c>
       <c r="D101" s="4">
-        <v>4301131011</v>
+        <v>4301131012</v>
       </c>
       <c r="E101" s="3">
-        <v>4607111034120</v>
+        <v>4607111034137</v>
       </c>
       <c r="F101" s="5" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="G101" s="6"/>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="11" t="s">
-        <v>316</v>
+        <v>148</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>363</v>
+        <v>155</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>364</v>
+        <v>156</v>
       </c>
       <c r="D102" s="4">
-        <v>4301131018</v>
+        <v>4301131011</v>
       </c>
       <c r="E102" s="3">
-        <v>4607111037930</v>
+        <v>4607111034120</v>
       </c>
       <c r="F102" s="5" t="s">
-        <v>365</v>
+        <v>157</v>
       </c>
       <c r="G102" s="6"/>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="11" t="s">
-        <v>213</v>
+        <v>313</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>363</v>
+        <v>339</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>364</v>
+        <v>340</v>
       </c>
       <c r="D103" s="4">
         <v>4301131018</v>
@@ -3885,40 +3885,40 @@
         <v>4607111037930</v>
       </c>
       <c r="F103" s="5" t="s">
-        <v>365</v>
+        <v>341</v>
       </c>
       <c r="G103" s="6"/>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="11" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>161</v>
+        <v>339</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>162</v>
+        <v>340</v>
       </c>
       <c r="D104" s="4">
-        <v>4301190014</v>
+        <v>4301131018</v>
       </c>
       <c r="E104" s="3">
-        <v>4607111037053</v>
+        <v>4607111037930</v>
       </c>
       <c r="F104" s="5" t="s">
-        <v>163</v>
+        <v>341</v>
       </c>
       <c r="G104" s="6"/>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="11" t="s">
-        <v>152</v>
+        <v>211</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D105" s="4">
         <v>4301190014</v>
@@ -3927,40 +3927,40 @@
         <v>4607111037053</v>
       </c>
       <c r="F105" s="5" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="G105" s="6"/>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="11" t="s">
-        <v>215</v>
+        <v>149</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="D106" s="4">
-        <v>4301190015</v>
+        <v>4301190014</v>
       </c>
       <c r="E106" s="3">
-        <v>4607111037060</v>
+        <v>4607111037053</v>
       </c>
       <c r="F106" s="5" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="G106" s="6"/>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="11" t="s">
-        <v>153</v>
+        <v>212</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D107" s="4">
         <v>4301190015</v>
@@ -3969,88 +3969,88 @@
         <v>4607111037060</v>
       </c>
       <c r="F107" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="G107" s="1"/>
+        <v>163</v>
+      </c>
+      <c r="G107" s="6"/>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="11" t="s">
-        <v>238</v>
+        <v>150</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>235</v>
+        <v>161</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>236</v>
+        <v>162</v>
       </c>
       <c r="D108" s="4">
-        <v>4301135053</v>
+        <v>4301190015</v>
       </c>
       <c r="E108" s="3">
-        <v>4607111036407</v>
+        <v>4607111037060</v>
       </c>
       <c r="F108" s="5" t="s">
-        <v>237</v>
+        <v>163</v>
       </c>
       <c r="G108" s="1"/>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="11" t="s">
-        <v>269</v>
+        <v>235</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>137</v>
+        <v>232</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="D109" s="4">
-        <v>4301135162</v>
+        <v>4301135053</v>
       </c>
       <c r="E109" s="3">
-        <v>4607111034014</v>
+        <v>4607111036407</v>
       </c>
       <c r="F109" s="5" t="s">
-        <v>298</v>
+        <v>234</v>
       </c>
       <c r="G109" s="1"/>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="11" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>140</v>
+        <v>213</v>
       </c>
       <c r="D110" s="4">
-        <v>4301135117</v>
+        <v>4301135162</v>
       </c>
       <c r="E110" s="3">
-        <v>4607111033994</v>
+        <v>4607111034014</v>
       </c>
       <c r="F110" s="5" t="s">
-        <v>141</v>
+        <v>295</v>
       </c>
       <c r="G110" s="1"/>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="11" t="s">
-        <v>93</v>
+        <v>267</v>
       </c>
       <c r="B111" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C111" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="C111" s="3" t="s">
-        <v>216</v>
-      </c>
       <c r="D111" s="4">
-        <v>4301135162</v>
+        <v>4301135117</v>
       </c>
       <c r="E111" s="3">
-        <v>4607111034014</v>
+        <v>4607111033994</v>
       </c>
       <c r="F111" s="5" t="s">
         <v>138</v>
@@ -4059,118 +4059,118 @@
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>140</v>
+        <v>213</v>
       </c>
       <c r="D112" s="4">
-        <v>4301135117</v>
+        <v>4301135162</v>
       </c>
       <c r="E112" s="3">
-        <v>4607111033994</v>
+        <v>4607111034014</v>
       </c>
       <c r="F112" s="5" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="G112" s="1"/>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="11" t="s">
-        <v>217</v>
+        <v>94</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>366</v>
+        <v>136</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>367</v>
+        <v>137</v>
       </c>
       <c r="D113" s="4">
-        <v>4301136008</v>
+        <v>4301135117</v>
       </c>
       <c r="E113" s="3">
-        <v>4607111036438</v>
+        <v>4607111033994</v>
       </c>
       <c r="F113" s="5" t="s">
-        <v>368</v>
+        <v>138</v>
       </c>
       <c r="G113" s="1"/>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="11" t="s">
-        <v>154</v>
+        <v>214</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>366</v>
+        <v>384</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>367</v>
+        <v>385</v>
       </c>
       <c r="D114" s="4">
-        <v>4301136008</v>
+        <v>4301136028</v>
       </c>
       <c r="E114" s="3">
-        <v>4607111036438</v>
+        <v>4640242180304</v>
       </c>
       <c r="F114" s="5" t="s">
-        <v>368</v>
+        <v>386</v>
       </c>
       <c r="G114" s="1"/>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="11" t="s">
-        <v>95</v>
+        <v>151</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>369</v>
+        <v>384</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>370</v>
+        <v>385</v>
       </c>
       <c r="D115" s="4">
-        <v>4301136001</v>
+        <v>4301136028</v>
       </c>
       <c r="E115" s="3">
-        <v>4607111035714</v>
+        <v>4640242180304</v>
       </c>
       <c r="F115" s="5" t="s">
-        <v>371</v>
+        <v>386</v>
       </c>
       <c r="G115" s="1"/>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="11" t="s">
-        <v>328</v>
+        <v>95</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>145</v>
+        <v>387</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>146</v>
+        <v>388</v>
       </c>
       <c r="D116" s="4">
-        <v>4301135177</v>
+        <v>4301136026</v>
       </c>
       <c r="E116" s="3">
-        <v>4607111037862</v>
+        <v>4640242180236</v>
       </c>
       <c r="F116" s="5" t="s">
-        <v>147</v>
+        <v>389</v>
       </c>
       <c r="G116" s="1"/>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="11" t="s">
-        <v>304</v>
+        <v>325</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D117" s="4">
         <v>4301135177</v>
@@ -4179,40 +4179,40 @@
         <v>4607111037862</v>
       </c>
       <c r="F117" s="5" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="G117" s="1"/>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="11" t="s">
-        <v>385</v>
+        <v>301</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>307</v>
+        <v>142</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>308</v>
+        <v>143</v>
       </c>
       <c r="D118" s="4">
-        <v>4301070915</v>
+        <v>4301135177</v>
       </c>
       <c r="E118" s="3">
-        <v>4607111035882</v>
+        <v>4607111037862</v>
       </c>
       <c r="F118" s="5" t="s">
-        <v>309</v>
+        <v>144</v>
       </c>
       <c r="G118" s="1"/>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="11" t="s">
-        <v>309</v>
+        <v>352</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="D119" s="4">
         <v>4301070915</v>
@@ -4221,61 +4221,61 @@
         <v>4607111035882</v>
       </c>
       <c r="F119" s="5" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="G119" s="1"/>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="11" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="D120" s="4">
-        <v>4301070874</v>
+        <v>4301070915</v>
       </c>
       <c r="E120" s="3">
-        <v>4607111035332</v>
+        <v>4607111035882</v>
       </c>
       <c r="F120" s="5" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="G120" s="1"/>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="11" t="s">
-        <v>340</v>
+        <v>309</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="D121" s="4">
-        <v>4301136014</v>
+        <v>4301070874</v>
       </c>
       <c r="E121" s="3">
-        <v>4607111035370</v>
+        <v>4607111035332</v>
       </c>
       <c r="F121" s="5" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="G121" s="1"/>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="11" t="s">
-        <v>315</v>
+        <v>334</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="D122" s="4">
         <v>4301136014</v>
@@ -4284,40 +4284,40 @@
         <v>4607111035370</v>
       </c>
       <c r="F122" s="5" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="G122" s="1"/>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" s="11" t="s">
-        <v>339</v>
+        <v>312</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="D123" s="4">
-        <v>4301051320</v>
+        <v>4301136014</v>
       </c>
       <c r="E123" s="3">
-        <v>4680115881334</v>
+        <v>4607111035370</v>
       </c>
       <c r="F123" s="5" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="G123" s="1"/>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" s="11" t="s">
-        <v>383</v>
+        <v>333</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="D124" s="4">
         <v>4301051320</v>
@@ -4326,19 +4326,19 @@
         <v>4680115881334</v>
       </c>
       <c r="F124" s="5" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="G124" s="1"/>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="11" t="s">
-        <v>323</v>
+        <v>350</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="D125" s="4">
         <v>4301051320</v>
@@ -4347,59 +4347,71 @@
         <v>4680115881334</v>
       </c>
       <c r="F125" s="5" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="G125" s="1"/>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" s="11" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="D126" s="4">
-        <v>4301051319</v>
+        <v>4301051320</v>
       </c>
       <c r="E126" s="3">
-        <v>4680115881204</v>
+        <v>4680115881334</v>
       </c>
       <c r="F126" s="5" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="G126" s="1"/>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" s="11" t="s">
-        <v>386</v>
+        <v>324</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>387</v>
+        <v>321</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>388</v>
+        <v>322</v>
       </c>
       <c r="D127" s="4">
-        <v>4301136007</v>
+        <v>4301051319</v>
       </c>
       <c r="E127" s="3">
-        <v>4607111036636</v>
+        <v>4680115881204</v>
       </c>
       <c r="F127" s="5" t="s">
-        <v>389</v>
+        <v>323</v>
       </c>
       <c r="G127" s="1"/>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A128" s="11"/>
-      <c r="B128" s="3"/>
-      <c r="C128" s="3"/>
-      <c r="D128" s="4"/>
-      <c r="E128" s="3"/>
-      <c r="F128" s="5"/>
+      <c r="A128" s="11" t="s">
+        <v>353</v>
+      </c>
+      <c r="B128" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="C128" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="D128" s="4">
+        <v>4301136027</v>
+      </c>
+      <c r="E128" s="3">
+        <v>4640242180298</v>
+      </c>
+      <c r="F128" s="5" t="s">
+        <v>395</v>
+      </c>
       <c r="G128" s="1"/>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
@@ -4611,20 +4623,20 @@
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" s="11"/>
-      <c r="B152" s="13"/>
-      <c r="C152" s="13"/>
-      <c r="D152" s="14"/>
-      <c r="E152" s="15"/>
-      <c r="F152" s="16"/>
+      <c r="B152" s="3"/>
+      <c r="C152" s="3"/>
+      <c r="D152" s="4"/>
+      <c r="E152" s="3"/>
+      <c r="F152" s="5"/>
       <c r="G152" s="1"/>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" s="11"/>
-      <c r="B153" s="3"/>
-      <c r="C153" s="3"/>
-      <c r="D153" s="4"/>
-      <c r="E153" s="3"/>
-      <c r="F153" s="5"/>
+      <c r="B153" s="13"/>
+      <c r="C153" s="13"/>
+      <c r="D153" s="14"/>
+      <c r="E153" s="15"/>
+      <c r="F153" s="16"/>
       <c r="G153" s="1"/>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
@@ -4692,20 +4704,20 @@
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" s="11"/>
-      <c r="B161" s="13"/>
-      <c r="C161" s="13"/>
-      <c r="D161" s="14"/>
-      <c r="E161" s="15"/>
-      <c r="F161" s="16"/>
+      <c r="B161" s="3"/>
+      <c r="C161" s="3"/>
+      <c r="D161" s="4"/>
+      <c r="E161" s="3"/>
+      <c r="F161" s="5"/>
       <c r="G161" s="1"/>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" s="11"/>
-      <c r="B162" s="3"/>
-      <c r="C162" s="3"/>
-      <c r="D162" s="4"/>
-      <c r="E162" s="3"/>
-      <c r="F162" s="5"/>
+      <c r="B162" s="13"/>
+      <c r="C162" s="13"/>
+      <c r="D162" s="14"/>
+      <c r="E162" s="15"/>
+      <c r="F162" s="16"/>
       <c r="G162" s="1"/>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.25">
@@ -4760,7 +4772,7 @@
       <c r="D168" s="4"/>
       <c r="E168" s="3"/>
       <c r="F168" s="5"/>
-      <c r="G168" s="6"/>
+      <c r="G168" s="1"/>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" s="11"/>
@@ -4769,7 +4781,7 @@
       <c r="D169" s="4"/>
       <c r="E169" s="3"/>
       <c r="F169" s="5"/>
-      <c r="G169" s="1"/>
+      <c r="G169" s="6"/>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" s="11"/>
@@ -5385,11 +5397,11 @@
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A238" s="11"/>
-      <c r="B238" s="1"/>
-      <c r="C238" s="1"/>
-      <c r="D238" s="1"/>
-      <c r="E238" s="1"/>
-      <c r="F238" s="1"/>
+      <c r="B238" s="3"/>
+      <c r="C238" s="3"/>
+      <c r="D238" s="4"/>
+      <c r="E238" s="3"/>
+      <c r="F238" s="5"/>
       <c r="G238" s="1"/>
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.25">
@@ -5410,9 +5422,18 @@
       <c r="F240" s="1"/>
       <c r="G240" s="1"/>
     </row>
+    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A241" s="11"/>
+      <c r="B241" s="1"/>
+      <c r="C241" s="1"/>
+      <c r="D241" s="1"/>
+      <c r="E241" s="1"/>
+      <c r="F241" s="1"/>
+      <c r="G241" s="1"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:F127" xr:uid="{08353A06-E006-45C7-BD45-850F7C3953DF}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F117">
+  <autoFilter ref="A1:F128" xr:uid="{08353A06-E006-45C7-BD45-850F7C3953DF}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F118">
       <sortCondition ref="A1:A78"/>
     </sortState>
   </autoFilter>

--- a/moduls/1С.xlsx
+++ b/moduls/1С.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\перенос данных\ПОКОМ ЗПФ\pokom_zpf\moduls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AB1CC0B-F5EA-4415-BFB4-B89092A90AC3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14CEC153-9A02-409B-A91D-5B01192D8E6B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$F$128</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$F$185</definedName>
   </definedNames>
   <calcPr calcId="181029" refMode="R1C1"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="400">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="809" uniqueCount="479">
   <si>
     <t>1С</t>
   </si>
@@ -493,12 +493,6 @@
     <t>Чебуреки Мясные вес 2,7 кг Кулинарные изделия мясосодержащие рубленые в тесте жарен  ПОКОМ</t>
   </si>
   <si>
-    <t>SU002676</t>
-  </si>
-  <si>
-    <t>P003050</t>
-  </si>
-  <si>
     <t>Крылья Крылышки острые к пиву Базовый ассортимент Фикс.вес 0,3 Лоток Горячая штучка</t>
   </si>
   <si>
@@ -1235,6 +1229,249 @@
   </si>
   <si>
     <t>Пельмени отборные  с говядиной и свининой 0,43кг ушко  Поком</t>
+  </si>
+  <si>
+    <t>Вареники замороженные постные "Благолепные" с картофелем и луком ВЕС  ПОКОМ</t>
+  </si>
+  <si>
+    <t>Жар-мени рубленые в тесте куриные жареные. ВЕС  ПОКОМ</t>
+  </si>
+  <si>
+    <t>Круггетсы сочные ТМ Горячая штучка ТС Круггетсы  ВЕС(3 кг)  ПОКОМ</t>
+  </si>
+  <si>
+    <t>SU001949</t>
+  </si>
+  <si>
+    <t>P001980</t>
+  </si>
+  <si>
+    <t>Круггетсы сочные Хорека Весовые Пакет 3 кг Горячая штучка</t>
+  </si>
+  <si>
+    <t>Наггетсы Нагетосы Сочная курочка в хрустящей панировке ТМ Горячая штучка 0,25 кг зам  ПОКОМ</t>
+  </si>
+  <si>
+    <t>Пельмени Grandmeni с говядиной ТМ Горячая  0,75 кг. ПОКОМ</t>
+  </si>
+  <si>
+    <t>Пельмени Бульмени с говядиной и свининой 2,7кг Наваристые Горячая штучка ВЕС  ПОКОМ</t>
+  </si>
+  <si>
+    <t>SU002798</t>
+  </si>
+  <si>
+    <t>P003687</t>
+  </si>
+  <si>
+    <t>Пельмени «Бульмени с говядиной и свининой Наваристые» Весовые Сфера ТМ «Горячая штучка» 2,7 кг</t>
+  </si>
+  <si>
+    <t>Пельмени Бульмени с говядиной и свининой 5кг Наваристые Горячая штучка ВЕС  ПОКОМ</t>
+  </si>
+  <si>
+    <t>Пельмени Бульмени с говядиной и свининой Горячая штучка 0,43 большие замор  ПОКОМ</t>
+  </si>
+  <si>
+    <t>Пельмени Зареченские сфера 5 кг.  ПОКОМ</t>
+  </si>
+  <si>
+    <t>SU002396</t>
+  </si>
+  <si>
+    <t>P002689</t>
+  </si>
+  <si>
+    <t>Пельмени Зареченские No name Весовые Сфера No name 5 кг</t>
+  </si>
+  <si>
+    <t>Пельмени Отборные с говядиной 0,43 кг ТМ Стародворье ТС Медвежье ушко</t>
+  </si>
+  <si>
+    <t>Пельмени Сочные ТМ Стародворье.сфера 0,43 кг ПОКОМ</t>
+  </si>
+  <si>
+    <t>Чебупели с мясом ТМ Горячая штучка 0,48 кг XXL зам. ПОКОМ</t>
+  </si>
+  <si>
+    <t>SU002571</t>
+  </si>
+  <si>
+    <t>P002876</t>
+  </si>
+  <si>
+    <t>Чебупели с мясом Базовый ассортимент Фикс.вес 0,48 Лоток Горячая штучка ХХЛ</t>
+  </si>
+  <si>
+    <t>Чебуречище ТМ Горячая штучка .0,14 кг зам. ПОКОМ</t>
+  </si>
+  <si>
+    <t>Готовые бельмеши сочные с мясом ТМ Горячая штучка 0,3кг зам  ПОКОМ</t>
+  </si>
+  <si>
+    <t>Пельмени ПГП Быстромени вес МГ</t>
+  </si>
+  <si>
+    <t>Круггетсы с сырным соусом ТМ Горячая штучка ТС Круггетсы вес 3 кг Хорека МГ</t>
+  </si>
+  <si>
+    <t>SU001950</t>
+  </si>
+  <si>
+    <t>P001982</t>
+  </si>
+  <si>
+    <t>Круггетсы с сырным соусом Хорека Весовые Пакет 3 кг Горячая штучка</t>
+  </si>
+  <si>
+    <t>Хрустящие крылышки ТМ Горячая штучка вес 3,5 кг Хорека МГ</t>
+  </si>
+  <si>
+    <t>Снеки Пекерсы с индейкой в сливочном соусе ТМ Горячая штучка ф/в 0,25 кг НД2 МГ</t>
+  </si>
+  <si>
+    <t>Пельмени Супермени с мясом ТМ Горячая штучка ТС Супермени сфера ф/в 0,2 кг МГ</t>
+  </si>
+  <si>
+    <t>SU002008</t>
+  </si>
+  <si>
+    <t>P002098</t>
+  </si>
+  <si>
+    <t>Пельмени Супермени с мясом Супермени 0,2 Сфера Горячая штучка</t>
+  </si>
+  <si>
+    <t>Пельмени Супермени со сливочным маслом ТМ Горячая штучка сфера ТС Супермени ф/в 0,2 кг МГ</t>
+  </si>
+  <si>
+    <t>SU002177</t>
+  </si>
+  <si>
+    <t>P002299</t>
+  </si>
+  <si>
+    <t>Пельмени Супермени со сливочным маслом Супермени 0,2 Сфера Горячая штучка</t>
+  </si>
+  <si>
+    <t>Чебупай сочное яблоко ТМ Горячая штучка ТС Чебупай ф/в 0,2 кг МГ</t>
+  </si>
+  <si>
+    <t>Чебупай спелая вишня ТМ Горячая штучка ТС Чебупай ф/в 0,2 кг МГ</t>
+  </si>
+  <si>
+    <t>Готовые бельмеши сочные с мясом ТМ Горячая штучка ТС Базовый ассортимент ф/в 0,3 кг НД1 МГ</t>
+  </si>
+  <si>
+    <t>Снеки Пекерсы с индейкой в сливочном соусе ТМ Горячая штучка ф/в 0,25 кг НД3 МГ</t>
+  </si>
+  <si>
+    <t>Мини-сосиски в тесте Фрайпики No name Весовые No name 3,7 кг</t>
+  </si>
+  <si>
+    <t>Чебуреки Чебуреки Сочные No Name Весовые No name 5 кг дистр</t>
+  </si>
+  <si>
+    <t>Чебуреки Мясные No name Весовые No name 2,7 кг</t>
+  </si>
+  <si>
+    <t>Жар-ладушки с мясом, картофелем и грибами No name ПГП Весовые No name 3,7 кг</t>
+  </si>
+  <si>
+    <t>«Чебупицца курочка По-итальянски» Фикс.вес 0,25 Лоток ТМ «Горячая штучка»</t>
+  </si>
+  <si>
+    <t>Вареники Благолепные с картофелем и грибами вес 5 кг МГ</t>
+  </si>
+  <si>
+    <t>Вареники С картофелем и луком вес 5 кг МГ</t>
+  </si>
+  <si>
+    <t>SU002483</t>
+  </si>
+  <si>
+    <t>P002961</t>
+  </si>
+  <si>
+    <t>Вареники с картофелем и луком No name Весовые Классическая форма No name 5 кг</t>
+  </si>
+  <si>
+    <t>Пельмени Зареченские сфера вес 5 кг МГ</t>
+  </si>
+  <si>
+    <t>Пельмени Grandmeni с говядиной в сливочном соусе ТМ Горячая штучка сфера ф/п ф/в 0,75 кг МГ</t>
+  </si>
+  <si>
+    <t>Пельмени Grandmeni с говядиной ТМ Горячая штучка сфера ф/п ф/в 0,75 кг МГ</t>
+  </si>
+  <si>
+    <t>Пельмени Grandmeni со сливочным маслом ТМ Горячая штучка сфера ф/п ф/в 0,75 кг МГ</t>
+  </si>
+  <si>
+    <t>Пельмени Со свининой и говядиной Владимирский стандарт ТМ Колбасный стандарт ф/п сфера 0,8 кг МГ</t>
+  </si>
+  <si>
+    <t>SU002267</t>
+  </si>
+  <si>
+    <t>P003223</t>
+  </si>
+  <si>
+    <t>Пельмени Со свининой и говядиной Владимирский стандарт флоу-пак 0,8 Сфера Колбасный стандарт</t>
+  </si>
+  <si>
+    <t>Пельмени С мясом и копченостями ТМ Ядрена копоть ТС Ядрена копоть ф/в 0,43 кг Х5 МГ</t>
+  </si>
+  <si>
+    <t>SU002224</t>
+  </si>
+  <si>
+    <t>P002410</t>
+  </si>
+  <si>
+    <t>Пельмени С мясом и копченостями Ядрена копоть 0,43 сфера Ядрена копоть НД</t>
+  </si>
+  <si>
+    <t>Пельмени «Мясорубские с рубленой грудинкой» 0,7 Классическая форма ТМ «Стародворье»</t>
+  </si>
+  <si>
+    <t>SU003077</t>
+  </si>
+  <si>
+    <t>P003648</t>
+  </si>
+  <si>
+    <t>Пельмени Умелый повар No name Весовые Равиоли No name 5 кг</t>
+  </si>
+  <si>
+    <t>SU002335</t>
+  </si>
+  <si>
+    <t>P002980</t>
+  </si>
+  <si>
+    <t>Мини-сосиски в тесте "Фрайпики" 3,7кг ВЕС, ТМ Зареченские  ПОКОМ</t>
+  </si>
+  <si>
+    <t>Хрустящие крылышки ТМ Зареченские ТС Зареченские продукты.   Поком</t>
+  </si>
+  <si>
+    <t>SU003024</t>
+  </si>
+  <si>
+    <t>P003488</t>
+  </si>
+  <si>
+    <t>Крылья «Хрустящие крылышки» Весовой ТМ «Зареченские» 1,8 кг</t>
+  </si>
+  <si>
+    <t>Чебуреки сочные ТМ Зареченские ТС Зареченские продукты.  Поком</t>
+  </si>
+  <si>
+    <t>Наггетсы Хрустящие ТМ Зареченские ТС Зареченские продукты. Поком</t>
+  </si>
+  <si>
+    <t>ЖАР-мени ТМ Зареченские ТС Зареченские продукты.   Поком</t>
   </si>
 </sst>
 </file>
@@ -1709,11 +1946,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G241"/>
+  <dimension ref="A1:G285"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G8" sqref="G8"/>
+      <selection pane="bottomLeft" activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1749,13 +1986,13 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
+        <v>398</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>164</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>166</v>
       </c>
       <c r="D2" s="4">
         <v>4301080153</v>
@@ -1764,145 +2001,145 @@
         <v>4607111036827</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
-        <v>236</v>
+        <v>448</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>268</v>
+        <v>163</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>269</v>
+        <v>164</v>
       </c>
       <c r="D3" s="4">
-        <v>4301135113</v>
+        <v>4301080153</v>
       </c>
       <c r="E3" s="3">
-        <v>4607111033659</v>
+        <v>4607111036827</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>270</v>
+        <v>165</v>
       </c>
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
-        <v>237</v>
+        <v>162</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>131</v>
+        <v>163</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>132</v>
+        <v>164</v>
       </c>
       <c r="D4" s="4">
-        <v>4301135112</v>
+        <v>4301080153</v>
       </c>
       <c r="E4" s="3">
-        <v>4607111034199</v>
+        <v>4607111036827</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>133</v>
+        <v>165</v>
       </c>
       <c r="G4" s="1"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
-        <v>238</v>
+        <v>423</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>169</v>
+        <v>266</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>170</v>
+        <v>267</v>
       </c>
       <c r="D5" s="4">
-        <v>4301135122</v>
+        <v>4301135113</v>
       </c>
       <c r="E5" s="3">
-        <v>4607111033628</v>
+        <v>4607111033659</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>171</v>
+        <v>268</v>
       </c>
       <c r="G5" s="1"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
-        <v>239</v>
+        <v>441</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>96</v>
+        <v>266</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>97</v>
+        <v>267</v>
       </c>
       <c r="D6" s="4">
-        <v>4301130400</v>
+        <v>4301135113</v>
       </c>
       <c r="E6" s="3">
-        <v>4607111033451</v>
+        <v>4607111033659</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>98</v>
+        <v>268</v>
       </c>
       <c r="G6" s="1"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="D7" s="4">
-        <v>4301135120</v>
+        <v>4301135113</v>
       </c>
       <c r="E7" s="3">
-        <v>4607111035141</v>
+        <v>4607111033659</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="G7" s="1"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>99</v>
+        <v>131</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>100</v>
+        <v>132</v>
       </c>
       <c r="D8" s="4">
-        <v>4301135109</v>
+        <v>4301135112</v>
       </c>
       <c r="E8" s="3">
-        <v>4607111033444</v>
+        <v>4607111034199</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>101</v>
+        <v>133</v>
       </c>
       <c r="G8" s="1"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
-        <v>171</v>
+        <v>236</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D9" s="4">
         <v>4301135122</v>
@@ -1911,34 +2148,34 @@
         <v>4607111033628</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="G9" s="1"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
-        <v>168</v>
+        <v>73</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>169</v>
+        <v>96</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>170</v>
+        <v>97</v>
       </c>
       <c r="D10" s="4">
-        <v>4301135122</v>
+        <v>4301130400</v>
       </c>
       <c r="E10" s="3">
-        <v>4607111033628</v>
+        <v>4607111033451</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>171</v>
+        <v>98</v>
       </c>
       <c r="G10" s="1"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
-        <v>73</v>
+        <v>98</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>96</v>
@@ -1959,2972 +2196,3656 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
-        <v>74</v>
+        <v>237</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D12" s="4">
-        <v>4301135109</v>
+        <v>4301130400</v>
       </c>
       <c r="E12" s="3">
-        <v>4607111033444</v>
+        <v>4607111033451</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="G12" s="1"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>215</v>
+        <v>269</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>216</v>
+        <v>270</v>
       </c>
       <c r="D13" s="4">
-        <v>4301136013</v>
+        <v>4301135120</v>
       </c>
       <c r="E13" s="3">
-        <v>4607025784012</v>
+        <v>4607111035141</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>217</v>
+        <v>271</v>
       </c>
       <c r="G13" s="1"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
-        <v>243</v>
+        <v>74</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>274</v>
+        <v>99</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>275</v>
+        <v>100</v>
       </c>
       <c r="D14" s="4">
-        <v>4301136012</v>
+        <v>4301135109</v>
       </c>
       <c r="E14" s="3">
-        <v>4607025784319</v>
+        <v>4607111033444</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>276</v>
+        <v>101</v>
       </c>
       <c r="G14" s="1"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
-        <v>217</v>
+        <v>101</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>215</v>
+        <v>99</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>216</v>
+        <v>100</v>
       </c>
       <c r="D15" s="4">
-        <v>4301136013</v>
+        <v>4301135109</v>
       </c>
       <c r="E15" s="3">
-        <v>4607025784012</v>
+        <v>4607111033444</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>217</v>
+        <v>101</v>
       </c>
       <c r="G15" s="1"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
-        <v>218</v>
+        <v>239</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>215</v>
+        <v>99</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>216</v>
+        <v>100</v>
       </c>
       <c r="D16" s="4">
-        <v>4301136013</v>
+        <v>4301135109</v>
       </c>
       <c r="E16" s="3">
-        <v>4607025784012</v>
+        <v>4607111033444</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>217</v>
+        <v>101</v>
       </c>
       <c r="G16" s="1"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>139</v>
+        <v>167</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>140</v>
+        <v>168</v>
       </c>
       <c r="D17" s="4">
-        <v>4301136025</v>
+        <v>4301135122</v>
       </c>
       <c r="E17" s="3">
-        <v>4607111038029</v>
+        <v>4607111033628</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>141</v>
+        <v>169</v>
       </c>
       <c r="G17" s="1"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>396</v>
+        <v>167</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>397</v>
+        <v>168</v>
       </c>
       <c r="D18" s="4">
-        <v>4301135191</v>
+        <v>4301135122</v>
       </c>
       <c r="E18" s="3">
-        <v>4640242180373</v>
+        <v>4607111033628</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>398</v>
+        <v>169</v>
       </c>
       <c r="G18" s="1"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
-        <v>145</v>
+        <v>240</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>396</v>
+        <v>213</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>397</v>
+        <v>214</v>
       </c>
       <c r="D19" s="4">
-        <v>4301135191</v>
+        <v>4301136013</v>
       </c>
       <c r="E19" s="3">
-        <v>4640242180373</v>
+        <v>4607025784012</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>398</v>
+        <v>215</v>
       </c>
       <c r="G19" s="1"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
-        <v>326</v>
+        <v>241</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>360</v>
+        <v>272</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>361</v>
+        <v>273</v>
       </c>
       <c r="D20" s="4">
-        <v>4301135195</v>
+        <v>4301136012</v>
       </c>
       <c r="E20" s="3">
-        <v>4640242180366</v>
+        <v>4607025784319</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>362</v>
+        <v>274</v>
       </c>
       <c r="G20" s="1"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
-        <v>174</v>
+        <v>215</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>360</v>
+        <v>213</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>361</v>
+        <v>214</v>
       </c>
       <c r="D21" s="4">
-        <v>4301135195</v>
+        <v>4301136013</v>
       </c>
       <c r="E21" s="3">
-        <v>4640242180366</v>
+        <v>4607025784012</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>362</v>
+        <v>215</v>
       </c>
       <c r="G21" s="1"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
-        <v>175</v>
+        <v>216</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>363</v>
+        <v>213</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>364</v>
+        <v>214</v>
       </c>
       <c r="D22" s="4">
-        <v>4301135189</v>
+        <v>4301136013</v>
       </c>
       <c r="E22" s="3">
-        <v>4640242180342</v>
+        <v>4607025784012</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>365</v>
+        <v>215</v>
       </c>
       <c r="G22" s="1"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>366</v>
+        <v>139</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>367</v>
+        <v>140</v>
       </c>
       <c r="D23" s="4">
-        <v>4301135188</v>
+        <v>4301136025</v>
       </c>
       <c r="E23" s="3">
-        <v>4640242180335</v>
+        <v>4607111038029</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>368</v>
+        <v>141</v>
       </c>
       <c r="G23" s="1"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="11" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="D24" s="4">
-        <v>4301135190</v>
+        <v>4301135191</v>
       </c>
       <c r="E24" s="3">
-        <v>4640242180359</v>
+        <v>4640242180373</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="G24" s="1"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="D25" s="4">
-        <v>4301135190</v>
+        <v>4301135191</v>
       </c>
       <c r="E25" s="3">
-        <v>4640242180359</v>
+        <v>4640242180373</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="G25" s="1"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="11" t="s">
-        <v>91</v>
+        <v>324</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>378</v>
+        <v>358</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>379</v>
+        <v>359</v>
       </c>
       <c r="D26" s="4">
-        <v>4301135186</v>
+        <v>4301135195</v>
       </c>
       <c r="E26" s="3">
-        <v>4640242180311</v>
+        <v>4640242180366</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>380</v>
-      </c>
-      <c r="G26" s="6"/>
+        <v>360</v>
+      </c>
+      <c r="G26" s="1"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="11" t="s">
-        <v>244</v>
+        <v>172</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>378</v>
+        <v>358</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>379</v>
+        <v>359</v>
       </c>
       <c r="D27" s="4">
-        <v>4301135186</v>
+        <v>4301135195</v>
       </c>
       <c r="E27" s="3">
-        <v>4640242180311</v>
+        <v>4640242180366</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>380</v>
+        <v>360</v>
       </c>
       <c r="G27" s="1"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="11" t="s">
-        <v>245</v>
+        <v>446</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="D28" s="4">
-        <v>4301135187</v>
+        <v>4301135189</v>
       </c>
       <c r="E28" s="3">
-        <v>4640242180328</v>
+        <v>4640242180342</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="G28" s="1"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="11" t="s">
-        <v>219</v>
+        <v>173</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="D29" s="4">
-        <v>4301135187</v>
+        <v>4301135189</v>
       </c>
       <c r="E29" s="3">
-        <v>4640242180328</v>
+        <v>4640242180342</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="G29" s="1"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="11" t="s">
-        <v>246</v>
+        <v>174</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>314</v>
+        <v>364</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>315</v>
+        <v>365</v>
       </c>
       <c r="D30" s="4">
-        <v>4301135115</v>
+        <v>4301135188</v>
       </c>
       <c r="E30" s="3">
-        <v>4607111034380</v>
+        <v>4640242180335</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>316</v>
+        <v>366</v>
       </c>
       <c r="G30" s="1"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="11" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>314</v>
+        <v>388</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>315</v>
+        <v>389</v>
       </c>
       <c r="D31" s="4">
-        <v>4301135115</v>
+        <v>4301135190</v>
       </c>
       <c r="E31" s="3">
-        <v>4607111034380</v>
+        <v>4640242180359</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>316</v>
+        <v>390</v>
       </c>
       <c r="G31" s="1"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="11" t="s">
-        <v>298</v>
+        <v>146</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>327</v>
+        <v>388</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>328</v>
+        <v>389</v>
       </c>
       <c r="D32" s="4">
-        <v>4301135114</v>
+        <v>4301135190</v>
       </c>
       <c r="E32" s="3">
-        <v>4607111034397</v>
+        <v>4640242180359</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>329</v>
+        <v>390</v>
       </c>
       <c r="G32" s="1"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="11" t="s">
-        <v>247</v>
+        <v>91</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>327</v>
+        <v>376</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>328</v>
+        <v>377</v>
       </c>
       <c r="D33" s="4">
-        <v>4301135114</v>
+        <v>4301135186</v>
       </c>
       <c r="E33" s="3">
-        <v>4607111034397</v>
+        <v>4640242180311</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>329</v>
-      </c>
-      <c r="G33" s="1"/>
+        <v>378</v>
+      </c>
+      <c r="G33" s="6"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="11" t="s">
-        <v>75</v>
+        <v>399</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>327</v>
+        <v>376</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>328</v>
+        <v>377</v>
       </c>
       <c r="D34" s="4">
-        <v>4301135114</v>
+        <v>4301135186</v>
       </c>
       <c r="E34" s="3">
-        <v>4607111034397</v>
+        <v>4640242180311</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>329</v>
-      </c>
-      <c r="G34" s="1"/>
+        <v>378</v>
+      </c>
+      <c r="G34" s="6"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="11" t="s">
-        <v>248</v>
+        <v>478</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>152</v>
+        <v>376</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>153</v>
+        <v>377</v>
       </c>
       <c r="D35" s="4">
-        <v>4301131016</v>
+        <v>4301135186</v>
       </c>
       <c r="E35" s="3">
-        <v>4607111034137</v>
+        <v>4640242180311</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="G35" s="1"/>
+        <v>378</v>
+      </c>
+      <c r="G35" s="6"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="11" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>155</v>
+        <v>376</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>156</v>
+        <v>377</v>
       </c>
       <c r="D36" s="4">
-        <v>4301131011</v>
+        <v>4301135186</v>
       </c>
       <c r="E36" s="3">
-        <v>4607111034120</v>
+        <v>4640242180311</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>157</v>
+        <v>378</v>
       </c>
       <c r="G36" s="1"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="11" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="D37" s="4">
-        <v>4301135192</v>
+        <v>4301135187</v>
       </c>
       <c r="E37" s="3">
-        <v>4640242180380</v>
+        <v>4640242180328</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="G37" s="1"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="11" t="s">
-        <v>296</v>
+        <v>217</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="D38" s="4">
-        <v>4301135192</v>
+        <v>4301135187</v>
       </c>
       <c r="E38" s="3">
-        <v>4640242180380</v>
+        <v>4640242180328</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="G38" s="1"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="11" t="s">
-        <v>76</v>
+        <v>244</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>372</v>
+        <v>312</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>373</v>
+        <v>313</v>
       </c>
       <c r="D39" s="4">
-        <v>4301135192</v>
+        <v>4301135115</v>
       </c>
       <c r="E39" s="3">
-        <v>4640242180380</v>
+        <v>4607111034380</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>374</v>
+        <v>314</v>
       </c>
       <c r="G39" s="1"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="11" t="s">
-        <v>279</v>
+        <v>176</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>277</v>
+        <v>312</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>278</v>
+        <v>313</v>
       </c>
       <c r="D40" s="4">
-        <v>4301132066</v>
+        <v>4301135115</v>
       </c>
       <c r="E40" s="3">
-        <v>4607111036520</v>
+        <v>4607111034380</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>279</v>
+        <v>314</v>
       </c>
       <c r="G40" s="1"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="11" t="s">
-        <v>251</v>
+        <v>296</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>277</v>
+        <v>325</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>278</v>
+        <v>326</v>
       </c>
       <c r="D41" s="4">
-        <v>4301132066</v>
+        <v>4301135114</v>
       </c>
       <c r="E41" s="3">
-        <v>4607111036520</v>
+        <v>4607111034397</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>279</v>
+        <v>327</v>
       </c>
       <c r="G41" s="1"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="11" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>280</v>
+        <v>325</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>281</v>
+        <v>326</v>
       </c>
       <c r="D42" s="4">
-        <v>4301132065</v>
+        <v>4301135114</v>
       </c>
       <c r="E42" s="3">
-        <v>4607111036599</v>
+        <v>4607111034397</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>282</v>
+        <v>327</v>
       </c>
       <c r="G42" s="1"/>
     </row>
-    <row r="43" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="11" t="s">
-        <v>253</v>
+        <v>75</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>283</v>
+        <v>325</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>284</v>
+        <v>326</v>
       </c>
       <c r="D43" s="4">
-        <v>4301132063</v>
+        <v>4301135114</v>
       </c>
       <c r="E43" s="3">
-        <v>4607111036605</v>
+        <v>4607111034397</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>285</v>
+        <v>327</v>
       </c>
       <c r="G43" s="1"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="11" t="s">
-        <v>254</v>
+        <v>147</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>102</v>
+        <v>297</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>103</v>
+        <v>298</v>
       </c>
       <c r="D44" s="4">
-        <v>4301132046</v>
+        <v>4301131012</v>
       </c>
       <c r="E44" s="3">
-        <v>4607111035691</v>
+        <v>4607111034137</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>104</v>
+        <v>152</v>
       </c>
       <c r="G44" s="1"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="11" t="s">
-        <v>104</v>
+        <v>152</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>102</v>
+        <v>297</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>103</v>
+        <v>298</v>
       </c>
       <c r="D45" s="4">
-        <v>4301132046</v>
+        <v>4301131012</v>
       </c>
       <c r="E45" s="3">
-        <v>4607111035691</v>
+        <v>4607111034137</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>104</v>
+        <v>152</v>
       </c>
       <c r="G45" s="1"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="11" t="s">
-        <v>77</v>
+        <v>246</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>102</v>
+        <v>297</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>103</v>
+        <v>298</v>
       </c>
       <c r="D46" s="4">
-        <v>4301132046</v>
+        <v>4301131012</v>
       </c>
       <c r="E46" s="3">
-        <v>4607111035691</v>
+        <v>4607111034137</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>104</v>
+        <v>152</v>
       </c>
       <c r="G46" s="1"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="11" t="s">
-        <v>107</v>
+        <v>148</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>105</v>
+        <v>153</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>106</v>
+        <v>154</v>
       </c>
       <c r="D47" s="4">
-        <v>4301132064</v>
+        <v>4301131011</v>
       </c>
       <c r="E47" s="3">
-        <v>4607111036537</v>
+        <v>4607111034120</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="G47" s="1"/>
+        <v>155</v>
+      </c>
+      <c r="G47" s="6"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="11" t="s">
-        <v>78</v>
+        <v>155</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>105</v>
+        <v>153</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>106</v>
+        <v>154</v>
       </c>
       <c r="D48" s="4">
-        <v>4301132064</v>
+        <v>4301131011</v>
       </c>
       <c r="E48" s="3">
-        <v>4607111036537</v>
+        <v>4607111034120</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="G48" s="1"/>
+        <v>155</v>
+      </c>
+      <c r="G48" s="6"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="11" t="s">
-        <v>79</v>
+        <v>247</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>108</v>
+        <v>153</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>109</v>
+        <v>154</v>
       </c>
       <c r="D49" s="4">
-        <v>4301132048</v>
+        <v>4301131011</v>
       </c>
       <c r="E49" s="3">
-        <v>4607111035721</v>
+        <v>4607111034120</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>110</v>
+        <v>155</v>
       </c>
       <c r="G49" s="1"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="11" t="s">
-        <v>80</v>
+        <v>248</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="D50" s="4">
-        <v>4301132080</v>
+        <v>4301135192</v>
       </c>
       <c r="E50" s="3">
-        <v>4640242180397</v>
+        <v>4640242180380</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="G50" s="1"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="11" t="s">
-        <v>255</v>
+        <v>294</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>286</v>
+        <v>370</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>287</v>
+        <v>371</v>
       </c>
       <c r="D51" s="4">
-        <v>4301135134</v>
+        <v>4301135192</v>
       </c>
       <c r="E51" s="3">
-        <v>4607111035806</v>
+        <v>4640242180380</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>288</v>
+        <v>372</v>
       </c>
       <c r="G51" s="1"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="11" t="s">
-        <v>256</v>
+        <v>443</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>180</v>
+        <v>370</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>181</v>
+        <v>371</v>
       </c>
       <c r="D52" s="4">
-        <v>4301070935</v>
+        <v>4301135192</v>
       </c>
       <c r="E52" s="3">
-        <v>4607111037190</v>
+        <v>4640242180380</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>182</v>
+        <v>372</v>
       </c>
       <c r="G52" s="1"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="11" t="s">
-        <v>257</v>
+        <v>471</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>289</v>
+        <v>370</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>290</v>
+        <v>371</v>
       </c>
       <c r="D53" s="4">
-        <v>4301070865</v>
+        <v>4301135192</v>
       </c>
       <c r="E53" s="3">
-        <v>4607111036285</v>
+        <v>4640242180380</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>291</v>
+        <v>372</v>
       </c>
       <c r="G53" s="1"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="11" t="s">
-        <v>189</v>
+        <v>76</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>188</v>
+        <v>370</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>358</v>
+        <v>371</v>
       </c>
       <c r="D54" s="4">
-        <v>4301070970</v>
+        <v>4301135192</v>
       </c>
       <c r="E54" s="3">
-        <v>4607111037091</v>
+        <v>4640242180380</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>359</v>
-      </c>
-      <c r="G54" s="6"/>
+        <v>372</v>
+      </c>
+      <c r="G54" s="1"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="11" t="s">
-        <v>187</v>
+        <v>277</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>188</v>
+        <v>275</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>358</v>
+        <v>276</v>
       </c>
       <c r="D55" s="4">
-        <v>4301070970</v>
+        <v>4301132066</v>
       </c>
       <c r="E55" s="3">
-        <v>4607111037091</v>
+        <v>4607111036520</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>359</v>
-      </c>
-      <c r="G55" s="6"/>
+        <v>277</v>
+      </c>
+      <c r="G55" s="1"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="11" t="s">
-        <v>349</v>
+        <v>404</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>188</v>
+        <v>275</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>358</v>
+        <v>276</v>
       </c>
       <c r="D56" s="4">
-        <v>4301070970</v>
+        <v>4301132066</v>
       </c>
       <c r="E56" s="3">
-        <v>4607111037091</v>
+        <v>4607111036520</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>359</v>
+        <v>277</v>
       </c>
       <c r="G56" s="1"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="11" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>188</v>
+        <v>275</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>358</v>
+        <v>276</v>
       </c>
       <c r="D57" s="4">
-        <v>4301070970</v>
+        <v>4301132066</v>
       </c>
       <c r="E57" s="3">
-        <v>4607111037091</v>
+        <v>4607111036520</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>359</v>
+        <v>277</v>
       </c>
       <c r="G57" s="1"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="11" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>118</v>
+        <v>278</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>344</v>
+        <v>279</v>
       </c>
       <c r="D58" s="4">
-        <v>4301070975</v>
+        <v>4301132065</v>
       </c>
       <c r="E58" s="3">
-        <v>4607111033970</v>
+        <v>4607111036599</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>345</v>
+        <v>280</v>
       </c>
       <c r="G58" s="1"/>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A59" s="11" t="s">
-        <v>87</v>
+        <v>251</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>121</v>
+        <v>281</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>346</v>
+        <v>282</v>
       </c>
       <c r="D59" s="4">
-        <v>4301070973</v>
+        <v>4301132063</v>
       </c>
       <c r="E59" s="3">
-        <v>4607111033987</v>
+        <v>4607111036605</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>347</v>
-      </c>
-      <c r="G59" s="6"/>
+        <v>283</v>
+      </c>
+      <c r="G59" s="1"/>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="11" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>121</v>
+        <v>102</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>346</v>
+        <v>103</v>
       </c>
       <c r="D60" s="4">
-        <v>4301070973</v>
+        <v>4301132046</v>
       </c>
       <c r="E60" s="3">
-        <v>4607111033987</v>
+        <v>4607111035691</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>347</v>
+        <v>104</v>
       </c>
       <c r="G60" s="1"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="11" t="s">
-        <v>261</v>
+        <v>104</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>292</v>
+        <v>102</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>293</v>
+        <v>103</v>
       </c>
       <c r="D61" s="4">
-        <v>4301070861</v>
+        <v>4301132046</v>
       </c>
       <c r="E61" s="3">
-        <v>4607111036308</v>
+        <v>4607111035691</v>
       </c>
       <c r="F61" s="5" t="s">
-        <v>294</v>
+        <v>104</v>
       </c>
       <c r="G61" s="1"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="11" t="s">
-        <v>262</v>
+        <v>77</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="D62" s="4">
-        <v>4301070864</v>
+        <v>4301132046</v>
       </c>
       <c r="E62" s="3">
-        <v>4607111036292</v>
+        <v>4607111035691</v>
       </c>
       <c r="F62" s="5" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="G62" s="1"/>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="11" t="s">
-        <v>263</v>
+        <v>107</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>184</v>
+        <v>105</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>354</v>
+        <v>106</v>
       </c>
       <c r="D63" s="4">
-        <v>4301070972</v>
+        <v>4301132064</v>
       </c>
       <c r="E63" s="3">
-        <v>4607111037183</v>
+        <v>4607111036537</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>355</v>
+        <v>107</v>
       </c>
       <c r="G63" s="1"/>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="11" t="s">
-        <v>264</v>
+        <v>78</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>335</v>
+        <v>106</v>
       </c>
       <c r="D64" s="4">
-        <v>4301070976</v>
+        <v>4301132064</v>
       </c>
       <c r="E64" s="3">
-        <v>4607111034144</v>
+        <v>4607111036537</v>
       </c>
       <c r="F64" s="5" t="s">
-        <v>336</v>
+        <v>107</v>
       </c>
       <c r="G64" s="1"/>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="11" t="s">
-        <v>265</v>
+        <v>79</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>342</v>
+        <v>109</v>
       </c>
       <c r="D65" s="4">
-        <v>4301070974</v>
+        <v>4301132048</v>
       </c>
       <c r="E65" s="3">
-        <v>4607111034151</v>
+        <v>4607111035721</v>
       </c>
       <c r="F65" s="5" t="s">
-        <v>343</v>
+        <v>110</v>
       </c>
       <c r="G65" s="1"/>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="11" t="s">
-        <v>81</v>
+        <v>477</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>111</v>
+        <v>373</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>112</v>
+        <v>374</v>
       </c>
       <c r="D66" s="4">
-        <v>4301070864</v>
+        <v>4301132080</v>
       </c>
       <c r="E66" s="3">
-        <v>4607111036292</v>
+        <v>4640242180397</v>
       </c>
       <c r="F66" s="5" t="s">
-        <v>113</v>
+        <v>375</v>
       </c>
       <c r="G66" s="1"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="11" t="s">
-        <v>179</v>
+        <v>80</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>180</v>
+        <v>373</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>181</v>
+        <v>374</v>
       </c>
       <c r="D67" s="4">
-        <v>4301070935</v>
+        <v>4301132080</v>
       </c>
       <c r="E67" s="3">
-        <v>4607111037190</v>
+        <v>4640242180397</v>
       </c>
       <c r="F67" s="5" t="s">
-        <v>182</v>
+        <v>375</v>
       </c>
       <c r="G67" s="1"/>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="11" t="s">
-        <v>183</v>
+        <v>430</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>184</v>
+        <v>284</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>354</v>
+        <v>285</v>
       </c>
       <c r="D68" s="4">
-        <v>4301070972</v>
+        <v>4301135134</v>
       </c>
       <c r="E68" s="3">
-        <v>4607111037183</v>
+        <v>4607111035806</v>
       </c>
       <c r="F68" s="5" t="s">
-        <v>355</v>
+        <v>286</v>
       </c>
       <c r="G68" s="1"/>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="11" t="s">
-        <v>185</v>
+        <v>442</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>186</v>
+        <v>284</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>356</v>
+        <v>285</v>
       </c>
       <c r="D69" s="4">
-        <v>4301070969</v>
+        <v>4301135134</v>
       </c>
       <c r="E69" s="3">
-        <v>4607111036858</v>
+        <v>4607111035806</v>
       </c>
       <c r="F69" s="5" t="s">
-        <v>357</v>
+        <v>286</v>
       </c>
       <c r="G69" s="1"/>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="11" t="s">
-        <v>82</v>
+        <v>253</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>114</v>
+        <v>284</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>115</v>
+        <v>285</v>
       </c>
       <c r="D70" s="4">
-        <v>4301070909</v>
+        <v>4301135134</v>
       </c>
       <c r="E70" s="3">
-        <v>4607111036889</v>
+        <v>4607111035806</v>
       </c>
       <c r="F70" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="G70" s="6"/>
+        <v>286</v>
+      </c>
+      <c r="G70" s="1"/>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="11" t="s">
-        <v>193</v>
+        <v>254</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="D71" s="4">
-        <v>4301070944</v>
+        <v>4301070935</v>
       </c>
       <c r="E71" s="3">
-        <v>4607111036902</v>
+        <v>4607111037190</v>
       </c>
       <c r="F71" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="G71" s="6"/>
+        <v>180</v>
+      </c>
+      <c r="G71" s="1"/>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="11" t="s">
-        <v>348</v>
+        <v>405</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>191</v>
+        <v>287</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>192</v>
+        <v>288</v>
       </c>
       <c r="D72" s="4">
-        <v>4301070944</v>
+        <v>4301070865</v>
       </c>
       <c r="E72" s="3">
-        <v>4607111036902</v>
+        <v>4607111036285</v>
       </c>
       <c r="F72" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="G72" s="6"/>
+        <v>289</v>
+      </c>
+      <c r="G72" s="1"/>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="11" t="s">
-        <v>190</v>
+        <v>455</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>191</v>
+        <v>287</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>192</v>
+        <v>288</v>
       </c>
       <c r="D73" s="4">
-        <v>4301070944</v>
+        <v>4301070865</v>
       </c>
       <c r="E73" s="3">
-        <v>4607111036902</v>
+        <v>4607111036285</v>
       </c>
       <c r="F73" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="G73" s="6"/>
+        <v>289</v>
+      </c>
+      <c r="G73" s="1"/>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="11" t="s">
-        <v>303</v>
+        <v>255</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>117</v>
+        <v>287</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>335</v>
+        <v>288</v>
       </c>
       <c r="D74" s="4">
-        <v>4301070976</v>
+        <v>4301070865</v>
       </c>
       <c r="E74" s="3">
-        <v>4607111034144</v>
+        <v>4607111036285</v>
       </c>
       <c r="F74" s="5" t="s">
-        <v>336</v>
-      </c>
-      <c r="G74" s="6"/>
+        <v>289</v>
+      </c>
+      <c r="G74" s="1"/>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="11" t="s">
-        <v>83</v>
+        <v>187</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>117</v>
+        <v>186</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>335</v>
+        <v>356</v>
       </c>
       <c r="D75" s="4">
-        <v>4301070976</v>
+        <v>4301070970</v>
       </c>
       <c r="E75" s="3">
-        <v>4607111034144</v>
+        <v>4607111037091</v>
       </c>
       <c r="F75" s="5" t="s">
-        <v>336</v>
+        <v>357</v>
       </c>
       <c r="G75" s="6"/>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="11" t="s">
-        <v>302</v>
+        <v>185</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>118</v>
+        <v>186</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>344</v>
+        <v>356</v>
       </c>
       <c r="D76" s="4">
-        <v>4301070975</v>
+        <v>4301070970</v>
       </c>
       <c r="E76" s="3">
-        <v>4607111033970</v>
+        <v>4607111037091</v>
       </c>
       <c r="F76" s="5" t="s">
-        <v>345</v>
+        <v>357</v>
       </c>
       <c r="G76" s="6"/>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="11" t="s">
-        <v>84</v>
+        <v>347</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>118</v>
+        <v>186</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>344</v>
+        <v>356</v>
       </c>
       <c r="D77" s="4">
-        <v>4301070975</v>
+        <v>4301070970</v>
       </c>
       <c r="E77" s="3">
-        <v>4607111033970</v>
+        <v>4607111037091</v>
       </c>
       <c r="F77" s="5" t="s">
-        <v>345</v>
-      </c>
-      <c r="G77" s="6"/>
+        <v>357</v>
+      </c>
+      <c r="G77" s="1"/>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="11" t="s">
-        <v>85</v>
+        <v>256</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>119</v>
+        <v>186</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>337</v>
+        <v>356</v>
       </c>
       <c r="D78" s="4">
-        <v>4301070981</v>
+        <v>4301070970</v>
       </c>
       <c r="E78" s="3">
-        <v>4607111036728</v>
+        <v>4607111037091</v>
       </c>
       <c r="F78" s="5" t="s">
-        <v>338</v>
-      </c>
-      <c r="G78" s="6"/>
+        <v>357</v>
+      </c>
+      <c r="G78" s="1"/>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="D79" s="4">
-        <v>4301070974</v>
+        <v>4301070973</v>
       </c>
       <c r="E79" s="3">
-        <v>4607111034151</v>
+        <v>4607111033987</v>
       </c>
       <c r="F79" s="5" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="G79" s="6"/>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="11" t="s">
-        <v>223</v>
+        <v>345</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>220</v>
+        <v>121</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>221</v>
+        <v>344</v>
       </c>
       <c r="D80" s="4">
-        <v>4301071010</v>
+        <v>4301070973</v>
       </c>
       <c r="E80" s="3">
-        <v>4607111037701</v>
+        <v>4607111033987</v>
       </c>
       <c r="F80" s="5" t="s">
-        <v>222</v>
+        <v>345</v>
       </c>
       <c r="G80" s="6"/>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="11" t="s">
-        <v>227</v>
+        <v>258</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>224</v>
+        <v>121</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>225</v>
+        <v>344</v>
       </c>
       <c r="D81" s="4">
-        <v>4301070870</v>
+        <v>4301070973</v>
       </c>
       <c r="E81" s="3">
-        <v>4607111036711</v>
+        <v>4607111033987</v>
       </c>
       <c r="F81" s="5" t="s">
-        <v>226</v>
-      </c>
-      <c r="G81" s="6"/>
+        <v>345</v>
+      </c>
+      <c r="G81" s="1"/>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="11" t="s">
-        <v>195</v>
+        <v>454</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>330</v>
+        <v>290</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>331</v>
+        <v>291</v>
       </c>
       <c r="D82" s="4">
-        <v>4301070948</v>
+        <v>4301070861</v>
       </c>
       <c r="E82" s="3">
-        <v>4607111037022</v>
+        <v>4607111036308</v>
       </c>
       <c r="F82" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="G82" s="6"/>
+        <v>292</v>
+      </c>
+      <c r="G82" s="1"/>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="11" t="s">
-        <v>332</v>
+        <v>259</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>330</v>
+        <v>290</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>331</v>
+        <v>291</v>
       </c>
       <c r="D83" s="4">
-        <v>4301070948</v>
+        <v>4301070861</v>
       </c>
       <c r="E83" s="3">
-        <v>4607111037022</v>
+        <v>4607111036308</v>
       </c>
       <c r="F83" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="G83" s="6"/>
+        <v>292</v>
+      </c>
+      <c r="G83" s="1"/>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="11" t="s">
-        <v>194</v>
+        <v>81</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>330</v>
+        <v>111</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>331</v>
+        <v>112</v>
       </c>
       <c r="D84" s="4">
-        <v>4301070948</v>
+        <v>4301070864</v>
       </c>
       <c r="E84" s="3">
-        <v>4607111037022</v>
+        <v>4607111036292</v>
       </c>
       <c r="F84" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="G84" s="6"/>
+        <v>113</v>
+      </c>
+      <c r="G84" s="1"/>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="11" t="s">
-        <v>88</v>
+        <v>456</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="D85" s="4">
-        <v>4301070920</v>
+        <v>4301070864</v>
       </c>
       <c r="E85" s="3">
-        <v>4607111035929</v>
+        <v>4607111036292</v>
       </c>
       <c r="F85" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="G85" s="6"/>
+        <v>113</v>
+      </c>
+      <c r="G85" s="1"/>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="11" t="s">
-        <v>196</v>
+        <v>260</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>197</v>
+        <v>111</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>198</v>
+        <v>112</v>
       </c>
       <c r="D86" s="4">
-        <v>4301070921</v>
+        <v>4301070864</v>
       </c>
       <c r="E86" s="3">
-        <v>4607111035905</v>
+        <v>4607111036292</v>
       </c>
       <c r="F86" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="G86" s="6"/>
+        <v>113</v>
+      </c>
+      <c r="G86" s="1"/>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="11" t="s">
-        <v>199</v>
+        <v>261</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>198</v>
+        <v>352</v>
       </c>
       <c r="D87" s="4">
-        <v>4301070921</v>
+        <v>4301070972</v>
       </c>
       <c r="E87" s="3">
-        <v>4607111035905</v>
+        <v>4607111037183</v>
       </c>
       <c r="F87" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="G87" s="6"/>
+        <v>353</v>
+      </c>
+      <c r="G87" s="1"/>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="11" t="s">
-        <v>230</v>
+        <v>86</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>228</v>
+        <v>120</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>229</v>
+        <v>340</v>
       </c>
       <c r="D88" s="4">
-        <v>4301070917</v>
+        <v>4301070974</v>
       </c>
       <c r="E88" s="3">
-        <v>4607111035912</v>
+        <v>4607111034151</v>
       </c>
       <c r="F88" s="5" t="s">
-        <v>230</v>
+        <v>341</v>
       </c>
       <c r="G88" s="6"/>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="11" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>228</v>
+        <v>120</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>229</v>
+        <v>340</v>
       </c>
       <c r="D89" s="4">
-        <v>4301070917</v>
+        <v>4301070974</v>
       </c>
       <c r="E89" s="3">
-        <v>4607111035912</v>
+        <v>4607111034151</v>
       </c>
       <c r="F89" s="5" t="s">
-        <v>230</v>
+        <v>341</v>
       </c>
       <c r="G89" s="6"/>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="11" t="s">
-        <v>399</v>
+        <v>263</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>228</v>
+        <v>120</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>229</v>
+        <v>340</v>
       </c>
       <c r="D90" s="4">
-        <v>4301070917</v>
+        <v>4301070974</v>
       </c>
       <c r="E90" s="3">
-        <v>4607111035912</v>
+        <v>4607111034151</v>
       </c>
       <c r="F90" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="G90" s="6"/>
+        <v>341</v>
+      </c>
+      <c r="G90" s="1"/>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="11" t="s">
-        <v>231</v>
+        <v>177</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>228</v>
+        <v>178</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>229</v>
+        <v>179</v>
       </c>
       <c r="D91" s="4">
-        <v>4301070917</v>
+        <v>4301070935</v>
       </c>
       <c r="E91" s="3">
-        <v>4607111035912</v>
+        <v>4607111037190</v>
       </c>
       <c r="F91" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="G91" s="6"/>
+        <v>180</v>
+      </c>
+      <c r="G91" s="1"/>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="11" t="s">
-        <v>200</v>
+        <v>181</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>125</v>
+        <v>182</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>126</v>
+        <v>352</v>
       </c>
       <c r="D92" s="4">
-        <v>4301070827</v>
+        <v>4301070972</v>
       </c>
       <c r="E92" s="3">
-        <v>4607111036216</v>
+        <v>4607111037183</v>
       </c>
       <c r="F92" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="G92" s="6"/>
+        <v>353</v>
+      </c>
+      <c r="G92" s="1"/>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="11" t="s">
-        <v>89</v>
+        <v>183</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>125</v>
+        <v>184</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>126</v>
+        <v>354</v>
       </c>
       <c r="D93" s="4">
-        <v>4301070827</v>
+        <v>4301070969</v>
       </c>
       <c r="E93" s="3">
-        <v>4607111036216</v>
+        <v>4607111036858</v>
       </c>
       <c r="F93" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="G93" s="6"/>
+        <v>355</v>
+      </c>
+      <c r="G93" s="1"/>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="11" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="D94" s="4">
-        <v>4301070882</v>
+        <v>4301070909</v>
       </c>
       <c r="E94" s="3">
-        <v>4607111035899</v>
+        <v>4607111036889</v>
       </c>
       <c r="F94" s="5" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="G94" s="6"/>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="11" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>203</v>
+        <v>190</v>
       </c>
       <c r="D95" s="4">
-        <v>4301070873</v>
+        <v>4301070944</v>
       </c>
       <c r="E95" s="3">
-        <v>4607111035080</v>
+        <v>4607111036902</v>
       </c>
       <c r="F95" s="5" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="G95" s="6"/>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="11" t="s">
-        <v>201</v>
+        <v>346</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>203</v>
+        <v>190</v>
       </c>
       <c r="D96" s="4">
-        <v>4301070873</v>
+        <v>4301070944</v>
       </c>
       <c r="E96" s="3">
-        <v>4607111035080</v>
+        <v>4607111036902</v>
       </c>
       <c r="F96" s="5" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="G96" s="6"/>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="11" t="s">
-        <v>297</v>
+        <v>188</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>381</v>
+        <v>189</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>382</v>
+        <v>190</v>
       </c>
       <c r="D97" s="4">
-        <v>4301135193</v>
+        <v>4301070944</v>
       </c>
       <c r="E97" s="3">
-        <v>4640242180403</v>
+        <v>4607111036902</v>
       </c>
       <c r="F97" s="5" t="s">
-        <v>383</v>
+        <v>191</v>
       </c>
       <c r="G97" s="6"/>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="11" t="s">
-        <v>205</v>
+        <v>301</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>381</v>
+        <v>117</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>382</v>
+        <v>333</v>
       </c>
       <c r="D98" s="4">
-        <v>4301135193</v>
+        <v>4301070976</v>
       </c>
       <c r="E98" s="3">
-        <v>4640242180403</v>
+        <v>4607111034144</v>
       </c>
       <c r="F98" s="5" t="s">
-        <v>383</v>
+        <v>334</v>
       </c>
       <c r="G98" s="6"/>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="11" t="s">
-        <v>206</v>
+        <v>262</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>207</v>
+        <v>117</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>208</v>
+        <v>333</v>
       </c>
       <c r="D99" s="4">
-        <v>4301070858</v>
+        <v>4301070976</v>
       </c>
       <c r="E99" s="3">
-        <v>4607111036193</v>
+        <v>4607111034144</v>
       </c>
       <c r="F99" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="G99" s="6"/>
+        <v>334</v>
+      </c>
+      <c r="G99" s="1"/>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="11" t="s">
-        <v>92</v>
+        <v>334</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>132</v>
+        <v>333</v>
       </c>
       <c r="D100" s="4">
-        <v>4301135112</v>
+        <v>4301070976</v>
       </c>
       <c r="E100" s="3">
-        <v>4607111034199</v>
+        <v>4607111034144</v>
       </c>
       <c r="F100" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="G100" s="6"/>
+        <v>334</v>
+      </c>
+      <c r="G100" s="1"/>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="11" t="s">
-        <v>147</v>
+        <v>83</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>299</v>
+        <v>117</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>300</v>
+        <v>333</v>
       </c>
       <c r="D101" s="4">
-        <v>4301131012</v>
+        <v>4301070976</v>
       </c>
       <c r="E101" s="3">
-        <v>4607111034137</v>
+        <v>4607111034144</v>
       </c>
       <c r="F101" s="5" t="s">
-        <v>154</v>
+        <v>334</v>
       </c>
       <c r="G101" s="6"/>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="11" t="s">
-        <v>148</v>
+        <v>300</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>155</v>
+        <v>118</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>156</v>
+        <v>342</v>
       </c>
       <c r="D102" s="4">
-        <v>4301131011</v>
+        <v>4301070975</v>
       </c>
       <c r="E102" s="3">
-        <v>4607111034120</v>
+        <v>4607111033970</v>
       </c>
       <c r="F102" s="5" t="s">
-        <v>157</v>
+        <v>343</v>
       </c>
       <c r="G102" s="6"/>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="11" t="s">
-        <v>313</v>
+        <v>257</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>339</v>
+        <v>118</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="D103" s="4">
-        <v>4301131018</v>
+        <v>4301070975</v>
       </c>
       <c r="E103" s="3">
-        <v>4607111037930</v>
+        <v>4607111033970</v>
       </c>
       <c r="F103" s="5" t="s">
-        <v>341</v>
-      </c>
-      <c r="G103" s="6"/>
+        <v>343</v>
+      </c>
+      <c r="G103" s="1"/>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="11" t="s">
-        <v>210</v>
+        <v>411</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>339</v>
+        <v>118</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="D104" s="4">
-        <v>4301131018</v>
+        <v>4301070975</v>
       </c>
       <c r="E104" s="3">
-        <v>4607111037930</v>
+        <v>4607111033970</v>
       </c>
       <c r="F104" s="5" t="s">
-        <v>341</v>
-      </c>
-      <c r="G104" s="6"/>
+        <v>343</v>
+      </c>
+      <c r="G104" s="1"/>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="11" t="s">
-        <v>211</v>
+        <v>343</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>158</v>
+        <v>118</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>159</v>
+        <v>342</v>
       </c>
       <c r="D105" s="4">
-        <v>4301190014</v>
+        <v>4301070975</v>
       </c>
       <c r="E105" s="3">
-        <v>4607111037053</v>
+        <v>4607111033970</v>
       </c>
       <c r="F105" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="G105" s="6"/>
+        <v>343</v>
+      </c>
+      <c r="G105" s="1"/>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="11" t="s">
-        <v>149</v>
+        <v>84</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>158</v>
+        <v>118</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>159</v>
+        <v>342</v>
       </c>
       <c r="D106" s="4">
-        <v>4301190014</v>
+        <v>4301070975</v>
       </c>
       <c r="E106" s="3">
-        <v>4607111037053</v>
+        <v>4607111033970</v>
       </c>
       <c r="F106" s="5" t="s">
-        <v>160</v>
+        <v>343</v>
       </c>
       <c r="G106" s="6"/>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="11" t="s">
-        <v>212</v>
+        <v>410</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>161</v>
+        <v>119</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>162</v>
+        <v>335</v>
       </c>
       <c r="D107" s="4">
-        <v>4301190015</v>
+        <v>4301070981</v>
       </c>
       <c r="E107" s="3">
-        <v>4607111037060</v>
+        <v>4607111036728</v>
       </c>
       <c r="F107" s="5" t="s">
-        <v>163</v>
+        <v>336</v>
       </c>
       <c r="G107" s="6"/>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="11" t="s">
-        <v>150</v>
+        <v>85</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>161</v>
+        <v>119</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>162</v>
+        <v>335</v>
       </c>
       <c r="D108" s="4">
-        <v>4301190015</v>
+        <v>4301070981</v>
       </c>
       <c r="E108" s="3">
-        <v>4607111037060</v>
+        <v>4607111036728</v>
       </c>
       <c r="F108" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="G108" s="1"/>
+        <v>336</v>
+      </c>
+      <c r="G108" s="6"/>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="11" t="s">
-        <v>235</v>
+        <v>424</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>232</v>
+        <v>218</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>233</v>
+        <v>219</v>
       </c>
       <c r="D109" s="4">
-        <v>4301135053</v>
+        <v>4301071010</v>
       </c>
       <c r="E109" s="3">
-        <v>4607111036407</v>
+        <v>4607111037701</v>
       </c>
       <c r="F109" s="5" t="s">
-        <v>234</v>
-      </c>
-      <c r="G109" s="1"/>
+        <v>220</v>
+      </c>
+      <c r="G109" s="6"/>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="11" t="s">
-        <v>266</v>
+        <v>221</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>134</v>
+        <v>218</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="D110" s="4">
-        <v>4301135162</v>
+        <v>4301071010</v>
       </c>
       <c r="E110" s="3">
-        <v>4607111034014</v>
+        <v>4607111037701</v>
       </c>
       <c r="F110" s="5" t="s">
-        <v>295</v>
-      </c>
-      <c r="G110" s="1"/>
+        <v>220</v>
+      </c>
+      <c r="G110" s="6"/>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="11" t="s">
-        <v>267</v>
+        <v>225</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>136</v>
+        <v>222</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>137</v>
+        <v>223</v>
       </c>
       <c r="D111" s="4">
-        <v>4301135117</v>
+        <v>4301070870</v>
       </c>
       <c r="E111" s="3">
-        <v>4607111033994</v>
+        <v>4607111036711</v>
       </c>
       <c r="F111" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="G111" s="1"/>
+        <v>224</v>
+      </c>
+      <c r="G111" s="6"/>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="11" t="s">
-        <v>93</v>
+        <v>193</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>134</v>
+        <v>328</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>213</v>
+        <v>329</v>
       </c>
       <c r="D112" s="4">
-        <v>4301135162</v>
+        <v>4301070948</v>
       </c>
       <c r="E112" s="3">
-        <v>4607111034014</v>
+        <v>4607111037022</v>
       </c>
       <c r="F112" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="G112" s="1"/>
+        <v>193</v>
+      </c>
+      <c r="G112" s="6"/>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="11" t="s">
-        <v>94</v>
+        <v>330</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>136</v>
+        <v>328</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>137</v>
+        <v>329</v>
       </c>
       <c r="D113" s="4">
-        <v>4301135117</v>
+        <v>4301070948</v>
       </c>
       <c r="E113" s="3">
-        <v>4607111033994</v>
+        <v>4607111037022</v>
       </c>
       <c r="F113" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="G113" s="1"/>
+        <v>193</v>
+      </c>
+      <c r="G113" s="6"/>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="11" t="s">
-        <v>214</v>
+        <v>192</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>384</v>
+        <v>328</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>385</v>
+        <v>329</v>
       </c>
       <c r="D114" s="4">
-        <v>4301136028</v>
+        <v>4301070948</v>
       </c>
       <c r="E114" s="3">
-        <v>4640242180304</v>
+        <v>4607111037022</v>
       </c>
       <c r="F114" s="5" t="s">
-        <v>386</v>
-      </c>
-      <c r="G114" s="1"/>
+        <v>193</v>
+      </c>
+      <c r="G114" s="6"/>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="11" t="s">
-        <v>151</v>
+        <v>124</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>384</v>
+        <v>122</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>385</v>
+        <v>123</v>
       </c>
       <c r="D115" s="4">
-        <v>4301136028</v>
+        <v>4301070920</v>
       </c>
       <c r="E115" s="3">
-        <v>4640242180304</v>
+        <v>4607111035929</v>
       </c>
       <c r="F115" s="5" t="s">
-        <v>386</v>
-      </c>
-      <c r="G115" s="1"/>
+        <v>124</v>
+      </c>
+      <c r="G115" s="6"/>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="11" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>387</v>
+        <v>122</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>388</v>
+        <v>123</v>
       </c>
       <c r="D116" s="4">
-        <v>4301136026</v>
+        <v>4301070920</v>
       </c>
       <c r="E116" s="3">
-        <v>4640242180236</v>
+        <v>4607111035929</v>
       </c>
       <c r="F116" s="5" t="s">
-        <v>389</v>
-      </c>
-      <c r="G116" s="1"/>
+        <v>124</v>
+      </c>
+      <c r="G116" s="6"/>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="11" t="s">
-        <v>325</v>
+        <v>194</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>142</v>
+        <v>195</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>143</v>
+        <v>196</v>
       </c>
       <c r="D117" s="4">
-        <v>4301135177</v>
+        <v>4301070921</v>
       </c>
       <c r="E117" s="3">
-        <v>4607111037862</v>
+        <v>4607111035905</v>
       </c>
       <c r="F117" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="G117" s="1"/>
+        <v>197</v>
+      </c>
+      <c r="G117" s="6"/>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="11" t="s">
-        <v>301</v>
+        <v>197</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>142</v>
+        <v>195</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>143</v>
+        <v>196</v>
       </c>
       <c r="D118" s="4">
-        <v>4301135177</v>
+        <v>4301070921</v>
       </c>
       <c r="E118" s="3">
-        <v>4607111037862</v>
+        <v>4607111035905</v>
       </c>
       <c r="F118" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="G118" s="1"/>
+        <v>197</v>
+      </c>
+      <c r="G118" s="6"/>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="11" t="s">
-        <v>352</v>
+        <v>228</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>304</v>
+        <v>226</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>305</v>
+        <v>227</v>
       </c>
       <c r="D119" s="4">
-        <v>4301070915</v>
+        <v>4301070917</v>
       </c>
       <c r="E119" s="3">
-        <v>4607111035882</v>
+        <v>4607111035912</v>
       </c>
       <c r="F119" s="5" t="s">
-        <v>306</v>
-      </c>
-      <c r="G119" s="1"/>
+        <v>228</v>
+      </c>
+      <c r="G119" s="6"/>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="11" t="s">
-        <v>306</v>
+        <v>349</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>304</v>
+        <v>226</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>305</v>
+        <v>227</v>
       </c>
       <c r="D120" s="4">
-        <v>4301070915</v>
+        <v>4301070917</v>
       </c>
       <c r="E120" s="3">
-        <v>4607111035882</v>
+        <v>4607111035912</v>
       </c>
       <c r="F120" s="5" t="s">
-        <v>306</v>
-      </c>
-      <c r="G120" s="1"/>
+        <v>228</v>
+      </c>
+      <c r="G120" s="6"/>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="11" t="s">
-        <v>309</v>
+        <v>397</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>307</v>
+        <v>226</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>308</v>
+        <v>227</v>
       </c>
       <c r="D121" s="4">
-        <v>4301070874</v>
+        <v>4301070917</v>
       </c>
       <c r="E121" s="3">
-        <v>4607111035332</v>
+        <v>4607111035912</v>
       </c>
       <c r="F121" s="5" t="s">
-        <v>309</v>
-      </c>
-      <c r="G121" s="1"/>
+        <v>228</v>
+      </c>
+      <c r="G121" s="6"/>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="11" t="s">
-        <v>334</v>
+        <v>229</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>310</v>
+        <v>226</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>311</v>
+        <v>227</v>
       </c>
       <c r="D122" s="4">
-        <v>4301136014</v>
+        <v>4301070917</v>
       </c>
       <c r="E122" s="3">
-        <v>4607111035370</v>
+        <v>4607111035912</v>
       </c>
       <c r="F122" s="5" t="s">
-        <v>312</v>
-      </c>
-      <c r="G122" s="1"/>
+        <v>228</v>
+      </c>
+      <c r="G122" s="6"/>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" s="11" t="s">
-        <v>312</v>
+        <v>198</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>310</v>
+        <v>125</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>311</v>
+        <v>126</v>
       </c>
       <c r="D123" s="4">
-        <v>4301136014</v>
+        <v>4301070827</v>
       </c>
       <c r="E123" s="3">
-        <v>4607111035370</v>
+        <v>4607111036216</v>
       </c>
       <c r="F123" s="5" t="s">
-        <v>312</v>
-      </c>
-      <c r="G123" s="1"/>
+        <v>127</v>
+      </c>
+      <c r="G123" s="6"/>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" s="11" t="s">
-        <v>333</v>
+        <v>89</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>317</v>
+        <v>125</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>318</v>
+        <v>126</v>
       </c>
       <c r="D124" s="4">
-        <v>4301051320</v>
+        <v>4301070827</v>
       </c>
       <c r="E124" s="3">
-        <v>4680115881334</v>
+        <v>4607111036216</v>
       </c>
       <c r="F124" s="5" t="s">
-        <v>319</v>
-      </c>
-      <c r="G124" s="1"/>
+        <v>127</v>
+      </c>
+      <c r="G124" s="6"/>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="11" t="s">
-        <v>350</v>
+        <v>130</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>317</v>
+        <v>128</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>318</v>
+        <v>129</v>
       </c>
       <c r="D125" s="4">
-        <v>4301051320</v>
+        <v>4301070882</v>
       </c>
       <c r="E125" s="3">
-        <v>4680115881334</v>
+        <v>4607111035899</v>
       </c>
       <c r="F125" s="5" t="s">
-        <v>319</v>
-      </c>
-      <c r="G125" s="1"/>
+        <v>130</v>
+      </c>
+      <c r="G125" s="6"/>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" s="11" t="s">
-        <v>320</v>
+        <v>90</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>317</v>
+        <v>128</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>318</v>
+        <v>129</v>
       </c>
       <c r="D126" s="4">
-        <v>4301051320</v>
+        <v>4301070882</v>
       </c>
       <c r="E126" s="3">
-        <v>4680115881334</v>
+        <v>4607111035899</v>
       </c>
       <c r="F126" s="5" t="s">
-        <v>319</v>
-      </c>
-      <c r="G126" s="1"/>
+        <v>130</v>
+      </c>
+      <c r="G126" s="6"/>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" s="11" t="s">
-        <v>324</v>
+        <v>202</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>321</v>
+        <v>200</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>322</v>
+        <v>201</v>
       </c>
       <c r="D127" s="4">
-        <v>4301051319</v>
+        <v>4301070873</v>
       </c>
       <c r="E127" s="3">
-        <v>4680115881204</v>
+        <v>4607111035080</v>
       </c>
       <c r="F127" s="5" t="s">
-        <v>323</v>
-      </c>
-      <c r="G127" s="1"/>
+        <v>202</v>
+      </c>
+      <c r="G127" s="6"/>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" s="11" t="s">
-        <v>353</v>
+        <v>199</v>
       </c>
       <c r="B128" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="C128" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="D128" s="4">
+        <v>4301070873</v>
+      </c>
+      <c r="E128" s="3">
+        <v>4607111035080</v>
+      </c>
+      <c r="F128" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="G128" s="6"/>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A129" s="11" t="s">
+        <v>295</v>
+      </c>
+      <c r="B129" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="C129" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="D129" s="4">
+        <v>4301135193</v>
+      </c>
+      <c r="E129" s="3">
+        <v>4640242180403</v>
+      </c>
+      <c r="F129" s="5" t="s">
+        <v>381</v>
+      </c>
+      <c r="G129" s="6"/>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A130" s="11" t="s">
+        <v>203</v>
+      </c>
+      <c r="B130" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="C130" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="D130" s="4">
+        <v>4301135193</v>
+      </c>
+      <c r="E130" s="3">
+        <v>4640242180403</v>
+      </c>
+      <c r="F130" s="5" t="s">
+        <v>381</v>
+      </c>
+      <c r="G130" s="6"/>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A131" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="B131" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="C131" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="D131" s="4">
+        <v>4301070858</v>
+      </c>
+      <c r="E131" s="3">
+        <v>4607111036193</v>
+      </c>
+      <c r="F131" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="G131" s="6"/>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A132" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="B132" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="C132" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="D132" s="4">
+        <v>4301070858</v>
+      </c>
+      <c r="E132" s="3">
+        <v>4607111036193</v>
+      </c>
+      <c r="F132" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="G132" s="6"/>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A133" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="B133" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C133" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D133" s="4">
+        <v>4301135112</v>
+      </c>
+      <c r="E133" s="3">
+        <v>4607111034199</v>
+      </c>
+      <c r="F133" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="G133" s="6"/>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A134" s="11" t="s">
+        <v>311</v>
+      </c>
+      <c r="B134" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="C134" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="D134" s="4">
+        <v>4301131018</v>
+      </c>
+      <c r="E134" s="3">
+        <v>4607111037930</v>
+      </c>
+      <c r="F134" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="G134" s="6"/>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A135" s="11" t="s">
+        <v>429</v>
+      </c>
+      <c r="B135" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="C135" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="D135" s="4">
+        <v>4301131018</v>
+      </c>
+      <c r="E135" s="3">
+        <v>4607111037930</v>
+      </c>
+      <c r="F135" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="G135" s="6"/>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A136" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="B136" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="C136" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="D136" s="4">
+        <v>4301131018</v>
+      </c>
+      <c r="E136" s="3">
+        <v>4607111037930</v>
+      </c>
+      <c r="F136" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="G136" s="6"/>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A137" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="B137" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C137" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="D137" s="4">
+        <v>4301190014</v>
+      </c>
+      <c r="E137" s="3">
+        <v>4607111037053</v>
+      </c>
+      <c r="F137" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="G137" s="6"/>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A138" s="11" t="s">
+        <v>439</v>
+      </c>
+      <c r="B138" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C138" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="D138" s="4">
+        <v>4301190014</v>
+      </c>
+      <c r="E138" s="3">
+        <v>4607111037053</v>
+      </c>
+      <c r="F138" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="G138" s="6"/>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A139" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="B139" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C139" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="D139" s="4">
+        <v>4301190014</v>
+      </c>
+      <c r="E139" s="3">
+        <v>4607111037053</v>
+      </c>
+      <c r="F139" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="G139" s="6"/>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A140" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="B140" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="C140" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="D140" s="4">
+        <v>4301190015</v>
+      </c>
+      <c r="E140" s="3">
+        <v>4607111037060</v>
+      </c>
+      <c r="F140" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="G140" s="6"/>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A141" s="11" t="s">
+        <v>440</v>
+      </c>
+      <c r="B141" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="C141" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="D141" s="4">
+        <v>4301190015</v>
+      </c>
+      <c r="E141" s="3">
+        <v>4607111037060</v>
+      </c>
+      <c r="F141" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="G141" s="6"/>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A142" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="B142" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="C142" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="D142" s="4">
+        <v>4301190015</v>
+      </c>
+      <c r="E142" s="3">
+        <v>4607111037060</v>
+      </c>
+      <c r="F142" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="G142" s="1"/>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A143" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="B143" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="C143" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="D143" s="4">
+        <v>4301135053</v>
+      </c>
+      <c r="E143" s="3">
+        <v>4607111036407</v>
+      </c>
+      <c r="F143" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="G143" s="1"/>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A144" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="B144" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C144" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="D144" s="4">
+        <v>4301135162</v>
+      </c>
+      <c r="E144" s="3">
+        <v>4607111034014</v>
+      </c>
+      <c r="F144" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="G144" s="1"/>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A145" s="11" t="s">
+        <v>447</v>
+      </c>
+      <c r="B145" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C145" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="D145" s="4">
+        <v>4301135162</v>
+      </c>
+      <c r="E145" s="3">
+        <v>4607111034014</v>
+      </c>
+      <c r="F145" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="G145" s="1"/>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A146" s="11" t="s">
+        <v>264</v>
+      </c>
+      <c r="B146" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C146" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="D146" s="4">
+        <v>4301135162</v>
+      </c>
+      <c r="E146" s="3">
+        <v>4607111034014</v>
+      </c>
+      <c r="F146" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="G146" s="1"/>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A147" s="11" t="s">
+        <v>265</v>
+      </c>
+      <c r="B147" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C147" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="D147" s="4">
+        <v>4301135117</v>
+      </c>
+      <c r="E147" s="3">
+        <v>4607111033994</v>
+      </c>
+      <c r="F147" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="G147" s="1"/>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A148" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="B148" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C148" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="D148" s="4">
+        <v>4301135117</v>
+      </c>
+      <c r="E148" s="3">
+        <v>4607111033994</v>
+      </c>
+      <c r="F148" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="G148" s="1"/>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A149" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="B149" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C149" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="D149" s="4">
+        <v>4301135117</v>
+      </c>
+      <c r="E149" s="3">
+        <v>4607111033994</v>
+      </c>
+      <c r="F149" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="G149" s="1"/>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A150" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="B150" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="C150" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="D150" s="4">
+        <v>4301136028</v>
+      </c>
+      <c r="E150" s="3">
+        <v>4640242180304</v>
+      </c>
+      <c r="F150" s="5" t="s">
+        <v>384</v>
+      </c>
+      <c r="G150" s="1"/>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A151" s="11" t="s">
+        <v>445</v>
+      </c>
+      <c r="B151" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="C151" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="D151" s="4">
+        <v>4301136028</v>
+      </c>
+      <c r="E151" s="3">
+        <v>4640242180304</v>
+      </c>
+      <c r="F151" s="5" t="s">
+        <v>384</v>
+      </c>
+      <c r="G151" s="1"/>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A152" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="B152" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="C152" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="D152" s="4">
+        <v>4301136028</v>
+      </c>
+      <c r="E152" s="3">
+        <v>4640242180304</v>
+      </c>
+      <c r="F152" s="5" t="s">
+        <v>384</v>
+      </c>
+      <c r="G152" s="1"/>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A153" s="11" t="s">
+        <v>444</v>
+      </c>
+      <c r="B153" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="C153" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="D153" s="4">
+        <v>4301136026</v>
+      </c>
+      <c r="E153" s="3">
+        <v>4640242180236</v>
+      </c>
+      <c r="F153" s="5" t="s">
+        <v>387</v>
+      </c>
+      <c r="G153" s="1"/>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A154" s="11" t="s">
+        <v>476</v>
+      </c>
+      <c r="B154" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="C154" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="D154" s="4">
+        <v>4301136026</v>
+      </c>
+      <c r="E154" s="3">
+        <v>4640242180236</v>
+      </c>
+      <c r="F154" s="5" t="s">
+        <v>387</v>
+      </c>
+      <c r="G154" s="1"/>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A155" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="B155" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="C155" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="D155" s="4">
+        <v>4301136026</v>
+      </c>
+      <c r="E155" s="3">
+        <v>4640242180236</v>
+      </c>
+      <c r="F155" s="5" t="s">
+        <v>387</v>
+      </c>
+      <c r="G155" s="1"/>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A156" s="11" t="s">
+        <v>323</v>
+      </c>
+      <c r="B156" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C156" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="D156" s="4">
+        <v>4301135177</v>
+      </c>
+      <c r="E156" s="3">
+        <v>4607111037862</v>
+      </c>
+      <c r="F156" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="G156" s="1"/>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A157" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="B157" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C157" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="D157" s="4">
+        <v>4301135177</v>
+      </c>
+      <c r="E157" s="3">
+        <v>4607111037862</v>
+      </c>
+      <c r="F157" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="G157" s="1"/>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A158" s="11" t="s">
+        <v>299</v>
+      </c>
+      <c r="B158" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C158" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="D158" s="4">
+        <v>4301135177</v>
+      </c>
+      <c r="E158" s="3">
+        <v>4607111037862</v>
+      </c>
+      <c r="F158" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="G158" s="1"/>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A159" s="11" t="s">
+        <v>350</v>
+      </c>
+      <c r="B159" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="C159" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="D159" s="4">
+        <v>4301070915</v>
+      </c>
+      <c r="E159" s="3">
+        <v>4607111035882</v>
+      </c>
+      <c r="F159" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="G159" s="1"/>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A160" s="11" t="s">
+        <v>416</v>
+      </c>
+      <c r="B160" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="C160" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="D160" s="4">
+        <v>4301070915</v>
+      </c>
+      <c r="E160" s="3">
+        <v>4607111035882</v>
+      </c>
+      <c r="F160" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="G160" s="1"/>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A161" s="11" t="s">
+        <v>304</v>
+      </c>
+      <c r="B161" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="C161" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="D161" s="4">
+        <v>4301070915</v>
+      </c>
+      <c r="E161" s="3">
+        <v>4607111035882</v>
+      </c>
+      <c r="F161" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="G161" s="1"/>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A162" s="11" t="s">
+        <v>417</v>
+      </c>
+      <c r="B162" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="C162" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="D162" s="4">
+        <v>4301070874</v>
+      </c>
+      <c r="E162" s="3">
+        <v>4607111035332</v>
+      </c>
+      <c r="F162" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="G162" s="1"/>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A163" s="11" t="s">
+        <v>307</v>
+      </c>
+      <c r="B163" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="C163" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="D163" s="4">
+        <v>4301070874</v>
+      </c>
+      <c r="E163" s="3">
+        <v>4607111035332</v>
+      </c>
+      <c r="F163" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="G163" s="1"/>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A164" s="11" t="s">
+        <v>332</v>
+      </c>
+      <c r="B164" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="C164" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="D164" s="4">
+        <v>4301136014</v>
+      </c>
+      <c r="E164" s="3">
+        <v>4607111035370</v>
+      </c>
+      <c r="F164" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="G164" s="1"/>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A165" s="11" t="s">
+        <v>422</v>
+      </c>
+      <c r="B165" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="C165" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="D165" s="4">
+        <v>4301136014</v>
+      </c>
+      <c r="E165" s="3">
+        <v>4607111035370</v>
+      </c>
+      <c r="F165" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="G165" s="1"/>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A166" s="11" t="s">
+        <v>310</v>
+      </c>
+      <c r="B166" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="C166" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="D166" s="4">
+        <v>4301136014</v>
+      </c>
+      <c r="E166" s="3">
+        <v>4607111035370</v>
+      </c>
+      <c r="F166" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="G166" s="1"/>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A167" s="11" t="s">
+        <v>331</v>
+      </c>
+      <c r="B167" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="C167" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="D167" s="4">
+        <v>4301051320</v>
+      </c>
+      <c r="E167" s="3">
+        <v>4680115881334</v>
+      </c>
+      <c r="F167" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="G167" s="1"/>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A168" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="B168" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="C168" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="D168" s="4">
+        <v>4301051320</v>
+      </c>
+      <c r="E168" s="3">
+        <v>4680115881334</v>
+      </c>
+      <c r="F168" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="G168" s="1"/>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A169" s="11" t="s">
+        <v>318</v>
+      </c>
+      <c r="B169" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="C169" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="D169" s="4">
+        <v>4301051320</v>
+      </c>
+      <c r="E169" s="3">
+        <v>4680115881334</v>
+      </c>
+      <c r="F169" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="G169" s="1"/>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A170" s="11" t="s">
+        <v>322</v>
+      </c>
+      <c r="B170" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="C170" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="D170" s="4">
+        <v>4301051319</v>
+      </c>
+      <c r="E170" s="3">
+        <v>4680115881204</v>
+      </c>
+      <c r="F170" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="G170" s="1"/>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A171" s="11" t="s">
+        <v>351</v>
+      </c>
+      <c r="B171" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="C171" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="D171" s="4">
+        <v>4301136027</v>
+      </c>
+      <c r="E171" s="3">
+        <v>4640242180298</v>
+      </c>
+      <c r="F171" s="5" t="s">
         <v>393</v>
       </c>
-      <c r="C128" s="3" t="s">
-        <v>394</v>
-      </c>
-      <c r="D128" s="4">
-        <v>4301136027</v>
-      </c>
-      <c r="E128" s="3">
-        <v>4640242180298</v>
-      </c>
-      <c r="F128" s="5" t="s">
-        <v>395</v>
-      </c>
-      <c r="G128" s="1"/>
-    </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A129" s="11"/>
-      <c r="B129" s="3"/>
-      <c r="C129" s="3"/>
-      <c r="D129" s="4"/>
-      <c r="E129" s="3"/>
-      <c r="F129" s="5"/>
-      <c r="G129" s="1"/>
-    </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A130" s="11"/>
-      <c r="B130" s="3"/>
-      <c r="C130" s="3"/>
-      <c r="D130" s="4"/>
-      <c r="E130" s="3"/>
-      <c r="F130" s="5"/>
-      <c r="G130" s="1"/>
-    </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A131" s="11"/>
-      <c r="B131" s="3"/>
-      <c r="C131" s="3"/>
-      <c r="D131" s="4"/>
-      <c r="E131" s="3"/>
-      <c r="F131" s="5"/>
-      <c r="G131" s="1"/>
-    </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A132" s="11"/>
-      <c r="B132" s="3"/>
-      <c r="C132" s="3"/>
-      <c r="D132" s="4"/>
-      <c r="E132" s="3"/>
-      <c r="F132" s="5"/>
-      <c r="G132" s="1"/>
-    </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A133" s="11"/>
-      <c r="B133" s="3"/>
-      <c r="C133" s="3"/>
-      <c r="D133" s="4"/>
-      <c r="E133" s="3"/>
-      <c r="F133" s="5"/>
-      <c r="G133" s="1"/>
-    </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A134" s="11"/>
-      <c r="B134" s="3"/>
-      <c r="C134" s="3"/>
-      <c r="D134" s="4"/>
-      <c r="E134" s="3"/>
-      <c r="F134" s="5"/>
-      <c r="G134" s="1"/>
-    </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A135" s="11"/>
-      <c r="B135" s="3"/>
-      <c r="C135" s="3"/>
-      <c r="D135" s="4"/>
-      <c r="E135" s="3"/>
-      <c r="F135" s="5"/>
-      <c r="G135" s="1"/>
-    </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A136" s="11"/>
-      <c r="B136" s="3"/>
-      <c r="C136" s="3"/>
-      <c r="D136" s="4"/>
-      <c r="E136" s="3"/>
-      <c r="F136" s="5"/>
-      <c r="G136" s="1"/>
-    </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A137" s="11"/>
-      <c r="B137" s="3"/>
-      <c r="C137" s="3"/>
-      <c r="D137" s="4"/>
-      <c r="E137" s="3"/>
-      <c r="F137" s="5"/>
-      <c r="G137" s="1"/>
-    </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A138" s="11"/>
-      <c r="B138" s="3"/>
-      <c r="C138" s="3"/>
-      <c r="D138" s="4"/>
-      <c r="E138" s="3"/>
-      <c r="F138" s="5"/>
-      <c r="G138" s="1"/>
-    </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A139" s="11"/>
-      <c r="B139" s="3"/>
-      <c r="C139" s="3"/>
-      <c r="D139" s="4"/>
-      <c r="E139" s="3"/>
-      <c r="F139" s="5"/>
-      <c r="G139" s="1"/>
-    </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A140" s="11"/>
-      <c r="B140" s="3"/>
-      <c r="C140" s="3"/>
-      <c r="D140" s="4"/>
-      <c r="E140" s="3"/>
-      <c r="F140" s="5"/>
-      <c r="G140" s="1"/>
-    </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A141" s="11"/>
-      <c r="B141" s="3"/>
-      <c r="C141" s="3"/>
-      <c r="D141" s="4"/>
-      <c r="E141" s="3"/>
-      <c r="F141" s="5"/>
-      <c r="G141" s="1"/>
-    </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A142" s="11"/>
-      <c r="B142" s="3"/>
-      <c r="C142" s="3"/>
-      <c r="D142" s="4"/>
-      <c r="E142" s="3"/>
-      <c r="F142" s="5"/>
-      <c r="G142" s="1"/>
-    </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A143" s="11"/>
-      <c r="B143" s="3"/>
-      <c r="C143" s="3"/>
-      <c r="D143" s="4"/>
-      <c r="E143" s="3"/>
-      <c r="F143" s="5"/>
-      <c r="G143" s="1"/>
-    </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A144" s="11"/>
-      <c r="B144" s="3"/>
-      <c r="C144" s="3"/>
-      <c r="D144" s="4"/>
-      <c r="E144" s="3"/>
-      <c r="F144" s="5"/>
-      <c r="G144" s="1"/>
-    </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A145" s="11"/>
-      <c r="B145" s="3"/>
-      <c r="C145" s="3"/>
-      <c r="D145" s="4"/>
-      <c r="E145" s="3"/>
-      <c r="F145" s="5"/>
-      <c r="G145" s="1"/>
-    </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A146" s="11"/>
-      <c r="B146" s="3"/>
-      <c r="C146" s="3"/>
-      <c r="D146" s="4"/>
-      <c r="E146" s="3"/>
-      <c r="F146" s="5"/>
-      <c r="G146" s="1"/>
-    </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A147" s="11"/>
-      <c r="B147" s="3"/>
-      <c r="C147" s="3"/>
-      <c r="D147" s="4"/>
-      <c r="E147" s="3"/>
-      <c r="F147" s="5"/>
-      <c r="G147" s="1"/>
-    </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A148" s="11"/>
-      <c r="B148" s="3"/>
-      <c r="C148" s="3"/>
-      <c r="D148" s="4"/>
-      <c r="E148" s="3"/>
-      <c r="F148" s="5"/>
-      <c r="G148" s="1"/>
-    </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A149" s="11"/>
-      <c r="B149" s="3"/>
-      <c r="C149" s="3"/>
-      <c r="D149" s="4"/>
-      <c r="E149" s="3"/>
-      <c r="F149" s="5"/>
-      <c r="G149" s="1"/>
-    </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A150" s="11"/>
-      <c r="B150" s="3"/>
-      <c r="C150" s="3"/>
-      <c r="D150" s="4"/>
-      <c r="E150" s="3"/>
-      <c r="F150" s="5"/>
-      <c r="G150" s="1"/>
-    </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A151" s="11"/>
-      <c r="B151" s="3"/>
-      <c r="C151" s="3"/>
-      <c r="D151" s="4"/>
-      <c r="E151" s="3"/>
-      <c r="F151" s="5"/>
-      <c r="G151" s="1"/>
-    </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A152" s="11"/>
-      <c r="B152" s="3"/>
-      <c r="C152" s="3"/>
-      <c r="D152" s="4"/>
-      <c r="E152" s="3"/>
-      <c r="F152" s="5"/>
-      <c r="G152" s="1"/>
-    </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A153" s="11"/>
-      <c r="B153" s="13"/>
-      <c r="C153" s="13"/>
-      <c r="D153" s="14"/>
-      <c r="E153" s="15"/>
-      <c r="F153" s="16"/>
-      <c r="G153" s="1"/>
-    </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A154" s="11"/>
-      <c r="B154" s="3"/>
-      <c r="C154" s="3"/>
-      <c r="D154" s="4"/>
-      <c r="E154" s="3"/>
-      <c r="F154" s="5"/>
-      <c r="G154" s="1"/>
-    </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A155" s="11"/>
-      <c r="B155" s="3"/>
-      <c r="C155" s="3"/>
-      <c r="D155" s="4"/>
-      <c r="E155" s="3"/>
-      <c r="F155" s="5"/>
-      <c r="G155" s="1"/>
-    </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A156" s="11"/>
-      <c r="B156" s="3"/>
-      <c r="C156" s="3"/>
-      <c r="D156" s="4"/>
-      <c r="E156" s="3"/>
-      <c r="F156" s="5"/>
-      <c r="G156" s="1"/>
-    </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A157" s="11"/>
-      <c r="B157" s="3"/>
-      <c r="C157" s="3"/>
-      <c r="D157" s="4"/>
-      <c r="E157" s="3"/>
-      <c r="F157" s="5"/>
-      <c r="G157" s="1"/>
-    </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A158" s="11"/>
-      <c r="B158" s="3"/>
-      <c r="C158" s="3"/>
-      <c r="D158" s="4"/>
-      <c r="E158" s="3"/>
-      <c r="F158" s="5"/>
-      <c r="G158" s="1"/>
-    </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A159" s="11"/>
-      <c r="B159" s="3"/>
-      <c r="C159" s="3"/>
-      <c r="D159" s="4"/>
-      <c r="E159" s="3"/>
-      <c r="F159" s="5"/>
-      <c r="G159" s="1"/>
-    </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A160" s="11"/>
-      <c r="B160" s="3"/>
-      <c r="C160" s="3"/>
-      <c r="D160" s="4"/>
-      <c r="E160" s="3"/>
-      <c r="F160" s="5"/>
-      <c r="G160" s="1"/>
-    </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A161" s="11"/>
-      <c r="B161" s="3"/>
-      <c r="C161" s="3"/>
-      <c r="D161" s="4"/>
-      <c r="E161" s="3"/>
-      <c r="F161" s="5"/>
-      <c r="G161" s="1"/>
-    </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A162" s="11"/>
-      <c r="B162" s="13"/>
-      <c r="C162" s="13"/>
-      <c r="D162" s="14"/>
-      <c r="E162" s="15"/>
-      <c r="F162" s="16"/>
-      <c r="G162" s="1"/>
-    </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A163" s="11"/>
-      <c r="B163" s="3"/>
-      <c r="C163" s="3"/>
-      <c r="D163" s="4"/>
-      <c r="E163" s="3"/>
-      <c r="F163" s="5"/>
-      <c r="G163" s="1"/>
-    </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A164" s="11"/>
-      <c r="B164" s="3"/>
-      <c r="C164" s="3"/>
-      <c r="D164" s="4"/>
-      <c r="E164" s="3"/>
-      <c r="F164" s="5"/>
-      <c r="G164" s="1"/>
-    </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A165" s="11"/>
-      <c r="B165" s="3"/>
-      <c r="C165" s="3"/>
-      <c r="D165" s="4"/>
-      <c r="E165" s="3"/>
-      <c r="F165" s="5"/>
-      <c r="G165" s="1"/>
-    </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A166" s="11"/>
-      <c r="B166" s="3"/>
-      <c r="C166" s="3"/>
-      <c r="D166" s="4"/>
-      <c r="E166" s="3"/>
-      <c r="F166" s="5"/>
-      <c r="G166" s="1"/>
-    </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A167" s="11"/>
-      <c r="B167" s="3"/>
-      <c r="C167" s="3"/>
-      <c r="D167" s="4"/>
-      <c r="E167" s="3"/>
-      <c r="F167" s="5"/>
-      <c r="G167" s="1"/>
-    </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A168" s="11"/>
-      <c r="B168" s="3"/>
-      <c r="C168" s="3"/>
-      <c r="D168" s="4"/>
-      <c r="E168" s="3"/>
-      <c r="F168" s="5"/>
-      <c r="G168" s="1"/>
-    </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A169" s="11"/>
-      <c r="B169" s="3"/>
-      <c r="C169" s="3"/>
-      <c r="D169" s="4"/>
-      <c r="E169" s="3"/>
-      <c r="F169" s="5"/>
-      <c r="G169" s="6"/>
-    </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A170" s="11"/>
-      <c r="B170" s="3"/>
-      <c r="C170" s="3"/>
-      <c r="D170" s="4"/>
-      <c r="E170" s="3"/>
-      <c r="F170" s="5"/>
-      <c r="G170" s="1"/>
-    </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A171" s="11"/>
-      <c r="B171" s="3"/>
-      <c r="C171" s="3"/>
-      <c r="D171" s="4"/>
-      <c r="E171" s="3"/>
-      <c r="F171" s="5"/>
       <c r="G171" s="1"/>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A172" s="11"/>
-      <c r="B172" s="3"/>
-      <c r="C172" s="3"/>
-      <c r="D172" s="4"/>
-      <c r="E172" s="3"/>
-      <c r="F172" s="5"/>
+      <c r="A172" s="11" t="s">
+        <v>400</v>
+      </c>
+      <c r="B172" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="C172" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="D172" s="4">
+        <v>4301130003</v>
+      </c>
+      <c r="E172" s="3">
+        <v>4607111034687</v>
+      </c>
+      <c r="F172" s="5" t="s">
+        <v>403</v>
+      </c>
       <c r="G172" s="1"/>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A173" s="11"/>
-      <c r="B173" s="3"/>
-      <c r="C173" s="3"/>
-      <c r="D173" s="4"/>
-      <c r="E173" s="3"/>
-      <c r="F173" s="5"/>
+      <c r="A173" s="11" t="s">
+        <v>406</v>
+      </c>
+      <c r="B173" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="C173" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="D173" s="4">
+        <v>4301070977</v>
+      </c>
+      <c r="E173" s="3">
+        <v>4607111037411</v>
+      </c>
+      <c r="F173" s="5" t="s">
+        <v>409</v>
+      </c>
       <c r="G173" s="1"/>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A174" s="11"/>
-      <c r="B174" s="3"/>
-      <c r="C174" s="3"/>
-      <c r="D174" s="4"/>
-      <c r="E174" s="3"/>
-      <c r="F174" s="5"/>
+      <c r="A174" s="11" t="s">
+        <v>453</v>
+      </c>
+      <c r="B174" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="C174" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="D174" s="4">
+        <v>4301070871</v>
+      </c>
+      <c r="E174" s="3">
+        <v>4607111036384</v>
+      </c>
+      <c r="F174" s="5" t="s">
+        <v>415</v>
+      </c>
       <c r="G174" s="1"/>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A175" s="11"/>
-      <c r="B175" s="3"/>
-      <c r="C175" s="3"/>
-      <c r="D175" s="4"/>
-      <c r="E175" s="3"/>
-      <c r="F175" s="5"/>
+      <c r="A175" s="11" t="s">
+        <v>412</v>
+      </c>
+      <c r="B175" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="C175" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="D175" s="4">
+        <v>4301070871</v>
+      </c>
+      <c r="E175" s="3">
+        <v>4607111036384</v>
+      </c>
+      <c r="F175" s="5" t="s">
+        <v>415</v>
+      </c>
       <c r="G175" s="1"/>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A176" s="11"/>
-      <c r="B176" s="3"/>
-      <c r="C176" s="3"/>
-      <c r="D176" s="4"/>
-      <c r="E176" s="3"/>
-      <c r="F176" s="5"/>
+      <c r="A176" s="11" t="s">
+        <v>418</v>
+      </c>
+      <c r="B176" s="3" t="s">
+        <v>419</v>
+      </c>
+      <c r="C176" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="D176" s="4">
+        <v>4301135111</v>
+      </c>
+      <c r="E176" s="3">
+        <v>4607111035028</v>
+      </c>
+      <c r="F176" s="5" t="s">
+        <v>421</v>
+      </c>
       <c r="G176" s="1"/>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A177" s="11"/>
-      <c r="B177" s="3"/>
-      <c r="C177" s="3"/>
-      <c r="D177" s="4"/>
-      <c r="E177" s="3"/>
-      <c r="F177" s="5"/>
+      <c r="A177" s="11" t="s">
+        <v>425</v>
+      </c>
+      <c r="B177" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="C177" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="D177" s="4">
+        <v>4301130006</v>
+      </c>
+      <c r="E177" s="3">
+        <v>4607111034670</v>
+      </c>
+      <c r="F177" s="5" t="s">
+        <v>428</v>
+      </c>
       <c r="G177" s="1"/>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A178" s="11"/>
-      <c r="B178" s="3"/>
-      <c r="C178" s="3"/>
-      <c r="D178" s="4"/>
-      <c r="E178" s="3"/>
-      <c r="F178" s="5"/>
+      <c r="A178" s="11" t="s">
+        <v>431</v>
+      </c>
+      <c r="B178" s="3" t="s">
+        <v>432</v>
+      </c>
+      <c r="C178" s="3" t="s">
+        <v>433</v>
+      </c>
+      <c r="D178" s="4">
+        <v>4301070768</v>
+      </c>
+      <c r="E178" s="3">
+        <v>4607111035639</v>
+      </c>
+      <c r="F178" s="5" t="s">
+        <v>434</v>
+      </c>
       <c r="G178" s="1"/>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A179" s="11"/>
-      <c r="B179" s="3"/>
-      <c r="C179" s="3"/>
-      <c r="D179" s="4"/>
-      <c r="E179" s="3"/>
-      <c r="F179" s="5"/>
+      <c r="A179" s="11" t="s">
+        <v>435</v>
+      </c>
+      <c r="B179" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="C179" s="3" t="s">
+        <v>437</v>
+      </c>
+      <c r="D179" s="4">
+        <v>4301070797</v>
+      </c>
+      <c r="E179" s="3">
+        <v>4607111035646</v>
+      </c>
+      <c r="F179" s="5" t="s">
+        <v>438</v>
+      </c>
       <c r="G179" s="1"/>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A180" s="11"/>
-      <c r="B180" s="3"/>
-      <c r="C180" s="3"/>
-      <c r="D180" s="4"/>
-      <c r="E180" s="3"/>
-      <c r="F180" s="5"/>
+      <c r="A180" s="11" t="s">
+        <v>449</v>
+      </c>
+      <c r="B180" s="3" t="s">
+        <v>450</v>
+      </c>
+      <c r="C180" s="3" t="s">
+        <v>451</v>
+      </c>
+      <c r="D180" s="4">
+        <v>4301080154</v>
+      </c>
+      <c r="E180" s="3">
+        <v>4607111036834</v>
+      </c>
+      <c r="F180" s="5" t="s">
+        <v>452</v>
+      </c>
       <c r="G180" s="1"/>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A181" s="11"/>
-      <c r="B181" s="3"/>
-      <c r="C181" s="3"/>
-      <c r="D181" s="4"/>
-      <c r="E181" s="3"/>
-      <c r="F181" s="5"/>
+      <c r="A181" s="11" t="s">
+        <v>457</v>
+      </c>
+      <c r="B181" s="3" t="s">
+        <v>458</v>
+      </c>
+      <c r="C181" s="3" t="s">
+        <v>459</v>
+      </c>
+      <c r="D181" s="4">
+        <v>4301070941</v>
+      </c>
+      <c r="E181" s="3">
+        <v>4607111036162</v>
+      </c>
+      <c r="F181" s="5" t="s">
+        <v>460</v>
+      </c>
       <c r="G181" s="1"/>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A182" s="11"/>
-      <c r="B182" s="3"/>
-      <c r="C182" s="3"/>
-      <c r="D182" s="4"/>
-      <c r="E182" s="3"/>
-      <c r="F182" s="5"/>
+      <c r="A182" s="11" t="s">
+        <v>461</v>
+      </c>
+      <c r="B182" s="3" t="s">
+        <v>462</v>
+      </c>
+      <c r="C182" s="3" t="s">
+        <v>463</v>
+      </c>
+      <c r="D182" s="4">
+        <v>4301070826</v>
+      </c>
+      <c r="E182" s="3">
+        <v>4607111035752</v>
+      </c>
+      <c r="F182" s="5" t="s">
+        <v>464</v>
+      </c>
       <c r="G182" s="1"/>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A183" s="11"/>
-      <c r="B183" s="3"/>
-      <c r="C183" s="3"/>
-      <c r="D183" s="4"/>
-      <c r="E183" s="3"/>
-      <c r="F183" s="5"/>
+      <c r="A183" s="11" t="s">
+        <v>465</v>
+      </c>
+      <c r="B183" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="C183" s="3" t="s">
+        <v>467</v>
+      </c>
+      <c r="D183" s="4">
+        <v>4301070966</v>
+      </c>
+      <c r="E183" s="3">
+        <v>4607111038135</v>
+      </c>
+      <c r="F183" s="5" t="s">
+        <v>465</v>
+      </c>
       <c r="G183" s="1"/>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A184" s="11"/>
-      <c r="B184" s="3"/>
-      <c r="C184" s="3"/>
-      <c r="D184" s="4"/>
-      <c r="E184" s="3"/>
-      <c r="F184" s="5"/>
+      <c r="A184" s="11" t="s">
+        <v>468</v>
+      </c>
+      <c r="B184" s="3" t="s">
+        <v>469</v>
+      </c>
+      <c r="C184" s="3" t="s">
+        <v>470</v>
+      </c>
+      <c r="D184" s="4">
+        <v>4301070911</v>
+      </c>
+      <c r="E184" s="3">
+        <v>4607111036278</v>
+      </c>
+      <c r="F184" s="5" t="s">
+        <v>468</v>
+      </c>
       <c r="G184" s="1"/>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A185" s="11"/>
-      <c r="B185" s="3"/>
-      <c r="C185" s="3"/>
-      <c r="D185" s="4"/>
-      <c r="E185" s="3"/>
-      <c r="F185" s="5"/>
+      <c r="A185" s="11" t="s">
+        <v>472</v>
+      </c>
+      <c r="B185" s="3" t="s">
+        <v>473</v>
+      </c>
+      <c r="C185" s="3" t="s">
+        <v>474</v>
+      </c>
+      <c r="D185" s="4">
+        <v>4301131019</v>
+      </c>
+      <c r="E185" s="3">
+        <v>4640242180427</v>
+      </c>
+      <c r="F185" s="5" t="s">
+        <v>475</v>
+      </c>
       <c r="G185" s="1"/>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.25">
@@ -5028,11 +5949,11 @@
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197" s="11"/>
-      <c r="B197" s="3"/>
-      <c r="C197" s="3"/>
-      <c r="D197" s="4"/>
-      <c r="E197" s="3"/>
-      <c r="F197" s="5"/>
+      <c r="B197" s="13"/>
+      <c r="C197" s="13"/>
+      <c r="D197" s="14"/>
+      <c r="E197" s="15"/>
+      <c r="F197" s="16"/>
       <c r="G197" s="1"/>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.25">
@@ -5109,11 +6030,11 @@
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A206" s="11"/>
-      <c r="B206" s="3"/>
-      <c r="C206" s="3"/>
-      <c r="D206" s="4"/>
-      <c r="E206" s="3"/>
-      <c r="F206" s="5"/>
+      <c r="B206" s="13"/>
+      <c r="C206" s="13"/>
+      <c r="D206" s="14"/>
+      <c r="E206" s="15"/>
+      <c r="F206" s="16"/>
       <c r="G206" s="1"/>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.25">
@@ -5177,7 +6098,7 @@
       <c r="D213" s="4"/>
       <c r="E213" s="3"/>
       <c r="F213" s="5"/>
-      <c r="G213" s="1"/>
+      <c r="G213" s="6"/>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A214" s="11"/>
@@ -5406,35 +6327,431 @@
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A239" s="11"/>
-      <c r="B239" s="1"/>
-      <c r="C239" s="1"/>
-      <c r="D239" s="1"/>
-      <c r="E239" s="1"/>
-      <c r="F239" s="1"/>
+      <c r="B239" s="3"/>
+      <c r="C239" s="3"/>
+      <c r="D239" s="4"/>
+      <c r="E239" s="3"/>
+      <c r="F239" s="5"/>
       <c r="G239" s="1"/>
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A240" s="11"/>
-      <c r="B240" s="1"/>
-      <c r="C240" s="1"/>
-      <c r="D240" s="1"/>
-      <c r="E240" s="1"/>
-      <c r="F240" s="1"/>
+      <c r="B240" s="3"/>
+      <c r="C240" s="3"/>
+      <c r="D240" s="4"/>
+      <c r="E240" s="3"/>
+      <c r="F240" s="5"/>
       <c r="G240" s="1"/>
     </row>
     <row r="241" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A241" s="11"/>
-      <c r="B241" s="1"/>
-      <c r="C241" s="1"/>
-      <c r="D241" s="1"/>
-      <c r="E241" s="1"/>
-      <c r="F241" s="1"/>
+      <c r="B241" s="3"/>
+      <c r="C241" s="3"/>
+      <c r="D241" s="4"/>
+      <c r="E241" s="3"/>
+      <c r="F241" s="5"/>
       <c r="G241" s="1"/>
     </row>
+    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A242" s="11"/>
+      <c r="B242" s="3"/>
+      <c r="C242" s="3"/>
+      <c r="D242" s="4"/>
+      <c r="E242" s="3"/>
+      <c r="F242" s="5"/>
+      <c r="G242" s="1"/>
+    </row>
+    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A243" s="11"/>
+      <c r="B243" s="3"/>
+      <c r="C243" s="3"/>
+      <c r="D243" s="4"/>
+      <c r="E243" s="3"/>
+      <c r="F243" s="5"/>
+      <c r="G243" s="1"/>
+    </row>
+    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A244" s="11"/>
+      <c r="B244" s="3"/>
+      <c r="C244" s="3"/>
+      <c r="D244" s="4"/>
+      <c r="E244" s="3"/>
+      <c r="F244" s="5"/>
+      <c r="G244" s="1"/>
+    </row>
+    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A245" s="11"/>
+      <c r="B245" s="3"/>
+      <c r="C245" s="3"/>
+      <c r="D245" s="4"/>
+      <c r="E245" s="3"/>
+      <c r="F245" s="5"/>
+      <c r="G245" s="1"/>
+    </row>
+    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A246" s="11"/>
+      <c r="B246" s="3"/>
+      <c r="C246" s="3"/>
+      <c r="D246" s="4"/>
+      <c r="E246" s="3"/>
+      <c r="F246" s="5"/>
+      <c r="G246" s="1"/>
+    </row>
+    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A247" s="11"/>
+      <c r="B247" s="3"/>
+      <c r="C247" s="3"/>
+      <c r="D247" s="4"/>
+      <c r="E247" s="3"/>
+      <c r="F247" s="5"/>
+      <c r="G247" s="1"/>
+    </row>
+    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A248" s="11"/>
+      <c r="B248" s="3"/>
+      <c r="C248" s="3"/>
+      <c r="D248" s="4"/>
+      <c r="E248" s="3"/>
+      <c r="F248" s="5"/>
+      <c r="G248" s="1"/>
+    </row>
+    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A249" s="11"/>
+      <c r="B249" s="3"/>
+      <c r="C249" s="3"/>
+      <c r="D249" s="4"/>
+      <c r="E249" s="3"/>
+      <c r="F249" s="5"/>
+      <c r="G249" s="1"/>
+    </row>
+    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A250" s="11"/>
+      <c r="B250" s="3"/>
+      <c r="C250" s="3"/>
+      <c r="D250" s="4"/>
+      <c r="E250" s="3"/>
+      <c r="F250" s="5"/>
+      <c r="G250" s="1"/>
+    </row>
+    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A251" s="11"/>
+      <c r="B251" s="3"/>
+      <c r="C251" s="3"/>
+      <c r="D251" s="4"/>
+      <c r="E251" s="3"/>
+      <c r="F251" s="5"/>
+      <c r="G251" s="1"/>
+    </row>
+    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A252" s="11"/>
+      <c r="B252" s="3"/>
+      <c r="C252" s="3"/>
+      <c r="D252" s="4"/>
+      <c r="E252" s="3"/>
+      <c r="F252" s="5"/>
+      <c r="G252" s="1"/>
+    </row>
+    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A253" s="11"/>
+      <c r="B253" s="3"/>
+      <c r="C253" s="3"/>
+      <c r="D253" s="4"/>
+      <c r="E253" s="3"/>
+      <c r="F253" s="5"/>
+      <c r="G253" s="1"/>
+    </row>
+    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A254" s="11"/>
+      <c r="B254" s="3"/>
+      <c r="C254" s="3"/>
+      <c r="D254" s="4"/>
+      <c r="E254" s="3"/>
+      <c r="F254" s="5"/>
+      <c r="G254" s="1"/>
+    </row>
+    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A255" s="11"/>
+      <c r="B255" s="3"/>
+      <c r="C255" s="3"/>
+      <c r="D255" s="4"/>
+      <c r="E255" s="3"/>
+      <c r="F255" s="5"/>
+      <c r="G255" s="1"/>
+    </row>
+    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A256" s="11"/>
+      <c r="B256" s="3"/>
+      <c r="C256" s="3"/>
+      <c r="D256" s="4"/>
+      <c r="E256" s="3"/>
+      <c r="F256" s="5"/>
+      <c r="G256" s="1"/>
+    </row>
+    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A257" s="11"/>
+      <c r="B257" s="3"/>
+      <c r="C257" s="3"/>
+      <c r="D257" s="4"/>
+      <c r="E257" s="3"/>
+      <c r="F257" s="5"/>
+      <c r="G257" s="1"/>
+    </row>
+    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A258" s="11"/>
+      <c r="B258" s="3"/>
+      <c r="C258" s="3"/>
+      <c r="D258" s="4"/>
+      <c r="E258" s="3"/>
+      <c r="F258" s="5"/>
+      <c r="G258" s="1"/>
+    </row>
+    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A259" s="11"/>
+      <c r="B259" s="3"/>
+      <c r="C259" s="3"/>
+      <c r="D259" s="4"/>
+      <c r="E259" s="3"/>
+      <c r="F259" s="5"/>
+      <c r="G259" s="1"/>
+    </row>
+    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A260" s="11"/>
+      <c r="B260" s="3"/>
+      <c r="C260" s="3"/>
+      <c r="D260" s="4"/>
+      <c r="E260" s="3"/>
+      <c r="F260" s="5"/>
+      <c r="G260" s="1"/>
+    </row>
+    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A261" s="11"/>
+      <c r="B261" s="3"/>
+      <c r="C261" s="3"/>
+      <c r="D261" s="4"/>
+      <c r="E261" s="3"/>
+      <c r="F261" s="5"/>
+      <c r="G261" s="1"/>
+    </row>
+    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A262" s="11"/>
+      <c r="B262" s="3"/>
+      <c r="C262" s="3"/>
+      <c r="D262" s="4"/>
+      <c r="E262" s="3"/>
+      <c r="F262" s="5"/>
+      <c r="G262" s="1"/>
+    </row>
+    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A263" s="11"/>
+      <c r="B263" s="3"/>
+      <c r="C263" s="3"/>
+      <c r="D263" s="4"/>
+      <c r="E263" s="3"/>
+      <c r="F263" s="5"/>
+      <c r="G263" s="1"/>
+    </row>
+    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A264" s="11"/>
+      <c r="B264" s="3"/>
+      <c r="C264" s="3"/>
+      <c r="D264" s="4"/>
+      <c r="E264" s="3"/>
+      <c r="F264" s="5"/>
+      <c r="G264" s="1"/>
+    </row>
+    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A265" s="11"/>
+      <c r="B265" s="3"/>
+      <c r="C265" s="3"/>
+      <c r="D265" s="4"/>
+      <c r="E265" s="3"/>
+      <c r="F265" s="5"/>
+      <c r="G265" s="1"/>
+    </row>
+    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A266" s="11"/>
+      <c r="B266" s="3"/>
+      <c r="C266" s="3"/>
+      <c r="D266" s="4"/>
+      <c r="E266" s="3"/>
+      <c r="F266" s="5"/>
+      <c r="G266" s="1"/>
+    </row>
+    <row r="267" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A267" s="11"/>
+      <c r="B267" s="3"/>
+      <c r="C267" s="3"/>
+      <c r="D267" s="4"/>
+      <c r="E267" s="3"/>
+      <c r="F267" s="5"/>
+      <c r="G267" s="1"/>
+    </row>
+    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A268" s="11"/>
+      <c r="B268" s="3"/>
+      <c r="C268" s="3"/>
+      <c r="D268" s="4"/>
+      <c r="E268" s="3"/>
+      <c r="F268" s="5"/>
+      <c r="G268" s="1"/>
+    </row>
+    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A269" s="11"/>
+      <c r="B269" s="3"/>
+      <c r="C269" s="3"/>
+      <c r="D269" s="4"/>
+      <c r="E269" s="3"/>
+      <c r="F269" s="5"/>
+      <c r="G269" s="1"/>
+    </row>
+    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A270" s="11"/>
+      <c r="B270" s="3"/>
+      <c r="C270" s="3"/>
+      <c r="D270" s="4"/>
+      <c r="E270" s="3"/>
+      <c r="F270" s="5"/>
+      <c r="G270" s="1"/>
+    </row>
+    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A271" s="11"/>
+      <c r="B271" s="3"/>
+      <c r="C271" s="3"/>
+      <c r="D271" s="4"/>
+      <c r="E271" s="3"/>
+      <c r="F271" s="5"/>
+      <c r="G271" s="1"/>
+    </row>
+    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A272" s="11"/>
+      <c r="B272" s="3"/>
+      <c r="C272" s="3"/>
+      <c r="D272" s="4"/>
+      <c r="E272" s="3"/>
+      <c r="F272" s="5"/>
+      <c r="G272" s="1"/>
+    </row>
+    <row r="273" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A273" s="11"/>
+      <c r="B273" s="3"/>
+      <c r="C273" s="3"/>
+      <c r="D273" s="4"/>
+      <c r="E273" s="3"/>
+      <c r="F273" s="5"/>
+      <c r="G273" s="1"/>
+    </row>
+    <row r="274" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A274" s="11"/>
+      <c r="B274" s="3"/>
+      <c r="C274" s="3"/>
+      <c r="D274" s="4"/>
+      <c r="E274" s="3"/>
+      <c r="F274" s="5"/>
+      <c r="G274" s="1"/>
+    </row>
+    <row r="275" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A275" s="11"/>
+      <c r="B275" s="3"/>
+      <c r="C275" s="3"/>
+      <c r="D275" s="4"/>
+      <c r="E275" s="3"/>
+      <c r="F275" s="5"/>
+      <c r="G275" s="1"/>
+    </row>
+    <row r="276" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A276" s="11"/>
+      <c r="B276" s="3"/>
+      <c r="C276" s="3"/>
+      <c r="D276" s="4"/>
+      <c r="E276" s="3"/>
+      <c r="F276" s="5"/>
+      <c r="G276" s="1"/>
+    </row>
+    <row r="277" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A277" s="11"/>
+      <c r="B277" s="3"/>
+      <c r="C277" s="3"/>
+      <c r="D277" s="4"/>
+      <c r="E277" s="3"/>
+      <c r="F277" s="5"/>
+      <c r="G277" s="1"/>
+    </row>
+    <row r="278" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A278" s="11"/>
+      <c r="B278" s="3"/>
+      <c r="C278" s="3"/>
+      <c r="D278" s="4"/>
+      <c r="E278" s="3"/>
+      <c r="F278" s="5"/>
+      <c r="G278" s="1"/>
+    </row>
+    <row r="279" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A279" s="11"/>
+      <c r="B279" s="3"/>
+      <c r="C279" s="3"/>
+      <c r="D279" s="4"/>
+      <c r="E279" s="3"/>
+      <c r="F279" s="5"/>
+      <c r="G279" s="1"/>
+    </row>
+    <row r="280" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A280" s="11"/>
+      <c r="B280" s="3"/>
+      <c r="C280" s="3"/>
+      <c r="D280" s="4"/>
+      <c r="E280" s="3"/>
+      <c r="F280" s="5"/>
+      <c r="G280" s="1"/>
+    </row>
+    <row r="281" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A281" s="11"/>
+      <c r="B281" s="3"/>
+      <c r="C281" s="3"/>
+      <c r="D281" s="4"/>
+      <c r="E281" s="3"/>
+      <c r="F281" s="5"/>
+      <c r="G281" s="1"/>
+    </row>
+    <row r="282" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A282" s="11"/>
+      <c r="B282" s="3"/>
+      <c r="C282" s="3"/>
+      <c r="D282" s="4"/>
+      <c r="E282" s="3"/>
+      <c r="F282" s="5"/>
+      <c r="G282" s="1"/>
+    </row>
+    <row r="283" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A283" s="11"/>
+      <c r="B283" s="1"/>
+      <c r="C283" s="1"/>
+      <c r="D283" s="1"/>
+      <c r="E283" s="1"/>
+      <c r="F283" s="1"/>
+      <c r="G283" s="1"/>
+    </row>
+    <row r="284" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A284" s="11"/>
+      <c r="B284" s="1"/>
+      <c r="C284" s="1"/>
+      <c r="D284" s="1"/>
+      <c r="E284" s="1"/>
+      <c r="F284" s="1"/>
+      <c r="G284" s="1"/>
+    </row>
+    <row r="285" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A285" s="11"/>
+      <c r="B285" s="1"/>
+      <c r="C285" s="1"/>
+      <c r="D285" s="1"/>
+      <c r="E285" s="1"/>
+      <c r="F285" s="1"/>
+      <c r="G285" s="1"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:F128" xr:uid="{08353A06-E006-45C7-BD45-850F7C3953DF}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F118">
-      <sortCondition ref="A1:A78"/>
+  <autoFilter ref="A1:F185" xr:uid="{08353A06-E006-45C7-BD45-850F7C3953DF}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F158">
+      <sortCondition ref="A1:A108"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/moduls/1С.xlsx
+++ b/moduls/1С.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\перенос данных\ПОКОМ ЗПФ\pokom_zpf\moduls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14CEC153-9A02-409B-A91D-5B01192D8E6B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56A9657C-7360-451E-AB7D-D2938429E191}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$F$185</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$F$186</definedName>
   </definedNames>
   <calcPr calcId="181029" refMode="R1C1"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="809" uniqueCount="479">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="813" uniqueCount="484">
   <si>
     <t>1С</t>
   </si>
@@ -454,15 +454,6 @@
     <t>Чебупицца Пепперони Чебупицца Фикс.вес 0,25 Лоток Горячая штучка</t>
   </si>
   <si>
-    <t>SU002976</t>
-  </si>
-  <si>
-    <t>P003435</t>
-  </si>
-  <si>
-    <t>Чебуреки "Сочный мегачебурек" Весовой ТМ "No Name"</t>
-  </si>
-  <si>
     <t>SU002889</t>
   </si>
   <si>
@@ -1472,6 +1463,30 @@
   </si>
   <si>
     <t>ЖАР-мени ТМ Зареченские ТС Зареченские продукты.   Поком</t>
+  </si>
+  <si>
+    <t>Наггетсы хрустящие п/ф ЗАО "Мясная галерея" ВЕС ПОКОМ</t>
+  </si>
+  <si>
+    <t>SU003025</t>
+  </si>
+  <si>
+    <t>P003495</t>
+  </si>
+  <si>
+    <t>Чебуреки «Сочный мегачебурек» Весовой ТМ «Зареченские» 2,24 кг</t>
+  </si>
+  <si>
+    <t>P003681</t>
+  </si>
+  <si>
+    <t>Пельмени «Бигбули #МЕГАМАСЛИЩЕ со сливочным маслом» ф/в 0,9 ТМ «Горячая штучка»</t>
+  </si>
+  <si>
+    <t>P003452</t>
+  </si>
+  <si>
+    <t>Пельмени «Хинкали Классические» Весовые Хинкали ТМ «Зареченские» 5 кг</t>
   </si>
 </sst>
 </file>
@@ -1946,11 +1961,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G285"/>
+  <dimension ref="A1:G286"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G9" sqref="G9"/>
+      <selection pane="bottomLeft" activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1986,13 +2001,13 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D2" s="4">
         <v>4301080153</v>
@@ -2001,19 +2016,19 @@
         <v>4607111036827</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D3" s="4">
         <v>4301080153</v>
@@ -2022,19 +2037,19 @@
         <v>4607111036827</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D4" s="4">
         <v>4301080153</v>
@@ -2043,19 +2058,19 @@
         <v>4607111036827</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="G4" s="1"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="D5" s="4">
         <v>4301135113</v>
@@ -2064,19 +2079,19 @@
         <v>4607111033659</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="G5" s="1"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="D6" s="4">
         <v>4301135113</v>
@@ -2085,19 +2100,19 @@
         <v>4607111033659</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="G6" s="1"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="D7" s="4">
         <v>4301135113</v>
@@ -2106,13 +2121,13 @@
         <v>4607111033659</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="G7" s="1"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>131</v>
@@ -2133,13 +2148,13 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D9" s="4">
         <v>4301135122</v>
@@ -2148,7 +2163,7 @@
         <v>4607111033628</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="G9" s="1"/>
     </row>
@@ -2196,7 +2211,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>96</v>
@@ -2217,13 +2232,13 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="D13" s="4">
         <v>4301135120</v>
@@ -2232,7 +2247,7 @@
         <v>4607111035141</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="G13" s="1"/>
     </row>
@@ -2280,7 +2295,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>99</v>
@@ -2301,13 +2316,13 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D17" s="4">
         <v>4301135122</v>
@@ -2316,19 +2331,19 @@
         <v>4607111033628</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="G17" s="1"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D18" s="4">
         <v>4301135122</v>
@@ -2337,19 +2352,19 @@
         <v>4607111033628</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="G18" s="1"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D19" s="4">
         <v>4301136013</v>
@@ -2358,19 +2373,19 @@
         <v>4607025784012</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="G19" s="1"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="D20" s="4">
         <v>4301136012</v>
@@ -2379,19 +2394,19 @@
         <v>4607025784319</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="G20" s="1"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D21" s="4">
         <v>4301136013</v>
@@ -2400,19 +2415,19 @@
         <v>4607025784012</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="G21" s="1"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D22" s="4">
         <v>4301136013</v>
@@ -2421,40 +2436,40 @@
         <v>4607025784012</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="G22" s="1"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>139</v>
+        <v>477</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>140</v>
+        <v>478</v>
       </c>
       <c r="D23" s="4">
-        <v>4301136025</v>
+        <v>4301136029</v>
       </c>
       <c r="E23" s="3">
-        <v>4607111038029</v>
+        <v>4640242180410</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>141</v>
+        <v>479</v>
       </c>
       <c r="G23" s="1"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="11" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="D24" s="4">
         <v>4301135191</v>
@@ -2463,19 +2478,19 @@
         <v>4640242180373</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="G24" s="1"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="11" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="D25" s="4">
         <v>4301135191</v>
@@ -2484,19 +2499,19 @@
         <v>4640242180373</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="G25" s="1"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="11" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="D26" s="4">
         <v>4301135195</v>
@@ -2505,19 +2520,19 @@
         <v>4640242180366</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="G26" s="1"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="11" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="D27" s="4">
         <v>4301135195</v>
@@ -2526,19 +2541,19 @@
         <v>4640242180366</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="G27" s="1"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="11" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="D28" s="4">
         <v>4301135189</v>
@@ -2547,19 +2562,19 @@
         <v>4640242180342</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="G28" s="1"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="11" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="D29" s="4">
         <v>4301135189</v>
@@ -2568,19 +2583,19 @@
         <v>4640242180342</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="G29" s="1"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="11" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="D30" s="4">
         <v>4301135188</v>
@@ -2589,19 +2604,19 @@
         <v>4640242180335</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="G30" s="1"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="11" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="D31" s="4">
         <v>4301135190</v>
@@ -2610,19 +2625,19 @@
         <v>4640242180359</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="G31" s="1"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="11" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="D32" s="4">
         <v>4301135190</v>
@@ -2631,7 +2646,7 @@
         <v>4640242180359</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="G32" s="1"/>
     </row>
@@ -2640,10 +2655,10 @@
         <v>91</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="D33" s="4">
         <v>4301135186</v>
@@ -2652,19 +2667,19 @@
         <v>4640242180311</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="G33" s="6"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="11" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="D34" s="4">
         <v>4301135186</v>
@@ -2673,19 +2688,19 @@
         <v>4640242180311</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="G34" s="6"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="11" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="D35" s="4">
         <v>4301135186</v>
@@ -2694,19 +2709,19 @@
         <v>4640242180311</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="G35" s="6"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="11" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="D36" s="4">
         <v>4301135186</v>
@@ -2715,19 +2730,19 @@
         <v>4640242180311</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="G36" s="1"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="11" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="D37" s="4">
         <v>4301135187</v>
@@ -2736,19 +2751,19 @@
         <v>4640242180328</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="G37" s="1"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="11" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="D38" s="4">
         <v>4301135187</v>
@@ -2757,19 +2772,19 @@
         <v>4640242180328</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="G38" s="1"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="11" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="D39" s="4">
         <v>4301135115</v>
@@ -2778,19 +2793,19 @@
         <v>4607111034380</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="G39" s="1"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="11" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="D40" s="4">
         <v>4301135115</v>
@@ -2799,19 +2814,19 @@
         <v>4607111034380</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="G40" s="1"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="11" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="D41" s="4">
         <v>4301135114</v>
@@ -2820,19 +2835,19 @@
         <v>4607111034397</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="G41" s="1"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="11" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="D42" s="4">
         <v>4301135114</v>
@@ -2841,7 +2856,7 @@
         <v>4607111034397</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="G42" s="1"/>
     </row>
@@ -2850,10 +2865,10 @@
         <v>75</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="D43" s="4">
         <v>4301135114</v>
@@ -2862,19 +2877,19 @@
         <v>4607111034397</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="G43" s="1"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="11" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="D44" s="4">
         <v>4301131012</v>
@@ -2883,19 +2898,19 @@
         <v>4607111034137</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="G44" s="1"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="11" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="D45" s="4">
         <v>4301131012</v>
@@ -2904,19 +2919,19 @@
         <v>4607111034137</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="G45" s="1"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="11" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="D46" s="4">
         <v>4301131012</v>
@@ -2925,19 +2940,19 @@
         <v>4607111034137</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="G46" s="1"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="11" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D47" s="4">
         <v>4301131011</v>
@@ -2946,19 +2961,19 @@
         <v>4607111034120</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="G47" s="6"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="11" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D48" s="4">
         <v>4301131011</v>
@@ -2967,19 +2982,19 @@
         <v>4607111034120</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="G48" s="6"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="11" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D49" s="4">
         <v>4301131011</v>
@@ -2988,19 +3003,19 @@
         <v>4607111034120</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="G49" s="1"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="11" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="D50" s="4">
         <v>4301135192</v>
@@ -3009,19 +3024,19 @@
         <v>4640242180380</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="G50" s="1"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="11" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="D51" s="4">
         <v>4301135192</v>
@@ -3030,19 +3045,19 @@
         <v>4640242180380</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="G51" s="1"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="11" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="D52" s="4">
         <v>4301135192</v>
@@ -3051,19 +3066,19 @@
         <v>4640242180380</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="G52" s="1"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="11" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="D53" s="4">
         <v>4301135192</v>
@@ -3072,7 +3087,7 @@
         <v>4640242180380</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="G53" s="1"/>
     </row>
@@ -3081,10 +3096,10 @@
         <v>76</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="D54" s="4">
         <v>4301135192</v>
@@ -3093,19 +3108,19 @@
         <v>4640242180380</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="G54" s="1"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="11" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D55" s="4">
         <v>4301132066</v>
@@ -3114,19 +3129,19 @@
         <v>4607111036520</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="G55" s="1"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="11" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D56" s="4">
         <v>4301132066</v>
@@ -3135,19 +3150,19 @@
         <v>4607111036520</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="G56" s="1"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="11" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D57" s="4">
         <v>4301132066</v>
@@ -3156,19 +3171,19 @@
         <v>4607111036520</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="G57" s="1"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="11" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="D58" s="4">
         <v>4301132065</v>
@@ -3177,19 +3192,19 @@
         <v>4607111036599</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="G58" s="1"/>
     </row>
     <row r="59" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A59" s="11" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="D59" s="4">
         <v>4301132063</v>
@@ -3198,13 +3213,13 @@
         <v>4607111036605</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="G59" s="1"/>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="11" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="B60" s="3" t="s">
         <v>102</v>
@@ -3330,13 +3345,13 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="11" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="D66" s="4">
         <v>4301132080</v>
@@ -3345,19 +3360,19 @@
         <v>4640242180397</v>
       </c>
       <c r="F66" s="5" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G66" s="1"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="11" t="s">
-        <v>80</v>
+        <v>476</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="D67" s="4">
         <v>4301132080</v>
@@ -3366,40 +3381,40 @@
         <v>4640242180397</v>
       </c>
       <c r="F67" s="5" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G67" s="1"/>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="11" t="s">
-        <v>430</v>
+        <v>80</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>284</v>
+        <v>370</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>285</v>
+        <v>371</v>
       </c>
       <c r="D68" s="4">
-        <v>4301135134</v>
+        <v>4301132080</v>
       </c>
       <c r="E68" s="3">
-        <v>4607111035806</v>
+        <v>4640242180397</v>
       </c>
       <c r="F68" s="5" t="s">
-        <v>286</v>
+        <v>372</v>
       </c>
       <c r="G68" s="1"/>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="11" t="s">
-        <v>442</v>
+        <v>427</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="D69" s="4">
         <v>4301135134</v>
@@ -3408,19 +3423,19 @@
         <v>4607111035806</v>
       </c>
       <c r="F69" s="5" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="G69" s="1"/>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="11" t="s">
-        <v>253</v>
+        <v>439</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="D70" s="4">
         <v>4301135134</v>
@@ -3429,61 +3444,61 @@
         <v>4607111035806</v>
       </c>
       <c r="F70" s="5" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="G70" s="1"/>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="11" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>178</v>
+        <v>281</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>179</v>
+        <v>282</v>
       </c>
       <c r="D71" s="4">
-        <v>4301070935</v>
+        <v>4301135134</v>
       </c>
       <c r="E71" s="3">
-        <v>4607111037190</v>
+        <v>4607111035806</v>
       </c>
       <c r="F71" s="5" t="s">
-        <v>180</v>
+        <v>283</v>
       </c>
       <c r="G71" s="1"/>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="11" t="s">
-        <v>405</v>
+        <v>251</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>287</v>
+        <v>175</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>288</v>
+        <v>176</v>
       </c>
       <c r="D72" s="4">
-        <v>4301070865</v>
+        <v>4301070935</v>
       </c>
       <c r="E72" s="3">
-        <v>4607111036285</v>
+        <v>4607111037190</v>
       </c>
       <c r="F72" s="5" t="s">
-        <v>289</v>
+        <v>177</v>
       </c>
       <c r="G72" s="1"/>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="11" t="s">
-        <v>455</v>
+        <v>402</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="D73" s="4">
         <v>4301070865</v>
@@ -3492,19 +3507,19 @@
         <v>4607111036285</v>
       </c>
       <c r="F73" s="5" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="G73" s="1"/>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="11" t="s">
-        <v>255</v>
+        <v>452</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="D74" s="4">
         <v>4301070865</v>
@@ -3513,40 +3528,40 @@
         <v>4607111036285</v>
       </c>
       <c r="F74" s="5" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="G74" s="1"/>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="11" t="s">
-        <v>187</v>
+        <v>252</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>186</v>
+        <v>284</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>356</v>
+        <v>285</v>
       </c>
       <c r="D75" s="4">
-        <v>4301070970</v>
+        <v>4301070865</v>
       </c>
       <c r="E75" s="3">
-        <v>4607111037091</v>
+        <v>4607111036285</v>
       </c>
       <c r="F75" s="5" t="s">
-        <v>357</v>
-      </c>
-      <c r="G75" s="6"/>
+        <v>286</v>
+      </c>
+      <c r="G75" s="1"/>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="11" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="D76" s="4">
         <v>4301070970</v>
@@ -3555,19 +3570,19 @@
         <v>4607111037091</v>
       </c>
       <c r="F76" s="5" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="G76" s="6"/>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="11" t="s">
-        <v>347</v>
+        <v>182</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="D77" s="4">
         <v>4301070970</v>
@@ -3576,19 +3591,19 @@
         <v>4607111037091</v>
       </c>
       <c r="F77" s="5" t="s">
-        <v>357</v>
-      </c>
-      <c r="G77" s="1"/>
+        <v>354</v>
+      </c>
+      <c r="G77" s="6"/>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="11" t="s">
-        <v>256</v>
+        <v>344</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="D78" s="4">
         <v>4301070970</v>
@@ -3597,40 +3612,40 @@
         <v>4607111037091</v>
       </c>
       <c r="F78" s="5" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="G78" s="1"/>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="11" t="s">
-        <v>87</v>
+        <v>253</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>121</v>
+        <v>183</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>344</v>
+        <v>353</v>
       </c>
       <c r="D79" s="4">
-        <v>4301070973</v>
+        <v>4301070970</v>
       </c>
       <c r="E79" s="3">
-        <v>4607111033987</v>
+        <v>4607111037091</v>
       </c>
       <c r="F79" s="5" t="s">
-        <v>345</v>
-      </c>
-      <c r="G79" s="6"/>
+        <v>354</v>
+      </c>
+      <c r="G79" s="1"/>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="11" t="s">
-        <v>345</v>
+        <v>87</v>
       </c>
       <c r="B80" s="3" t="s">
         <v>121</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="D80" s="4">
         <v>4301070973</v>
@@ -3639,19 +3654,19 @@
         <v>4607111033987</v>
       </c>
       <c r="F80" s="5" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="G80" s="6"/>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="11" t="s">
-        <v>258</v>
+        <v>342</v>
       </c>
       <c r="B81" s="3" t="s">
         <v>121</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="D81" s="4">
         <v>4301070973</v>
@@ -3660,40 +3675,40 @@
         <v>4607111033987</v>
       </c>
       <c r="F81" s="5" t="s">
-        <v>345</v>
-      </c>
-      <c r="G81" s="1"/>
+        <v>342</v>
+      </c>
+      <c r="G81" s="6"/>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="11" t="s">
-        <v>454</v>
+        <v>255</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>290</v>
+        <v>121</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>291</v>
+        <v>341</v>
       </c>
       <c r="D82" s="4">
-        <v>4301070861</v>
+        <v>4301070973</v>
       </c>
       <c r="E82" s="3">
-        <v>4607111036308</v>
+        <v>4607111033987</v>
       </c>
       <c r="F82" s="5" t="s">
-        <v>292</v>
+        <v>342</v>
       </c>
       <c r="G82" s="1"/>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="11" t="s">
-        <v>259</v>
+        <v>451</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="D83" s="4">
         <v>4301070861</v>
@@ -3702,34 +3717,34 @@
         <v>4607111036308</v>
       </c>
       <c r="F83" s="5" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="G83" s="1"/>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="11" t="s">
-        <v>81</v>
+        <v>256</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>111</v>
+        <v>287</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>112</v>
+        <v>288</v>
       </c>
       <c r="D84" s="4">
-        <v>4301070864</v>
+        <v>4301070861</v>
       </c>
       <c r="E84" s="3">
-        <v>4607111036292</v>
+        <v>4607111036308</v>
       </c>
       <c r="F84" s="5" t="s">
-        <v>113</v>
+        <v>289</v>
       </c>
       <c r="G84" s="1"/>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="11" t="s">
-        <v>456</v>
+        <v>81</v>
       </c>
       <c r="B85" s="3" t="s">
         <v>111</v>
@@ -3750,7 +3765,7 @@
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="11" t="s">
-        <v>260</v>
+        <v>453</v>
       </c>
       <c r="B86" s="3" t="s">
         <v>111</v>
@@ -3771,55 +3786,55 @@
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="11" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>182</v>
+        <v>111</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>352</v>
+        <v>112</v>
       </c>
       <c r="D87" s="4">
-        <v>4301070972</v>
+        <v>4301070864</v>
       </c>
       <c r="E87" s="3">
-        <v>4607111037183</v>
+        <v>4607111036292</v>
       </c>
       <c r="F87" s="5" t="s">
-        <v>353</v>
+        <v>113</v>
       </c>
       <c r="G87" s="1"/>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="11" t="s">
-        <v>86</v>
+        <v>258</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>120</v>
+        <v>179</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>340</v>
+        <v>349</v>
       </c>
       <c r="D88" s="4">
-        <v>4301070974</v>
+        <v>4301070972</v>
       </c>
       <c r="E88" s="3">
-        <v>4607111034151</v>
+        <v>4607111037183</v>
       </c>
       <c r="F88" s="5" t="s">
-        <v>341</v>
-      </c>
-      <c r="G88" s="6"/>
+        <v>350</v>
+      </c>
+      <c r="G88" s="1"/>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="11" t="s">
-        <v>341</v>
+        <v>86</v>
       </c>
       <c r="B89" s="3" t="s">
         <v>120</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="D89" s="4">
         <v>4301070974</v>
@@ -3828,19 +3843,19 @@
         <v>4607111034151</v>
       </c>
       <c r="F89" s="5" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="G89" s="6"/>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="11" t="s">
-        <v>263</v>
+        <v>338</v>
       </c>
       <c r="B90" s="3" t="s">
         <v>120</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="D90" s="4">
         <v>4301070974</v>
@@ -3849,124 +3864,124 @@
         <v>4607111034151</v>
       </c>
       <c r="F90" s="5" t="s">
-        <v>341</v>
-      </c>
-      <c r="G90" s="1"/>
+        <v>338</v>
+      </c>
+      <c r="G90" s="6"/>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="11" t="s">
-        <v>177</v>
+        <v>260</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>178</v>
+        <v>120</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>179</v>
+        <v>337</v>
       </c>
       <c r="D91" s="4">
-        <v>4301070935</v>
+        <v>4301070974</v>
       </c>
       <c r="E91" s="3">
-        <v>4607111037190</v>
+        <v>4607111034151</v>
       </c>
       <c r="F91" s="5" t="s">
-        <v>180</v>
+        <v>338</v>
       </c>
       <c r="G91" s="1"/>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="11" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>352</v>
+        <v>176</v>
       </c>
       <c r="D92" s="4">
-        <v>4301070972</v>
+        <v>4301070935</v>
       </c>
       <c r="E92" s="3">
-        <v>4607111037183</v>
+        <v>4607111037190</v>
       </c>
       <c r="F92" s="5" t="s">
-        <v>353</v>
+        <v>177</v>
       </c>
       <c r="G92" s="1"/>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="11" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="D93" s="4">
-        <v>4301070969</v>
+        <v>4301070972</v>
       </c>
       <c r="E93" s="3">
-        <v>4607111036858</v>
+        <v>4607111037183</v>
       </c>
       <c r="F93" s="5" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="G93" s="1"/>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="11" t="s">
-        <v>82</v>
+        <v>180</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>114</v>
+        <v>181</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>115</v>
+        <v>351</v>
       </c>
       <c r="D94" s="4">
-        <v>4301070909</v>
+        <v>4301070969</v>
       </c>
       <c r="E94" s="3">
-        <v>4607111036889</v>
+        <v>4607111036858</v>
       </c>
       <c r="F94" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="G94" s="6"/>
+        <v>352</v>
+      </c>
+      <c r="G94" s="1"/>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="11" t="s">
-        <v>191</v>
+        <v>82</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>189</v>
+        <v>114</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>190</v>
+        <v>115</v>
       </c>
       <c r="D95" s="4">
-        <v>4301070944</v>
+        <v>4301070909</v>
       </c>
       <c r="E95" s="3">
-        <v>4607111036902</v>
+        <v>4607111036889</v>
       </c>
       <c r="F95" s="5" t="s">
-        <v>191</v>
+        <v>116</v>
       </c>
       <c r="G95" s="6"/>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="11" t="s">
-        <v>346</v>
+        <v>188</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D96" s="4">
         <v>4301070944</v>
@@ -3975,19 +3990,19 @@
         <v>4607111036902</v>
       </c>
       <c r="F96" s="5" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="G96" s="6"/>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="11" t="s">
-        <v>188</v>
+        <v>343</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D97" s="4">
         <v>4301070944</v>
@@ -3996,40 +4011,40 @@
         <v>4607111036902</v>
       </c>
       <c r="F97" s="5" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="G97" s="6"/>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="11" t="s">
-        <v>301</v>
+        <v>185</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>117</v>
+        <v>186</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>333</v>
+        <v>480</v>
       </c>
       <c r="D98" s="4">
-        <v>4301070976</v>
+        <v>4301070971</v>
       </c>
       <c r="E98" s="3">
-        <v>4607111034144</v>
+        <v>4607111036902</v>
       </c>
       <c r="F98" s="5" t="s">
-        <v>334</v>
+        <v>481</v>
       </c>
       <c r="G98" s="6"/>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="11" t="s">
-        <v>262</v>
+        <v>298</v>
       </c>
       <c r="B99" s="3" t="s">
         <v>117</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="D99" s="4">
         <v>4301070976</v>
@@ -4038,19 +4053,19 @@
         <v>4607111034144</v>
       </c>
       <c r="F99" s="5" t="s">
-        <v>334</v>
-      </c>
-      <c r="G99" s="1"/>
+        <v>331</v>
+      </c>
+      <c r="G99" s="6"/>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="11" t="s">
-        <v>334</v>
+        <v>259</v>
       </c>
       <c r="B100" s="3" t="s">
         <v>117</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="D100" s="4">
         <v>4301070976</v>
@@ -4059,19 +4074,19 @@
         <v>4607111034144</v>
       </c>
       <c r="F100" s="5" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="G100" s="1"/>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="11" t="s">
-        <v>83</v>
+        <v>331</v>
       </c>
       <c r="B101" s="3" t="s">
         <v>117</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="D101" s="4">
         <v>4301070976</v>
@@ -4080,40 +4095,40 @@
         <v>4607111034144</v>
       </c>
       <c r="F101" s="5" t="s">
-        <v>334</v>
-      </c>
-      <c r="G101" s="6"/>
+        <v>331</v>
+      </c>
+      <c r="G101" s="1"/>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="11" t="s">
-        <v>300</v>
+        <v>83</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>342</v>
+        <v>330</v>
       </c>
       <c r="D102" s="4">
-        <v>4301070975</v>
+        <v>4301070976</v>
       </c>
       <c r="E102" s="3">
-        <v>4607111033970</v>
+        <v>4607111034144</v>
       </c>
       <c r="F102" s="5" t="s">
-        <v>343</v>
+        <v>331</v>
       </c>
       <c r="G102" s="6"/>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="11" t="s">
-        <v>257</v>
+        <v>297</v>
       </c>
       <c r="B103" s="3" t="s">
         <v>118</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="D103" s="4">
         <v>4301070975</v>
@@ -4122,19 +4137,19 @@
         <v>4607111033970</v>
       </c>
       <c r="F103" s="5" t="s">
-        <v>343</v>
-      </c>
-      <c r="G103" s="1"/>
+        <v>340</v>
+      </c>
+      <c r="G103" s="6"/>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="11" t="s">
-        <v>411</v>
+        <v>254</v>
       </c>
       <c r="B104" s="3" t="s">
         <v>118</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="D104" s="4">
         <v>4301070975</v>
@@ -4143,19 +4158,19 @@
         <v>4607111033970</v>
       </c>
       <c r="F104" s="5" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="G104" s="1"/>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="11" t="s">
-        <v>343</v>
+        <v>408</v>
       </c>
       <c r="B105" s="3" t="s">
         <v>118</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="D105" s="4">
         <v>4301070975</v>
@@ -4164,19 +4179,19 @@
         <v>4607111033970</v>
       </c>
       <c r="F105" s="5" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="G105" s="1"/>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="11" t="s">
-        <v>84</v>
+        <v>340</v>
       </c>
       <c r="B106" s="3" t="s">
         <v>118</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="D106" s="4">
         <v>4301070975</v>
@@ -4185,40 +4200,40 @@
         <v>4607111033970</v>
       </c>
       <c r="F106" s="5" t="s">
-        <v>343</v>
-      </c>
-      <c r="G106" s="6"/>
+        <v>340</v>
+      </c>
+      <c r="G106" s="1"/>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="11" t="s">
-        <v>410</v>
+        <v>84</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="D107" s="4">
-        <v>4301070981</v>
+        <v>4301070975</v>
       </c>
       <c r="E107" s="3">
-        <v>4607111036728</v>
+        <v>4607111033970</v>
       </c>
       <c r="F107" s="5" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="G107" s="6"/>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="11" t="s">
-        <v>85</v>
+        <v>407</v>
       </c>
       <c r="B108" s="3" t="s">
         <v>119</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="D108" s="4">
         <v>4301070981</v>
@@ -4227,40 +4242,40 @@
         <v>4607111036728</v>
       </c>
       <c r="F108" s="5" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="G108" s="6"/>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="11" t="s">
-        <v>424</v>
+        <v>85</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>218</v>
+        <v>119</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>219</v>
+        <v>332</v>
       </c>
       <c r="D109" s="4">
-        <v>4301071010</v>
+        <v>4301070981</v>
       </c>
       <c r="E109" s="3">
-        <v>4607111037701</v>
+        <v>4607111036728</v>
       </c>
       <c r="F109" s="5" t="s">
-        <v>220</v>
+        <v>333</v>
       </c>
       <c r="G109" s="6"/>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="11" t="s">
-        <v>221</v>
+        <v>421</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D110" s="4">
         <v>4301071010</v>
@@ -4269,61 +4284,61 @@
         <v>4607111037701</v>
       </c>
       <c r="F110" s="5" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="G110" s="6"/>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="11" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="D111" s="4">
-        <v>4301070870</v>
+        <v>4301071010</v>
       </c>
       <c r="E111" s="3">
-        <v>4607111036711</v>
+        <v>4607111037701</v>
       </c>
       <c r="F111" s="5" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="G111" s="6"/>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="11" t="s">
-        <v>193</v>
+        <v>222</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>328</v>
+        <v>219</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>329</v>
+        <v>220</v>
       </c>
       <c r="D112" s="4">
-        <v>4301070948</v>
+        <v>4301070870</v>
       </c>
       <c r="E112" s="3">
-        <v>4607111037022</v>
+        <v>4607111036711</v>
       </c>
       <c r="F112" s="5" t="s">
-        <v>193</v>
+        <v>221</v>
       </c>
       <c r="G112" s="6"/>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="11" t="s">
-        <v>330</v>
+        <v>190</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="D113" s="4">
         <v>4301070948</v>
@@ -4332,19 +4347,19 @@
         <v>4607111037022</v>
       </c>
       <c r="F113" s="5" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="G113" s="6"/>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="11" t="s">
-        <v>192</v>
+        <v>327</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="D114" s="4">
         <v>4301070948</v>
@@ -4353,34 +4368,34 @@
         <v>4607111037022</v>
       </c>
       <c r="F114" s="5" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="G114" s="6"/>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="11" t="s">
-        <v>124</v>
+        <v>189</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>122</v>
+        <v>325</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>123</v>
+        <v>326</v>
       </c>
       <c r="D115" s="4">
-        <v>4301070920</v>
+        <v>4301070948</v>
       </c>
       <c r="E115" s="3">
-        <v>4607111035929</v>
+        <v>4607111037022</v>
       </c>
       <c r="F115" s="5" t="s">
-        <v>124</v>
+        <v>190</v>
       </c>
       <c r="G115" s="6"/>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="11" t="s">
-        <v>88</v>
+        <v>124</v>
       </c>
       <c r="B116" s="3" t="s">
         <v>122</v>
@@ -4401,34 +4416,34 @@
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="11" t="s">
-        <v>194</v>
+        <v>88</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>195</v>
+        <v>122</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>196</v>
+        <v>123</v>
       </c>
       <c r="D117" s="4">
-        <v>4301070921</v>
+        <v>4301070920</v>
       </c>
       <c r="E117" s="3">
-        <v>4607111035905</v>
+        <v>4607111035929</v>
       </c>
       <c r="F117" s="5" t="s">
-        <v>197</v>
+        <v>124</v>
       </c>
       <c r="G117" s="6"/>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="11" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D118" s="4">
         <v>4301070921</v>
@@ -4437,40 +4452,40 @@
         <v>4607111035905</v>
       </c>
       <c r="F118" s="5" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="G118" s="6"/>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="11" t="s">
-        <v>228</v>
+        <v>194</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>226</v>
+        <v>192</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>227</v>
+        <v>193</v>
       </c>
       <c r="D119" s="4">
-        <v>4301070917</v>
+        <v>4301070921</v>
       </c>
       <c r="E119" s="3">
-        <v>4607111035912</v>
+        <v>4607111035905</v>
       </c>
       <c r="F119" s="5" t="s">
-        <v>228</v>
+        <v>194</v>
       </c>
       <c r="G119" s="6"/>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="11" t="s">
-        <v>349</v>
+        <v>225</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="D120" s="4">
         <v>4301070917</v>
@@ -4479,19 +4494,19 @@
         <v>4607111035912</v>
       </c>
       <c r="F120" s="5" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="G120" s="6"/>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="11" t="s">
-        <v>397</v>
+        <v>346</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="D121" s="4">
         <v>4301070917</v>
@@ -4500,19 +4515,19 @@
         <v>4607111035912</v>
       </c>
       <c r="F121" s="5" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="G121" s="6"/>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="11" t="s">
-        <v>229</v>
+        <v>394</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="D122" s="4">
         <v>4301070917</v>
@@ -4521,34 +4536,34 @@
         <v>4607111035912</v>
       </c>
       <c r="F122" s="5" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="G122" s="6"/>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" s="11" t="s">
-        <v>198</v>
+        <v>226</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>125</v>
+        <v>223</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>126</v>
+        <v>224</v>
       </c>
       <c r="D123" s="4">
-        <v>4301070827</v>
+        <v>4301070917</v>
       </c>
       <c r="E123" s="3">
-        <v>4607111036216</v>
+        <v>4607111035912</v>
       </c>
       <c r="F123" s="5" t="s">
-        <v>127</v>
+        <v>225</v>
       </c>
       <c r="G123" s="6"/>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" s="11" t="s">
-        <v>89</v>
+        <v>195</v>
       </c>
       <c r="B124" s="3" t="s">
         <v>125</v>
@@ -4569,28 +4584,28 @@
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="11" t="s">
-        <v>130</v>
+        <v>89</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D125" s="4">
-        <v>4301070882</v>
+        <v>4301070827</v>
       </c>
       <c r="E125" s="3">
-        <v>4607111035899</v>
+        <v>4607111036216</v>
       </c>
       <c r="F125" s="5" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="G125" s="6"/>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" s="11" t="s">
-        <v>90</v>
+        <v>130</v>
       </c>
       <c r="B126" s="3" t="s">
         <v>128</v>
@@ -4611,22 +4626,22 @@
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" s="11" t="s">
-        <v>202</v>
+        <v>90</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>200</v>
+        <v>128</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>201</v>
+        <v>129</v>
       </c>
       <c r="D127" s="4">
-        <v>4301070873</v>
+        <v>4301070882</v>
       </c>
       <c r="E127" s="3">
-        <v>4607111035080</v>
+        <v>4607111035899</v>
       </c>
       <c r="F127" s="5" t="s">
-        <v>202</v>
+        <v>130</v>
       </c>
       <c r="G127" s="6"/>
     </row>
@@ -4635,10 +4650,10 @@
         <v>199</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D128" s="4">
         <v>4301070873</v>
@@ -4647,40 +4662,40 @@
         <v>4607111035080</v>
       </c>
       <c r="F128" s="5" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="G128" s="6"/>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" s="11" t="s">
-        <v>295</v>
+        <v>196</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>379</v>
+        <v>197</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>380</v>
+        <v>198</v>
       </c>
       <c r="D129" s="4">
-        <v>4301135193</v>
+        <v>4301070873</v>
       </c>
       <c r="E129" s="3">
-        <v>4640242180403</v>
+        <v>4607111035080</v>
       </c>
       <c r="F129" s="5" t="s">
-        <v>381</v>
+        <v>199</v>
       </c>
       <c r="G129" s="6"/>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" s="11" t="s">
-        <v>203</v>
+        <v>292</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="D130" s="4">
         <v>4301135193</v>
@@ -4689,28 +4704,28 @@
         <v>4640242180403</v>
       </c>
       <c r="F130" s="5" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="G130" s="6"/>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" s="11" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>205</v>
+        <v>376</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>206</v>
+        <v>377</v>
       </c>
       <c r="D131" s="4">
-        <v>4301070858</v>
+        <v>4301135193</v>
       </c>
       <c r="E131" s="3">
-        <v>4607111036193</v>
+        <v>4640242180403</v>
       </c>
       <c r="F131" s="5" t="s">
-        <v>207</v>
+        <v>378</v>
       </c>
       <c r="G131" s="6"/>
     </row>
@@ -4719,10 +4734,10 @@
         <v>204</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D132" s="4">
         <v>4301070858</v>
@@ -4731,61 +4746,61 @@
         <v>4607111036193</v>
       </c>
       <c r="F132" s="5" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="G132" s="6"/>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" s="11" t="s">
-        <v>92</v>
+        <v>201</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>131</v>
+        <v>202</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>132</v>
+        <v>482</v>
       </c>
       <c r="D133" s="4">
-        <v>4301135112</v>
+        <v>4301070956</v>
       </c>
       <c r="E133" s="3">
-        <v>4607111034199</v>
+        <v>4640242180250</v>
       </c>
       <c r="F133" s="5" t="s">
-        <v>133</v>
+        <v>483</v>
       </c>
       <c r="G133" s="6"/>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" s="11" t="s">
-        <v>311</v>
+        <v>92</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>337</v>
+        <v>131</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>338</v>
+        <v>132</v>
       </c>
       <c r="D134" s="4">
-        <v>4301131018</v>
+        <v>4301135112</v>
       </c>
       <c r="E134" s="3">
-        <v>4607111037930</v>
+        <v>4607111034199</v>
       </c>
       <c r="F134" s="5" t="s">
-        <v>339</v>
+        <v>133</v>
       </c>
       <c r="G134" s="6"/>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" s="11" t="s">
-        <v>429</v>
+        <v>308</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="D135" s="4">
         <v>4301131018</v>
@@ -4794,19 +4809,19 @@
         <v>4607111037930</v>
       </c>
       <c r="F135" s="5" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="G135" s="6"/>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" s="11" t="s">
-        <v>208</v>
+        <v>426</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="D136" s="4">
         <v>4301131018</v>
@@ -4815,40 +4830,40 @@
         <v>4607111037930</v>
       </c>
       <c r="F136" s="5" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="G136" s="6"/>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" s="11" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>156</v>
+        <v>334</v>
       </c>
       <c r="C137" s="3" t="s">
-        <v>157</v>
+        <v>335</v>
       </c>
       <c r="D137" s="4">
-        <v>4301190014</v>
+        <v>4301131018</v>
       </c>
       <c r="E137" s="3">
-        <v>4607111037053</v>
+        <v>4607111037930</v>
       </c>
       <c r="F137" s="5" t="s">
-        <v>158</v>
+        <v>336</v>
       </c>
       <c r="G137" s="6"/>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" s="11" t="s">
-        <v>439</v>
+        <v>206</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C138" s="3" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D138" s="4">
         <v>4301190014</v>
@@ -4857,19 +4872,19 @@
         <v>4607111037053</v>
       </c>
       <c r="F138" s="5" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="G138" s="6"/>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" s="11" t="s">
-        <v>149</v>
+        <v>436</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C139" s="3" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D139" s="4">
         <v>4301190014</v>
@@ -4878,40 +4893,40 @@
         <v>4607111037053</v>
       </c>
       <c r="F139" s="5" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="G139" s="6"/>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" s="11" t="s">
-        <v>210</v>
+        <v>146</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="C140" s="3" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="D140" s="4">
-        <v>4301190015</v>
+        <v>4301190014</v>
       </c>
       <c r="E140" s="3">
-        <v>4607111037060</v>
+        <v>4607111037053</v>
       </c>
       <c r="F140" s="5" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="G140" s="6"/>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" s="11" t="s">
-        <v>440</v>
+        <v>207</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D141" s="4">
         <v>4301190015</v>
@@ -4920,19 +4935,19 @@
         <v>4607111037060</v>
       </c>
       <c r="F141" s="5" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="G141" s="6"/>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" s="11" t="s">
-        <v>150</v>
+        <v>437</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D142" s="4">
         <v>4301190015</v>
@@ -4941,61 +4956,61 @@
         <v>4607111037060</v>
       </c>
       <c r="F142" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="G142" s="1"/>
+        <v>158</v>
+      </c>
+      <c r="G142" s="6"/>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" s="11" t="s">
-        <v>233</v>
+        <v>147</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>230</v>
+        <v>156</v>
       </c>
       <c r="C143" s="3" t="s">
-        <v>231</v>
+        <v>157</v>
       </c>
       <c r="D143" s="4">
-        <v>4301135053</v>
+        <v>4301190015</v>
       </c>
       <c r="E143" s="3">
-        <v>4607111036407</v>
+        <v>4607111037060</v>
       </c>
       <c r="F143" s="5" t="s">
-        <v>232</v>
+        <v>158</v>
       </c>
       <c r="G143" s="1"/>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" s="11" t="s">
-        <v>93</v>
+        <v>230</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>134</v>
+        <v>227</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>211</v>
+        <v>228</v>
       </c>
       <c r="D144" s="4">
-        <v>4301135162</v>
+        <v>4301135053</v>
       </c>
       <c r="E144" s="3">
-        <v>4607111034014</v>
+        <v>4607111036407</v>
       </c>
       <c r="F144" s="5" t="s">
-        <v>135</v>
+        <v>229</v>
       </c>
       <c r="G144" s="1"/>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" s="11" t="s">
-        <v>447</v>
+        <v>93</v>
       </c>
       <c r="B145" s="3" t="s">
         <v>134</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D145" s="4">
         <v>4301135162</v>
@@ -5010,13 +5025,13 @@
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" s="11" t="s">
-        <v>264</v>
+        <v>444</v>
       </c>
       <c r="B146" s="3" t="s">
         <v>134</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D146" s="4">
         <v>4301135162</v>
@@ -5025,34 +5040,34 @@
         <v>4607111034014</v>
       </c>
       <c r="F146" s="5" t="s">
-        <v>293</v>
+        <v>135</v>
       </c>
       <c r="G146" s="1"/>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" s="11" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C147" s="3" t="s">
-        <v>137</v>
+        <v>208</v>
       </c>
       <c r="D147" s="4">
-        <v>4301135117</v>
+        <v>4301135162</v>
       </c>
       <c r="E147" s="3">
-        <v>4607111033994</v>
+        <v>4607111034014</v>
       </c>
       <c r="F147" s="5" t="s">
-        <v>138</v>
+        <v>290</v>
       </c>
       <c r="G147" s="1"/>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" s="11" t="s">
-        <v>138</v>
+        <v>262</v>
       </c>
       <c r="B148" s="3" t="s">
         <v>136</v>
@@ -5073,7 +5088,7 @@
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" s="11" t="s">
-        <v>94</v>
+        <v>138</v>
       </c>
       <c r="B149" s="3" t="s">
         <v>136</v>
@@ -5094,34 +5109,34 @@
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" s="11" t="s">
-        <v>212</v>
+        <v>94</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>382</v>
+        <v>136</v>
       </c>
       <c r="C150" s="3" t="s">
-        <v>383</v>
+        <v>137</v>
       </c>
       <c r="D150" s="4">
-        <v>4301136028</v>
+        <v>4301135117</v>
       </c>
       <c r="E150" s="3">
-        <v>4640242180304</v>
+        <v>4607111033994</v>
       </c>
       <c r="F150" s="5" t="s">
-        <v>384</v>
+        <v>138</v>
       </c>
       <c r="G150" s="1"/>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" s="11" t="s">
-        <v>445</v>
+        <v>209</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="C151" s="3" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="D151" s="4">
         <v>4301136028</v>
@@ -5130,19 +5145,19 @@
         <v>4640242180304</v>
       </c>
       <c r="F151" s="5" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="G151" s="1"/>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" s="11" t="s">
-        <v>151</v>
+        <v>442</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="C152" s="3" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="D152" s="4">
         <v>4301136028</v>
@@ -5151,40 +5166,40 @@
         <v>4640242180304</v>
       </c>
       <c r="F152" s="5" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="G152" s="1"/>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" s="11" t="s">
-        <v>444</v>
+        <v>148</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="C153" s="3" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="D153" s="4">
-        <v>4301136026</v>
+        <v>4301136028</v>
       </c>
       <c r="E153" s="3">
-        <v>4640242180236</v>
+        <v>4640242180304</v>
       </c>
       <c r="F153" s="5" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="G153" s="1"/>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" s="11" t="s">
-        <v>476</v>
+        <v>441</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="C154" s="3" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="D154" s="4">
         <v>4301136026</v>
@@ -5193,19 +5208,19 @@
         <v>4640242180236</v>
       </c>
       <c r="F154" s="5" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="G154" s="1"/>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" s="11" t="s">
-        <v>95</v>
+        <v>473</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="C155" s="3" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="D155" s="4">
         <v>4301136026</v>
@@ -5214,40 +5229,40 @@
         <v>4640242180236</v>
       </c>
       <c r="F155" s="5" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="G155" s="1"/>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" s="11" t="s">
-        <v>323</v>
+        <v>95</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>142</v>
+        <v>382</v>
       </c>
       <c r="C156" s="3" t="s">
-        <v>143</v>
+        <v>383</v>
       </c>
       <c r="D156" s="4">
-        <v>4301135177</v>
+        <v>4301136026</v>
       </c>
       <c r="E156" s="3">
-        <v>4607111037862</v>
+        <v>4640242180236</v>
       </c>
       <c r="F156" s="5" t="s">
-        <v>144</v>
+        <v>384</v>
       </c>
       <c r="G156" s="1"/>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" s="11" t="s">
-        <v>144</v>
+        <v>320</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C157" s="3" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D157" s="4">
         <v>4301135177</v>
@@ -5256,19 +5271,19 @@
         <v>4607111037862</v>
       </c>
       <c r="F157" s="5" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="G157" s="1"/>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" s="11" t="s">
-        <v>299</v>
+        <v>141</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C158" s="3" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D158" s="4">
         <v>4301135177</v>
@@ -5277,40 +5292,40 @@
         <v>4607111037862</v>
       </c>
       <c r="F158" s="5" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="G158" s="1"/>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" s="11" t="s">
-        <v>350</v>
+        <v>296</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>302</v>
+        <v>139</v>
       </c>
       <c r="C159" s="3" t="s">
-        <v>303</v>
+        <v>140</v>
       </c>
       <c r="D159" s="4">
-        <v>4301070915</v>
+        <v>4301135177</v>
       </c>
       <c r="E159" s="3">
-        <v>4607111035882</v>
+        <v>4607111037862</v>
       </c>
       <c r="F159" s="5" t="s">
-        <v>304</v>
+        <v>141</v>
       </c>
       <c r="G159" s="1"/>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" s="11" t="s">
-        <v>416</v>
+        <v>347</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="C160" s="3" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="D160" s="4">
         <v>4301070915</v>
@@ -5319,19 +5334,19 @@
         <v>4607111035882</v>
       </c>
       <c r="F160" s="5" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="G160" s="1"/>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" s="11" t="s">
-        <v>304</v>
+        <v>413</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="C161" s="3" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="D161" s="4">
         <v>4301070915</v>
@@ -5340,40 +5355,40 @@
         <v>4607111035882</v>
       </c>
       <c r="F161" s="5" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="G161" s="1"/>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" s="11" t="s">
-        <v>417</v>
+        <v>301</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="C162" s="3" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="D162" s="4">
-        <v>4301070874</v>
+        <v>4301070915</v>
       </c>
       <c r="E162" s="3">
-        <v>4607111035332</v>
+        <v>4607111035882</v>
       </c>
       <c r="F162" s="5" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="G162" s="1"/>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" s="11" t="s">
-        <v>307</v>
+        <v>414</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C163" s="3" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="D163" s="4">
         <v>4301070874</v>
@@ -5382,40 +5397,40 @@
         <v>4607111035332</v>
       </c>
       <c r="F163" s="5" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="G163" s="1"/>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" s="11" t="s">
-        <v>332</v>
+        <v>304</v>
       </c>
       <c r="B164" s="3" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="C164" s="3" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D164" s="4">
-        <v>4301136014</v>
+        <v>4301070874</v>
       </c>
       <c r="E164" s="3">
-        <v>4607111035370</v>
+        <v>4607111035332</v>
       </c>
       <c r="F164" s="5" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="G164" s="1"/>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" s="11" t="s">
-        <v>422</v>
+        <v>329</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="C165" s="3" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="D165" s="4">
         <v>4301136014</v>
@@ -5424,19 +5439,19 @@
         <v>4607111035370</v>
       </c>
       <c r="F165" s="5" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="G165" s="1"/>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" s="11" t="s">
-        <v>310</v>
+        <v>419</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="C166" s="3" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="D166" s="4">
         <v>4301136014</v>
@@ -5445,40 +5460,40 @@
         <v>4607111035370</v>
       </c>
       <c r="F166" s="5" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="G166" s="1"/>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" s="11" t="s">
-        <v>331</v>
+        <v>307</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="C167" s="3" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="D167" s="4">
-        <v>4301051320</v>
+        <v>4301136014</v>
       </c>
       <c r="E167" s="3">
-        <v>4680115881334</v>
+        <v>4607111035370</v>
       </c>
       <c r="F167" s="5" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="G167" s="1"/>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" s="11" t="s">
-        <v>348</v>
+        <v>328</v>
       </c>
       <c r="B168" s="3" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C168" s="3" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="D168" s="4">
         <v>4301051320</v>
@@ -5487,19 +5502,19 @@
         <v>4680115881334</v>
       </c>
       <c r="F168" s="5" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="G168" s="1"/>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" s="11" t="s">
-        <v>318</v>
+        <v>345</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C169" s="3" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="D169" s="4">
         <v>4301051320</v>
@@ -5508,124 +5523,124 @@
         <v>4680115881334</v>
       </c>
       <c r="F169" s="5" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="G169" s="1"/>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" s="11" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="B170" s="3" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="C170" s="3" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="D170" s="4">
-        <v>4301051319</v>
+        <v>4301051320</v>
       </c>
       <c r="E170" s="3">
-        <v>4680115881204</v>
+        <v>4680115881334</v>
       </c>
       <c r="F170" s="5" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="G170" s="1"/>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" s="11" t="s">
-        <v>351</v>
+        <v>319</v>
       </c>
       <c r="B171" s="3" t="s">
-        <v>391</v>
+        <v>316</v>
       </c>
       <c r="C171" s="3" t="s">
-        <v>392</v>
+        <v>317</v>
       </c>
       <c r="D171" s="4">
-        <v>4301136027</v>
+        <v>4301051319</v>
       </c>
       <c r="E171" s="3">
-        <v>4640242180298</v>
+        <v>4680115881204</v>
       </c>
       <c r="F171" s="5" t="s">
-        <v>393</v>
+        <v>318</v>
       </c>
       <c r="G171" s="1"/>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" s="11" t="s">
-        <v>400</v>
+        <v>348</v>
       </c>
       <c r="B172" s="3" t="s">
-        <v>401</v>
+        <v>388</v>
       </c>
       <c r="C172" s="3" t="s">
-        <v>402</v>
+        <v>389</v>
       </c>
       <c r="D172" s="4">
-        <v>4301130003</v>
+        <v>4301136027</v>
       </c>
       <c r="E172" s="3">
-        <v>4607111034687</v>
+        <v>4640242180298</v>
       </c>
       <c r="F172" s="5" t="s">
-        <v>403</v>
+        <v>390</v>
       </c>
       <c r="G172" s="1"/>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" s="11" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="C173" s="3" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="D173" s="4">
-        <v>4301070977</v>
+        <v>4301130003</v>
       </c>
       <c r="E173" s="3">
-        <v>4607111037411</v>
+        <v>4607111034687</v>
       </c>
       <c r="F173" s="5" t="s">
-        <v>409</v>
+        <v>400</v>
       </c>
       <c r="G173" s="1"/>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" s="11" t="s">
-        <v>453</v>
+        <v>403</v>
       </c>
       <c r="B174" s="3" t="s">
-        <v>413</v>
+        <v>404</v>
       </c>
       <c r="C174" s="3" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="D174" s="4">
-        <v>4301070871</v>
+        <v>4301070977</v>
       </c>
       <c r="E174" s="3">
-        <v>4607111036384</v>
+        <v>4607111037411</v>
       </c>
       <c r="F174" s="5" t="s">
-        <v>415</v>
+        <v>406</v>
       </c>
       <c r="G174" s="1"/>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" s="11" t="s">
-        <v>412</v>
+        <v>450</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="C175" s="3" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="D175" s="4">
         <v>4301070871</v>
@@ -5634,227 +5649,239 @@
         <v>4607111036384</v>
       </c>
       <c r="F175" s="5" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="G175" s="1"/>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" s="11" t="s">
-        <v>418</v>
+        <v>409</v>
       </c>
       <c r="B176" s="3" t="s">
-        <v>419</v>
+        <v>410</v>
       </c>
       <c r="C176" s="3" t="s">
-        <v>420</v>
+        <v>411</v>
       </c>
       <c r="D176" s="4">
-        <v>4301135111</v>
+        <v>4301070871</v>
       </c>
       <c r="E176" s="3">
-        <v>4607111035028</v>
+        <v>4607111036384</v>
       </c>
       <c r="F176" s="5" t="s">
-        <v>421</v>
+        <v>412</v>
       </c>
       <c r="G176" s="1"/>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177" s="11" t="s">
-        <v>425</v>
+        <v>415</v>
       </c>
       <c r="B177" s="3" t="s">
-        <v>426</v>
+        <v>416</v>
       </c>
       <c r="C177" s="3" t="s">
-        <v>427</v>
+        <v>417</v>
       </c>
       <c r="D177" s="4">
-        <v>4301130006</v>
+        <v>4301135111</v>
       </c>
       <c r="E177" s="3">
-        <v>4607111034670</v>
+        <v>4607111035028</v>
       </c>
       <c r="F177" s="5" t="s">
-        <v>428</v>
+        <v>418</v>
       </c>
       <c r="G177" s="1"/>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178" s="11" t="s">
-        <v>431</v>
+        <v>422</v>
       </c>
       <c r="B178" s="3" t="s">
-        <v>432</v>
+        <v>423</v>
       </c>
       <c r="C178" s="3" t="s">
-        <v>433</v>
+        <v>424</v>
       </c>
       <c r="D178" s="4">
-        <v>4301070768</v>
+        <v>4301130006</v>
       </c>
       <c r="E178" s="3">
-        <v>4607111035639</v>
+        <v>4607111034670</v>
       </c>
       <c r="F178" s="5" t="s">
-        <v>434</v>
+        <v>425</v>
       </c>
       <c r="G178" s="1"/>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179" s="11" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="B179" s="3" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="C179" s="3" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="D179" s="4">
-        <v>4301070797</v>
+        <v>4301070768</v>
       </c>
       <c r="E179" s="3">
-        <v>4607111035646</v>
+        <v>4607111035639</v>
       </c>
       <c r="F179" s="5" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="G179" s="1"/>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180" s="11" t="s">
-        <v>449</v>
+        <v>432</v>
       </c>
       <c r="B180" s="3" t="s">
-        <v>450</v>
+        <v>433</v>
       </c>
       <c r="C180" s="3" t="s">
-        <v>451</v>
+        <v>434</v>
       </c>
       <c r="D180" s="4">
-        <v>4301080154</v>
+        <v>4301070797</v>
       </c>
       <c r="E180" s="3">
-        <v>4607111036834</v>
+        <v>4607111035646</v>
       </c>
       <c r="F180" s="5" t="s">
-        <v>452</v>
+        <v>435</v>
       </c>
       <c r="G180" s="1"/>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181" s="11" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="B181" s="3" t="s">
-        <v>458</v>
+        <v>447</v>
       </c>
       <c r="C181" s="3" t="s">
-        <v>459</v>
+        <v>448</v>
       </c>
       <c r="D181" s="4">
-        <v>4301070941</v>
+        <v>4301080154</v>
       </c>
       <c r="E181" s="3">
-        <v>4607111036162</v>
+        <v>4607111036834</v>
       </c>
       <c r="F181" s="5" t="s">
-        <v>460</v>
+        <v>449</v>
       </c>
       <c r="G181" s="1"/>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182" s="11" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="B182" s="3" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="C182" s="3" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="D182" s="4">
-        <v>4301070826</v>
+        <v>4301070941</v>
       </c>
       <c r="E182" s="3">
-        <v>4607111035752</v>
+        <v>4607111036162</v>
       </c>
       <c r="F182" s="5" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
       <c r="G182" s="1"/>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183" s="11" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="B183" s="3" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="C183" s="3" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="D183" s="4">
-        <v>4301070966</v>
+        <v>4301070826</v>
       </c>
       <c r="E183" s="3">
-        <v>4607111038135</v>
+        <v>4607111035752</v>
       </c>
       <c r="F183" s="5" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="G183" s="1"/>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184" s="11" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="B184" s="3" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="C184" s="3" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="D184" s="4">
-        <v>4301070911</v>
+        <v>4301070966</v>
       </c>
       <c r="E184" s="3">
-        <v>4607111036278</v>
+        <v>4607111038135</v>
       </c>
       <c r="F184" s="5" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="G184" s="1"/>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185" s="11" t="s">
+        <v>465</v>
+      </c>
+      <c r="B185" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="C185" s="3" t="s">
+        <v>467</v>
+      </c>
+      <c r="D185" s="4">
+        <v>4301070911</v>
+      </c>
+      <c r="E185" s="3">
+        <v>4607111036278</v>
+      </c>
+      <c r="F185" s="5" t="s">
+        <v>465</v>
+      </c>
+      <c r="G185" s="1"/>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A186" s="11" t="s">
+        <v>469</v>
+      </c>
+      <c r="B186" s="3" t="s">
+        <v>470</v>
+      </c>
+      <c r="C186" s="3" t="s">
+        <v>471</v>
+      </c>
+      <c r="D186" s="4">
+        <v>4301131019</v>
+      </c>
+      <c r="E186" s="3">
+        <v>4640242180427</v>
+      </c>
+      <c r="F186" s="5" t="s">
         <v>472</v>
       </c>
-      <c r="B185" s="3" t="s">
-        <v>473</v>
-      </c>
-      <c r="C185" s="3" t="s">
-        <v>474</v>
-      </c>
-      <c r="D185" s="4">
-        <v>4301131019</v>
-      </c>
-      <c r="E185" s="3">
-        <v>4640242180427</v>
-      </c>
-      <c r="F185" s="5" t="s">
-        <v>475</v>
-      </c>
-      <c r="G185" s="1"/>
-    </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A186" s="11"/>
-      <c r="B186" s="3"/>
-      <c r="C186" s="3"/>
-      <c r="D186" s="4"/>
-      <c r="E186" s="3"/>
-      <c r="F186" s="5"/>
       <c r="G186" s="1"/>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.25">
@@ -5949,20 +5976,20 @@
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197" s="11"/>
-      <c r="B197" s="13"/>
-      <c r="C197" s="13"/>
-      <c r="D197" s="14"/>
-      <c r="E197" s="15"/>
-      <c r="F197" s="16"/>
+      <c r="B197" s="3"/>
+      <c r="C197" s="3"/>
+      <c r="D197" s="4"/>
+      <c r="E197" s="3"/>
+      <c r="F197" s="5"/>
       <c r="G197" s="1"/>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198" s="11"/>
-      <c r="B198" s="3"/>
-      <c r="C198" s="3"/>
-      <c r="D198" s="4"/>
-      <c r="E198" s="3"/>
-      <c r="F198" s="5"/>
+      <c r="B198" s="13"/>
+      <c r="C198" s="13"/>
+      <c r="D198" s="14"/>
+      <c r="E198" s="15"/>
+      <c r="F198" s="16"/>
       <c r="G198" s="1"/>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.25">
@@ -6030,20 +6057,20 @@
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A206" s="11"/>
-      <c r="B206" s="13"/>
-      <c r="C206" s="13"/>
-      <c r="D206" s="14"/>
-      <c r="E206" s="15"/>
-      <c r="F206" s="16"/>
+      <c r="B206" s="3"/>
+      <c r="C206" s="3"/>
+      <c r="D206" s="4"/>
+      <c r="E206" s="3"/>
+      <c r="F206" s="5"/>
       <c r="G206" s="1"/>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A207" s="11"/>
-      <c r="B207" s="3"/>
-      <c r="C207" s="3"/>
-      <c r="D207" s="4"/>
-      <c r="E207" s="3"/>
-      <c r="F207" s="5"/>
+      <c r="B207" s="13"/>
+      <c r="C207" s="13"/>
+      <c r="D207" s="14"/>
+      <c r="E207" s="15"/>
+      <c r="F207" s="16"/>
       <c r="G207" s="1"/>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.25">
@@ -6098,7 +6125,7 @@
       <c r="D213" s="4"/>
       <c r="E213" s="3"/>
       <c r="F213" s="5"/>
-      <c r="G213" s="6"/>
+      <c r="G213" s="1"/>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A214" s="11"/>
@@ -6107,7 +6134,7 @@
       <c r="D214" s="4"/>
       <c r="E214" s="3"/>
       <c r="F214" s="5"/>
-      <c r="G214" s="1"/>
+      <c r="G214" s="6"/>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A215" s="11"/>
@@ -6723,11 +6750,11 @@
     </row>
     <row r="283" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A283" s="11"/>
-      <c r="B283" s="1"/>
-      <c r="C283" s="1"/>
-      <c r="D283" s="1"/>
-      <c r="E283" s="1"/>
-      <c r="F283" s="1"/>
+      <c r="B283" s="3"/>
+      <c r="C283" s="3"/>
+      <c r="D283" s="4"/>
+      <c r="E283" s="3"/>
+      <c r="F283" s="5"/>
       <c r="G283" s="1"/>
     </row>
     <row r="284" spans="1:7" x14ac:dyDescent="0.25">
@@ -6748,10 +6775,19 @@
       <c r="F285" s="1"/>
       <c r="G285" s="1"/>
     </row>
+    <row r="286" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A286" s="11"/>
+      <c r="B286" s="1"/>
+      <c r="C286" s="1"/>
+      <c r="D286" s="1"/>
+      <c r="E286" s="1"/>
+      <c r="F286" s="1"/>
+      <c r="G286" s="1"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:F185" xr:uid="{08353A06-E006-45C7-BD45-850F7C3953DF}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F158">
-      <sortCondition ref="A1:A108"/>
+  <autoFilter ref="A1:F186" xr:uid="{08353A06-E006-45C7-BD45-850F7C3953DF}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F159">
+      <sortCondition ref="A1:A109"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/moduls/1С.xlsx
+++ b/moduls/1С.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\перенос данных\ПОКОМ ЗПФ\pokom_zpf\moduls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56A9657C-7360-451E-AB7D-D2938429E191}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3D525DD-7697-4022-9774-CC1A858A7E81}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$F$186</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$F$202</definedName>
   </definedNames>
   <calcPr calcId="181029" refMode="R1C1"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="813" uniqueCount="484">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="877" uniqueCount="498">
   <si>
     <t>1С</t>
   </si>
@@ -382,12 +382,6 @@
     <t>SU002624</t>
   </si>
   <si>
-    <t>P002962</t>
-  </si>
-  <si>
-    <t>Пельмени Бигбули с мясом Бигбули ГШ 0,9 Сфера Горячая штучка</t>
-  </si>
-  <si>
     <t>SU002627</t>
   </si>
   <si>
@@ -424,9 +418,6 @@
     <t>SU002268</t>
   </si>
   <si>
-    <t>P002746</t>
-  </si>
-  <si>
     <t>Пельмени Со свининой и говядиной Любимая ложка 1,0 Равиоли Особый рецепт</t>
   </si>
   <si>
@@ -454,12 +445,6 @@
     <t>Чебупицца Пепперони Чебупицца Фикс.вес 0,25 Лоток Горячая штучка</t>
   </si>
   <si>
-    <t>SU002889</t>
-  </si>
-  <si>
-    <t>P003310</t>
-  </si>
-  <si>
     <t>Мини-сосиски в тесте Фрайпики No name Весовые No name 1,8 кг</t>
   </si>
   <si>
@@ -1487,6 +1472,63 @@
   </si>
   <si>
     <t>Пельмени «Хинкали Классические» Весовые Хинкали ТМ «Зареченские» 5 кг</t>
+  </si>
+  <si>
+    <t>Жар-ладушки с мясом, картофелем и грибами ВЕС ТМ Зареченские  ПОКОМ</t>
+  </si>
+  <si>
+    <t>ЖАР-мени ВЕС ТМ Зареченские  ПОКОМ</t>
+  </si>
+  <si>
+    <t>Наггетсы Хрустящие ТМ Зареченские. ВЕС ПОКОМ</t>
+  </si>
+  <si>
+    <t>P003678</t>
+  </si>
+  <si>
+    <t>Пельмени «Бигбули с мясом» 0,9 Сфера ТМ «Горячая штучка»</t>
+  </si>
+  <si>
+    <t>P003642</t>
+  </si>
+  <si>
+    <t>Фрайпицца с ветчиной и грибами ТМ Зареченские ТС Зареченские продукты. ВЕС ПОКОМ</t>
+  </si>
+  <si>
+    <t>Чебуреки сочные ВЕС ТМ Зареченские  ПОКОМ</t>
+  </si>
+  <si>
+    <t>Хрустящие крылышки ТМ Зареченские ТС Зареченские продукты. ВЕС ПОКОМ</t>
+  </si>
+  <si>
+    <t>Чебуреки «Сочный мегачебурек» Весовой ТМ «No Name»</t>
+  </si>
+  <si>
+    <t>«Жар-ладушки с клубникой и вишней» Весовые ТМ «No name»</t>
+  </si>
+  <si>
+    <t>Жар-ладушки с яблоком и грушей No name ПГП Весовые No name 3,7 кг</t>
+  </si>
+  <si>
+    <t>Жар-ладушки с мясом No name ПГП Весовые No name  3,7 кг</t>
+  </si>
+  <si>
+    <t>Пельмени «Быстромени» Весовой ТМ «No Name» 5</t>
+  </si>
+  <si>
+    <t>Жар-ладушки с яблоком и грушей ТМ Зареченские ВЕС ПОКОМ</t>
+  </si>
+  <si>
+    <t>SU003022</t>
+  </si>
+  <si>
+    <t>P003487</t>
+  </si>
+  <si>
+    <t>Снеки «Мини-сосиски в тесте Фрайпики» Весовые ТМ «Зареченские» 1,8 к</t>
+  </si>
+  <si>
+    <t>Жар-ладушки с мясом ТМ Зареченские ВЕС ПОКОМ</t>
   </si>
 </sst>
 </file>
@@ -1961,11 +2003,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G286"/>
+  <dimension ref="A1:G302"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G6" sqref="G6"/>
+      <selection pane="bottomLeft" activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2001,13 +2043,13 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="D2" s="4">
         <v>4301080153</v>
@@ -2016,19 +2058,19 @@
         <v>4607111036827</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="D3" s="4">
         <v>4301080153</v>
@@ -2037,19 +2079,19 @@
         <v>4607111036827</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="D4" s="4">
         <v>4301080153</v>
@@ -2058,40 +2100,40 @@
         <v>4607111036827</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="G4" s="1"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
-        <v>420</v>
+        <v>154</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>263</v>
+        <v>155</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>264</v>
+        <v>156</v>
       </c>
       <c r="D5" s="4">
-        <v>4301135113</v>
+        <v>4301080153</v>
       </c>
       <c r="E5" s="3">
-        <v>4607111033659</v>
+        <v>4607111036827</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>265</v>
+        <v>157</v>
       </c>
       <c r="G5" s="1"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
-        <v>438</v>
+        <v>415</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="D6" s="4">
         <v>4301135113</v>
@@ -2100,19 +2142,19 @@
         <v>4607111033659</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="G6" s="1"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
-        <v>231</v>
+        <v>433</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="D7" s="4">
         <v>4301135113</v>
@@ -2121,76 +2163,76 @@
         <v>4607111033659</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="G7" s="1"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>131</v>
+        <v>258</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>132</v>
+        <v>259</v>
       </c>
       <c r="D8" s="4">
-        <v>4301135112</v>
+        <v>4301135113</v>
       </c>
       <c r="E8" s="3">
-        <v>4607111034199</v>
+        <v>4607111033659</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>133</v>
+        <v>260</v>
       </c>
       <c r="G8" s="1"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>164</v>
+        <v>128</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>165</v>
+        <v>129</v>
       </c>
       <c r="D9" s="4">
-        <v>4301135122</v>
+        <v>4301135112</v>
       </c>
       <c r="E9" s="3">
-        <v>4607111033628</v>
+        <v>4607111034199</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>166</v>
+        <v>130</v>
       </c>
       <c r="G9" s="1"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
-        <v>73</v>
+        <v>228</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>96</v>
+        <v>159</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>97</v>
+        <v>160</v>
       </c>
       <c r="D10" s="4">
-        <v>4301130400</v>
+        <v>4301135122</v>
       </c>
       <c r="E10" s="3">
-        <v>4607111033451</v>
+        <v>4607111033628</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>98</v>
+        <v>161</v>
       </c>
       <c r="G10" s="1"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
-        <v>98</v>
+        <v>73</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>96</v>
@@ -2211,7 +2253,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
-        <v>234</v>
+        <v>98</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>96</v>
@@ -2232,70 +2274,70 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>266</v>
+        <v>96</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>267</v>
+        <v>97</v>
       </c>
       <c r="D13" s="4">
-        <v>4301135120</v>
+        <v>4301130400</v>
       </c>
       <c r="E13" s="3">
-        <v>4607111035141</v>
+        <v>4607111033451</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>268</v>
+        <v>98</v>
       </c>
       <c r="G13" s="1"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
-        <v>74</v>
+        <v>263</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>99</v>
+        <v>261</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>100</v>
+        <v>262</v>
       </c>
       <c r="D14" s="4">
-        <v>4301135109</v>
+        <v>4301135120</v>
       </c>
       <c r="E14" s="3">
-        <v>4607111033444</v>
+        <v>4607111035141</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>101</v>
+        <v>263</v>
       </c>
       <c r="G14" s="1"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
-        <v>101</v>
+        <v>230</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>99</v>
+        <v>261</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>100</v>
+        <v>262</v>
       </c>
       <c r="D15" s="4">
-        <v>4301135109</v>
+        <v>4301135120</v>
       </c>
       <c r="E15" s="3">
-        <v>4607111033444</v>
+        <v>4607111035141</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>101</v>
+        <v>263</v>
       </c>
       <c r="G15" s="1"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
-        <v>236</v>
+        <v>74</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>99</v>
@@ -2316,97 +2358,97 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
-        <v>166</v>
+        <v>101</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>164</v>
+        <v>99</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>165</v>
+        <v>100</v>
       </c>
       <c r="D17" s="4">
-        <v>4301135122</v>
+        <v>4301135109</v>
       </c>
       <c r="E17" s="3">
-        <v>4607111033628</v>
+        <v>4607111033444</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>166</v>
+        <v>101</v>
       </c>
       <c r="G17" s="1"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
-        <v>163</v>
+        <v>231</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>164</v>
+        <v>99</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>165</v>
+        <v>100</v>
       </c>
       <c r="D18" s="4">
-        <v>4301135122</v>
+        <v>4301135109</v>
       </c>
       <c r="E18" s="3">
-        <v>4607111033628</v>
+        <v>4607111033444</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>166</v>
+        <v>101</v>
       </c>
       <c r="G18" s="1"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
-        <v>237</v>
+        <v>161</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>210</v>
+        <v>159</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>211</v>
+        <v>160</v>
       </c>
       <c r="D19" s="4">
-        <v>4301136013</v>
+        <v>4301135122</v>
       </c>
       <c r="E19" s="3">
-        <v>4607025784012</v>
+        <v>4607111033628</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>212</v>
+        <v>161</v>
       </c>
       <c r="G19" s="1"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
-        <v>238</v>
+        <v>158</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>269</v>
+        <v>159</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>270</v>
+        <v>160</v>
       </c>
       <c r="D20" s="4">
-        <v>4301136012</v>
+        <v>4301135122</v>
       </c>
       <c r="E20" s="3">
-        <v>4607025784319</v>
+        <v>4607111033628</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>271</v>
+        <v>161</v>
       </c>
       <c r="G20" s="1"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
-        <v>212</v>
+        <v>232</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="D21" s="4">
         <v>4301136013</v>
@@ -2415,3617 +2457,3809 @@
         <v>4607025784012</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="G21" s="1"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
-        <v>213</v>
+        <v>233</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>210</v>
+        <v>264</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>211</v>
+        <v>265</v>
       </c>
       <c r="D22" s="4">
-        <v>4301136013</v>
+        <v>4301136012</v>
       </c>
       <c r="E22" s="3">
-        <v>4607025784012</v>
+        <v>4607025784319</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>212</v>
+        <v>266</v>
       </c>
       <c r="G22" s="1"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
-        <v>167</v>
+        <v>207</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>477</v>
+        <v>205</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>478</v>
+        <v>206</v>
       </c>
       <c r="D23" s="4">
-        <v>4301136029</v>
+        <v>4301136013</v>
       </c>
       <c r="E23" s="3">
-        <v>4640242180410</v>
+        <v>4607025784012</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>479</v>
+        <v>207</v>
       </c>
       <c r="G23" s="1"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="11" t="s">
-        <v>168</v>
+        <v>208</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>391</v>
+        <v>205</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>392</v>
+        <v>206</v>
       </c>
       <c r="D24" s="4">
-        <v>4301135191</v>
+        <v>4301136013</v>
       </c>
       <c r="E24" s="3">
-        <v>4640242180373</v>
+        <v>4607025784012</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>393</v>
+        <v>207</v>
       </c>
       <c r="G24" s="1"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="11" t="s">
-        <v>142</v>
+        <v>488</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>391</v>
+        <v>472</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>392</v>
+        <v>473</v>
       </c>
       <c r="D25" s="4">
-        <v>4301135191</v>
+        <v>4301136029</v>
       </c>
       <c r="E25" s="3">
-        <v>4640242180373</v>
+        <v>4640242180410</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>393</v>
+        <v>474</v>
       </c>
       <c r="G25" s="1"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="11" t="s">
-        <v>321</v>
+        <v>162</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>355</v>
+        <v>472</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>356</v>
+        <v>473</v>
       </c>
       <c r="D26" s="4">
-        <v>4301135195</v>
+        <v>4301136029</v>
       </c>
       <c r="E26" s="3">
-        <v>4640242180366</v>
+        <v>4640242180410</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>357</v>
+        <v>474</v>
       </c>
       <c r="G26" s="1"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="11" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>355</v>
+        <v>386</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>356</v>
+        <v>387</v>
       </c>
       <c r="D27" s="4">
-        <v>4301135195</v>
+        <v>4301135191</v>
       </c>
       <c r="E27" s="3">
-        <v>4640242180366</v>
+        <v>4640242180373</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>357</v>
+        <v>388</v>
       </c>
       <c r="G27" s="1"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="11" t="s">
-        <v>443</v>
+        <v>137</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>358</v>
+        <v>386</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>359</v>
+        <v>387</v>
       </c>
       <c r="D28" s="4">
-        <v>4301135189</v>
+        <v>4301135191</v>
       </c>
       <c r="E28" s="3">
-        <v>4640242180342</v>
+        <v>4640242180373</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>360</v>
+        <v>388</v>
       </c>
       <c r="G28" s="1"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="11" t="s">
-        <v>170</v>
+        <v>316</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="D29" s="4">
-        <v>4301135189</v>
+        <v>4301135195</v>
       </c>
       <c r="E29" s="3">
-        <v>4640242180342</v>
+        <v>4640242180366</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="G29" s="1"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="11" t="s">
-        <v>171</v>
+        <v>489</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>361</v>
+        <v>350</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>362</v>
+        <v>351</v>
       </c>
       <c r="D30" s="4">
-        <v>4301135188</v>
+        <v>4301135195</v>
       </c>
       <c r="E30" s="3">
-        <v>4640242180335</v>
+        <v>4640242180366</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>363</v>
+        <v>352</v>
       </c>
       <c r="G30" s="1"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="11" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>385</v>
+        <v>350</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>386</v>
+        <v>351</v>
       </c>
       <c r="D31" s="4">
-        <v>4301135190</v>
+        <v>4301135195</v>
       </c>
       <c r="E31" s="3">
-        <v>4640242180359</v>
+        <v>4640242180366</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>387</v>
+        <v>352</v>
       </c>
       <c r="G31" s="1"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="11" t="s">
-        <v>143</v>
+        <v>438</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>385</v>
+        <v>353</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>386</v>
+        <v>354</v>
       </c>
       <c r="D32" s="4">
-        <v>4301135190</v>
+        <v>4301135189</v>
       </c>
       <c r="E32" s="3">
-        <v>4640242180359</v>
+        <v>4640242180342</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>387</v>
+        <v>355</v>
       </c>
       <c r="G32" s="1"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="11" t="s">
-        <v>91</v>
+        <v>479</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>373</v>
+        <v>353</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>374</v>
+        <v>354</v>
       </c>
       <c r="D33" s="4">
-        <v>4301135186</v>
+        <v>4301135189</v>
       </c>
       <c r="E33" s="3">
-        <v>4640242180311</v>
+        <v>4640242180342</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>375</v>
-      </c>
-      <c r="G33" s="6"/>
+        <v>355</v>
+      </c>
+      <c r="G33" s="1"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="11" t="s">
-        <v>396</v>
+        <v>165</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>373</v>
+        <v>353</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>374</v>
+        <v>354</v>
       </c>
       <c r="D34" s="4">
-        <v>4301135186</v>
+        <v>4301135189</v>
       </c>
       <c r="E34" s="3">
-        <v>4640242180311</v>
+        <v>4640242180342</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>375</v>
-      </c>
-      <c r="G34" s="6"/>
+        <v>355</v>
+      </c>
+      <c r="G34" s="1"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="11" t="s">
-        <v>475</v>
+        <v>491</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>373</v>
+        <v>356</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>374</v>
+        <v>357</v>
       </c>
       <c r="D35" s="4">
-        <v>4301135186</v>
+        <v>4301135188</v>
       </c>
       <c r="E35" s="3">
-        <v>4640242180311</v>
+        <v>4640242180335</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>375</v>
-      </c>
-      <c r="G35" s="6"/>
+        <v>358</v>
+      </c>
+      <c r="G35" s="1"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="11" t="s">
-        <v>239</v>
+        <v>497</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>373</v>
+        <v>356</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>374</v>
+        <v>357</v>
       </c>
       <c r="D36" s="4">
-        <v>4301135186</v>
+        <v>4301135188</v>
       </c>
       <c r="E36" s="3">
-        <v>4640242180311</v>
+        <v>4640242180335</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>375</v>
+        <v>358</v>
       </c>
       <c r="G36" s="1"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="11" t="s">
-        <v>240</v>
+        <v>166</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="D37" s="4">
-        <v>4301135187</v>
+        <v>4301135188</v>
       </c>
       <c r="E37" s="3">
-        <v>4640242180328</v>
+        <v>4640242180335</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="G37" s="1"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="11" t="s">
-        <v>214</v>
+        <v>167</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>364</v>
+        <v>380</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>365</v>
+        <v>381</v>
       </c>
       <c r="D38" s="4">
-        <v>4301135187</v>
+        <v>4301135190</v>
       </c>
       <c r="E38" s="3">
-        <v>4640242180328</v>
+        <v>4640242180359</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>366</v>
+        <v>382</v>
       </c>
       <c r="G38" s="1"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="11" t="s">
-        <v>241</v>
+        <v>490</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>309</v>
+        <v>380</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>310</v>
+        <v>381</v>
       </c>
       <c r="D39" s="4">
-        <v>4301135115</v>
+        <v>4301135190</v>
       </c>
       <c r="E39" s="3">
-        <v>4607111034380</v>
+        <v>4640242180359</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>311</v>
+        <v>382</v>
       </c>
       <c r="G39" s="1"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="11" t="s">
-        <v>173</v>
+        <v>493</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>309</v>
+        <v>380</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>310</v>
+        <v>381</v>
       </c>
       <c r="D40" s="4">
-        <v>4301135115</v>
+        <v>4301135190</v>
       </c>
       <c r="E40" s="3">
-        <v>4607111034380</v>
+        <v>4640242180359</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>311</v>
+        <v>382</v>
       </c>
       <c r="G40" s="1"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="11" t="s">
-        <v>293</v>
+        <v>138</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>322</v>
+        <v>380</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>323</v>
+        <v>381</v>
       </c>
       <c r="D41" s="4">
-        <v>4301135114</v>
+        <v>4301135190</v>
       </c>
       <c r="E41" s="3">
-        <v>4607111034397</v>
+        <v>4640242180359</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>324</v>
+        <v>382</v>
       </c>
       <c r="G41" s="1"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="11" t="s">
-        <v>242</v>
+        <v>91</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>322</v>
+        <v>368</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>323</v>
+        <v>369</v>
       </c>
       <c r="D42" s="4">
-        <v>4301135114</v>
+        <v>4301135186</v>
       </c>
       <c r="E42" s="3">
-        <v>4607111034397</v>
+        <v>4640242180311</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>324</v>
-      </c>
-      <c r="G42" s="1"/>
+        <v>370</v>
+      </c>
+      <c r="G42" s="6"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="11" t="s">
-        <v>75</v>
+        <v>391</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>322</v>
+        <v>368</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>323</v>
+        <v>369</v>
       </c>
       <c r="D43" s="4">
-        <v>4301135114</v>
+        <v>4301135186</v>
       </c>
       <c r="E43" s="3">
-        <v>4607111034397</v>
+        <v>4640242180311</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>324</v>
-      </c>
-      <c r="G43" s="1"/>
+        <v>370</v>
+      </c>
+      <c r="G43" s="6"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="11" t="s">
-        <v>144</v>
+        <v>480</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>294</v>
+        <v>368</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>295</v>
+        <v>369</v>
       </c>
       <c r="D44" s="4">
-        <v>4301131012</v>
+        <v>4301135186</v>
       </c>
       <c r="E44" s="3">
-        <v>4607111034137</v>
+        <v>4640242180311</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="G44" s="1"/>
+        <v>370</v>
+      </c>
+      <c r="G44" s="6"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="11" t="s">
-        <v>149</v>
+        <v>470</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>294</v>
+        <v>368</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>295</v>
+        <v>369</v>
       </c>
       <c r="D45" s="4">
-        <v>4301131012</v>
+        <v>4301135186</v>
       </c>
       <c r="E45" s="3">
-        <v>4607111034137</v>
+        <v>4640242180311</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="G45" s="1"/>
+        <v>370</v>
+      </c>
+      <c r="G45" s="6"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="11" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>294</v>
+        <v>368</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>295</v>
+        <v>369</v>
       </c>
       <c r="D46" s="4">
-        <v>4301131012</v>
+        <v>4301135186</v>
       </c>
       <c r="E46" s="3">
-        <v>4607111034137</v>
+        <v>4640242180311</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>149</v>
+        <v>370</v>
       </c>
       <c r="G46" s="1"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="11" t="s">
-        <v>145</v>
+        <v>235</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>150</v>
+        <v>359</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>151</v>
+        <v>360</v>
       </c>
       <c r="D47" s="4">
-        <v>4301131011</v>
+        <v>4301135187</v>
       </c>
       <c r="E47" s="3">
-        <v>4607111034120</v>
+        <v>4640242180328</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="G47" s="6"/>
+        <v>361</v>
+      </c>
+      <c r="G47" s="1"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="11" t="s">
-        <v>152</v>
+        <v>209</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>150</v>
+        <v>359</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>151</v>
+        <v>360</v>
       </c>
       <c r="D48" s="4">
-        <v>4301131011</v>
+        <v>4301135187</v>
       </c>
       <c r="E48" s="3">
-        <v>4607111034120</v>
+        <v>4640242180328</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="G48" s="6"/>
+        <v>361</v>
+      </c>
+      <c r="G48" s="1"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="11" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>150</v>
+        <v>304</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>151</v>
+        <v>305</v>
       </c>
       <c r="D49" s="4">
-        <v>4301131011</v>
+        <v>4301135115</v>
       </c>
       <c r="E49" s="3">
-        <v>4607111034120</v>
+        <v>4607111034380</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>152</v>
+        <v>306</v>
       </c>
       <c r="G49" s="1"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="11" t="s">
-        <v>245</v>
+        <v>168</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>367</v>
+        <v>304</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>368</v>
+        <v>305</v>
       </c>
       <c r="D50" s="4">
-        <v>4301135192</v>
+        <v>4301135115</v>
       </c>
       <c r="E50" s="3">
-        <v>4640242180380</v>
+        <v>4607111034380</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>369</v>
+        <v>306</v>
       </c>
       <c r="G50" s="1"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="11" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>367</v>
+        <v>317</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>368</v>
+        <v>318</v>
       </c>
       <c r="D51" s="4">
-        <v>4301135192</v>
+        <v>4301135114</v>
       </c>
       <c r="E51" s="3">
-        <v>4640242180380</v>
+        <v>4607111034397</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>369</v>
+        <v>319</v>
       </c>
       <c r="G51" s="1"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="11" t="s">
-        <v>440</v>
+        <v>237</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>367</v>
+        <v>317</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>368</v>
+        <v>318</v>
       </c>
       <c r="D52" s="4">
-        <v>4301135192</v>
+        <v>4301135114</v>
       </c>
       <c r="E52" s="3">
-        <v>4640242180380</v>
+        <v>4607111034397</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>369</v>
+        <v>319</v>
       </c>
       <c r="G52" s="1"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="11" t="s">
-        <v>468</v>
+        <v>75</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>367</v>
+        <v>317</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>368</v>
+        <v>318</v>
       </c>
       <c r="D53" s="4">
-        <v>4301135192</v>
+        <v>4301135114</v>
       </c>
       <c r="E53" s="3">
-        <v>4640242180380</v>
+        <v>4607111034397</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>369</v>
+        <v>319</v>
       </c>
       <c r="G53" s="1"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="11" t="s">
-        <v>76</v>
+        <v>139</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>367</v>
+        <v>289</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>368</v>
+        <v>290</v>
       </c>
       <c r="D54" s="4">
-        <v>4301135192</v>
+        <v>4301131012</v>
       </c>
       <c r="E54" s="3">
-        <v>4640242180380</v>
+        <v>4607111034137</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>369</v>
+        <v>144</v>
       </c>
       <c r="G54" s="1"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="11" t="s">
-        <v>274</v>
+        <v>144</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>272</v>
+        <v>289</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>273</v>
+        <v>290</v>
       </c>
       <c r="D55" s="4">
-        <v>4301132066</v>
+        <v>4301131012</v>
       </c>
       <c r="E55" s="3">
-        <v>4607111036520</v>
+        <v>4607111034137</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>274</v>
+        <v>144</v>
       </c>
       <c r="G55" s="1"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="11" t="s">
-        <v>401</v>
+        <v>238</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>272</v>
+        <v>289</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>273</v>
+        <v>290</v>
       </c>
       <c r="D56" s="4">
-        <v>4301132066</v>
+        <v>4301131012</v>
       </c>
       <c r="E56" s="3">
-        <v>4607111036520</v>
+        <v>4607111034137</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>274</v>
+        <v>144</v>
       </c>
       <c r="G56" s="1"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="11" t="s">
-        <v>246</v>
+        <v>140</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>272</v>
+        <v>145</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>273</v>
+        <v>146</v>
       </c>
       <c r="D57" s="4">
-        <v>4301132066</v>
+        <v>4301131011</v>
       </c>
       <c r="E57" s="3">
-        <v>4607111036520</v>
+        <v>4607111034120</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>274</v>
-      </c>
-      <c r="G57" s="1"/>
+        <v>147</v>
+      </c>
+      <c r="G57" s="6"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="11" t="s">
-        <v>247</v>
+        <v>147</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>275</v>
+        <v>145</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>276</v>
+        <v>146</v>
       </c>
       <c r="D58" s="4">
-        <v>4301132065</v>
+        <v>4301131011</v>
       </c>
       <c r="E58" s="3">
-        <v>4607111036599</v>
+        <v>4607111034120</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>277</v>
-      </c>
-      <c r="G58" s="1"/>
-    </row>
-    <row r="59" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+      <c r="G58" s="6"/>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="11" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>278</v>
+        <v>145</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>279</v>
+        <v>146</v>
       </c>
       <c r="D59" s="4">
-        <v>4301132063</v>
+        <v>4301131011</v>
       </c>
       <c r="E59" s="3">
-        <v>4607111036605</v>
+        <v>4607111034120</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>280</v>
+        <v>147</v>
       </c>
       <c r="G59" s="1"/>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="11" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>102</v>
+        <v>362</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>103</v>
+        <v>363</v>
       </c>
       <c r="D60" s="4">
-        <v>4301132046</v>
+        <v>4301135192</v>
       </c>
       <c r="E60" s="3">
-        <v>4607111035691</v>
+        <v>4640242180380</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>104</v>
+        <v>364</v>
       </c>
       <c r="G60" s="1"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="11" t="s">
-        <v>104</v>
+        <v>286</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>102</v>
+        <v>362</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>103</v>
+        <v>363</v>
       </c>
       <c r="D61" s="4">
-        <v>4301132046</v>
+        <v>4301135192</v>
       </c>
       <c r="E61" s="3">
-        <v>4607111035691</v>
+        <v>4640242180380</v>
       </c>
       <c r="F61" s="5" t="s">
-        <v>104</v>
+        <v>364</v>
       </c>
       <c r="G61" s="1"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="11" t="s">
-        <v>77</v>
+        <v>435</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>102</v>
+        <v>362</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>103</v>
+        <v>363</v>
       </c>
       <c r="D62" s="4">
-        <v>4301132046</v>
+        <v>4301135192</v>
       </c>
       <c r="E62" s="3">
-        <v>4607111035691</v>
+        <v>4640242180380</v>
       </c>
       <c r="F62" s="5" t="s">
-        <v>104</v>
+        <v>364</v>
       </c>
       <c r="G62" s="1"/>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="11" t="s">
-        <v>107</v>
+        <v>463</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>105</v>
+        <v>362</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>106</v>
+        <v>363</v>
       </c>
       <c r="D63" s="4">
-        <v>4301132064</v>
+        <v>4301135192</v>
       </c>
       <c r="E63" s="3">
-        <v>4607111036537</v>
+        <v>4640242180380</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>107</v>
+        <v>364</v>
       </c>
       <c r="G63" s="1"/>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="11" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>105</v>
+        <v>362</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>106</v>
+        <v>363</v>
       </c>
       <c r="D64" s="4">
-        <v>4301132064</v>
+        <v>4301135192</v>
       </c>
       <c r="E64" s="3">
-        <v>4607111036537</v>
+        <v>4640242180380</v>
       </c>
       <c r="F64" s="5" t="s">
-        <v>107</v>
+        <v>364</v>
       </c>
       <c r="G64" s="1"/>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="11" t="s">
-        <v>79</v>
+        <v>269</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>108</v>
+        <v>267</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>109</v>
+        <v>268</v>
       </c>
       <c r="D65" s="4">
-        <v>4301132048</v>
+        <v>4301132066</v>
       </c>
       <c r="E65" s="3">
-        <v>4607111035721</v>
+        <v>4607111036520</v>
       </c>
       <c r="F65" s="5" t="s">
-        <v>110</v>
+        <v>269</v>
       </c>
       <c r="G65" s="1"/>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="11" t="s">
-        <v>474</v>
+        <v>396</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>370</v>
+        <v>267</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>371</v>
+        <v>268</v>
       </c>
       <c r="D66" s="4">
-        <v>4301132080</v>
+        <v>4301132066</v>
       </c>
       <c r="E66" s="3">
-        <v>4640242180397</v>
+        <v>4607111036520</v>
       </c>
       <c r="F66" s="5" t="s">
-        <v>372</v>
+        <v>269</v>
       </c>
       <c r="G66" s="1"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="11" t="s">
-        <v>476</v>
+        <v>241</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>370</v>
+        <v>267</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>371</v>
+        <v>268</v>
       </c>
       <c r="D67" s="4">
-        <v>4301132080</v>
+        <v>4301132066</v>
       </c>
       <c r="E67" s="3">
-        <v>4640242180397</v>
+        <v>4607111036520</v>
       </c>
       <c r="F67" s="5" t="s">
-        <v>372</v>
+        <v>269</v>
       </c>
       <c r="G67" s="1"/>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="11" t="s">
-        <v>80</v>
+        <v>242</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>370</v>
+        <v>270</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>371</v>
+        <v>271</v>
       </c>
       <c r="D68" s="4">
-        <v>4301132080</v>
+        <v>4301132065</v>
       </c>
       <c r="E68" s="3">
-        <v>4640242180397</v>
+        <v>4607111036599</v>
       </c>
       <c r="F68" s="5" t="s">
-        <v>372</v>
+        <v>272</v>
       </c>
       <c r="G68" s="1"/>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A69" s="11" t="s">
-        <v>427</v>
+        <v>243</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="D69" s="4">
-        <v>4301135134</v>
+        <v>4301132063</v>
       </c>
       <c r="E69" s="3">
-        <v>4607111035806</v>
+        <v>4607111036605</v>
       </c>
       <c r="F69" s="5" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="G69" s="1"/>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="11" t="s">
-        <v>439</v>
+        <v>244</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>281</v>
+        <v>102</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>282</v>
+        <v>103</v>
       </c>
       <c r="D70" s="4">
-        <v>4301135134</v>
+        <v>4301132046</v>
       </c>
       <c r="E70" s="3">
-        <v>4607111035806</v>
+        <v>4607111035691</v>
       </c>
       <c r="F70" s="5" t="s">
-        <v>283</v>
+        <v>104</v>
       </c>
       <c r="G70" s="1"/>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="11" t="s">
-        <v>250</v>
+        <v>104</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>281</v>
+        <v>102</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>282</v>
+        <v>103</v>
       </c>
       <c r="D71" s="4">
-        <v>4301135134</v>
+        <v>4301132046</v>
       </c>
       <c r="E71" s="3">
-        <v>4607111035806</v>
+        <v>4607111035691</v>
       </c>
       <c r="F71" s="5" t="s">
-        <v>283</v>
+        <v>104</v>
       </c>
       <c r="G71" s="1"/>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="11" t="s">
-        <v>251</v>
+        <v>77</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>175</v>
+        <v>102</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>176</v>
+        <v>103</v>
       </c>
       <c r="D72" s="4">
-        <v>4301070935</v>
+        <v>4301132046</v>
       </c>
       <c r="E72" s="3">
-        <v>4607111037190</v>
+        <v>4607111035691</v>
       </c>
       <c r="F72" s="5" t="s">
-        <v>177</v>
+        <v>104</v>
       </c>
       <c r="G72" s="1"/>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="11" t="s">
-        <v>402</v>
+        <v>107</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>284</v>
+        <v>105</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>285</v>
+        <v>106</v>
       </c>
       <c r="D73" s="4">
-        <v>4301070865</v>
+        <v>4301132064</v>
       </c>
       <c r="E73" s="3">
-        <v>4607111036285</v>
+        <v>4607111036537</v>
       </c>
       <c r="F73" s="5" t="s">
-        <v>286</v>
+        <v>107</v>
       </c>
       <c r="G73" s="1"/>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="11" t="s">
-        <v>452</v>
+        <v>78</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>284</v>
+        <v>105</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>285</v>
+        <v>106</v>
       </c>
       <c r="D74" s="4">
-        <v>4301070865</v>
+        <v>4301132064</v>
       </c>
       <c r="E74" s="3">
-        <v>4607111036285</v>
+        <v>4607111036537</v>
       </c>
       <c r="F74" s="5" t="s">
-        <v>286</v>
+        <v>107</v>
       </c>
       <c r="G74" s="1"/>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="11" t="s">
-        <v>252</v>
+        <v>79</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>284</v>
+        <v>108</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>285</v>
+        <v>109</v>
       </c>
       <c r="D75" s="4">
-        <v>4301070865</v>
+        <v>4301132048</v>
       </c>
       <c r="E75" s="3">
-        <v>4607111036285</v>
+        <v>4607111035721</v>
       </c>
       <c r="F75" s="5" t="s">
-        <v>286</v>
+        <v>110</v>
       </c>
       <c r="G75" s="1"/>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="11" t="s">
-        <v>184</v>
+        <v>469</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>183</v>
+        <v>365</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>353</v>
+        <v>366</v>
       </c>
       <c r="D76" s="4">
-        <v>4301070970</v>
+        <v>4301132080</v>
       </c>
       <c r="E76" s="3">
-        <v>4607111037091</v>
+        <v>4640242180397</v>
       </c>
       <c r="F76" s="5" t="s">
-        <v>354</v>
-      </c>
-      <c r="G76" s="6"/>
+        <v>367</v>
+      </c>
+      <c r="G76" s="1"/>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="11" t="s">
-        <v>182</v>
+        <v>471</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>183</v>
+        <v>365</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>353</v>
+        <v>366</v>
       </c>
       <c r="D77" s="4">
-        <v>4301070970</v>
+        <v>4301132080</v>
       </c>
       <c r="E77" s="3">
-        <v>4607111037091</v>
+        <v>4640242180397</v>
       </c>
       <c r="F77" s="5" t="s">
-        <v>354</v>
-      </c>
-      <c r="G77" s="6"/>
+        <v>367</v>
+      </c>
+      <c r="G77" s="1"/>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="11" t="s">
-        <v>344</v>
+        <v>481</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>183</v>
+        <v>365</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>353</v>
+        <v>366</v>
       </c>
       <c r="D78" s="4">
-        <v>4301070970</v>
+        <v>4301132080</v>
       </c>
       <c r="E78" s="3">
-        <v>4607111037091</v>
+        <v>4640242180397</v>
       </c>
       <c r="F78" s="5" t="s">
-        <v>354</v>
+        <v>367</v>
       </c>
       <c r="G78" s="1"/>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="11" t="s">
-        <v>253</v>
+        <v>80</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>183</v>
+        <v>365</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>353</v>
+        <v>366</v>
       </c>
       <c r="D79" s="4">
-        <v>4301070970</v>
+        <v>4301132080</v>
       </c>
       <c r="E79" s="3">
-        <v>4607111037091</v>
+        <v>4640242180397</v>
       </c>
       <c r="F79" s="5" t="s">
-        <v>354</v>
+        <v>367</v>
       </c>
       <c r="G79" s="1"/>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="11" t="s">
-        <v>87</v>
+        <v>422</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>121</v>
+        <v>276</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>341</v>
+        <v>277</v>
       </c>
       <c r="D80" s="4">
-        <v>4301070973</v>
+        <v>4301135134</v>
       </c>
       <c r="E80" s="3">
-        <v>4607111033987</v>
+        <v>4607111035806</v>
       </c>
       <c r="F80" s="5" t="s">
-        <v>342</v>
-      </c>
-      <c r="G80" s="6"/>
+        <v>278</v>
+      </c>
+      <c r="G80" s="1"/>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="11" t="s">
-        <v>342</v>
+        <v>434</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>121</v>
+        <v>276</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>341</v>
+        <v>277</v>
       </c>
       <c r="D81" s="4">
-        <v>4301070973</v>
+        <v>4301135134</v>
       </c>
       <c r="E81" s="3">
-        <v>4607111033987</v>
+        <v>4607111035806</v>
       </c>
       <c r="F81" s="5" t="s">
-        <v>342</v>
-      </c>
-      <c r="G81" s="6"/>
+        <v>278</v>
+      </c>
+      <c r="G81" s="1"/>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="11" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>121</v>
+        <v>276</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>341</v>
+        <v>277</v>
       </c>
       <c r="D82" s="4">
-        <v>4301070973</v>
+        <v>4301135134</v>
       </c>
       <c r="E82" s="3">
-        <v>4607111033987</v>
+        <v>4607111035806</v>
       </c>
       <c r="F82" s="5" t="s">
-        <v>342</v>
+        <v>278</v>
       </c>
       <c r="G82" s="1"/>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="11" t="s">
-        <v>451</v>
+        <v>246</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>287</v>
+        <v>170</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>288</v>
+        <v>171</v>
       </c>
       <c r="D83" s="4">
-        <v>4301070861</v>
+        <v>4301070935</v>
       </c>
       <c r="E83" s="3">
-        <v>4607111036308</v>
+        <v>4607111037190</v>
       </c>
       <c r="F83" s="5" t="s">
-        <v>289</v>
+        <v>172</v>
       </c>
       <c r="G83" s="1"/>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="11" t="s">
-        <v>256</v>
+        <v>397</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="D84" s="4">
-        <v>4301070861</v>
+        <v>4301070865</v>
       </c>
       <c r="E84" s="3">
-        <v>4607111036308</v>
+        <v>4607111036285</v>
       </c>
       <c r="F84" s="5" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="G84" s="1"/>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="11" t="s">
-        <v>81</v>
+        <v>447</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>111</v>
+        <v>279</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>112</v>
+        <v>280</v>
       </c>
       <c r="D85" s="4">
-        <v>4301070864</v>
+        <v>4301070865</v>
       </c>
       <c r="E85" s="3">
-        <v>4607111036292</v>
+        <v>4607111036285</v>
       </c>
       <c r="F85" s="5" t="s">
-        <v>113</v>
+        <v>281</v>
       </c>
       <c r="G85" s="1"/>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="11" t="s">
-        <v>453</v>
+        <v>281</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>111</v>
+        <v>279</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>112</v>
+        <v>280</v>
       </c>
       <c r="D86" s="4">
-        <v>4301070864</v>
+        <v>4301070865</v>
       </c>
       <c r="E86" s="3">
-        <v>4607111036292</v>
+        <v>4607111036285</v>
       </c>
       <c r="F86" s="5" t="s">
-        <v>113</v>
+        <v>281</v>
       </c>
       <c r="G86" s="1"/>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="11" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>111</v>
+        <v>279</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>112</v>
+        <v>280</v>
       </c>
       <c r="D87" s="4">
-        <v>4301070864</v>
+        <v>4301070865</v>
       </c>
       <c r="E87" s="3">
-        <v>4607111036292</v>
+        <v>4607111036285</v>
       </c>
       <c r="F87" s="5" t="s">
-        <v>113</v>
+        <v>281</v>
       </c>
       <c r="G87" s="1"/>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="11" t="s">
-        <v>258</v>
+        <v>179</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C88" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="D88" s="4">
+        <v>4301070970</v>
+      </c>
+      <c r="E88" s="3">
+        <v>4607111037091</v>
+      </c>
+      <c r="F88" s="5" t="s">
         <v>349</v>
       </c>
-      <c r="D88" s="4">
-        <v>4301070972</v>
-      </c>
-      <c r="E88" s="3">
-        <v>4607111037183</v>
-      </c>
-      <c r="F88" s="5" t="s">
-        <v>350</v>
-      </c>
-      <c r="G88" s="1"/>
+      <c r="G88" s="6"/>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="11" t="s">
-        <v>86</v>
+        <v>177</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>120</v>
+        <v>178</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>337</v>
+        <v>348</v>
       </c>
       <c r="D89" s="4">
-        <v>4301070974</v>
+        <v>4301070970</v>
       </c>
       <c r="E89" s="3">
-        <v>4607111034151</v>
+        <v>4607111037091</v>
       </c>
       <c r="F89" s="5" t="s">
-        <v>338</v>
+        <v>349</v>
       </c>
       <c r="G89" s="6"/>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="11" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>120</v>
+        <v>178</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>337</v>
+        <v>348</v>
       </c>
       <c r="D90" s="4">
-        <v>4301070974</v>
+        <v>4301070970</v>
       </c>
       <c r="E90" s="3">
-        <v>4607111034151</v>
+        <v>4607111037091</v>
       </c>
       <c r="F90" s="5" t="s">
-        <v>338</v>
-      </c>
-      <c r="G90" s="6"/>
+        <v>349</v>
+      </c>
+      <c r="G90" s="1"/>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="11" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>120</v>
+        <v>178</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>337</v>
+        <v>348</v>
       </c>
       <c r="D91" s="4">
-        <v>4301070974</v>
+        <v>4301070970</v>
       </c>
       <c r="E91" s="3">
-        <v>4607111034151</v>
+        <v>4607111037091</v>
       </c>
       <c r="F91" s="5" t="s">
-        <v>338</v>
+        <v>349</v>
       </c>
       <c r="G91" s="1"/>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="11" t="s">
-        <v>174</v>
+        <v>87</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>175</v>
+        <v>119</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>176</v>
+        <v>336</v>
       </c>
       <c r="D92" s="4">
-        <v>4301070935</v>
+        <v>4301070973</v>
       </c>
       <c r="E92" s="3">
-        <v>4607111037190</v>
+        <v>4607111033987</v>
       </c>
       <c r="F92" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="G92" s="1"/>
+        <v>337</v>
+      </c>
+      <c r="G92" s="6"/>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="11" t="s">
-        <v>178</v>
+        <v>337</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>179</v>
+        <v>119</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>349</v>
+        <v>336</v>
       </c>
       <c r="D93" s="4">
-        <v>4301070972</v>
+        <v>4301070973</v>
       </c>
       <c r="E93" s="3">
-        <v>4607111037183</v>
+        <v>4607111033987</v>
       </c>
       <c r="F93" s="5" t="s">
-        <v>350</v>
-      </c>
-      <c r="G93" s="1"/>
+        <v>337</v>
+      </c>
+      <c r="G93" s="6"/>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="11" t="s">
-        <v>180</v>
+        <v>250</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>181</v>
+        <v>119</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>351</v>
+        <v>336</v>
       </c>
       <c r="D94" s="4">
-        <v>4301070969</v>
+        <v>4301070973</v>
       </c>
       <c r="E94" s="3">
-        <v>4607111036858</v>
+        <v>4607111033987</v>
       </c>
       <c r="F94" s="5" t="s">
-        <v>352</v>
+        <v>337</v>
       </c>
       <c r="G94" s="1"/>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="11" t="s">
-        <v>82</v>
+        <v>446</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>114</v>
+        <v>282</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>115</v>
+        <v>283</v>
       </c>
       <c r="D95" s="4">
-        <v>4301070909</v>
+        <v>4301070861</v>
       </c>
       <c r="E95" s="3">
-        <v>4607111036889</v>
+        <v>4607111036308</v>
       </c>
       <c r="F95" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="G95" s="6"/>
+        <v>284</v>
+      </c>
+      <c r="G95" s="1"/>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="11" t="s">
-        <v>188</v>
+        <v>251</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>186</v>
+        <v>282</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>187</v>
+        <v>283</v>
       </c>
       <c r="D96" s="4">
-        <v>4301070944</v>
+        <v>4301070861</v>
       </c>
       <c r="E96" s="3">
-        <v>4607111036902</v>
+        <v>4607111036308</v>
       </c>
       <c r="F96" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="G96" s="6"/>
+        <v>284</v>
+      </c>
+      <c r="G96" s="1"/>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="11" t="s">
-        <v>343</v>
+        <v>81</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>186</v>
+        <v>111</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>187</v>
+        <v>112</v>
       </c>
       <c r="D97" s="4">
-        <v>4301070944</v>
+        <v>4301070864</v>
       </c>
       <c r="E97" s="3">
-        <v>4607111036902</v>
+        <v>4607111036292</v>
       </c>
       <c r="F97" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="G97" s="6"/>
+        <v>113</v>
+      </c>
+      <c r="G97" s="1"/>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="11" t="s">
-        <v>185</v>
+        <v>448</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>186</v>
+        <v>111</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>480</v>
+        <v>112</v>
       </c>
       <c r="D98" s="4">
-        <v>4301070971</v>
+        <v>4301070864</v>
       </c>
       <c r="E98" s="3">
-        <v>4607111036902</v>
+        <v>4607111036292</v>
       </c>
       <c r="F98" s="5" t="s">
-        <v>481</v>
-      </c>
-      <c r="G98" s="6"/>
+        <v>113</v>
+      </c>
+      <c r="G98" s="1"/>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="11" t="s">
-        <v>298</v>
+        <v>252</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>330</v>
+        <v>112</v>
       </c>
       <c r="D99" s="4">
-        <v>4301070976</v>
+        <v>4301070864</v>
       </c>
       <c r="E99" s="3">
-        <v>4607111034144</v>
+        <v>4607111036292</v>
       </c>
       <c r="F99" s="5" t="s">
-        <v>331</v>
-      </c>
-      <c r="G99" s="6"/>
+        <v>113</v>
+      </c>
+      <c r="G99" s="1"/>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="11" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>117</v>
+        <v>174</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>330</v>
+        <v>344</v>
       </c>
       <c r="D100" s="4">
-        <v>4301070976</v>
+        <v>4301070972</v>
       </c>
       <c r="E100" s="3">
-        <v>4607111034144</v>
+        <v>4607111037183</v>
       </c>
       <c r="F100" s="5" t="s">
-        <v>331</v>
+        <v>345</v>
       </c>
       <c r="G100" s="1"/>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="11" t="s">
-        <v>331</v>
+        <v>86</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="D101" s="4">
-        <v>4301070976</v>
+        <v>4301070974</v>
       </c>
       <c r="E101" s="3">
-        <v>4607111034144</v>
+        <v>4607111034151</v>
       </c>
       <c r="F101" s="5" t="s">
-        <v>331</v>
-      </c>
-      <c r="G101" s="1"/>
+        <v>333</v>
+      </c>
+      <c r="G101" s="6"/>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="11" t="s">
-        <v>83</v>
+        <v>333</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="D102" s="4">
-        <v>4301070976</v>
+        <v>4301070974</v>
       </c>
       <c r="E102" s="3">
-        <v>4607111034144</v>
+        <v>4607111034151</v>
       </c>
       <c r="F102" s="5" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="G102" s="6"/>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="11" t="s">
-        <v>297</v>
+        <v>255</v>
       </c>
       <c r="B103" s="3" t="s">
         <v>118</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="D103" s="4">
-        <v>4301070975</v>
+        <v>4301070974</v>
       </c>
       <c r="E103" s="3">
-        <v>4607111033970</v>
+        <v>4607111034151</v>
       </c>
       <c r="F103" s="5" t="s">
-        <v>340</v>
-      </c>
-      <c r="G103" s="6"/>
+        <v>333</v>
+      </c>
+      <c r="G103" s="1"/>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="11" t="s">
-        <v>254</v>
+        <v>169</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>118</v>
+        <v>170</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>339</v>
+        <v>171</v>
       </c>
       <c r="D104" s="4">
-        <v>4301070975</v>
+        <v>4301070935</v>
       </c>
       <c r="E104" s="3">
-        <v>4607111033970</v>
+        <v>4607111037190</v>
       </c>
       <c r="F104" s="5" t="s">
-        <v>340</v>
+        <v>172</v>
       </c>
       <c r="G104" s="1"/>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="11" t="s">
-        <v>408</v>
+        <v>173</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>118</v>
+        <v>174</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="D105" s="4">
-        <v>4301070975</v>
+        <v>4301070972</v>
       </c>
       <c r="E105" s="3">
-        <v>4607111033970</v>
+        <v>4607111037183</v>
       </c>
       <c r="F105" s="5" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="G105" s="1"/>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="11" t="s">
-        <v>340</v>
+        <v>175</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>118</v>
+        <v>176</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>339</v>
+        <v>346</v>
       </c>
       <c r="D106" s="4">
-        <v>4301070975</v>
+        <v>4301070969</v>
       </c>
       <c r="E106" s="3">
-        <v>4607111033970</v>
+        <v>4607111036858</v>
       </c>
       <c r="F106" s="5" t="s">
-        <v>340</v>
+        <v>347</v>
       </c>
       <c r="G106" s="1"/>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="11" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>339</v>
+        <v>482</v>
       </c>
       <c r="D107" s="4">
-        <v>4301070975</v>
+        <v>4301070968</v>
       </c>
       <c r="E107" s="3">
-        <v>4607111033970</v>
+        <v>4607111036889</v>
       </c>
       <c r="F107" s="5" t="s">
-        <v>340</v>
+        <v>483</v>
       </c>
       <c r="G107" s="6"/>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="11" t="s">
-        <v>407</v>
+        <v>183</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>119</v>
+        <v>181</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>332</v>
+        <v>182</v>
       </c>
       <c r="D108" s="4">
-        <v>4301070981</v>
+        <v>4301070944</v>
       </c>
       <c r="E108" s="3">
-        <v>4607111036728</v>
+        <v>4607111036902</v>
       </c>
       <c r="F108" s="5" t="s">
-        <v>333</v>
+        <v>183</v>
       </c>
       <c r="G108" s="6"/>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="11" t="s">
-        <v>85</v>
+        <v>338</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>119</v>
+        <v>181</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>332</v>
+        <v>182</v>
       </c>
       <c r="D109" s="4">
-        <v>4301070981</v>
+        <v>4301070944</v>
       </c>
       <c r="E109" s="3">
-        <v>4607111036728</v>
+        <v>4607111036902</v>
       </c>
       <c r="F109" s="5" t="s">
-        <v>333</v>
+        <v>183</v>
       </c>
       <c r="G109" s="6"/>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="11" t="s">
-        <v>421</v>
+        <v>180</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>215</v>
+        <v>181</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>216</v>
+        <v>475</v>
       </c>
       <c r="D110" s="4">
-        <v>4301071010</v>
+        <v>4301070971</v>
       </c>
       <c r="E110" s="3">
-        <v>4607111037701</v>
+        <v>4607111036902</v>
       </c>
       <c r="F110" s="5" t="s">
-        <v>217</v>
+        <v>476</v>
       </c>
       <c r="G110" s="6"/>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="11" t="s">
-        <v>218</v>
+        <v>293</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>215</v>
+        <v>115</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>216</v>
+        <v>325</v>
       </c>
       <c r="D111" s="4">
-        <v>4301071010</v>
+        <v>4301070976</v>
       </c>
       <c r="E111" s="3">
-        <v>4607111037701</v>
+        <v>4607111034144</v>
       </c>
       <c r="F111" s="5" t="s">
-        <v>217</v>
+        <v>326</v>
       </c>
       <c r="G111" s="6"/>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="11" t="s">
-        <v>222</v>
+        <v>254</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>219</v>
+        <v>115</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>220</v>
+        <v>325</v>
       </c>
       <c r="D112" s="4">
-        <v>4301070870</v>
+        <v>4301070976</v>
       </c>
       <c r="E112" s="3">
-        <v>4607111036711</v>
+        <v>4607111034144</v>
       </c>
       <c r="F112" s="5" t="s">
-        <v>221</v>
-      </c>
-      <c r="G112" s="6"/>
+        <v>326</v>
+      </c>
+      <c r="G112" s="1"/>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="11" t="s">
-        <v>190</v>
+        <v>326</v>
       </c>
       <c r="B113" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C113" s="3" t="s">
         <v>325</v>
       </c>
-      <c r="C113" s="3" t="s">
+      <c r="D113" s="4">
+        <v>4301070976</v>
+      </c>
+      <c r="E113" s="3">
+        <v>4607111034144</v>
+      </c>
+      <c r="F113" s="5" t="s">
         <v>326</v>
       </c>
-      <c r="D113" s="4">
-        <v>4301070948</v>
-      </c>
-      <c r="E113" s="3">
-        <v>4607111037022</v>
-      </c>
-      <c r="F113" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="G113" s="6"/>
+      <c r="G113" s="1"/>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="11" t="s">
-        <v>327</v>
+        <v>83</v>
       </c>
       <c r="B114" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C114" s="3" t="s">
         <v>325</v>
       </c>
-      <c r="C114" s="3" t="s">
+      <c r="D114" s="4">
+        <v>4301070976</v>
+      </c>
+      <c r="E114" s="3">
+        <v>4607111034144</v>
+      </c>
+      <c r="F114" s="5" t="s">
         <v>326</v>
-      </c>
-      <c r="D114" s="4">
-        <v>4301070948</v>
-      </c>
-      <c r="E114" s="3">
-        <v>4607111037022</v>
-      </c>
-      <c r="F114" s="5" t="s">
-        <v>190</v>
       </c>
       <c r="G114" s="6"/>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="11" t="s">
-        <v>189</v>
+        <v>292</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>325</v>
+        <v>116</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="D115" s="4">
-        <v>4301070948</v>
+        <v>4301070975</v>
       </c>
       <c r="E115" s="3">
-        <v>4607111037022</v>
+        <v>4607111033970</v>
       </c>
       <c r="F115" s="5" t="s">
-        <v>190</v>
+        <v>335</v>
       </c>
       <c r="G115" s="6"/>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="11" t="s">
-        <v>124</v>
+        <v>249</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>123</v>
+        <v>334</v>
       </c>
       <c r="D116" s="4">
-        <v>4301070920</v>
+        <v>4301070975</v>
       </c>
       <c r="E116" s="3">
-        <v>4607111035929</v>
+        <v>4607111033970</v>
       </c>
       <c r="F116" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="G116" s="6"/>
+        <v>335</v>
+      </c>
+      <c r="G116" s="1"/>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="11" t="s">
-        <v>88</v>
+        <v>403</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>123</v>
+        <v>334</v>
       </c>
       <c r="D117" s="4">
-        <v>4301070920</v>
+        <v>4301070975</v>
       </c>
       <c r="E117" s="3">
-        <v>4607111035929</v>
+        <v>4607111033970</v>
       </c>
       <c r="F117" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="G117" s="6"/>
+        <v>335</v>
+      </c>
+      <c r="G117" s="1"/>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="11" t="s">
-        <v>191</v>
+        <v>335</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>192</v>
+        <v>116</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>193</v>
+        <v>334</v>
       </c>
       <c r="D118" s="4">
-        <v>4301070921</v>
+        <v>4301070975</v>
       </c>
       <c r="E118" s="3">
-        <v>4607111035905</v>
+        <v>4607111033970</v>
       </c>
       <c r="F118" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="G118" s="6"/>
+        <v>335</v>
+      </c>
+      <c r="G118" s="1"/>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="11" t="s">
-        <v>194</v>
+        <v>84</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>192</v>
+        <v>116</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>193</v>
+        <v>334</v>
       </c>
       <c r="D119" s="4">
-        <v>4301070921</v>
+        <v>4301070975</v>
       </c>
       <c r="E119" s="3">
-        <v>4607111035905</v>
+        <v>4607111033970</v>
       </c>
       <c r="F119" s="5" t="s">
-        <v>194</v>
+        <v>335</v>
       </c>
       <c r="G119" s="6"/>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="11" t="s">
-        <v>225</v>
+        <v>402</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>223</v>
+        <v>117</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>224</v>
+        <v>327</v>
       </c>
       <c r="D120" s="4">
-        <v>4301070917</v>
+        <v>4301070981</v>
       </c>
       <c r="E120" s="3">
-        <v>4607111035912</v>
+        <v>4607111036728</v>
       </c>
       <c r="F120" s="5" t="s">
-        <v>225</v>
+        <v>328</v>
       </c>
       <c r="G120" s="6"/>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="11" t="s">
-        <v>346</v>
+        <v>85</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>223</v>
+        <v>117</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>224</v>
+        <v>327</v>
       </c>
       <c r="D121" s="4">
-        <v>4301070917</v>
+        <v>4301070981</v>
       </c>
       <c r="E121" s="3">
-        <v>4607111035912</v>
+        <v>4607111036728</v>
       </c>
       <c r="F121" s="5" t="s">
-        <v>225</v>
+        <v>328</v>
       </c>
       <c r="G121" s="6"/>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="11" t="s">
-        <v>394</v>
+        <v>416</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>223</v>
+        <v>210</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>224</v>
+        <v>211</v>
       </c>
       <c r="D122" s="4">
-        <v>4301070917</v>
+        <v>4301071010</v>
       </c>
       <c r="E122" s="3">
-        <v>4607111035912</v>
+        <v>4607111037701</v>
       </c>
       <c r="F122" s="5" t="s">
-        <v>225</v>
+        <v>212</v>
       </c>
       <c r="G122" s="6"/>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" s="11" t="s">
-        <v>226</v>
+        <v>492</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>223</v>
+        <v>210</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>224</v>
+        <v>211</v>
       </c>
       <c r="D123" s="4">
-        <v>4301070917</v>
+        <v>4301071010</v>
       </c>
       <c r="E123" s="3">
-        <v>4607111035912</v>
+        <v>4607111037701</v>
       </c>
       <c r="F123" s="5" t="s">
-        <v>225</v>
+        <v>212</v>
       </c>
       <c r="G123" s="6"/>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" s="11" t="s">
-        <v>195</v>
+        <v>213</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>125</v>
+        <v>210</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>126</v>
+        <v>211</v>
       </c>
       <c r="D124" s="4">
-        <v>4301070827</v>
+        <v>4301071010</v>
       </c>
       <c r="E124" s="3">
-        <v>4607111036216</v>
+        <v>4607111037701</v>
       </c>
       <c r="F124" s="5" t="s">
-        <v>127</v>
+        <v>212</v>
       </c>
       <c r="G124" s="6"/>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="11" t="s">
-        <v>89</v>
+        <v>217</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>125</v>
+        <v>214</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>126</v>
+        <v>215</v>
       </c>
       <c r="D125" s="4">
-        <v>4301070827</v>
+        <v>4301070870</v>
       </c>
       <c r="E125" s="3">
-        <v>4607111036216</v>
+        <v>4607111036711</v>
       </c>
       <c r="F125" s="5" t="s">
-        <v>127</v>
+        <v>216</v>
       </c>
       <c r="G125" s="6"/>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" s="11" t="s">
-        <v>130</v>
+        <v>185</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>128</v>
+        <v>320</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>129</v>
+        <v>321</v>
       </c>
       <c r="D126" s="4">
-        <v>4301070882</v>
+        <v>4301070948</v>
       </c>
       <c r="E126" s="3">
-        <v>4607111035899</v>
+        <v>4607111037022</v>
       </c>
       <c r="F126" s="5" t="s">
-        <v>130</v>
+        <v>185</v>
       </c>
       <c r="G126" s="6"/>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" s="11" t="s">
-        <v>90</v>
+        <v>322</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>128</v>
+        <v>320</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>129</v>
+        <v>321</v>
       </c>
       <c r="D127" s="4">
-        <v>4301070882</v>
+        <v>4301070948</v>
       </c>
       <c r="E127" s="3">
-        <v>4607111035899</v>
+        <v>4607111037022</v>
       </c>
       <c r="F127" s="5" t="s">
-        <v>130</v>
+        <v>185</v>
       </c>
       <c r="G127" s="6"/>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" s="11" t="s">
-        <v>199</v>
+        <v>184</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>197</v>
+        <v>320</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>198</v>
+        <v>321</v>
       </c>
       <c r="D128" s="4">
-        <v>4301070873</v>
+        <v>4301070948</v>
       </c>
       <c r="E128" s="3">
-        <v>4607111035080</v>
+        <v>4607111037022</v>
       </c>
       <c r="F128" s="5" t="s">
-        <v>199</v>
+        <v>185</v>
       </c>
       <c r="G128" s="6"/>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" s="11" t="s">
-        <v>196</v>
+        <v>122</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>197</v>
+        <v>120</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>198</v>
+        <v>121</v>
       </c>
       <c r="D129" s="4">
-        <v>4301070873</v>
+        <v>4301070920</v>
       </c>
       <c r="E129" s="3">
-        <v>4607111035080</v>
+        <v>4607111035929</v>
       </c>
       <c r="F129" s="5" t="s">
-        <v>199</v>
+        <v>122</v>
       </c>
       <c r="G129" s="6"/>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" s="11" t="s">
-        <v>292</v>
+        <v>88</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>376</v>
+        <v>120</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>377</v>
+        <v>121</v>
       </c>
       <c r="D130" s="4">
-        <v>4301135193</v>
+        <v>4301070920</v>
       </c>
       <c r="E130" s="3">
-        <v>4640242180403</v>
+        <v>4607111035929</v>
       </c>
       <c r="F130" s="5" t="s">
-        <v>378</v>
+        <v>122</v>
       </c>
       <c r="G130" s="6"/>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" s="11" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>376</v>
+        <v>187</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>377</v>
+        <v>188</v>
       </c>
       <c r="D131" s="4">
-        <v>4301135193</v>
+        <v>4301070921</v>
       </c>
       <c r="E131" s="3">
-        <v>4640242180403</v>
+        <v>4607111035905</v>
       </c>
       <c r="F131" s="5" t="s">
-        <v>378</v>
+        <v>189</v>
       </c>
       <c r="G131" s="6"/>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" s="11" t="s">
-        <v>204</v>
+        <v>189</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
       <c r="D132" s="4">
-        <v>4301070858</v>
+        <v>4301070921</v>
       </c>
       <c r="E132" s="3">
-        <v>4607111036193</v>
+        <v>4607111035905</v>
       </c>
       <c r="F132" s="5" t="s">
-        <v>204</v>
+        <v>189</v>
       </c>
       <c r="G132" s="6"/>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" s="11" t="s">
-        <v>201</v>
+        <v>220</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>202</v>
+        <v>218</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>482</v>
+        <v>219</v>
       </c>
       <c r="D133" s="4">
-        <v>4301070956</v>
+        <v>4301070917</v>
       </c>
       <c r="E133" s="3">
-        <v>4640242180250</v>
+        <v>4607111035912</v>
       </c>
       <c r="F133" s="5" t="s">
-        <v>483</v>
+        <v>220</v>
       </c>
       <c r="G133" s="6"/>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" s="11" t="s">
-        <v>92</v>
+        <v>341</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>131</v>
+        <v>218</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>132</v>
+        <v>219</v>
       </c>
       <c r="D134" s="4">
-        <v>4301135112</v>
+        <v>4301070917</v>
       </c>
       <c r="E134" s="3">
-        <v>4607111034199</v>
+        <v>4607111035912</v>
       </c>
       <c r="F134" s="5" t="s">
-        <v>133</v>
+        <v>220</v>
       </c>
       <c r="G134" s="6"/>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" s="11" t="s">
-        <v>308</v>
+        <v>389</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>334</v>
+        <v>218</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>335</v>
+        <v>219</v>
       </c>
       <c r="D135" s="4">
-        <v>4301131018</v>
+        <v>4301070917</v>
       </c>
       <c r="E135" s="3">
-        <v>4607111037930</v>
+        <v>4607111035912</v>
       </c>
       <c r="F135" s="5" t="s">
-        <v>336</v>
+        <v>220</v>
       </c>
       <c r="G135" s="6"/>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" s="11" t="s">
-        <v>426</v>
+        <v>221</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>334</v>
+        <v>218</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>335</v>
+        <v>219</v>
       </c>
       <c r="D136" s="4">
-        <v>4301131018</v>
+        <v>4301070917</v>
       </c>
       <c r="E136" s="3">
-        <v>4607111037930</v>
+        <v>4607111035912</v>
       </c>
       <c r="F136" s="5" t="s">
-        <v>336</v>
+        <v>220</v>
       </c>
       <c r="G136" s="6"/>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" s="11" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>334</v>
+        <v>123</v>
       </c>
       <c r="C137" s="3" t="s">
-        <v>335</v>
+        <v>124</v>
       </c>
       <c r="D137" s="4">
-        <v>4301131018</v>
+        <v>4301070827</v>
       </c>
       <c r="E137" s="3">
-        <v>4607111037930</v>
+        <v>4607111036216</v>
       </c>
       <c r="F137" s="5" t="s">
-        <v>336</v>
+        <v>125</v>
       </c>
       <c r="G137" s="6"/>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" s="11" t="s">
-        <v>206</v>
+        <v>89</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>153</v>
+        <v>123</v>
       </c>
       <c r="C138" s="3" t="s">
-        <v>154</v>
+        <v>124</v>
       </c>
       <c r="D138" s="4">
-        <v>4301190014</v>
+        <v>4301070827</v>
       </c>
       <c r="E138" s="3">
-        <v>4607111037053</v>
+        <v>4607111036216</v>
       </c>
       <c r="F138" s="5" t="s">
-        <v>155</v>
+        <v>125</v>
       </c>
       <c r="G138" s="6"/>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" s="11" t="s">
-        <v>436</v>
+        <v>127</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>153</v>
+        <v>126</v>
       </c>
       <c r="C139" s="3" t="s">
-        <v>154</v>
+        <v>484</v>
       </c>
       <c r="D139" s="4">
-        <v>4301190014</v>
+        <v>4301070965</v>
       </c>
       <c r="E139" s="3">
-        <v>4607111037053</v>
+        <v>4607111035899</v>
       </c>
       <c r="F139" s="5" t="s">
-        <v>155</v>
+        <v>127</v>
       </c>
       <c r="G139" s="6"/>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" s="11" t="s">
-        <v>146</v>
+        <v>90</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>153</v>
+        <v>126</v>
       </c>
       <c r="C140" s="3" t="s">
-        <v>154</v>
+        <v>484</v>
       </c>
       <c r="D140" s="4">
-        <v>4301190014</v>
+        <v>4301070965</v>
       </c>
       <c r="E140" s="3">
-        <v>4607111037053</v>
+        <v>4607111035899</v>
       </c>
       <c r="F140" s="5" t="s">
-        <v>155</v>
+        <v>127</v>
       </c>
       <c r="G140" s="6"/>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" s="11" t="s">
-        <v>207</v>
+        <v>194</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>156</v>
+        <v>192</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>157</v>
+        <v>193</v>
       </c>
       <c r="D141" s="4">
-        <v>4301190015</v>
+        <v>4301070873</v>
       </c>
       <c r="E141" s="3">
-        <v>4607111037060</v>
+        <v>4607111035080</v>
       </c>
       <c r="F141" s="5" t="s">
-        <v>158</v>
+        <v>194</v>
       </c>
       <c r="G141" s="6"/>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" s="11" t="s">
-        <v>437</v>
+        <v>191</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>156</v>
+        <v>192</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>157</v>
+        <v>193</v>
       </c>
       <c r="D142" s="4">
-        <v>4301190015</v>
+        <v>4301070873</v>
       </c>
       <c r="E142" s="3">
-        <v>4607111037060</v>
+        <v>4607111035080</v>
       </c>
       <c r="F142" s="5" t="s">
-        <v>158</v>
+        <v>194</v>
       </c>
       <c r="G142" s="6"/>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" s="11" t="s">
-        <v>147</v>
+        <v>287</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>156</v>
+        <v>371</v>
       </c>
       <c r="C143" s="3" t="s">
-        <v>157</v>
+        <v>372</v>
       </c>
       <c r="D143" s="4">
-        <v>4301190015</v>
+        <v>4301135193</v>
       </c>
       <c r="E143" s="3">
-        <v>4607111037060</v>
+        <v>4640242180403</v>
       </c>
       <c r="F143" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="G143" s="1"/>
+        <v>373</v>
+      </c>
+      <c r="G143" s="6"/>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" s="11" t="s">
-        <v>230</v>
+        <v>485</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>227</v>
+        <v>371</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>228</v>
+        <v>372</v>
       </c>
       <c r="D144" s="4">
-        <v>4301135053</v>
+        <v>4301135193</v>
       </c>
       <c r="E144" s="3">
-        <v>4607111036407</v>
+        <v>4640242180403</v>
       </c>
       <c r="F144" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="G144" s="1"/>
+        <v>373</v>
+      </c>
+      <c r="G144" s="6"/>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" s="11" t="s">
-        <v>93</v>
+        <v>195</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>134</v>
+        <v>371</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>208</v>
+        <v>372</v>
       </c>
       <c r="D145" s="4">
-        <v>4301135162</v>
+        <v>4301135193</v>
       </c>
       <c r="E145" s="3">
-        <v>4607111034014</v>
+        <v>4640242180403</v>
       </c>
       <c r="F145" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="G145" s="1"/>
+        <v>373</v>
+      </c>
+      <c r="G145" s="6"/>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" s="11" t="s">
-        <v>444</v>
+        <v>199</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>134</v>
+        <v>197</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="D146" s="4">
-        <v>4301135162</v>
+        <v>4301070858</v>
       </c>
       <c r="E146" s="3">
-        <v>4607111034014</v>
+        <v>4607111036193</v>
       </c>
       <c r="F146" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="G146" s="1"/>
+        <v>199</v>
+      </c>
+      <c r="G146" s="6"/>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" s="11" t="s">
-        <v>261</v>
+        <v>196</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>134</v>
+        <v>197</v>
       </c>
       <c r="C147" s="3" t="s">
-        <v>208</v>
+        <v>477</v>
       </c>
       <c r="D147" s="4">
-        <v>4301135162</v>
+        <v>4301070956</v>
       </c>
       <c r="E147" s="3">
-        <v>4607111034014</v>
+        <v>4640242180250</v>
       </c>
       <c r="F147" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="G147" s="1"/>
+        <v>478</v>
+      </c>
+      <c r="G147" s="6"/>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" s="11" t="s">
-        <v>262</v>
+        <v>92</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="C148" s="3" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="D148" s="4">
-        <v>4301135117</v>
+        <v>4301135112</v>
       </c>
       <c r="E148" s="3">
-        <v>4607111033994</v>
+        <v>4607111034199</v>
       </c>
       <c r="F148" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="G148" s="1"/>
+        <v>130</v>
+      </c>
+      <c r="G148" s="6"/>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" s="11" t="s">
-        <v>138</v>
+        <v>303</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>136</v>
+        <v>329</v>
       </c>
       <c r="C149" s="3" t="s">
-        <v>137</v>
+        <v>330</v>
       </c>
       <c r="D149" s="4">
-        <v>4301135117</v>
+        <v>4301131018</v>
       </c>
       <c r="E149" s="3">
-        <v>4607111033994</v>
+        <v>4607111037930</v>
       </c>
       <c r="F149" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="G149" s="1"/>
+        <v>331</v>
+      </c>
+      <c r="G149" s="6"/>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" s="11" t="s">
-        <v>94</v>
+        <v>421</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>136</v>
+        <v>329</v>
       </c>
       <c r="C150" s="3" t="s">
-        <v>137</v>
+        <v>330</v>
       </c>
       <c r="D150" s="4">
-        <v>4301135117</v>
+        <v>4301131018</v>
       </c>
       <c r="E150" s="3">
-        <v>4607111033994</v>
+        <v>4607111037930</v>
       </c>
       <c r="F150" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="G150" s="1"/>
+        <v>331</v>
+      </c>
+      <c r="G150" s="6"/>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" s="11" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>379</v>
+        <v>329</v>
       </c>
       <c r="C151" s="3" t="s">
-        <v>380</v>
+        <v>330</v>
       </c>
       <c r="D151" s="4">
-        <v>4301136028</v>
+        <v>4301131018</v>
       </c>
       <c r="E151" s="3">
-        <v>4640242180304</v>
+        <v>4607111037930</v>
       </c>
       <c r="F151" s="5" t="s">
-        <v>381</v>
-      </c>
-      <c r="G151" s="1"/>
+        <v>331</v>
+      </c>
+      <c r="G151" s="6"/>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" s="11" t="s">
-        <v>442</v>
+        <v>201</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>379</v>
+        <v>148</v>
       </c>
       <c r="C152" s="3" t="s">
-        <v>380</v>
+        <v>149</v>
       </c>
       <c r="D152" s="4">
-        <v>4301136028</v>
+        <v>4301190014</v>
       </c>
       <c r="E152" s="3">
-        <v>4640242180304</v>
+        <v>4607111037053</v>
       </c>
       <c r="F152" s="5" t="s">
-        <v>381</v>
-      </c>
-      <c r="G152" s="1"/>
+        <v>150</v>
+      </c>
+      <c r="G152" s="6"/>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" s="11" t="s">
+        <v>431</v>
+      </c>
+      <c r="B153" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="B153" s="3" t="s">
-        <v>379</v>
-      </c>
       <c r="C153" s="3" t="s">
-        <v>380</v>
+        <v>149</v>
       </c>
       <c r="D153" s="4">
-        <v>4301136028</v>
+        <v>4301190014</v>
       </c>
       <c r="E153" s="3">
-        <v>4640242180304</v>
+        <v>4607111037053</v>
       </c>
       <c r="F153" s="5" t="s">
-        <v>381</v>
-      </c>
-      <c r="G153" s="1"/>
+        <v>150</v>
+      </c>
+      <c r="G153" s="6"/>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" s="11" t="s">
-        <v>441</v>
+        <v>141</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>382</v>
+        <v>148</v>
       </c>
       <c r="C154" s="3" t="s">
-        <v>383</v>
+        <v>149</v>
       </c>
       <c r="D154" s="4">
-        <v>4301136026</v>
+        <v>4301190014</v>
       </c>
       <c r="E154" s="3">
-        <v>4640242180236</v>
+        <v>4607111037053</v>
       </c>
       <c r="F154" s="5" t="s">
-        <v>384</v>
-      </c>
-      <c r="G154" s="1"/>
+        <v>150</v>
+      </c>
+      <c r="G154" s="6"/>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" s="11" t="s">
-        <v>473</v>
+        <v>202</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>382</v>
+        <v>151</v>
       </c>
       <c r="C155" s="3" t="s">
-        <v>383</v>
+        <v>152</v>
       </c>
       <c r="D155" s="4">
-        <v>4301136026</v>
+        <v>4301190015</v>
       </c>
       <c r="E155" s="3">
-        <v>4640242180236</v>
+        <v>4607111037060</v>
       </c>
       <c r="F155" s="5" t="s">
-        <v>384</v>
-      </c>
-      <c r="G155" s="1"/>
+        <v>153</v>
+      </c>
+      <c r="G155" s="6"/>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" s="11" t="s">
-        <v>95</v>
+        <v>432</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>382</v>
+        <v>151</v>
       </c>
       <c r="C156" s="3" t="s">
-        <v>383</v>
+        <v>152</v>
       </c>
       <c r="D156" s="4">
-        <v>4301136026</v>
+        <v>4301190015</v>
       </c>
       <c r="E156" s="3">
-        <v>4640242180236</v>
+        <v>4607111037060</v>
       </c>
       <c r="F156" s="5" t="s">
-        <v>384</v>
-      </c>
-      <c r="G156" s="1"/>
+        <v>153</v>
+      </c>
+      <c r="G156" s="6"/>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" s="11" t="s">
-        <v>320</v>
+        <v>142</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="C157" s="3" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="D157" s="4">
-        <v>4301135177</v>
+        <v>4301190015</v>
       </c>
       <c r="E157" s="3">
-        <v>4607111037862</v>
+        <v>4607111037060</v>
       </c>
       <c r="F157" s="5" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="G157" s="1"/>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" s="11" t="s">
-        <v>141</v>
+        <v>225</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>139</v>
+        <v>222</v>
       </c>
       <c r="C158" s="3" t="s">
-        <v>140</v>
+        <v>223</v>
       </c>
       <c r="D158" s="4">
-        <v>4301135177</v>
+        <v>4301135053</v>
       </c>
       <c r="E158" s="3">
-        <v>4607111037862</v>
+        <v>4607111036407</v>
       </c>
       <c r="F158" s="5" t="s">
-        <v>141</v>
+        <v>224</v>
       </c>
       <c r="G158" s="1"/>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" s="11" t="s">
-        <v>296</v>
+        <v>93</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="C159" s="3" t="s">
-        <v>140</v>
+        <v>203</v>
       </c>
       <c r="D159" s="4">
-        <v>4301135177</v>
+        <v>4301135162</v>
       </c>
       <c r="E159" s="3">
-        <v>4607111037862</v>
+        <v>4607111034014</v>
       </c>
       <c r="F159" s="5" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="G159" s="1"/>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" s="11" t="s">
-        <v>347</v>
+        <v>439</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>299</v>
+        <v>131</v>
       </c>
       <c r="C160" s="3" t="s">
-        <v>300</v>
+        <v>203</v>
       </c>
       <c r="D160" s="4">
-        <v>4301070915</v>
+        <v>4301135162</v>
       </c>
       <c r="E160" s="3">
-        <v>4607111035882</v>
+        <v>4607111034014</v>
       </c>
       <c r="F160" s="5" t="s">
-        <v>301</v>
+        <v>132</v>
       </c>
       <c r="G160" s="1"/>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" s="11" t="s">
-        <v>413</v>
+        <v>256</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>299</v>
+        <v>131</v>
       </c>
       <c r="C161" s="3" t="s">
-        <v>300</v>
+        <v>203</v>
       </c>
       <c r="D161" s="4">
-        <v>4301070915</v>
+        <v>4301135162</v>
       </c>
       <c r="E161" s="3">
-        <v>4607111035882</v>
+        <v>4607111034014</v>
       </c>
       <c r="F161" s="5" t="s">
-        <v>301</v>
+        <v>285</v>
       </c>
       <c r="G161" s="1"/>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" s="11" t="s">
-        <v>301</v>
+        <v>257</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>299</v>
+        <v>133</v>
       </c>
       <c r="C162" s="3" t="s">
-        <v>300</v>
+        <v>134</v>
       </c>
       <c r="D162" s="4">
-        <v>4301070915</v>
+        <v>4301135117</v>
       </c>
       <c r="E162" s="3">
-        <v>4607111035882</v>
+        <v>4607111033994</v>
       </c>
       <c r="F162" s="5" t="s">
-        <v>301</v>
+        <v>135</v>
       </c>
       <c r="G162" s="1"/>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" s="11" t="s">
-        <v>414</v>
+        <v>135</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>302</v>
+        <v>133</v>
       </c>
       <c r="C163" s="3" t="s">
-        <v>303</v>
+        <v>134</v>
       </c>
       <c r="D163" s="4">
-        <v>4301070874</v>
+        <v>4301135117</v>
       </c>
       <c r="E163" s="3">
-        <v>4607111035332</v>
+        <v>4607111033994</v>
       </c>
       <c r="F163" s="5" t="s">
-        <v>304</v>
+        <v>135</v>
       </c>
       <c r="G163" s="1"/>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" s="11" t="s">
-        <v>304</v>
+        <v>94</v>
       </c>
       <c r="B164" s="3" t="s">
-        <v>302</v>
+        <v>133</v>
       </c>
       <c r="C164" s="3" t="s">
-        <v>303</v>
+        <v>134</v>
       </c>
       <c r="D164" s="4">
-        <v>4301070874</v>
+        <v>4301135117</v>
       </c>
       <c r="E164" s="3">
-        <v>4607111035332</v>
+        <v>4607111033994</v>
       </c>
       <c r="F164" s="5" t="s">
-        <v>304</v>
+        <v>135</v>
       </c>
       <c r="G164" s="1"/>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" s="11" t="s">
-        <v>329</v>
+        <v>204</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>305</v>
+        <v>374</v>
       </c>
       <c r="C165" s="3" t="s">
-        <v>306</v>
+        <v>375</v>
       </c>
       <c r="D165" s="4">
-        <v>4301136014</v>
+        <v>4301136028</v>
       </c>
       <c r="E165" s="3">
-        <v>4607111035370</v>
+        <v>4640242180304</v>
       </c>
       <c r="F165" s="5" t="s">
-        <v>307</v>
+        <v>376</v>
       </c>
       <c r="G165" s="1"/>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" s="11" t="s">
-        <v>419</v>
+        <v>437</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>305</v>
+        <v>374</v>
       </c>
       <c r="C166" s="3" t="s">
-        <v>306</v>
+        <v>375</v>
       </c>
       <c r="D166" s="4">
-        <v>4301136014</v>
+        <v>4301136028</v>
       </c>
       <c r="E166" s="3">
-        <v>4607111035370</v>
+        <v>4640242180304</v>
       </c>
       <c r="F166" s="5" t="s">
-        <v>307</v>
+        <v>376</v>
       </c>
       <c r="G166" s="1"/>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" s="11" t="s">
-        <v>307</v>
+        <v>143</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>305</v>
+        <v>374</v>
       </c>
       <c r="C167" s="3" t="s">
-        <v>306</v>
+        <v>375</v>
       </c>
       <c r="D167" s="4">
-        <v>4301136014</v>
+        <v>4301136028</v>
       </c>
       <c r="E167" s="3">
-        <v>4607111035370</v>
+        <v>4640242180304</v>
       </c>
       <c r="F167" s="5" t="s">
-        <v>307</v>
+        <v>376</v>
       </c>
       <c r="G167" s="1"/>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" s="11" t="s">
-        <v>328</v>
+        <v>436</v>
       </c>
       <c r="B168" s="3" t="s">
-        <v>312</v>
+        <v>377</v>
       </c>
       <c r="C168" s="3" t="s">
-        <v>313</v>
+        <v>378</v>
       </c>
       <c r="D168" s="4">
-        <v>4301051320</v>
+        <v>4301136026</v>
       </c>
       <c r="E168" s="3">
-        <v>4680115881334</v>
+        <v>4640242180236</v>
       </c>
       <c r="F168" s="5" t="s">
-        <v>314</v>
+        <v>379</v>
       </c>
       <c r="G168" s="1"/>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" s="11" t="s">
-        <v>345</v>
+        <v>486</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>312</v>
+        <v>377</v>
       </c>
       <c r="C169" s="3" t="s">
-        <v>313</v>
+        <v>378</v>
       </c>
       <c r="D169" s="4">
-        <v>4301051320</v>
+        <v>4301136026</v>
       </c>
       <c r="E169" s="3">
-        <v>4680115881334</v>
+        <v>4640242180236</v>
       </c>
       <c r="F169" s="5" t="s">
-        <v>314</v>
+        <v>379</v>
       </c>
       <c r="G169" s="1"/>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" s="11" t="s">
-        <v>315</v>
+        <v>468</v>
       </c>
       <c r="B170" s="3" t="s">
-        <v>312</v>
+        <v>377</v>
       </c>
       <c r="C170" s="3" t="s">
-        <v>313</v>
+        <v>378</v>
       </c>
       <c r="D170" s="4">
-        <v>4301051320</v>
+        <v>4301136026</v>
       </c>
       <c r="E170" s="3">
-        <v>4680115881334</v>
+        <v>4640242180236</v>
       </c>
       <c r="F170" s="5" t="s">
-        <v>314</v>
+        <v>379</v>
       </c>
       <c r="G170" s="1"/>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" s="11" t="s">
-        <v>319</v>
+        <v>95</v>
       </c>
       <c r="B171" s="3" t="s">
-        <v>316</v>
+        <v>377</v>
       </c>
       <c r="C171" s="3" t="s">
-        <v>317</v>
+        <v>378</v>
       </c>
       <c r="D171" s="4">
-        <v>4301051319</v>
+        <v>4301136026</v>
       </c>
       <c r="E171" s="3">
-        <v>4680115881204</v>
+        <v>4640242180236</v>
       </c>
       <c r="F171" s="5" t="s">
-        <v>318</v>
+        <v>379</v>
       </c>
       <c r="G171" s="1"/>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" s="11" t="s">
-        <v>348</v>
+        <v>315</v>
       </c>
       <c r="B172" s="3" t="s">
-        <v>388</v>
+        <v>494</v>
       </c>
       <c r="C172" s="3" t="s">
-        <v>389</v>
+        <v>495</v>
       </c>
       <c r="D172" s="4">
-        <v>4301136027</v>
+        <v>4301135194</v>
       </c>
       <c r="E172" s="3">
-        <v>4640242180298</v>
+        <v>4640242180380</v>
       </c>
       <c r="F172" s="5" t="s">
-        <v>390</v>
+        <v>496</v>
       </c>
       <c r="G172" s="1"/>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" s="11" t="s">
-        <v>397</v>
+        <v>136</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>398</v>
+        <v>494</v>
       </c>
       <c r="C173" s="3" t="s">
-        <v>399</v>
+        <v>495</v>
       </c>
       <c r="D173" s="4">
-        <v>4301130003</v>
+        <v>4301135194</v>
       </c>
       <c r="E173" s="3">
-        <v>4607111034687</v>
+        <v>4640242180380</v>
       </c>
       <c r="F173" s="5" t="s">
-        <v>400</v>
+        <v>496</v>
       </c>
       <c r="G173" s="1"/>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" s="11" t="s">
-        <v>403</v>
+        <v>291</v>
       </c>
       <c r="B174" s="3" t="s">
-        <v>404</v>
+        <v>494</v>
       </c>
       <c r="C174" s="3" t="s">
-        <v>405</v>
+        <v>495</v>
       </c>
       <c r="D174" s="4">
-        <v>4301070977</v>
+        <v>4301135194</v>
       </c>
       <c r="E174" s="3">
-        <v>4607111037411</v>
+        <v>4640242180380</v>
       </c>
       <c r="F174" s="5" t="s">
-        <v>406</v>
+        <v>496</v>
       </c>
       <c r="G174" s="1"/>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" s="11" t="s">
-        <v>450</v>
+        <v>342</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>410</v>
+        <v>294</v>
       </c>
       <c r="C175" s="3" t="s">
-        <v>411</v>
+        <v>295</v>
       </c>
       <c r="D175" s="4">
-        <v>4301070871</v>
+        <v>4301070915</v>
       </c>
       <c r="E175" s="3">
-        <v>4607111036384</v>
+        <v>4607111035882</v>
       </c>
       <c r="F175" s="5" t="s">
-        <v>412</v>
+        <v>296</v>
       </c>
       <c r="G175" s="1"/>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" s="11" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B176" s="3" t="s">
-        <v>410</v>
+        <v>294</v>
       </c>
       <c r="C176" s="3" t="s">
-        <v>411</v>
+        <v>295</v>
       </c>
       <c r="D176" s="4">
-        <v>4301070871</v>
+        <v>4301070915</v>
       </c>
       <c r="E176" s="3">
-        <v>4607111036384</v>
+        <v>4607111035882</v>
       </c>
       <c r="F176" s="5" t="s">
-        <v>412</v>
+        <v>296</v>
       </c>
       <c r="G176" s="1"/>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177" s="11" t="s">
-        <v>415</v>
+        <v>296</v>
       </c>
       <c r="B177" s="3" t="s">
-        <v>416</v>
+        <v>294</v>
       </c>
       <c r="C177" s="3" t="s">
-        <v>417</v>
+        <v>295</v>
       </c>
       <c r="D177" s="4">
-        <v>4301135111</v>
+        <v>4301070915</v>
       </c>
       <c r="E177" s="3">
-        <v>4607111035028</v>
+        <v>4607111035882</v>
       </c>
       <c r="F177" s="5" t="s">
-        <v>418</v>
+        <v>296</v>
       </c>
       <c r="G177" s="1"/>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178" s="11" t="s">
-        <v>422</v>
+        <v>409</v>
       </c>
       <c r="B178" s="3" t="s">
-        <v>423</v>
+        <v>297</v>
       </c>
       <c r="C178" s="3" t="s">
-        <v>424</v>
+        <v>298</v>
       </c>
       <c r="D178" s="4">
-        <v>4301130006</v>
+        <v>4301070874</v>
       </c>
       <c r="E178" s="3">
-        <v>4607111034670</v>
+        <v>4607111035332</v>
       </c>
       <c r="F178" s="5" t="s">
-        <v>425</v>
+        <v>299</v>
       </c>
       <c r="G178" s="1"/>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179" s="11" t="s">
-        <v>428</v>
+        <v>299</v>
       </c>
       <c r="B179" s="3" t="s">
-        <v>429</v>
+        <v>297</v>
       </c>
       <c r="C179" s="3" t="s">
-        <v>430</v>
+        <v>298</v>
       </c>
       <c r="D179" s="4">
-        <v>4301070768</v>
+        <v>4301070874</v>
       </c>
       <c r="E179" s="3">
-        <v>4607111035639</v>
+        <v>4607111035332</v>
       </c>
       <c r="F179" s="5" t="s">
-        <v>431</v>
+        <v>299</v>
       </c>
       <c r="G179" s="1"/>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180" s="11" t="s">
-        <v>432</v>
+        <v>324</v>
       </c>
       <c r="B180" s="3" t="s">
-        <v>433</v>
+        <v>300</v>
       </c>
       <c r="C180" s="3" t="s">
-        <v>434</v>
+        <v>301</v>
       </c>
       <c r="D180" s="4">
-        <v>4301070797</v>
+        <v>4301136014</v>
       </c>
       <c r="E180" s="3">
-        <v>4607111035646</v>
+        <v>4607111035370</v>
       </c>
       <c r="F180" s="5" t="s">
-        <v>435</v>
+        <v>302</v>
       </c>
       <c r="G180" s="1"/>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181" s="11" t="s">
-        <v>446</v>
+        <v>414</v>
       </c>
       <c r="B181" s="3" t="s">
-        <v>447</v>
+        <v>300</v>
       </c>
       <c r="C181" s="3" t="s">
-        <v>448</v>
+        <v>301</v>
       </c>
       <c r="D181" s="4">
-        <v>4301080154</v>
+        <v>4301136014</v>
       </c>
       <c r="E181" s="3">
-        <v>4607111036834</v>
+        <v>4607111035370</v>
       </c>
       <c r="F181" s="5" t="s">
-        <v>449</v>
+        <v>302</v>
       </c>
       <c r="G181" s="1"/>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182" s="11" t="s">
-        <v>454</v>
+        <v>302</v>
       </c>
       <c r="B182" s="3" t="s">
-        <v>455</v>
+        <v>300</v>
       </c>
       <c r="C182" s="3" t="s">
-        <v>456</v>
+        <v>301</v>
       </c>
       <c r="D182" s="4">
-        <v>4301070941</v>
+        <v>4301136014</v>
       </c>
       <c r="E182" s="3">
-        <v>4607111036162</v>
+        <v>4607111035370</v>
       </c>
       <c r="F182" s="5" t="s">
-        <v>457</v>
+        <v>302</v>
       </c>
       <c r="G182" s="1"/>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183" s="11" t="s">
-        <v>458</v>
+        <v>323</v>
       </c>
       <c r="B183" s="3" t="s">
-        <v>459</v>
+        <v>307</v>
       </c>
       <c r="C183" s="3" t="s">
-        <v>460</v>
+        <v>308</v>
       </c>
       <c r="D183" s="4">
-        <v>4301070826</v>
+        <v>4301051320</v>
       </c>
       <c r="E183" s="3">
-        <v>4607111035752</v>
+        <v>4680115881334</v>
       </c>
       <c r="F183" s="5" t="s">
-        <v>461</v>
+        <v>309</v>
       </c>
       <c r="G183" s="1"/>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184" s="11" t="s">
-        <v>462</v>
+        <v>340</v>
       </c>
       <c r="B184" s="3" t="s">
-        <v>463</v>
+        <v>307</v>
       </c>
       <c r="C184" s="3" t="s">
-        <v>464</v>
+        <v>308</v>
       </c>
       <c r="D184" s="4">
-        <v>4301070966</v>
+        <v>4301051320</v>
       </c>
       <c r="E184" s="3">
-        <v>4607111038135</v>
+        <v>4680115881334</v>
       </c>
       <c r="F184" s="5" t="s">
-        <v>462</v>
+        <v>309</v>
       </c>
       <c r="G184" s="1"/>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185" s="11" t="s">
-        <v>465</v>
+        <v>310</v>
       </c>
       <c r="B185" s="3" t="s">
-        <v>466</v>
+        <v>307</v>
       </c>
       <c r="C185" s="3" t="s">
-        <v>467</v>
+        <v>308</v>
       </c>
       <c r="D185" s="4">
-        <v>4301070911</v>
+        <v>4301051320</v>
       </c>
       <c r="E185" s="3">
-        <v>4607111036278</v>
+        <v>4680115881334</v>
       </c>
       <c r="F185" s="5" t="s">
-        <v>465</v>
+        <v>309</v>
       </c>
       <c r="G185" s="1"/>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186" s="11" t="s">
-        <v>469</v>
+        <v>314</v>
       </c>
       <c r="B186" s="3" t="s">
-        <v>470</v>
+        <v>311</v>
       </c>
       <c r="C186" s="3" t="s">
-        <v>471</v>
+        <v>312</v>
       </c>
       <c r="D186" s="4">
+        <v>4301051319</v>
+      </c>
+      <c r="E186" s="3">
+        <v>4680115881204</v>
+      </c>
+      <c r="F186" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="G186" s="1"/>
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A187" s="11" t="s">
+        <v>343</v>
+      </c>
+      <c r="B187" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="C187" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="D187" s="4">
+        <v>4301136027</v>
+      </c>
+      <c r="E187" s="3">
+        <v>4640242180298</v>
+      </c>
+      <c r="F187" s="5" t="s">
+        <v>385</v>
+      </c>
+      <c r="G187" s="1"/>
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A188" s="11" t="s">
+        <v>392</v>
+      </c>
+      <c r="B188" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="C188" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="D188" s="4">
+        <v>4301130003</v>
+      </c>
+      <c r="E188" s="3">
+        <v>4607111034687</v>
+      </c>
+      <c r="F188" s="5" t="s">
+        <v>395</v>
+      </c>
+      <c r="G188" s="1"/>
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A189" s="11" t="s">
+        <v>398</v>
+      </c>
+      <c r="B189" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="C189" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="D189" s="4">
+        <v>4301070977</v>
+      </c>
+      <c r="E189" s="3">
+        <v>4607111037411</v>
+      </c>
+      <c r="F189" s="5" t="s">
+        <v>401</v>
+      </c>
+      <c r="G189" s="1"/>
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A190" s="11" t="s">
+        <v>445</v>
+      </c>
+      <c r="B190" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="C190" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="D190" s="4">
+        <v>4301070871</v>
+      </c>
+      <c r="E190" s="3">
+        <v>4607111036384</v>
+      </c>
+      <c r="F190" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="G190" s="1"/>
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A191" s="11" t="s">
+        <v>404</v>
+      </c>
+      <c r="B191" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="C191" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="D191" s="4">
+        <v>4301070871</v>
+      </c>
+      <c r="E191" s="3">
+        <v>4607111036384</v>
+      </c>
+      <c r="F191" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="G191" s="1"/>
+    </row>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A192" s="11" t="s">
+        <v>410</v>
+      </c>
+      <c r="B192" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="C192" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="D192" s="4">
+        <v>4301135111</v>
+      </c>
+      <c r="E192" s="3">
+        <v>4607111035028</v>
+      </c>
+      <c r="F192" s="5" t="s">
+        <v>413</v>
+      </c>
+      <c r="G192" s="1"/>
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A193" s="11" t="s">
+        <v>417</v>
+      </c>
+      <c r="B193" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="C193" s="3" t="s">
+        <v>419</v>
+      </c>
+      <c r="D193" s="4">
+        <v>4301130006</v>
+      </c>
+      <c r="E193" s="3">
+        <v>4607111034670</v>
+      </c>
+      <c r="F193" s="5" t="s">
+        <v>420</v>
+      </c>
+      <c r="G193" s="1"/>
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A194" s="11" t="s">
+        <v>423</v>
+      </c>
+      <c r="B194" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="C194" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="D194" s="4">
+        <v>4301070768</v>
+      </c>
+      <c r="E194" s="3">
+        <v>4607111035639</v>
+      </c>
+      <c r="F194" s="5" t="s">
+        <v>426</v>
+      </c>
+      <c r="G194" s="1"/>
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A195" s="11" t="s">
+        <v>427</v>
+      </c>
+      <c r="B195" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="C195" s="3" t="s">
+        <v>429</v>
+      </c>
+      <c r="D195" s="4">
+        <v>4301070797</v>
+      </c>
+      <c r="E195" s="3">
+        <v>4607111035646</v>
+      </c>
+      <c r="F195" s="5" t="s">
+        <v>430</v>
+      </c>
+      <c r="G195" s="1"/>
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A196" s="11" t="s">
+        <v>441</v>
+      </c>
+      <c r="B196" s="3" t="s">
+        <v>442</v>
+      </c>
+      <c r="C196" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="D196" s="4">
+        <v>4301080154</v>
+      </c>
+      <c r="E196" s="3">
+        <v>4607111036834</v>
+      </c>
+      <c r="F196" s="5" t="s">
+        <v>444</v>
+      </c>
+      <c r="G196" s="1"/>
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A197" s="11" t="s">
+        <v>449</v>
+      </c>
+      <c r="B197" s="3" t="s">
+        <v>450</v>
+      </c>
+      <c r="C197" s="3" t="s">
+        <v>451</v>
+      </c>
+      <c r="D197" s="4">
+        <v>4301070941</v>
+      </c>
+      <c r="E197" s="3">
+        <v>4607111036162</v>
+      </c>
+      <c r="F197" s="5" t="s">
+        <v>452</v>
+      </c>
+      <c r="G197" s="1"/>
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A198" s="11" t="s">
+        <v>453</v>
+      </c>
+      <c r="B198" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="C198" s="3" t="s">
+        <v>455</v>
+      </c>
+      <c r="D198" s="4">
+        <v>4301070826</v>
+      </c>
+      <c r="E198" s="3">
+        <v>4607111035752</v>
+      </c>
+      <c r="F198" s="5" t="s">
+        <v>456</v>
+      </c>
+      <c r="G198" s="1"/>
+    </row>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A199" s="11" t="s">
+        <v>457</v>
+      </c>
+      <c r="B199" s="3" t="s">
+        <v>458</v>
+      </c>
+      <c r="C199" s="3" t="s">
+        <v>459</v>
+      </c>
+      <c r="D199" s="4">
+        <v>4301070966</v>
+      </c>
+      <c r="E199" s="3">
+        <v>4607111038135</v>
+      </c>
+      <c r="F199" s="5" t="s">
+        <v>457</v>
+      </c>
+      <c r="G199" s="1"/>
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A200" s="11" t="s">
+        <v>460</v>
+      </c>
+      <c r="B200" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="C200" s="3" t="s">
+        <v>462</v>
+      </c>
+      <c r="D200" s="4">
+        <v>4301070911</v>
+      </c>
+      <c r="E200" s="3">
+        <v>4607111036278</v>
+      </c>
+      <c r="F200" s="5" t="s">
+        <v>460</v>
+      </c>
+      <c r="G200" s="1"/>
+    </row>
+    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A201" s="11" t="s">
+        <v>487</v>
+      </c>
+      <c r="B201" s="3" t="s">
+        <v>465</v>
+      </c>
+      <c r="C201" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="D201" s="4">
         <v>4301131019</v>
       </c>
-      <c r="E186" s="3">
+      <c r="E201" s="3">
         <v>4640242180427</v>
       </c>
-      <c r="F186" s="5" t="s">
-        <v>472</v>
-      </c>
-      <c r="G186" s="1"/>
-    </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A187" s="11"/>
-      <c r="B187" s="3"/>
-      <c r="C187" s="3"/>
-      <c r="D187" s="4"/>
-      <c r="E187" s="3"/>
-      <c r="F187" s="5"/>
-      <c r="G187" s="1"/>
-    </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A188" s="11"/>
-      <c r="B188" s="3"/>
-      <c r="C188" s="3"/>
-      <c r="D188" s="4"/>
-      <c r="E188" s="3"/>
-      <c r="F188" s="5"/>
-      <c r="G188" s="1"/>
-    </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A189" s="11"/>
-      <c r="B189" s="3"/>
-      <c r="C189" s="3"/>
-      <c r="D189" s="4"/>
-      <c r="E189" s="3"/>
-      <c r="F189" s="5"/>
-      <c r="G189" s="1"/>
-    </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A190" s="11"/>
-      <c r="B190" s="3"/>
-      <c r="C190" s="3"/>
-      <c r="D190" s="4"/>
-      <c r="E190" s="3"/>
-      <c r="F190" s="5"/>
-      <c r="G190" s="1"/>
-    </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A191" s="11"/>
-      <c r="B191" s="3"/>
-      <c r="C191" s="3"/>
-      <c r="D191" s="4"/>
-      <c r="E191" s="3"/>
-      <c r="F191" s="5"/>
-      <c r="G191" s="1"/>
-    </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A192" s="11"/>
-      <c r="B192" s="3"/>
-      <c r="C192" s="3"/>
-      <c r="D192" s="4"/>
-      <c r="E192" s="3"/>
-      <c r="F192" s="5"/>
-      <c r="G192" s="1"/>
-    </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A193" s="11"/>
-      <c r="B193" s="3"/>
-      <c r="C193" s="3"/>
-      <c r="D193" s="4"/>
-      <c r="E193" s="3"/>
-      <c r="F193" s="5"/>
-      <c r="G193" s="1"/>
-    </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A194" s="11"/>
-      <c r="B194" s="3"/>
-      <c r="C194" s="3"/>
-      <c r="D194" s="4"/>
-      <c r="E194" s="3"/>
-      <c r="F194" s="5"/>
-      <c r="G194" s="1"/>
-    </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A195" s="11"/>
-      <c r="B195" s="3"/>
-      <c r="C195" s="3"/>
-      <c r="D195" s="4"/>
-      <c r="E195" s="3"/>
-      <c r="F195" s="5"/>
-      <c r="G195" s="1"/>
-    </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A196" s="11"/>
-      <c r="B196" s="3"/>
-      <c r="C196" s="3"/>
-      <c r="D196" s="4"/>
-      <c r="E196" s="3"/>
-      <c r="F196" s="5"/>
-      <c r="G196" s="1"/>
-    </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A197" s="11"/>
-      <c r="B197" s="3"/>
-      <c r="C197" s="3"/>
-      <c r="D197" s="4"/>
-      <c r="E197" s="3"/>
-      <c r="F197" s="5"/>
-      <c r="G197" s="1"/>
-    </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A198" s="11"/>
-      <c r="B198" s="13"/>
-      <c r="C198" s="13"/>
-      <c r="D198" s="14"/>
-      <c r="E198" s="15"/>
-      <c r="F198" s="16"/>
-      <c r="G198" s="1"/>
-    </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A199" s="11"/>
-      <c r="B199" s="3"/>
-      <c r="C199" s="3"/>
-      <c r="D199" s="4"/>
-      <c r="E199" s="3"/>
-      <c r="F199" s="5"/>
-      <c r="G199" s="1"/>
-    </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A200" s="11"/>
-      <c r="B200" s="3"/>
-      <c r="C200" s="3"/>
-      <c r="D200" s="4"/>
-      <c r="E200" s="3"/>
-      <c r="F200" s="5"/>
-      <c r="G200" s="1"/>
-    </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A201" s="11"/>
-      <c r="B201" s="3"/>
-      <c r="C201" s="3"/>
-      <c r="D201" s="4"/>
-      <c r="E201" s="3"/>
-      <c r="F201" s="5"/>
+      <c r="F201" s="5" t="s">
+        <v>467</v>
+      </c>
       <c r="G201" s="1"/>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A202" s="11"/>
-      <c r="B202" s="3"/>
-      <c r="C202" s="3"/>
-      <c r="D202" s="4"/>
-      <c r="E202" s="3"/>
-      <c r="F202" s="5"/>
+      <c r="A202" s="11" t="s">
+        <v>464</v>
+      </c>
+      <c r="B202" s="3" t="s">
+        <v>465</v>
+      </c>
+      <c r="C202" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="D202" s="4">
+        <v>4301131019</v>
+      </c>
+      <c r="E202" s="3">
+        <v>4640242180427</v>
+      </c>
+      <c r="F202" s="5" t="s">
+        <v>467</v>
+      </c>
       <c r="G202" s="1"/>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.25">
@@ -6066,11 +6300,11 @@
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A207" s="11"/>
-      <c r="B207" s="13"/>
-      <c r="C207" s="13"/>
-      <c r="D207" s="14"/>
-      <c r="E207" s="15"/>
-      <c r="F207" s="16"/>
+      <c r="B207" s="3"/>
+      <c r="C207" s="3"/>
+      <c r="D207" s="4"/>
+      <c r="E207" s="3"/>
+      <c r="F207" s="5"/>
       <c r="G207" s="1"/>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.25">
@@ -6129,12 +6363,12 @@
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A214" s="11"/>
-      <c r="B214" s="3"/>
-      <c r="C214" s="3"/>
-      <c r="D214" s="4"/>
-      <c r="E214" s="3"/>
-      <c r="F214" s="5"/>
-      <c r="G214" s="6"/>
+      <c r="B214" s="13"/>
+      <c r="C214" s="13"/>
+      <c r="D214" s="14"/>
+      <c r="E214" s="15"/>
+      <c r="F214" s="16"/>
+      <c r="G214" s="1"/>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A215" s="11"/>
@@ -6210,11 +6444,11 @@
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A223" s="11"/>
-      <c r="B223" s="3"/>
-      <c r="C223" s="3"/>
-      <c r="D223" s="4"/>
-      <c r="E223" s="3"/>
-      <c r="F223" s="5"/>
+      <c r="B223" s="13"/>
+      <c r="C223" s="13"/>
+      <c r="D223" s="14"/>
+      <c r="E223" s="15"/>
+      <c r="F223" s="16"/>
       <c r="G223" s="1"/>
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.25">
@@ -6278,7 +6512,7 @@
       <c r="D230" s="4"/>
       <c r="E230" s="3"/>
       <c r="F230" s="5"/>
-      <c r="G230" s="1"/>
+      <c r="G230" s="6"/>
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A231" s="11"/>
@@ -6759,35 +6993,179 @@
     </row>
     <row r="284" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A284" s="11"/>
-      <c r="B284" s="1"/>
-      <c r="C284" s="1"/>
-      <c r="D284" s="1"/>
-      <c r="E284" s="1"/>
-      <c r="F284" s="1"/>
+      <c r="B284" s="3"/>
+      <c r="C284" s="3"/>
+      <c r="D284" s="4"/>
+      <c r="E284" s="3"/>
+      <c r="F284" s="5"/>
       <c r="G284" s="1"/>
     </row>
     <row r="285" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A285" s="11"/>
-      <c r="B285" s="1"/>
-      <c r="C285" s="1"/>
-      <c r="D285" s="1"/>
-      <c r="E285" s="1"/>
-      <c r="F285" s="1"/>
+      <c r="B285" s="3"/>
+      <c r="C285" s="3"/>
+      <c r="D285" s="4"/>
+      <c r="E285" s="3"/>
+      <c r="F285" s="5"/>
       <c r="G285" s="1"/>
     </row>
     <row r="286" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A286" s="11"/>
-      <c r="B286" s="1"/>
-      <c r="C286" s="1"/>
-      <c r="D286" s="1"/>
-      <c r="E286" s="1"/>
-      <c r="F286" s="1"/>
+      <c r="B286" s="3"/>
+      <c r="C286" s="3"/>
+      <c r="D286" s="4"/>
+      <c r="E286" s="3"/>
+      <c r="F286" s="5"/>
       <c r="G286" s="1"/>
     </row>
+    <row r="287" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A287" s="11"/>
+      <c r="B287" s="3"/>
+      <c r="C287" s="3"/>
+      <c r="D287" s="4"/>
+      <c r="E287" s="3"/>
+      <c r="F287" s="5"/>
+      <c r="G287" s="1"/>
+    </row>
+    <row r="288" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A288" s="11"/>
+      <c r="B288" s="3"/>
+      <c r="C288" s="3"/>
+      <c r="D288" s="4"/>
+      <c r="E288" s="3"/>
+      <c r="F288" s="5"/>
+      <c r="G288" s="1"/>
+    </row>
+    <row r="289" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A289" s="11"/>
+      <c r="B289" s="3"/>
+      <c r="C289" s="3"/>
+      <c r="D289" s="4"/>
+      <c r="E289" s="3"/>
+      <c r="F289" s="5"/>
+      <c r="G289" s="1"/>
+    </row>
+    <row r="290" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A290" s="11"/>
+      <c r="B290" s="3"/>
+      <c r="C290" s="3"/>
+      <c r="D290" s="4"/>
+      <c r="E290" s="3"/>
+      <c r="F290" s="5"/>
+      <c r="G290" s="1"/>
+    </row>
+    <row r="291" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A291" s="11"/>
+      <c r="B291" s="3"/>
+      <c r="C291" s="3"/>
+      <c r="D291" s="4"/>
+      <c r="E291" s="3"/>
+      <c r="F291" s="5"/>
+      <c r="G291" s="1"/>
+    </row>
+    <row r="292" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A292" s="11"/>
+      <c r="B292" s="3"/>
+      <c r="C292" s="3"/>
+      <c r="D292" s="4"/>
+      <c r="E292" s="3"/>
+      <c r="F292" s="5"/>
+      <c r="G292" s="1"/>
+    </row>
+    <row r="293" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A293" s="11"/>
+      <c r="B293" s="3"/>
+      <c r="C293" s="3"/>
+      <c r="D293" s="4"/>
+      <c r="E293" s="3"/>
+      <c r="F293" s="5"/>
+      <c r="G293" s="1"/>
+    </row>
+    <row r="294" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A294" s="11"/>
+      <c r="B294" s="3"/>
+      <c r="C294" s="3"/>
+      <c r="D294" s="4"/>
+      <c r="E294" s="3"/>
+      <c r="F294" s="5"/>
+      <c r="G294" s="1"/>
+    </row>
+    <row r="295" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A295" s="11"/>
+      <c r="B295" s="3"/>
+      <c r="C295" s="3"/>
+      <c r="D295" s="4"/>
+      <c r="E295" s="3"/>
+      <c r="F295" s="5"/>
+      <c r="G295" s="1"/>
+    </row>
+    <row r="296" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A296" s="11"/>
+      <c r="B296" s="3"/>
+      <c r="C296" s="3"/>
+      <c r="D296" s="4"/>
+      <c r="E296" s="3"/>
+      <c r="F296" s="5"/>
+      <c r="G296" s="1"/>
+    </row>
+    <row r="297" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A297" s="11"/>
+      <c r="B297" s="3"/>
+      <c r="C297" s="3"/>
+      <c r="D297" s="4"/>
+      <c r="E297" s="3"/>
+      <c r="F297" s="5"/>
+      <c r="G297" s="1"/>
+    </row>
+    <row r="298" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A298" s="11"/>
+      <c r="B298" s="3"/>
+      <c r="C298" s="3"/>
+      <c r="D298" s="4"/>
+      <c r="E298" s="3"/>
+      <c r="F298" s="5"/>
+      <c r="G298" s="1"/>
+    </row>
+    <row r="299" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A299" s="11"/>
+      <c r="B299" s="3"/>
+      <c r="C299" s="3"/>
+      <c r="D299" s="4"/>
+      <c r="E299" s="3"/>
+      <c r="F299" s="5"/>
+      <c r="G299" s="1"/>
+    </row>
+    <row r="300" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A300" s="11"/>
+      <c r="B300" s="1"/>
+      <c r="C300" s="1"/>
+      <c r="D300" s="1"/>
+      <c r="E300" s="1"/>
+      <c r="F300" s="1"/>
+      <c r="G300" s="1"/>
+    </row>
+    <row r="301" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A301" s="11"/>
+      <c r="B301" s="1"/>
+      <c r="C301" s="1"/>
+      <c r="D301" s="1"/>
+      <c r="E301" s="1"/>
+      <c r="F301" s="1"/>
+      <c r="G301" s="1"/>
+    </row>
+    <row r="302" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A302" s="11"/>
+      <c r="B302" s="1"/>
+      <c r="C302" s="1"/>
+      <c r="D302" s="1"/>
+      <c r="E302" s="1"/>
+      <c r="F302" s="1"/>
+      <c r="G302" s="1"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:F186" xr:uid="{08353A06-E006-45C7-BD45-850F7C3953DF}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F159">
-      <sortCondition ref="A1:A109"/>
+  <autoFilter ref="A1:F202" xr:uid="{08353A06-E006-45C7-BD45-850F7C3953DF}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F174">
+      <sortCondition ref="A1:A121"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/moduls/1С.xlsx
+++ b/moduls/1С.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\перенос данных\ПОКОМ ЗПФ\pokom_zpf\moduls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3D525DD-7697-4022-9774-CC1A858A7E81}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B049D1D0-59FA-4B89-A67F-8CDD050E679F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$F$202</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$F$211</definedName>
   </definedNames>
   <calcPr calcId="181029" refMode="R1C1"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="877" uniqueCount="498">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="913" uniqueCount="507">
   <si>
     <t>1С</t>
   </si>
@@ -1483,52 +1483,79 @@
     <t>Наггетсы Хрустящие ТМ Зареченские. ВЕС ПОКОМ</t>
   </si>
   <si>
+    <t>P003642</t>
+  </si>
+  <si>
+    <t>Фрайпицца с ветчиной и грибами ТМ Зареченские ТС Зареченские продукты. ВЕС ПОКОМ</t>
+  </si>
+  <si>
+    <t>Чебуреки сочные ВЕС ТМ Зареченские  ПОКОМ</t>
+  </si>
+  <si>
+    <t>Хрустящие крылышки ТМ Зареченские ТС Зареченские продукты. ВЕС ПОКОМ</t>
+  </si>
+  <si>
+    <t>Чебуреки «Сочный мегачебурек» Весовой ТМ «No Name»</t>
+  </si>
+  <si>
+    <t>«Жар-ладушки с клубникой и вишней» Весовые ТМ «No name»</t>
+  </si>
+  <si>
+    <t>Жар-ладушки с яблоком и грушей No name ПГП Весовые No name 3,7 кг</t>
+  </si>
+  <si>
+    <t>Жар-ладушки с мясом No name ПГП Весовые No name  3,7 кг</t>
+  </si>
+  <si>
+    <t>Пельмени «Быстромени» Весовой ТМ «No Name» 5</t>
+  </si>
+  <si>
+    <t>Жар-ладушки с яблоком и грушей ТМ Зареченские ВЕС ПОКОМ</t>
+  </si>
+  <si>
+    <t>SU003022</t>
+  </si>
+  <si>
+    <t>P003487</t>
+  </si>
+  <si>
+    <t>Снеки «Мини-сосиски в тесте Фрайпики» Весовые ТМ «Зареченские» 1,8 к</t>
+  </si>
+  <si>
+    <t>Жар-ладушки с мясом ТМ Зареченские ВЕС ПОКОМ</t>
+  </si>
+  <si>
+    <t>Пельмени Мясорубские с рубленой грудинкой ТМ Стародворье флоупак  0,7 кг. ПОКОМ</t>
+  </si>
+  <si>
+    <t>Фрай-пицца с ветчиной и грибами 3,0 кг ТМ Зареченские ТС Зареченские продукты. ВЕС ПОКОМ</t>
+  </si>
+  <si>
+    <t>Мини-сосиски в тесте Фрайпики 1,8кг ВЕС ТМ Зареченские  Поком</t>
+  </si>
+  <si>
     <t>P003678</t>
   </si>
   <si>
     <t>Пельмени «Бигбули с мясом» 0,9 Сфера ТМ «Горячая штучка»</t>
   </si>
   <si>
-    <t>P003642</t>
-  </si>
-  <si>
-    <t>Фрайпицца с ветчиной и грибами ТМ Зареченские ТС Зареченские продукты. ВЕС ПОКОМ</t>
-  </si>
-  <si>
-    <t>Чебуреки сочные ВЕС ТМ Зареченские  ПОКОМ</t>
-  </si>
-  <si>
-    <t>Хрустящие крылышки ТМ Зареченские ТС Зареченские продукты. ВЕС ПОКОМ</t>
-  </si>
-  <si>
-    <t>Чебуреки «Сочный мегачебурек» Весовой ТМ «No Name»</t>
-  </si>
-  <si>
-    <t>«Жар-ладушки с клубникой и вишней» Весовые ТМ «No name»</t>
-  </si>
-  <si>
-    <t>Жар-ладушки с яблоком и грушей No name ПГП Весовые No name 3,7 кг</t>
-  </si>
-  <si>
-    <t>Жар-ладушки с мясом No name ПГП Весовые No name  3,7 кг</t>
-  </si>
-  <si>
-    <t>Пельмени «Быстромени» Весовой ТМ «No Name» 5</t>
-  </si>
-  <si>
-    <t>Жар-ладушки с яблоком и грушей ТМ Зареченские ВЕС ПОКОМ</t>
-  </si>
-  <si>
-    <t>SU003022</t>
-  </si>
-  <si>
-    <t>P003487</t>
-  </si>
-  <si>
-    <t>Снеки «Мини-сосиски в тесте Фрайпики» Весовые ТМ «Зареченские» 1,8 к</t>
-  </si>
-  <si>
-    <t>Жар-ладушки с мясом ТМ Зареченские ВЕС ПОКОМ</t>
+    <t>Пельмени Сочные стародв. сфера 0,43кг  Поком</t>
+  </si>
+  <si>
+    <t>Готовые чебуреки со свининой и говядиной ТМ Горячая штучка ТС Базовый ассортимент 0,36 кг  ПОКОМ</t>
+  </si>
+  <si>
+    <t>Круггетсы сочные Хорека Весовые Пакет 3 кг Горячая штучка  Поком</t>
+  </si>
+  <si>
+    <t>Наггетсы Нагетосы Сочная курочка в хруст панир со сметаной и зеленью ТМ Горячая штучка 0,25 ПОКОМ</t>
+  </si>
+  <si>
+    <t>Чебупели с мясом Базовый ассортимент Фикс.вес 0,48 Лоток Горячая штучка ХХЛ  Поком</t>
+  </si>
+  <si>
+    <t>Фрай-пицца с ветчиной и грибами ТМ Зареченские ТС Зареченские продукты.  Поком</t>
   </si>
 </sst>
 </file>
@@ -2003,11 +2030,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G302"/>
+  <dimension ref="A1:G311"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G10" sqref="G10"/>
+      <selection pane="bottomLeft" activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2463,7 +2490,7 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
-        <v>233</v>
+        <v>502</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>264</v>
@@ -2484,28 +2511,28 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
-        <v>207</v>
+        <v>233</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>205</v>
+        <v>264</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>206</v>
+        <v>265</v>
       </c>
       <c r="D23" s="4">
-        <v>4301136013</v>
+        <v>4301136012</v>
       </c>
       <c r="E23" s="3">
-        <v>4607025784012</v>
+        <v>4607025784319</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>207</v>
+        <v>266</v>
       </c>
       <c r="G23" s="1"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="11" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>205</v>
@@ -2526,28 +2553,28 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="11" t="s">
-        <v>488</v>
+        <v>208</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>472</v>
+        <v>205</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>473</v>
+        <v>206</v>
       </c>
       <c r="D25" s="4">
-        <v>4301136029</v>
+        <v>4301136013</v>
       </c>
       <c r="E25" s="3">
-        <v>4640242180410</v>
+        <v>4607025784012</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>474</v>
+        <v>207</v>
       </c>
       <c r="G25" s="1"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="11" t="s">
-        <v>162</v>
+        <v>486</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>472</v>
@@ -2568,28 +2595,28 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="11" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>386</v>
+        <v>472</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>387</v>
+        <v>473</v>
       </c>
       <c r="D27" s="4">
-        <v>4301135191</v>
+        <v>4301136029</v>
       </c>
       <c r="E27" s="3">
-        <v>4640242180373</v>
+        <v>4640242180410</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>388</v>
+        <v>474</v>
       </c>
       <c r="G27" s="1"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="11" t="s">
-        <v>137</v>
+        <v>163</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>386</v>
@@ -2610,28 +2637,28 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="11" t="s">
-        <v>316</v>
+        <v>137</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>350</v>
+        <v>386</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>351</v>
+        <v>387</v>
       </c>
       <c r="D29" s="4">
-        <v>4301135195</v>
+        <v>4301135191</v>
       </c>
       <c r="E29" s="3">
-        <v>4640242180366</v>
+        <v>4640242180373</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>352</v>
+        <v>388</v>
       </c>
       <c r="G29" s="1"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="11" t="s">
-        <v>489</v>
+        <v>316</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>350</v>
@@ -2652,7 +2679,7 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="11" t="s">
-        <v>164</v>
+        <v>487</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>350</v>
@@ -2673,28 +2700,28 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="11" t="s">
-        <v>438</v>
+        <v>164</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="D32" s="4">
-        <v>4301135189</v>
+        <v>4301135195</v>
       </c>
       <c r="E32" s="3">
-        <v>4640242180342</v>
+        <v>4640242180366</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="G32" s="1"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="11" t="s">
-        <v>479</v>
+        <v>438</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>353</v>
@@ -2715,7 +2742,7 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="11" t="s">
-        <v>165</v>
+        <v>479</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>353</v>
@@ -2736,28 +2763,28 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="11" t="s">
-        <v>491</v>
+        <v>165</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="D35" s="4">
-        <v>4301135188</v>
+        <v>4301135189</v>
       </c>
       <c r="E35" s="3">
-        <v>4640242180335</v>
+        <v>4640242180342</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="G35" s="1"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="11" t="s">
-        <v>497</v>
+        <v>489</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>356</v>
@@ -2778,7 +2805,7 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="11" t="s">
-        <v>166</v>
+        <v>495</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>356</v>
@@ -2799,28 +2826,28 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="11" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>380</v>
+        <v>356</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>381</v>
+        <v>357</v>
       </c>
       <c r="D38" s="4">
-        <v>4301135190</v>
+        <v>4301135188</v>
       </c>
       <c r="E38" s="3">
-        <v>4640242180359</v>
+        <v>4640242180335</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>382</v>
+        <v>358</v>
       </c>
       <c r="G38" s="1"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="11" t="s">
-        <v>490</v>
+        <v>167</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>380</v>
@@ -2841,7 +2868,7 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="11" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>380</v>
@@ -2862,7 +2889,7 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="11" t="s">
-        <v>138</v>
+        <v>491</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>380</v>
@@ -2883,28 +2910,28 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="11" t="s">
-        <v>91</v>
+        <v>138</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>368</v>
+        <v>380</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>369</v>
+        <v>381</v>
       </c>
       <c r="D42" s="4">
-        <v>4301135186</v>
+        <v>4301135190</v>
       </c>
       <c r="E42" s="3">
-        <v>4640242180311</v>
+        <v>4640242180359</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>370</v>
-      </c>
-      <c r="G42" s="6"/>
+        <v>382</v>
+      </c>
+      <c r="G42" s="1"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="11" t="s">
-        <v>391</v>
+        <v>91</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>368</v>
@@ -2925,7 +2952,7 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="11" t="s">
-        <v>480</v>
+        <v>391</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>368</v>
@@ -2946,7 +2973,7 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="11" t="s">
-        <v>470</v>
+        <v>480</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>368</v>
@@ -2967,7 +2994,7 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="11" t="s">
-        <v>234</v>
+        <v>470</v>
       </c>
       <c r="B46" s="3" t="s">
         <v>368</v>
@@ -2984,32 +3011,32 @@
       <c r="F46" s="5" t="s">
         <v>370</v>
       </c>
-      <c r="G46" s="1"/>
+      <c r="G46" s="6"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="11" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>359</v>
+        <v>368</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>360</v>
+        <v>369</v>
       </c>
       <c r="D47" s="4">
-        <v>4301135187</v>
+        <v>4301135186</v>
       </c>
       <c r="E47" s="3">
-        <v>4640242180328</v>
+        <v>4640242180311</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>361</v>
+        <v>370</v>
       </c>
       <c r="G47" s="1"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="11" t="s">
-        <v>209</v>
+        <v>235</v>
       </c>
       <c r="B48" s="3" t="s">
         <v>359</v>
@@ -3030,28 +3057,28 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="11" t="s">
-        <v>236</v>
+        <v>209</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>304</v>
+        <v>359</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>305</v>
+        <v>360</v>
       </c>
       <c r="D49" s="4">
-        <v>4301135115</v>
+        <v>4301135187</v>
       </c>
       <c r="E49" s="3">
-        <v>4607111034380</v>
+        <v>4640242180328</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>306</v>
+        <v>361</v>
       </c>
       <c r="G49" s="1"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="11" t="s">
-        <v>168</v>
+        <v>236</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>304</v>
@@ -3072,28 +3099,28 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="11" t="s">
-        <v>288</v>
+        <v>168</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>317</v>
+        <v>304</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>318</v>
+        <v>305</v>
       </c>
       <c r="D51" s="4">
-        <v>4301135114</v>
+        <v>4301135115</v>
       </c>
       <c r="E51" s="3">
-        <v>4607111034397</v>
+        <v>4607111034380</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>319</v>
+        <v>306</v>
       </c>
       <c r="G51" s="1"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="11" t="s">
-        <v>237</v>
+        <v>288</v>
       </c>
       <c r="B52" s="3" t="s">
         <v>317</v>
@@ -3114,7 +3141,7 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="11" t="s">
-        <v>75</v>
+        <v>237</v>
       </c>
       <c r="B53" s="3" t="s">
         <v>317</v>
@@ -3135,28 +3162,28 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="11" t="s">
-        <v>139</v>
+        <v>75</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>289</v>
+        <v>317</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>290</v>
+        <v>318</v>
       </c>
       <c r="D54" s="4">
-        <v>4301131012</v>
+        <v>4301135114</v>
       </c>
       <c r="E54" s="3">
-        <v>4607111034137</v>
+        <v>4607111034397</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>144</v>
+        <v>319</v>
       </c>
       <c r="G54" s="1"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="11" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="B55" s="3" t="s">
         <v>289</v>
@@ -3177,7 +3204,7 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="11" t="s">
-        <v>238</v>
+        <v>144</v>
       </c>
       <c r="B56" s="3" t="s">
         <v>289</v>
@@ -3198,28 +3225,28 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="11" t="s">
-        <v>140</v>
+        <v>238</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>145</v>
+        <v>289</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>146</v>
+        <v>290</v>
       </c>
       <c r="D57" s="4">
-        <v>4301131011</v>
+        <v>4301131012</v>
       </c>
       <c r="E57" s="3">
-        <v>4607111034120</v>
+        <v>4607111034137</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="G57" s="6"/>
+        <v>144</v>
+      </c>
+      <c r="G57" s="1"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="11" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="B58" s="3" t="s">
         <v>145</v>
@@ -3240,7 +3267,7 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="11" t="s">
-        <v>239</v>
+        <v>147</v>
       </c>
       <c r="B59" s="3" t="s">
         <v>145</v>
@@ -3257,32 +3284,32 @@
       <c r="F59" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="G59" s="1"/>
+      <c r="G59" s="6"/>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="11" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>362</v>
+        <v>145</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>363</v>
+        <v>146</v>
       </c>
       <c r="D60" s="4">
-        <v>4301135192</v>
+        <v>4301131011</v>
       </c>
       <c r="E60" s="3">
-        <v>4640242180380</v>
+        <v>4607111034120</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>364</v>
+        <v>147</v>
       </c>
       <c r="G60" s="1"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="11" t="s">
-        <v>286</v>
+        <v>240</v>
       </c>
       <c r="B61" s="3" t="s">
         <v>362</v>
@@ -3303,7 +3330,7 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="11" t="s">
-        <v>435</v>
+        <v>286</v>
       </c>
       <c r="B62" s="3" t="s">
         <v>362</v>
@@ -3324,7 +3351,7 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="11" t="s">
-        <v>463</v>
+        <v>435</v>
       </c>
       <c r="B63" s="3" t="s">
         <v>362</v>
@@ -3345,7 +3372,7 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="11" t="s">
-        <v>76</v>
+        <v>463</v>
       </c>
       <c r="B64" s="3" t="s">
         <v>362</v>
@@ -3366,28 +3393,28 @@
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="11" t="s">
-        <v>269</v>
+        <v>76</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>267</v>
+        <v>362</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>268</v>
+        <v>363</v>
       </c>
       <c r="D65" s="4">
-        <v>4301132066</v>
+        <v>4301135192</v>
       </c>
       <c r="E65" s="3">
-        <v>4607111036520</v>
+        <v>4640242180380</v>
       </c>
       <c r="F65" s="5" t="s">
-        <v>269</v>
+        <v>364</v>
       </c>
       <c r="G65" s="1"/>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="11" t="s">
-        <v>396</v>
+        <v>269</v>
       </c>
       <c r="B66" s="3" t="s">
         <v>267</v>
@@ -3408,7 +3435,7 @@
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="11" t="s">
-        <v>241</v>
+        <v>396</v>
       </c>
       <c r="B67" s="3" t="s">
         <v>267</v>
@@ -3429,91 +3456,91 @@
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="11" t="s">
+        <v>241</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="D68" s="4">
+        <v>4301132066</v>
+      </c>
+      <c r="E68" s="3">
+        <v>4607111036520</v>
+      </c>
+      <c r="F68" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="G68" s="1"/>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69" s="11" t="s">
         <v>242</v>
       </c>
-      <c r="B68" s="3" t="s">
+      <c r="B69" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="C68" s="3" t="s">
+      <c r="C69" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="D68" s="4">
+      <c r="D69" s="4">
         <v>4301132065</v>
       </c>
-      <c r="E68" s="3">
+      <c r="E69" s="3">
         <v>4607111036599</v>
       </c>
-      <c r="F68" s="5" t="s">
+      <c r="F69" s="5" t="s">
         <v>272</v>
       </c>
-      <c r="G68" s="1"/>
-    </row>
-    <row r="69" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A69" s="11" t="s">
+      <c r="G69" s="1"/>
+    </row>
+    <row r="70" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A70" s="11" t="s">
+        <v>504</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="D70" s="4">
+        <v>4301132063</v>
+      </c>
+      <c r="E70" s="3">
+        <v>4607111036605</v>
+      </c>
+      <c r="F70" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="G70" s="1"/>
+    </row>
+    <row r="71" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A71" s="11" t="s">
         <v>243</v>
       </c>
-      <c r="B69" s="3" t="s">
+      <c r="B71" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="C69" s="3" t="s">
+      <c r="C71" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="D69" s="4">
+      <c r="D71" s="4">
         <v>4301132063</v>
       </c>
-      <c r="E69" s="3">
+      <c r="E71" s="3">
         <v>4607111036605</v>
       </c>
-      <c r="F69" s="5" t="s">
+      <c r="F71" s="5" t="s">
         <v>275</v>
-      </c>
-      <c r="G69" s="1"/>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A70" s="11" t="s">
-        <v>244</v>
-      </c>
-      <c r="B70" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="C70" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="D70" s="4">
-        <v>4301132046</v>
-      </c>
-      <c r="E70" s="3">
-        <v>4607111035691</v>
-      </c>
-      <c r="F70" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="G70" s="1"/>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A71" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="B71" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="C71" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="D71" s="4">
-        <v>4301132046</v>
-      </c>
-      <c r="E71" s="3">
-        <v>4607111035691</v>
-      </c>
-      <c r="F71" s="5" t="s">
-        <v>104</v>
       </c>
       <c r="G71" s="1"/>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="11" t="s">
-        <v>77</v>
+        <v>244</v>
       </c>
       <c r="B72" s="3" t="s">
         <v>102</v>
@@ -3534,112 +3561,112 @@
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="11" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D73" s="4">
-        <v>4301132064</v>
+        <v>4301132046</v>
       </c>
       <c r="E73" s="3">
-        <v>4607111036537</v>
+        <v>4607111035691</v>
       </c>
       <c r="F73" s="5" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="G73" s="1"/>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D74" s="4">
-        <v>4301132064</v>
+        <v>4301132046</v>
       </c>
       <c r="E74" s="3">
-        <v>4607111036537</v>
+        <v>4607111035691</v>
       </c>
       <c r="F74" s="5" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="G74" s="1"/>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="11" t="s">
-        <v>79</v>
+        <v>107</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D75" s="4">
-        <v>4301132048</v>
+        <v>4301132064</v>
       </c>
       <c r="E75" s="3">
-        <v>4607111035721</v>
+        <v>4607111036537</v>
       </c>
       <c r="F75" s="5" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G75" s="1"/>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="11" t="s">
-        <v>469</v>
+        <v>78</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>365</v>
+        <v>105</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>366</v>
+        <v>106</v>
       </c>
       <c r="D76" s="4">
-        <v>4301132080</v>
+        <v>4301132064</v>
       </c>
       <c r="E76" s="3">
-        <v>4640242180397</v>
+        <v>4607111036537</v>
       </c>
       <c r="F76" s="5" t="s">
-        <v>367</v>
+        <v>107</v>
       </c>
       <c r="G76" s="1"/>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="11" t="s">
-        <v>471</v>
+        <v>79</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>365</v>
+        <v>108</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>366</v>
+        <v>109</v>
       </c>
       <c r="D77" s="4">
-        <v>4301132080</v>
+        <v>4301132048</v>
       </c>
       <c r="E77" s="3">
-        <v>4640242180397</v>
+        <v>4607111035721</v>
       </c>
       <c r="F77" s="5" t="s">
-        <v>367</v>
+        <v>110</v>
       </c>
       <c r="G77" s="1"/>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="11" t="s">
-        <v>481</v>
+        <v>469</v>
       </c>
       <c r="B78" s="3" t="s">
         <v>365</v>
@@ -3660,7 +3687,7 @@
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="11" t="s">
-        <v>80</v>
+        <v>471</v>
       </c>
       <c r="B79" s="3" t="s">
         <v>365</v>
@@ -3681,49 +3708,49 @@
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="11" t="s">
-        <v>422</v>
+        <v>481</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>276</v>
+        <v>365</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>277</v>
+        <v>366</v>
       </c>
       <c r="D80" s="4">
-        <v>4301135134</v>
+        <v>4301132080</v>
       </c>
       <c r="E80" s="3">
-        <v>4607111035806</v>
+        <v>4640242180397</v>
       </c>
       <c r="F80" s="5" t="s">
-        <v>278</v>
+        <v>367</v>
       </c>
       <c r="G80" s="1"/>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="11" t="s">
-        <v>434</v>
+        <v>80</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>276</v>
+        <v>365</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>277</v>
+        <v>366</v>
       </c>
       <c r="D81" s="4">
-        <v>4301135134</v>
+        <v>4301132080</v>
       </c>
       <c r="E81" s="3">
-        <v>4607111035806</v>
+        <v>4640242180397</v>
       </c>
       <c r="F81" s="5" t="s">
-        <v>278</v>
+        <v>367</v>
       </c>
       <c r="G81" s="1"/>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="11" t="s">
-        <v>245</v>
+        <v>422</v>
       </c>
       <c r="B82" s="3" t="s">
         <v>276</v>
@@ -3744,70 +3771,70 @@
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="11" t="s">
-        <v>246</v>
+        <v>434</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>170</v>
+        <v>276</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>171</v>
+        <v>277</v>
       </c>
       <c r="D83" s="4">
-        <v>4301070935</v>
+        <v>4301135134</v>
       </c>
       <c r="E83" s="3">
-        <v>4607111037190</v>
+        <v>4607111035806</v>
       </c>
       <c r="F83" s="5" t="s">
-        <v>172</v>
+        <v>278</v>
       </c>
       <c r="G83" s="1"/>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="11" t="s">
-        <v>397</v>
+        <v>245</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="D84" s="4">
-        <v>4301070865</v>
+        <v>4301135134</v>
       </c>
       <c r="E84" s="3">
-        <v>4607111036285</v>
+        <v>4607111035806</v>
       </c>
       <c r="F84" s="5" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="G84" s="1"/>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="11" t="s">
-        <v>447</v>
+        <v>246</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>279</v>
+        <v>170</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>280</v>
+        <v>171</v>
       </c>
       <c r="D85" s="4">
-        <v>4301070865</v>
+        <v>4301070935</v>
       </c>
       <c r="E85" s="3">
-        <v>4607111036285</v>
+        <v>4607111037190</v>
       </c>
       <c r="F85" s="5" t="s">
-        <v>281</v>
+        <v>172</v>
       </c>
       <c r="G85" s="1"/>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="11" t="s">
-        <v>281</v>
+        <v>397</v>
       </c>
       <c r="B86" s="3" t="s">
         <v>279</v>
@@ -3828,7 +3855,7 @@
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="11" t="s">
-        <v>247</v>
+        <v>447</v>
       </c>
       <c r="B87" s="3" t="s">
         <v>279</v>
@@ -3849,49 +3876,49 @@
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="11" t="s">
-        <v>179</v>
+        <v>281</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>178</v>
+        <v>279</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>348</v>
+        <v>280</v>
       </c>
       <c r="D88" s="4">
-        <v>4301070970</v>
+        <v>4301070865</v>
       </c>
       <c r="E88" s="3">
-        <v>4607111037091</v>
+        <v>4607111036285</v>
       </c>
       <c r="F88" s="5" t="s">
-        <v>349</v>
-      </c>
-      <c r="G88" s="6"/>
+        <v>281</v>
+      </c>
+      <c r="G88" s="1"/>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="11" t="s">
-        <v>177</v>
+        <v>247</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>178</v>
+        <v>279</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>348</v>
+        <v>280</v>
       </c>
       <c r="D89" s="4">
-        <v>4301070970</v>
+        <v>4301070865</v>
       </c>
       <c r="E89" s="3">
-        <v>4607111037091</v>
+        <v>4607111036285</v>
       </c>
       <c r="F89" s="5" t="s">
-        <v>349</v>
-      </c>
-      <c r="G89" s="6"/>
+        <v>281</v>
+      </c>
+      <c r="G89" s="1"/>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="11" t="s">
-        <v>339</v>
+        <v>179</v>
       </c>
       <c r="B90" s="3" t="s">
         <v>178</v>
@@ -3908,11 +3935,11 @@
       <c r="F90" s="5" t="s">
         <v>349</v>
       </c>
-      <c r="G90" s="1"/>
+      <c r="G90" s="6"/>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="11" t="s">
-        <v>248</v>
+        <v>177</v>
       </c>
       <c r="B91" s="3" t="s">
         <v>178</v>
@@ -3929,53 +3956,53 @@
       <c r="F91" s="5" t="s">
         <v>349</v>
       </c>
-      <c r="G91" s="1"/>
+      <c r="G91" s="6"/>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="11" t="s">
-        <v>87</v>
+        <v>339</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>119</v>
+        <v>178</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>336</v>
+        <v>348</v>
       </c>
       <c r="D92" s="4">
-        <v>4301070973</v>
+        <v>4301070970</v>
       </c>
       <c r="E92" s="3">
-        <v>4607111033987</v>
+        <v>4607111037091</v>
       </c>
       <c r="F92" s="5" t="s">
-        <v>337</v>
-      </c>
-      <c r="G92" s="6"/>
+        <v>349</v>
+      </c>
+      <c r="G92" s="1"/>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="11" t="s">
-        <v>337</v>
+        <v>248</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>119</v>
+        <v>178</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>336</v>
+        <v>348</v>
       </c>
       <c r="D93" s="4">
-        <v>4301070973</v>
+        <v>4301070970</v>
       </c>
       <c r="E93" s="3">
-        <v>4607111033987</v>
+        <v>4607111037091</v>
       </c>
       <c r="F93" s="5" t="s">
-        <v>337</v>
-      </c>
-      <c r="G93" s="6"/>
+        <v>349</v>
+      </c>
+      <c r="G93" s="1"/>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="11" t="s">
-        <v>250</v>
+        <v>87</v>
       </c>
       <c r="B94" s="3" t="s">
         <v>119</v>
@@ -3992,95 +4019,95 @@
       <c r="F94" s="5" t="s">
         <v>337</v>
       </c>
-      <c r="G94" s="1"/>
+      <c r="G94" s="6"/>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="11" t="s">
-        <v>446</v>
+        <v>337</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>282</v>
+        <v>119</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>283</v>
+        <v>336</v>
       </c>
       <c r="D95" s="4">
-        <v>4301070861</v>
+        <v>4301070973</v>
       </c>
       <c r="E95" s="3">
-        <v>4607111036308</v>
+        <v>4607111033987</v>
       </c>
       <c r="F95" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="G95" s="1"/>
+        <v>337</v>
+      </c>
+      <c r="G95" s="6"/>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="11" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>282</v>
+        <v>119</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>283</v>
+        <v>336</v>
       </c>
       <c r="D96" s="4">
-        <v>4301070861</v>
+        <v>4301070973</v>
       </c>
       <c r="E96" s="3">
-        <v>4607111036308</v>
+        <v>4607111033987</v>
       </c>
       <c r="F96" s="5" t="s">
-        <v>284</v>
+        <v>337</v>
       </c>
       <c r="G96" s="1"/>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="11" t="s">
-        <v>81</v>
+        <v>446</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>111</v>
+        <v>282</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>112</v>
+        <v>283</v>
       </c>
       <c r="D97" s="4">
-        <v>4301070864</v>
+        <v>4301070861</v>
       </c>
       <c r="E97" s="3">
-        <v>4607111036292</v>
+        <v>4607111036308</v>
       </c>
       <c r="F97" s="5" t="s">
-        <v>113</v>
+        <v>284</v>
       </c>
       <c r="G97" s="1"/>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="11" t="s">
-        <v>448</v>
+        <v>251</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>111</v>
+        <v>282</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>112</v>
+        <v>283</v>
       </c>
       <c r="D98" s="4">
-        <v>4301070864</v>
+        <v>4301070861</v>
       </c>
       <c r="E98" s="3">
-        <v>4607111036292</v>
+        <v>4607111036308</v>
       </c>
       <c r="F98" s="5" t="s">
-        <v>113</v>
+        <v>284</v>
       </c>
       <c r="G98" s="1"/>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="11" t="s">
-        <v>252</v>
+        <v>81</v>
       </c>
       <c r="B99" s="3" t="s">
         <v>111</v>
@@ -4101,70 +4128,70 @@
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="11" t="s">
-        <v>253</v>
+        <v>448</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>174</v>
+        <v>111</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>344</v>
+        <v>112</v>
       </c>
       <c r="D100" s="4">
-        <v>4301070972</v>
+        <v>4301070864</v>
       </c>
       <c r="E100" s="3">
-        <v>4607111037183</v>
+        <v>4607111036292</v>
       </c>
       <c r="F100" s="5" t="s">
-        <v>345</v>
+        <v>113</v>
       </c>
       <c r="G100" s="1"/>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="11" t="s">
-        <v>86</v>
+        <v>252</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>332</v>
+        <v>112</v>
       </c>
       <c r="D101" s="4">
-        <v>4301070974</v>
+        <v>4301070864</v>
       </c>
       <c r="E101" s="3">
-        <v>4607111034151</v>
+        <v>4607111036292</v>
       </c>
       <c r="F101" s="5" t="s">
-        <v>333</v>
-      </c>
-      <c r="G101" s="6"/>
+        <v>113</v>
+      </c>
+      <c r="G101" s="1"/>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="11" t="s">
-        <v>333</v>
+        <v>253</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>118</v>
+        <v>174</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>332</v>
+        <v>344</v>
       </c>
       <c r="D102" s="4">
-        <v>4301070974</v>
+        <v>4301070972</v>
       </c>
       <c r="E102" s="3">
-        <v>4607111034151</v>
+        <v>4607111037183</v>
       </c>
       <c r="F102" s="5" t="s">
-        <v>333</v>
-      </c>
-      <c r="G102" s="6"/>
+        <v>345</v>
+      </c>
+      <c r="G102" s="1"/>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="11" t="s">
-        <v>255</v>
+        <v>86</v>
       </c>
       <c r="B103" s="3" t="s">
         <v>118</v>
@@ -4181,200 +4208,200 @@
       <c r="F103" s="5" t="s">
         <v>333</v>
       </c>
-      <c r="G103" s="1"/>
+      <c r="G103" s="6"/>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="11" t="s">
-        <v>169</v>
+        <v>333</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>170</v>
+        <v>118</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>171</v>
+        <v>332</v>
       </c>
       <c r="D104" s="4">
-        <v>4301070935</v>
+        <v>4301070974</v>
       </c>
       <c r="E104" s="3">
-        <v>4607111037190</v>
+        <v>4607111034151</v>
       </c>
       <c r="F104" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="G104" s="1"/>
+        <v>333</v>
+      </c>
+      <c r="G104" s="6"/>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="11" t="s">
-        <v>173</v>
+        <v>255</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>174</v>
+        <v>118</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>344</v>
+        <v>332</v>
       </c>
       <c r="D105" s="4">
-        <v>4301070972</v>
+        <v>4301070974</v>
       </c>
       <c r="E105" s="3">
-        <v>4607111037183</v>
+        <v>4607111034151</v>
       </c>
       <c r="F105" s="5" t="s">
-        <v>345</v>
+        <v>333</v>
       </c>
       <c r="G105" s="1"/>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="11" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>346</v>
+        <v>171</v>
       </c>
       <c r="D106" s="4">
-        <v>4301070969</v>
+        <v>4301070935</v>
       </c>
       <c r="E106" s="3">
-        <v>4607111036858</v>
+        <v>4607111037190</v>
       </c>
       <c r="F106" s="5" t="s">
-        <v>347</v>
+        <v>172</v>
       </c>
       <c r="G106" s="1"/>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="11" t="s">
-        <v>82</v>
+        <v>173</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>114</v>
+        <v>174</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>482</v>
+        <v>344</v>
       </c>
       <c r="D107" s="4">
-        <v>4301070968</v>
+        <v>4301070972</v>
       </c>
       <c r="E107" s="3">
-        <v>4607111036889</v>
+        <v>4607111037183</v>
       </c>
       <c r="F107" s="5" t="s">
-        <v>483</v>
-      </c>
-      <c r="G107" s="6"/>
+        <v>345</v>
+      </c>
+      <c r="G107" s="1"/>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="11" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>182</v>
+        <v>346</v>
       </c>
       <c r="D108" s="4">
-        <v>4301070944</v>
+        <v>4301070969</v>
       </c>
       <c r="E108" s="3">
-        <v>4607111036902</v>
+        <v>4607111036858</v>
       </c>
       <c r="F108" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="G108" s="6"/>
+        <v>347</v>
+      </c>
+      <c r="G108" s="1"/>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="11" t="s">
-        <v>338</v>
+        <v>82</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>181</v>
+        <v>114</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>182</v>
+        <v>499</v>
       </c>
       <c r="D109" s="4">
-        <v>4301070944</v>
+        <v>4301070968</v>
       </c>
       <c r="E109" s="3">
-        <v>4607111036902</v>
+        <v>4607111036889</v>
       </c>
       <c r="F109" s="5" t="s">
-        <v>183</v>
+        <v>500</v>
       </c>
       <c r="G109" s="6"/>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="11" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="B110" s="3" t="s">
         <v>181</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>475</v>
+        <v>182</v>
       </c>
       <c r="D110" s="4">
-        <v>4301070971</v>
+        <v>4301070944</v>
       </c>
       <c r="E110" s="3">
         <v>4607111036902</v>
       </c>
       <c r="F110" s="5" t="s">
-        <v>476</v>
+        <v>183</v>
       </c>
       <c r="G110" s="6"/>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="11" t="s">
-        <v>293</v>
+        <v>338</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>115</v>
+        <v>181</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>325</v>
+        <v>182</v>
       </c>
       <c r="D111" s="4">
-        <v>4301070976</v>
+        <v>4301070944</v>
       </c>
       <c r="E111" s="3">
-        <v>4607111034144</v>
+        <v>4607111036902</v>
       </c>
       <c r="F111" s="5" t="s">
-        <v>326</v>
+        <v>183</v>
       </c>
       <c r="G111" s="6"/>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="11" t="s">
-        <v>254</v>
+        <v>180</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>115</v>
+        <v>181</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>325</v>
+        <v>475</v>
       </c>
       <c r="D112" s="4">
-        <v>4301070976</v>
+        <v>4301070971</v>
       </c>
       <c r="E112" s="3">
-        <v>4607111034144</v>
+        <v>4607111036902</v>
       </c>
       <c r="F112" s="5" t="s">
-        <v>326</v>
-      </c>
-      <c r="G112" s="1"/>
+        <v>476</v>
+      </c>
+      <c r="G112" s="6"/>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="11" t="s">
-        <v>326</v>
+        <v>293</v>
       </c>
       <c r="B113" s="3" t="s">
         <v>115</v>
@@ -4391,11 +4418,11 @@
       <c r="F113" s="5" t="s">
         <v>326</v>
       </c>
-      <c r="G113" s="1"/>
+      <c r="G113" s="6"/>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="11" t="s">
-        <v>83</v>
+        <v>254</v>
       </c>
       <c r="B114" s="3" t="s">
         <v>115</v>
@@ -4412,53 +4439,53 @@
       <c r="F114" s="5" t="s">
         <v>326</v>
       </c>
-      <c r="G114" s="6"/>
+      <c r="G114" s="1"/>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="11" t="s">
-        <v>292</v>
+        <v>326</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>334</v>
+        <v>325</v>
       </c>
       <c r="D115" s="4">
-        <v>4301070975</v>
+        <v>4301070976</v>
       </c>
       <c r="E115" s="3">
-        <v>4607111033970</v>
+        <v>4607111034144</v>
       </c>
       <c r="F115" s="5" t="s">
-        <v>335</v>
-      </c>
-      <c r="G115" s="6"/>
+        <v>326</v>
+      </c>
+      <c r="G115" s="1"/>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="11" t="s">
-        <v>249</v>
+        <v>83</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>334</v>
+        <v>325</v>
       </c>
       <c r="D116" s="4">
-        <v>4301070975</v>
+        <v>4301070976</v>
       </c>
       <c r="E116" s="3">
-        <v>4607111033970</v>
+        <v>4607111034144</v>
       </c>
       <c r="F116" s="5" t="s">
-        <v>335</v>
-      </c>
-      <c r="G116" s="1"/>
+        <v>326</v>
+      </c>
+      <c r="G116" s="6"/>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="11" t="s">
-        <v>403</v>
+        <v>292</v>
       </c>
       <c r="B117" s="3" t="s">
         <v>116</v>
@@ -4475,11 +4502,11 @@
       <c r="F117" s="5" t="s">
         <v>335</v>
       </c>
-      <c r="G117" s="1"/>
+      <c r="G117" s="6"/>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="11" t="s">
-        <v>335</v>
+        <v>249</v>
       </c>
       <c r="B118" s="3" t="s">
         <v>116</v>
@@ -4500,7 +4527,7 @@
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="11" t="s">
-        <v>84</v>
+        <v>403</v>
       </c>
       <c r="B119" s="3" t="s">
         <v>116</v>
@@ -4517,95 +4544,95 @@
       <c r="F119" s="5" t="s">
         <v>335</v>
       </c>
-      <c r="G119" s="6"/>
+      <c r="G119" s="1"/>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="11" t="s">
-        <v>402</v>
+        <v>335</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="D120" s="4">
-        <v>4301070981</v>
+        <v>4301070975</v>
       </c>
       <c r="E120" s="3">
-        <v>4607111036728</v>
+        <v>4607111033970</v>
       </c>
       <c r="F120" s="5" t="s">
-        <v>328</v>
-      </c>
-      <c r="G120" s="6"/>
+        <v>335</v>
+      </c>
+      <c r="G120" s="1"/>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="D121" s="4">
-        <v>4301070981</v>
+        <v>4301070975</v>
       </c>
       <c r="E121" s="3">
-        <v>4607111036728</v>
+        <v>4607111033970</v>
       </c>
       <c r="F121" s="5" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="G121" s="6"/>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="11" t="s">
-        <v>416</v>
+        <v>402</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>210</v>
+        <v>117</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>211</v>
+        <v>327</v>
       </c>
       <c r="D122" s="4">
-        <v>4301071010</v>
+        <v>4301070981</v>
       </c>
       <c r="E122" s="3">
-        <v>4607111037701</v>
+        <v>4607111036728</v>
       </c>
       <c r="F122" s="5" t="s">
-        <v>212</v>
+        <v>328</v>
       </c>
       <c r="G122" s="6"/>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" s="11" t="s">
-        <v>492</v>
+        <v>85</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>210</v>
+        <v>117</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>211</v>
+        <v>327</v>
       </c>
       <c r="D123" s="4">
-        <v>4301071010</v>
+        <v>4301070981</v>
       </c>
       <c r="E123" s="3">
-        <v>4607111037701</v>
+        <v>4607111036728</v>
       </c>
       <c r="F123" s="5" t="s">
-        <v>212</v>
+        <v>328</v>
       </c>
       <c r="G123" s="6"/>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" s="11" t="s">
-        <v>213</v>
+        <v>416</v>
       </c>
       <c r="B124" s="3" t="s">
         <v>210</v>
@@ -4626,70 +4653,70 @@
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="11" t="s">
-        <v>217</v>
+        <v>490</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D125" s="4">
-        <v>4301070870</v>
+        <v>4301071010</v>
       </c>
       <c r="E125" s="3">
-        <v>4607111036711</v>
+        <v>4607111037701</v>
       </c>
       <c r="F125" s="5" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="G125" s="6"/>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" s="11" t="s">
-        <v>185</v>
+        <v>213</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>320</v>
+        <v>210</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>321</v>
+        <v>211</v>
       </c>
       <c r="D126" s="4">
-        <v>4301070948</v>
+        <v>4301071010</v>
       </c>
       <c r="E126" s="3">
-        <v>4607111037022</v>
+        <v>4607111037701</v>
       </c>
       <c r="F126" s="5" t="s">
-        <v>185</v>
+        <v>212</v>
       </c>
       <c r="G126" s="6"/>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" s="11" t="s">
-        <v>322</v>
+        <v>217</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>320</v>
+        <v>214</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>321</v>
+        <v>215</v>
       </c>
       <c r="D127" s="4">
-        <v>4301070948</v>
+        <v>4301070870</v>
       </c>
       <c r="E127" s="3">
-        <v>4607111037022</v>
+        <v>4607111036711</v>
       </c>
       <c r="F127" s="5" t="s">
-        <v>185</v>
+        <v>216</v>
       </c>
       <c r="G127" s="6"/>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" s="11" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B128" s="3" t="s">
         <v>320</v>
@@ -4710,133 +4737,133 @@
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" s="11" t="s">
-        <v>122</v>
+        <v>322</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>120</v>
+        <v>320</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>121</v>
+        <v>321</v>
       </c>
       <c r="D129" s="4">
-        <v>4301070920</v>
+        <v>4301070948</v>
       </c>
       <c r="E129" s="3">
-        <v>4607111035929</v>
+        <v>4607111037022</v>
       </c>
       <c r="F129" s="5" t="s">
-        <v>122</v>
+        <v>185</v>
       </c>
       <c r="G129" s="6"/>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" s="11" t="s">
-        <v>88</v>
+        <v>184</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>120</v>
+        <v>320</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>121</v>
+        <v>321</v>
       </c>
       <c r="D130" s="4">
-        <v>4301070920</v>
+        <v>4301070948</v>
       </c>
       <c r="E130" s="3">
-        <v>4607111035929</v>
+        <v>4607111037022</v>
       </c>
       <c r="F130" s="5" t="s">
-        <v>122</v>
+        <v>185</v>
       </c>
       <c r="G130" s="6"/>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" s="11" t="s">
-        <v>186</v>
+        <v>122</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>187</v>
+        <v>120</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>188</v>
+        <v>121</v>
       </c>
       <c r="D131" s="4">
-        <v>4301070921</v>
+        <v>4301070920</v>
       </c>
       <c r="E131" s="3">
-        <v>4607111035905</v>
+        <v>4607111035929</v>
       </c>
       <c r="F131" s="5" t="s">
-        <v>189</v>
+        <v>122</v>
       </c>
       <c r="G131" s="6"/>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" s="11" t="s">
-        <v>189</v>
+        <v>88</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>187</v>
+        <v>120</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>188</v>
+        <v>121</v>
       </c>
       <c r="D132" s="4">
-        <v>4301070921</v>
+        <v>4301070920</v>
       </c>
       <c r="E132" s="3">
-        <v>4607111035905</v>
+        <v>4607111035929</v>
       </c>
       <c r="F132" s="5" t="s">
-        <v>189</v>
+        <v>122</v>
       </c>
       <c r="G132" s="6"/>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" s="11" t="s">
-        <v>220</v>
+        <v>186</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>218</v>
+        <v>187</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>219</v>
+        <v>188</v>
       </c>
       <c r="D133" s="4">
-        <v>4301070917</v>
+        <v>4301070921</v>
       </c>
       <c r="E133" s="3">
-        <v>4607111035912</v>
+        <v>4607111035905</v>
       </c>
       <c r="F133" s="5" t="s">
-        <v>220</v>
+        <v>189</v>
       </c>
       <c r="G133" s="6"/>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" s="11" t="s">
-        <v>341</v>
+        <v>189</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>218</v>
+        <v>187</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>219</v>
+        <v>188</v>
       </c>
       <c r="D134" s="4">
-        <v>4301070917</v>
+        <v>4301070921</v>
       </c>
       <c r="E134" s="3">
-        <v>4607111035912</v>
+        <v>4607111035905</v>
       </c>
       <c r="F134" s="5" t="s">
-        <v>220</v>
+        <v>189</v>
       </c>
       <c r="G134" s="6"/>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" s="11" t="s">
-        <v>389</v>
+        <v>220</v>
       </c>
       <c r="B135" s="3" t="s">
         <v>218</v>
@@ -4857,7 +4884,7 @@
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" s="11" t="s">
-        <v>221</v>
+        <v>341</v>
       </c>
       <c r="B136" s="3" t="s">
         <v>218</v>
@@ -4878,175 +4905,175 @@
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" s="11" t="s">
-        <v>190</v>
+        <v>389</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>123</v>
+        <v>218</v>
       </c>
       <c r="C137" s="3" t="s">
-        <v>124</v>
+        <v>219</v>
       </c>
       <c r="D137" s="4">
-        <v>4301070827</v>
+        <v>4301070917</v>
       </c>
       <c r="E137" s="3">
-        <v>4607111036216</v>
+        <v>4607111035912</v>
       </c>
       <c r="F137" s="5" t="s">
-        <v>125</v>
+        <v>220</v>
       </c>
       <c r="G137" s="6"/>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" s="11" t="s">
-        <v>89</v>
+        <v>221</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>123</v>
+        <v>218</v>
       </c>
       <c r="C138" s="3" t="s">
-        <v>124</v>
+        <v>219</v>
       </c>
       <c r="D138" s="4">
-        <v>4301070827</v>
+        <v>4301070917</v>
       </c>
       <c r="E138" s="3">
-        <v>4607111036216</v>
+        <v>4607111035912</v>
       </c>
       <c r="F138" s="5" t="s">
-        <v>125</v>
+        <v>220</v>
       </c>
       <c r="G138" s="6"/>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" s="11" t="s">
-        <v>127</v>
+        <v>190</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C139" s="3" t="s">
-        <v>484</v>
+        <v>124</v>
       </c>
       <c r="D139" s="4">
-        <v>4301070965</v>
+        <v>4301070827</v>
       </c>
       <c r="E139" s="3">
-        <v>4607111035899</v>
+        <v>4607111036216</v>
       </c>
       <c r="F139" s="5" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G139" s="6"/>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C140" s="3" t="s">
-        <v>484</v>
+        <v>124</v>
       </c>
       <c r="D140" s="4">
-        <v>4301070965</v>
+        <v>4301070827</v>
       </c>
       <c r="E140" s="3">
-        <v>4607111035899</v>
+        <v>4607111036216</v>
       </c>
       <c r="F140" s="5" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G140" s="6"/>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" s="11" t="s">
-        <v>194</v>
+        <v>127</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>192</v>
+        <v>126</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>193</v>
+        <v>482</v>
       </c>
       <c r="D141" s="4">
-        <v>4301070873</v>
+        <v>4301070965</v>
       </c>
       <c r="E141" s="3">
-        <v>4607111035080</v>
+        <v>4607111035899</v>
       </c>
       <c r="F141" s="5" t="s">
-        <v>194</v>
+        <v>127</v>
       </c>
       <c r="G141" s="6"/>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" s="11" t="s">
-        <v>191</v>
+        <v>90</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>192</v>
+        <v>126</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>193</v>
+        <v>482</v>
       </c>
       <c r="D142" s="4">
-        <v>4301070873</v>
+        <v>4301070965</v>
       </c>
       <c r="E142" s="3">
-        <v>4607111035080</v>
+        <v>4607111035899</v>
       </c>
       <c r="F142" s="5" t="s">
-        <v>194</v>
+        <v>127</v>
       </c>
       <c r="G142" s="6"/>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" s="11" t="s">
-        <v>287</v>
+        <v>194</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>371</v>
+        <v>192</v>
       </c>
       <c r="C143" s="3" t="s">
-        <v>372</v>
+        <v>193</v>
       </c>
       <c r="D143" s="4">
-        <v>4301135193</v>
+        <v>4301070873</v>
       </c>
       <c r="E143" s="3">
-        <v>4640242180403</v>
+        <v>4607111035080</v>
       </c>
       <c r="F143" s="5" t="s">
-        <v>373</v>
+        <v>194</v>
       </c>
       <c r="G143" s="6"/>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" s="11" t="s">
-        <v>485</v>
+        <v>191</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>371</v>
+        <v>192</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>372</v>
+        <v>193</v>
       </c>
       <c r="D144" s="4">
-        <v>4301135193</v>
+        <v>4301070873</v>
       </c>
       <c r="E144" s="3">
-        <v>4640242180403</v>
+        <v>4607111035080</v>
       </c>
       <c r="F144" s="5" t="s">
-        <v>373</v>
+        <v>194</v>
       </c>
       <c r="G144" s="6"/>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" s="11" t="s">
-        <v>195</v>
+        <v>287</v>
       </c>
       <c r="B145" s="3" t="s">
         <v>371</v>
@@ -5067,1280 +5094,1388 @@
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" s="11" t="s">
-        <v>199</v>
+        <v>483</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>197</v>
+        <v>371</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>198</v>
+        <v>372</v>
       </c>
       <c r="D146" s="4">
-        <v>4301070858</v>
+        <v>4301135193</v>
       </c>
       <c r="E146" s="3">
-        <v>4607111036193</v>
+        <v>4640242180403</v>
       </c>
       <c r="F146" s="5" t="s">
-        <v>199</v>
+        <v>373</v>
       </c>
       <c r="G146" s="6"/>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" s="11" t="s">
-        <v>196</v>
+        <v>506</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>197</v>
+        <v>371</v>
       </c>
       <c r="C147" s="3" t="s">
-        <v>477</v>
+        <v>372</v>
       </c>
       <c r="D147" s="4">
-        <v>4301070956</v>
+        <v>4301135193</v>
       </c>
       <c r="E147" s="3">
-        <v>4640242180250</v>
+        <v>4640242180403</v>
       </c>
       <c r="F147" s="5" t="s">
-        <v>478</v>
+        <v>373</v>
       </c>
       <c r="G147" s="6"/>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" s="11" t="s">
-        <v>92</v>
+        <v>497</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>128</v>
+        <v>371</v>
       </c>
       <c r="C148" s="3" t="s">
-        <v>129</v>
+        <v>372</v>
       </c>
       <c r="D148" s="4">
-        <v>4301135112</v>
+        <v>4301135193</v>
       </c>
       <c r="E148" s="3">
-        <v>4607111034199</v>
+        <v>4640242180403</v>
       </c>
       <c r="F148" s="5" t="s">
-        <v>130</v>
+        <v>373</v>
       </c>
       <c r="G148" s="6"/>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" s="11" t="s">
-        <v>303</v>
+        <v>195</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>329</v>
+        <v>371</v>
       </c>
       <c r="C149" s="3" t="s">
-        <v>330</v>
+        <v>372</v>
       </c>
       <c r="D149" s="4">
-        <v>4301131018</v>
+        <v>4301135193</v>
       </c>
       <c r="E149" s="3">
-        <v>4607111037930</v>
+        <v>4640242180403</v>
       </c>
       <c r="F149" s="5" t="s">
-        <v>331</v>
+        <v>373</v>
       </c>
       <c r="G149" s="6"/>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" s="11" t="s">
-        <v>421</v>
+        <v>199</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>329</v>
+        <v>197</v>
       </c>
       <c r="C150" s="3" t="s">
-        <v>330</v>
+        <v>198</v>
       </c>
       <c r="D150" s="4">
-        <v>4301131018</v>
+        <v>4301070858</v>
       </c>
       <c r="E150" s="3">
-        <v>4607111037930</v>
+        <v>4607111036193</v>
       </c>
       <c r="F150" s="5" t="s">
-        <v>331</v>
+        <v>199</v>
       </c>
       <c r="G150" s="6"/>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" s="11" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>329</v>
+        <v>197</v>
       </c>
       <c r="C151" s="3" t="s">
-        <v>330</v>
+        <v>477</v>
       </c>
       <c r="D151" s="4">
-        <v>4301131018</v>
+        <v>4301070956</v>
       </c>
       <c r="E151" s="3">
-        <v>4607111037930</v>
+        <v>4640242180250</v>
       </c>
       <c r="F151" s="5" t="s">
-        <v>331</v>
+        <v>478</v>
       </c>
       <c r="G151" s="6"/>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" s="11" t="s">
-        <v>201</v>
+        <v>92</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>148</v>
+        <v>128</v>
       </c>
       <c r="C152" s="3" t="s">
-        <v>149</v>
+        <v>129</v>
       </c>
       <c r="D152" s="4">
-        <v>4301190014</v>
+        <v>4301135112</v>
       </c>
       <c r="E152" s="3">
-        <v>4607111037053</v>
+        <v>4607111034199</v>
       </c>
       <c r="F152" s="5" t="s">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="G152" s="6"/>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" s="11" t="s">
-        <v>431</v>
+        <v>303</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>148</v>
+        <v>329</v>
       </c>
       <c r="C153" s="3" t="s">
-        <v>149</v>
+        <v>330</v>
       </c>
       <c r="D153" s="4">
-        <v>4301190014</v>
+        <v>4301131018</v>
       </c>
       <c r="E153" s="3">
-        <v>4607111037053</v>
+        <v>4607111037930</v>
       </c>
       <c r="F153" s="5" t="s">
-        <v>150</v>
+        <v>331</v>
       </c>
       <c r="G153" s="6"/>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" s="11" t="s">
-        <v>141</v>
+        <v>421</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>148</v>
+        <v>329</v>
       </c>
       <c r="C154" s="3" t="s">
-        <v>149</v>
+        <v>330</v>
       </c>
       <c r="D154" s="4">
-        <v>4301190014</v>
+        <v>4301131018</v>
       </c>
       <c r="E154" s="3">
-        <v>4607111037053</v>
+        <v>4607111037930</v>
       </c>
       <c r="F154" s="5" t="s">
-        <v>150</v>
+        <v>331</v>
       </c>
       <c r="G154" s="6"/>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" s="11" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>151</v>
+        <v>465</v>
       </c>
       <c r="C155" s="3" t="s">
-        <v>152</v>
+        <v>466</v>
       </c>
       <c r="D155" s="4">
-        <v>4301190015</v>
+        <v>4301131019</v>
       </c>
       <c r="E155" s="3">
-        <v>4607111037060</v>
+        <v>4640242180427</v>
       </c>
       <c r="F155" s="5" t="s">
-        <v>153</v>
+        <v>467</v>
       </c>
       <c r="G155" s="6"/>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" s="11" t="s">
-        <v>432</v>
+        <v>201</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C156" s="3" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D156" s="4">
-        <v>4301190015</v>
+        <v>4301190014</v>
       </c>
       <c r="E156" s="3">
-        <v>4607111037060</v>
+        <v>4607111037053</v>
       </c>
       <c r="F156" s="5" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="G156" s="6"/>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" s="11" t="s">
-        <v>142</v>
+        <v>431</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C157" s="3" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D157" s="4">
-        <v>4301190015</v>
+        <v>4301190014</v>
       </c>
       <c r="E157" s="3">
-        <v>4607111037060</v>
+        <v>4607111037053</v>
       </c>
       <c r="F157" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="G157" s="1"/>
+        <v>150</v>
+      </c>
+      <c r="G157" s="6"/>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" s="11" t="s">
-        <v>225</v>
+        <v>141</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>222</v>
+        <v>148</v>
       </c>
       <c r="C158" s="3" t="s">
-        <v>223</v>
+        <v>149</v>
       </c>
       <c r="D158" s="4">
-        <v>4301135053</v>
+        <v>4301190014</v>
       </c>
       <c r="E158" s="3">
-        <v>4607111036407</v>
+        <v>4607111037053</v>
       </c>
       <c r="F158" s="5" t="s">
-        <v>224</v>
-      </c>
-      <c r="G158" s="1"/>
+        <v>150</v>
+      </c>
+      <c r="G158" s="6"/>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" s="11" t="s">
-        <v>93</v>
+        <v>202</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>131</v>
+        <v>151</v>
       </c>
       <c r="C159" s="3" t="s">
-        <v>203</v>
+        <v>152</v>
       </c>
       <c r="D159" s="4">
-        <v>4301135162</v>
+        <v>4301190015</v>
       </c>
       <c r="E159" s="3">
-        <v>4607111034014</v>
+        <v>4607111037060</v>
       </c>
       <c r="F159" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="G159" s="1"/>
+        <v>153</v>
+      </c>
+      <c r="G159" s="6"/>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" s="11" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>131</v>
+        <v>151</v>
       </c>
       <c r="C160" s="3" t="s">
-        <v>203</v>
+        <v>152</v>
       </c>
       <c r="D160" s="4">
-        <v>4301135162</v>
+        <v>4301190015</v>
       </c>
       <c r="E160" s="3">
-        <v>4607111034014</v>
+        <v>4607111037060</v>
       </c>
       <c r="F160" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="G160" s="1"/>
+        <v>153</v>
+      </c>
+      <c r="G160" s="6"/>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" s="11" t="s">
-        <v>256</v>
+        <v>142</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>131</v>
+        <v>151</v>
       </c>
       <c r="C161" s="3" t="s">
-        <v>203</v>
+        <v>152</v>
       </c>
       <c r="D161" s="4">
-        <v>4301135162</v>
+        <v>4301190015</v>
       </c>
       <c r="E161" s="3">
-        <v>4607111034014</v>
+        <v>4607111037060</v>
       </c>
       <c r="F161" s="5" t="s">
-        <v>285</v>
+        <v>153</v>
       </c>
       <c r="G161" s="1"/>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" s="11" t="s">
-        <v>257</v>
+        <v>225</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>133</v>
+        <v>222</v>
       </c>
       <c r="C162" s="3" t="s">
-        <v>134</v>
+        <v>223</v>
       </c>
       <c r="D162" s="4">
-        <v>4301135117</v>
+        <v>4301135053</v>
       </c>
       <c r="E162" s="3">
-        <v>4607111033994</v>
+        <v>4607111036407</v>
       </c>
       <c r="F162" s="5" t="s">
-        <v>135</v>
+        <v>224</v>
       </c>
       <c r="G162" s="1"/>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" s="11" t="s">
-        <v>135</v>
+        <v>93</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C163" s="3" t="s">
-        <v>134</v>
+        <v>203</v>
       </c>
       <c r="D163" s="4">
-        <v>4301135117</v>
+        <v>4301135162</v>
       </c>
       <c r="E163" s="3">
-        <v>4607111033994</v>
+        <v>4607111034014</v>
       </c>
       <c r="F163" s="5" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="G163" s="1"/>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" s="11" t="s">
-        <v>94</v>
+        <v>439</v>
       </c>
       <c r="B164" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C164" s="3" t="s">
-        <v>134</v>
+        <v>203</v>
       </c>
       <c r="D164" s="4">
-        <v>4301135117</v>
+        <v>4301135162</v>
       </c>
       <c r="E164" s="3">
-        <v>4607111033994</v>
+        <v>4607111034014</v>
       </c>
       <c r="F164" s="5" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="G164" s="1"/>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" s="11" t="s">
-        <v>204</v>
+        <v>256</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>374</v>
+        <v>131</v>
       </c>
       <c r="C165" s="3" t="s">
-        <v>375</v>
+        <v>203</v>
       </c>
       <c r="D165" s="4">
-        <v>4301136028</v>
+        <v>4301135162</v>
       </c>
       <c r="E165" s="3">
-        <v>4640242180304</v>
+        <v>4607111034014</v>
       </c>
       <c r="F165" s="5" t="s">
-        <v>376</v>
+        <v>285</v>
       </c>
       <c r="G165" s="1"/>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" s="11" t="s">
-        <v>437</v>
+        <v>257</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>374</v>
+        <v>133</v>
       </c>
       <c r="C166" s="3" t="s">
-        <v>375</v>
+        <v>134</v>
       </c>
       <c r="D166" s="4">
-        <v>4301136028</v>
+        <v>4301135117</v>
       </c>
       <c r="E166" s="3">
-        <v>4640242180304</v>
+        <v>4607111033994</v>
       </c>
       <c r="F166" s="5" t="s">
-        <v>376</v>
+        <v>135</v>
       </c>
       <c r="G166" s="1"/>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" s="11" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>374</v>
+        <v>133</v>
       </c>
       <c r="C167" s="3" t="s">
-        <v>375</v>
+        <v>134</v>
       </c>
       <c r="D167" s="4">
-        <v>4301136028</v>
+        <v>4301135117</v>
       </c>
       <c r="E167" s="3">
-        <v>4640242180304</v>
+        <v>4607111033994</v>
       </c>
       <c r="F167" s="5" t="s">
-        <v>376</v>
+        <v>135</v>
       </c>
       <c r="G167" s="1"/>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" s="11" t="s">
-        <v>436</v>
+        <v>94</v>
       </c>
       <c r="B168" s="3" t="s">
-        <v>377</v>
+        <v>133</v>
       </c>
       <c r="C168" s="3" t="s">
-        <v>378</v>
+        <v>134</v>
       </c>
       <c r="D168" s="4">
-        <v>4301136026</v>
+        <v>4301135117</v>
       </c>
       <c r="E168" s="3">
-        <v>4640242180236</v>
+        <v>4607111033994</v>
       </c>
       <c r="F168" s="5" t="s">
-        <v>379</v>
+        <v>135</v>
       </c>
       <c r="G168" s="1"/>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" s="11" t="s">
-        <v>486</v>
+        <v>204</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="C169" s="3" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="D169" s="4">
-        <v>4301136026</v>
+        <v>4301136028</v>
       </c>
       <c r="E169" s="3">
-        <v>4640242180236</v>
+        <v>4640242180304</v>
       </c>
       <c r="F169" s="5" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="G169" s="1"/>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" s="11" t="s">
-        <v>468</v>
+        <v>437</v>
       </c>
       <c r="B170" s="3" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="C170" s="3" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="D170" s="4">
-        <v>4301136026</v>
+        <v>4301136028</v>
       </c>
       <c r="E170" s="3">
-        <v>4640242180236</v>
+        <v>4640242180304</v>
       </c>
       <c r="F170" s="5" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="G170" s="1"/>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" s="11" t="s">
-        <v>95</v>
+        <v>143</v>
       </c>
       <c r="B171" s="3" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="C171" s="3" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="D171" s="4">
-        <v>4301136026</v>
+        <v>4301136028</v>
       </c>
       <c r="E171" s="3">
-        <v>4640242180236</v>
+        <v>4640242180304</v>
       </c>
       <c r="F171" s="5" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="G171" s="1"/>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" s="11" t="s">
-        <v>315</v>
+        <v>436</v>
       </c>
       <c r="B172" s="3" t="s">
-        <v>494</v>
+        <v>377</v>
       </c>
       <c r="C172" s="3" t="s">
-        <v>495</v>
+        <v>378</v>
       </c>
       <c r="D172" s="4">
-        <v>4301135194</v>
+        <v>4301136026</v>
       </c>
       <c r="E172" s="3">
-        <v>4640242180380</v>
+        <v>4640242180236</v>
       </c>
       <c r="F172" s="5" t="s">
-        <v>496</v>
+        <v>379</v>
       </c>
       <c r="G172" s="1"/>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" s="11" t="s">
-        <v>136</v>
+        <v>484</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>494</v>
+        <v>377</v>
       </c>
       <c r="C173" s="3" t="s">
-        <v>495</v>
+        <v>378</v>
       </c>
       <c r="D173" s="4">
-        <v>4301135194</v>
+        <v>4301136026</v>
       </c>
       <c r="E173" s="3">
-        <v>4640242180380</v>
+        <v>4640242180236</v>
       </c>
       <c r="F173" s="5" t="s">
-        <v>496</v>
+        <v>379</v>
       </c>
       <c r="G173" s="1"/>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" s="11" t="s">
-        <v>291</v>
+        <v>468</v>
       </c>
       <c r="B174" s="3" t="s">
-        <v>494</v>
+        <v>377</v>
       </c>
       <c r="C174" s="3" t="s">
-        <v>495</v>
+        <v>378</v>
       </c>
       <c r="D174" s="4">
-        <v>4301135194</v>
+        <v>4301136026</v>
       </c>
       <c r="E174" s="3">
-        <v>4640242180380</v>
+        <v>4640242180236</v>
       </c>
       <c r="F174" s="5" t="s">
-        <v>496</v>
+        <v>379</v>
       </c>
       <c r="G174" s="1"/>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" s="11" t="s">
-        <v>342</v>
+        <v>95</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>294</v>
+        <v>377</v>
       </c>
       <c r="C175" s="3" t="s">
-        <v>295</v>
+        <v>378</v>
       </c>
       <c r="D175" s="4">
-        <v>4301070915</v>
+        <v>4301136026</v>
       </c>
       <c r="E175" s="3">
-        <v>4607111035882</v>
+        <v>4640242180236</v>
       </c>
       <c r="F175" s="5" t="s">
-        <v>296</v>
+        <v>379</v>
       </c>
       <c r="G175" s="1"/>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" s="11" t="s">
-        <v>408</v>
+        <v>315</v>
       </c>
       <c r="B176" s="3" t="s">
-        <v>294</v>
+        <v>492</v>
       </c>
       <c r="C176" s="3" t="s">
-        <v>295</v>
+        <v>493</v>
       </c>
       <c r="D176" s="4">
-        <v>4301070915</v>
+        <v>4301135194</v>
       </c>
       <c r="E176" s="3">
-        <v>4607111035882</v>
+        <v>4640242180380</v>
       </c>
       <c r="F176" s="5" t="s">
-        <v>296</v>
+        <v>494</v>
       </c>
       <c r="G176" s="1"/>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177" s="11" t="s">
-        <v>296</v>
+        <v>498</v>
       </c>
       <c r="B177" s="3" t="s">
-        <v>294</v>
+        <v>492</v>
       </c>
       <c r="C177" s="3" t="s">
-        <v>295</v>
+        <v>493</v>
       </c>
       <c r="D177" s="4">
-        <v>4301070915</v>
+        <v>4301135194</v>
       </c>
       <c r="E177" s="3">
-        <v>4607111035882</v>
+        <v>4640242180380</v>
       </c>
       <c r="F177" s="5" t="s">
-        <v>296</v>
+        <v>494</v>
       </c>
       <c r="G177" s="1"/>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178" s="11" t="s">
-        <v>409</v>
+        <v>136</v>
       </c>
       <c r="B178" s="3" t="s">
-        <v>297</v>
+        <v>492</v>
       </c>
       <c r="C178" s="3" t="s">
-        <v>298</v>
+        <v>493</v>
       </c>
       <c r="D178" s="4">
-        <v>4301070874</v>
+        <v>4301135194</v>
       </c>
       <c r="E178" s="3">
-        <v>4607111035332</v>
+        <v>4640242180380</v>
       </c>
       <c r="F178" s="5" t="s">
-        <v>299</v>
+        <v>494</v>
       </c>
       <c r="G178" s="1"/>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179" s="11" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="B179" s="3" t="s">
-        <v>297</v>
+        <v>492</v>
       </c>
       <c r="C179" s="3" t="s">
-        <v>298</v>
+        <v>493</v>
       </c>
       <c r="D179" s="4">
-        <v>4301070874</v>
+        <v>4301135194</v>
       </c>
       <c r="E179" s="3">
-        <v>4607111035332</v>
+        <v>4640242180380</v>
       </c>
       <c r="F179" s="5" t="s">
-        <v>299</v>
+        <v>494</v>
       </c>
       <c r="G179" s="1"/>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180" s="11" t="s">
-        <v>324</v>
+        <v>342</v>
       </c>
       <c r="B180" s="3" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="C180" s="3" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="D180" s="4">
-        <v>4301136014</v>
+        <v>4301070915</v>
       </c>
       <c r="E180" s="3">
-        <v>4607111035370</v>
+        <v>4607111035882</v>
       </c>
       <c r="F180" s="5" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="G180" s="1"/>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181" s="11" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="B181" s="3" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="C181" s="3" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="D181" s="4">
-        <v>4301136014</v>
+        <v>4301070915</v>
       </c>
       <c r="E181" s="3">
-        <v>4607111035370</v>
+        <v>4607111035882</v>
       </c>
       <c r="F181" s="5" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="G181" s="1"/>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182" s="11" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="B182" s="3" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="C182" s="3" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="D182" s="4">
-        <v>4301136014</v>
+        <v>4301070915</v>
       </c>
       <c r="E182" s="3">
-        <v>4607111035370</v>
+        <v>4607111035882</v>
       </c>
       <c r="F182" s="5" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="G182" s="1"/>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183" s="11" t="s">
-        <v>323</v>
+        <v>409</v>
       </c>
       <c r="B183" s="3" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
       <c r="C183" s="3" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
       <c r="D183" s="4">
-        <v>4301051320</v>
+        <v>4301070874</v>
       </c>
       <c r="E183" s="3">
-        <v>4680115881334</v>
+        <v>4607111035332</v>
       </c>
       <c r="F183" s="5" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="G183" s="1"/>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184" s="11" t="s">
-        <v>340</v>
+        <v>501</v>
       </c>
       <c r="B184" s="3" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
       <c r="C184" s="3" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
       <c r="D184" s="4">
-        <v>4301051320</v>
+        <v>4301070874</v>
       </c>
       <c r="E184" s="3">
-        <v>4680115881334</v>
+        <v>4607111035332</v>
       </c>
       <c r="F184" s="5" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="G184" s="1"/>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185" s="11" t="s">
-        <v>310</v>
+        <v>299</v>
       </c>
       <c r="B185" s="3" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
       <c r="C185" s="3" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
       <c r="D185" s="4">
-        <v>4301051320</v>
+        <v>4301070874</v>
       </c>
       <c r="E185" s="3">
-        <v>4680115881334</v>
+        <v>4607111035332</v>
       </c>
       <c r="F185" s="5" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="G185" s="1"/>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186" s="11" t="s">
-        <v>314</v>
+        <v>324</v>
       </c>
       <c r="B186" s="3" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="C186" s="3" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="D186" s="4">
-        <v>4301051319</v>
+        <v>4301136014</v>
       </c>
       <c r="E186" s="3">
-        <v>4680115881204</v>
+        <v>4607111035370</v>
       </c>
       <c r="F186" s="5" t="s">
-        <v>313</v>
+        <v>302</v>
       </c>
       <c r="G186" s="1"/>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187" s="11" t="s">
-        <v>343</v>
+        <v>414</v>
       </c>
       <c r="B187" s="3" t="s">
-        <v>383</v>
+        <v>300</v>
       </c>
       <c r="C187" s="3" t="s">
-        <v>384</v>
+        <v>301</v>
       </c>
       <c r="D187" s="4">
-        <v>4301136027</v>
+        <v>4301136014</v>
       </c>
       <c r="E187" s="3">
-        <v>4640242180298</v>
+        <v>4607111035370</v>
       </c>
       <c r="F187" s="5" t="s">
-        <v>385</v>
+        <v>302</v>
       </c>
       <c r="G187" s="1"/>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188" s="11" t="s">
-        <v>392</v>
+        <v>302</v>
       </c>
       <c r="B188" s="3" t="s">
-        <v>393</v>
+        <v>300</v>
       </c>
       <c r="C188" s="3" t="s">
-        <v>394</v>
+        <v>301</v>
       </c>
       <c r="D188" s="4">
-        <v>4301130003</v>
+        <v>4301136014</v>
       </c>
       <c r="E188" s="3">
-        <v>4607111034687</v>
+        <v>4607111035370</v>
       </c>
       <c r="F188" s="5" t="s">
-        <v>395</v>
+        <v>302</v>
       </c>
       <c r="G188" s="1"/>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189" s="11" t="s">
-        <v>398</v>
+        <v>323</v>
       </c>
       <c r="B189" s="3" t="s">
-        <v>399</v>
+        <v>307</v>
       </c>
       <c r="C189" s="3" t="s">
-        <v>400</v>
+        <v>308</v>
       </c>
       <c r="D189" s="4">
-        <v>4301070977</v>
+        <v>4301051320</v>
       </c>
       <c r="E189" s="3">
-        <v>4607111037411</v>
+        <v>4680115881334</v>
       </c>
       <c r="F189" s="5" t="s">
-        <v>401</v>
+        <v>309</v>
       </c>
       <c r="G189" s="1"/>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190" s="11" t="s">
-        <v>445</v>
+        <v>340</v>
       </c>
       <c r="B190" s="3" t="s">
-        <v>405</v>
+        <v>307</v>
       </c>
       <c r="C190" s="3" t="s">
-        <v>406</v>
+        <v>308</v>
       </c>
       <c r="D190" s="4">
-        <v>4301070871</v>
+        <v>4301051320</v>
       </c>
       <c r="E190" s="3">
-        <v>4607111036384</v>
+        <v>4680115881334</v>
       </c>
       <c r="F190" s="5" t="s">
-        <v>407</v>
+        <v>309</v>
       </c>
       <c r="G190" s="1"/>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191" s="11" t="s">
-        <v>404</v>
+        <v>310</v>
       </c>
       <c r="B191" s="3" t="s">
-        <v>405</v>
+        <v>307</v>
       </c>
       <c r="C191" s="3" t="s">
-        <v>406</v>
+        <v>308</v>
       </c>
       <c r="D191" s="4">
-        <v>4301070871</v>
+        <v>4301051320</v>
       </c>
       <c r="E191" s="3">
-        <v>4607111036384</v>
+        <v>4680115881334</v>
       </c>
       <c r="F191" s="5" t="s">
-        <v>407</v>
+        <v>309</v>
       </c>
       <c r="G191" s="1"/>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192" s="11" t="s">
-        <v>410</v>
+        <v>314</v>
       </c>
       <c r="B192" s="3" t="s">
-        <v>411</v>
+        <v>311</v>
       </c>
       <c r="C192" s="3" t="s">
-        <v>412</v>
+        <v>312</v>
       </c>
       <c r="D192" s="4">
-        <v>4301135111</v>
+        <v>4301051319</v>
       </c>
       <c r="E192" s="3">
-        <v>4607111035028</v>
+        <v>4680115881204</v>
       </c>
       <c r="F192" s="5" t="s">
-        <v>413</v>
+        <v>313</v>
       </c>
       <c r="G192" s="1"/>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193" s="11" t="s">
-        <v>417</v>
+        <v>343</v>
       </c>
       <c r="B193" s="3" t="s">
-        <v>418</v>
+        <v>383</v>
       </c>
       <c r="C193" s="3" t="s">
-        <v>419</v>
+        <v>384</v>
       </c>
       <c r="D193" s="4">
-        <v>4301130006</v>
+        <v>4301136027</v>
       </c>
       <c r="E193" s="3">
-        <v>4607111034670</v>
+        <v>4640242180298</v>
       </c>
       <c r="F193" s="5" t="s">
-        <v>420</v>
+        <v>385</v>
       </c>
       <c r="G193" s="1"/>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194" s="11" t="s">
-        <v>423</v>
+        <v>503</v>
       </c>
       <c r="B194" s="3" t="s">
-        <v>424</v>
+        <v>393</v>
       </c>
       <c r="C194" s="3" t="s">
-        <v>425</v>
+        <v>394</v>
       </c>
       <c r="D194" s="4">
-        <v>4301070768</v>
+        <v>4301130003</v>
       </c>
       <c r="E194" s="3">
-        <v>4607111035639</v>
+        <v>4607111034687</v>
       </c>
       <c r="F194" s="5" t="s">
-        <v>426</v>
+        <v>395</v>
       </c>
       <c r="G194" s="1"/>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195" s="11" t="s">
-        <v>427</v>
+        <v>392</v>
       </c>
       <c r="B195" s="3" t="s">
-        <v>428</v>
+        <v>393</v>
       </c>
       <c r="C195" s="3" t="s">
-        <v>429</v>
+        <v>394</v>
       </c>
       <c r="D195" s="4">
-        <v>4301070797</v>
+        <v>4301130003</v>
       </c>
       <c r="E195" s="3">
-        <v>4607111035646</v>
+        <v>4607111034687</v>
       </c>
       <c r="F195" s="5" t="s">
-        <v>430</v>
+        <v>395</v>
       </c>
       <c r="G195" s="1"/>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196" s="11" t="s">
-        <v>441</v>
+        <v>398</v>
       </c>
       <c r="B196" s="3" t="s">
-        <v>442</v>
+        <v>399</v>
       </c>
       <c r="C196" s="3" t="s">
-        <v>443</v>
+        <v>400</v>
       </c>
       <c r="D196" s="4">
-        <v>4301080154</v>
+        <v>4301070977</v>
       </c>
       <c r="E196" s="3">
-        <v>4607111036834</v>
+        <v>4607111037411</v>
       </c>
       <c r="F196" s="5" t="s">
-        <v>444</v>
+        <v>401</v>
       </c>
       <c r="G196" s="1"/>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197" s="11" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="B197" s="3" t="s">
-        <v>450</v>
+        <v>405</v>
       </c>
       <c r="C197" s="3" t="s">
-        <v>451</v>
+        <v>406</v>
       </c>
       <c r="D197" s="4">
-        <v>4301070941</v>
+        <v>4301070871</v>
       </c>
       <c r="E197" s="3">
-        <v>4607111036162</v>
+        <v>4607111036384</v>
       </c>
       <c r="F197" s="5" t="s">
-        <v>452</v>
+        <v>407</v>
       </c>
       <c r="G197" s="1"/>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198" s="11" t="s">
-        <v>453</v>
+        <v>404</v>
       </c>
       <c r="B198" s="3" t="s">
-        <v>454</v>
+        <v>405</v>
       </c>
       <c r="C198" s="3" t="s">
-        <v>455</v>
+        <v>406</v>
       </c>
       <c r="D198" s="4">
-        <v>4301070826</v>
+        <v>4301070871</v>
       </c>
       <c r="E198" s="3">
-        <v>4607111035752</v>
+        <v>4607111036384</v>
       </c>
       <c r="F198" s="5" t="s">
-        <v>456</v>
+        <v>407</v>
       </c>
       <c r="G198" s="1"/>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A199" s="11" t="s">
-        <v>457</v>
+        <v>505</v>
       </c>
       <c r="B199" s="3" t="s">
-        <v>458</v>
+        <v>411</v>
       </c>
       <c r="C199" s="3" t="s">
-        <v>459</v>
+        <v>412</v>
       </c>
       <c r="D199" s="4">
-        <v>4301070966</v>
+        <v>4301135111</v>
       </c>
       <c r="E199" s="3">
-        <v>4607111038135</v>
+        <v>4607111035028</v>
       </c>
       <c r="F199" s="5" t="s">
-        <v>457</v>
+        <v>413</v>
       </c>
       <c r="G199" s="1"/>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200" s="11" t="s">
-        <v>460</v>
+        <v>410</v>
       </c>
       <c r="B200" s="3" t="s">
-        <v>461</v>
+        <v>411</v>
       </c>
       <c r="C200" s="3" t="s">
-        <v>462</v>
+        <v>412</v>
       </c>
       <c r="D200" s="4">
-        <v>4301070911</v>
+        <v>4301135111</v>
       </c>
       <c r="E200" s="3">
-        <v>4607111036278</v>
+        <v>4607111035028</v>
       </c>
       <c r="F200" s="5" t="s">
-        <v>460</v>
+        <v>413</v>
       </c>
       <c r="G200" s="1"/>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A201" s="11" t="s">
-        <v>487</v>
+        <v>417</v>
       </c>
       <c r="B201" s="3" t="s">
-        <v>465</v>
+        <v>418</v>
       </c>
       <c r="C201" s="3" t="s">
-        <v>466</v>
+        <v>419</v>
       </c>
       <c r="D201" s="4">
-        <v>4301131019</v>
+        <v>4301130006</v>
       </c>
       <c r="E201" s="3">
-        <v>4640242180427</v>
+        <v>4607111034670</v>
       </c>
       <c r="F201" s="5" t="s">
-        <v>467</v>
+        <v>420</v>
       </c>
       <c r="G201" s="1"/>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A202" s="11" t="s">
+        <v>423</v>
+      </c>
+      <c r="B202" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="C202" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="D202" s="4">
+        <v>4301070768</v>
+      </c>
+      <c r="E202" s="3">
+        <v>4607111035639</v>
+      </c>
+      <c r="F202" s="5" t="s">
+        <v>426</v>
+      </c>
+      <c r="G202" s="1"/>
+    </row>
+    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A203" s="11" t="s">
+        <v>427</v>
+      </c>
+      <c r="B203" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="C203" s="3" t="s">
+        <v>429</v>
+      </c>
+      <c r="D203" s="4">
+        <v>4301070797</v>
+      </c>
+      <c r="E203" s="3">
+        <v>4607111035646</v>
+      </c>
+      <c r="F203" s="5" t="s">
+        <v>430</v>
+      </c>
+      <c r="G203" s="1"/>
+    </row>
+    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A204" s="11" t="s">
+        <v>441</v>
+      </c>
+      <c r="B204" s="3" t="s">
+        <v>442</v>
+      </c>
+      <c r="C204" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="D204" s="4">
+        <v>4301080154</v>
+      </c>
+      <c r="E204" s="3">
+        <v>4607111036834</v>
+      </c>
+      <c r="F204" s="5" t="s">
+        <v>444</v>
+      </c>
+      <c r="G204" s="1"/>
+    </row>
+    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A205" s="11" t="s">
+        <v>449</v>
+      </c>
+      <c r="B205" s="3" t="s">
+        <v>450</v>
+      </c>
+      <c r="C205" s="3" t="s">
+        <v>451</v>
+      </c>
+      <c r="D205" s="4">
+        <v>4301070941</v>
+      </c>
+      <c r="E205" s="3">
+        <v>4607111036162</v>
+      </c>
+      <c r="F205" s="5" t="s">
+        <v>452</v>
+      </c>
+      <c r="G205" s="1"/>
+    </row>
+    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A206" s="11" t="s">
+        <v>453</v>
+      </c>
+      <c r="B206" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="C206" s="3" t="s">
+        <v>455</v>
+      </c>
+      <c r="D206" s="4">
+        <v>4301070826</v>
+      </c>
+      <c r="E206" s="3">
+        <v>4607111035752</v>
+      </c>
+      <c r="F206" s="5" t="s">
+        <v>456</v>
+      </c>
+      <c r="G206" s="1"/>
+    </row>
+    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A207" s="11" t="s">
+        <v>496</v>
+      </c>
+      <c r="B207" s="3" t="s">
+        <v>458</v>
+      </c>
+      <c r="C207" s="3" t="s">
+        <v>459</v>
+      </c>
+      <c r="D207" s="4">
+        <v>4301070966</v>
+      </c>
+      <c r="E207" s="3">
+        <v>4607111038135</v>
+      </c>
+      <c r="F207" s="5" t="s">
+        <v>457</v>
+      </c>
+      <c r="G207" s="1"/>
+    </row>
+    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A208" s="11" t="s">
+        <v>457</v>
+      </c>
+      <c r="B208" s="3" t="s">
+        <v>458</v>
+      </c>
+      <c r="C208" s="3" t="s">
+        <v>459</v>
+      </c>
+      <c r="D208" s="4">
+        <v>4301070966</v>
+      </c>
+      <c r="E208" s="3">
+        <v>4607111038135</v>
+      </c>
+      <c r="F208" s="5" t="s">
+        <v>457</v>
+      </c>
+      <c r="G208" s="1"/>
+    </row>
+    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A209" s="11" t="s">
+        <v>460</v>
+      </c>
+      <c r="B209" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="C209" s="3" t="s">
+        <v>462</v>
+      </c>
+      <c r="D209" s="4">
+        <v>4301070911</v>
+      </c>
+      <c r="E209" s="3">
+        <v>4607111036278</v>
+      </c>
+      <c r="F209" s="5" t="s">
+        <v>460</v>
+      </c>
+      <c r="G209" s="1"/>
+    </row>
+    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A210" s="11" t="s">
+        <v>485</v>
+      </c>
+      <c r="B210" s="3" t="s">
+        <v>465</v>
+      </c>
+      <c r="C210" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="D210" s="4">
+        <v>4301131019</v>
+      </c>
+      <c r="E210" s="3">
+        <v>4640242180427</v>
+      </c>
+      <c r="F210" s="5" t="s">
+        <v>467</v>
+      </c>
+      <c r="G210" s="1"/>
+    </row>
+    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A211" s="11" t="s">
         <v>464</v>
       </c>
-      <c r="B202" s="3" t="s">
+      <c r="B211" s="3" t="s">
         <v>465</v>
       </c>
-      <c r="C202" s="3" t="s">
+      <c r="C211" s="3" t="s">
         <v>466</v>
       </c>
-      <c r="D202" s="4">
+      <c r="D211" s="4">
         <v>4301131019</v>
       </c>
-      <c r="E202" s="3">
+      <c r="E211" s="3">
         <v>4640242180427</v>
       </c>
-      <c r="F202" s="5" t="s">
+      <c r="F211" s="5" t="s">
         <v>467</v>
       </c>
-      <c r="G202" s="1"/>
-    </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A203" s="11"/>
-      <c r="B203" s="3"/>
-      <c r="C203" s="3"/>
-      <c r="D203" s="4"/>
-      <c r="E203" s="3"/>
-      <c r="F203" s="5"/>
-      <c r="G203" s="1"/>
-    </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A204" s="11"/>
-      <c r="B204" s="3"/>
-      <c r="C204" s="3"/>
-      <c r="D204" s="4"/>
-      <c r="E204" s="3"/>
-      <c r="F204" s="5"/>
-      <c r="G204" s="1"/>
-    </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A205" s="11"/>
-      <c r="B205" s="3"/>
-      <c r="C205" s="3"/>
-      <c r="D205" s="4"/>
-      <c r="E205" s="3"/>
-      <c r="F205" s="5"/>
-      <c r="G205" s="1"/>
-    </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A206" s="11"/>
-      <c r="B206" s="3"/>
-      <c r="C206" s="3"/>
-      <c r="D206" s="4"/>
-      <c r="E206" s="3"/>
-      <c r="F206" s="5"/>
-      <c r="G206" s="1"/>
-    </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A207" s="11"/>
-      <c r="B207" s="3"/>
-      <c r="C207" s="3"/>
-      <c r="D207" s="4"/>
-      <c r="E207" s="3"/>
-      <c r="F207" s="5"/>
-      <c r="G207" s="1"/>
-    </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A208" s="11"/>
-      <c r="B208" s="3"/>
-      <c r="C208" s="3"/>
-      <c r="D208" s="4"/>
-      <c r="E208" s="3"/>
-      <c r="F208" s="5"/>
-      <c r="G208" s="1"/>
-    </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A209" s="11"/>
-      <c r="B209" s="3"/>
-      <c r="C209" s="3"/>
-      <c r="D209" s="4"/>
-      <c r="E209" s="3"/>
-      <c r="F209" s="5"/>
-      <c r="G209" s="1"/>
-    </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A210" s="11"/>
-      <c r="B210" s="3"/>
-      <c r="C210" s="3"/>
-      <c r="D210" s="4"/>
-      <c r="E210" s="3"/>
-      <c r="F210" s="5"/>
-      <c r="G210" s="1"/>
-    </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A211" s="11"/>
-      <c r="B211" s="3"/>
-      <c r="C211" s="3"/>
-      <c r="D211" s="4"/>
-      <c r="E211" s="3"/>
-      <c r="F211" s="5"/>
       <c r="G211" s="1"/>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.25">
@@ -6363,11 +6498,11 @@
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A214" s="11"/>
-      <c r="B214" s="13"/>
-      <c r="C214" s="13"/>
-      <c r="D214" s="14"/>
-      <c r="E214" s="15"/>
-      <c r="F214" s="16"/>
+      <c r="B214" s="3"/>
+      <c r="C214" s="3"/>
+      <c r="D214" s="4"/>
+      <c r="E214" s="3"/>
+      <c r="F214" s="5"/>
       <c r="G214" s="1"/>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.25">
@@ -6512,7 +6647,7 @@
       <c r="D230" s="4"/>
       <c r="E230" s="3"/>
       <c r="F230" s="5"/>
-      <c r="G230" s="6"/>
+      <c r="G230" s="1"/>
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A231" s="11"/>
@@ -6525,11 +6660,11 @@
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A232" s="11"/>
-      <c r="B232" s="3"/>
-      <c r="C232" s="3"/>
-      <c r="D232" s="4"/>
-      <c r="E232" s="3"/>
-      <c r="F232" s="5"/>
+      <c r="B232" s="13"/>
+      <c r="C232" s="13"/>
+      <c r="D232" s="14"/>
+      <c r="E232" s="15"/>
+      <c r="F232" s="16"/>
       <c r="G232" s="1"/>
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.25">
@@ -6593,7 +6728,7 @@
       <c r="D239" s="4"/>
       <c r="E239" s="3"/>
       <c r="F239" s="5"/>
-      <c r="G239" s="1"/>
+      <c r="G239" s="6"/>
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A240" s="11"/>
@@ -7137,35 +7272,116 @@
     </row>
     <row r="300" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A300" s="11"/>
-      <c r="B300" s="1"/>
-      <c r="C300" s="1"/>
-      <c r="D300" s="1"/>
-      <c r="E300" s="1"/>
-      <c r="F300" s="1"/>
+      <c r="B300" s="3"/>
+      <c r="C300" s="3"/>
+      <c r="D300" s="4"/>
+      <c r="E300" s="3"/>
+      <c r="F300" s="5"/>
       <c r="G300" s="1"/>
     </row>
     <row r="301" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A301" s="11"/>
-      <c r="B301" s="1"/>
-      <c r="C301" s="1"/>
-      <c r="D301" s="1"/>
-      <c r="E301" s="1"/>
-      <c r="F301" s="1"/>
+      <c r="B301" s="3"/>
+      <c r="C301" s="3"/>
+      <c r="D301" s="4"/>
+      <c r="E301" s="3"/>
+      <c r="F301" s="5"/>
       <c r="G301" s="1"/>
     </row>
     <row r="302" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A302" s="11"/>
-      <c r="B302" s="1"/>
-      <c r="C302" s="1"/>
-      <c r="D302" s="1"/>
-      <c r="E302" s="1"/>
-      <c r="F302" s="1"/>
+      <c r="B302" s="3"/>
+      <c r="C302" s="3"/>
+      <c r="D302" s="4"/>
+      <c r="E302" s="3"/>
+      <c r="F302" s="5"/>
       <c r="G302" s="1"/>
     </row>
+    <row r="303" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A303" s="11"/>
+      <c r="B303" s="3"/>
+      <c r="C303" s="3"/>
+      <c r="D303" s="4"/>
+      <c r="E303" s="3"/>
+      <c r="F303" s="5"/>
+      <c r="G303" s="1"/>
+    </row>
+    <row r="304" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A304" s="11"/>
+      <c r="B304" s="3"/>
+      <c r="C304" s="3"/>
+      <c r="D304" s="4"/>
+      <c r="E304" s="3"/>
+      <c r="F304" s="5"/>
+      <c r="G304" s="1"/>
+    </row>
+    <row r="305" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A305" s="11"/>
+      <c r="B305" s="3"/>
+      <c r="C305" s="3"/>
+      <c r="D305" s="4"/>
+      <c r="E305" s="3"/>
+      <c r="F305" s="5"/>
+      <c r="G305" s="1"/>
+    </row>
+    <row r="306" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A306" s="11"/>
+      <c r="B306" s="3"/>
+      <c r="C306" s="3"/>
+      <c r="D306" s="4"/>
+      <c r="E306" s="3"/>
+      <c r="F306" s="5"/>
+      <c r="G306" s="1"/>
+    </row>
+    <row r="307" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A307" s="11"/>
+      <c r="B307" s="3"/>
+      <c r="C307" s="3"/>
+      <c r="D307" s="4"/>
+      <c r="E307" s="3"/>
+      <c r="F307" s="5"/>
+      <c r="G307" s="1"/>
+    </row>
+    <row r="308" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A308" s="11"/>
+      <c r="B308" s="3"/>
+      <c r="C308" s="3"/>
+      <c r="D308" s="4"/>
+      <c r="E308" s="3"/>
+      <c r="F308" s="5"/>
+      <c r="G308" s="1"/>
+    </row>
+    <row r="309" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A309" s="11"/>
+      <c r="B309" s="1"/>
+      <c r="C309" s="1"/>
+      <c r="D309" s="1"/>
+      <c r="E309" s="1"/>
+      <c r="F309" s="1"/>
+      <c r="G309" s="1"/>
+    </row>
+    <row r="310" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A310" s="11"/>
+      <c r="B310" s="1"/>
+      <c r="C310" s="1"/>
+      <c r="D310" s="1"/>
+      <c r="E310" s="1"/>
+      <c r="F310" s="1"/>
+      <c r="G310" s="1"/>
+    </row>
+    <row r="311" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A311" s="11"/>
+      <c r="B311" s="1"/>
+      <c r="C311" s="1"/>
+      <c r="D311" s="1"/>
+      <c r="E311" s="1"/>
+      <c r="F311" s="1"/>
+      <c r="G311" s="1"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:F202" xr:uid="{08353A06-E006-45C7-BD45-850F7C3953DF}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F174">
-      <sortCondition ref="A1:A121"/>
+  <autoFilter ref="A1:F211" xr:uid="{08353A06-E006-45C7-BD45-850F7C3953DF}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F179">
+      <sortCondition ref="A1:A123"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/moduls/1С.xlsx
+++ b/moduls/1С.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\перенос данных\ПОКОМ ЗПФ\pokom_zpf\moduls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B049D1D0-59FA-4B89-A67F-8CDD050E679F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{121A3AAB-9906-4EC4-AB34-F430A413D966}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$F$211</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$F$213</definedName>
   </definedNames>
   <calcPr calcId="181029" refMode="R1C1"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="913" uniqueCount="507">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="508">
   <si>
     <t>1С</t>
   </si>
@@ -583,9 +583,6 @@
     <t>SU002838</t>
   </si>
   <si>
-    <t>P003251</t>
-  </si>
-  <si>
     <t>Пельмени Бигбули #МЕГАМАСЛИЩЕ со сливочным маслом Бигбули ГШ ф/в 0,9 Горячая штучка</t>
   </si>
   <si>
@@ -1556,6 +1553,12 @@
   </si>
   <si>
     <t>Фрай-пицца с ветчиной и грибами ТМ Зареченские ТС Зареченские продукты.  Поком</t>
+  </si>
+  <si>
+    <t>Хинкали Классические ТМ Зареченские ВЕС ПОКОМ</t>
+  </si>
+  <si>
+    <t>Жар-ладушки с мясом ТМ Зареченские ТС Зареченские продукты.  Поком</t>
   </si>
 </sst>
 </file>
@@ -2030,11 +2033,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G311"/>
+  <dimension ref="A1:G313"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G6" sqref="G6"/>
+      <selection pane="bottomLeft" activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2070,7 +2073,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>155</v>
@@ -2091,7 +2094,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>155</v>
@@ -2154,13 +2157,13 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>258</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>259</v>
       </c>
       <c r="D6" s="4">
         <v>4301135113</v>
@@ -2169,19 +2172,19 @@
         <v>4607111033659</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G6" s="1"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B7" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>258</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>259</v>
       </c>
       <c r="D7" s="4">
         <v>4301135113</v>
@@ -2190,19 +2193,19 @@
         <v>4607111033659</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G7" s="1"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B8" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>258</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>259</v>
       </c>
       <c r="D8" s="4">
         <v>4301135113</v>
@@ -2211,13 +2214,13 @@
         <v>4607111033659</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G8" s="1"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>128</v>
@@ -2238,7 +2241,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>159</v>
@@ -2301,7 +2304,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>96</v>
@@ -2322,13 +2325,13 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B14" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>261</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>262</v>
       </c>
       <c r="D14" s="4">
         <v>4301135120</v>
@@ -2337,19 +2340,19 @@
         <v>4607111035141</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G14" s="1"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B15" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>261</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>262</v>
       </c>
       <c r="D15" s="4">
         <v>4301135120</v>
@@ -2358,7 +2361,7 @@
         <v>4607111035141</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G15" s="1"/>
     </row>
@@ -2406,7 +2409,7 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>99</v>
@@ -2469,13 +2472,13 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B21" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="C21" s="3" t="s">
         <v>205</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>206</v>
       </c>
       <c r="D21" s="4">
         <v>4301136013</v>
@@ -2484,19 +2487,19 @@
         <v>4607025784012</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G21" s="1"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B22" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="C22" s="3" t="s">
         <v>264</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>265</v>
       </c>
       <c r="D22" s="4">
         <v>4301136012</v>
@@ -2505,19 +2508,19 @@
         <v>4607025784319</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G22" s="1"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B23" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="C23" s="3" t="s">
         <v>264</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>265</v>
       </c>
       <c r="D23" s="4">
         <v>4301136012</v>
@@ -2526,19 +2529,19 @@
         <v>4607025784319</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G23" s="1"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="11" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B24" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="C24" s="3" t="s">
         <v>205</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>206</v>
       </c>
       <c r="D24" s="4">
         <v>4301136013</v>
@@ -2547,19 +2550,19 @@
         <v>4607025784012</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G24" s="1"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="11" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B25" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="C25" s="3" t="s">
         <v>205</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>206</v>
       </c>
       <c r="D25" s="4">
         <v>4301136013</v>
@@ -2568,19 +2571,19 @@
         <v>4607025784012</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G25" s="1"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="11" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B26" s="3" t="s">
+        <v>471</v>
+      </c>
+      <c r="C26" s="3" t="s">
         <v>472</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>473</v>
       </c>
       <c r="D26" s="4">
         <v>4301136029</v>
@@ -2589,7 +2592,7 @@
         <v>4640242180410</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="G26" s="1"/>
     </row>
@@ -2598,10 +2601,10 @@
         <v>162</v>
       </c>
       <c r="B27" s="3" t="s">
+        <v>471</v>
+      </c>
+      <c r="C27" s="3" t="s">
         <v>472</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>473</v>
       </c>
       <c r="D27" s="4">
         <v>4301136029</v>
@@ -2610,7 +2613,7 @@
         <v>4640242180410</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="G27" s="1"/>
     </row>
@@ -2619,10 +2622,10 @@
         <v>163</v>
       </c>
       <c r="B28" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="C28" s="3" t="s">
         <v>386</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>387</v>
       </c>
       <c r="D28" s="4">
         <v>4301135191</v>
@@ -2631,7 +2634,7 @@
         <v>4640242180373</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="G28" s="1"/>
     </row>
@@ -2640,10 +2643,10 @@
         <v>137</v>
       </c>
       <c r="B29" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="C29" s="3" t="s">
         <v>386</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>387</v>
       </c>
       <c r="D29" s="4">
         <v>4301135191</v>
@@ -2652,19 +2655,19 @@
         <v>4640242180373</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="G29" s="1"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="11" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B30" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="C30" s="3" t="s">
         <v>350</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>351</v>
       </c>
       <c r="D30" s="4">
         <v>4301135195</v>
@@ -2673,19 +2676,19 @@
         <v>4640242180366</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G30" s="1"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="11" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B31" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="C31" s="3" t="s">
         <v>350</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>351</v>
       </c>
       <c r="D31" s="4">
         <v>4301135195</v>
@@ -2694,7 +2697,7 @@
         <v>4640242180366</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G31" s="1"/>
     </row>
@@ -2703,10 +2706,10 @@
         <v>164</v>
       </c>
       <c r="B32" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="C32" s="3" t="s">
         <v>350</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>351</v>
       </c>
       <c r="D32" s="4">
         <v>4301135195</v>
@@ -2715,19 +2718,19 @@
         <v>4640242180366</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G32" s="1"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="11" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B33" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="C33" s="3" t="s">
         <v>353</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>354</v>
       </c>
       <c r="D33" s="4">
         <v>4301135189</v>
@@ -2736,19 +2739,19 @@
         <v>4640242180342</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G33" s="1"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="11" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B34" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="C34" s="3" t="s">
         <v>353</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>354</v>
       </c>
       <c r="D34" s="4">
         <v>4301135189</v>
@@ -2757,7 +2760,7 @@
         <v>4640242180342</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G34" s="1"/>
     </row>
@@ -2766,10 +2769,10 @@
         <v>165</v>
       </c>
       <c r="B35" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="C35" s="3" t="s">
         <v>353</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>354</v>
       </c>
       <c r="D35" s="4">
         <v>4301135189</v>
@@ -2778,19 +2781,19 @@
         <v>4640242180342</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G35" s="1"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="11" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B36" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="C36" s="3" t="s">
         <v>356</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>357</v>
       </c>
       <c r="D36" s="4">
         <v>4301135188</v>
@@ -2799,19 +2802,19 @@
         <v>4640242180335</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="G36" s="1"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="11" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B37" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="C37" s="3" t="s">
         <v>356</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>357</v>
       </c>
       <c r="D37" s="4">
         <v>4301135188</v>
@@ -2820,19 +2823,19 @@
         <v>4640242180335</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="G37" s="1"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="11" t="s">
-        <v>166</v>
+        <v>507</v>
       </c>
       <c r="B38" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="C38" s="3" t="s">
         <v>356</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>357</v>
       </c>
       <c r="D38" s="4">
         <v>4301135188</v>
@@ -2841,40 +2844,40 @@
         <v>4640242180335</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="G38" s="1"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="11" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>380</v>
+        <v>355</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>381</v>
+        <v>356</v>
       </c>
       <c r="D39" s="4">
-        <v>4301135190</v>
+        <v>4301135188</v>
       </c>
       <c r="E39" s="3">
-        <v>4640242180359</v>
+        <v>4640242180335</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>382</v>
+        <v>357</v>
       </c>
       <c r="G39" s="1"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="11" t="s">
-        <v>488</v>
+        <v>167</v>
       </c>
       <c r="B40" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="C40" s="3" t="s">
         <v>380</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>381</v>
       </c>
       <c r="D40" s="4">
         <v>4301135190</v>
@@ -2883,19 +2886,19 @@
         <v>4640242180359</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="G40" s="1"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="11" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="B41" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="C41" s="3" t="s">
         <v>380</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>381</v>
       </c>
       <c r="D41" s="4">
         <v>4301135190</v>
@@ -2904,19 +2907,19 @@
         <v>4640242180359</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="G41" s="1"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="11" t="s">
-        <v>138</v>
+        <v>490</v>
       </c>
       <c r="B42" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="C42" s="3" t="s">
         <v>380</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>381</v>
       </c>
       <c r="D42" s="4">
         <v>4301135190</v>
@@ -2925,40 +2928,40 @@
         <v>4640242180359</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="G42" s="1"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="11" t="s">
-        <v>91</v>
+        <v>138</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>368</v>
+        <v>379</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>369</v>
+        <v>380</v>
       </c>
       <c r="D43" s="4">
-        <v>4301135186</v>
+        <v>4301135190</v>
       </c>
       <c r="E43" s="3">
-        <v>4640242180311</v>
+        <v>4640242180359</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>370</v>
-      </c>
-      <c r="G43" s="6"/>
+        <v>381</v>
+      </c>
+      <c r="G43" s="1"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="11" t="s">
-        <v>391</v>
+        <v>91</v>
       </c>
       <c r="B44" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="C44" s="3" t="s">
         <v>368</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>369</v>
       </c>
       <c r="D44" s="4">
         <v>4301135186</v>
@@ -2967,19 +2970,19 @@
         <v>4640242180311</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="G44" s="6"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="11" t="s">
-        <v>480</v>
+        <v>390</v>
       </c>
       <c r="B45" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="C45" s="3" t="s">
         <v>368</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>369</v>
       </c>
       <c r="D45" s="4">
         <v>4301135186</v>
@@ -2988,19 +2991,19 @@
         <v>4640242180311</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="G45" s="6"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="11" t="s">
-        <v>470</v>
+        <v>479</v>
       </c>
       <c r="B46" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="C46" s="3" t="s">
         <v>368</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>369</v>
       </c>
       <c r="D46" s="4">
         <v>4301135186</v>
@@ -3009,19 +3012,19 @@
         <v>4640242180311</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="G46" s="6"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="11" t="s">
-        <v>234</v>
+        <v>469</v>
       </c>
       <c r="B47" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="C47" s="3" t="s">
         <v>368</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>369</v>
       </c>
       <c r="D47" s="4">
         <v>4301135186</v>
@@ -3030,40 +3033,40 @@
         <v>4640242180311</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>370</v>
-      </c>
-      <c r="G47" s="1"/>
+        <v>369</v>
+      </c>
+      <c r="G47" s="6"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="11" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>359</v>
+        <v>367</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>360</v>
+        <v>368</v>
       </c>
       <c r="D48" s="4">
-        <v>4301135187</v>
+        <v>4301135186</v>
       </c>
       <c r="E48" s="3">
-        <v>4640242180328</v>
+        <v>4640242180311</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>361</v>
+        <v>369</v>
       </c>
       <c r="G48" s="1"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="11" t="s">
-        <v>209</v>
+        <v>234</v>
       </c>
       <c r="B49" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="C49" s="3" t="s">
         <v>359</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>360</v>
       </c>
       <c r="D49" s="4">
         <v>4301135187</v>
@@ -3072,40 +3075,40 @@
         <v>4640242180328</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="G49" s="1"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="11" t="s">
-        <v>236</v>
+        <v>208</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>304</v>
+        <v>358</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>305</v>
+        <v>359</v>
       </c>
       <c r="D50" s="4">
-        <v>4301135115</v>
+        <v>4301135187</v>
       </c>
       <c r="E50" s="3">
-        <v>4607111034380</v>
+        <v>4640242180328</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>306</v>
+        <v>360</v>
       </c>
       <c r="G50" s="1"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="11" t="s">
-        <v>168</v>
+        <v>235</v>
       </c>
       <c r="B51" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="C51" s="3" t="s">
         <v>304</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>305</v>
       </c>
       <c r="D51" s="4">
         <v>4301135115</v>
@@ -3114,40 +3117,40 @@
         <v>4607111034380</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="G51" s="1"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="11" t="s">
-        <v>288</v>
+        <v>168</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>317</v>
+        <v>303</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>318</v>
+        <v>304</v>
       </c>
       <c r="D52" s="4">
-        <v>4301135114</v>
+        <v>4301135115</v>
       </c>
       <c r="E52" s="3">
-        <v>4607111034397</v>
+        <v>4607111034380</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>319</v>
+        <v>305</v>
       </c>
       <c r="G52" s="1"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="11" t="s">
-        <v>237</v>
+        <v>287</v>
       </c>
       <c r="B53" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="C53" s="3" t="s">
         <v>317</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>318</v>
       </c>
       <c r="D53" s="4">
         <v>4301135114</v>
@@ -3156,19 +3159,19 @@
         <v>4607111034397</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="G53" s="1"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="11" t="s">
-        <v>75</v>
+        <v>236</v>
       </c>
       <c r="B54" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="C54" s="3" t="s">
         <v>317</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>318</v>
       </c>
       <c r="D54" s="4">
         <v>4301135114</v>
@@ -3177,40 +3180,40 @@
         <v>4607111034397</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="G54" s="1"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="11" t="s">
-        <v>139</v>
+        <v>75</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>289</v>
+        <v>316</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>290</v>
+        <v>317</v>
       </c>
       <c r="D55" s="4">
-        <v>4301131012</v>
+        <v>4301135114</v>
       </c>
       <c r="E55" s="3">
-        <v>4607111034137</v>
+        <v>4607111034397</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>144</v>
+        <v>318</v>
       </c>
       <c r="G55" s="1"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="11" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="B56" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="C56" s="3" t="s">
         <v>289</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>290</v>
       </c>
       <c r="D56" s="4">
         <v>4301131012</v>
@@ -3225,13 +3228,13 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="11" t="s">
-        <v>238</v>
+        <v>144</v>
       </c>
       <c r="B57" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="C57" s="3" t="s">
         <v>289</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>290</v>
       </c>
       <c r="D57" s="4">
         <v>4301131012</v>
@@ -3246,28 +3249,28 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="11" t="s">
-        <v>140</v>
+        <v>237</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>145</v>
+        <v>288</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>146</v>
+        <v>289</v>
       </c>
       <c r="D58" s="4">
-        <v>4301131011</v>
+        <v>4301131012</v>
       </c>
       <c r="E58" s="3">
-        <v>4607111034120</v>
+        <v>4607111034137</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="G58" s="6"/>
+        <v>144</v>
+      </c>
+      <c r="G58" s="1"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="11" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="B59" s="3" t="s">
         <v>145</v>
@@ -3288,7 +3291,7 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="11" t="s">
-        <v>239</v>
+        <v>147</v>
       </c>
       <c r="B60" s="3" t="s">
         <v>145</v>
@@ -3305,38 +3308,38 @@
       <c r="F60" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="G60" s="1"/>
+      <c r="G60" s="6"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="11" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>362</v>
+        <v>145</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>363</v>
+        <v>146</v>
       </c>
       <c r="D61" s="4">
-        <v>4301135192</v>
+        <v>4301131011</v>
       </c>
       <c r="E61" s="3">
-        <v>4640242180380</v>
+        <v>4607111034120</v>
       </c>
       <c r="F61" s="5" t="s">
-        <v>364</v>
+        <v>147</v>
       </c>
       <c r="G61" s="1"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="11" t="s">
-        <v>286</v>
+        <v>239</v>
       </c>
       <c r="B62" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="C62" s="3" t="s">
         <v>362</v>
-      </c>
-      <c r="C62" s="3" t="s">
-        <v>363</v>
       </c>
       <c r="D62" s="4">
         <v>4301135192</v>
@@ -3345,19 +3348,19 @@
         <v>4640242180380</v>
       </c>
       <c r="F62" s="5" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="G62" s="1"/>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="11" t="s">
-        <v>435</v>
+        <v>285</v>
       </c>
       <c r="B63" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="C63" s="3" t="s">
         <v>362</v>
-      </c>
-      <c r="C63" s="3" t="s">
-        <v>363</v>
       </c>
       <c r="D63" s="4">
         <v>4301135192</v>
@@ -3366,19 +3369,19 @@
         <v>4640242180380</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="G63" s="1"/>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="11" t="s">
-        <v>463</v>
+        <v>434</v>
       </c>
       <c r="B64" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="C64" s="3" t="s">
         <v>362</v>
-      </c>
-      <c r="C64" s="3" t="s">
-        <v>363</v>
       </c>
       <c r="D64" s="4">
         <v>4301135192</v>
@@ -3387,19 +3390,19 @@
         <v>4640242180380</v>
       </c>
       <c r="F64" s="5" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="G64" s="1"/>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="11" t="s">
-        <v>76</v>
+        <v>462</v>
       </c>
       <c r="B65" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="C65" s="3" t="s">
         <v>362</v>
-      </c>
-      <c r="C65" s="3" t="s">
-        <v>363</v>
       </c>
       <c r="D65" s="4">
         <v>4301135192</v>
@@ -3408,40 +3411,40 @@
         <v>4640242180380</v>
       </c>
       <c r="F65" s="5" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="G65" s="1"/>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="11" t="s">
-        <v>269</v>
+        <v>76</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>267</v>
+        <v>361</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>268</v>
+        <v>362</v>
       </c>
       <c r="D66" s="4">
-        <v>4301132066</v>
+        <v>4301135192</v>
       </c>
       <c r="E66" s="3">
-        <v>4607111036520</v>
+        <v>4640242180380</v>
       </c>
       <c r="F66" s="5" t="s">
-        <v>269</v>
+        <v>363</v>
       </c>
       <c r="G66" s="1"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="11" t="s">
-        <v>396</v>
+        <v>268</v>
       </c>
       <c r="B67" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="C67" s="3" t="s">
         <v>267</v>
-      </c>
-      <c r="C67" s="3" t="s">
-        <v>268</v>
       </c>
       <c r="D67" s="4">
         <v>4301132066</v>
@@ -3450,19 +3453,19 @@
         <v>4607111036520</v>
       </c>
       <c r="F67" s="5" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G67" s="1"/>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="11" t="s">
-        <v>241</v>
+        <v>395</v>
       </c>
       <c r="B68" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="C68" s="3" t="s">
         <v>267</v>
-      </c>
-      <c r="C68" s="3" t="s">
-        <v>268</v>
       </c>
       <c r="D68" s="4">
         <v>4301132066</v>
@@ -3471,61 +3474,61 @@
         <v>4607111036520</v>
       </c>
       <c r="F68" s="5" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G68" s="1"/>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="11" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B69" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="D69" s="4">
+        <v>4301132066</v>
+      </c>
+      <c r="E69" s="3">
+        <v>4607111036520</v>
+      </c>
+      <c r="F69" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="G69" s="1"/>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70" s="11" t="s">
+        <v>241</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="C70" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="C69" s="3" t="s">
+      <c r="D70" s="4">
+        <v>4301132065</v>
+      </c>
+      <c r="E70" s="3">
+        <v>4607111036599</v>
+      </c>
+      <c r="F70" s="5" t="s">
         <v>271</v>
-      </c>
-      <c r="D69" s="4">
-        <v>4301132065</v>
-      </c>
-      <c r="E69" s="3">
-        <v>4607111036599</v>
-      </c>
-      <c r="F69" s="5" t="s">
-        <v>272</v>
-      </c>
-      <c r="G69" s="1"/>
-    </row>
-    <row r="70" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A70" s="11" t="s">
-        <v>504</v>
-      </c>
-      <c r="B70" s="3" t="s">
-        <v>273</v>
-      </c>
-      <c r="C70" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="D70" s="4">
-        <v>4301132063</v>
-      </c>
-      <c r="E70" s="3">
-        <v>4607111036605</v>
-      </c>
-      <c r="F70" s="5" t="s">
-        <v>275</v>
       </c>
       <c r="G70" s="1"/>
     </row>
     <row r="71" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A71" s="11" t="s">
-        <v>243</v>
+        <v>503</v>
       </c>
       <c r="B71" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="C71" s="3" t="s">
         <v>273</v>
-      </c>
-      <c r="C71" s="3" t="s">
-        <v>274</v>
       </c>
       <c r="D71" s="4">
         <v>4301132063</v>
@@ -3534,34 +3537,34 @@
         <v>4607111036605</v>
       </c>
       <c r="F71" s="5" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G71" s="1"/>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A72" s="11" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>102</v>
+        <v>272</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>103</v>
+        <v>273</v>
       </c>
       <c r="D72" s="4">
-        <v>4301132046</v>
+        <v>4301132063</v>
       </c>
       <c r="E72" s="3">
-        <v>4607111035691</v>
+        <v>4607111036605</v>
       </c>
       <c r="F72" s="5" t="s">
-        <v>104</v>
+        <v>274</v>
       </c>
       <c r="G72" s="1"/>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="11" t="s">
-        <v>104</v>
+        <v>243</v>
       </c>
       <c r="B73" s="3" t="s">
         <v>102</v>
@@ -3582,7 +3585,7 @@
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="11" t="s">
-        <v>77</v>
+        <v>104</v>
       </c>
       <c r="B74" s="3" t="s">
         <v>102</v>
@@ -3603,28 +3606,28 @@
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="11" t="s">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D75" s="4">
-        <v>4301132064</v>
+        <v>4301132046</v>
       </c>
       <c r="E75" s="3">
-        <v>4607111036537</v>
+        <v>4607111035691</v>
       </c>
       <c r="F75" s="5" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="G75" s="1"/>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="11" t="s">
-        <v>78</v>
+        <v>107</v>
       </c>
       <c r="B76" s="3" t="s">
         <v>105</v>
@@ -3645,55 +3648,55 @@
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D77" s="4">
-        <v>4301132048</v>
+        <v>4301132064</v>
       </c>
       <c r="E77" s="3">
-        <v>4607111035721</v>
+        <v>4607111036537</v>
       </c>
       <c r="F77" s="5" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G77" s="1"/>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="11" t="s">
-        <v>469</v>
+        <v>79</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>365</v>
+        <v>108</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>366</v>
+        <v>109</v>
       </c>
       <c r="D78" s="4">
-        <v>4301132080</v>
+        <v>4301132048</v>
       </c>
       <c r="E78" s="3">
-        <v>4640242180397</v>
+        <v>4607111035721</v>
       </c>
       <c r="F78" s="5" t="s">
-        <v>367</v>
+        <v>110</v>
       </c>
       <c r="G78" s="1"/>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="11" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="B79" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="C79" s="3" t="s">
         <v>365</v>
-      </c>
-      <c r="C79" s="3" t="s">
-        <v>366</v>
       </c>
       <c r="D79" s="4">
         <v>4301132080</v>
@@ -3702,19 +3705,19 @@
         <v>4640242180397</v>
       </c>
       <c r="F79" s="5" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="G79" s="1"/>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="11" t="s">
-        <v>481</v>
+        <v>470</v>
       </c>
       <c r="B80" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="C80" s="3" t="s">
         <v>365</v>
-      </c>
-      <c r="C80" s="3" t="s">
-        <v>366</v>
       </c>
       <c r="D80" s="4">
         <v>4301132080</v>
@@ -3723,19 +3726,19 @@
         <v>4640242180397</v>
       </c>
       <c r="F80" s="5" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="G80" s="1"/>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="11" t="s">
-        <v>80</v>
+        <v>480</v>
       </c>
       <c r="B81" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="C81" s="3" t="s">
         <v>365</v>
-      </c>
-      <c r="C81" s="3" t="s">
-        <v>366</v>
       </c>
       <c r="D81" s="4">
         <v>4301132080</v>
@@ -3744,40 +3747,40 @@
         <v>4640242180397</v>
       </c>
       <c r="F81" s="5" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="G81" s="1"/>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="11" t="s">
-        <v>422</v>
+        <v>80</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>276</v>
+        <v>364</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>277</v>
+        <v>365</v>
       </c>
       <c r="D82" s="4">
-        <v>4301135134</v>
+        <v>4301132080</v>
       </c>
       <c r="E82" s="3">
-        <v>4607111035806</v>
+        <v>4640242180397</v>
       </c>
       <c r="F82" s="5" t="s">
-        <v>278</v>
+        <v>366</v>
       </c>
       <c r="G82" s="1"/>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="11" t="s">
-        <v>434</v>
+        <v>421</v>
       </c>
       <c r="B83" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="C83" s="3" t="s">
         <v>276</v>
-      </c>
-      <c r="C83" s="3" t="s">
-        <v>277</v>
       </c>
       <c r="D83" s="4">
         <v>4301135134</v>
@@ -3786,19 +3789,19 @@
         <v>4607111035806</v>
       </c>
       <c r="F83" s="5" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="G83" s="1"/>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="11" t="s">
-        <v>245</v>
+        <v>433</v>
       </c>
       <c r="B84" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="C84" s="3" t="s">
         <v>276</v>
-      </c>
-      <c r="C84" s="3" t="s">
-        <v>277</v>
       </c>
       <c r="D84" s="4">
         <v>4301135134</v>
@@ -3807,61 +3810,61 @@
         <v>4607111035806</v>
       </c>
       <c r="F84" s="5" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="G84" s="1"/>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="11" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>170</v>
+        <v>275</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>171</v>
+        <v>276</v>
       </c>
       <c r="D85" s="4">
-        <v>4301070935</v>
+        <v>4301135134</v>
       </c>
       <c r="E85" s="3">
-        <v>4607111037190</v>
+        <v>4607111035806</v>
       </c>
       <c r="F85" s="5" t="s">
-        <v>172</v>
+        <v>277</v>
       </c>
       <c r="G85" s="1"/>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="11" t="s">
-        <v>397</v>
+        <v>245</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>279</v>
+        <v>170</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>280</v>
+        <v>171</v>
       </c>
       <c r="D86" s="4">
-        <v>4301070865</v>
+        <v>4301070935</v>
       </c>
       <c r="E86" s="3">
-        <v>4607111036285</v>
+        <v>4607111037190</v>
       </c>
       <c r="F86" s="5" t="s">
-        <v>281</v>
+        <v>172</v>
       </c>
       <c r="G86" s="1"/>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="11" t="s">
-        <v>447</v>
+        <v>396</v>
       </c>
       <c r="B87" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="C87" s="3" t="s">
         <v>279</v>
-      </c>
-      <c r="C87" s="3" t="s">
-        <v>280</v>
       </c>
       <c r="D87" s="4">
         <v>4301070865</v>
@@ -3870,19 +3873,19 @@
         <v>4607111036285</v>
       </c>
       <c r="F87" s="5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G87" s="1"/>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="11" t="s">
-        <v>281</v>
+        <v>446</v>
       </c>
       <c r="B88" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="C88" s="3" t="s">
         <v>279</v>
-      </c>
-      <c r="C88" s="3" t="s">
-        <v>280</v>
       </c>
       <c r="D88" s="4">
         <v>4301070865</v>
@@ -3891,19 +3894,19 @@
         <v>4607111036285</v>
       </c>
       <c r="F88" s="5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G88" s="1"/>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="11" t="s">
-        <v>247</v>
+        <v>280</v>
       </c>
       <c r="B89" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="C89" s="3" t="s">
         <v>279</v>
-      </c>
-      <c r="C89" s="3" t="s">
-        <v>280</v>
       </c>
       <c r="D89" s="4">
         <v>4301070865</v>
@@ -3912,40 +3915,40 @@
         <v>4607111036285</v>
       </c>
       <c r="F89" s="5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G89" s="1"/>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="11" t="s">
-        <v>179</v>
+        <v>246</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>178</v>
+        <v>278</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>348</v>
+        <v>279</v>
       </c>
       <c r="D90" s="4">
-        <v>4301070970</v>
+        <v>4301070865</v>
       </c>
       <c r="E90" s="3">
-        <v>4607111037091</v>
+        <v>4607111036285</v>
       </c>
       <c r="F90" s="5" t="s">
-        <v>349</v>
-      </c>
-      <c r="G90" s="6"/>
+        <v>280</v>
+      </c>
+      <c r="G90" s="1"/>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="11" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B91" s="3" t="s">
         <v>178</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D91" s="4">
         <v>4301070970</v>
@@ -3954,19 +3957,19 @@
         <v>4607111037091</v>
       </c>
       <c r="F91" s="5" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G91" s="6"/>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="11" t="s">
-        <v>339</v>
+        <v>177</v>
       </c>
       <c r="B92" s="3" t="s">
         <v>178</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D92" s="4">
         <v>4301070970</v>
@@ -3975,19 +3978,19 @@
         <v>4607111037091</v>
       </c>
       <c r="F92" s="5" t="s">
-        <v>349</v>
-      </c>
-      <c r="G92" s="1"/>
+        <v>348</v>
+      </c>
+      <c r="G92" s="6"/>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="11" t="s">
-        <v>248</v>
+        <v>338</v>
       </c>
       <c r="B93" s="3" t="s">
         <v>178</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D93" s="4">
         <v>4301070970</v>
@@ -3996,40 +3999,40 @@
         <v>4607111037091</v>
       </c>
       <c r="F93" s="5" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G93" s="1"/>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="11" t="s">
-        <v>87</v>
+        <v>247</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>119</v>
+        <v>178</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>336</v>
+        <v>347</v>
       </c>
       <c r="D94" s="4">
-        <v>4301070973</v>
+        <v>4301070970</v>
       </c>
       <c r="E94" s="3">
-        <v>4607111033987</v>
+        <v>4607111037091</v>
       </c>
       <c r="F94" s="5" t="s">
-        <v>337</v>
-      </c>
-      <c r="G94" s="6"/>
+        <v>348</v>
+      </c>
+      <c r="G94" s="1"/>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="11" t="s">
-        <v>337</v>
+        <v>87</v>
       </c>
       <c r="B95" s="3" t="s">
         <v>119</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D95" s="4">
         <v>4301070973</v>
@@ -4038,19 +4041,19 @@
         <v>4607111033987</v>
       </c>
       <c r="F95" s="5" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G95" s="6"/>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="11" t="s">
-        <v>250</v>
+        <v>336</v>
       </c>
       <c r="B96" s="3" t="s">
         <v>119</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D96" s="4">
         <v>4301070973</v>
@@ -4059,40 +4062,40 @@
         <v>4607111033987</v>
       </c>
       <c r="F96" s="5" t="s">
-        <v>337</v>
-      </c>
-      <c r="G96" s="1"/>
+        <v>336</v>
+      </c>
+      <c r="G96" s="6"/>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="11" t="s">
-        <v>446</v>
+        <v>249</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>282</v>
+        <v>119</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>283</v>
+        <v>335</v>
       </c>
       <c r="D97" s="4">
-        <v>4301070861</v>
+        <v>4301070973</v>
       </c>
       <c r="E97" s="3">
-        <v>4607111036308</v>
+        <v>4607111033987</v>
       </c>
       <c r="F97" s="5" t="s">
-        <v>284</v>
+        <v>336</v>
       </c>
       <c r="G97" s="1"/>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="11" t="s">
-        <v>251</v>
+        <v>445</v>
       </c>
       <c r="B98" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="C98" s="3" t="s">
         <v>282</v>
-      </c>
-      <c r="C98" s="3" t="s">
-        <v>283</v>
       </c>
       <c r="D98" s="4">
         <v>4301070861</v>
@@ -4101,34 +4104,34 @@
         <v>4607111036308</v>
       </c>
       <c r="F98" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G98" s="1"/>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="11" t="s">
-        <v>81</v>
+        <v>250</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>111</v>
+        <v>281</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>112</v>
+        <v>282</v>
       </c>
       <c r="D99" s="4">
-        <v>4301070864</v>
+        <v>4301070861</v>
       </c>
       <c r="E99" s="3">
-        <v>4607111036292</v>
+        <v>4607111036308</v>
       </c>
       <c r="F99" s="5" t="s">
-        <v>113</v>
+        <v>283</v>
       </c>
       <c r="G99" s="1"/>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="11" t="s">
-        <v>448</v>
+        <v>81</v>
       </c>
       <c r="B100" s="3" t="s">
         <v>111</v>
@@ -4149,7 +4152,7 @@
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="11" t="s">
-        <v>252</v>
+        <v>447</v>
       </c>
       <c r="B101" s="3" t="s">
         <v>111</v>
@@ -4170,55 +4173,55 @@
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="11" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>174</v>
+        <v>111</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>344</v>
+        <v>112</v>
       </c>
       <c r="D102" s="4">
-        <v>4301070972</v>
+        <v>4301070864</v>
       </c>
       <c r="E102" s="3">
-        <v>4607111037183</v>
+        <v>4607111036292</v>
       </c>
       <c r="F102" s="5" t="s">
-        <v>345</v>
+        <v>113</v>
       </c>
       <c r="G102" s="1"/>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="11" t="s">
-        <v>86</v>
+        <v>252</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>118</v>
+        <v>174</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>332</v>
+        <v>343</v>
       </c>
       <c r="D103" s="4">
-        <v>4301070974</v>
+        <v>4301070972</v>
       </c>
       <c r="E103" s="3">
-        <v>4607111034151</v>
+        <v>4607111037183</v>
       </c>
       <c r="F103" s="5" t="s">
-        <v>333</v>
-      </c>
-      <c r="G103" s="6"/>
+        <v>344</v>
+      </c>
+      <c r="G103" s="1"/>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="11" t="s">
-        <v>333</v>
+        <v>86</v>
       </c>
       <c r="B104" s="3" t="s">
         <v>118</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D104" s="4">
         <v>4301070974</v>
@@ -4227,19 +4230,19 @@
         <v>4607111034151</v>
       </c>
       <c r="F104" s="5" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="G104" s="6"/>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="11" t="s">
-        <v>255</v>
+        <v>332</v>
       </c>
       <c r="B105" s="3" t="s">
         <v>118</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D105" s="4">
         <v>4301070974</v>
@@ -4248,145 +4251,145 @@
         <v>4607111034151</v>
       </c>
       <c r="F105" s="5" t="s">
-        <v>333</v>
-      </c>
-      <c r="G105" s="1"/>
+        <v>332</v>
+      </c>
+      <c r="G105" s="6"/>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="11" t="s">
-        <v>169</v>
+        <v>254</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>170</v>
+        <v>118</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>171</v>
+        <v>331</v>
       </c>
       <c r="D106" s="4">
-        <v>4301070935</v>
+        <v>4301070974</v>
       </c>
       <c r="E106" s="3">
-        <v>4607111037190</v>
+        <v>4607111034151</v>
       </c>
       <c r="F106" s="5" t="s">
-        <v>172</v>
+        <v>332</v>
       </c>
       <c r="G106" s="1"/>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="11" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>344</v>
+        <v>171</v>
       </c>
       <c r="D107" s="4">
-        <v>4301070972</v>
+        <v>4301070935</v>
       </c>
       <c r="E107" s="3">
-        <v>4607111037183</v>
+        <v>4607111037190</v>
       </c>
       <c r="F107" s="5" t="s">
-        <v>345</v>
+        <v>172</v>
       </c>
       <c r="G107" s="1"/>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="11" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="D108" s="4">
-        <v>4301070969</v>
+        <v>4301070972</v>
       </c>
       <c r="E108" s="3">
-        <v>4607111036858</v>
+        <v>4607111037183</v>
       </c>
       <c r="F108" s="5" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="G108" s="1"/>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="11" t="s">
-        <v>82</v>
+        <v>175</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>114</v>
+        <v>176</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>499</v>
+        <v>345</v>
       </c>
       <c r="D109" s="4">
-        <v>4301070968</v>
+        <v>4301070969</v>
       </c>
       <c r="E109" s="3">
-        <v>4607111036889</v>
+        <v>4607111036858</v>
       </c>
       <c r="F109" s="5" t="s">
-        <v>500</v>
-      </c>
-      <c r="G109" s="6"/>
+        <v>346</v>
+      </c>
+      <c r="G109" s="1"/>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="11" t="s">
-        <v>183</v>
+        <v>82</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>181</v>
+        <v>114</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>182</v>
+        <v>498</v>
       </c>
       <c r="D110" s="4">
-        <v>4301070944</v>
+        <v>4301070968</v>
       </c>
       <c r="E110" s="3">
-        <v>4607111036902</v>
+        <v>4607111036889</v>
       </c>
       <c r="F110" s="5" t="s">
-        <v>183</v>
+        <v>499</v>
       </c>
       <c r="G110" s="6"/>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="11" t="s">
-        <v>338</v>
+        <v>182</v>
       </c>
       <c r="B111" s="3" t="s">
         <v>181</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>182</v>
+        <v>474</v>
       </c>
       <c r="D111" s="4">
-        <v>4301070944</v>
+        <v>4301070971</v>
       </c>
       <c r="E111" s="3">
         <v>4607111036902</v>
       </c>
       <c r="F111" s="5" t="s">
-        <v>183</v>
+        <v>475</v>
       </c>
       <c r="G111" s="6"/>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="11" t="s">
-        <v>180</v>
+        <v>337</v>
       </c>
       <c r="B112" s="3" t="s">
         <v>181</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="D112" s="4">
         <v>4301070971</v>
@@ -4395,40 +4398,40 @@
         <v>4607111036902</v>
       </c>
       <c r="F112" s="5" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="G112" s="6"/>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="11" t="s">
-        <v>293</v>
+        <v>180</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>115</v>
+        <v>181</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>325</v>
+        <v>474</v>
       </c>
       <c r="D113" s="4">
-        <v>4301070976</v>
+        <v>4301070971</v>
       </c>
       <c r="E113" s="3">
-        <v>4607111034144</v>
+        <v>4607111036902</v>
       </c>
       <c r="F113" s="5" t="s">
-        <v>326</v>
+        <v>475</v>
       </c>
       <c r="G113" s="6"/>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="11" t="s">
-        <v>254</v>
+        <v>292</v>
       </c>
       <c r="B114" s="3" t="s">
         <v>115</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D114" s="4">
         <v>4301070976</v>
@@ -4437,19 +4440,19 @@
         <v>4607111034144</v>
       </c>
       <c r="F114" s="5" t="s">
-        <v>326</v>
-      </c>
-      <c r="G114" s="1"/>
+        <v>325</v>
+      </c>
+      <c r="G114" s="6"/>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="11" t="s">
-        <v>326</v>
+        <v>253</v>
       </c>
       <c r="B115" s="3" t="s">
         <v>115</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D115" s="4">
         <v>4301070976</v>
@@ -4458,19 +4461,19 @@
         <v>4607111034144</v>
       </c>
       <c r="F115" s="5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G115" s="1"/>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="11" t="s">
-        <v>83</v>
+        <v>325</v>
       </c>
       <c r="B116" s="3" t="s">
         <v>115</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D116" s="4">
         <v>4301070976</v>
@@ -4479,40 +4482,40 @@
         <v>4607111034144</v>
       </c>
       <c r="F116" s="5" t="s">
-        <v>326</v>
-      </c>
-      <c r="G116" s="6"/>
+        <v>325</v>
+      </c>
+      <c r="G116" s="1"/>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="11" t="s">
-        <v>292</v>
+        <v>83</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>334</v>
+        <v>324</v>
       </c>
       <c r="D117" s="4">
-        <v>4301070975</v>
+        <v>4301070976</v>
       </c>
       <c r="E117" s="3">
-        <v>4607111033970</v>
+        <v>4607111034144</v>
       </c>
       <c r="F117" s="5" t="s">
-        <v>335</v>
+        <v>325</v>
       </c>
       <c r="G117" s="6"/>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="11" t="s">
-        <v>249</v>
+        <v>291</v>
       </c>
       <c r="B118" s="3" t="s">
         <v>116</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D118" s="4">
         <v>4301070975</v>
@@ -4521,19 +4524,19 @@
         <v>4607111033970</v>
       </c>
       <c r="F118" s="5" t="s">
-        <v>335</v>
-      </c>
-      <c r="G118" s="1"/>
+        <v>334</v>
+      </c>
+      <c r="G118" s="6"/>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="11" t="s">
-        <v>403</v>
+        <v>248</v>
       </c>
       <c r="B119" s="3" t="s">
         <v>116</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D119" s="4">
         <v>4301070975</v>
@@ -4542,19 +4545,19 @@
         <v>4607111033970</v>
       </c>
       <c r="F119" s="5" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="G119" s="1"/>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="11" t="s">
-        <v>335</v>
+        <v>402</v>
       </c>
       <c r="B120" s="3" t="s">
         <v>116</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D120" s="4">
         <v>4301070975</v>
@@ -4563,19 +4566,19 @@
         <v>4607111033970</v>
       </c>
       <c r="F120" s="5" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="G120" s="1"/>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="11" t="s">
-        <v>84</v>
+        <v>334</v>
       </c>
       <c r="B121" s="3" t="s">
         <v>116</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D121" s="4">
         <v>4301070975</v>
@@ -4584,40 +4587,40 @@
         <v>4607111033970</v>
       </c>
       <c r="F121" s="5" t="s">
-        <v>335</v>
-      </c>
-      <c r="G121" s="6"/>
+        <v>334</v>
+      </c>
+      <c r="G121" s="1"/>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="11" t="s">
-        <v>402</v>
+        <v>84</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="D122" s="4">
-        <v>4301070981</v>
+        <v>4301070975</v>
       </c>
       <c r="E122" s="3">
-        <v>4607111036728</v>
+        <v>4607111033970</v>
       </c>
       <c r="F122" s="5" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="G122" s="6"/>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" s="11" t="s">
-        <v>85</v>
+        <v>401</v>
       </c>
       <c r="B123" s="3" t="s">
         <v>117</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D123" s="4">
         <v>4301070981</v>
@@ -4626,40 +4629,40 @@
         <v>4607111036728</v>
       </c>
       <c r="F123" s="5" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="G123" s="6"/>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" s="11" t="s">
-        <v>416</v>
+        <v>85</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>210</v>
+        <v>117</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>211</v>
+        <v>326</v>
       </c>
       <c r="D124" s="4">
-        <v>4301071010</v>
+        <v>4301070981</v>
       </c>
       <c r="E124" s="3">
-        <v>4607111037701</v>
+        <v>4607111036728</v>
       </c>
       <c r="F124" s="5" t="s">
-        <v>212</v>
+        <v>327</v>
       </c>
       <c r="G124" s="6"/>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="11" t="s">
-        <v>490</v>
+        <v>415</v>
       </c>
       <c r="B125" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="C125" s="3" t="s">
         <v>210</v>
-      </c>
-      <c r="C125" s="3" t="s">
-        <v>211</v>
       </c>
       <c r="D125" s="4">
         <v>4301071010</v>
@@ -4668,19 +4671,19 @@
         <v>4607111037701</v>
       </c>
       <c r="F125" s="5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G125" s="6"/>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" s="11" t="s">
-        <v>213</v>
+        <v>489</v>
       </c>
       <c r="B126" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="C126" s="3" t="s">
         <v>210</v>
-      </c>
-      <c r="C126" s="3" t="s">
-        <v>211</v>
       </c>
       <c r="D126" s="4">
         <v>4301071010</v>
@@ -4689,61 +4692,61 @@
         <v>4607111037701</v>
       </c>
       <c r="F126" s="5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G126" s="6"/>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" s="11" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="D127" s="4">
-        <v>4301070870</v>
+        <v>4301071010</v>
       </c>
       <c r="E127" s="3">
-        <v>4607111036711</v>
+        <v>4607111037701</v>
       </c>
       <c r="F127" s="5" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="G127" s="6"/>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" s="11" t="s">
-        <v>185</v>
+        <v>216</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>320</v>
+        <v>213</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>321</v>
+        <v>214</v>
       </c>
       <c r="D128" s="4">
-        <v>4301070948</v>
+        <v>4301070870</v>
       </c>
       <c r="E128" s="3">
-        <v>4607111037022</v>
+        <v>4607111036711</v>
       </c>
       <c r="F128" s="5" t="s">
-        <v>185</v>
+        <v>215</v>
       </c>
       <c r="G128" s="6"/>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" s="11" t="s">
-        <v>322</v>
+        <v>184</v>
       </c>
       <c r="B129" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="C129" s="3" t="s">
         <v>320</v>
-      </c>
-      <c r="C129" s="3" t="s">
-        <v>321</v>
       </c>
       <c r="D129" s="4">
         <v>4301070948</v>
@@ -4752,19 +4755,19 @@
         <v>4607111037022</v>
       </c>
       <c r="F129" s="5" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G129" s="6"/>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" s="11" t="s">
-        <v>184</v>
+        <v>321</v>
       </c>
       <c r="B130" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="C130" s="3" t="s">
         <v>320</v>
-      </c>
-      <c r="C130" s="3" t="s">
-        <v>321</v>
       </c>
       <c r="D130" s="4">
         <v>4301070948</v>
@@ -4773,34 +4776,34 @@
         <v>4607111037022</v>
       </c>
       <c r="F130" s="5" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G130" s="6"/>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" s="11" t="s">
-        <v>122</v>
+        <v>183</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>120</v>
+        <v>319</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>121</v>
+        <v>320</v>
       </c>
       <c r="D131" s="4">
-        <v>4301070920</v>
+        <v>4301070948</v>
       </c>
       <c r="E131" s="3">
-        <v>4607111035929</v>
+        <v>4607111037022</v>
       </c>
       <c r="F131" s="5" t="s">
-        <v>122</v>
+        <v>184</v>
       </c>
       <c r="G131" s="6"/>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" s="11" t="s">
-        <v>88</v>
+        <v>122</v>
       </c>
       <c r="B132" s="3" t="s">
         <v>120</v>
@@ -4821,34 +4824,34 @@
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" s="11" t="s">
-        <v>186</v>
+        <v>88</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>187</v>
+        <v>120</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>188</v>
+        <v>121</v>
       </c>
       <c r="D133" s="4">
-        <v>4301070921</v>
+        <v>4301070920</v>
       </c>
       <c r="E133" s="3">
-        <v>4607111035905</v>
+        <v>4607111035929</v>
       </c>
       <c r="F133" s="5" t="s">
-        <v>189</v>
+        <v>122</v>
       </c>
       <c r="G133" s="6"/>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" s="11" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="B134" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="C134" s="3" t="s">
         <v>187</v>
-      </c>
-      <c r="C134" s="3" t="s">
-        <v>188</v>
       </c>
       <c r="D134" s="4">
         <v>4301070921</v>
@@ -4857,40 +4860,40 @@
         <v>4607111035905</v>
       </c>
       <c r="F134" s="5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G134" s="6"/>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" s="11" t="s">
-        <v>220</v>
+        <v>188</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>218</v>
+        <v>186</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>219</v>
+        <v>187</v>
       </c>
       <c r="D135" s="4">
-        <v>4301070917</v>
+        <v>4301070921</v>
       </c>
       <c r="E135" s="3">
-        <v>4607111035912</v>
+        <v>4607111035905</v>
       </c>
       <c r="F135" s="5" t="s">
-        <v>220</v>
+        <v>188</v>
       </c>
       <c r="G135" s="6"/>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" s="11" t="s">
-        <v>341</v>
+        <v>219</v>
       </c>
       <c r="B136" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="C136" s="3" t="s">
         <v>218</v>
-      </c>
-      <c r="C136" s="3" t="s">
-        <v>219</v>
       </c>
       <c r="D136" s="4">
         <v>4301070917</v>
@@ -4899,19 +4902,19 @@
         <v>4607111035912</v>
       </c>
       <c r="F136" s="5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G136" s="6"/>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" s="11" t="s">
-        <v>389</v>
+        <v>340</v>
       </c>
       <c r="B137" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="C137" s="3" t="s">
         <v>218</v>
-      </c>
-      <c r="C137" s="3" t="s">
-        <v>219</v>
       </c>
       <c r="D137" s="4">
         <v>4301070917</v>
@@ -4920,19 +4923,19 @@
         <v>4607111035912</v>
       </c>
       <c r="F137" s="5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G137" s="6"/>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" s="11" t="s">
-        <v>221</v>
+        <v>388</v>
       </c>
       <c r="B138" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="C138" s="3" t="s">
         <v>218</v>
-      </c>
-      <c r="C138" s="3" t="s">
-        <v>219</v>
       </c>
       <c r="D138" s="4">
         <v>4301070917</v>
@@ -4941,34 +4944,34 @@
         <v>4607111035912</v>
       </c>
       <c r="F138" s="5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G138" s="6"/>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" s="11" t="s">
-        <v>190</v>
+        <v>220</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>123</v>
+        <v>217</v>
       </c>
       <c r="C139" s="3" t="s">
-        <v>124</v>
+        <v>218</v>
       </c>
       <c r="D139" s="4">
-        <v>4301070827</v>
+        <v>4301070917</v>
       </c>
       <c r="E139" s="3">
-        <v>4607111036216</v>
+        <v>4607111035912</v>
       </c>
       <c r="F139" s="5" t="s">
-        <v>125</v>
+        <v>219</v>
       </c>
       <c r="G139" s="6"/>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" s="11" t="s">
-        <v>89</v>
+        <v>189</v>
       </c>
       <c r="B140" s="3" t="s">
         <v>123</v>
@@ -4989,34 +4992,34 @@
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" s="11" t="s">
-        <v>127</v>
+        <v>89</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>482</v>
+        <v>124</v>
       </c>
       <c r="D141" s="4">
-        <v>4301070965</v>
+        <v>4301070827</v>
       </c>
       <c r="E141" s="3">
-        <v>4607111035899</v>
+        <v>4607111036216</v>
       </c>
       <c r="F141" s="5" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G141" s="6"/>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" s="11" t="s">
-        <v>90</v>
+        <v>127</v>
       </c>
       <c r="B142" s="3" t="s">
         <v>126</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="D142" s="4">
         <v>4301070965</v>
@@ -5031,34 +5034,34 @@
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" s="11" t="s">
-        <v>194</v>
+        <v>90</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>192</v>
+        <v>126</v>
       </c>
       <c r="C143" s="3" t="s">
-        <v>193</v>
+        <v>481</v>
       </c>
       <c r="D143" s="4">
-        <v>4301070873</v>
+        <v>4301070965</v>
       </c>
       <c r="E143" s="3">
-        <v>4607111035080</v>
+        <v>4607111035899</v>
       </c>
       <c r="F143" s="5" t="s">
-        <v>194</v>
+        <v>127</v>
       </c>
       <c r="G143" s="6"/>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="B144" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="B144" s="3" t="s">
+      <c r="C144" s="3" t="s">
         <v>192</v>
-      </c>
-      <c r="C144" s="3" t="s">
-        <v>193</v>
       </c>
       <c r="D144" s="4">
         <v>4301070873</v>
@@ -5067,40 +5070,40 @@
         <v>4607111035080</v>
       </c>
       <c r="F144" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G144" s="6"/>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" s="11" t="s">
-        <v>287</v>
+        <v>190</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>371</v>
+        <v>191</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>372</v>
+        <v>192</v>
       </c>
       <c r="D145" s="4">
-        <v>4301135193</v>
+        <v>4301070873</v>
       </c>
       <c r="E145" s="3">
-        <v>4640242180403</v>
+        <v>4607111035080</v>
       </c>
       <c r="F145" s="5" t="s">
-        <v>373</v>
+        <v>193</v>
       </c>
       <c r="G145" s="6"/>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" s="11" t="s">
-        <v>483</v>
+        <v>286</v>
       </c>
       <c r="B146" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="C146" s="3" t="s">
         <v>371</v>
-      </c>
-      <c r="C146" s="3" t="s">
-        <v>372</v>
       </c>
       <c r="D146" s="4">
         <v>4301135193</v>
@@ -5109,19 +5112,19 @@
         <v>4640242180403</v>
       </c>
       <c r="F146" s="5" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G146" s="6"/>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" s="11" t="s">
-        <v>506</v>
+        <v>482</v>
       </c>
       <c r="B147" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="C147" s="3" t="s">
         <v>371</v>
-      </c>
-      <c r="C147" s="3" t="s">
-        <v>372</v>
       </c>
       <c r="D147" s="4">
         <v>4301135193</v>
@@ -5130,19 +5133,19 @@
         <v>4640242180403</v>
       </c>
       <c r="F147" s="5" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G147" s="6"/>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" s="11" t="s">
-        <v>497</v>
+        <v>505</v>
       </c>
       <c r="B148" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="C148" s="3" t="s">
         <v>371</v>
-      </c>
-      <c r="C148" s="3" t="s">
-        <v>372</v>
       </c>
       <c r="D148" s="4">
         <v>4301135193</v>
@@ -5151,19 +5154,19 @@
         <v>4640242180403</v>
       </c>
       <c r="F148" s="5" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G148" s="6"/>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" s="11" t="s">
-        <v>195</v>
+        <v>496</v>
       </c>
       <c r="B149" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="C149" s="3" t="s">
         <v>371</v>
-      </c>
-      <c r="C149" s="3" t="s">
-        <v>372</v>
       </c>
       <c r="D149" s="4">
         <v>4301135193</v>
@@ -5172,40 +5175,40 @@
         <v>4640242180403</v>
       </c>
       <c r="F149" s="5" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G149" s="6"/>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" s="11" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>197</v>
+        <v>370</v>
       </c>
       <c r="C150" s="3" t="s">
-        <v>198</v>
+        <v>371</v>
       </c>
       <c r="D150" s="4">
-        <v>4301070858</v>
+        <v>4301135193</v>
       </c>
       <c r="E150" s="3">
-        <v>4607111036193</v>
+        <v>4640242180403</v>
       </c>
       <c r="F150" s="5" t="s">
-        <v>199</v>
+        <v>372</v>
       </c>
       <c r="G150" s="6"/>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" s="11" t="s">
+        <v>506</v>
+      </c>
+      <c r="B151" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="B151" s="3" t="s">
-        <v>197</v>
-      </c>
       <c r="C151" s="3" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="D151" s="4">
         <v>4301070956</v>
@@ -5214,139 +5217,139 @@
         <v>4640242180250</v>
       </c>
       <c r="F151" s="5" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="G151" s="6"/>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" s="11" t="s">
-        <v>92</v>
+        <v>198</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>128</v>
+        <v>196</v>
       </c>
       <c r="C152" s="3" t="s">
-        <v>129</v>
+        <v>197</v>
       </c>
       <c r="D152" s="4">
-        <v>4301135112</v>
+        <v>4301070858</v>
       </c>
       <c r="E152" s="3">
-        <v>4607111034199</v>
+        <v>4607111036193</v>
       </c>
       <c r="F152" s="5" t="s">
-        <v>130</v>
+        <v>198</v>
       </c>
       <c r="G152" s="6"/>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" s="11" t="s">
-        <v>303</v>
+        <v>195</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>329</v>
+        <v>196</v>
       </c>
       <c r="C153" s="3" t="s">
-        <v>330</v>
+        <v>476</v>
       </c>
       <c r="D153" s="4">
-        <v>4301131018</v>
+        <v>4301070956</v>
       </c>
       <c r="E153" s="3">
-        <v>4607111037930</v>
+        <v>4640242180250</v>
       </c>
       <c r="F153" s="5" t="s">
-        <v>331</v>
+        <v>477</v>
       </c>
       <c r="G153" s="6"/>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" s="11" t="s">
-        <v>421</v>
+        <v>92</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>329</v>
+        <v>128</v>
       </c>
       <c r="C154" s="3" t="s">
-        <v>330</v>
+        <v>129</v>
       </c>
       <c r="D154" s="4">
-        <v>4301131018</v>
+        <v>4301135112</v>
       </c>
       <c r="E154" s="3">
-        <v>4607111037930</v>
+        <v>4607111034199</v>
       </c>
       <c r="F154" s="5" t="s">
-        <v>331</v>
+        <v>130</v>
       </c>
       <c r="G154" s="6"/>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" s="11" t="s">
-        <v>200</v>
+        <v>302</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>465</v>
+        <v>328</v>
       </c>
       <c r="C155" s="3" t="s">
-        <v>466</v>
+        <v>329</v>
       </c>
       <c r="D155" s="4">
-        <v>4301131019</v>
+        <v>4301131018</v>
       </c>
       <c r="E155" s="3">
-        <v>4640242180427</v>
+        <v>4607111037930</v>
       </c>
       <c r="F155" s="5" t="s">
-        <v>467</v>
+        <v>330</v>
       </c>
       <c r="G155" s="6"/>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" s="11" t="s">
-        <v>201</v>
+        <v>420</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>148</v>
+        <v>328</v>
       </c>
       <c r="C156" s="3" t="s">
-        <v>149</v>
+        <v>329</v>
       </c>
       <c r="D156" s="4">
-        <v>4301190014</v>
+        <v>4301131018</v>
       </c>
       <c r="E156" s="3">
-        <v>4607111037053</v>
+        <v>4607111037930</v>
       </c>
       <c r="F156" s="5" t="s">
-        <v>150</v>
+        <v>330</v>
       </c>
       <c r="G156" s="6"/>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" s="11" t="s">
-        <v>431</v>
+        <v>199</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>148</v>
+        <v>464</v>
       </c>
       <c r="C157" s="3" t="s">
-        <v>149</v>
+        <v>465</v>
       </c>
       <c r="D157" s="4">
-        <v>4301190014</v>
+        <v>4301131019</v>
       </c>
       <c r="E157" s="3">
-        <v>4607111037053</v>
+        <v>4640242180427</v>
       </c>
       <c r="F157" s="5" t="s">
-        <v>150</v>
+        <v>466</v>
       </c>
       <c r="G157" s="6"/>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" s="11" t="s">
-        <v>141</v>
+        <v>200</v>
       </c>
       <c r="B158" s="3" t="s">
         <v>148</v>
@@ -5367,49 +5370,49 @@
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" s="11" t="s">
-        <v>202</v>
+        <v>430</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C159" s="3" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D159" s="4">
-        <v>4301190015</v>
+        <v>4301190014</v>
       </c>
       <c r="E159" s="3">
-        <v>4607111037060</v>
+        <v>4607111037053</v>
       </c>
       <c r="F159" s="5" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="G159" s="6"/>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" s="11" t="s">
-        <v>432</v>
+        <v>141</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C160" s="3" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D160" s="4">
-        <v>4301190015</v>
+        <v>4301190014</v>
       </c>
       <c r="E160" s="3">
-        <v>4607111037060</v>
+        <v>4607111037053</v>
       </c>
       <c r="F160" s="5" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="G160" s="6"/>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" s="11" t="s">
-        <v>142</v>
+        <v>201</v>
       </c>
       <c r="B161" s="3" t="s">
         <v>151</v>
@@ -5426,80 +5429,80 @@
       <c r="F161" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="G161" s="1"/>
+      <c r="G161" s="6"/>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" s="11" t="s">
-        <v>225</v>
+        <v>431</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>222</v>
+        <v>151</v>
       </c>
       <c r="C162" s="3" t="s">
-        <v>223</v>
+        <v>152</v>
       </c>
       <c r="D162" s="4">
-        <v>4301135053</v>
+        <v>4301190015</v>
       </c>
       <c r="E162" s="3">
-        <v>4607111036407</v>
+        <v>4607111037060</v>
       </c>
       <c r="F162" s="5" t="s">
-        <v>224</v>
-      </c>
-      <c r="G162" s="1"/>
+        <v>153</v>
+      </c>
+      <c r="G162" s="6"/>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" s="11" t="s">
-        <v>93</v>
+        <v>142</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>131</v>
+        <v>151</v>
       </c>
       <c r="C163" s="3" t="s">
-        <v>203</v>
+        <v>152</v>
       </c>
       <c r="D163" s="4">
-        <v>4301135162</v>
+        <v>4301190015</v>
       </c>
       <c r="E163" s="3">
-        <v>4607111034014</v>
+        <v>4607111037060</v>
       </c>
       <c r="F163" s="5" t="s">
-        <v>132</v>
+        <v>153</v>
       </c>
       <c r="G163" s="1"/>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" s="11" t="s">
-        <v>439</v>
+        <v>224</v>
       </c>
       <c r="B164" s="3" t="s">
-        <v>131</v>
+        <v>221</v>
       </c>
       <c r="C164" s="3" t="s">
-        <v>203</v>
+        <v>222</v>
       </c>
       <c r="D164" s="4">
-        <v>4301135162</v>
+        <v>4301135053</v>
       </c>
       <c r="E164" s="3">
-        <v>4607111034014</v>
+        <v>4607111036407</v>
       </c>
       <c r="F164" s="5" t="s">
-        <v>132</v>
+        <v>223</v>
       </c>
       <c r="G164" s="1"/>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" s="11" t="s">
-        <v>256</v>
+        <v>93</v>
       </c>
       <c r="B165" s="3" t="s">
         <v>131</v>
       </c>
       <c r="C165" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D165" s="4">
         <v>4301135162</v>
@@ -5508,55 +5511,55 @@
         <v>4607111034014</v>
       </c>
       <c r="F165" s="5" t="s">
-        <v>285</v>
+        <v>132</v>
       </c>
       <c r="G165" s="1"/>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" s="11" t="s">
-        <v>257</v>
+        <v>438</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C166" s="3" t="s">
-        <v>134</v>
+        <v>202</v>
       </c>
       <c r="D166" s="4">
-        <v>4301135117</v>
+        <v>4301135162</v>
       </c>
       <c r="E166" s="3">
-        <v>4607111033994</v>
+        <v>4607111034014</v>
       </c>
       <c r="F166" s="5" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="G166" s="1"/>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" s="11" t="s">
-        <v>135</v>
+        <v>255</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C167" s="3" t="s">
-        <v>134</v>
+        <v>202</v>
       </c>
       <c r="D167" s="4">
-        <v>4301135117</v>
+        <v>4301135162</v>
       </c>
       <c r="E167" s="3">
-        <v>4607111033994</v>
+        <v>4607111034014</v>
       </c>
       <c r="F167" s="5" t="s">
-        <v>135</v>
+        <v>284</v>
       </c>
       <c r="G167" s="1"/>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" s="11" t="s">
-        <v>94</v>
+        <v>256</v>
       </c>
       <c r="B168" s="3" t="s">
         <v>133</v>
@@ -5577,55 +5580,55 @@
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" s="11" t="s">
-        <v>204</v>
+        <v>135</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>374</v>
+        <v>133</v>
       </c>
       <c r="C169" s="3" t="s">
-        <v>375</v>
+        <v>134</v>
       </c>
       <c r="D169" s="4">
-        <v>4301136028</v>
+        <v>4301135117</v>
       </c>
       <c r="E169" s="3">
-        <v>4640242180304</v>
+        <v>4607111033994</v>
       </c>
       <c r="F169" s="5" t="s">
-        <v>376</v>
+        <v>135</v>
       </c>
       <c r="G169" s="1"/>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" s="11" t="s">
-        <v>437</v>
+        <v>94</v>
       </c>
       <c r="B170" s="3" t="s">
-        <v>374</v>
+        <v>133</v>
       </c>
       <c r="C170" s="3" t="s">
-        <v>375</v>
+        <v>134</v>
       </c>
       <c r="D170" s="4">
-        <v>4301136028</v>
+        <v>4301135117</v>
       </c>
       <c r="E170" s="3">
-        <v>4640242180304</v>
+        <v>4607111033994</v>
       </c>
       <c r="F170" s="5" t="s">
-        <v>376</v>
+        <v>135</v>
       </c>
       <c r="G170" s="1"/>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" s="11" t="s">
-        <v>143</v>
+        <v>203</v>
       </c>
       <c r="B171" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="C171" s="3" t="s">
         <v>374</v>
-      </c>
-      <c r="C171" s="3" t="s">
-        <v>375</v>
       </c>
       <c r="D171" s="4">
         <v>4301136028</v>
@@ -5634,7 +5637,7 @@
         <v>4640242180304</v>
       </c>
       <c r="F171" s="5" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="G171" s="1"/>
     </row>
@@ -5643,52 +5646,52 @@
         <v>436</v>
       </c>
       <c r="B172" s="3" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="C172" s="3" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="D172" s="4">
-        <v>4301136026</v>
+        <v>4301136028</v>
       </c>
       <c r="E172" s="3">
-        <v>4640242180236</v>
+        <v>4640242180304</v>
       </c>
       <c r="F172" s="5" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="G172" s="1"/>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" s="11" t="s">
-        <v>484</v>
+        <v>143</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="C173" s="3" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="D173" s="4">
-        <v>4301136026</v>
+        <v>4301136028</v>
       </c>
       <c r="E173" s="3">
-        <v>4640242180236</v>
+        <v>4640242180304</v>
       </c>
       <c r="F173" s="5" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="G173" s="1"/>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" s="11" t="s">
-        <v>468</v>
+        <v>435</v>
       </c>
       <c r="B174" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="C174" s="3" t="s">
         <v>377</v>
-      </c>
-      <c r="C174" s="3" t="s">
-        <v>378</v>
       </c>
       <c r="D174" s="4">
         <v>4301136026</v>
@@ -5697,19 +5700,19 @@
         <v>4640242180236</v>
       </c>
       <c r="F174" s="5" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="G174" s="1"/>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" s="11" t="s">
-        <v>95</v>
+        <v>483</v>
       </c>
       <c r="B175" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="C175" s="3" t="s">
         <v>377</v>
-      </c>
-      <c r="C175" s="3" t="s">
-        <v>378</v>
       </c>
       <c r="D175" s="4">
         <v>4301136026</v>
@@ -5718,61 +5721,61 @@
         <v>4640242180236</v>
       </c>
       <c r="F175" s="5" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="G175" s="1"/>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" s="11" t="s">
-        <v>315</v>
+        <v>467</v>
       </c>
       <c r="B176" s="3" t="s">
-        <v>492</v>
+        <v>376</v>
       </c>
       <c r="C176" s="3" t="s">
-        <v>493</v>
+        <v>377</v>
       </c>
       <c r="D176" s="4">
-        <v>4301135194</v>
+        <v>4301136026</v>
       </c>
       <c r="E176" s="3">
-        <v>4640242180380</v>
+        <v>4640242180236</v>
       </c>
       <c r="F176" s="5" t="s">
-        <v>494</v>
+        <v>378</v>
       </c>
       <c r="G176" s="1"/>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177" s="11" t="s">
-        <v>498</v>
+        <v>95</v>
       </c>
       <c r="B177" s="3" t="s">
-        <v>492</v>
+        <v>376</v>
       </c>
       <c r="C177" s="3" t="s">
-        <v>493</v>
+        <v>377</v>
       </c>
       <c r="D177" s="4">
-        <v>4301135194</v>
+        <v>4301136026</v>
       </c>
       <c r="E177" s="3">
-        <v>4640242180380</v>
+        <v>4640242180236</v>
       </c>
       <c r="F177" s="5" t="s">
-        <v>494</v>
+        <v>378</v>
       </c>
       <c r="G177" s="1"/>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178" s="11" t="s">
-        <v>136</v>
+        <v>314</v>
       </c>
       <c r="B178" s="3" t="s">
+        <v>491</v>
+      </c>
+      <c r="C178" s="3" t="s">
         <v>492</v>
-      </c>
-      <c r="C178" s="3" t="s">
-        <v>493</v>
       </c>
       <c r="D178" s="4">
         <v>4301135194</v>
@@ -5781,19 +5784,19 @@
         <v>4640242180380</v>
       </c>
       <c r="F178" s="5" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="G178" s="1"/>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179" s="11" t="s">
-        <v>291</v>
+        <v>497</v>
       </c>
       <c r="B179" s="3" t="s">
+        <v>491</v>
+      </c>
+      <c r="C179" s="3" t="s">
         <v>492</v>
-      </c>
-      <c r="C179" s="3" t="s">
-        <v>493</v>
       </c>
       <c r="D179" s="4">
         <v>4301135194</v>
@@ -5802,61 +5805,61 @@
         <v>4640242180380</v>
       </c>
       <c r="F179" s="5" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="G179" s="1"/>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180" s="11" t="s">
-        <v>342</v>
+        <v>136</v>
       </c>
       <c r="B180" s="3" t="s">
-        <v>294</v>
+        <v>491</v>
       </c>
       <c r="C180" s="3" t="s">
-        <v>295</v>
+        <v>492</v>
       </c>
       <c r="D180" s="4">
-        <v>4301070915</v>
+        <v>4301135194</v>
       </c>
       <c r="E180" s="3">
-        <v>4607111035882</v>
+        <v>4640242180380</v>
       </c>
       <c r="F180" s="5" t="s">
-        <v>296</v>
+        <v>493</v>
       </c>
       <c r="G180" s="1"/>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181" s="11" t="s">
-        <v>408</v>
+        <v>290</v>
       </c>
       <c r="B181" s="3" t="s">
-        <v>294</v>
+        <v>491</v>
       </c>
       <c r="C181" s="3" t="s">
-        <v>295</v>
+        <v>492</v>
       </c>
       <c r="D181" s="4">
-        <v>4301070915</v>
+        <v>4301135194</v>
       </c>
       <c r="E181" s="3">
-        <v>4607111035882</v>
+        <v>4640242180380</v>
       </c>
       <c r="F181" s="5" t="s">
-        <v>296</v>
+        <v>493</v>
       </c>
       <c r="G181" s="1"/>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182" s="11" t="s">
-        <v>296</v>
+        <v>341</v>
       </c>
       <c r="B182" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="C182" s="3" t="s">
         <v>294</v>
-      </c>
-      <c r="C182" s="3" t="s">
-        <v>295</v>
       </c>
       <c r="D182" s="4">
         <v>4301070915</v>
@@ -5865,61 +5868,61 @@
         <v>4607111035882</v>
       </c>
       <c r="F182" s="5" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G182" s="1"/>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183" s="11" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B183" s="3" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="C183" s="3" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="D183" s="4">
-        <v>4301070874</v>
+        <v>4301070915</v>
       </c>
       <c r="E183" s="3">
-        <v>4607111035332</v>
+        <v>4607111035882</v>
       </c>
       <c r="F183" s="5" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="G183" s="1"/>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184" s="11" t="s">
-        <v>501</v>
+        <v>295</v>
       </c>
       <c r="B184" s="3" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="C184" s="3" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="D184" s="4">
-        <v>4301070874</v>
+        <v>4301070915</v>
       </c>
       <c r="E184" s="3">
-        <v>4607111035332</v>
+        <v>4607111035882</v>
       </c>
       <c r="F184" s="5" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="G184" s="1"/>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185" s="11" t="s">
-        <v>299</v>
+        <v>408</v>
       </c>
       <c r="B185" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="C185" s="3" t="s">
         <v>297</v>
-      </c>
-      <c r="C185" s="3" t="s">
-        <v>298</v>
       </c>
       <c r="D185" s="4">
         <v>4301070874</v>
@@ -5928,61 +5931,61 @@
         <v>4607111035332</v>
       </c>
       <c r="F185" s="5" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="G185" s="1"/>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186" s="11" t="s">
-        <v>324</v>
+        <v>500</v>
       </c>
       <c r="B186" s="3" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="C186" s="3" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="D186" s="4">
-        <v>4301136014</v>
+        <v>4301070874</v>
       </c>
       <c r="E186" s="3">
-        <v>4607111035370</v>
+        <v>4607111035332</v>
       </c>
       <c r="F186" s="5" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="G186" s="1"/>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187" s="11" t="s">
-        <v>414</v>
+        <v>298</v>
       </c>
       <c r="B187" s="3" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="C187" s="3" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="D187" s="4">
-        <v>4301136014</v>
+        <v>4301070874</v>
       </c>
       <c r="E187" s="3">
-        <v>4607111035370</v>
+        <v>4607111035332</v>
       </c>
       <c r="F187" s="5" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="G187" s="1"/>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188" s="11" t="s">
-        <v>302</v>
+        <v>323</v>
       </c>
       <c r="B188" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="C188" s="3" t="s">
         <v>300</v>
-      </c>
-      <c r="C188" s="3" t="s">
-        <v>301</v>
       </c>
       <c r="D188" s="4">
         <v>4301136014</v>
@@ -5991,61 +5994,61 @@
         <v>4607111035370</v>
       </c>
       <c r="F188" s="5" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G188" s="1"/>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189" s="11" t="s">
-        <v>323</v>
+        <v>413</v>
       </c>
       <c r="B189" s="3" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="C189" s="3" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="D189" s="4">
-        <v>4301051320</v>
+        <v>4301136014</v>
       </c>
       <c r="E189" s="3">
-        <v>4680115881334</v>
+        <v>4607111035370</v>
       </c>
       <c r="F189" s="5" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="G189" s="1"/>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190" s="11" t="s">
-        <v>340</v>
+        <v>301</v>
       </c>
       <c r="B190" s="3" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="C190" s="3" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="D190" s="4">
-        <v>4301051320</v>
+        <v>4301136014</v>
       </c>
       <c r="E190" s="3">
-        <v>4680115881334</v>
+        <v>4607111035370</v>
       </c>
       <c r="F190" s="5" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="G190" s="1"/>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191" s="11" t="s">
-        <v>310</v>
+        <v>322</v>
       </c>
       <c r="B191" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="C191" s="3" t="s">
         <v>307</v>
-      </c>
-      <c r="C191" s="3" t="s">
-        <v>308</v>
       </c>
       <c r="D191" s="4">
         <v>4301051320</v>
@@ -6054,446 +6057,470 @@
         <v>4680115881334</v>
       </c>
       <c r="F191" s="5" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G191" s="1"/>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192" s="11" t="s">
-        <v>314</v>
+        <v>339</v>
       </c>
       <c r="B192" s="3" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="C192" s="3" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="D192" s="4">
-        <v>4301051319</v>
+        <v>4301051320</v>
       </c>
       <c r="E192" s="3">
-        <v>4680115881204</v>
+        <v>4680115881334</v>
       </c>
       <c r="F192" s="5" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="G192" s="1"/>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193" s="11" t="s">
-        <v>343</v>
+        <v>309</v>
       </c>
       <c r="B193" s="3" t="s">
-        <v>383</v>
+        <v>306</v>
       </c>
       <c r="C193" s="3" t="s">
-        <v>384</v>
+        <v>307</v>
       </c>
       <c r="D193" s="4">
-        <v>4301136027</v>
+        <v>4301051320</v>
       </c>
       <c r="E193" s="3">
-        <v>4640242180298</v>
+        <v>4680115881334</v>
       </c>
       <c r="F193" s="5" t="s">
-        <v>385</v>
+        <v>308</v>
       </c>
       <c r="G193" s="1"/>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194" s="11" t="s">
-        <v>503</v>
+        <v>313</v>
       </c>
       <c r="B194" s="3" t="s">
-        <v>393</v>
+        <v>310</v>
       </c>
       <c r="C194" s="3" t="s">
-        <v>394</v>
+        <v>311</v>
       </c>
       <c r="D194" s="4">
-        <v>4301130003</v>
+        <v>4301051319</v>
       </c>
       <c r="E194" s="3">
-        <v>4607111034687</v>
+        <v>4680115881204</v>
       </c>
       <c r="F194" s="5" t="s">
-        <v>395</v>
+        <v>312</v>
       </c>
       <c r="G194" s="1"/>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195" s="11" t="s">
-        <v>392</v>
+        <v>342</v>
       </c>
       <c r="B195" s="3" t="s">
-        <v>393</v>
+        <v>382</v>
       </c>
       <c r="C195" s="3" t="s">
-        <v>394</v>
+        <v>383</v>
       </c>
       <c r="D195" s="4">
-        <v>4301130003</v>
+        <v>4301136027</v>
       </c>
       <c r="E195" s="3">
-        <v>4607111034687</v>
+        <v>4640242180298</v>
       </c>
       <c r="F195" s="5" t="s">
-        <v>395</v>
+        <v>384</v>
       </c>
       <c r="G195" s="1"/>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196" s="11" t="s">
-        <v>398</v>
+        <v>502</v>
       </c>
       <c r="B196" s="3" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="C196" s="3" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="D196" s="4">
-        <v>4301070977</v>
+        <v>4301130003</v>
       </c>
       <c r="E196" s="3">
-        <v>4607111037411</v>
+        <v>4607111034687</v>
       </c>
       <c r="F196" s="5" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="G196" s="1"/>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197" s="11" t="s">
-        <v>445</v>
+        <v>391</v>
       </c>
       <c r="B197" s="3" t="s">
-        <v>405</v>
+        <v>392</v>
       </c>
       <c r="C197" s="3" t="s">
-        <v>406</v>
+        <v>393</v>
       </c>
       <c r="D197" s="4">
-        <v>4301070871</v>
+        <v>4301130003</v>
       </c>
       <c r="E197" s="3">
-        <v>4607111036384</v>
+        <v>4607111034687</v>
       </c>
       <c r="F197" s="5" t="s">
-        <v>407</v>
+        <v>394</v>
       </c>
       <c r="G197" s="1"/>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198" s="11" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="B198" s="3" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="C198" s="3" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="D198" s="4">
-        <v>4301070871</v>
+        <v>4301070977</v>
       </c>
       <c r="E198" s="3">
-        <v>4607111036384</v>
+        <v>4607111037411</v>
       </c>
       <c r="F198" s="5" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="G198" s="1"/>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A199" s="11" t="s">
-        <v>505</v>
+        <v>444</v>
       </c>
       <c r="B199" s="3" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="C199" s="3" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="D199" s="4">
-        <v>4301135111</v>
+        <v>4301070871</v>
       </c>
       <c r="E199" s="3">
-        <v>4607111035028</v>
+        <v>4607111036384</v>
       </c>
       <c r="F199" s="5" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="G199" s="1"/>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200" s="11" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="B200" s="3" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="C200" s="3" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="D200" s="4">
-        <v>4301135111</v>
+        <v>4301070871</v>
       </c>
       <c r="E200" s="3">
-        <v>4607111035028</v>
+        <v>4607111036384</v>
       </c>
       <c r="F200" s="5" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="G200" s="1"/>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A201" s="11" t="s">
-        <v>417</v>
+        <v>504</v>
       </c>
       <c r="B201" s="3" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="C201" s="3" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="D201" s="4">
-        <v>4301130006</v>
+        <v>4301135111</v>
       </c>
       <c r="E201" s="3">
-        <v>4607111034670</v>
+        <v>4607111035028</v>
       </c>
       <c r="F201" s="5" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="G201" s="1"/>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A202" s="11" t="s">
-        <v>423</v>
+        <v>409</v>
       </c>
       <c r="B202" s="3" t="s">
-        <v>424</v>
+        <v>410</v>
       </c>
       <c r="C202" s="3" t="s">
-        <v>425</v>
+        <v>411</v>
       </c>
       <c r="D202" s="4">
-        <v>4301070768</v>
+        <v>4301135111</v>
       </c>
       <c r="E202" s="3">
-        <v>4607111035639</v>
+        <v>4607111035028</v>
       </c>
       <c r="F202" s="5" t="s">
-        <v>426</v>
+        <v>412</v>
       </c>
       <c r="G202" s="1"/>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A203" s="11" t="s">
-        <v>427</v>
+        <v>416</v>
       </c>
       <c r="B203" s="3" t="s">
-        <v>428</v>
+        <v>417</v>
       </c>
       <c r="C203" s="3" t="s">
-        <v>429</v>
+        <v>418</v>
       </c>
       <c r="D203" s="4">
-        <v>4301070797</v>
+        <v>4301130006</v>
       </c>
       <c r="E203" s="3">
-        <v>4607111035646</v>
+        <v>4607111034670</v>
       </c>
       <c r="F203" s="5" t="s">
-        <v>430</v>
+        <v>419</v>
       </c>
       <c r="G203" s="1"/>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A204" s="11" t="s">
-        <v>441</v>
+        <v>422</v>
       </c>
       <c r="B204" s="3" t="s">
-        <v>442</v>
+        <v>423</v>
       </c>
       <c r="C204" s="3" t="s">
-        <v>443</v>
+        <v>424</v>
       </c>
       <c r="D204" s="4">
-        <v>4301080154</v>
+        <v>4301070768</v>
       </c>
       <c r="E204" s="3">
-        <v>4607111036834</v>
+        <v>4607111035639</v>
       </c>
       <c r="F204" s="5" t="s">
-        <v>444</v>
+        <v>425</v>
       </c>
       <c r="G204" s="1"/>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A205" s="11" t="s">
-        <v>449</v>
+        <v>426</v>
       </c>
       <c r="B205" s="3" t="s">
-        <v>450</v>
+        <v>427</v>
       </c>
       <c r="C205" s="3" t="s">
-        <v>451</v>
+        <v>428</v>
       </c>
       <c r="D205" s="4">
-        <v>4301070941</v>
+        <v>4301070797</v>
       </c>
       <c r="E205" s="3">
-        <v>4607111036162</v>
+        <v>4607111035646</v>
       </c>
       <c r="F205" s="5" t="s">
-        <v>452</v>
+        <v>429</v>
       </c>
       <c r="G205" s="1"/>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A206" s="11" t="s">
-        <v>453</v>
+        <v>440</v>
       </c>
       <c r="B206" s="3" t="s">
-        <v>454</v>
+        <v>441</v>
       </c>
       <c r="C206" s="3" t="s">
-        <v>455</v>
+        <v>442</v>
       </c>
       <c r="D206" s="4">
-        <v>4301070826</v>
+        <v>4301080154</v>
       </c>
       <c r="E206" s="3">
-        <v>4607111035752</v>
+        <v>4607111036834</v>
       </c>
       <c r="F206" s="5" t="s">
-        <v>456</v>
+        <v>443</v>
       </c>
       <c r="G206" s="1"/>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A207" s="11" t="s">
-        <v>496</v>
+        <v>448</v>
       </c>
       <c r="B207" s="3" t="s">
-        <v>458</v>
+        <v>449</v>
       </c>
       <c r="C207" s="3" t="s">
-        <v>459</v>
+        <v>450</v>
       </c>
       <c r="D207" s="4">
-        <v>4301070966</v>
+        <v>4301070941</v>
       </c>
       <c r="E207" s="3">
-        <v>4607111038135</v>
+        <v>4607111036162</v>
       </c>
       <c r="F207" s="5" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="G207" s="1"/>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A208" s="11" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="B208" s="3" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="C208" s="3" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="D208" s="4">
-        <v>4301070966</v>
+        <v>4301070826</v>
       </c>
       <c r="E208" s="3">
-        <v>4607111038135</v>
+        <v>4607111035752</v>
       </c>
       <c r="F208" s="5" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="G208" s="1"/>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A209" s="11" t="s">
-        <v>460</v>
+        <v>495</v>
       </c>
       <c r="B209" s="3" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="C209" s="3" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="D209" s="4">
-        <v>4301070911</v>
+        <v>4301070966</v>
       </c>
       <c r="E209" s="3">
-        <v>4607111036278</v>
+        <v>4607111038135</v>
       </c>
       <c r="F209" s="5" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="G209" s="1"/>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A210" s="11" t="s">
-        <v>485</v>
+        <v>456</v>
       </c>
       <c r="B210" s="3" t="s">
-        <v>465</v>
+        <v>457</v>
       </c>
       <c r="C210" s="3" t="s">
-        <v>466</v>
+        <v>458</v>
       </c>
       <c r="D210" s="4">
-        <v>4301131019</v>
+        <v>4301070966</v>
       </c>
       <c r="E210" s="3">
-        <v>4640242180427</v>
+        <v>4607111038135</v>
       </c>
       <c r="F210" s="5" t="s">
-        <v>467</v>
+        <v>456</v>
       </c>
       <c r="G210" s="1"/>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A211" s="11" t="s">
+        <v>459</v>
+      </c>
+      <c r="B211" s="3" t="s">
+        <v>460</v>
+      </c>
+      <c r="C211" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="D211" s="4">
+        <v>4301070911</v>
+      </c>
+      <c r="E211" s="3">
+        <v>4607111036278</v>
+      </c>
+      <c r="F211" s="5" t="s">
+        <v>459</v>
+      </c>
+      <c r="G211" s="1"/>
+    </row>
+    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A212" s="11" t="s">
+        <v>484</v>
+      </c>
+      <c r="B212" s="3" t="s">
         <v>464</v>
       </c>
-      <c r="B211" s="3" t="s">
+      <c r="C212" s="3" t="s">
         <v>465</v>
       </c>
-      <c r="C211" s="3" t="s">
+      <c r="D212" s="4">
+        <v>4301131019</v>
+      </c>
+      <c r="E212" s="3">
+        <v>4640242180427</v>
+      </c>
+      <c r="F212" s="5" t="s">
         <v>466</v>
       </c>
-      <c r="D211" s="4">
+      <c r="G212" s="1"/>
+    </row>
+    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A213" s="11" t="s">
+        <v>463</v>
+      </c>
+      <c r="B213" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="C213" s="3" t="s">
+        <v>465</v>
+      </c>
+      <c r="D213" s="4">
         <v>4301131019</v>
       </c>
-      <c r="E211" s="3">
+      <c r="E213" s="3">
         <v>4640242180427</v>
       </c>
-      <c r="F211" s="5" t="s">
-        <v>467</v>
-      </c>
-      <c r="G211" s="1"/>
-    </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A212" s="11"/>
-      <c r="B212" s="3"/>
-      <c r="C212" s="3"/>
-      <c r="D212" s="4"/>
-      <c r="E212" s="3"/>
-      <c r="F212" s="5"/>
-      <c r="G212" s="1"/>
-    </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A213" s="11"/>
-      <c r="B213" s="3"/>
-      <c r="C213" s="3"/>
-      <c r="D213" s="4"/>
-      <c r="E213" s="3"/>
-      <c r="F213" s="5"/>
+      <c r="F213" s="5" t="s">
+        <v>466</v>
+      </c>
       <c r="G213" s="1"/>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.25">
@@ -6579,11 +6606,11 @@
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A223" s="11"/>
-      <c r="B223" s="13"/>
-      <c r="C223" s="13"/>
-      <c r="D223" s="14"/>
-      <c r="E223" s="15"/>
-      <c r="F223" s="16"/>
+      <c r="B223" s="3"/>
+      <c r="C223" s="3"/>
+      <c r="D223" s="4"/>
+      <c r="E223" s="3"/>
+      <c r="F223" s="5"/>
       <c r="G223" s="1"/>
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.25">
@@ -6597,11 +6624,11 @@
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A225" s="11"/>
-      <c r="B225" s="3"/>
-      <c r="C225" s="3"/>
-      <c r="D225" s="4"/>
-      <c r="E225" s="3"/>
-      <c r="F225" s="5"/>
+      <c r="B225" s="13"/>
+      <c r="C225" s="13"/>
+      <c r="D225" s="14"/>
+      <c r="E225" s="15"/>
+      <c r="F225" s="16"/>
       <c r="G225" s="1"/>
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.25">
@@ -6660,11 +6687,11 @@
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A232" s="11"/>
-      <c r="B232" s="13"/>
-      <c r="C232" s="13"/>
-      <c r="D232" s="14"/>
-      <c r="E232" s="15"/>
-      <c r="F232" s="16"/>
+      <c r="B232" s="3"/>
+      <c r="C232" s="3"/>
+      <c r="D232" s="4"/>
+      <c r="E232" s="3"/>
+      <c r="F232" s="5"/>
       <c r="G232" s="1"/>
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.25">
@@ -6678,11 +6705,11 @@
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A234" s="11"/>
-      <c r="B234" s="3"/>
-      <c r="C234" s="3"/>
-      <c r="D234" s="4"/>
-      <c r="E234" s="3"/>
-      <c r="F234" s="5"/>
+      <c r="B234" s="13"/>
+      <c r="C234" s="13"/>
+      <c r="D234" s="14"/>
+      <c r="E234" s="15"/>
+      <c r="F234" s="16"/>
       <c r="G234" s="1"/>
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.25">
@@ -6728,7 +6755,7 @@
       <c r="D239" s="4"/>
       <c r="E239" s="3"/>
       <c r="F239" s="5"/>
-      <c r="G239" s="6"/>
+      <c r="G239" s="1"/>
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A240" s="11"/>
@@ -6746,7 +6773,7 @@
       <c r="D241" s="4"/>
       <c r="E241" s="3"/>
       <c r="F241" s="5"/>
-      <c r="G241" s="1"/>
+      <c r="G241" s="6"/>
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A242" s="11"/>
@@ -7353,20 +7380,20 @@
     </row>
     <row r="309" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A309" s="11"/>
-      <c r="B309" s="1"/>
-      <c r="C309" s="1"/>
-      <c r="D309" s="1"/>
-      <c r="E309" s="1"/>
-      <c r="F309" s="1"/>
+      <c r="B309" s="3"/>
+      <c r="C309" s="3"/>
+      <c r="D309" s="4"/>
+      <c r="E309" s="3"/>
+      <c r="F309" s="5"/>
       <c r="G309" s="1"/>
     </row>
     <row r="310" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A310" s="11"/>
-      <c r="B310" s="1"/>
-      <c r="C310" s="1"/>
-      <c r="D310" s="1"/>
-      <c r="E310" s="1"/>
-      <c r="F310" s="1"/>
+      <c r="B310" s="3"/>
+      <c r="C310" s="3"/>
+      <c r="D310" s="4"/>
+      <c r="E310" s="3"/>
+      <c r="F310" s="5"/>
       <c r="G310" s="1"/>
     </row>
     <row r="311" spans="1:7" x14ac:dyDescent="0.25">
@@ -7378,10 +7405,28 @@
       <c r="F311" s="1"/>
       <c r="G311" s="1"/>
     </row>
+    <row r="312" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A312" s="11"/>
+      <c r="B312" s="1"/>
+      <c r="C312" s="1"/>
+      <c r="D312" s="1"/>
+      <c r="E312" s="1"/>
+      <c r="F312" s="1"/>
+      <c r="G312" s="1"/>
+    </row>
+    <row r="313" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A313" s="11"/>
+      <c r="B313" s="1"/>
+      <c r="C313" s="1"/>
+      <c r="D313" s="1"/>
+      <c r="E313" s="1"/>
+      <c r="F313" s="1"/>
+      <c r="G313" s="1"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:F211" xr:uid="{08353A06-E006-45C7-BD45-850F7C3953DF}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F179">
-      <sortCondition ref="A1:A123"/>
+  <autoFilter ref="A1:F213" xr:uid="{08353A06-E006-45C7-BD45-850F7C3953DF}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F181">
+      <sortCondition ref="A1:A124"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/moduls/1С.xlsx
+++ b/moduls/1С.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\перенос данных\ПОКОМ ЗПФ\pokom_zpf\moduls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{121A3AAB-9906-4EC4-AB34-F430A413D966}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{648D4E56-D11F-4455-85FB-165EF6772B13}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$F$213</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$F$220</definedName>
   </definedNames>
   <calcPr calcId="181029" refMode="R1C1"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="508">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="949" uniqueCount="515">
   <si>
     <t>1С</t>
   </si>
@@ -490,15 +490,6 @@
     <t>Чебупай сочное яблоко Чебупай Фикс.вес 0,2 Лоток Горячая штучка</t>
   </si>
   <si>
-    <t>SU002582</t>
-  </si>
-  <si>
-    <t>P003184</t>
-  </si>
-  <si>
-    <t>Чебупай спелая вишня Чебупай Фикс.вес 0,2 Лоток Горячая штучка</t>
-  </si>
-  <si>
     <t>Вареники замороженные "Благолепные" с картофелем и грибами. ВЕС  ПОКОМ</t>
   </si>
   <si>
@@ -1559,6 +1550,36 @@
   </si>
   <si>
     <t>Жар-ладушки с мясом ТМ Зареченские ТС Зареченские продукты.  Поком</t>
+  </si>
+  <si>
+    <t>Жар-боллы с курочкой и сыром, ВЕС ТМ Зареченские  ПОКОМ</t>
+  </si>
+  <si>
+    <t>SU002915</t>
+  </si>
+  <si>
+    <t>P003341</t>
+  </si>
+  <si>
+    <t>«Чебупай спелая вишня» Фикс.вес 0,2 Лоток ТМ «Горячая штучка»</t>
+  </si>
+  <si>
+    <t>Чебуреки Мясные вес 2,7 кг ТМ Зареченские ТС Зареченские продукты   Поком</t>
+  </si>
+  <si>
+    <t>Готовые чебупели с мясом ТМ Горячая штучка Без свинины 0,3 кг  ПОКОМ</t>
+  </si>
+  <si>
+    <t>Пекерсы с индейкой в сливочном соусе ТМ Горячая штучка 0,25 кг зам  ПОКОМ</t>
+  </si>
+  <si>
+    <t>Пельмени Grandmeni с говядиной в сливочном соусе ТМ Горячая штучка флоупак сфера 0,75 кг.  ПОКОМ</t>
+  </si>
+  <si>
+    <t>Пельмени Grandmeni с говядиной ТМ Горячая штучка флоупак сфера 0,75 кг. ПОКОМ</t>
+  </si>
+  <si>
+    <t>Пельмени Бигбули #МЕГАВКУСИЩЕ с сочной грудинкой ТМ Горячая шту БУЛЬМЕНИ ТС Бигбули  сфера 0,9 ПОКОМ</t>
   </si>
 </sst>
 </file>
@@ -2033,11 +2054,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G313"/>
+  <dimension ref="A1:G320"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H8" sqref="H8"/>
+      <selection pane="bottomLeft" activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2073,13 +2094,13 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D2" s="4">
         <v>4301080153</v>
@@ -2088,19 +2109,19 @@
         <v>4607111036827</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D3" s="4">
         <v>4301080153</v>
@@ -2109,19 +2130,19 @@
         <v>4607111036827</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D4" s="4">
         <v>4301080153</v>
@@ -2130,19 +2151,19 @@
         <v>4607111036827</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="G4" s="1"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D5" s="4">
         <v>4301080153</v>
@@ -2151,19 +2172,19 @@
         <v>4607111036827</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="G5" s="1"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="D6" s="4">
         <v>4301135113</v>
@@ -2172,19 +2193,19 @@
         <v>4607111033659</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="G6" s="1"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="D7" s="4">
         <v>4301135113</v>
@@ -2193,19 +2214,19 @@
         <v>4607111033659</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="G7" s="1"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="D8" s="4">
         <v>4301135113</v>
@@ -2214,13 +2235,13 @@
         <v>4607111033659</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="G8" s="1"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>128</v>
@@ -2241,13 +2262,13 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D10" s="4">
         <v>4301135122</v>
@@ -2256,7 +2277,7 @@
         <v>4607111033628</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="G10" s="1"/>
     </row>
@@ -2304,7 +2325,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>96</v>
@@ -2325,13 +2346,13 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="D14" s="4">
         <v>4301135120</v>
@@ -2340,19 +2361,19 @@
         <v>4607111035141</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="G14" s="1"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
-        <v>229</v>
+        <v>510</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="D15" s="4">
         <v>4301135120</v>
@@ -2361,34 +2382,34 @@
         <v>4607111035141</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="G15" s="1"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
-        <v>74</v>
+        <v>226</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>99</v>
+        <v>257</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>100</v>
+        <v>258</v>
       </c>
       <c r="D16" s="4">
-        <v>4301135109</v>
+        <v>4301135120</v>
       </c>
       <c r="E16" s="3">
-        <v>4607111033444</v>
+        <v>4607111035141</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>101</v>
+        <v>259</v>
       </c>
       <c r="G16" s="1"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
-        <v>101</v>
+        <v>74</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>99</v>
@@ -2409,7 +2430,7 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
-        <v>230</v>
+        <v>101</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>99</v>
@@ -2430,22 +2451,22 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
-        <v>161</v>
+        <v>227</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>159</v>
+        <v>99</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="D19" s="4">
-        <v>4301135122</v>
+        <v>4301135109</v>
       </c>
       <c r="E19" s="3">
-        <v>4607111033628</v>
+        <v>4607111033444</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>161</v>
+        <v>101</v>
       </c>
       <c r="G19" s="1"/>
     </row>
@@ -2454,10 +2475,10 @@
         <v>158</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D20" s="4">
         <v>4301135122</v>
@@ -2466,61 +2487,61 @@
         <v>4607111033628</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="G20" s="1"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
-        <v>231</v>
+        <v>155</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>204</v>
+        <v>156</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>205</v>
+        <v>157</v>
       </c>
       <c r="D21" s="4">
-        <v>4301136013</v>
+        <v>4301135122</v>
       </c>
       <c r="E21" s="3">
-        <v>4607025784012</v>
+        <v>4607111033628</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>206</v>
+        <v>158</v>
       </c>
       <c r="G21" s="1"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
-        <v>501</v>
+        <v>228</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>263</v>
+        <v>201</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>264</v>
+        <v>202</v>
       </c>
       <c r="D22" s="4">
-        <v>4301136012</v>
+        <v>4301136013</v>
       </c>
       <c r="E22" s="3">
-        <v>4607025784319</v>
+        <v>4607025784012</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>265</v>
+        <v>203</v>
       </c>
       <c r="G22" s="1"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
-        <v>232</v>
+        <v>498</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="D23" s="4">
         <v>4301136012</v>
@@ -2529,40 +2550,40 @@
         <v>4607025784319</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="G23" s="1"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="11" t="s">
-        <v>206</v>
+        <v>229</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>204</v>
+        <v>260</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>205</v>
+        <v>261</v>
       </c>
       <c r="D24" s="4">
-        <v>4301136013</v>
+        <v>4301136012</v>
       </c>
       <c r="E24" s="3">
-        <v>4607025784012</v>
+        <v>4607025784319</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>206</v>
+        <v>262</v>
       </c>
       <c r="G24" s="1"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="11" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D25" s="4">
         <v>4301136013</v>
@@ -2571,40 +2592,40 @@
         <v>4607025784012</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="G25" s="1"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="11" t="s">
-        <v>485</v>
+        <v>204</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>471</v>
+        <v>201</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>472</v>
+        <v>202</v>
       </c>
       <c r="D26" s="4">
-        <v>4301136029</v>
+        <v>4301136013</v>
       </c>
       <c r="E26" s="3">
-        <v>4640242180410</v>
+        <v>4607025784012</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>473</v>
+        <v>203</v>
       </c>
       <c r="G26" s="1"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="11" t="s">
-        <v>162</v>
+        <v>482</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="D27" s="4">
         <v>4301136029</v>
@@ -2613,40 +2634,40 @@
         <v>4640242180410</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="G27" s="1"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="11" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>385</v>
+        <v>468</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>386</v>
+        <v>469</v>
       </c>
       <c r="D28" s="4">
-        <v>4301135191</v>
+        <v>4301136029</v>
       </c>
       <c r="E28" s="3">
-        <v>4640242180373</v>
+        <v>4640242180410</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>387</v>
+        <v>470</v>
       </c>
       <c r="G28" s="1"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="11" t="s">
-        <v>137</v>
+        <v>160</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="D29" s="4">
         <v>4301135191</v>
@@ -2655,61 +2676,61 @@
         <v>4640242180373</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="G29" s="1"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="11" t="s">
-        <v>315</v>
+        <v>505</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>349</v>
+        <v>382</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>350</v>
+        <v>383</v>
       </c>
       <c r="D30" s="4">
-        <v>4301135195</v>
+        <v>4301135191</v>
       </c>
       <c r="E30" s="3">
-        <v>4640242180366</v>
+        <v>4640242180373</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>351</v>
+        <v>384</v>
       </c>
       <c r="G30" s="1"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="11" t="s">
-        <v>486</v>
+        <v>137</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>349</v>
+        <v>382</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>350</v>
+        <v>383</v>
       </c>
       <c r="D31" s="4">
-        <v>4301135195</v>
+        <v>4301135191</v>
       </c>
       <c r="E31" s="3">
-        <v>4640242180366</v>
+        <v>4640242180373</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>351</v>
+        <v>384</v>
       </c>
       <c r="G31" s="1"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="11" t="s">
-        <v>164</v>
+        <v>312</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="D32" s="4">
         <v>4301135195</v>
@@ -2718,61 +2739,61 @@
         <v>4640242180366</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="G32" s="1"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="11" t="s">
-        <v>437</v>
+        <v>483</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="D33" s="4">
-        <v>4301135189</v>
+        <v>4301135195</v>
       </c>
       <c r="E33" s="3">
-        <v>4640242180342</v>
+        <v>4640242180366</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="G33" s="1"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="11" t="s">
-        <v>478</v>
+        <v>161</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="D34" s="4">
-        <v>4301135189</v>
+        <v>4301135195</v>
       </c>
       <c r="E34" s="3">
-        <v>4640242180342</v>
+        <v>4640242180366</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="G34" s="1"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="11" t="s">
-        <v>165</v>
+        <v>434</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="D35" s="4">
         <v>4301135189</v>
@@ -2781,61 +2802,61 @@
         <v>4640242180342</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="G35" s="1"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="11" t="s">
-        <v>488</v>
+        <v>475</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="D36" s="4">
-        <v>4301135188</v>
+        <v>4301135189</v>
       </c>
       <c r="E36" s="3">
-        <v>4640242180335</v>
+        <v>4640242180342</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="G36" s="1"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="11" t="s">
-        <v>494</v>
+        <v>162</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="D37" s="4">
-        <v>4301135188</v>
+        <v>4301135189</v>
       </c>
       <c r="E37" s="3">
-        <v>4640242180335</v>
+        <v>4640242180342</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="G37" s="1"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="11" t="s">
-        <v>507</v>
+        <v>485</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="D38" s="4">
         <v>4301135188</v>
@@ -2844,19 +2865,19 @@
         <v>4640242180335</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="G38" s="1"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="11" t="s">
-        <v>166</v>
+        <v>491</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="D39" s="4">
         <v>4301135188</v>
@@ -2865,61 +2886,61 @@
         <v>4640242180335</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="G39" s="1"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="11" t="s">
-        <v>167</v>
+        <v>504</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>379</v>
+        <v>352</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>380</v>
+        <v>353</v>
       </c>
       <c r="D40" s="4">
-        <v>4301135190</v>
+        <v>4301135188</v>
       </c>
       <c r="E40" s="3">
-        <v>4640242180359</v>
+        <v>4640242180335</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>381</v>
+        <v>354</v>
       </c>
       <c r="G40" s="1"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="11" t="s">
-        <v>487</v>
+        <v>163</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>379</v>
+        <v>352</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>380</v>
+        <v>353</v>
       </c>
       <c r="D41" s="4">
-        <v>4301135190</v>
+        <v>4301135188</v>
       </c>
       <c r="E41" s="3">
-        <v>4640242180359</v>
+        <v>4640242180335</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>381</v>
+        <v>354</v>
       </c>
       <c r="G41" s="1"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="11" t="s">
-        <v>490</v>
+        <v>164</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="D42" s="4">
         <v>4301135190</v>
@@ -2928,19 +2949,19 @@
         <v>4640242180359</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="G42" s="1"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="11" t="s">
-        <v>138</v>
+        <v>484</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="D43" s="4">
         <v>4301135190</v>
@@ -2949,61 +2970,61 @@
         <v>4640242180359</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="G43" s="1"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="11" t="s">
-        <v>91</v>
+        <v>487</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>367</v>
+        <v>376</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>368</v>
+        <v>377</v>
       </c>
       <c r="D44" s="4">
-        <v>4301135186</v>
+        <v>4301135190</v>
       </c>
       <c r="E44" s="3">
-        <v>4640242180311</v>
+        <v>4640242180359</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="G44" s="6"/>
+        <v>378</v>
+      </c>
+      <c r="G44" s="1"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="11" t="s">
-        <v>390</v>
+        <v>138</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>367</v>
+        <v>376</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>368</v>
+        <v>377</v>
       </c>
       <c r="D45" s="4">
-        <v>4301135186</v>
+        <v>4301135190</v>
       </c>
       <c r="E45" s="3">
-        <v>4640242180311</v>
+        <v>4640242180359</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="G45" s="6"/>
+        <v>378</v>
+      </c>
+      <c r="G45" s="1"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="11" t="s">
-        <v>479</v>
+        <v>91</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="D46" s="4">
         <v>4301135186</v>
@@ -3012,19 +3033,19 @@
         <v>4640242180311</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="G46" s="6"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="11" t="s">
-        <v>469</v>
+        <v>387</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="D47" s="4">
         <v>4301135186</v>
@@ -3033,19 +3054,19 @@
         <v>4640242180311</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="G47" s="6"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="11" t="s">
-        <v>233</v>
+        <v>476</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="D48" s="4">
         <v>4301135186</v>
@@ -3054,145 +3075,145 @@
         <v>4640242180311</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="G48" s="1"/>
+        <v>366</v>
+      </c>
+      <c r="G48" s="6"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="11" t="s">
-        <v>234</v>
+        <v>466</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="D49" s="4">
-        <v>4301135187</v>
+        <v>4301135186</v>
       </c>
       <c r="E49" s="3">
-        <v>4640242180328</v>
+        <v>4640242180311</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>360</v>
-      </c>
-      <c r="G49" s="1"/>
+        <v>366</v>
+      </c>
+      <c r="G49" s="6"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="11" t="s">
-        <v>208</v>
+        <v>230</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="D50" s="4">
-        <v>4301135187</v>
+        <v>4301135186</v>
       </c>
       <c r="E50" s="3">
-        <v>4640242180328</v>
+        <v>4640242180311</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="G50" s="1"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="11" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>303</v>
+        <v>355</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>304</v>
+        <v>356</v>
       </c>
       <c r="D51" s="4">
-        <v>4301135115</v>
+        <v>4301135187</v>
       </c>
       <c r="E51" s="3">
-        <v>4607111034380</v>
+        <v>4640242180328</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>305</v>
+        <v>357</v>
       </c>
       <c r="G51" s="1"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="11" t="s">
-        <v>168</v>
+        <v>205</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>303</v>
+        <v>355</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>304</v>
+        <v>356</v>
       </c>
       <c r="D52" s="4">
-        <v>4301135115</v>
+        <v>4301135187</v>
       </c>
       <c r="E52" s="3">
-        <v>4607111034380</v>
+        <v>4640242180328</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>305</v>
+        <v>357</v>
       </c>
       <c r="G52" s="1"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="11" t="s">
-        <v>287</v>
+        <v>232</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>316</v>
+        <v>300</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>317</v>
+        <v>301</v>
       </c>
       <c r="D53" s="4">
-        <v>4301135114</v>
+        <v>4301135115</v>
       </c>
       <c r="E53" s="3">
-        <v>4607111034397</v>
+        <v>4607111034380</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>318</v>
+        <v>302</v>
       </c>
       <c r="G53" s="1"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="11" t="s">
-        <v>236</v>
+        <v>165</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>316</v>
+        <v>300</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>317</v>
+        <v>301</v>
       </c>
       <c r="D54" s="4">
-        <v>4301135114</v>
+        <v>4301135115</v>
       </c>
       <c r="E54" s="3">
-        <v>4607111034397</v>
+        <v>4607111034380</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>318</v>
+        <v>302</v>
       </c>
       <c r="G54" s="1"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="11" t="s">
-        <v>75</v>
+        <v>284</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="D55" s="4">
         <v>4301135114</v>
@@ -3201,61 +3222,61 @@
         <v>4607111034397</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="G55" s="1"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="11" t="s">
-        <v>139</v>
+        <v>233</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>288</v>
+        <v>313</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>289</v>
+        <v>314</v>
       </c>
       <c r="D56" s="4">
-        <v>4301131012</v>
+        <v>4301135114</v>
       </c>
       <c r="E56" s="3">
-        <v>4607111034137</v>
+        <v>4607111034397</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>144</v>
+        <v>315</v>
       </c>
       <c r="G56" s="1"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="11" t="s">
-        <v>144</v>
+        <v>75</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>288</v>
+        <v>313</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>289</v>
+        <v>314</v>
       </c>
       <c r="D57" s="4">
-        <v>4301131012</v>
+        <v>4301135114</v>
       </c>
       <c r="E57" s="3">
-        <v>4607111034137</v>
+        <v>4607111034397</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>144</v>
+        <v>315</v>
       </c>
       <c r="G57" s="1"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="11" t="s">
-        <v>237</v>
+        <v>139</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="D58" s="4">
         <v>4301131012</v>
@@ -3270,49 +3291,49 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="11" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>145</v>
+        <v>285</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>146</v>
+        <v>286</v>
       </c>
       <c r="D59" s="4">
-        <v>4301131011</v>
+        <v>4301131012</v>
       </c>
       <c r="E59" s="3">
-        <v>4607111034120</v>
+        <v>4607111034137</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="G59" s="6"/>
+        <v>144</v>
+      </c>
+      <c r="G59" s="1"/>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="11" t="s">
-        <v>147</v>
+        <v>234</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>145</v>
+        <v>285</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>146</v>
+        <v>286</v>
       </c>
       <c r="D60" s="4">
-        <v>4301131011</v>
+        <v>4301131012</v>
       </c>
       <c r="E60" s="3">
-        <v>4607111034120</v>
+        <v>4607111034137</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="G60" s="6"/>
+        <v>144</v>
+      </c>
+      <c r="G60" s="1"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="11" t="s">
-        <v>238</v>
+        <v>140</v>
       </c>
       <c r="B61" s="3" t="s">
         <v>145</v>
@@ -3329,59 +3350,59 @@
       <c r="F61" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="G61" s="1"/>
+      <c r="G61" s="6"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="11" t="s">
-        <v>239</v>
+        <v>147</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>361</v>
+        <v>145</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>362</v>
+        <v>146</v>
       </c>
       <c r="D62" s="4">
-        <v>4301135192</v>
+        <v>4301131011</v>
       </c>
       <c r="E62" s="3">
-        <v>4640242180380</v>
+        <v>4607111034120</v>
       </c>
       <c r="F62" s="5" t="s">
-        <v>363</v>
-      </c>
-      <c r="G62" s="1"/>
+        <v>147</v>
+      </c>
+      <c r="G62" s="6"/>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="11" t="s">
-        <v>285</v>
+        <v>235</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>361</v>
+        <v>145</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>362</v>
+        <v>146</v>
       </c>
       <c r="D63" s="4">
-        <v>4301135192</v>
+        <v>4301131011</v>
       </c>
       <c r="E63" s="3">
-        <v>4640242180380</v>
+        <v>4607111034120</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>363</v>
+        <v>147</v>
       </c>
       <c r="G63" s="1"/>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="11" t="s">
-        <v>434</v>
+        <v>236</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="D64" s="4">
         <v>4301135192</v>
@@ -3390,19 +3411,19 @@
         <v>4640242180380</v>
       </c>
       <c r="F64" s="5" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="G64" s="1"/>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="11" t="s">
-        <v>462</v>
+        <v>282</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="D65" s="4">
         <v>4301135192</v>
@@ -3411,19 +3432,19 @@
         <v>4640242180380</v>
       </c>
       <c r="F65" s="5" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="G65" s="1"/>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="11" t="s">
-        <v>76</v>
+        <v>431</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="D66" s="4">
         <v>4301135192</v>
@@ -3432,61 +3453,61 @@
         <v>4640242180380</v>
       </c>
       <c r="F66" s="5" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="G66" s="1"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="11" t="s">
-        <v>268</v>
+        <v>459</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>266</v>
+        <v>358</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>267</v>
+        <v>359</v>
       </c>
       <c r="D67" s="4">
-        <v>4301132066</v>
+        <v>4301135192</v>
       </c>
       <c r="E67" s="3">
-        <v>4607111036520</v>
+        <v>4640242180380</v>
       </c>
       <c r="F67" s="5" t="s">
-        <v>268</v>
+        <v>360</v>
       </c>
       <c r="G67" s="1"/>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="11" t="s">
-        <v>395</v>
+        <v>76</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>266</v>
+        <v>358</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>267</v>
+        <v>359</v>
       </c>
       <c r="D68" s="4">
-        <v>4301132066</v>
+        <v>4301135192</v>
       </c>
       <c r="E68" s="3">
-        <v>4607111036520</v>
+        <v>4640242180380</v>
       </c>
       <c r="F68" s="5" t="s">
-        <v>268</v>
+        <v>360</v>
       </c>
       <c r="G68" s="1"/>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="11" t="s">
-        <v>240</v>
+        <v>265</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="D69" s="4">
         <v>4301132066</v>
@@ -3495,118 +3516,118 @@
         <v>4607111036520</v>
       </c>
       <c r="F69" s="5" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="G69" s="1"/>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="11" t="s">
-        <v>241</v>
+        <v>392</v>
       </c>
       <c r="B70" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="D70" s="4">
+        <v>4301132066</v>
+      </c>
+      <c r="E70" s="3">
+        <v>4607111036520</v>
+      </c>
+      <c r="F70" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="G70" s="1"/>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71" s="11" t="s">
+        <v>237</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="D71" s="4">
+        <v>4301132066</v>
+      </c>
+      <c r="E71" s="3">
+        <v>4607111036520</v>
+      </c>
+      <c r="F71" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="G71" s="1"/>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="D72" s="4">
+        <v>4301132065</v>
+      </c>
+      <c r="E72" s="3">
+        <v>4607111036599</v>
+      </c>
+      <c r="F72" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="G72" s="1"/>
+    </row>
+    <row r="73" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A73" s="11" t="s">
+        <v>500</v>
+      </c>
+      <c r="B73" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="C70" s="3" t="s">
+      <c r="C73" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="D70" s="4">
-        <v>4301132065</v>
-      </c>
-      <c r="E70" s="3">
-        <v>4607111036599</v>
-      </c>
-      <c r="F70" s="5" t="s">
+      <c r="D73" s="4">
+        <v>4301132063</v>
+      </c>
+      <c r="E73" s="3">
+        <v>4607111036605</v>
+      </c>
+      <c r="F73" s="5" t="s">
         <v>271</v>
       </c>
-      <c r="G70" s="1"/>
-    </row>
-    <row r="71" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A71" s="11" t="s">
-        <v>503</v>
-      </c>
-      <c r="B71" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="C71" s="3" t="s">
-        <v>273</v>
-      </c>
-      <c r="D71" s="4">
+      <c r="G73" s="1"/>
+    </row>
+    <row r="74" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A74" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="D74" s="4">
         <v>4301132063</v>
       </c>
-      <c r="E71" s="3">
+      <c r="E74" s="3">
         <v>4607111036605</v>
       </c>
-      <c r="F71" s="5" t="s">
-        <v>274</v>
-      </c>
-      <c r="G71" s="1"/>
-    </row>
-    <row r="72" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A72" s="11" t="s">
-        <v>242</v>
-      </c>
-      <c r="B72" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="C72" s="3" t="s">
-        <v>273</v>
-      </c>
-      <c r="D72" s="4">
-        <v>4301132063</v>
-      </c>
-      <c r="E72" s="3">
-        <v>4607111036605</v>
-      </c>
-      <c r="F72" s="5" t="s">
-        <v>274</v>
-      </c>
-      <c r="G72" s="1"/>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A73" s="11" t="s">
-        <v>243</v>
-      </c>
-      <c r="B73" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="C73" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="D73" s="4">
-        <v>4301132046</v>
-      </c>
-      <c r="E73" s="3">
-        <v>4607111035691</v>
-      </c>
-      <c r="F73" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="G73" s="1"/>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A74" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="B74" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="C74" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="D74" s="4">
-        <v>4301132046</v>
-      </c>
-      <c r="E74" s="3">
-        <v>4607111035691</v>
-      </c>
       <c r="F74" s="5" t="s">
-        <v>104</v>
+        <v>271</v>
       </c>
       <c r="G74" s="1"/>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="11" t="s">
-        <v>77</v>
+        <v>240</v>
       </c>
       <c r="B75" s="3" t="s">
         <v>102</v>
@@ -3627,118 +3648,118 @@
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="11" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D76" s="4">
-        <v>4301132064</v>
+        <v>4301132046</v>
       </c>
       <c r="E76" s="3">
-        <v>4607111036537</v>
+        <v>4607111035691</v>
       </c>
       <c r="F76" s="5" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="G76" s="1"/>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D77" s="4">
-        <v>4301132064</v>
+        <v>4301132046</v>
       </c>
       <c r="E77" s="3">
-        <v>4607111036537</v>
+        <v>4607111035691</v>
       </c>
       <c r="F77" s="5" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="G77" s="1"/>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="11" t="s">
-        <v>79</v>
+        <v>107</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D78" s="4">
-        <v>4301132048</v>
+        <v>4301132064</v>
       </c>
       <c r="E78" s="3">
-        <v>4607111035721</v>
+        <v>4607111036537</v>
       </c>
       <c r="F78" s="5" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G78" s="1"/>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="11" t="s">
-        <v>468</v>
+        <v>78</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>364</v>
+        <v>105</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>365</v>
+        <v>106</v>
       </c>
       <c r="D79" s="4">
-        <v>4301132080</v>
+        <v>4301132064</v>
       </c>
       <c r="E79" s="3">
-        <v>4640242180397</v>
+        <v>4607111036537</v>
       </c>
       <c r="F79" s="5" t="s">
-        <v>366</v>
+        <v>107</v>
       </c>
       <c r="G79" s="1"/>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="11" t="s">
-        <v>470</v>
+        <v>79</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>364</v>
+        <v>108</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>365</v>
+        <v>109</v>
       </c>
       <c r="D80" s="4">
-        <v>4301132080</v>
+        <v>4301132048</v>
       </c>
       <c r="E80" s="3">
-        <v>4640242180397</v>
+        <v>4607111035721</v>
       </c>
       <c r="F80" s="5" t="s">
-        <v>366</v>
+        <v>110</v>
       </c>
       <c r="G80" s="1"/>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="11" t="s">
-        <v>480</v>
+        <v>465</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="D81" s="4">
         <v>4301132080</v>
@@ -3747,19 +3768,19 @@
         <v>4640242180397</v>
       </c>
       <c r="F81" s="5" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="G81" s="1"/>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="11" t="s">
-        <v>80</v>
+        <v>467</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="D82" s="4">
         <v>4301132080</v>
@@ -3768,61 +3789,61 @@
         <v>4640242180397</v>
       </c>
       <c r="F82" s="5" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="G82" s="1"/>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="11" t="s">
-        <v>421</v>
+        <v>477</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>275</v>
+        <v>361</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>276</v>
+        <v>362</v>
       </c>
       <c r="D83" s="4">
-        <v>4301135134</v>
+        <v>4301132080</v>
       </c>
       <c r="E83" s="3">
-        <v>4607111035806</v>
+        <v>4640242180397</v>
       </c>
       <c r="F83" s="5" t="s">
-        <v>277</v>
+        <v>363</v>
       </c>
       <c r="G83" s="1"/>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="11" t="s">
-        <v>433</v>
+        <v>80</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>275</v>
+        <v>361</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>276</v>
+        <v>362</v>
       </c>
       <c r="D84" s="4">
-        <v>4301135134</v>
+        <v>4301132080</v>
       </c>
       <c r="E84" s="3">
-        <v>4607111035806</v>
+        <v>4640242180397</v>
       </c>
       <c r="F84" s="5" t="s">
-        <v>277</v>
+        <v>363</v>
       </c>
       <c r="G84" s="1"/>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="11" t="s">
-        <v>244</v>
+        <v>418</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D85" s="4">
         <v>4301135134</v>
@@ -3831,103 +3852,103 @@
         <v>4607111035806</v>
       </c>
       <c r="F85" s="5" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="G85" s="1"/>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="11" t="s">
-        <v>245</v>
+        <v>430</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>170</v>
+        <v>272</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>171</v>
+        <v>273</v>
       </c>
       <c r="D86" s="4">
-        <v>4301070935</v>
+        <v>4301135134</v>
       </c>
       <c r="E86" s="3">
-        <v>4607111037190</v>
+        <v>4607111035806</v>
       </c>
       <c r="F86" s="5" t="s">
-        <v>172</v>
+        <v>274</v>
       </c>
       <c r="G86" s="1"/>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="11" t="s">
-        <v>396</v>
+        <v>511</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="D87" s="4">
-        <v>4301070865</v>
+        <v>4301135134</v>
       </c>
       <c r="E87" s="3">
-        <v>4607111036285</v>
+        <v>4607111035806</v>
       </c>
       <c r="F87" s="5" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="G87" s="1"/>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="11" t="s">
-        <v>446</v>
+        <v>241</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="D88" s="4">
-        <v>4301070865</v>
+        <v>4301135134</v>
       </c>
       <c r="E88" s="3">
-        <v>4607111036285</v>
+        <v>4607111035806</v>
       </c>
       <c r="F88" s="5" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="G88" s="1"/>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="11" t="s">
-        <v>280</v>
+        <v>242</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>278</v>
+        <v>167</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>279</v>
+        <v>168</v>
       </c>
       <c r="D89" s="4">
-        <v>4301070865</v>
+        <v>4301070935</v>
       </c>
       <c r="E89" s="3">
-        <v>4607111036285</v>
+        <v>4607111037190</v>
       </c>
       <c r="F89" s="5" t="s">
-        <v>280</v>
+        <v>169</v>
       </c>
       <c r="G89" s="1"/>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="11" t="s">
-        <v>246</v>
+        <v>393</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="D90" s="4">
         <v>4301070865</v>
@@ -3936,2654 +3957,2738 @@
         <v>4607111036285</v>
       </c>
       <c r="F90" s="5" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="G90" s="1"/>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="11" t="s">
-        <v>179</v>
+        <v>443</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>178</v>
+        <v>275</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>347</v>
+        <v>276</v>
       </c>
       <c r="D91" s="4">
-        <v>4301070970</v>
+        <v>4301070865</v>
       </c>
       <c r="E91" s="3">
-        <v>4607111037091</v>
+        <v>4607111036285</v>
       </c>
       <c r="F91" s="5" t="s">
-        <v>348</v>
-      </c>
-      <c r="G91" s="6"/>
+        <v>277</v>
+      </c>
+      <c r="G91" s="1"/>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="11" t="s">
-        <v>177</v>
+        <v>277</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>178</v>
+        <v>275</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>347</v>
+        <v>276</v>
       </c>
       <c r="D92" s="4">
-        <v>4301070970</v>
+        <v>4301070865</v>
       </c>
       <c r="E92" s="3">
-        <v>4607111037091</v>
+        <v>4607111036285</v>
       </c>
       <c r="F92" s="5" t="s">
-        <v>348</v>
-      </c>
-      <c r="G92" s="6"/>
+        <v>277</v>
+      </c>
+      <c r="G92" s="1"/>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="11" t="s">
-        <v>338</v>
+        <v>513</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>178</v>
+        <v>275</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>347</v>
+        <v>276</v>
       </c>
       <c r="D93" s="4">
-        <v>4301070970</v>
+        <v>4301070865</v>
       </c>
       <c r="E93" s="3">
-        <v>4607111037091</v>
+        <v>4607111036285</v>
       </c>
       <c r="F93" s="5" t="s">
-        <v>348</v>
+        <v>277</v>
       </c>
       <c r="G93" s="1"/>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="11" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>178</v>
+        <v>275</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>347</v>
+        <v>276</v>
       </c>
       <c r="D94" s="4">
-        <v>4301070970</v>
+        <v>4301070865</v>
       </c>
       <c r="E94" s="3">
-        <v>4607111037091</v>
+        <v>4607111036285</v>
       </c>
       <c r="F94" s="5" t="s">
-        <v>348</v>
+        <v>277</v>
       </c>
       <c r="G94" s="1"/>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="11" t="s">
-        <v>87</v>
+        <v>176</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>119</v>
+        <v>175</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>335</v>
+        <v>344</v>
       </c>
       <c r="D95" s="4">
-        <v>4301070973</v>
+        <v>4301070970</v>
       </c>
       <c r="E95" s="3">
-        <v>4607111033987</v>
+        <v>4607111037091</v>
       </c>
       <c r="F95" s="5" t="s">
-        <v>336</v>
+        <v>345</v>
       </c>
       <c r="G95" s="6"/>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="11" t="s">
-        <v>336</v>
+        <v>174</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>119</v>
+        <v>175</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>335</v>
+        <v>344</v>
       </c>
       <c r="D96" s="4">
-        <v>4301070973</v>
+        <v>4301070970</v>
       </c>
       <c r="E96" s="3">
-        <v>4607111033987</v>
+        <v>4607111037091</v>
       </c>
       <c r="F96" s="5" t="s">
-        <v>336</v>
+        <v>345</v>
       </c>
       <c r="G96" s="6"/>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="11" t="s">
-        <v>249</v>
+        <v>335</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>119</v>
+        <v>175</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>335</v>
+        <v>344</v>
       </c>
       <c r="D97" s="4">
-        <v>4301070973</v>
+        <v>4301070970</v>
       </c>
       <c r="E97" s="3">
-        <v>4607111033987</v>
+        <v>4607111037091</v>
       </c>
       <c r="F97" s="5" t="s">
-        <v>336</v>
+        <v>345</v>
       </c>
       <c r="G97" s="1"/>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="11" t="s">
-        <v>445</v>
+        <v>244</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>281</v>
+        <v>175</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>282</v>
+        <v>344</v>
       </c>
       <c r="D98" s="4">
-        <v>4301070861</v>
+        <v>4301070970</v>
       </c>
       <c r="E98" s="3">
-        <v>4607111036308</v>
+        <v>4607111037091</v>
       </c>
       <c r="F98" s="5" t="s">
-        <v>283</v>
+        <v>345</v>
       </c>
       <c r="G98" s="1"/>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="11" t="s">
-        <v>250</v>
+        <v>87</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>281</v>
+        <v>119</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>282</v>
+        <v>332</v>
       </c>
       <c r="D99" s="4">
-        <v>4301070861</v>
+        <v>4301070973</v>
       </c>
       <c r="E99" s="3">
-        <v>4607111036308</v>
+        <v>4607111033987</v>
       </c>
       <c r="F99" s="5" t="s">
-        <v>283</v>
-      </c>
-      <c r="G99" s="1"/>
+        <v>333</v>
+      </c>
+      <c r="G99" s="6"/>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="11" t="s">
-        <v>81</v>
+        <v>333</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>112</v>
+        <v>332</v>
       </c>
       <c r="D100" s="4">
-        <v>4301070864</v>
+        <v>4301070973</v>
       </c>
       <c r="E100" s="3">
-        <v>4607111036292</v>
+        <v>4607111033987</v>
       </c>
       <c r="F100" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="G100" s="1"/>
+        <v>333</v>
+      </c>
+      <c r="G100" s="6"/>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="11" t="s">
-        <v>447</v>
+        <v>246</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>112</v>
+        <v>332</v>
       </c>
       <c r="D101" s="4">
-        <v>4301070864</v>
+        <v>4301070973</v>
       </c>
       <c r="E101" s="3">
-        <v>4607111036292</v>
+        <v>4607111033987</v>
       </c>
       <c r="F101" s="5" t="s">
-        <v>113</v>
+        <v>333</v>
       </c>
       <c r="G101" s="1"/>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="11" t="s">
-        <v>251</v>
+        <v>442</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>111</v>
+        <v>278</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>112</v>
+        <v>279</v>
       </c>
       <c r="D102" s="4">
-        <v>4301070864</v>
+        <v>4301070861</v>
       </c>
       <c r="E102" s="3">
-        <v>4607111036292</v>
+        <v>4607111036308</v>
       </c>
       <c r="F102" s="5" t="s">
-        <v>113</v>
+        <v>280</v>
       </c>
       <c r="G102" s="1"/>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="11" t="s">
-        <v>252</v>
+        <v>512</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>174</v>
+        <v>278</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>343</v>
+        <v>279</v>
       </c>
       <c r="D103" s="4">
-        <v>4301070972</v>
+        <v>4301070861</v>
       </c>
       <c r="E103" s="3">
-        <v>4607111037183</v>
+        <v>4607111036308</v>
       </c>
       <c r="F103" s="5" t="s">
-        <v>344</v>
+        <v>280</v>
       </c>
       <c r="G103" s="1"/>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="11" t="s">
-        <v>86</v>
+        <v>247</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>118</v>
+        <v>278</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>331</v>
+        <v>279</v>
       </c>
       <c r="D104" s="4">
-        <v>4301070974</v>
+        <v>4301070861</v>
       </c>
       <c r="E104" s="3">
-        <v>4607111034151</v>
+        <v>4607111036308</v>
       </c>
       <c r="F104" s="5" t="s">
-        <v>332</v>
-      </c>
-      <c r="G104" s="6"/>
+        <v>280</v>
+      </c>
+      <c r="G104" s="1"/>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="11" t="s">
-        <v>332</v>
+        <v>81</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>331</v>
+        <v>112</v>
       </c>
       <c r="D105" s="4">
-        <v>4301070974</v>
+        <v>4301070864</v>
       </c>
       <c r="E105" s="3">
-        <v>4607111034151</v>
+        <v>4607111036292</v>
       </c>
       <c r="F105" s="5" t="s">
-        <v>332</v>
-      </c>
-      <c r="G105" s="6"/>
+        <v>113</v>
+      </c>
+      <c r="G105" s="1"/>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="11" t="s">
-        <v>254</v>
+        <v>444</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>331</v>
+        <v>112</v>
       </c>
       <c r="D106" s="4">
-        <v>4301070974</v>
+        <v>4301070864</v>
       </c>
       <c r="E106" s="3">
-        <v>4607111034151</v>
+        <v>4607111036292</v>
       </c>
       <c r="F106" s="5" t="s">
-        <v>332</v>
+        <v>113</v>
       </c>
       <c r="G106" s="1"/>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="11" t="s">
-        <v>169</v>
+        <v>248</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>170</v>
+        <v>111</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>171</v>
+        <v>112</v>
       </c>
       <c r="D107" s="4">
-        <v>4301070935</v>
+        <v>4301070864</v>
       </c>
       <c r="E107" s="3">
-        <v>4607111037190</v>
+        <v>4607111036292</v>
       </c>
       <c r="F107" s="5" t="s">
-        <v>172</v>
+        <v>113</v>
       </c>
       <c r="G107" s="1"/>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="11" t="s">
-        <v>173</v>
+        <v>86</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>174</v>
+        <v>118</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>343</v>
+        <v>328</v>
       </c>
       <c r="D108" s="4">
-        <v>4301070972</v>
+        <v>4301070974</v>
       </c>
       <c r="E108" s="3">
-        <v>4607111037183</v>
+        <v>4607111034151</v>
       </c>
       <c r="F108" s="5" t="s">
-        <v>344</v>
-      </c>
-      <c r="G108" s="1"/>
+        <v>329</v>
+      </c>
+      <c r="G108" s="6"/>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="11" t="s">
-        <v>175</v>
+        <v>329</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>176</v>
+        <v>118</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>345</v>
+        <v>328</v>
       </c>
       <c r="D109" s="4">
-        <v>4301070969</v>
+        <v>4301070974</v>
       </c>
       <c r="E109" s="3">
-        <v>4607111036858</v>
+        <v>4607111034151</v>
       </c>
       <c r="F109" s="5" t="s">
-        <v>346</v>
-      </c>
-      <c r="G109" s="1"/>
+        <v>329</v>
+      </c>
+      <c r="G109" s="6"/>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="11" t="s">
-        <v>82</v>
+        <v>251</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>498</v>
+        <v>328</v>
       </c>
       <c r="D110" s="4">
-        <v>4301070968</v>
+        <v>4301070974</v>
       </c>
       <c r="E110" s="3">
-        <v>4607111036889</v>
+        <v>4607111034151</v>
       </c>
       <c r="F110" s="5" t="s">
-        <v>499</v>
-      </c>
-      <c r="G110" s="6"/>
+        <v>329</v>
+      </c>
+      <c r="G110" s="1"/>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="11" t="s">
-        <v>182</v>
+        <v>166</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>181</v>
+        <v>167</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>474</v>
+        <v>168</v>
       </c>
       <c r="D111" s="4">
-        <v>4301070971</v>
+        <v>4301070935</v>
       </c>
       <c r="E111" s="3">
-        <v>4607111036902</v>
+        <v>4607111037190</v>
       </c>
       <c r="F111" s="5" t="s">
-        <v>475</v>
-      </c>
-      <c r="G111" s="6"/>
+        <v>169</v>
+      </c>
+      <c r="G111" s="1"/>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="11" t="s">
-        <v>337</v>
+        <v>249</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>474</v>
+        <v>340</v>
       </c>
       <c r="D112" s="4">
-        <v>4301070971</v>
+        <v>4301070972</v>
       </c>
       <c r="E112" s="3">
-        <v>4607111036902</v>
+        <v>4607111037183</v>
       </c>
       <c r="F112" s="5" t="s">
-        <v>475</v>
-      </c>
-      <c r="G112" s="6"/>
+        <v>341</v>
+      </c>
+      <c r="G112" s="1"/>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="11" t="s">
-        <v>180</v>
+        <v>514</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>474</v>
+        <v>340</v>
       </c>
       <c r="D113" s="4">
-        <v>4301070971</v>
+        <v>4301070972</v>
       </c>
       <c r="E113" s="3">
-        <v>4607111036902</v>
+        <v>4607111037183</v>
       </c>
       <c r="F113" s="5" t="s">
-        <v>475</v>
-      </c>
-      <c r="G113" s="6"/>
+        <v>341</v>
+      </c>
+      <c r="G113" s="1"/>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="11" t="s">
-        <v>292</v>
+        <v>170</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>115</v>
+        <v>171</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>324</v>
+        <v>340</v>
       </c>
       <c r="D114" s="4">
-        <v>4301070976</v>
+        <v>4301070972</v>
       </c>
       <c r="E114" s="3">
-        <v>4607111034144</v>
+        <v>4607111037183</v>
       </c>
       <c r="F114" s="5" t="s">
-        <v>325</v>
-      </c>
-      <c r="G114" s="6"/>
+        <v>341</v>
+      </c>
+      <c r="G114" s="1"/>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="11" t="s">
-        <v>253</v>
+        <v>172</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>115</v>
+        <v>173</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>324</v>
+        <v>342</v>
       </c>
       <c r="D115" s="4">
-        <v>4301070976</v>
+        <v>4301070969</v>
       </c>
       <c r="E115" s="3">
-        <v>4607111034144</v>
+        <v>4607111036858</v>
       </c>
       <c r="F115" s="5" t="s">
-        <v>325</v>
+        <v>343</v>
       </c>
       <c r="G115" s="1"/>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="11" t="s">
-        <v>325</v>
+        <v>82</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>324</v>
+        <v>495</v>
       </c>
       <c r="D116" s="4">
-        <v>4301070976</v>
+        <v>4301070968</v>
       </c>
       <c r="E116" s="3">
-        <v>4607111034144</v>
+        <v>4607111036889</v>
       </c>
       <c r="F116" s="5" t="s">
-        <v>325</v>
-      </c>
-      <c r="G116" s="1"/>
+        <v>496</v>
+      </c>
+      <c r="G116" s="6"/>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="11" t="s">
-        <v>83</v>
+        <v>179</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>115</v>
+        <v>178</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>324</v>
+        <v>471</v>
       </c>
       <c r="D117" s="4">
-        <v>4301070976</v>
+        <v>4301070971</v>
       </c>
       <c r="E117" s="3">
-        <v>4607111034144</v>
+        <v>4607111036902</v>
       </c>
       <c r="F117" s="5" t="s">
-        <v>325</v>
+        <v>472</v>
       </c>
       <c r="G117" s="6"/>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="11" t="s">
-        <v>291</v>
+        <v>334</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>116</v>
+        <v>178</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>333</v>
+        <v>471</v>
       </c>
       <c r="D118" s="4">
-        <v>4301070975</v>
+        <v>4301070971</v>
       </c>
       <c r="E118" s="3">
-        <v>4607111033970</v>
+        <v>4607111036902</v>
       </c>
       <c r="F118" s="5" t="s">
-        <v>334</v>
+        <v>472</v>
       </c>
       <c r="G118" s="6"/>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="11" t="s">
-        <v>248</v>
+        <v>177</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>116</v>
+        <v>178</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>333</v>
+        <v>471</v>
       </c>
       <c r="D119" s="4">
-        <v>4301070975</v>
+        <v>4301070971</v>
       </c>
       <c r="E119" s="3">
-        <v>4607111033970</v>
+        <v>4607111036902</v>
       </c>
       <c r="F119" s="5" t="s">
-        <v>334</v>
-      </c>
-      <c r="G119" s="1"/>
+        <v>472</v>
+      </c>
+      <c r="G119" s="6"/>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="11" t="s">
-        <v>402</v>
+        <v>289</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>333</v>
+        <v>321</v>
       </c>
       <c r="D120" s="4">
-        <v>4301070975</v>
+        <v>4301070976</v>
       </c>
       <c r="E120" s="3">
-        <v>4607111033970</v>
+        <v>4607111034144</v>
       </c>
       <c r="F120" s="5" t="s">
-        <v>334</v>
-      </c>
-      <c r="G120" s="1"/>
+        <v>322</v>
+      </c>
+      <c r="G120" s="6"/>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="11" t="s">
-        <v>334</v>
+        <v>250</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>333</v>
+        <v>321</v>
       </c>
       <c r="D121" s="4">
-        <v>4301070975</v>
+        <v>4301070976</v>
       </c>
       <c r="E121" s="3">
-        <v>4607111033970</v>
+        <v>4607111034144</v>
       </c>
       <c r="F121" s="5" t="s">
-        <v>334</v>
+        <v>322</v>
       </c>
       <c r="G121" s="1"/>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="11" t="s">
-        <v>84</v>
+        <v>322</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>333</v>
+        <v>321</v>
       </c>
       <c r="D122" s="4">
-        <v>4301070975</v>
+        <v>4301070976</v>
       </c>
       <c r="E122" s="3">
-        <v>4607111033970</v>
+        <v>4607111034144</v>
       </c>
       <c r="F122" s="5" t="s">
-        <v>334</v>
-      </c>
-      <c r="G122" s="6"/>
+        <v>322</v>
+      </c>
+      <c r="G122" s="1"/>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" s="11" t="s">
-        <v>401</v>
+        <v>83</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="D123" s="4">
-        <v>4301070981</v>
+        <v>4301070976</v>
       </c>
       <c r="E123" s="3">
-        <v>4607111036728</v>
+        <v>4607111034144</v>
       </c>
       <c r="F123" s="5" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="G123" s="6"/>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" s="11" t="s">
-        <v>85</v>
+        <v>288</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="D124" s="4">
-        <v>4301070981</v>
+        <v>4301070975</v>
       </c>
       <c r="E124" s="3">
-        <v>4607111036728</v>
+        <v>4607111033970</v>
       </c>
       <c r="F124" s="5" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="G124" s="6"/>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="11" t="s">
-        <v>415</v>
+        <v>245</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>209</v>
+        <v>116</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>210</v>
+        <v>330</v>
       </c>
       <c r="D125" s="4">
-        <v>4301071010</v>
+        <v>4301070975</v>
       </c>
       <c r="E125" s="3">
-        <v>4607111037701</v>
+        <v>4607111033970</v>
       </c>
       <c r="F125" s="5" t="s">
-        <v>211</v>
-      </c>
-      <c r="G125" s="6"/>
+        <v>331</v>
+      </c>
+      <c r="G125" s="1"/>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" s="11" t="s">
-        <v>489</v>
+        <v>399</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>209</v>
+        <v>116</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>210</v>
+        <v>330</v>
       </c>
       <c r="D126" s="4">
-        <v>4301071010</v>
+        <v>4301070975</v>
       </c>
       <c r="E126" s="3">
-        <v>4607111037701</v>
+        <v>4607111033970</v>
       </c>
       <c r="F126" s="5" t="s">
-        <v>211</v>
-      </c>
-      <c r="G126" s="6"/>
+        <v>331</v>
+      </c>
+      <c r="G126" s="1"/>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" s="11" t="s">
-        <v>212</v>
+        <v>331</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>209</v>
+        <v>116</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>210</v>
+        <v>330</v>
       </c>
       <c r="D127" s="4">
-        <v>4301071010</v>
+        <v>4301070975</v>
       </c>
       <c r="E127" s="3">
-        <v>4607111037701</v>
+        <v>4607111033970</v>
       </c>
       <c r="F127" s="5" t="s">
-        <v>211</v>
-      </c>
-      <c r="G127" s="6"/>
+        <v>331</v>
+      </c>
+      <c r="G127" s="1"/>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" s="11" t="s">
-        <v>216</v>
+        <v>84</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>213</v>
+        <v>116</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>214</v>
+        <v>330</v>
       </c>
       <c r="D128" s="4">
-        <v>4301070870</v>
+        <v>4301070975</v>
       </c>
       <c r="E128" s="3">
-        <v>4607111036711</v>
+        <v>4607111033970</v>
       </c>
       <c r="F128" s="5" t="s">
-        <v>215</v>
+        <v>331</v>
       </c>
       <c r="G128" s="6"/>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" s="11" t="s">
-        <v>184</v>
+        <v>398</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>319</v>
+        <v>117</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="D129" s="4">
-        <v>4301070948</v>
+        <v>4301070981</v>
       </c>
       <c r="E129" s="3">
-        <v>4607111037022</v>
+        <v>4607111036728</v>
       </c>
       <c r="F129" s="5" t="s">
-        <v>184</v>
+        <v>324</v>
       </c>
       <c r="G129" s="6"/>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" s="11" t="s">
-        <v>321</v>
+        <v>85</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>319</v>
+        <v>117</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="D130" s="4">
-        <v>4301070948</v>
+        <v>4301070981</v>
       </c>
       <c r="E130" s="3">
-        <v>4607111037022</v>
+        <v>4607111036728</v>
       </c>
       <c r="F130" s="5" t="s">
-        <v>184</v>
+        <v>324</v>
       </c>
       <c r="G130" s="6"/>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" s="11" t="s">
-        <v>183</v>
+        <v>412</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>319</v>
+        <v>206</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>320</v>
+        <v>207</v>
       </c>
       <c r="D131" s="4">
-        <v>4301070948</v>
+        <v>4301071010</v>
       </c>
       <c r="E131" s="3">
-        <v>4607111037022</v>
+        <v>4607111037701</v>
       </c>
       <c r="F131" s="5" t="s">
-        <v>184</v>
+        <v>208</v>
       </c>
       <c r="G131" s="6"/>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" s="11" t="s">
-        <v>122</v>
+        <v>486</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>120</v>
+        <v>206</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>121</v>
+        <v>207</v>
       </c>
       <c r="D132" s="4">
-        <v>4301070920</v>
+        <v>4301071010</v>
       </c>
       <c r="E132" s="3">
-        <v>4607111035929</v>
+        <v>4607111037701</v>
       </c>
       <c r="F132" s="5" t="s">
-        <v>122</v>
+        <v>208</v>
       </c>
       <c r="G132" s="6"/>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" s="11" t="s">
-        <v>88</v>
+        <v>209</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>120</v>
+        <v>206</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>121</v>
+        <v>207</v>
       </c>
       <c r="D133" s="4">
-        <v>4301070920</v>
+        <v>4301071010</v>
       </c>
       <c r="E133" s="3">
-        <v>4607111035929</v>
+        <v>4607111037701</v>
       </c>
       <c r="F133" s="5" t="s">
-        <v>122</v>
+        <v>208</v>
       </c>
       <c r="G133" s="6"/>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" s="11" t="s">
-        <v>185</v>
+        <v>213</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>186</v>
+        <v>210</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>187</v>
+        <v>211</v>
       </c>
       <c r="D134" s="4">
-        <v>4301070921</v>
+        <v>4301070870</v>
       </c>
       <c r="E134" s="3">
-        <v>4607111035905</v>
+        <v>4607111036711</v>
       </c>
       <c r="F134" s="5" t="s">
-        <v>188</v>
+        <v>212</v>
       </c>
       <c r="G134" s="6"/>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" s="11" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>186</v>
+        <v>316</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>187</v>
+        <v>317</v>
       </c>
       <c r="D135" s="4">
-        <v>4301070921</v>
+        <v>4301070948</v>
       </c>
       <c r="E135" s="3">
-        <v>4607111035905</v>
+        <v>4607111037022</v>
       </c>
       <c r="F135" s="5" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="G135" s="6"/>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" s="11" t="s">
-        <v>219</v>
+        <v>318</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>217</v>
+        <v>316</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>218</v>
+        <v>317</v>
       </c>
       <c r="D136" s="4">
-        <v>4301070917</v>
+        <v>4301070948</v>
       </c>
       <c r="E136" s="3">
-        <v>4607111035912</v>
+        <v>4607111037022</v>
       </c>
       <c r="F136" s="5" t="s">
-        <v>219</v>
+        <v>181</v>
       </c>
       <c r="G136" s="6"/>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" s="11" t="s">
-        <v>340</v>
+        <v>180</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>217</v>
+        <v>316</v>
       </c>
       <c r="C137" s="3" t="s">
-        <v>218</v>
+        <v>317</v>
       </c>
       <c r="D137" s="4">
-        <v>4301070917</v>
+        <v>4301070948</v>
       </c>
       <c r="E137" s="3">
-        <v>4607111035912</v>
+        <v>4607111037022</v>
       </c>
       <c r="F137" s="5" t="s">
-        <v>219</v>
+        <v>181</v>
       </c>
       <c r="G137" s="6"/>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" s="11" t="s">
-        <v>388</v>
+        <v>122</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>217</v>
+        <v>120</v>
       </c>
       <c r="C138" s="3" t="s">
-        <v>218</v>
+        <v>121</v>
       </c>
       <c r="D138" s="4">
-        <v>4301070917</v>
+        <v>4301070920</v>
       </c>
       <c r="E138" s="3">
-        <v>4607111035912</v>
+        <v>4607111035929</v>
       </c>
       <c r="F138" s="5" t="s">
-        <v>219</v>
+        <v>122</v>
       </c>
       <c r="G138" s="6"/>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" s="11" t="s">
-        <v>220</v>
+        <v>88</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>217</v>
+        <v>120</v>
       </c>
       <c r="C139" s="3" t="s">
-        <v>218</v>
+        <v>121</v>
       </c>
       <c r="D139" s="4">
-        <v>4301070917</v>
+        <v>4301070920</v>
       </c>
       <c r="E139" s="3">
-        <v>4607111035912</v>
+        <v>4607111035929</v>
       </c>
       <c r="F139" s="5" t="s">
-        <v>219</v>
+        <v>122</v>
       </c>
       <c r="G139" s="6"/>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" s="11" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>123</v>
+        <v>183</v>
       </c>
       <c r="C140" s="3" t="s">
-        <v>124</v>
+        <v>184</v>
       </c>
       <c r="D140" s="4">
-        <v>4301070827</v>
+        <v>4301070921</v>
       </c>
       <c r="E140" s="3">
-        <v>4607111036216</v>
+        <v>4607111035905</v>
       </c>
       <c r="F140" s="5" t="s">
-        <v>125</v>
+        <v>185</v>
       </c>
       <c r="G140" s="6"/>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" s="11" t="s">
-        <v>89</v>
+        <v>185</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>123</v>
+        <v>183</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>124</v>
+        <v>184</v>
       </c>
       <c r="D141" s="4">
-        <v>4301070827</v>
+        <v>4301070921</v>
       </c>
       <c r="E141" s="3">
-        <v>4607111036216</v>
+        <v>4607111035905</v>
       </c>
       <c r="F141" s="5" t="s">
-        <v>125</v>
+        <v>185</v>
       </c>
       <c r="G141" s="6"/>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" s="11" t="s">
-        <v>127</v>
+        <v>216</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>126</v>
+        <v>214</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>481</v>
+        <v>215</v>
       </c>
       <c r="D142" s="4">
-        <v>4301070965</v>
+        <v>4301070917</v>
       </c>
       <c r="E142" s="3">
-        <v>4607111035899</v>
+        <v>4607111035912</v>
       </c>
       <c r="F142" s="5" t="s">
-        <v>127</v>
+        <v>216</v>
       </c>
       <c r="G142" s="6"/>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" s="11" t="s">
-        <v>90</v>
+        <v>337</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>126</v>
+        <v>214</v>
       </c>
       <c r="C143" s="3" t="s">
-        <v>481</v>
+        <v>215</v>
       </c>
       <c r="D143" s="4">
-        <v>4301070965</v>
+        <v>4301070917</v>
       </c>
       <c r="E143" s="3">
-        <v>4607111035899</v>
+        <v>4607111035912</v>
       </c>
       <c r="F143" s="5" t="s">
-        <v>127</v>
+        <v>216</v>
       </c>
       <c r="G143" s="6"/>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" s="11" t="s">
-        <v>193</v>
+        <v>385</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>191</v>
+        <v>214</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>192</v>
+        <v>215</v>
       </c>
       <c r="D144" s="4">
-        <v>4301070873</v>
+        <v>4301070917</v>
       </c>
       <c r="E144" s="3">
-        <v>4607111035080</v>
+        <v>4607111035912</v>
       </c>
       <c r="F144" s="5" t="s">
-        <v>193</v>
+        <v>216</v>
       </c>
       <c r="G144" s="6"/>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" s="11" t="s">
-        <v>190</v>
+        <v>217</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>191</v>
+        <v>214</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>192</v>
+        <v>215</v>
       </c>
       <c r="D145" s="4">
-        <v>4301070873</v>
+        <v>4301070917</v>
       </c>
       <c r="E145" s="3">
-        <v>4607111035080</v>
+        <v>4607111035912</v>
       </c>
       <c r="F145" s="5" t="s">
-        <v>193</v>
+        <v>216</v>
       </c>
       <c r="G145" s="6"/>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" s="11" t="s">
-        <v>286</v>
+        <v>186</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>370</v>
+        <v>123</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>371</v>
+        <v>124</v>
       </c>
       <c r="D146" s="4">
-        <v>4301135193</v>
+        <v>4301070827</v>
       </c>
       <c r="E146" s="3">
-        <v>4640242180403</v>
+        <v>4607111036216</v>
       </c>
       <c r="F146" s="5" t="s">
-        <v>372</v>
+        <v>125</v>
       </c>
       <c r="G146" s="6"/>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" s="11" t="s">
-        <v>482</v>
+        <v>89</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>370</v>
+        <v>123</v>
       </c>
       <c r="C147" s="3" t="s">
-        <v>371</v>
+        <v>124</v>
       </c>
       <c r="D147" s="4">
-        <v>4301135193</v>
+        <v>4301070827</v>
       </c>
       <c r="E147" s="3">
-        <v>4640242180403</v>
+        <v>4607111036216</v>
       </c>
       <c r="F147" s="5" t="s">
-        <v>372</v>
+        <v>125</v>
       </c>
       <c r="G147" s="6"/>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" s="11" t="s">
-        <v>505</v>
+        <v>127</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>370</v>
+        <v>126</v>
       </c>
       <c r="C148" s="3" t="s">
-        <v>371</v>
+        <v>478</v>
       </c>
       <c r="D148" s="4">
-        <v>4301135193</v>
+        <v>4301070965</v>
       </c>
       <c r="E148" s="3">
-        <v>4640242180403</v>
+        <v>4607111035899</v>
       </c>
       <c r="F148" s="5" t="s">
-        <v>372</v>
+        <v>127</v>
       </c>
       <c r="G148" s="6"/>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" s="11" t="s">
-        <v>496</v>
+        <v>90</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>370</v>
+        <v>126</v>
       </c>
       <c r="C149" s="3" t="s">
-        <v>371</v>
+        <v>478</v>
       </c>
       <c r="D149" s="4">
-        <v>4301135193</v>
+        <v>4301070965</v>
       </c>
       <c r="E149" s="3">
-        <v>4640242180403</v>
+        <v>4607111035899</v>
       </c>
       <c r="F149" s="5" t="s">
-        <v>372</v>
+        <v>127</v>
       </c>
       <c r="G149" s="6"/>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" s="11" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>370</v>
+        <v>188</v>
       </c>
       <c r="C150" s="3" t="s">
-        <v>371</v>
+        <v>189</v>
       </c>
       <c r="D150" s="4">
-        <v>4301135193</v>
+        <v>4301070873</v>
       </c>
       <c r="E150" s="3">
-        <v>4640242180403</v>
+        <v>4607111035080</v>
       </c>
       <c r="F150" s="5" t="s">
-        <v>372</v>
+        <v>190</v>
       </c>
       <c r="G150" s="6"/>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" s="11" t="s">
-        <v>506</v>
+        <v>187</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="C151" s="3" t="s">
-        <v>476</v>
+        <v>189</v>
       </c>
       <c r="D151" s="4">
-        <v>4301070956</v>
+        <v>4301070873</v>
       </c>
       <c r="E151" s="3">
-        <v>4640242180250</v>
+        <v>4607111035080</v>
       </c>
       <c r="F151" s="5" t="s">
-        <v>477</v>
+        <v>190</v>
       </c>
       <c r="G151" s="6"/>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" s="11" t="s">
-        <v>198</v>
+        <v>283</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>196</v>
+        <v>367</v>
       </c>
       <c r="C152" s="3" t="s">
-        <v>197</v>
+        <v>368</v>
       </c>
       <c r="D152" s="4">
-        <v>4301070858</v>
+        <v>4301135193</v>
       </c>
       <c r="E152" s="3">
-        <v>4607111036193</v>
+        <v>4640242180403</v>
       </c>
       <c r="F152" s="5" t="s">
-        <v>198</v>
+        <v>369</v>
       </c>
       <c r="G152" s="6"/>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" s="11" t="s">
-        <v>195</v>
+        <v>479</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>196</v>
+        <v>367</v>
       </c>
       <c r="C153" s="3" t="s">
-        <v>476</v>
+        <v>368</v>
       </c>
       <c r="D153" s="4">
-        <v>4301070956</v>
+        <v>4301135193</v>
       </c>
       <c r="E153" s="3">
-        <v>4640242180250</v>
+        <v>4640242180403</v>
       </c>
       <c r="F153" s="5" t="s">
-        <v>477</v>
+        <v>369</v>
       </c>
       <c r="G153" s="6"/>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" s="11" t="s">
-        <v>92</v>
+        <v>502</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>128</v>
+        <v>367</v>
       </c>
       <c r="C154" s="3" t="s">
-        <v>129</v>
+        <v>368</v>
       </c>
       <c r="D154" s="4">
-        <v>4301135112</v>
+        <v>4301135193</v>
       </c>
       <c r="E154" s="3">
-        <v>4607111034199</v>
+        <v>4640242180403</v>
       </c>
       <c r="F154" s="5" t="s">
-        <v>130</v>
+        <v>369</v>
       </c>
       <c r="G154" s="6"/>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" s="11" t="s">
-        <v>302</v>
+        <v>493</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>328</v>
+        <v>367</v>
       </c>
       <c r="C155" s="3" t="s">
-        <v>329</v>
+        <v>368</v>
       </c>
       <c r="D155" s="4">
-        <v>4301131018</v>
+        <v>4301135193</v>
       </c>
       <c r="E155" s="3">
-        <v>4607111037930</v>
+        <v>4640242180403</v>
       </c>
       <c r="F155" s="5" t="s">
-        <v>330</v>
+        <v>369</v>
       </c>
       <c r="G155" s="6"/>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" s="11" t="s">
-        <v>420</v>
+        <v>191</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>328</v>
+        <v>367</v>
       </c>
       <c r="C156" s="3" t="s">
-        <v>329</v>
+        <v>368</v>
       </c>
       <c r="D156" s="4">
-        <v>4301131018</v>
+        <v>4301135193</v>
       </c>
       <c r="E156" s="3">
-        <v>4607111037930</v>
+        <v>4640242180403</v>
       </c>
       <c r="F156" s="5" t="s">
-        <v>330</v>
+        <v>369</v>
       </c>
       <c r="G156" s="6"/>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" s="11" t="s">
-        <v>199</v>
+        <v>503</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>464</v>
+        <v>193</v>
       </c>
       <c r="C157" s="3" t="s">
-        <v>465</v>
+        <v>473</v>
       </c>
       <c r="D157" s="4">
-        <v>4301131019</v>
+        <v>4301070956</v>
       </c>
       <c r="E157" s="3">
-        <v>4640242180427</v>
+        <v>4640242180250</v>
       </c>
       <c r="F157" s="5" t="s">
-        <v>466</v>
+        <v>474</v>
       </c>
       <c r="G157" s="6"/>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" s="11" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>148</v>
+        <v>193</v>
       </c>
       <c r="C158" s="3" t="s">
-        <v>149</v>
+        <v>194</v>
       </c>
       <c r="D158" s="4">
-        <v>4301190014</v>
+        <v>4301070858</v>
       </c>
       <c r="E158" s="3">
-        <v>4607111037053</v>
+        <v>4607111036193</v>
       </c>
       <c r="F158" s="5" t="s">
-        <v>150</v>
+        <v>195</v>
       </c>
       <c r="G158" s="6"/>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" s="11" t="s">
-        <v>430</v>
+        <v>192</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>148</v>
+        <v>193</v>
       </c>
       <c r="C159" s="3" t="s">
-        <v>149</v>
+        <v>473</v>
       </c>
       <c r="D159" s="4">
-        <v>4301190014</v>
+        <v>4301070956</v>
       </c>
       <c r="E159" s="3">
-        <v>4607111037053</v>
+        <v>4640242180250</v>
       </c>
       <c r="F159" s="5" t="s">
-        <v>150</v>
+        <v>474</v>
       </c>
       <c r="G159" s="6"/>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" s="11" t="s">
-        <v>141</v>
+        <v>92</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>148</v>
+        <v>128</v>
       </c>
       <c r="C160" s="3" t="s">
-        <v>149</v>
+        <v>129</v>
       </c>
       <c r="D160" s="4">
-        <v>4301190014</v>
+        <v>4301135112</v>
       </c>
       <c r="E160" s="3">
-        <v>4607111037053</v>
+        <v>4607111034199</v>
       </c>
       <c r="F160" s="5" t="s">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="G160" s="6"/>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" s="11" t="s">
-        <v>201</v>
+        <v>299</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>151</v>
+        <v>325</v>
       </c>
       <c r="C161" s="3" t="s">
-        <v>152</v>
+        <v>326</v>
       </c>
       <c r="D161" s="4">
-        <v>4301190015</v>
+        <v>4301131018</v>
       </c>
       <c r="E161" s="3">
-        <v>4607111037060</v>
+        <v>4607111037930</v>
       </c>
       <c r="F161" s="5" t="s">
-        <v>153</v>
+        <v>327</v>
       </c>
       <c r="G161" s="6"/>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" s="11" t="s">
-        <v>431</v>
+        <v>417</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>151</v>
+        <v>325</v>
       </c>
       <c r="C162" s="3" t="s">
-        <v>152</v>
+        <v>326</v>
       </c>
       <c r="D162" s="4">
-        <v>4301190015</v>
+        <v>4301131018</v>
       </c>
       <c r="E162" s="3">
-        <v>4607111037060</v>
+        <v>4607111037930</v>
       </c>
       <c r="F162" s="5" t="s">
-        <v>153</v>
+        <v>327</v>
       </c>
       <c r="G162" s="6"/>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" s="11" t="s">
-        <v>142</v>
+        <v>196</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>151</v>
+        <v>461</v>
       </c>
       <c r="C163" s="3" t="s">
-        <v>152</v>
+        <v>462</v>
       </c>
       <c r="D163" s="4">
-        <v>4301190015</v>
+        <v>4301131019</v>
       </c>
       <c r="E163" s="3">
-        <v>4607111037060</v>
+        <v>4640242180427</v>
       </c>
       <c r="F163" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="G163" s="1"/>
+        <v>463</v>
+      </c>
+      <c r="G163" s="6"/>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" s="11" t="s">
-        <v>224</v>
+        <v>197</v>
       </c>
       <c r="B164" s="3" t="s">
-        <v>221</v>
+        <v>148</v>
       </c>
       <c r="C164" s="3" t="s">
-        <v>222</v>
+        <v>149</v>
       </c>
       <c r="D164" s="4">
-        <v>4301135053</v>
+        <v>4301190014</v>
       </c>
       <c r="E164" s="3">
-        <v>4607111036407</v>
+        <v>4607111037053</v>
       </c>
       <c r="F164" s="5" t="s">
-        <v>223</v>
-      </c>
-      <c r="G164" s="1"/>
+        <v>150</v>
+      </c>
+      <c r="G164" s="6"/>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" s="11" t="s">
-        <v>93</v>
+        <v>427</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>131</v>
+        <v>148</v>
       </c>
       <c r="C165" s="3" t="s">
-        <v>202</v>
+        <v>149</v>
       </c>
       <c r="D165" s="4">
-        <v>4301135162</v>
+        <v>4301190014</v>
       </c>
       <c r="E165" s="3">
-        <v>4607111034014</v>
+        <v>4607111037053</v>
       </c>
       <c r="F165" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="G165" s="1"/>
+        <v>150</v>
+      </c>
+      <c r="G165" s="6"/>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" s="11" t="s">
-        <v>438</v>
+        <v>141</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>131</v>
+        <v>148</v>
       </c>
       <c r="C166" s="3" t="s">
-        <v>202</v>
+        <v>149</v>
       </c>
       <c r="D166" s="4">
-        <v>4301135162</v>
+        <v>4301190014</v>
       </c>
       <c r="E166" s="3">
-        <v>4607111034014</v>
+        <v>4607111037053</v>
       </c>
       <c r="F166" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="G166" s="1"/>
+        <v>150</v>
+      </c>
+      <c r="G166" s="6"/>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" s="11" t="s">
-        <v>255</v>
+        <v>198</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>131</v>
+        <v>506</v>
       </c>
       <c r="C167" s="3" t="s">
-        <v>202</v>
+        <v>507</v>
       </c>
       <c r="D167" s="4">
-        <v>4301135162</v>
+        <v>4301190023</v>
       </c>
       <c r="E167" s="3">
-        <v>4607111034014</v>
+        <v>4607111037060</v>
       </c>
       <c r="F167" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="G167" s="1"/>
+        <v>508</v>
+      </c>
+      <c r="G167" s="6"/>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" s="11" t="s">
-        <v>256</v>
+        <v>428</v>
       </c>
       <c r="B168" s="3" t="s">
-        <v>133</v>
+        <v>506</v>
       </c>
       <c r="C168" s="3" t="s">
-        <v>134</v>
+        <v>507</v>
       </c>
       <c r="D168" s="4">
-        <v>4301135117</v>
+        <v>4301190023</v>
       </c>
       <c r="E168" s="3">
-        <v>4607111033994</v>
+        <v>4607111037060</v>
       </c>
       <c r="F168" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="G168" s="1"/>
+        <v>508</v>
+      </c>
+      <c r="G168" s="6"/>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" s="11" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>133</v>
+        <v>506</v>
       </c>
       <c r="C169" s="3" t="s">
-        <v>134</v>
+        <v>507</v>
       </c>
       <c r="D169" s="4">
-        <v>4301135117</v>
+        <v>4301190023</v>
       </c>
       <c r="E169" s="3">
-        <v>4607111033994</v>
+        <v>4607111037060</v>
       </c>
       <c r="F169" s="5" t="s">
-        <v>135</v>
+        <v>508</v>
       </c>
       <c r="G169" s="1"/>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" s="11" t="s">
-        <v>94</v>
+        <v>221</v>
       </c>
       <c r="B170" s="3" t="s">
-        <v>133</v>
+        <v>218</v>
       </c>
       <c r="C170" s="3" t="s">
-        <v>134</v>
+        <v>219</v>
       </c>
       <c r="D170" s="4">
-        <v>4301135117</v>
+        <v>4301135053</v>
       </c>
       <c r="E170" s="3">
-        <v>4607111033994</v>
+        <v>4607111036407</v>
       </c>
       <c r="F170" s="5" t="s">
-        <v>135</v>
+        <v>220</v>
       </c>
       <c r="G170" s="1"/>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" s="11" t="s">
-        <v>203</v>
+        <v>93</v>
       </c>
       <c r="B171" s="3" t="s">
-        <v>373</v>
+        <v>131</v>
       </c>
       <c r="C171" s="3" t="s">
-        <v>374</v>
+        <v>199</v>
       </c>
       <c r="D171" s="4">
-        <v>4301136028</v>
+        <v>4301135162</v>
       </c>
       <c r="E171" s="3">
-        <v>4640242180304</v>
+        <v>4607111034014</v>
       </c>
       <c r="F171" s="5" t="s">
-        <v>375</v>
+        <v>132</v>
       </c>
       <c r="G171" s="1"/>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" s="11" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B172" s="3" t="s">
-        <v>373</v>
+        <v>131</v>
       </c>
       <c r="C172" s="3" t="s">
-        <v>374</v>
+        <v>199</v>
       </c>
       <c r="D172" s="4">
-        <v>4301136028</v>
+        <v>4301135162</v>
       </c>
       <c r="E172" s="3">
-        <v>4640242180304</v>
+        <v>4607111034014</v>
       </c>
       <c r="F172" s="5" t="s">
-        <v>375</v>
+        <v>132</v>
       </c>
       <c r="G172" s="1"/>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" s="11" t="s">
-        <v>143</v>
+        <v>252</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>373</v>
+        <v>131</v>
       </c>
       <c r="C173" s="3" t="s">
-        <v>374</v>
+        <v>199</v>
       </c>
       <c r="D173" s="4">
-        <v>4301136028</v>
+        <v>4301135162</v>
       </c>
       <c r="E173" s="3">
-        <v>4640242180304</v>
+        <v>4607111034014</v>
       </c>
       <c r="F173" s="5" t="s">
-        <v>375</v>
+        <v>281</v>
       </c>
       <c r="G173" s="1"/>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" s="11" t="s">
-        <v>435</v>
+        <v>253</v>
       </c>
       <c r="B174" s="3" t="s">
-        <v>376</v>
+        <v>133</v>
       </c>
       <c r="C174" s="3" t="s">
-        <v>377</v>
+        <v>134</v>
       </c>
       <c r="D174" s="4">
-        <v>4301136026</v>
+        <v>4301135117</v>
       </c>
       <c r="E174" s="3">
-        <v>4640242180236</v>
+        <v>4607111033994</v>
       </c>
       <c r="F174" s="5" t="s">
-        <v>378</v>
+        <v>135</v>
       </c>
       <c r="G174" s="1"/>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" s="11" t="s">
-        <v>483</v>
+        <v>135</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>376</v>
+        <v>133</v>
       </c>
       <c r="C175" s="3" t="s">
-        <v>377</v>
+        <v>134</v>
       </c>
       <c r="D175" s="4">
-        <v>4301136026</v>
+        <v>4301135117</v>
       </c>
       <c r="E175" s="3">
-        <v>4640242180236</v>
+        <v>4607111033994</v>
       </c>
       <c r="F175" s="5" t="s">
-        <v>378</v>
+        <v>135</v>
       </c>
       <c r="G175" s="1"/>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" s="11" t="s">
-        <v>467</v>
+        <v>94</v>
       </c>
       <c r="B176" s="3" t="s">
-        <v>376</v>
+        <v>133</v>
       </c>
       <c r="C176" s="3" t="s">
-        <v>377</v>
+        <v>134</v>
       </c>
       <c r="D176" s="4">
-        <v>4301136026</v>
+        <v>4301135117</v>
       </c>
       <c r="E176" s="3">
-        <v>4640242180236</v>
+        <v>4607111033994</v>
       </c>
       <c r="F176" s="5" t="s">
-        <v>378</v>
+        <v>135</v>
       </c>
       <c r="G176" s="1"/>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177" s="11" t="s">
-        <v>95</v>
+        <v>200</v>
       </c>
       <c r="B177" s="3" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="C177" s="3" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="D177" s="4">
-        <v>4301136026</v>
+        <v>4301136028</v>
       </c>
       <c r="E177" s="3">
-        <v>4640242180236</v>
+        <v>4640242180304</v>
       </c>
       <c r="F177" s="5" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="G177" s="1"/>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178" s="11" t="s">
-        <v>314</v>
+        <v>433</v>
       </c>
       <c r="B178" s="3" t="s">
-        <v>491</v>
+        <v>370</v>
       </c>
       <c r="C178" s="3" t="s">
-        <v>492</v>
+        <v>371</v>
       </c>
       <c r="D178" s="4">
-        <v>4301135194</v>
+        <v>4301136028</v>
       </c>
       <c r="E178" s="3">
-        <v>4640242180380</v>
+        <v>4640242180304</v>
       </c>
       <c r="F178" s="5" t="s">
-        <v>493</v>
+        <v>372</v>
       </c>
       <c r="G178" s="1"/>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179" s="11" t="s">
-        <v>497</v>
+        <v>509</v>
       </c>
       <c r="B179" s="3" t="s">
-        <v>491</v>
+        <v>370</v>
       </c>
       <c r="C179" s="3" t="s">
-        <v>492</v>
+        <v>371</v>
       </c>
       <c r="D179" s="4">
-        <v>4301135194</v>
+        <v>4301136028</v>
       </c>
       <c r="E179" s="3">
-        <v>4640242180380</v>
+        <v>4640242180304</v>
       </c>
       <c r="F179" s="5" t="s">
-        <v>493</v>
+        <v>372</v>
       </c>
       <c r="G179" s="1"/>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180" s="11" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="B180" s="3" t="s">
-        <v>491</v>
+        <v>370</v>
       </c>
       <c r="C180" s="3" t="s">
-        <v>492</v>
+        <v>371</v>
       </c>
       <c r="D180" s="4">
-        <v>4301135194</v>
+        <v>4301136028</v>
       </c>
       <c r="E180" s="3">
-        <v>4640242180380</v>
+        <v>4640242180304</v>
       </c>
       <c r="F180" s="5" t="s">
-        <v>493</v>
+        <v>372</v>
       </c>
       <c r="G180" s="1"/>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181" s="11" t="s">
-        <v>290</v>
+        <v>432</v>
       </c>
       <c r="B181" s="3" t="s">
-        <v>491</v>
+        <v>373</v>
       </c>
       <c r="C181" s="3" t="s">
-        <v>492</v>
+        <v>374</v>
       </c>
       <c r="D181" s="4">
-        <v>4301135194</v>
+        <v>4301136026</v>
       </c>
       <c r="E181" s="3">
-        <v>4640242180380</v>
+        <v>4640242180236</v>
       </c>
       <c r="F181" s="5" t="s">
-        <v>493</v>
+        <v>375</v>
       </c>
       <c r="G181" s="1"/>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182" s="11" t="s">
-        <v>341</v>
+        <v>480</v>
       </c>
       <c r="B182" s="3" t="s">
-        <v>293</v>
+        <v>373</v>
       </c>
       <c r="C182" s="3" t="s">
-        <v>294</v>
+        <v>374</v>
       </c>
       <c r="D182" s="4">
-        <v>4301070915</v>
+        <v>4301136026</v>
       </c>
       <c r="E182" s="3">
-        <v>4607111035882</v>
+        <v>4640242180236</v>
       </c>
       <c r="F182" s="5" t="s">
-        <v>295</v>
+        <v>375</v>
       </c>
       <c r="G182" s="1"/>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183" s="11" t="s">
-        <v>407</v>
+        <v>464</v>
       </c>
       <c r="B183" s="3" t="s">
-        <v>293</v>
+        <v>373</v>
       </c>
       <c r="C183" s="3" t="s">
-        <v>294</v>
+        <v>374</v>
       </c>
       <c r="D183" s="4">
-        <v>4301070915</v>
+        <v>4301136026</v>
       </c>
       <c r="E183" s="3">
-        <v>4607111035882</v>
+        <v>4640242180236</v>
       </c>
       <c r="F183" s="5" t="s">
-        <v>295</v>
+        <v>375</v>
       </c>
       <c r="G183" s="1"/>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184" s="11" t="s">
-        <v>295</v>
+        <v>95</v>
       </c>
       <c r="B184" s="3" t="s">
-        <v>293</v>
+        <v>373</v>
       </c>
       <c r="C184" s="3" t="s">
-        <v>294</v>
+        <v>374</v>
       </c>
       <c r="D184" s="4">
-        <v>4301070915</v>
+        <v>4301136026</v>
       </c>
       <c r="E184" s="3">
-        <v>4607111035882</v>
+        <v>4640242180236</v>
       </c>
       <c r="F184" s="5" t="s">
-        <v>295</v>
+        <v>375</v>
       </c>
       <c r="G184" s="1"/>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185" s="11" t="s">
-        <v>408</v>
+        <v>311</v>
       </c>
       <c r="B185" s="3" t="s">
-        <v>296</v>
+        <v>488</v>
       </c>
       <c r="C185" s="3" t="s">
-        <v>297</v>
+        <v>489</v>
       </c>
       <c r="D185" s="4">
-        <v>4301070874</v>
+        <v>4301135194</v>
       </c>
       <c r="E185" s="3">
-        <v>4607111035332</v>
+        <v>4640242180380</v>
       </c>
       <c r="F185" s="5" t="s">
-        <v>298</v>
+        <v>490</v>
       </c>
       <c r="G185" s="1"/>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186" s="11" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="B186" s="3" t="s">
-        <v>296</v>
+        <v>488</v>
       </c>
       <c r="C186" s="3" t="s">
-        <v>297</v>
+        <v>489</v>
       </c>
       <c r="D186" s="4">
-        <v>4301070874</v>
+        <v>4301135194</v>
       </c>
       <c r="E186" s="3">
-        <v>4607111035332</v>
+        <v>4640242180380</v>
       </c>
       <c r="F186" s="5" t="s">
-        <v>298</v>
+        <v>490</v>
       </c>
       <c r="G186" s="1"/>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187" s="11" t="s">
-        <v>298</v>
+        <v>136</v>
       </c>
       <c r="B187" s="3" t="s">
-        <v>296</v>
+        <v>488</v>
       </c>
       <c r="C187" s="3" t="s">
-        <v>297</v>
+        <v>489</v>
       </c>
       <c r="D187" s="4">
-        <v>4301070874</v>
+        <v>4301135194</v>
       </c>
       <c r="E187" s="3">
-        <v>4607111035332</v>
+        <v>4640242180380</v>
       </c>
       <c r="F187" s="5" t="s">
-        <v>298</v>
+        <v>490</v>
       </c>
       <c r="G187" s="1"/>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188" s="11" t="s">
-        <v>323</v>
+        <v>287</v>
       </c>
       <c r="B188" s="3" t="s">
-        <v>299</v>
+        <v>488</v>
       </c>
       <c r="C188" s="3" t="s">
-        <v>300</v>
+        <v>489</v>
       </c>
       <c r="D188" s="4">
-        <v>4301136014</v>
+        <v>4301135194</v>
       </c>
       <c r="E188" s="3">
-        <v>4607111035370</v>
+        <v>4640242180380</v>
       </c>
       <c r="F188" s="5" t="s">
-        <v>301</v>
+        <v>490</v>
       </c>
       <c r="G188" s="1"/>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189" s="11" t="s">
-        <v>413</v>
+        <v>338</v>
       </c>
       <c r="B189" s="3" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="C189" s="3" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="D189" s="4">
-        <v>4301136014</v>
+        <v>4301070915</v>
       </c>
       <c r="E189" s="3">
-        <v>4607111035370</v>
+        <v>4607111035882</v>
       </c>
       <c r="F189" s="5" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="G189" s="1"/>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190" s="11" t="s">
-        <v>301</v>
+        <v>404</v>
       </c>
       <c r="B190" s="3" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="C190" s="3" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="D190" s="4">
-        <v>4301136014</v>
+        <v>4301070915</v>
       </c>
       <c r="E190" s="3">
-        <v>4607111035370</v>
+        <v>4607111035882</v>
       </c>
       <c r="F190" s="5" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="G190" s="1"/>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191" s="11" t="s">
-        <v>322</v>
+        <v>292</v>
       </c>
       <c r="B191" s="3" t="s">
-        <v>306</v>
+        <v>290</v>
       </c>
       <c r="C191" s="3" t="s">
-        <v>307</v>
+        <v>291</v>
       </c>
       <c r="D191" s="4">
-        <v>4301051320</v>
+        <v>4301070915</v>
       </c>
       <c r="E191" s="3">
-        <v>4680115881334</v>
+        <v>4607111035882</v>
       </c>
       <c r="F191" s="5" t="s">
-        <v>308</v>
+        <v>292</v>
       </c>
       <c r="G191" s="1"/>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192" s="11" t="s">
-        <v>339</v>
+        <v>405</v>
       </c>
       <c r="B192" s="3" t="s">
-        <v>306</v>
+        <v>293</v>
       </c>
       <c r="C192" s="3" t="s">
-        <v>307</v>
+        <v>294</v>
       </c>
       <c r="D192" s="4">
-        <v>4301051320</v>
+        <v>4301070874</v>
       </c>
       <c r="E192" s="3">
-        <v>4680115881334</v>
+        <v>4607111035332</v>
       </c>
       <c r="F192" s="5" t="s">
-        <v>308</v>
+        <v>295</v>
       </c>
       <c r="G192" s="1"/>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193" s="11" t="s">
-        <v>309</v>
+        <v>497</v>
       </c>
       <c r="B193" s="3" t="s">
-        <v>306</v>
+        <v>293</v>
       </c>
       <c r="C193" s="3" t="s">
-        <v>307</v>
+        <v>294</v>
       </c>
       <c r="D193" s="4">
-        <v>4301051320</v>
+        <v>4301070874</v>
       </c>
       <c r="E193" s="3">
-        <v>4680115881334</v>
+        <v>4607111035332</v>
       </c>
       <c r="F193" s="5" t="s">
-        <v>308</v>
+        <v>295</v>
       </c>
       <c r="G193" s="1"/>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194" s="11" t="s">
-        <v>313</v>
+        <v>295</v>
       </c>
       <c r="B194" s="3" t="s">
-        <v>310</v>
+        <v>293</v>
       </c>
       <c r="C194" s="3" t="s">
-        <v>311</v>
+        <v>294</v>
       </c>
       <c r="D194" s="4">
-        <v>4301051319</v>
+        <v>4301070874</v>
       </c>
       <c r="E194" s="3">
-        <v>4680115881204</v>
+        <v>4607111035332</v>
       </c>
       <c r="F194" s="5" t="s">
-        <v>312</v>
+        <v>295</v>
       </c>
       <c r="G194" s="1"/>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195" s="11" t="s">
-        <v>342</v>
+        <v>320</v>
       </c>
       <c r="B195" s="3" t="s">
-        <v>382</v>
+        <v>296</v>
       </c>
       <c r="C195" s="3" t="s">
-        <v>383</v>
+        <v>297</v>
       </c>
       <c r="D195" s="4">
-        <v>4301136027</v>
+        <v>4301136014</v>
       </c>
       <c r="E195" s="3">
-        <v>4640242180298</v>
+        <v>4607111035370</v>
       </c>
       <c r="F195" s="5" t="s">
-        <v>384</v>
+        <v>298</v>
       </c>
       <c r="G195" s="1"/>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196" s="11" t="s">
-        <v>502</v>
+        <v>410</v>
       </c>
       <c r="B196" s="3" t="s">
-        <v>392</v>
+        <v>296</v>
       </c>
       <c r="C196" s="3" t="s">
-        <v>393</v>
+        <v>297</v>
       </c>
       <c r="D196" s="4">
-        <v>4301130003</v>
+        <v>4301136014</v>
       </c>
       <c r="E196" s="3">
-        <v>4607111034687</v>
+        <v>4607111035370</v>
       </c>
       <c r="F196" s="5" t="s">
-        <v>394</v>
+        <v>298</v>
       </c>
       <c r="G196" s="1"/>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197" s="11" t="s">
-        <v>391</v>
+        <v>298</v>
       </c>
       <c r="B197" s="3" t="s">
-        <v>392</v>
+        <v>296</v>
       </c>
       <c r="C197" s="3" t="s">
-        <v>393</v>
+        <v>297</v>
       </c>
       <c r="D197" s="4">
-        <v>4301130003</v>
+        <v>4301136014</v>
       </c>
       <c r="E197" s="3">
-        <v>4607111034687</v>
+        <v>4607111035370</v>
       </c>
       <c r="F197" s="5" t="s">
-        <v>394</v>
+        <v>298</v>
       </c>
       <c r="G197" s="1"/>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198" s="11" t="s">
-        <v>397</v>
+        <v>319</v>
       </c>
       <c r="B198" s="3" t="s">
-        <v>398</v>
+        <v>303</v>
       </c>
       <c r="C198" s="3" t="s">
-        <v>399</v>
+        <v>304</v>
       </c>
       <c r="D198" s="4">
-        <v>4301070977</v>
+        <v>4301051320</v>
       </c>
       <c r="E198" s="3">
-        <v>4607111037411</v>
+        <v>4680115881334</v>
       </c>
       <c r="F198" s="5" t="s">
-        <v>400</v>
+        <v>305</v>
       </c>
       <c r="G198" s="1"/>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A199" s="11" t="s">
-        <v>444</v>
+        <v>336</v>
       </c>
       <c r="B199" s="3" t="s">
-        <v>404</v>
+        <v>303</v>
       </c>
       <c r="C199" s="3" t="s">
-        <v>405</v>
+        <v>304</v>
       </c>
       <c r="D199" s="4">
-        <v>4301070871</v>
+        <v>4301051320</v>
       </c>
       <c r="E199" s="3">
-        <v>4607111036384</v>
+        <v>4680115881334</v>
       </c>
       <c r="F199" s="5" t="s">
-        <v>406</v>
+        <v>305</v>
       </c>
       <c r="G199" s="1"/>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200" s="11" t="s">
-        <v>403</v>
+        <v>306</v>
       </c>
       <c r="B200" s="3" t="s">
-        <v>404</v>
+        <v>303</v>
       </c>
       <c r="C200" s="3" t="s">
-        <v>405</v>
+        <v>304</v>
       </c>
       <c r="D200" s="4">
-        <v>4301070871</v>
+        <v>4301051320</v>
       </c>
       <c r="E200" s="3">
-        <v>4607111036384</v>
+        <v>4680115881334</v>
       </c>
       <c r="F200" s="5" t="s">
-        <v>406</v>
+        <v>305</v>
       </c>
       <c r="G200" s="1"/>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A201" s="11" t="s">
-        <v>504</v>
+        <v>310</v>
       </c>
       <c r="B201" s="3" t="s">
-        <v>410</v>
+        <v>307</v>
       </c>
       <c r="C201" s="3" t="s">
-        <v>411</v>
+        <v>308</v>
       </c>
       <c r="D201" s="4">
-        <v>4301135111</v>
+        <v>4301051319</v>
       </c>
       <c r="E201" s="3">
-        <v>4607111035028</v>
+        <v>4680115881204</v>
       </c>
       <c r="F201" s="5" t="s">
-        <v>412</v>
+        <v>309</v>
       </c>
       <c r="G201" s="1"/>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A202" s="11" t="s">
-        <v>409</v>
+        <v>339</v>
       </c>
       <c r="B202" s="3" t="s">
-        <v>410</v>
+        <v>379</v>
       </c>
       <c r="C202" s="3" t="s">
-        <v>411</v>
+        <v>380</v>
       </c>
       <c r="D202" s="4">
-        <v>4301135111</v>
+        <v>4301136027</v>
       </c>
       <c r="E202" s="3">
-        <v>4607111035028</v>
+        <v>4640242180298</v>
       </c>
       <c r="F202" s="5" t="s">
-        <v>412</v>
+        <v>381</v>
       </c>
       <c r="G202" s="1"/>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A203" s="11" t="s">
-        <v>416</v>
+        <v>499</v>
       </c>
       <c r="B203" s="3" t="s">
-        <v>417</v>
+        <v>389</v>
       </c>
       <c r="C203" s="3" t="s">
-        <v>418</v>
+        <v>390</v>
       </c>
       <c r="D203" s="4">
-        <v>4301130006</v>
+        <v>4301130003</v>
       </c>
       <c r="E203" s="3">
-        <v>4607111034670</v>
+        <v>4607111034687</v>
       </c>
       <c r="F203" s="5" t="s">
-        <v>419</v>
+        <v>391</v>
       </c>
       <c r="G203" s="1"/>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A204" s="11" t="s">
-        <v>422</v>
+        <v>388</v>
       </c>
       <c r="B204" s="3" t="s">
-        <v>423</v>
+        <v>389</v>
       </c>
       <c r="C204" s="3" t="s">
-        <v>424</v>
+        <v>390</v>
       </c>
       <c r="D204" s="4">
-        <v>4301070768</v>
+        <v>4301130003</v>
       </c>
       <c r="E204" s="3">
-        <v>4607111035639</v>
+        <v>4607111034687</v>
       </c>
       <c r="F204" s="5" t="s">
-        <v>425</v>
+        <v>391</v>
       </c>
       <c r="G204" s="1"/>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A205" s="11" t="s">
-        <v>426</v>
+        <v>394</v>
       </c>
       <c r="B205" s="3" t="s">
-        <v>427</v>
+        <v>395</v>
       </c>
       <c r="C205" s="3" t="s">
-        <v>428</v>
+        <v>396</v>
       </c>
       <c r="D205" s="4">
-        <v>4301070797</v>
+        <v>4301070977</v>
       </c>
       <c r="E205" s="3">
-        <v>4607111035646</v>
+        <v>4607111037411</v>
       </c>
       <c r="F205" s="5" t="s">
-        <v>429</v>
+        <v>397</v>
       </c>
       <c r="G205" s="1"/>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A206" s="11" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B206" s="3" t="s">
-        <v>441</v>
+        <v>401</v>
       </c>
       <c r="C206" s="3" t="s">
-        <v>442</v>
+        <v>402</v>
       </c>
       <c r="D206" s="4">
-        <v>4301080154</v>
+        <v>4301070871</v>
       </c>
       <c r="E206" s="3">
-        <v>4607111036834</v>
+        <v>4607111036384</v>
       </c>
       <c r="F206" s="5" t="s">
-        <v>443</v>
+        <v>403</v>
       </c>
       <c r="G206" s="1"/>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A207" s="11" t="s">
-        <v>448</v>
+        <v>400</v>
       </c>
       <c r="B207" s="3" t="s">
-        <v>449</v>
+        <v>401</v>
       </c>
       <c r="C207" s="3" t="s">
-        <v>450</v>
+        <v>402</v>
       </c>
       <c r="D207" s="4">
-        <v>4301070941</v>
+        <v>4301070871</v>
       </c>
       <c r="E207" s="3">
-        <v>4607111036162</v>
+        <v>4607111036384</v>
       </c>
       <c r="F207" s="5" t="s">
-        <v>451</v>
+        <v>403</v>
       </c>
       <c r="G207" s="1"/>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A208" s="11" t="s">
-        <v>452</v>
+        <v>501</v>
       </c>
       <c r="B208" s="3" t="s">
-        <v>453</v>
+        <v>407</v>
       </c>
       <c r="C208" s="3" t="s">
-        <v>454</v>
+        <v>408</v>
       </c>
       <c r="D208" s="4">
-        <v>4301070826</v>
+        <v>4301135111</v>
       </c>
       <c r="E208" s="3">
-        <v>4607111035752</v>
+        <v>4607111035028</v>
       </c>
       <c r="F208" s="5" t="s">
-        <v>455</v>
+        <v>409</v>
       </c>
       <c r="G208" s="1"/>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A209" s="11" t="s">
-        <v>495</v>
+        <v>406</v>
       </c>
       <c r="B209" s="3" t="s">
-        <v>457</v>
+        <v>407</v>
       </c>
       <c r="C209" s="3" t="s">
-        <v>458</v>
+        <v>408</v>
       </c>
       <c r="D209" s="4">
-        <v>4301070966</v>
+        <v>4301135111</v>
       </c>
       <c r="E209" s="3">
-        <v>4607111038135</v>
+        <v>4607111035028</v>
       </c>
       <c r="F209" s="5" t="s">
-        <v>456</v>
+        <v>409</v>
       </c>
       <c r="G209" s="1"/>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A210" s="11" t="s">
-        <v>456</v>
+        <v>413</v>
       </c>
       <c r="B210" s="3" t="s">
-        <v>457</v>
+        <v>414</v>
       </c>
       <c r="C210" s="3" t="s">
-        <v>458</v>
+        <v>415</v>
       </c>
       <c r="D210" s="4">
-        <v>4301070966</v>
+        <v>4301130006</v>
       </c>
       <c r="E210" s="3">
-        <v>4607111038135</v>
+        <v>4607111034670</v>
       </c>
       <c r="F210" s="5" t="s">
-        <v>456</v>
+        <v>416</v>
       </c>
       <c r="G210" s="1"/>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A211" s="11" t="s">
-        <v>459</v>
+        <v>419</v>
       </c>
       <c r="B211" s="3" t="s">
-        <v>460</v>
+        <v>420</v>
       </c>
       <c r="C211" s="3" t="s">
-        <v>461</v>
+        <v>421</v>
       </c>
       <c r="D211" s="4">
-        <v>4301070911</v>
+        <v>4301070768</v>
       </c>
       <c r="E211" s="3">
-        <v>4607111036278</v>
+        <v>4607111035639</v>
       </c>
       <c r="F211" s="5" t="s">
-        <v>459</v>
+        <v>422</v>
       </c>
       <c r="G211" s="1"/>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A212" s="11" t="s">
-        <v>484</v>
+        <v>423</v>
       </c>
       <c r="B212" s="3" t="s">
-        <v>464</v>
+        <v>424</v>
       </c>
       <c r="C212" s="3" t="s">
-        <v>465</v>
+        <v>425</v>
       </c>
       <c r="D212" s="4">
-        <v>4301131019</v>
+        <v>4301070797</v>
       </c>
       <c r="E212" s="3">
-        <v>4640242180427</v>
+        <v>4607111035646</v>
       </c>
       <c r="F212" s="5" t="s">
-        <v>466</v>
+        <v>426</v>
       </c>
       <c r="G212" s="1"/>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A213" s="11" t="s">
+        <v>437</v>
+      </c>
+      <c r="B213" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="C213" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="D213" s="4">
+        <v>4301080154</v>
+      </c>
+      <c r="E213" s="3">
+        <v>4607111036834</v>
+      </c>
+      <c r="F213" s="5" t="s">
+        <v>440</v>
+      </c>
+      <c r="G213" s="1"/>
+    </row>
+    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A214" s="11" t="s">
+        <v>445</v>
+      </c>
+      <c r="B214" s="3" t="s">
+        <v>446</v>
+      </c>
+      <c r="C214" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="D214" s="4">
+        <v>4301070941</v>
+      </c>
+      <c r="E214" s="3">
+        <v>4607111036162</v>
+      </c>
+      <c r="F214" s="5" t="s">
+        <v>448</v>
+      </c>
+      <c r="G214" s="1"/>
+    </row>
+    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A215" s="11" t="s">
+        <v>449</v>
+      </c>
+      <c r="B215" s="3" t="s">
+        <v>450</v>
+      </c>
+      <c r="C215" s="3" t="s">
+        <v>451</v>
+      </c>
+      <c r="D215" s="4">
+        <v>4301070826</v>
+      </c>
+      <c r="E215" s="3">
+        <v>4607111035752</v>
+      </c>
+      <c r="F215" s="5" t="s">
+        <v>452</v>
+      </c>
+      <c r="G215" s="1"/>
+    </row>
+    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A216" s="11" t="s">
+        <v>492</v>
+      </c>
+      <c r="B216" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="C216" s="3" t="s">
+        <v>455</v>
+      </c>
+      <c r="D216" s="4">
+        <v>4301070966</v>
+      </c>
+      <c r="E216" s="3">
+        <v>4607111038135</v>
+      </c>
+      <c r="F216" s="5" t="s">
+        <v>453</v>
+      </c>
+      <c r="G216" s="1"/>
+    </row>
+    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A217" s="11" t="s">
+        <v>453</v>
+      </c>
+      <c r="B217" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="C217" s="3" t="s">
+        <v>455</v>
+      </c>
+      <c r="D217" s="4">
+        <v>4301070966</v>
+      </c>
+      <c r="E217" s="3">
+        <v>4607111038135</v>
+      </c>
+      <c r="F217" s="5" t="s">
+        <v>453</v>
+      </c>
+      <c r="G217" s="1"/>
+    </row>
+    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A218" s="11" t="s">
+        <v>456</v>
+      </c>
+      <c r="B218" s="3" t="s">
+        <v>457</v>
+      </c>
+      <c r="C218" s="3" t="s">
+        <v>458</v>
+      </c>
+      <c r="D218" s="4">
+        <v>4301070911</v>
+      </c>
+      <c r="E218" s="3">
+        <v>4607111036278</v>
+      </c>
+      <c r="F218" s="5" t="s">
+        <v>456</v>
+      </c>
+      <c r="G218" s="1"/>
+    </row>
+    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A219" s="11" t="s">
+        <v>481</v>
+      </c>
+      <c r="B219" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="C219" s="3" t="s">
+        <v>462</v>
+      </c>
+      <c r="D219" s="4">
+        <v>4301131019</v>
+      </c>
+      <c r="E219" s="3">
+        <v>4640242180427</v>
+      </c>
+      <c r="F219" s="5" t="s">
         <v>463</v>
       </c>
-      <c r="B213" s="3" t="s">
-        <v>464</v>
-      </c>
-      <c r="C213" s="3" t="s">
-        <v>465</v>
-      </c>
-      <c r="D213" s="4">
+      <c r="G219" s="1"/>
+    </row>
+    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A220" s="11" t="s">
+        <v>460</v>
+      </c>
+      <c r="B220" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="C220" s="3" t="s">
+        <v>462</v>
+      </c>
+      <c r="D220" s="4">
         <v>4301131019</v>
       </c>
-      <c r="E213" s="3">
+      <c r="E220" s="3">
         <v>4640242180427</v>
       </c>
-      <c r="F213" s="5" t="s">
-        <v>466</v>
-      </c>
-      <c r="G213" s="1"/>
-    </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A214" s="11"/>
-      <c r="B214" s="3"/>
-      <c r="C214" s="3"/>
-      <c r="D214" s="4"/>
-      <c r="E214" s="3"/>
-      <c r="F214" s="5"/>
-      <c r="G214" s="1"/>
-    </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A215" s="11"/>
-      <c r="B215" s="3"/>
-      <c r="C215" s="3"/>
-      <c r="D215" s="4"/>
-      <c r="E215" s="3"/>
-      <c r="F215" s="5"/>
-      <c r="G215" s="1"/>
-    </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A216" s="11"/>
-      <c r="B216" s="3"/>
-      <c r="C216" s="3"/>
-      <c r="D216" s="4"/>
-      <c r="E216" s="3"/>
-      <c r="F216" s="5"/>
-      <c r="G216" s="1"/>
-    </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A217" s="11"/>
-      <c r="B217" s="3"/>
-      <c r="C217" s="3"/>
-      <c r="D217" s="4"/>
-      <c r="E217" s="3"/>
-      <c r="F217" s="5"/>
-      <c r="G217" s="1"/>
-    </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A218" s="11"/>
-      <c r="B218" s="3"/>
-      <c r="C218" s="3"/>
-      <c r="D218" s="4"/>
-      <c r="E218" s="3"/>
-      <c r="F218" s="5"/>
-      <c r="G218" s="1"/>
-    </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A219" s="11"/>
-      <c r="B219" s="3"/>
-      <c r="C219" s="3"/>
-      <c r="D219" s="4"/>
-      <c r="E219" s="3"/>
-      <c r="F219" s="5"/>
-      <c r="G219" s="1"/>
-    </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A220" s="11"/>
-      <c r="B220" s="3"/>
-      <c r="C220" s="3"/>
-      <c r="D220" s="4"/>
-      <c r="E220" s="3"/>
-      <c r="F220" s="5"/>
+      <c r="F220" s="5" t="s">
+        <v>463</v>
+      </c>
       <c r="G220" s="1"/>
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.25">
@@ -6624,11 +6729,11 @@
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A225" s="11"/>
-      <c r="B225" s="13"/>
-      <c r="C225" s="13"/>
-      <c r="D225" s="14"/>
-      <c r="E225" s="15"/>
-      <c r="F225" s="16"/>
+      <c r="B225" s="3"/>
+      <c r="C225" s="3"/>
+      <c r="D225" s="4"/>
+      <c r="E225" s="3"/>
+      <c r="F225" s="5"/>
       <c r="G225" s="1"/>
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.25">
@@ -6687,11 +6792,11 @@
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A232" s="11"/>
-      <c r="B232" s="3"/>
-      <c r="C232" s="3"/>
-      <c r="D232" s="4"/>
-      <c r="E232" s="3"/>
-      <c r="F232" s="5"/>
+      <c r="B232" s="13"/>
+      <c r="C232" s="13"/>
+      <c r="D232" s="14"/>
+      <c r="E232" s="15"/>
+      <c r="F232" s="16"/>
       <c r="G232" s="1"/>
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.25">
@@ -6705,11 +6810,11 @@
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A234" s="11"/>
-      <c r="B234" s="13"/>
-      <c r="C234" s="13"/>
-      <c r="D234" s="14"/>
-      <c r="E234" s="15"/>
-      <c r="F234" s="16"/>
+      <c r="B234" s="3"/>
+      <c r="C234" s="3"/>
+      <c r="D234" s="4"/>
+      <c r="E234" s="3"/>
+      <c r="F234" s="5"/>
       <c r="G234" s="1"/>
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.25">
@@ -6768,12 +6873,12 @@
     </row>
     <row r="241" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A241" s="11"/>
-      <c r="B241" s="3"/>
-      <c r="C241" s="3"/>
-      <c r="D241" s="4"/>
-      <c r="E241" s="3"/>
-      <c r="F241" s="5"/>
-      <c r="G241" s="6"/>
+      <c r="B241" s="13"/>
+      <c r="C241" s="13"/>
+      <c r="D241" s="14"/>
+      <c r="E241" s="15"/>
+      <c r="F241" s="16"/>
+      <c r="G241" s="1"/>
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A242" s="11"/>
@@ -6836,7 +6941,7 @@
       <c r="D248" s="4"/>
       <c r="E248" s="3"/>
       <c r="F248" s="5"/>
-      <c r="G248" s="1"/>
+      <c r="G248" s="6"/>
     </row>
     <row r="249" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A249" s="11"/>
@@ -7398,35 +7503,98 @@
     </row>
     <row r="311" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A311" s="11"/>
-      <c r="B311" s="1"/>
-      <c r="C311" s="1"/>
-      <c r="D311" s="1"/>
-      <c r="E311" s="1"/>
-      <c r="F311" s="1"/>
+      <c r="B311" s="3"/>
+      <c r="C311" s="3"/>
+      <c r="D311" s="4"/>
+      <c r="E311" s="3"/>
+      <c r="F311" s="5"/>
       <c r="G311" s="1"/>
     </row>
     <row r="312" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A312" s="11"/>
-      <c r="B312" s="1"/>
-      <c r="C312" s="1"/>
-      <c r="D312" s="1"/>
-      <c r="E312" s="1"/>
-      <c r="F312" s="1"/>
+      <c r="B312" s="3"/>
+      <c r="C312" s="3"/>
+      <c r="D312" s="4"/>
+      <c r="E312" s="3"/>
+      <c r="F312" s="5"/>
       <c r="G312" s="1"/>
     </row>
     <row r="313" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A313" s="11"/>
-      <c r="B313" s="1"/>
-      <c r="C313" s="1"/>
-      <c r="D313" s="1"/>
-      <c r="E313" s="1"/>
-      <c r="F313" s="1"/>
+      <c r="B313" s="3"/>
+      <c r="C313" s="3"/>
+      <c r="D313" s="4"/>
+      <c r="E313" s="3"/>
+      <c r="F313" s="5"/>
       <c r="G313" s="1"/>
     </row>
+    <row r="314" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A314" s="11"/>
+      <c r="B314" s="3"/>
+      <c r="C314" s="3"/>
+      <c r="D314" s="4"/>
+      <c r="E314" s="3"/>
+      <c r="F314" s="5"/>
+      <c r="G314" s="1"/>
+    </row>
+    <row r="315" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A315" s="11"/>
+      <c r="B315" s="3"/>
+      <c r="C315" s="3"/>
+      <c r="D315" s="4"/>
+      <c r="E315" s="3"/>
+      <c r="F315" s="5"/>
+      <c r="G315" s="1"/>
+    </row>
+    <row r="316" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A316" s="11"/>
+      <c r="B316" s="3"/>
+      <c r="C316" s="3"/>
+      <c r="D316" s="4"/>
+      <c r="E316" s="3"/>
+      <c r="F316" s="5"/>
+      <c r="G316" s="1"/>
+    </row>
+    <row r="317" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A317" s="11"/>
+      <c r="B317" s="3"/>
+      <c r="C317" s="3"/>
+      <c r="D317" s="4"/>
+      <c r="E317" s="3"/>
+      <c r="F317" s="5"/>
+      <c r="G317" s="1"/>
+    </row>
+    <row r="318" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A318" s="11"/>
+      <c r="B318" s="1"/>
+      <c r="C318" s="1"/>
+      <c r="D318" s="1"/>
+      <c r="E318" s="1"/>
+      <c r="F318" s="1"/>
+      <c r="G318" s="1"/>
+    </row>
+    <row r="319" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A319" s="11"/>
+      <c r="B319" s="1"/>
+      <c r="C319" s="1"/>
+      <c r="D319" s="1"/>
+      <c r="E319" s="1"/>
+      <c r="F319" s="1"/>
+      <c r="G319" s="1"/>
+    </row>
+    <row r="320" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A320" s="11"/>
+      <c r="B320" s="1"/>
+      <c r="C320" s="1"/>
+      <c r="D320" s="1"/>
+      <c r="E320" s="1"/>
+      <c r="F320" s="1"/>
+      <c r="G320" s="1"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:F213" xr:uid="{08353A06-E006-45C7-BD45-850F7C3953DF}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F181">
-      <sortCondition ref="A1:A124"/>
+  <autoFilter ref="A1:F220" xr:uid="{08353A06-E006-45C7-BD45-850F7C3953DF}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F188">
+      <sortCondition ref="A1:A130"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/moduls/1С.xlsx
+++ b/moduls/1С.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\перенос данных\ПОКОМ ЗПФ\pokom_zpf\moduls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{648D4E56-D11F-4455-85FB-165EF6772B13}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5965408-7718-47E5-85F5-E940D2F43637}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$F$220</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$F$235</definedName>
   </definedNames>
   <calcPr calcId="181029" refMode="R1C1"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="949" uniqueCount="515">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1009" uniqueCount="539">
   <si>
     <t>1С</t>
   </si>
@@ -1580,6 +1580,78 @@
   </si>
   <si>
     <t>Пельмени Бигбули #МЕГАВКУСИЩЕ с сочной грудинкой ТМ Горячая шту БУЛЬМЕНИ ТС Бигбули  сфера 0,9 ПОКОМ</t>
+  </si>
+  <si>
+    <t>Вареники замороженные постные Благолепные с картофелем и грибами классическая форма, ВЕС,  ПОКОМ</t>
+  </si>
+  <si>
+    <t>Готовые чебупели с мясом ТМ Горячая штучка Без свинины 0,3 кг ПОКОМ</t>
+  </si>
+  <si>
+    <t>Наггетсы с куриным филе и сыром ТМ Вязанка 0.25</t>
+  </si>
+  <si>
+    <t>SU003001</t>
+  </si>
+  <si>
+    <t>P003470</t>
+  </si>
+  <si>
+    <t>Наггетсы «с куриным филе и сыром» ф/в 0,25 ТМ «Вязанка»</t>
+  </si>
+  <si>
+    <t>Чебуреки со свининой и говядиной 0,36</t>
+  </si>
+  <si>
+    <t>Пекерсы с индейкой в сливочном соусе 0,25</t>
+  </si>
+  <si>
+    <t>Круггетсы с сырным соусом Хорека Весовые Пакет 3 кг Горячая штучка  Поком</t>
+  </si>
+  <si>
+    <t>Пельмени Левантские Особая без свинины 0,8 Сфера Особый рецепт  Поком</t>
+  </si>
+  <si>
+    <t>Пельмени Супермени с мясом, Горячая штучка 0,2кг    ПОКОМ</t>
+  </si>
+  <si>
+    <t>Пельмени Супермени со сливочным маслом Супермени 0,2 Сфера Горячая штучка  Поком</t>
+  </si>
+  <si>
+    <t>Наггетсы Нагетосы Сочная курочка со сладкой паприкой ТМ Горячая штучка ф/в 0,25 кг  ПОКОМ</t>
+  </si>
+  <si>
+    <t>Пельмени «Бигбули с мясом» 0,43 Сфера ТМ «Горячая штучка»  Поком</t>
+  </si>
+  <si>
+    <t>Пельмени Grandmeni с говядиной и свининой Grandmeni 0,75 Сфера Горячая штучка  Поком</t>
+  </si>
+  <si>
+    <t>SU002320</t>
+  </si>
+  <si>
+    <t>P002782</t>
+  </si>
+  <si>
+    <t>Пельмени Grandmeni с говядиной и свининой Grandmeni 0,75 Сфера Горячая штучка</t>
+  </si>
+  <si>
+    <t>Пельмени Бигбули #МЕГАВКУСИЩЕ с сочной грудинкой ТМ Горячая штучка ТС Бигбули  сфера 0,43  ПОКОМ</t>
+  </si>
+  <si>
+    <t>Печеные пельмени Печь-мени с мясом Печеные пельмени Фикс.вес 0,2 сфера Вязанка  Поком</t>
+  </si>
+  <si>
+    <t>SU002225</t>
+  </si>
+  <si>
+    <t>P002411</t>
+  </si>
+  <si>
+    <t>Печеные пельмени Печь-мени с мясом Печеные пельмени Фикс.вес 0,2 сфера Вязанка</t>
+  </si>
+  <si>
+    <t>Чебупели Курочка гриль Базовый ассортимент Фикс.вес 0,3 Пакет Горячая штучка  Поком</t>
   </si>
 </sst>
 </file>
@@ -2054,11 +2126,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G320"/>
+  <dimension ref="A1:G332"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G9" sqref="G9"/>
+      <selection pane="bottomLeft" activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2157,7 +2229,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
-        <v>151</v>
+        <v>515</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>152</v>
@@ -2178,28 +2250,28 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
-        <v>411</v>
+        <v>151</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>254</v>
+        <v>152</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>255</v>
+        <v>153</v>
       </c>
       <c r="D6" s="4">
-        <v>4301135113</v>
+        <v>4301080153</v>
       </c>
       <c r="E6" s="3">
-        <v>4607111033659</v>
+        <v>4607111036827</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>256</v>
+        <v>154</v>
       </c>
       <c r="G6" s="1"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
-        <v>429</v>
+        <v>411</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>254</v>
@@ -2220,7 +2292,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
-        <v>222</v>
+        <v>429</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>254</v>
@@ -2241,70 +2313,70 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>128</v>
+        <v>254</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>129</v>
+        <v>255</v>
       </c>
       <c r="D9" s="4">
-        <v>4301135112</v>
+        <v>4301135113</v>
       </c>
       <c r="E9" s="3">
-        <v>4607111034199</v>
+        <v>4607111033659</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>130</v>
+        <v>256</v>
       </c>
       <c r="G9" s="1"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>156</v>
+        <v>128</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>157</v>
+        <v>129</v>
       </c>
       <c r="D10" s="4">
-        <v>4301135122</v>
+        <v>4301135112</v>
       </c>
       <c r="E10" s="3">
-        <v>4607111033628</v>
+        <v>4607111034199</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>158</v>
+        <v>130</v>
       </c>
       <c r="G10" s="1"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
-        <v>73</v>
+        <v>224</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>96</v>
+        <v>156</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>97</v>
+        <v>157</v>
       </c>
       <c r="D11" s="4">
-        <v>4301130400</v>
+        <v>4301135122</v>
       </c>
       <c r="E11" s="3">
-        <v>4607111033451</v>
+        <v>4607111033628</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>98</v>
+        <v>158</v>
       </c>
       <c r="G11" s="1"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
-        <v>98</v>
+        <v>73</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>96</v>
@@ -2325,7 +2397,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
-        <v>225</v>
+        <v>98</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>96</v>
@@ -2346,28 +2418,28 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
-        <v>259</v>
+        <v>225</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>257</v>
+        <v>96</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>258</v>
+        <v>97</v>
       </c>
       <c r="D14" s="4">
-        <v>4301135120</v>
+        <v>4301130400</v>
       </c>
       <c r="E14" s="3">
-        <v>4607111035141</v>
+        <v>4607111033451</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>259</v>
+        <v>98</v>
       </c>
       <c r="G14" s="1"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
-        <v>510</v>
+        <v>259</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>257</v>
@@ -2388,7 +2460,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
-        <v>226</v>
+        <v>510</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>257</v>
@@ -2409,49 +2481,49 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
-        <v>74</v>
+        <v>516</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>99</v>
+        <v>257</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>100</v>
+        <v>258</v>
       </c>
       <c r="D17" s="4">
-        <v>4301135109</v>
+        <v>4301135120</v>
       </c>
       <c r="E17" s="3">
-        <v>4607111033444</v>
+        <v>4607111035141</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>101</v>
+        <v>259</v>
       </c>
       <c r="G17" s="1"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
-        <v>101</v>
+        <v>226</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>99</v>
+        <v>257</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>100</v>
+        <v>258</v>
       </c>
       <c r="D18" s="4">
-        <v>4301135109</v>
+        <v>4301135120</v>
       </c>
       <c r="E18" s="3">
-        <v>4607111033444</v>
+        <v>4607111035141</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>101</v>
+        <v>259</v>
       </c>
       <c r="G18" s="1"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
-        <v>227</v>
+        <v>74</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>99</v>
@@ -2472,448 +2544,448 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
-        <v>158</v>
+        <v>101</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>156</v>
+        <v>99</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>157</v>
+        <v>100</v>
       </c>
       <c r="D20" s="4">
-        <v>4301135122</v>
+        <v>4301135109</v>
       </c>
       <c r="E20" s="3">
-        <v>4607111033628</v>
+        <v>4607111033444</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>158</v>
+        <v>101</v>
       </c>
       <c r="G20" s="1"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
-        <v>155</v>
+        <v>227</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>156</v>
+        <v>99</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>157</v>
+        <v>100</v>
       </c>
       <c r="D21" s="4">
-        <v>4301135122</v>
+        <v>4301135109</v>
       </c>
       <c r="E21" s="3">
-        <v>4607111033628</v>
+        <v>4607111033444</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>158</v>
+        <v>101</v>
       </c>
       <c r="G21" s="1"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
-        <v>228</v>
+        <v>158</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>201</v>
+        <v>156</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>202</v>
+        <v>157</v>
       </c>
       <c r="D22" s="4">
-        <v>4301136013</v>
+        <v>4301135122</v>
       </c>
       <c r="E22" s="3">
-        <v>4607025784012</v>
+        <v>4607111033628</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>203</v>
+        <v>158</v>
       </c>
       <c r="G22" s="1"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
-        <v>498</v>
+        <v>155</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>260</v>
+        <v>156</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>261</v>
+        <v>157</v>
       </c>
       <c r="D23" s="4">
-        <v>4301136012</v>
+        <v>4301135122</v>
       </c>
       <c r="E23" s="3">
-        <v>4607025784319</v>
+        <v>4607111033628</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>262</v>
+        <v>158</v>
       </c>
       <c r="G23" s="1"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="11" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>260</v>
+        <v>201</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>261</v>
+        <v>202</v>
       </c>
       <c r="D24" s="4">
-        <v>4301136012</v>
+        <v>4301136013</v>
       </c>
       <c r="E24" s="3">
-        <v>4607025784319</v>
+        <v>4607025784012</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>262</v>
+        <v>203</v>
       </c>
       <c r="G24" s="1"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="11" t="s">
-        <v>203</v>
+        <v>498</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>201</v>
+        <v>260</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>202</v>
+        <v>261</v>
       </c>
       <c r="D25" s="4">
-        <v>4301136013</v>
+        <v>4301136012</v>
       </c>
       <c r="E25" s="3">
-        <v>4607025784012</v>
+        <v>4607025784319</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>203</v>
+        <v>262</v>
       </c>
       <c r="G25" s="1"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="11" t="s">
-        <v>204</v>
+        <v>521</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>201</v>
+        <v>260</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>202</v>
+        <v>261</v>
       </c>
       <c r="D26" s="4">
-        <v>4301136013</v>
+        <v>4301136012</v>
       </c>
       <c r="E26" s="3">
-        <v>4607025784012</v>
+        <v>4607025784319</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>203</v>
+        <v>262</v>
       </c>
       <c r="G26" s="1"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="11" t="s">
-        <v>482</v>
+        <v>229</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>468</v>
+        <v>260</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>469</v>
+        <v>261</v>
       </c>
       <c r="D27" s="4">
-        <v>4301136029</v>
+        <v>4301136012</v>
       </c>
       <c r="E27" s="3">
-        <v>4640242180410</v>
+        <v>4607025784319</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>470</v>
+        <v>262</v>
       </c>
       <c r="G27" s="1"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="11" t="s">
-        <v>159</v>
+        <v>203</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>468</v>
+        <v>201</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>469</v>
+        <v>202</v>
       </c>
       <c r="D28" s="4">
-        <v>4301136029</v>
+        <v>4301136013</v>
       </c>
       <c r="E28" s="3">
-        <v>4640242180410</v>
+        <v>4607025784012</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>470</v>
+        <v>203</v>
       </c>
       <c r="G28" s="1"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="11" t="s">
-        <v>160</v>
+        <v>204</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>382</v>
+        <v>201</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>383</v>
+        <v>202</v>
       </c>
       <c r="D29" s="4">
-        <v>4301135191</v>
+        <v>4301136013</v>
       </c>
       <c r="E29" s="3">
-        <v>4640242180373</v>
+        <v>4607025784012</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>384</v>
+        <v>203</v>
       </c>
       <c r="G29" s="1"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="11" t="s">
-        <v>505</v>
+        <v>482</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>382</v>
+        <v>468</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>383</v>
+        <v>469</v>
       </c>
       <c r="D30" s="4">
-        <v>4301135191</v>
+        <v>4301136029</v>
       </c>
       <c r="E30" s="3">
-        <v>4640242180373</v>
+        <v>4640242180410</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>384</v>
+        <v>470</v>
       </c>
       <c r="G30" s="1"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="11" t="s">
-        <v>137</v>
+        <v>159</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>382</v>
+        <v>468</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>383</v>
+        <v>469</v>
       </c>
       <c r="D31" s="4">
-        <v>4301135191</v>
+        <v>4301136029</v>
       </c>
       <c r="E31" s="3">
-        <v>4640242180373</v>
+        <v>4640242180410</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>384</v>
+        <v>470</v>
       </c>
       <c r="G31" s="1"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="11" t="s">
-        <v>312</v>
+        <v>160</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>346</v>
+        <v>382</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>347</v>
+        <v>383</v>
       </c>
       <c r="D32" s="4">
-        <v>4301135195</v>
+        <v>4301135191</v>
       </c>
       <c r="E32" s="3">
-        <v>4640242180366</v>
+        <v>4640242180373</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>348</v>
+        <v>384</v>
       </c>
       <c r="G32" s="1"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="11" t="s">
-        <v>483</v>
+        <v>505</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>346</v>
+        <v>382</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>347</v>
+        <v>383</v>
       </c>
       <c r="D33" s="4">
-        <v>4301135195</v>
+        <v>4301135191</v>
       </c>
       <c r="E33" s="3">
-        <v>4640242180366</v>
+        <v>4640242180373</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>348</v>
+        <v>384</v>
       </c>
       <c r="G33" s="1"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="11" t="s">
-        <v>161</v>
+        <v>137</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>346</v>
+        <v>382</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>347</v>
+        <v>383</v>
       </c>
       <c r="D34" s="4">
-        <v>4301135195</v>
+        <v>4301135191</v>
       </c>
       <c r="E34" s="3">
-        <v>4640242180366</v>
+        <v>4640242180373</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>348</v>
+        <v>384</v>
       </c>
       <c r="G34" s="1"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="11" t="s">
-        <v>434</v>
+        <v>312</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="D35" s="4">
-        <v>4301135189</v>
+        <v>4301135195</v>
       </c>
       <c r="E35" s="3">
-        <v>4640242180342</v>
+        <v>4640242180366</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="G35" s="1"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="11" t="s">
-        <v>475</v>
+        <v>483</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="D36" s="4">
-        <v>4301135189</v>
+        <v>4301135195</v>
       </c>
       <c r="E36" s="3">
-        <v>4640242180342</v>
+        <v>4640242180366</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="G36" s="1"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="11" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="D37" s="4">
-        <v>4301135189</v>
+        <v>4301135195</v>
       </c>
       <c r="E37" s="3">
-        <v>4640242180342</v>
+        <v>4640242180366</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="G37" s="1"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="11" t="s">
-        <v>485</v>
+        <v>434</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="D38" s="4">
-        <v>4301135188</v>
+        <v>4301135189</v>
       </c>
       <c r="E38" s="3">
-        <v>4640242180335</v>
+        <v>4640242180342</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="G38" s="1"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="11" t="s">
-        <v>491</v>
+        <v>475</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="D39" s="4">
-        <v>4301135188</v>
+        <v>4301135189</v>
       </c>
       <c r="E39" s="3">
-        <v>4640242180335</v>
+        <v>4640242180342</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="G39" s="1"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="11" t="s">
-        <v>504</v>
+        <v>162</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="D40" s="4">
-        <v>4301135188</v>
+        <v>4301135189</v>
       </c>
       <c r="E40" s="3">
-        <v>4640242180335</v>
+        <v>4640242180342</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="G40" s="1"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="11" t="s">
-        <v>163</v>
+        <v>485</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>352</v>
@@ -2934,70 +3006,70 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="11" t="s">
-        <v>164</v>
+        <v>491</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>376</v>
+        <v>352</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>377</v>
+        <v>353</v>
       </c>
       <c r="D42" s="4">
-        <v>4301135190</v>
+        <v>4301135188</v>
       </c>
       <c r="E42" s="3">
-        <v>4640242180359</v>
+        <v>4640242180335</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>378</v>
+        <v>354</v>
       </c>
       <c r="G42" s="1"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="11" t="s">
-        <v>484</v>
+        <v>504</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>376</v>
+        <v>352</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>377</v>
+        <v>353</v>
       </c>
       <c r="D43" s="4">
-        <v>4301135190</v>
+        <v>4301135188</v>
       </c>
       <c r="E43" s="3">
-        <v>4640242180359</v>
+        <v>4640242180335</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>378</v>
+        <v>354</v>
       </c>
       <c r="G43" s="1"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="11" t="s">
-        <v>487</v>
+        <v>163</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>376</v>
+        <v>352</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>377</v>
+        <v>353</v>
       </c>
       <c r="D44" s="4">
-        <v>4301135190</v>
+        <v>4301135188</v>
       </c>
       <c r="E44" s="3">
-        <v>4640242180359</v>
+        <v>4640242180335</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>378</v>
+        <v>354</v>
       </c>
       <c r="G44" s="1"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="11" t="s">
-        <v>138</v>
+        <v>164</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>376</v>
@@ -3018,70 +3090,70 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="11" t="s">
-        <v>91</v>
+        <v>484</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>364</v>
+        <v>376</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>365</v>
+        <v>377</v>
       </c>
       <c r="D46" s="4">
-        <v>4301135186</v>
+        <v>4301135190</v>
       </c>
       <c r="E46" s="3">
-        <v>4640242180311</v>
+        <v>4640242180359</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>366</v>
-      </c>
-      <c r="G46" s="6"/>
+        <v>378</v>
+      </c>
+      <c r="G46" s="1"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="11" t="s">
-        <v>387</v>
+        <v>487</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>364</v>
+        <v>376</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>365</v>
+        <v>377</v>
       </c>
       <c r="D47" s="4">
-        <v>4301135186</v>
+        <v>4301135190</v>
       </c>
       <c r="E47" s="3">
-        <v>4640242180311</v>
+        <v>4640242180359</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>366</v>
-      </c>
-      <c r="G47" s="6"/>
+        <v>378</v>
+      </c>
+      <c r="G47" s="1"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="11" t="s">
-        <v>476</v>
+        <v>138</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>364</v>
+        <v>376</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>365</v>
+        <v>377</v>
       </c>
       <c r="D48" s="4">
-        <v>4301135186</v>
+        <v>4301135190</v>
       </c>
       <c r="E48" s="3">
-        <v>4640242180311</v>
+        <v>4640242180359</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>366</v>
-      </c>
-      <c r="G48" s="6"/>
+        <v>378</v>
+      </c>
+      <c r="G48" s="1"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="11" t="s">
-        <v>466</v>
+        <v>91</v>
       </c>
       <c r="B49" s="3" t="s">
         <v>364</v>
@@ -3102,7 +3174,7 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="11" t="s">
-        <v>230</v>
+        <v>387</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>364</v>
@@ -3119,347 +3191,347 @@
       <c r="F50" s="5" t="s">
         <v>366</v>
       </c>
-      <c r="G50" s="1"/>
+      <c r="G50" s="6"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="11" t="s">
-        <v>231</v>
+        <v>476</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>355</v>
+        <v>364</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>356</v>
+        <v>365</v>
       </c>
       <c r="D51" s="4">
-        <v>4301135187</v>
+        <v>4301135186</v>
       </c>
       <c r="E51" s="3">
-        <v>4640242180328</v>
+        <v>4640242180311</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>357</v>
-      </c>
-      <c r="G51" s="1"/>
+        <v>366</v>
+      </c>
+      <c r="G51" s="6"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="11" t="s">
-        <v>205</v>
+        <v>466</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>355</v>
+        <v>364</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>356</v>
+        <v>365</v>
       </c>
       <c r="D52" s="4">
-        <v>4301135187</v>
+        <v>4301135186</v>
       </c>
       <c r="E52" s="3">
-        <v>4640242180328</v>
+        <v>4640242180311</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>357</v>
-      </c>
-      <c r="G52" s="1"/>
+        <v>366</v>
+      </c>
+      <c r="G52" s="6"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="11" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>300</v>
+        <v>364</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>301</v>
+        <v>365</v>
       </c>
       <c r="D53" s="4">
-        <v>4301135115</v>
+        <v>4301135186</v>
       </c>
       <c r="E53" s="3">
-        <v>4607111034380</v>
+        <v>4640242180311</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>302</v>
+        <v>366</v>
       </c>
       <c r="G53" s="1"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="11" t="s">
-        <v>165</v>
+        <v>231</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>300</v>
+        <v>355</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>301</v>
+        <v>356</v>
       </c>
       <c r="D54" s="4">
-        <v>4301135115</v>
+        <v>4301135187</v>
       </c>
       <c r="E54" s="3">
-        <v>4607111034380</v>
+        <v>4640242180328</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>302</v>
+        <v>357</v>
       </c>
       <c r="G54" s="1"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="11" t="s">
-        <v>284</v>
+        <v>205</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>313</v>
+        <v>355</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>314</v>
+        <v>356</v>
       </c>
       <c r="D55" s="4">
-        <v>4301135114</v>
+        <v>4301135187</v>
       </c>
       <c r="E55" s="3">
-        <v>4607111034397</v>
+        <v>4640242180328</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>315</v>
+        <v>357</v>
       </c>
       <c r="G55" s="1"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="11" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>313</v>
+        <v>300</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>314</v>
+        <v>301</v>
       </c>
       <c r="D56" s="4">
-        <v>4301135114</v>
+        <v>4301135115</v>
       </c>
       <c r="E56" s="3">
-        <v>4607111034397</v>
+        <v>4607111034380</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>315</v>
+        <v>302</v>
       </c>
       <c r="G56" s="1"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="11" t="s">
-        <v>75</v>
+        <v>165</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>313</v>
+        <v>300</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>314</v>
+        <v>301</v>
       </c>
       <c r="D57" s="4">
-        <v>4301135114</v>
+        <v>4301135115</v>
       </c>
       <c r="E57" s="3">
-        <v>4607111034397</v>
+        <v>4607111034380</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>315</v>
+        <v>302</v>
       </c>
       <c r="G57" s="1"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="11" t="s">
-        <v>139</v>
+        <v>284</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>285</v>
+        <v>313</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>286</v>
+        <v>314</v>
       </c>
       <c r="D58" s="4">
-        <v>4301131012</v>
+        <v>4301135114</v>
       </c>
       <c r="E58" s="3">
-        <v>4607111034137</v>
+        <v>4607111034397</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>144</v>
+        <v>315</v>
       </c>
       <c r="G58" s="1"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="11" t="s">
-        <v>144</v>
+        <v>233</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>285</v>
+        <v>313</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>286</v>
+        <v>314</v>
       </c>
       <c r="D59" s="4">
-        <v>4301131012</v>
+        <v>4301135114</v>
       </c>
       <c r="E59" s="3">
-        <v>4607111034137</v>
+        <v>4607111034397</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>144</v>
+        <v>315</v>
       </c>
       <c r="G59" s="1"/>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="11" t="s">
-        <v>234</v>
+        <v>75</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>285</v>
+        <v>313</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>286</v>
+        <v>314</v>
       </c>
       <c r="D60" s="4">
-        <v>4301131012</v>
+        <v>4301135114</v>
       </c>
       <c r="E60" s="3">
-        <v>4607111034137</v>
+        <v>4607111034397</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>144</v>
+        <v>315</v>
       </c>
       <c r="G60" s="1"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>145</v>
+        <v>285</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>146</v>
+        <v>286</v>
       </c>
       <c r="D61" s="4">
-        <v>4301131011</v>
+        <v>4301131012</v>
       </c>
       <c r="E61" s="3">
-        <v>4607111034120</v>
+        <v>4607111034137</v>
       </c>
       <c r="F61" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="G61" s="6"/>
+        <v>144</v>
+      </c>
+      <c r="G61" s="1"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="11" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>145</v>
+        <v>285</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>146</v>
+        <v>286</v>
       </c>
       <c r="D62" s="4">
-        <v>4301131011</v>
+        <v>4301131012</v>
       </c>
       <c r="E62" s="3">
-        <v>4607111034120</v>
+        <v>4607111034137</v>
       </c>
       <c r="F62" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="G62" s="6"/>
+        <v>144</v>
+      </c>
+      <c r="G62" s="1"/>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="11" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>145</v>
+        <v>285</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>146</v>
+        <v>286</v>
       </c>
       <c r="D63" s="4">
-        <v>4301131011</v>
+        <v>4301131012</v>
       </c>
       <c r="E63" s="3">
-        <v>4607111034120</v>
+        <v>4607111034137</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="G63" s="1"/>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="11" t="s">
-        <v>236</v>
+        <v>140</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>358</v>
+        <v>145</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>359</v>
+        <v>146</v>
       </c>
       <c r="D64" s="4">
-        <v>4301135192</v>
+        <v>4301131011</v>
       </c>
       <c r="E64" s="3">
-        <v>4640242180380</v>
+        <v>4607111034120</v>
       </c>
       <c r="F64" s="5" t="s">
-        <v>360</v>
-      </c>
-      <c r="G64" s="1"/>
+        <v>147</v>
+      </c>
+      <c r="G64" s="6"/>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="11" t="s">
-        <v>282</v>
+        <v>147</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>358</v>
+        <v>145</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>359</v>
+        <v>146</v>
       </c>
       <c r="D65" s="4">
-        <v>4301135192</v>
+        <v>4301131011</v>
       </c>
       <c r="E65" s="3">
-        <v>4640242180380</v>
+        <v>4607111034120</v>
       </c>
       <c r="F65" s="5" t="s">
-        <v>360</v>
-      </c>
-      <c r="G65" s="1"/>
+        <v>147</v>
+      </c>
+      <c r="G65" s="6"/>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="11" t="s">
-        <v>431</v>
+        <v>235</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>358</v>
+        <v>145</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>359</v>
+        <v>146</v>
       </c>
       <c r="D66" s="4">
-        <v>4301135192</v>
+        <v>4301131011</v>
       </c>
       <c r="E66" s="3">
-        <v>4640242180380</v>
+        <v>4607111034120</v>
       </c>
       <c r="F66" s="5" t="s">
-        <v>360</v>
+        <v>147</v>
       </c>
       <c r="G66" s="1"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="11" t="s">
-        <v>459</v>
+        <v>236</v>
       </c>
       <c r="B67" s="3" t="s">
         <v>358</v>
@@ -3480,7 +3552,7 @@
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="11" t="s">
-        <v>76</v>
+        <v>282</v>
       </c>
       <c r="B68" s="3" t="s">
         <v>358</v>
@@ -3501,532 +3573,532 @@
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="11" t="s">
-        <v>265</v>
+        <v>431</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>263</v>
+        <v>358</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>264</v>
+        <v>359</v>
       </c>
       <c r="D69" s="4">
-        <v>4301132066</v>
+        <v>4301135192</v>
       </c>
       <c r="E69" s="3">
-        <v>4607111036520</v>
+        <v>4640242180380</v>
       </c>
       <c r="F69" s="5" t="s">
-        <v>265</v>
+        <v>360</v>
       </c>
       <c r="G69" s="1"/>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="11" t="s">
-        <v>392</v>
+        <v>459</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>263</v>
+        <v>358</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>264</v>
+        <v>359</v>
       </c>
       <c r="D70" s="4">
-        <v>4301132066</v>
+        <v>4301135192</v>
       </c>
       <c r="E70" s="3">
-        <v>4607111036520</v>
+        <v>4640242180380</v>
       </c>
       <c r="F70" s="5" t="s">
-        <v>265</v>
+        <v>360</v>
       </c>
       <c r="G70" s="1"/>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="11" t="s">
-        <v>237</v>
+        <v>76</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>263</v>
+        <v>358</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>264</v>
+        <v>359</v>
       </c>
       <c r="D71" s="4">
-        <v>4301132066</v>
+        <v>4301135192</v>
       </c>
       <c r="E71" s="3">
-        <v>4607111036520</v>
+        <v>4640242180380</v>
       </c>
       <c r="F71" s="5" t="s">
-        <v>265</v>
+        <v>360</v>
       </c>
       <c r="G71" s="1"/>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="11" t="s">
-        <v>238</v>
+        <v>265</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="D72" s="4">
-        <v>4301132065</v>
+        <v>4301132066</v>
       </c>
       <c r="E72" s="3">
-        <v>4607111036599</v>
+        <v>4607111036520</v>
       </c>
       <c r="F72" s="5" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="G72" s="1"/>
     </row>
-    <row r="73" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="11" t="s">
-        <v>500</v>
+        <v>392</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="D73" s="4">
-        <v>4301132063</v>
+        <v>4301132066</v>
       </c>
       <c r="E73" s="3">
-        <v>4607111036605</v>
+        <v>4607111036520</v>
       </c>
       <c r="F73" s="5" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="G73" s="1"/>
     </row>
-    <row r="74" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="11" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="D74" s="4">
-        <v>4301132063</v>
+        <v>4301132066</v>
       </c>
       <c r="E74" s="3">
-        <v>4607111036605</v>
+        <v>4607111036520</v>
       </c>
       <c r="F74" s="5" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="G74" s="1"/>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="11" t="s">
-        <v>240</v>
+        <v>527</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>102</v>
+        <v>266</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>103</v>
+        <v>267</v>
       </c>
       <c r="D75" s="4">
-        <v>4301132046</v>
+        <v>4301132065</v>
       </c>
       <c r="E75" s="3">
-        <v>4607111035691</v>
+        <v>4607111036599</v>
       </c>
       <c r="F75" s="5" t="s">
-        <v>104</v>
+        <v>268</v>
       </c>
       <c r="G75" s="1"/>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="11" t="s">
-        <v>104</v>
+        <v>238</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>102</v>
+        <v>266</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>103</v>
+        <v>267</v>
       </c>
       <c r="D76" s="4">
-        <v>4301132046</v>
+        <v>4301132065</v>
       </c>
       <c r="E76" s="3">
-        <v>4607111035691</v>
+        <v>4607111036599</v>
       </c>
       <c r="F76" s="5" t="s">
-        <v>104</v>
+        <v>268</v>
       </c>
       <c r="G76" s="1"/>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A77" s="11" t="s">
-        <v>77</v>
+        <v>500</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>102</v>
+        <v>269</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>103</v>
+        <v>270</v>
       </c>
       <c r="D77" s="4">
-        <v>4301132046</v>
+        <v>4301132063</v>
       </c>
       <c r="E77" s="3">
-        <v>4607111035691</v>
+        <v>4607111036605</v>
       </c>
       <c r="F77" s="5" t="s">
-        <v>104</v>
+        <v>271</v>
       </c>
       <c r="G77" s="1"/>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A78" s="11" t="s">
-        <v>107</v>
+        <v>239</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>105</v>
+        <v>269</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>106</v>
+        <v>270</v>
       </c>
       <c r="D78" s="4">
-        <v>4301132064</v>
+        <v>4301132063</v>
       </c>
       <c r="E78" s="3">
-        <v>4607111036537</v>
+        <v>4607111036605</v>
       </c>
       <c r="F78" s="5" t="s">
-        <v>107</v>
+        <v>271</v>
       </c>
       <c r="G78" s="1"/>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="11" t="s">
-        <v>78</v>
+        <v>240</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D79" s="4">
-        <v>4301132064</v>
+        <v>4301132046</v>
       </c>
       <c r="E79" s="3">
-        <v>4607111036537</v>
+        <v>4607111035691</v>
       </c>
       <c r="F79" s="5" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="G79" s="1"/>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="11" t="s">
-        <v>79</v>
+        <v>104</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="D80" s="4">
-        <v>4301132048</v>
+        <v>4301132046</v>
       </c>
       <c r="E80" s="3">
-        <v>4607111035721</v>
+        <v>4607111035691</v>
       </c>
       <c r="F80" s="5" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="G80" s="1"/>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="11" t="s">
-        <v>465</v>
+        <v>77</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>361</v>
+        <v>102</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>362</v>
+        <v>103</v>
       </c>
       <c r="D81" s="4">
-        <v>4301132080</v>
+        <v>4301132046</v>
       </c>
       <c r="E81" s="3">
-        <v>4640242180397</v>
+        <v>4607111035691</v>
       </c>
       <c r="F81" s="5" t="s">
-        <v>363</v>
+        <v>104</v>
       </c>
       <c r="G81" s="1"/>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="11" t="s">
-        <v>467</v>
+        <v>107</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>361</v>
+        <v>105</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>362</v>
+        <v>106</v>
       </c>
       <c r="D82" s="4">
-        <v>4301132080</v>
+        <v>4301132064</v>
       </c>
       <c r="E82" s="3">
-        <v>4640242180397</v>
+        <v>4607111036537</v>
       </c>
       <c r="F82" s="5" t="s">
-        <v>363</v>
+        <v>107</v>
       </c>
       <c r="G82" s="1"/>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="11" t="s">
-        <v>477</v>
+        <v>78</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>361</v>
+        <v>105</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>362</v>
+        <v>106</v>
       </c>
       <c r="D83" s="4">
-        <v>4301132080</v>
+        <v>4301132064</v>
       </c>
       <c r="E83" s="3">
-        <v>4640242180397</v>
+        <v>4607111036537</v>
       </c>
       <c r="F83" s="5" t="s">
-        <v>363</v>
+        <v>107</v>
       </c>
       <c r="G83" s="1"/>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>361</v>
+        <v>108</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>362</v>
+        <v>109</v>
       </c>
       <c r="D84" s="4">
-        <v>4301132080</v>
+        <v>4301132048</v>
       </c>
       <c r="E84" s="3">
-        <v>4640242180397</v>
+        <v>4607111035721</v>
       </c>
       <c r="F84" s="5" t="s">
-        <v>363</v>
+        <v>110</v>
       </c>
       <c r="G84" s="1"/>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="11" t="s">
-        <v>418</v>
+        <v>465</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>272</v>
+        <v>361</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>273</v>
+        <v>362</v>
       </c>
       <c r="D85" s="4">
-        <v>4301135134</v>
+        <v>4301132080</v>
       </c>
       <c r="E85" s="3">
-        <v>4607111035806</v>
+        <v>4640242180397</v>
       </c>
       <c r="F85" s="5" t="s">
-        <v>274</v>
+        <v>363</v>
       </c>
       <c r="G85" s="1"/>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="11" t="s">
-        <v>430</v>
+        <v>467</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>272</v>
+        <v>361</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>273</v>
+        <v>362</v>
       </c>
       <c r="D86" s="4">
-        <v>4301135134</v>
+        <v>4301132080</v>
       </c>
       <c r="E86" s="3">
-        <v>4607111035806</v>
+        <v>4640242180397</v>
       </c>
       <c r="F86" s="5" t="s">
-        <v>274</v>
+        <v>363</v>
       </c>
       <c r="G86" s="1"/>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="11" t="s">
-        <v>511</v>
+        <v>477</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>272</v>
+        <v>361</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>273</v>
+        <v>362</v>
       </c>
       <c r="D87" s="4">
-        <v>4301135134</v>
+        <v>4301132080</v>
       </c>
       <c r="E87" s="3">
-        <v>4607111035806</v>
+        <v>4640242180397</v>
       </c>
       <c r="F87" s="5" t="s">
-        <v>274</v>
+        <v>363</v>
       </c>
       <c r="G87" s="1"/>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="11" t="s">
-        <v>241</v>
+        <v>80</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>272</v>
+        <v>361</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>273</v>
+        <v>362</v>
       </c>
       <c r="D88" s="4">
-        <v>4301135134</v>
+        <v>4301132080</v>
       </c>
       <c r="E88" s="3">
-        <v>4607111035806</v>
+        <v>4640242180397</v>
       </c>
       <c r="F88" s="5" t="s">
-        <v>274</v>
+        <v>363</v>
       </c>
       <c r="G88" s="1"/>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="11" t="s">
-        <v>242</v>
+        <v>418</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>167</v>
+        <v>272</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>168</v>
+        <v>273</v>
       </c>
       <c r="D89" s="4">
-        <v>4301070935</v>
+        <v>4301135134</v>
       </c>
       <c r="E89" s="3">
-        <v>4607111037190</v>
+        <v>4607111035806</v>
       </c>
       <c r="F89" s="5" t="s">
-        <v>169</v>
+        <v>274</v>
       </c>
       <c r="G89" s="1"/>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="11" t="s">
-        <v>393</v>
+        <v>430</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D90" s="4">
-        <v>4301070865</v>
+        <v>4301135134</v>
       </c>
       <c r="E90" s="3">
-        <v>4607111036285</v>
+        <v>4607111035806</v>
       </c>
       <c r="F90" s="5" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="G90" s="1"/>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="11" t="s">
-        <v>443</v>
+        <v>511</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D91" s="4">
-        <v>4301070865</v>
+        <v>4301135134</v>
       </c>
       <c r="E91" s="3">
-        <v>4607111036285</v>
+        <v>4607111035806</v>
       </c>
       <c r="F91" s="5" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="G91" s="1"/>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="11" t="s">
-        <v>277</v>
+        <v>522</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D92" s="4">
-        <v>4301070865</v>
+        <v>4301135134</v>
       </c>
       <c r="E92" s="3">
-        <v>4607111036285</v>
+        <v>4607111035806</v>
       </c>
       <c r="F92" s="5" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="G92" s="1"/>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="11" t="s">
-        <v>513</v>
+        <v>241</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D93" s="4">
-        <v>4301070865</v>
+        <v>4301135134</v>
       </c>
       <c r="E93" s="3">
-        <v>4607111036285</v>
+        <v>4607111035806</v>
       </c>
       <c r="F93" s="5" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="G93" s="1"/>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="11" t="s">
-        <v>243</v>
+        <v>393</v>
       </c>
       <c r="B94" s="3" t="s">
         <v>275</v>
@@ -4047,2783 +4119,2963 @@
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="11" t="s">
-        <v>176</v>
+        <v>443</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>175</v>
+        <v>275</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>344</v>
+        <v>276</v>
       </c>
       <c r="D95" s="4">
-        <v>4301070970</v>
+        <v>4301070865</v>
       </c>
       <c r="E95" s="3">
-        <v>4607111037091</v>
+        <v>4607111036285</v>
       </c>
       <c r="F95" s="5" t="s">
-        <v>345</v>
-      </c>
-      <c r="G95" s="6"/>
+        <v>277</v>
+      </c>
+      <c r="G95" s="1"/>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="11" t="s">
-        <v>174</v>
+        <v>277</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>175</v>
+        <v>275</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>344</v>
+        <v>276</v>
       </c>
       <c r="D96" s="4">
-        <v>4301070970</v>
+        <v>4301070865</v>
       </c>
       <c r="E96" s="3">
-        <v>4607111037091</v>
+        <v>4607111036285</v>
       </c>
       <c r="F96" s="5" t="s">
-        <v>345</v>
-      </c>
-      <c r="G96" s="6"/>
+        <v>277</v>
+      </c>
+      <c r="G96" s="1"/>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="11" t="s">
-        <v>335</v>
+        <v>513</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>175</v>
+        <v>275</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>344</v>
+        <v>276</v>
       </c>
       <c r="D97" s="4">
-        <v>4301070970</v>
+        <v>4301070865</v>
       </c>
       <c r="E97" s="3">
-        <v>4607111037091</v>
+        <v>4607111036285</v>
       </c>
       <c r="F97" s="5" t="s">
-        <v>345</v>
+        <v>277</v>
       </c>
       <c r="G97" s="1"/>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="11" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>175</v>
+        <v>275</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>344</v>
+        <v>276</v>
       </c>
       <c r="D98" s="4">
-        <v>4301070970</v>
+        <v>4301070865</v>
       </c>
       <c r="E98" s="3">
-        <v>4607111037091</v>
+        <v>4607111036285</v>
       </c>
       <c r="F98" s="5" t="s">
-        <v>345</v>
+        <v>277</v>
       </c>
       <c r="G98" s="1"/>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="11" t="s">
-        <v>87</v>
+        <v>176</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>119</v>
+        <v>175</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>332</v>
+        <v>344</v>
       </c>
       <c r="D99" s="4">
-        <v>4301070973</v>
+        <v>4301070970</v>
       </c>
       <c r="E99" s="3">
-        <v>4607111033987</v>
+        <v>4607111037091</v>
       </c>
       <c r="F99" s="5" t="s">
-        <v>333</v>
+        <v>345</v>
       </c>
       <c r="G99" s="6"/>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="11" t="s">
-        <v>333</v>
+        <v>174</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>119</v>
+        <v>175</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>332</v>
+        <v>344</v>
       </c>
       <c r="D100" s="4">
-        <v>4301070973</v>
+        <v>4301070970</v>
       </c>
       <c r="E100" s="3">
-        <v>4607111033987</v>
+        <v>4607111037091</v>
       </c>
       <c r="F100" s="5" t="s">
-        <v>333</v>
+        <v>345</v>
       </c>
       <c r="G100" s="6"/>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="11" t="s">
-        <v>246</v>
+        <v>335</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>119</v>
+        <v>175</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>332</v>
+        <v>344</v>
       </c>
       <c r="D101" s="4">
-        <v>4301070973</v>
+        <v>4301070970</v>
       </c>
       <c r="E101" s="3">
-        <v>4607111033987</v>
+        <v>4607111037091</v>
       </c>
       <c r="F101" s="5" t="s">
-        <v>333</v>
+        <v>345</v>
       </c>
       <c r="G101" s="1"/>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="11" t="s">
-        <v>442</v>
+        <v>244</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>278</v>
+        <v>175</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>279</v>
+        <v>344</v>
       </c>
       <c r="D102" s="4">
-        <v>4301070861</v>
+        <v>4301070970</v>
       </c>
       <c r="E102" s="3">
-        <v>4607111036308</v>
+        <v>4607111037091</v>
       </c>
       <c r="F102" s="5" t="s">
-        <v>280</v>
+        <v>345</v>
       </c>
       <c r="G102" s="1"/>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="11" t="s">
-        <v>512</v>
+        <v>87</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>278</v>
+        <v>119</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>279</v>
+        <v>332</v>
       </c>
       <c r="D103" s="4">
-        <v>4301070861</v>
+        <v>4301070973</v>
       </c>
       <c r="E103" s="3">
-        <v>4607111036308</v>
+        <v>4607111033987</v>
       </c>
       <c r="F103" s="5" t="s">
-        <v>280</v>
-      </c>
-      <c r="G103" s="1"/>
+        <v>333</v>
+      </c>
+      <c r="G103" s="6"/>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="11" t="s">
-        <v>247</v>
+        <v>333</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>278</v>
+        <v>119</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>279</v>
+        <v>332</v>
       </c>
       <c r="D104" s="4">
-        <v>4301070861</v>
+        <v>4301070973</v>
       </c>
       <c r="E104" s="3">
-        <v>4607111036308</v>
+        <v>4607111033987</v>
       </c>
       <c r="F104" s="5" t="s">
-        <v>280</v>
-      </c>
-      <c r="G104" s="1"/>
+        <v>333</v>
+      </c>
+      <c r="G104" s="6"/>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="11" t="s">
-        <v>81</v>
+        <v>246</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>112</v>
+        <v>332</v>
       </c>
       <c r="D105" s="4">
-        <v>4301070864</v>
+        <v>4301070973</v>
       </c>
       <c r="E105" s="3">
-        <v>4607111036292</v>
+        <v>4607111033987</v>
       </c>
       <c r="F105" s="5" t="s">
-        <v>113</v>
+        <v>333</v>
       </c>
       <c r="G105" s="1"/>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="11" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>111</v>
+        <v>278</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>112</v>
+        <v>279</v>
       </c>
       <c r="D106" s="4">
-        <v>4301070864</v>
+        <v>4301070861</v>
       </c>
       <c r="E106" s="3">
-        <v>4607111036292</v>
+        <v>4607111036308</v>
       </c>
       <c r="F106" s="5" t="s">
-        <v>113</v>
+        <v>280</v>
       </c>
       <c r="G106" s="1"/>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="11" t="s">
-        <v>248</v>
+        <v>512</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>111</v>
+        <v>278</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>112</v>
+        <v>279</v>
       </c>
       <c r="D107" s="4">
-        <v>4301070864</v>
+        <v>4301070861</v>
       </c>
       <c r="E107" s="3">
-        <v>4607111036292</v>
+        <v>4607111036308</v>
       </c>
       <c r="F107" s="5" t="s">
-        <v>113</v>
+        <v>280</v>
       </c>
       <c r="G107" s="1"/>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="11" t="s">
-        <v>86</v>
+        <v>247</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>118</v>
+        <v>278</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>328</v>
+        <v>279</v>
       </c>
       <c r="D108" s="4">
-        <v>4301070974</v>
+        <v>4301070861</v>
       </c>
       <c r="E108" s="3">
-        <v>4607111034151</v>
+        <v>4607111036308</v>
       </c>
       <c r="F108" s="5" t="s">
-        <v>329</v>
-      </c>
-      <c r="G108" s="6"/>
+        <v>280</v>
+      </c>
+      <c r="G108" s="1"/>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="11" t="s">
-        <v>329</v>
+        <v>81</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>328</v>
+        <v>112</v>
       </c>
       <c r="D109" s="4">
-        <v>4301070974</v>
+        <v>4301070864</v>
       </c>
       <c r="E109" s="3">
-        <v>4607111034151</v>
+        <v>4607111036292</v>
       </c>
       <c r="F109" s="5" t="s">
-        <v>329</v>
-      </c>
-      <c r="G109" s="6"/>
+        <v>113</v>
+      </c>
+      <c r="G109" s="1"/>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="11" t="s">
-        <v>251</v>
+        <v>444</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>328</v>
+        <v>112</v>
       </c>
       <c r="D110" s="4">
-        <v>4301070974</v>
+        <v>4301070864</v>
       </c>
       <c r="E110" s="3">
-        <v>4607111034151</v>
+        <v>4607111036292</v>
       </c>
       <c r="F110" s="5" t="s">
-        <v>329</v>
+        <v>113</v>
       </c>
       <c r="G110" s="1"/>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="11" t="s">
-        <v>166</v>
+        <v>248</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>167</v>
+        <v>111</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>168</v>
+        <v>112</v>
       </c>
       <c r="D111" s="4">
-        <v>4301070935</v>
+        <v>4301070864</v>
       </c>
       <c r="E111" s="3">
-        <v>4607111037190</v>
+        <v>4607111036292</v>
       </c>
       <c r="F111" s="5" t="s">
-        <v>169</v>
+        <v>113</v>
       </c>
       <c r="G111" s="1"/>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="11" t="s">
-        <v>249</v>
+        <v>86</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>171</v>
+        <v>118</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>340</v>
+        <v>328</v>
       </c>
       <c r="D112" s="4">
-        <v>4301070972</v>
+        <v>4301070974</v>
       </c>
       <c r="E112" s="3">
-        <v>4607111037183</v>
+        <v>4607111034151</v>
       </c>
       <c r="F112" s="5" t="s">
-        <v>341</v>
-      </c>
-      <c r="G112" s="1"/>
+        <v>329</v>
+      </c>
+      <c r="G112" s="6"/>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="11" t="s">
-        <v>514</v>
+        <v>329</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>171</v>
+        <v>118</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>340</v>
+        <v>328</v>
       </c>
       <c r="D113" s="4">
-        <v>4301070972</v>
+        <v>4301070974</v>
       </c>
       <c r="E113" s="3">
-        <v>4607111037183</v>
+        <v>4607111034151</v>
       </c>
       <c r="F113" s="5" t="s">
-        <v>341</v>
-      </c>
-      <c r="G113" s="1"/>
+        <v>329</v>
+      </c>
+      <c r="G113" s="6"/>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="11" t="s">
-        <v>170</v>
+        <v>251</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>171</v>
+        <v>118</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>340</v>
+        <v>328</v>
       </c>
       <c r="D114" s="4">
-        <v>4301070972</v>
+        <v>4301070974</v>
       </c>
       <c r="E114" s="3">
-        <v>4607111037183</v>
+        <v>4607111034151</v>
       </c>
       <c r="F114" s="5" t="s">
-        <v>341</v>
+        <v>329</v>
       </c>
       <c r="G114" s="1"/>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="11" t="s">
-        <v>172</v>
+        <v>242</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>342</v>
+        <v>168</v>
       </c>
       <c r="D115" s="4">
-        <v>4301070969</v>
+        <v>4301070935</v>
       </c>
       <c r="E115" s="3">
-        <v>4607111036858</v>
+        <v>4607111037190</v>
       </c>
       <c r="F115" s="5" t="s">
-        <v>343</v>
+        <v>169</v>
       </c>
       <c r="G115" s="1"/>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="11" t="s">
-        <v>82</v>
+        <v>533</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>114</v>
+        <v>167</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>495</v>
+        <v>168</v>
       </c>
       <c r="D116" s="4">
-        <v>4301070968</v>
+        <v>4301070935</v>
       </c>
       <c r="E116" s="3">
-        <v>4607111036889</v>
+        <v>4607111037190</v>
       </c>
       <c r="F116" s="5" t="s">
-        <v>496</v>
-      </c>
-      <c r="G116" s="6"/>
+        <v>169</v>
+      </c>
+      <c r="G116" s="1"/>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="11" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>471</v>
+        <v>168</v>
       </c>
       <c r="D117" s="4">
-        <v>4301070971</v>
+        <v>4301070935</v>
       </c>
       <c r="E117" s="3">
-        <v>4607111036902</v>
+        <v>4607111037190</v>
       </c>
       <c r="F117" s="5" t="s">
-        <v>472</v>
-      </c>
-      <c r="G117" s="6"/>
+        <v>169</v>
+      </c>
+      <c r="G117" s="1"/>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="11" t="s">
-        <v>334</v>
+        <v>249</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>471</v>
+        <v>340</v>
       </c>
       <c r="D118" s="4">
-        <v>4301070971</v>
+        <v>4301070972</v>
       </c>
       <c r="E118" s="3">
-        <v>4607111036902</v>
+        <v>4607111037183</v>
       </c>
       <c r="F118" s="5" t="s">
-        <v>472</v>
-      </c>
-      <c r="G118" s="6"/>
+        <v>341</v>
+      </c>
+      <c r="G118" s="1"/>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="11" t="s">
-        <v>177</v>
+        <v>514</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>471</v>
+        <v>340</v>
       </c>
       <c r="D119" s="4">
-        <v>4301070971</v>
+        <v>4301070972</v>
       </c>
       <c r="E119" s="3">
-        <v>4607111036902</v>
+        <v>4607111037183</v>
       </c>
       <c r="F119" s="5" t="s">
-        <v>472</v>
-      </c>
-      <c r="G119" s="6"/>
+        <v>341</v>
+      </c>
+      <c r="G119" s="1"/>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="11" t="s">
-        <v>289</v>
+        <v>170</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>115</v>
+        <v>171</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>321</v>
+        <v>340</v>
       </c>
       <c r="D120" s="4">
-        <v>4301070976</v>
+        <v>4301070972</v>
       </c>
       <c r="E120" s="3">
-        <v>4607111034144</v>
+        <v>4607111037183</v>
       </c>
       <c r="F120" s="5" t="s">
-        <v>322</v>
-      </c>
-      <c r="G120" s="6"/>
+        <v>341</v>
+      </c>
+      <c r="G120" s="1"/>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="11" t="s">
-        <v>250</v>
+        <v>528</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>115</v>
+        <v>173</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>321</v>
+        <v>342</v>
       </c>
       <c r="D121" s="4">
-        <v>4301070976</v>
+        <v>4301070969</v>
       </c>
       <c r="E121" s="3">
-        <v>4607111034144</v>
+        <v>4607111036858</v>
       </c>
       <c r="F121" s="5" t="s">
-        <v>322</v>
+        <v>343</v>
       </c>
       <c r="G121" s="1"/>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="11" t="s">
-        <v>322</v>
+        <v>172</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>115</v>
+        <v>173</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>321</v>
+        <v>342</v>
       </c>
       <c r="D122" s="4">
-        <v>4301070976</v>
+        <v>4301070969</v>
       </c>
       <c r="E122" s="3">
-        <v>4607111034144</v>
+        <v>4607111036858</v>
       </c>
       <c r="F122" s="5" t="s">
-        <v>322</v>
+        <v>343</v>
       </c>
       <c r="G122" s="1"/>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>321</v>
+        <v>495</v>
       </c>
       <c r="D123" s="4">
-        <v>4301070976</v>
+        <v>4301070968</v>
       </c>
       <c r="E123" s="3">
-        <v>4607111034144</v>
+        <v>4607111036889</v>
       </c>
       <c r="F123" s="5" t="s">
-        <v>322</v>
+        <v>496</v>
       </c>
       <c r="G123" s="6"/>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" s="11" t="s">
-        <v>288</v>
+        <v>179</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>116</v>
+        <v>178</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>330</v>
+        <v>471</v>
       </c>
       <c r="D124" s="4">
-        <v>4301070975</v>
+        <v>4301070971</v>
       </c>
       <c r="E124" s="3">
-        <v>4607111033970</v>
+        <v>4607111036902</v>
       </c>
       <c r="F124" s="5" t="s">
-        <v>331</v>
+        <v>472</v>
       </c>
       <c r="G124" s="6"/>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="11" t="s">
-        <v>245</v>
+        <v>334</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>116</v>
+        <v>178</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>330</v>
+        <v>471</v>
       </c>
       <c r="D125" s="4">
-        <v>4301070975</v>
+        <v>4301070971</v>
       </c>
       <c r="E125" s="3">
-        <v>4607111033970</v>
+        <v>4607111036902</v>
       </c>
       <c r="F125" s="5" t="s">
-        <v>331</v>
-      </c>
-      <c r="G125" s="1"/>
+        <v>472</v>
+      </c>
+      <c r="G125" s="6"/>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" s="11" t="s">
-        <v>399</v>
+        <v>177</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>116</v>
+        <v>178</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>330</v>
+        <v>471</v>
       </c>
       <c r="D126" s="4">
-        <v>4301070975</v>
+        <v>4301070971</v>
       </c>
       <c r="E126" s="3">
-        <v>4607111033970</v>
+        <v>4607111036902</v>
       </c>
       <c r="F126" s="5" t="s">
-        <v>331</v>
-      </c>
-      <c r="G126" s="1"/>
+        <v>472</v>
+      </c>
+      <c r="G126" s="6"/>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" s="11" t="s">
-        <v>331</v>
+        <v>289</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="D127" s="4">
-        <v>4301070975</v>
+        <v>4301070976</v>
       </c>
       <c r="E127" s="3">
-        <v>4607111033970</v>
+        <v>4607111034144</v>
       </c>
       <c r="F127" s="5" t="s">
-        <v>331</v>
-      </c>
-      <c r="G127" s="1"/>
+        <v>322</v>
+      </c>
+      <c r="G127" s="6"/>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" s="11" t="s">
-        <v>84</v>
+        <v>250</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="D128" s="4">
-        <v>4301070975</v>
+        <v>4301070976</v>
       </c>
       <c r="E128" s="3">
-        <v>4607111033970</v>
+        <v>4607111034144</v>
       </c>
       <c r="F128" s="5" t="s">
-        <v>331</v>
-      </c>
-      <c r="G128" s="6"/>
+        <v>322</v>
+      </c>
+      <c r="G128" s="1"/>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" s="11" t="s">
-        <v>398</v>
+        <v>322</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="D129" s="4">
-        <v>4301070981</v>
+        <v>4301070976</v>
       </c>
       <c r="E129" s="3">
-        <v>4607111036728</v>
+        <v>4607111034144</v>
       </c>
       <c r="F129" s="5" t="s">
-        <v>324</v>
-      </c>
-      <c r="G129" s="6"/>
+        <v>322</v>
+      </c>
+      <c r="G129" s="1"/>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" s="11" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="D130" s="4">
-        <v>4301070981</v>
+        <v>4301070976</v>
       </c>
       <c r="E130" s="3">
-        <v>4607111036728</v>
+        <v>4607111034144</v>
       </c>
       <c r="F130" s="5" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="G130" s="6"/>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" s="11" t="s">
-        <v>412</v>
+        <v>288</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>206</v>
+        <v>116</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>207</v>
+        <v>330</v>
       </c>
       <c r="D131" s="4">
-        <v>4301071010</v>
+        <v>4301070975</v>
       </c>
       <c r="E131" s="3">
-        <v>4607111037701</v>
+        <v>4607111033970</v>
       </c>
       <c r="F131" s="5" t="s">
-        <v>208</v>
+        <v>331</v>
       </c>
       <c r="G131" s="6"/>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" s="11" t="s">
-        <v>486</v>
+        <v>245</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>206</v>
+        <v>116</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>207</v>
+        <v>330</v>
       </c>
       <c r="D132" s="4">
-        <v>4301071010</v>
+        <v>4301070975</v>
       </c>
       <c r="E132" s="3">
-        <v>4607111037701</v>
+        <v>4607111033970</v>
       </c>
       <c r="F132" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="G132" s="6"/>
+        <v>331</v>
+      </c>
+      <c r="G132" s="1"/>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" s="11" t="s">
-        <v>209</v>
+        <v>399</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>206</v>
+        <v>116</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>207</v>
+        <v>330</v>
       </c>
       <c r="D133" s="4">
-        <v>4301071010</v>
+        <v>4301070975</v>
       </c>
       <c r="E133" s="3">
-        <v>4607111037701</v>
+        <v>4607111033970</v>
       </c>
       <c r="F133" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="G133" s="6"/>
+        <v>331</v>
+      </c>
+      <c r="G133" s="1"/>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" s="11" t="s">
-        <v>213</v>
+        <v>331</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>210</v>
+        <v>116</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>211</v>
+        <v>330</v>
       </c>
       <c r="D134" s="4">
-        <v>4301070870</v>
+        <v>4301070975</v>
       </c>
       <c r="E134" s="3">
-        <v>4607111036711</v>
+        <v>4607111033970</v>
       </c>
       <c r="F134" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="G134" s="6"/>
+        <v>331</v>
+      </c>
+      <c r="G134" s="1"/>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" s="11" t="s">
-        <v>181</v>
+        <v>84</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>316</v>
+        <v>116</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>317</v>
+        <v>330</v>
       </c>
       <c r="D135" s="4">
-        <v>4301070948</v>
+        <v>4301070975</v>
       </c>
       <c r="E135" s="3">
-        <v>4607111037022</v>
+        <v>4607111033970</v>
       </c>
       <c r="F135" s="5" t="s">
-        <v>181</v>
+        <v>331</v>
       </c>
       <c r="G135" s="6"/>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" s="11" t="s">
-        <v>318</v>
+        <v>398</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>316</v>
+        <v>117</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="D136" s="4">
-        <v>4301070948</v>
+        <v>4301070981</v>
       </c>
       <c r="E136" s="3">
-        <v>4607111037022</v>
+        <v>4607111036728</v>
       </c>
       <c r="F136" s="5" t="s">
-        <v>181</v>
+        <v>324</v>
       </c>
       <c r="G136" s="6"/>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" s="11" t="s">
-        <v>180</v>
+        <v>85</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>316</v>
+        <v>117</v>
       </c>
       <c r="C137" s="3" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="D137" s="4">
-        <v>4301070948</v>
+        <v>4301070981</v>
       </c>
       <c r="E137" s="3">
-        <v>4607111037022</v>
+        <v>4607111036728</v>
       </c>
       <c r="F137" s="5" t="s">
-        <v>181</v>
+        <v>324</v>
       </c>
       <c r="G137" s="6"/>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" s="11" t="s">
-        <v>122</v>
+        <v>412</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>120</v>
+        <v>206</v>
       </c>
       <c r="C138" s="3" t="s">
-        <v>121</v>
+        <v>207</v>
       </c>
       <c r="D138" s="4">
-        <v>4301070920</v>
+        <v>4301071010</v>
       </c>
       <c r="E138" s="3">
-        <v>4607111035929</v>
+        <v>4607111037701</v>
       </c>
       <c r="F138" s="5" t="s">
-        <v>122</v>
+        <v>208</v>
       </c>
       <c r="G138" s="6"/>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" s="11" t="s">
-        <v>88</v>
+        <v>486</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>120</v>
+        <v>206</v>
       </c>
       <c r="C139" s="3" t="s">
-        <v>121</v>
+        <v>207</v>
       </c>
       <c r="D139" s="4">
-        <v>4301070920</v>
+        <v>4301071010</v>
       </c>
       <c r="E139" s="3">
-        <v>4607111035929</v>
+        <v>4607111037701</v>
       </c>
       <c r="F139" s="5" t="s">
-        <v>122</v>
+        <v>208</v>
       </c>
       <c r="G139" s="6"/>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" s="11" t="s">
-        <v>182</v>
+        <v>209</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>183</v>
+        <v>206</v>
       </c>
       <c r="C140" s="3" t="s">
-        <v>184</v>
+        <v>207</v>
       </c>
       <c r="D140" s="4">
-        <v>4301070921</v>
+        <v>4301071010</v>
       </c>
       <c r="E140" s="3">
-        <v>4607111035905</v>
+        <v>4607111037701</v>
       </c>
       <c r="F140" s="5" t="s">
-        <v>185</v>
+        <v>208</v>
       </c>
       <c r="G140" s="6"/>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" s="11" t="s">
-        <v>185</v>
+        <v>524</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>183</v>
+        <v>210</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>184</v>
+        <v>211</v>
       </c>
       <c r="D141" s="4">
-        <v>4301070921</v>
+        <v>4301070870</v>
       </c>
       <c r="E141" s="3">
-        <v>4607111035905</v>
+        <v>4607111036711</v>
       </c>
       <c r="F141" s="5" t="s">
-        <v>185</v>
+        <v>212</v>
       </c>
       <c r="G141" s="6"/>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" s="11" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D142" s="4">
-        <v>4301070917</v>
+        <v>4301070870</v>
       </c>
       <c r="E142" s="3">
-        <v>4607111035912</v>
+        <v>4607111036711</v>
       </c>
       <c r="F142" s="5" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="G142" s="6"/>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" s="11" t="s">
-        <v>337</v>
+        <v>181</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>214</v>
+        <v>316</v>
       </c>
       <c r="C143" s="3" t="s">
-        <v>215</v>
+        <v>317</v>
       </c>
       <c r="D143" s="4">
-        <v>4301070917</v>
+        <v>4301070948</v>
       </c>
       <c r="E143" s="3">
-        <v>4607111035912</v>
+        <v>4607111037022</v>
       </c>
       <c r="F143" s="5" t="s">
-        <v>216</v>
+        <v>181</v>
       </c>
       <c r="G143" s="6"/>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" s="11" t="s">
-        <v>385</v>
+        <v>318</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>214</v>
+        <v>316</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>215</v>
+        <v>317</v>
       </c>
       <c r="D144" s="4">
-        <v>4301070917</v>
+        <v>4301070948</v>
       </c>
       <c r="E144" s="3">
-        <v>4607111035912</v>
+        <v>4607111037022</v>
       </c>
       <c r="F144" s="5" t="s">
-        <v>216</v>
+        <v>181</v>
       </c>
       <c r="G144" s="6"/>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" s="11" t="s">
-        <v>217</v>
+        <v>180</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>214</v>
+        <v>316</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>215</v>
+        <v>317</v>
       </c>
       <c r="D145" s="4">
-        <v>4301070917</v>
+        <v>4301070948</v>
       </c>
       <c r="E145" s="3">
-        <v>4607111035912</v>
+        <v>4607111037022</v>
       </c>
       <c r="F145" s="5" t="s">
-        <v>216</v>
+        <v>181</v>
       </c>
       <c r="G145" s="6"/>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" s="11" t="s">
-        <v>186</v>
+        <v>122</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D146" s="4">
-        <v>4301070827</v>
+        <v>4301070920</v>
       </c>
       <c r="E146" s="3">
-        <v>4607111036216</v>
+        <v>4607111035929</v>
       </c>
       <c r="F146" s="5" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="G146" s="6"/>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C147" s="3" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D147" s="4">
-        <v>4301070827</v>
+        <v>4301070920</v>
       </c>
       <c r="E147" s="3">
-        <v>4607111036216</v>
+        <v>4607111035929</v>
       </c>
       <c r="F147" s="5" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="G147" s="6"/>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" s="11" t="s">
-        <v>127</v>
+        <v>182</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>126</v>
+        <v>183</v>
       </c>
       <c r="C148" s="3" t="s">
-        <v>478</v>
+        <v>184</v>
       </c>
       <c r="D148" s="4">
-        <v>4301070965</v>
+        <v>4301070921</v>
       </c>
       <c r="E148" s="3">
-        <v>4607111035899</v>
+        <v>4607111035905</v>
       </c>
       <c r="F148" s="5" t="s">
-        <v>127</v>
+        <v>185</v>
       </c>
       <c r="G148" s="6"/>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" s="11" t="s">
-        <v>90</v>
+        <v>185</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>126</v>
+        <v>183</v>
       </c>
       <c r="C149" s="3" t="s">
-        <v>478</v>
+        <v>184</v>
       </c>
       <c r="D149" s="4">
-        <v>4301070965</v>
+        <v>4301070921</v>
       </c>
       <c r="E149" s="3">
-        <v>4607111035899</v>
+        <v>4607111035905</v>
       </c>
       <c r="F149" s="5" t="s">
-        <v>127</v>
+        <v>185</v>
       </c>
       <c r="G149" s="6"/>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" s="11" t="s">
-        <v>190</v>
+        <v>216</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>188</v>
+        <v>214</v>
       </c>
       <c r="C150" s="3" t="s">
-        <v>189</v>
+        <v>215</v>
       </c>
       <c r="D150" s="4">
-        <v>4301070873</v>
+        <v>4301070917</v>
       </c>
       <c r="E150" s="3">
-        <v>4607111035080</v>
+        <v>4607111035912</v>
       </c>
       <c r="F150" s="5" t="s">
-        <v>190</v>
+        <v>216</v>
       </c>
       <c r="G150" s="6"/>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" s="11" t="s">
-        <v>187</v>
+        <v>337</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>188</v>
+        <v>214</v>
       </c>
       <c r="C151" s="3" t="s">
-        <v>189</v>
+        <v>215</v>
       </c>
       <c r="D151" s="4">
-        <v>4301070873</v>
+        <v>4301070917</v>
       </c>
       <c r="E151" s="3">
-        <v>4607111035080</v>
+        <v>4607111035912</v>
       </c>
       <c r="F151" s="5" t="s">
-        <v>190</v>
+        <v>216</v>
       </c>
       <c r="G151" s="6"/>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" s="11" t="s">
-        <v>283</v>
+        <v>385</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>367</v>
+        <v>214</v>
       </c>
       <c r="C152" s="3" t="s">
-        <v>368</v>
+        <v>215</v>
       </c>
       <c r="D152" s="4">
-        <v>4301135193</v>
+        <v>4301070917</v>
       </c>
       <c r="E152" s="3">
-        <v>4640242180403</v>
+        <v>4607111035912</v>
       </c>
       <c r="F152" s="5" t="s">
-        <v>369</v>
+        <v>216</v>
       </c>
       <c r="G152" s="6"/>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" s="11" t="s">
-        <v>479</v>
+        <v>217</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>367</v>
+        <v>214</v>
       </c>
       <c r="C153" s="3" t="s">
-        <v>368</v>
+        <v>215</v>
       </c>
       <c r="D153" s="4">
-        <v>4301135193</v>
+        <v>4301070917</v>
       </c>
       <c r="E153" s="3">
-        <v>4640242180403</v>
+        <v>4607111035912</v>
       </c>
       <c r="F153" s="5" t="s">
-        <v>369</v>
+        <v>216</v>
       </c>
       <c r="G153" s="6"/>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" s="11" t="s">
-        <v>502</v>
+        <v>186</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>367</v>
+        <v>123</v>
       </c>
       <c r="C154" s="3" t="s">
-        <v>368</v>
+        <v>124</v>
       </c>
       <c r="D154" s="4">
-        <v>4301135193</v>
+        <v>4301070827</v>
       </c>
       <c r="E154" s="3">
-        <v>4640242180403</v>
+        <v>4607111036216</v>
       </c>
       <c r="F154" s="5" t="s">
-        <v>369</v>
+        <v>125</v>
       </c>
       <c r="G154" s="6"/>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" s="11" t="s">
-        <v>493</v>
+        <v>89</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>367</v>
+        <v>123</v>
       </c>
       <c r="C155" s="3" t="s">
-        <v>368</v>
+        <v>124</v>
       </c>
       <c r="D155" s="4">
-        <v>4301135193</v>
+        <v>4301070827</v>
       </c>
       <c r="E155" s="3">
-        <v>4640242180403</v>
+        <v>4607111036216</v>
       </c>
       <c r="F155" s="5" t="s">
-        <v>369</v>
+        <v>125</v>
       </c>
       <c r="G155" s="6"/>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" s="11" t="s">
-        <v>191</v>
+        <v>127</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>367</v>
+        <v>126</v>
       </c>
       <c r="C156" s="3" t="s">
-        <v>368</v>
+        <v>478</v>
       </c>
       <c r="D156" s="4">
-        <v>4301135193</v>
+        <v>4301070965</v>
       </c>
       <c r="E156" s="3">
-        <v>4640242180403</v>
+        <v>4607111035899</v>
       </c>
       <c r="F156" s="5" t="s">
-        <v>369</v>
+        <v>127</v>
       </c>
       <c r="G156" s="6"/>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" s="11" t="s">
-        <v>503</v>
+        <v>90</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>193</v>
+        <v>126</v>
       </c>
       <c r="C157" s="3" t="s">
-        <v>473</v>
+        <v>478</v>
       </c>
       <c r="D157" s="4">
-        <v>4301070956</v>
+        <v>4301070965</v>
       </c>
       <c r="E157" s="3">
-        <v>4640242180250</v>
+        <v>4607111035899</v>
       </c>
       <c r="F157" s="5" t="s">
-        <v>474</v>
+        <v>127</v>
       </c>
       <c r="G157" s="6"/>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" s="11" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C158" s="3" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="D158" s="4">
-        <v>4301070858</v>
+        <v>4301070873</v>
       </c>
       <c r="E158" s="3">
-        <v>4607111036193</v>
+        <v>4607111035080</v>
       </c>
       <c r="F158" s="5" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="G158" s="6"/>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" s="11" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C159" s="3" t="s">
-        <v>473</v>
+        <v>189</v>
       </c>
       <c r="D159" s="4">
-        <v>4301070956</v>
+        <v>4301070873</v>
       </c>
       <c r="E159" s="3">
-        <v>4640242180250</v>
+        <v>4607111035080</v>
       </c>
       <c r="F159" s="5" t="s">
-        <v>474</v>
+        <v>190</v>
       </c>
       <c r="G159" s="6"/>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" s="11" t="s">
-        <v>92</v>
+        <v>283</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>128</v>
+        <v>367</v>
       </c>
       <c r="C160" s="3" t="s">
-        <v>129</v>
+        <v>368</v>
       </c>
       <c r="D160" s="4">
-        <v>4301135112</v>
+        <v>4301135193</v>
       </c>
       <c r="E160" s="3">
-        <v>4607111034199</v>
+        <v>4640242180403</v>
       </c>
       <c r="F160" s="5" t="s">
-        <v>130</v>
+        <v>369</v>
       </c>
       <c r="G160" s="6"/>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" s="11" t="s">
-        <v>299</v>
+        <v>479</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>325</v>
+        <v>367</v>
       </c>
       <c r="C161" s="3" t="s">
-        <v>326</v>
+        <v>368</v>
       </c>
       <c r="D161" s="4">
-        <v>4301131018</v>
+        <v>4301135193</v>
       </c>
       <c r="E161" s="3">
-        <v>4607111037930</v>
+        <v>4640242180403</v>
       </c>
       <c r="F161" s="5" t="s">
-        <v>327</v>
+        <v>369</v>
       </c>
       <c r="G161" s="6"/>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" s="11" t="s">
-        <v>417</v>
+        <v>502</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>325</v>
+        <v>367</v>
       </c>
       <c r="C162" s="3" t="s">
-        <v>326</v>
+        <v>368</v>
       </c>
       <c r="D162" s="4">
-        <v>4301131018</v>
+        <v>4301135193</v>
       </c>
       <c r="E162" s="3">
-        <v>4607111037930</v>
+        <v>4640242180403</v>
       </c>
       <c r="F162" s="5" t="s">
-        <v>327</v>
+        <v>369</v>
       </c>
       <c r="G162" s="6"/>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" s="11" t="s">
-        <v>196</v>
+        <v>493</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>461</v>
+        <v>367</v>
       </c>
       <c r="C163" s="3" t="s">
-        <v>462</v>
+        <v>368</v>
       </c>
       <c r="D163" s="4">
-        <v>4301131019</v>
+        <v>4301135193</v>
       </c>
       <c r="E163" s="3">
-        <v>4640242180427</v>
+        <v>4640242180403</v>
       </c>
       <c r="F163" s="5" t="s">
-        <v>463</v>
+        <v>369</v>
       </c>
       <c r="G163" s="6"/>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" s="11" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="B164" s="3" t="s">
-        <v>148</v>
+        <v>367</v>
       </c>
       <c r="C164" s="3" t="s">
-        <v>149</v>
+        <v>368</v>
       </c>
       <c r="D164" s="4">
-        <v>4301190014</v>
+        <v>4301135193</v>
       </c>
       <c r="E164" s="3">
-        <v>4607111037053</v>
+        <v>4640242180403</v>
       </c>
       <c r="F164" s="5" t="s">
-        <v>150</v>
+        <v>369</v>
       </c>
       <c r="G164" s="6"/>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" s="11" t="s">
-        <v>427</v>
+        <v>503</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>148</v>
+        <v>193</v>
       </c>
       <c r="C165" s="3" t="s">
-        <v>149</v>
+        <v>473</v>
       </c>
       <c r="D165" s="4">
-        <v>4301190014</v>
+        <v>4301070956</v>
       </c>
       <c r="E165" s="3">
-        <v>4607111037053</v>
+        <v>4640242180250</v>
       </c>
       <c r="F165" s="5" t="s">
-        <v>150</v>
+        <v>474</v>
       </c>
       <c r="G165" s="6"/>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" s="11" t="s">
-        <v>141</v>
+        <v>195</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>148</v>
+        <v>193</v>
       </c>
       <c r="C166" s="3" t="s">
-        <v>149</v>
+        <v>194</v>
       </c>
       <c r="D166" s="4">
-        <v>4301190014</v>
+        <v>4301070858</v>
       </c>
       <c r="E166" s="3">
-        <v>4607111037053</v>
+        <v>4607111036193</v>
       </c>
       <c r="F166" s="5" t="s">
-        <v>150</v>
+        <v>195</v>
       </c>
       <c r="G166" s="6"/>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" s="11" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>506</v>
+        <v>193</v>
       </c>
       <c r="C167" s="3" t="s">
-        <v>507</v>
+        <v>473</v>
       </c>
       <c r="D167" s="4">
-        <v>4301190023</v>
+        <v>4301070956</v>
       </c>
       <c r="E167" s="3">
-        <v>4607111037060</v>
+        <v>4640242180250</v>
       </c>
       <c r="F167" s="5" t="s">
-        <v>508</v>
+        <v>474</v>
       </c>
       <c r="G167" s="6"/>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" s="11" t="s">
-        <v>428</v>
+        <v>92</v>
       </c>
       <c r="B168" s="3" t="s">
-        <v>506</v>
+        <v>128</v>
       </c>
       <c r="C168" s="3" t="s">
-        <v>507</v>
+        <v>129</v>
       </c>
       <c r="D168" s="4">
-        <v>4301190023</v>
+        <v>4301135112</v>
       </c>
       <c r="E168" s="3">
-        <v>4607111037060</v>
+        <v>4607111034199</v>
       </c>
       <c r="F168" s="5" t="s">
-        <v>508</v>
+        <v>130</v>
       </c>
       <c r="G168" s="6"/>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" s="11" t="s">
-        <v>142</v>
+        <v>299</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>506</v>
+        <v>325</v>
       </c>
       <c r="C169" s="3" t="s">
-        <v>507</v>
+        <v>326</v>
       </c>
       <c r="D169" s="4">
-        <v>4301190023</v>
+        <v>4301131018</v>
       </c>
       <c r="E169" s="3">
-        <v>4607111037060</v>
+        <v>4607111037930</v>
       </c>
       <c r="F169" s="5" t="s">
-        <v>508</v>
-      </c>
-      <c r="G169" s="1"/>
+        <v>327</v>
+      </c>
+      <c r="G169" s="6"/>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" s="11" t="s">
-        <v>221</v>
+        <v>417</v>
       </c>
       <c r="B170" s="3" t="s">
-        <v>218</v>
+        <v>325</v>
       </c>
       <c r="C170" s="3" t="s">
-        <v>219</v>
+        <v>326</v>
       </c>
       <c r="D170" s="4">
-        <v>4301135053</v>
+        <v>4301131018</v>
       </c>
       <c r="E170" s="3">
-        <v>4607111036407</v>
+        <v>4607111037930</v>
       </c>
       <c r="F170" s="5" t="s">
-        <v>220</v>
-      </c>
-      <c r="G170" s="1"/>
+        <v>327</v>
+      </c>
+      <c r="G170" s="6"/>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" s="11" t="s">
-        <v>93</v>
+        <v>196</v>
       </c>
       <c r="B171" s="3" t="s">
-        <v>131</v>
+        <v>461</v>
       </c>
       <c r="C171" s="3" t="s">
-        <v>199</v>
+        <v>462</v>
       </c>
       <c r="D171" s="4">
-        <v>4301135162</v>
+        <v>4301131019</v>
       </c>
       <c r="E171" s="3">
-        <v>4607111034014</v>
+        <v>4640242180427</v>
       </c>
       <c r="F171" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="G171" s="1"/>
+        <v>463</v>
+      </c>
+      <c r="G171" s="6"/>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" s="11" t="s">
-        <v>435</v>
+        <v>197</v>
       </c>
       <c r="B172" s="3" t="s">
-        <v>131</v>
+        <v>148</v>
       </c>
       <c r="C172" s="3" t="s">
-        <v>199</v>
+        <v>149</v>
       </c>
       <c r="D172" s="4">
-        <v>4301135162</v>
+        <v>4301190014</v>
       </c>
       <c r="E172" s="3">
-        <v>4607111034014</v>
+        <v>4607111037053</v>
       </c>
       <c r="F172" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="G172" s="1"/>
+        <v>150</v>
+      </c>
+      <c r="G172" s="6"/>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" s="11" t="s">
-        <v>252</v>
+        <v>427</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>131</v>
+        <v>148</v>
       </c>
       <c r="C173" s="3" t="s">
-        <v>199</v>
+        <v>149</v>
       </c>
       <c r="D173" s="4">
-        <v>4301135162</v>
+        <v>4301190014</v>
       </c>
       <c r="E173" s="3">
-        <v>4607111034014</v>
+        <v>4607111037053</v>
       </c>
       <c r="F173" s="5" t="s">
-        <v>281</v>
-      </c>
-      <c r="G173" s="1"/>
+        <v>150</v>
+      </c>
+      <c r="G173" s="6"/>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" s="11" t="s">
-        <v>253</v>
+        <v>141</v>
       </c>
       <c r="B174" s="3" t="s">
-        <v>133</v>
+        <v>148</v>
       </c>
       <c r="C174" s="3" t="s">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="D174" s="4">
-        <v>4301135117</v>
+        <v>4301190014</v>
       </c>
       <c r="E174" s="3">
-        <v>4607111033994</v>
+        <v>4607111037053</v>
       </c>
       <c r="F174" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="G174" s="1"/>
+        <v>150</v>
+      </c>
+      <c r="G174" s="6"/>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" s="11" t="s">
-        <v>135</v>
+        <v>198</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>133</v>
+        <v>506</v>
       </c>
       <c r="C175" s="3" t="s">
-        <v>134</v>
+        <v>507</v>
       </c>
       <c r="D175" s="4">
-        <v>4301135117</v>
+        <v>4301190023</v>
       </c>
       <c r="E175" s="3">
-        <v>4607111033994</v>
+        <v>4607111037060</v>
       </c>
       <c r="F175" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="G175" s="1"/>
+        <v>508</v>
+      </c>
+      <c r="G175" s="6"/>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" s="11" t="s">
-        <v>94</v>
+        <v>428</v>
       </c>
       <c r="B176" s="3" t="s">
-        <v>133</v>
+        <v>506</v>
       </c>
       <c r="C176" s="3" t="s">
-        <v>134</v>
+        <v>507</v>
       </c>
       <c r="D176" s="4">
-        <v>4301135117</v>
+        <v>4301190023</v>
       </c>
       <c r="E176" s="3">
-        <v>4607111033994</v>
+        <v>4607111037060</v>
       </c>
       <c r="F176" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="G176" s="1"/>
+        <v>508</v>
+      </c>
+      <c r="G176" s="6"/>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177" s="11" t="s">
-        <v>200</v>
+        <v>142</v>
       </c>
       <c r="B177" s="3" t="s">
-        <v>370</v>
+        <v>506</v>
       </c>
       <c r="C177" s="3" t="s">
-        <v>371</v>
+        <v>507</v>
       </c>
       <c r="D177" s="4">
-        <v>4301136028</v>
+        <v>4301190023</v>
       </c>
       <c r="E177" s="3">
-        <v>4640242180304</v>
+        <v>4607111037060</v>
       </c>
       <c r="F177" s="5" t="s">
-        <v>372</v>
+        <v>508</v>
       </c>
       <c r="G177" s="1"/>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178" s="11" t="s">
-        <v>433</v>
+        <v>538</v>
       </c>
       <c r="B178" s="3" t="s">
-        <v>370</v>
+        <v>218</v>
       </c>
       <c r="C178" s="3" t="s">
-        <v>371</v>
+        <v>219</v>
       </c>
       <c r="D178" s="4">
-        <v>4301136028</v>
+        <v>4301135053</v>
       </c>
       <c r="E178" s="3">
-        <v>4640242180304</v>
+        <v>4607111036407</v>
       </c>
       <c r="F178" s="5" t="s">
-        <v>372</v>
+        <v>220</v>
       </c>
       <c r="G178" s="1"/>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179" s="11" t="s">
-        <v>509</v>
+        <v>221</v>
       </c>
       <c r="B179" s="3" t="s">
-        <v>370</v>
+        <v>218</v>
       </c>
       <c r="C179" s="3" t="s">
-        <v>371</v>
+        <v>219</v>
       </c>
       <c r="D179" s="4">
-        <v>4301136028</v>
+        <v>4301135053</v>
       </c>
       <c r="E179" s="3">
-        <v>4640242180304</v>
+        <v>4607111036407</v>
       </c>
       <c r="F179" s="5" t="s">
-        <v>372</v>
+        <v>220</v>
       </c>
       <c r="G179" s="1"/>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180" s="11" t="s">
-        <v>143</v>
+        <v>93</v>
       </c>
       <c r="B180" s="3" t="s">
-        <v>370</v>
+        <v>131</v>
       </c>
       <c r="C180" s="3" t="s">
-        <v>371</v>
+        <v>199</v>
       </c>
       <c r="D180" s="4">
-        <v>4301136028</v>
+        <v>4301135162</v>
       </c>
       <c r="E180" s="3">
-        <v>4640242180304</v>
+        <v>4607111034014</v>
       </c>
       <c r="F180" s="5" t="s">
-        <v>372</v>
+        <v>132</v>
       </c>
       <c r="G180" s="1"/>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181" s="11" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="B181" s="3" t="s">
-        <v>373</v>
+        <v>131</v>
       </c>
       <c r="C181" s="3" t="s">
-        <v>374</v>
+        <v>199</v>
       </c>
       <c r="D181" s="4">
-        <v>4301136026</v>
+        <v>4301135162</v>
       </c>
       <c r="E181" s="3">
-        <v>4640242180236</v>
+        <v>4607111034014</v>
       </c>
       <c r="F181" s="5" t="s">
-        <v>375</v>
+        <v>132</v>
       </c>
       <c r="G181" s="1"/>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182" s="11" t="s">
-        <v>480</v>
+        <v>252</v>
       </c>
       <c r="B182" s="3" t="s">
-        <v>373</v>
+        <v>131</v>
       </c>
       <c r="C182" s="3" t="s">
-        <v>374</v>
+        <v>199</v>
       </c>
       <c r="D182" s="4">
-        <v>4301136026</v>
+        <v>4301135162</v>
       </c>
       <c r="E182" s="3">
-        <v>4640242180236</v>
+        <v>4607111034014</v>
       </c>
       <c r="F182" s="5" t="s">
-        <v>375</v>
+        <v>281</v>
       </c>
       <c r="G182" s="1"/>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183" s="11" t="s">
-        <v>464</v>
+        <v>253</v>
       </c>
       <c r="B183" s="3" t="s">
-        <v>373</v>
+        <v>133</v>
       </c>
       <c r="C183" s="3" t="s">
-        <v>374</v>
+        <v>134</v>
       </c>
       <c r="D183" s="4">
-        <v>4301136026</v>
+        <v>4301135117</v>
       </c>
       <c r="E183" s="3">
-        <v>4640242180236</v>
+        <v>4607111033994</v>
       </c>
       <c r="F183" s="5" t="s">
-        <v>375</v>
+        <v>135</v>
       </c>
       <c r="G183" s="1"/>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184" s="11" t="s">
-        <v>95</v>
+        <v>135</v>
       </c>
       <c r="B184" s="3" t="s">
-        <v>373</v>
+        <v>133</v>
       </c>
       <c r="C184" s="3" t="s">
-        <v>374</v>
+        <v>134</v>
       </c>
       <c r="D184" s="4">
-        <v>4301136026</v>
+        <v>4301135117</v>
       </c>
       <c r="E184" s="3">
-        <v>4640242180236</v>
+        <v>4607111033994</v>
       </c>
       <c r="F184" s="5" t="s">
-        <v>375</v>
+        <v>135</v>
       </c>
       <c r="G184" s="1"/>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185" s="11" t="s">
-        <v>311</v>
+        <v>94</v>
       </c>
       <c r="B185" s="3" t="s">
-        <v>488</v>
+        <v>133</v>
       </c>
       <c r="C185" s="3" t="s">
-        <v>489</v>
+        <v>134</v>
       </c>
       <c r="D185" s="4">
-        <v>4301135194</v>
+        <v>4301135117</v>
       </c>
       <c r="E185" s="3">
-        <v>4640242180380</v>
+        <v>4607111033994</v>
       </c>
       <c r="F185" s="5" t="s">
-        <v>490</v>
+        <v>135</v>
       </c>
       <c r="G185" s="1"/>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186" s="11" t="s">
-        <v>494</v>
+        <v>200</v>
       </c>
       <c r="B186" s="3" t="s">
-        <v>488</v>
+        <v>370</v>
       </c>
       <c r="C186" s="3" t="s">
-        <v>489</v>
+        <v>371</v>
       </c>
       <c r="D186" s="4">
-        <v>4301135194</v>
+        <v>4301136028</v>
       </c>
       <c r="E186" s="3">
-        <v>4640242180380</v>
+        <v>4640242180304</v>
       </c>
       <c r="F186" s="5" t="s">
-        <v>490</v>
+        <v>372</v>
       </c>
       <c r="G186" s="1"/>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187" s="11" t="s">
-        <v>136</v>
+        <v>433</v>
       </c>
       <c r="B187" s="3" t="s">
-        <v>488</v>
+        <v>370</v>
       </c>
       <c r="C187" s="3" t="s">
-        <v>489</v>
+        <v>371</v>
       </c>
       <c r="D187" s="4">
-        <v>4301135194</v>
+        <v>4301136028</v>
       </c>
       <c r="E187" s="3">
-        <v>4640242180380</v>
+        <v>4640242180304</v>
       </c>
       <c r="F187" s="5" t="s">
-        <v>490</v>
+        <v>372</v>
       </c>
       <c r="G187" s="1"/>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188" s="11" t="s">
-        <v>287</v>
+        <v>509</v>
       </c>
       <c r="B188" s="3" t="s">
-        <v>488</v>
+        <v>370</v>
       </c>
       <c r="C188" s="3" t="s">
-        <v>489</v>
+        <v>371</v>
       </c>
       <c r="D188" s="4">
-        <v>4301135194</v>
+        <v>4301136028</v>
       </c>
       <c r="E188" s="3">
-        <v>4640242180380</v>
+        <v>4640242180304</v>
       </c>
       <c r="F188" s="5" t="s">
-        <v>490</v>
+        <v>372</v>
       </c>
       <c r="G188" s="1"/>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189" s="11" t="s">
-        <v>338</v>
+        <v>143</v>
       </c>
       <c r="B189" s="3" t="s">
-        <v>290</v>
+        <v>370</v>
       </c>
       <c r="C189" s="3" t="s">
-        <v>291</v>
+        <v>371</v>
       </c>
       <c r="D189" s="4">
-        <v>4301070915</v>
+        <v>4301136028</v>
       </c>
       <c r="E189" s="3">
-        <v>4607111035882</v>
+        <v>4640242180304</v>
       </c>
       <c r="F189" s="5" t="s">
-        <v>292</v>
+        <v>372</v>
       </c>
       <c r="G189" s="1"/>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190" s="11" t="s">
-        <v>404</v>
+        <v>432</v>
       </c>
       <c r="B190" s="3" t="s">
-        <v>290</v>
+        <v>373</v>
       </c>
       <c r="C190" s="3" t="s">
-        <v>291</v>
+        <v>374</v>
       </c>
       <c r="D190" s="4">
-        <v>4301070915</v>
+        <v>4301136026</v>
       </c>
       <c r="E190" s="3">
-        <v>4607111035882</v>
+        <v>4640242180236</v>
       </c>
       <c r="F190" s="5" t="s">
-        <v>292</v>
+        <v>375</v>
       </c>
       <c r="G190" s="1"/>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191" s="11" t="s">
-        <v>292</v>
+        <v>480</v>
       </c>
       <c r="B191" s="3" t="s">
-        <v>290</v>
+        <v>373</v>
       </c>
       <c r="C191" s="3" t="s">
-        <v>291</v>
+        <v>374</v>
       </c>
       <c r="D191" s="4">
-        <v>4301070915</v>
+        <v>4301136026</v>
       </c>
       <c r="E191" s="3">
-        <v>4607111035882</v>
+        <v>4640242180236</v>
       </c>
       <c r="F191" s="5" t="s">
-        <v>292</v>
+        <v>375</v>
       </c>
       <c r="G191" s="1"/>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192" s="11" t="s">
-        <v>405</v>
+        <v>464</v>
       </c>
       <c r="B192" s="3" t="s">
-        <v>293</v>
+        <v>373</v>
       </c>
       <c r="C192" s="3" t="s">
-        <v>294</v>
+        <v>374</v>
       </c>
       <c r="D192" s="4">
-        <v>4301070874</v>
+        <v>4301136026</v>
       </c>
       <c r="E192" s="3">
-        <v>4607111035332</v>
+        <v>4640242180236</v>
       </c>
       <c r="F192" s="5" t="s">
-        <v>295</v>
+        <v>375</v>
       </c>
       <c r="G192" s="1"/>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193" s="11" t="s">
-        <v>497</v>
+        <v>95</v>
       </c>
       <c r="B193" s="3" t="s">
-        <v>293</v>
+        <v>373</v>
       </c>
       <c r="C193" s="3" t="s">
-        <v>294</v>
+        <v>374</v>
       </c>
       <c r="D193" s="4">
-        <v>4301070874</v>
+        <v>4301136026</v>
       </c>
       <c r="E193" s="3">
-        <v>4607111035332</v>
+        <v>4640242180236</v>
       </c>
       <c r="F193" s="5" t="s">
-        <v>295</v>
+        <v>375</v>
       </c>
       <c r="G193" s="1"/>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194" s="11" t="s">
-        <v>295</v>
+        <v>311</v>
       </c>
       <c r="B194" s="3" t="s">
-        <v>293</v>
+        <v>488</v>
       </c>
       <c r="C194" s="3" t="s">
-        <v>294</v>
+        <v>489</v>
       </c>
       <c r="D194" s="4">
-        <v>4301070874</v>
+        <v>4301135194</v>
       </c>
       <c r="E194" s="3">
-        <v>4607111035332</v>
+        <v>4640242180380</v>
       </c>
       <c r="F194" s="5" t="s">
-        <v>295</v>
+        <v>490</v>
       </c>
       <c r="G194" s="1"/>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195" s="11" t="s">
-        <v>320</v>
+        <v>494</v>
       </c>
       <c r="B195" s="3" t="s">
-        <v>296</v>
+        <v>488</v>
       </c>
       <c r="C195" s="3" t="s">
-        <v>297</v>
+        <v>489</v>
       </c>
       <c r="D195" s="4">
-        <v>4301136014</v>
+        <v>4301135194</v>
       </c>
       <c r="E195" s="3">
-        <v>4607111035370</v>
+        <v>4640242180380</v>
       </c>
       <c r="F195" s="5" t="s">
-        <v>298</v>
+        <v>490</v>
       </c>
       <c r="G195" s="1"/>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196" s="11" t="s">
-        <v>410</v>
+        <v>136</v>
       </c>
       <c r="B196" s="3" t="s">
-        <v>296</v>
+        <v>488</v>
       </c>
       <c r="C196" s="3" t="s">
-        <v>297</v>
+        <v>489</v>
       </c>
       <c r="D196" s="4">
-        <v>4301136014</v>
+        <v>4301135194</v>
       </c>
       <c r="E196" s="3">
-        <v>4607111035370</v>
+        <v>4640242180380</v>
       </c>
       <c r="F196" s="5" t="s">
-        <v>298</v>
+        <v>490</v>
       </c>
       <c r="G196" s="1"/>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197" s="11" t="s">
-        <v>298</v>
+        <v>287</v>
       </c>
       <c r="B197" s="3" t="s">
-        <v>296</v>
+        <v>488</v>
       </c>
       <c r="C197" s="3" t="s">
-        <v>297</v>
+        <v>489</v>
       </c>
       <c r="D197" s="4">
-        <v>4301136014</v>
+        <v>4301135194</v>
       </c>
       <c r="E197" s="3">
-        <v>4607111035370</v>
+        <v>4640242180380</v>
       </c>
       <c r="F197" s="5" t="s">
-        <v>298</v>
+        <v>490</v>
       </c>
       <c r="G197" s="1"/>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198" s="11" t="s">
-        <v>319</v>
+        <v>338</v>
       </c>
       <c r="B198" s="3" t="s">
-        <v>303</v>
+        <v>290</v>
       </c>
       <c r="C198" s="3" t="s">
-        <v>304</v>
+        <v>291</v>
       </c>
       <c r="D198" s="4">
-        <v>4301051320</v>
+        <v>4301070915</v>
       </c>
       <c r="E198" s="3">
-        <v>4680115881334</v>
+        <v>4607111035882</v>
       </c>
       <c r="F198" s="5" t="s">
-        <v>305</v>
+        <v>292</v>
       </c>
       <c r="G198" s="1"/>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A199" s="11" t="s">
-        <v>336</v>
+        <v>404</v>
       </c>
       <c r="B199" s="3" t="s">
-        <v>303</v>
+        <v>290</v>
       </c>
       <c r="C199" s="3" t="s">
-        <v>304</v>
+        <v>291</v>
       </c>
       <c r="D199" s="4">
-        <v>4301051320</v>
+        <v>4301070915</v>
       </c>
       <c r="E199" s="3">
-        <v>4680115881334</v>
+        <v>4607111035882</v>
       </c>
       <c r="F199" s="5" t="s">
-        <v>305</v>
+        <v>292</v>
       </c>
       <c r="G199" s="1"/>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200" s="11" t="s">
-        <v>306</v>
+        <v>292</v>
       </c>
       <c r="B200" s="3" t="s">
-        <v>303</v>
+        <v>290</v>
       </c>
       <c r="C200" s="3" t="s">
-        <v>304</v>
+        <v>291</v>
       </c>
       <c r="D200" s="4">
-        <v>4301051320</v>
+        <v>4301070915</v>
       </c>
       <c r="E200" s="3">
-        <v>4680115881334</v>
+        <v>4607111035882</v>
       </c>
       <c r="F200" s="5" t="s">
-        <v>305</v>
+        <v>292</v>
       </c>
       <c r="G200" s="1"/>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A201" s="11" t="s">
-        <v>310</v>
+        <v>405</v>
       </c>
       <c r="B201" s="3" t="s">
-        <v>307</v>
+        <v>293</v>
       </c>
       <c r="C201" s="3" t="s">
-        <v>308</v>
+        <v>294</v>
       </c>
       <c r="D201" s="4">
-        <v>4301051319</v>
+        <v>4301070874</v>
       </c>
       <c r="E201" s="3">
-        <v>4680115881204</v>
+        <v>4607111035332</v>
       </c>
       <c r="F201" s="5" t="s">
-        <v>309</v>
+        <v>295</v>
       </c>
       <c r="G201" s="1"/>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A202" s="11" t="s">
-        <v>339</v>
+        <v>497</v>
       </c>
       <c r="B202" s="3" t="s">
-        <v>379</v>
+        <v>293</v>
       </c>
       <c r="C202" s="3" t="s">
-        <v>380</v>
+        <v>294</v>
       </c>
       <c r="D202" s="4">
-        <v>4301136027</v>
+        <v>4301070874</v>
       </c>
       <c r="E202" s="3">
-        <v>4640242180298</v>
+        <v>4607111035332</v>
       </c>
       <c r="F202" s="5" t="s">
-        <v>381</v>
+        <v>295</v>
       </c>
       <c r="G202" s="1"/>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A203" s="11" t="s">
-        <v>499</v>
+        <v>295</v>
       </c>
       <c r="B203" s="3" t="s">
-        <v>389</v>
+        <v>293</v>
       </c>
       <c r="C203" s="3" t="s">
-        <v>390</v>
+        <v>294</v>
       </c>
       <c r="D203" s="4">
-        <v>4301130003</v>
+        <v>4301070874</v>
       </c>
       <c r="E203" s="3">
-        <v>4607111034687</v>
+        <v>4607111035332</v>
       </c>
       <c r="F203" s="5" t="s">
-        <v>391</v>
+        <v>295</v>
       </c>
       <c r="G203" s="1"/>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A204" s="11" t="s">
-        <v>388</v>
+        <v>320</v>
       </c>
       <c r="B204" s="3" t="s">
-        <v>389</v>
+        <v>296</v>
       </c>
       <c r="C204" s="3" t="s">
-        <v>390</v>
+        <v>297</v>
       </c>
       <c r="D204" s="4">
-        <v>4301130003</v>
+        <v>4301136014</v>
       </c>
       <c r="E204" s="3">
-        <v>4607111034687</v>
+        <v>4607111035370</v>
       </c>
       <c r="F204" s="5" t="s">
-        <v>391</v>
+        <v>298</v>
       </c>
       <c r="G204" s="1"/>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A205" s="11" t="s">
-        <v>394</v>
+        <v>410</v>
       </c>
       <c r="B205" s="3" t="s">
-        <v>395</v>
+        <v>296</v>
       </c>
       <c r="C205" s="3" t="s">
-        <v>396</v>
+        <v>297</v>
       </c>
       <c r="D205" s="4">
-        <v>4301070977</v>
+        <v>4301136014</v>
       </c>
       <c r="E205" s="3">
-        <v>4607111037411</v>
+        <v>4607111035370</v>
       </c>
       <c r="F205" s="5" t="s">
-        <v>397</v>
+        <v>298</v>
       </c>
       <c r="G205" s="1"/>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A206" s="11" t="s">
-        <v>441</v>
+        <v>298</v>
       </c>
       <c r="B206" s="3" t="s">
-        <v>401</v>
+        <v>296</v>
       </c>
       <c r="C206" s="3" t="s">
-        <v>402</v>
+        <v>297</v>
       </c>
       <c r="D206" s="4">
-        <v>4301070871</v>
+        <v>4301136014</v>
       </c>
       <c r="E206" s="3">
-        <v>4607111036384</v>
+        <v>4607111035370</v>
       </c>
       <c r="F206" s="5" t="s">
-        <v>403</v>
+        <v>298</v>
       </c>
       <c r="G206" s="1"/>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A207" s="11" t="s">
-        <v>400</v>
+        <v>319</v>
       </c>
       <c r="B207" s="3" t="s">
-        <v>401</v>
+        <v>303</v>
       </c>
       <c r="C207" s="3" t="s">
-        <v>402</v>
+        <v>304</v>
       </c>
       <c r="D207" s="4">
-        <v>4301070871</v>
+        <v>4301051320</v>
       </c>
       <c r="E207" s="3">
-        <v>4607111036384</v>
+        <v>4680115881334</v>
       </c>
       <c r="F207" s="5" t="s">
-        <v>403</v>
+        <v>305</v>
       </c>
       <c r="G207" s="1"/>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A208" s="11" t="s">
-        <v>501</v>
+        <v>336</v>
       </c>
       <c r="B208" s="3" t="s">
-        <v>407</v>
+        <v>303</v>
       </c>
       <c r="C208" s="3" t="s">
-        <v>408</v>
+        <v>304</v>
       </c>
       <c r="D208" s="4">
-        <v>4301135111</v>
+        <v>4301051320</v>
       </c>
       <c r="E208" s="3">
-        <v>4607111035028</v>
+        <v>4680115881334</v>
       </c>
       <c r="F208" s="5" t="s">
-        <v>409</v>
+        <v>305</v>
       </c>
       <c r="G208" s="1"/>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A209" s="11" t="s">
-        <v>406</v>
+        <v>306</v>
       </c>
       <c r="B209" s="3" t="s">
-        <v>407</v>
+        <v>303</v>
       </c>
       <c r="C209" s="3" t="s">
-        <v>408</v>
+        <v>304</v>
       </c>
       <c r="D209" s="4">
-        <v>4301135111</v>
+        <v>4301051320</v>
       </c>
       <c r="E209" s="3">
-        <v>4607111035028</v>
+        <v>4680115881334</v>
       </c>
       <c r="F209" s="5" t="s">
-        <v>409</v>
+        <v>305</v>
       </c>
       <c r="G209" s="1"/>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A210" s="11" t="s">
-        <v>413</v>
+        <v>310</v>
       </c>
       <c r="B210" s="3" t="s">
-        <v>414</v>
+        <v>307</v>
       </c>
       <c r="C210" s="3" t="s">
-        <v>415</v>
+        <v>308</v>
       </c>
       <c r="D210" s="4">
-        <v>4301130006</v>
+        <v>4301051319</v>
       </c>
       <c r="E210" s="3">
-        <v>4607111034670</v>
+        <v>4680115881204</v>
       </c>
       <c r="F210" s="5" t="s">
-        <v>416</v>
+        <v>309</v>
       </c>
       <c r="G210" s="1"/>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A211" s="11" t="s">
-        <v>419</v>
+        <v>339</v>
       </c>
       <c r="B211" s="3" t="s">
-        <v>420</v>
+        <v>379</v>
       </c>
       <c r="C211" s="3" t="s">
-        <v>421</v>
+        <v>380</v>
       </c>
       <c r="D211" s="4">
-        <v>4301070768</v>
+        <v>4301136027</v>
       </c>
       <c r="E211" s="3">
-        <v>4607111035639</v>
+        <v>4640242180298</v>
       </c>
       <c r="F211" s="5" t="s">
-        <v>422</v>
+        <v>381</v>
       </c>
       <c r="G211" s="1"/>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A212" s="11" t="s">
-        <v>423</v>
+        <v>499</v>
       </c>
       <c r="B212" s="3" t="s">
-        <v>424</v>
+        <v>389</v>
       </c>
       <c r="C212" s="3" t="s">
-        <v>425</v>
+        <v>390</v>
       </c>
       <c r="D212" s="4">
-        <v>4301070797</v>
+        <v>4301130003</v>
       </c>
       <c r="E212" s="3">
-        <v>4607111035646</v>
+        <v>4607111034687</v>
       </c>
       <c r="F212" s="5" t="s">
-        <v>426</v>
+        <v>391</v>
       </c>
       <c r="G212" s="1"/>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A213" s="11" t="s">
-        <v>437</v>
+        <v>388</v>
       </c>
       <c r="B213" s="3" t="s">
-        <v>438</v>
+        <v>389</v>
       </c>
       <c r="C213" s="3" t="s">
-        <v>439</v>
+        <v>390</v>
       </c>
       <c r="D213" s="4">
-        <v>4301080154</v>
+        <v>4301130003</v>
       </c>
       <c r="E213" s="3">
-        <v>4607111036834</v>
+        <v>4607111034687</v>
       </c>
       <c r="F213" s="5" t="s">
-        <v>440</v>
+        <v>391</v>
       </c>
       <c r="G213" s="1"/>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A214" s="11" t="s">
-        <v>445</v>
+        <v>394</v>
       </c>
       <c r="B214" s="3" t="s">
-        <v>446</v>
+        <v>395</v>
       </c>
       <c r="C214" s="3" t="s">
-        <v>447</v>
+        <v>396</v>
       </c>
       <c r="D214" s="4">
-        <v>4301070941</v>
+        <v>4301070977</v>
       </c>
       <c r="E214" s="3">
-        <v>4607111036162</v>
+        <v>4607111037411</v>
       </c>
       <c r="F214" s="5" t="s">
-        <v>448</v>
+        <v>397</v>
       </c>
       <c r="G214" s="1"/>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A215" s="11" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="B215" s="3" t="s">
-        <v>450</v>
+        <v>401</v>
       </c>
       <c r="C215" s="3" t="s">
-        <v>451</v>
+        <v>402</v>
       </c>
       <c r="D215" s="4">
-        <v>4301070826</v>
+        <v>4301070871</v>
       </c>
       <c r="E215" s="3">
-        <v>4607111035752</v>
+        <v>4607111036384</v>
       </c>
       <c r="F215" s="5" t="s">
-        <v>452</v>
+        <v>403</v>
       </c>
       <c r="G215" s="1"/>
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A216" s="11" t="s">
-        <v>492</v>
+        <v>400</v>
       </c>
       <c r="B216" s="3" t="s">
-        <v>454</v>
+        <v>401</v>
       </c>
       <c r="C216" s="3" t="s">
-        <v>455</v>
+        <v>402</v>
       </c>
       <c r="D216" s="4">
-        <v>4301070966</v>
+        <v>4301070871</v>
       </c>
       <c r="E216" s="3">
-        <v>4607111038135</v>
+        <v>4607111036384</v>
       </c>
       <c r="F216" s="5" t="s">
-        <v>453</v>
+        <v>403</v>
       </c>
       <c r="G216" s="1"/>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A217" s="11" t="s">
-        <v>453</v>
+        <v>501</v>
       </c>
       <c r="B217" s="3" t="s">
-        <v>454</v>
+        <v>407</v>
       </c>
       <c r="C217" s="3" t="s">
-        <v>455</v>
+        <v>408</v>
       </c>
       <c r="D217" s="4">
-        <v>4301070966</v>
+        <v>4301135111</v>
       </c>
       <c r="E217" s="3">
-        <v>4607111038135</v>
+        <v>4607111035028</v>
       </c>
       <c r="F217" s="5" t="s">
-        <v>453</v>
+        <v>409</v>
       </c>
       <c r="G217" s="1"/>
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A218" s="11" t="s">
-        <v>456</v>
+        <v>406</v>
       </c>
       <c r="B218" s="3" t="s">
-        <v>457</v>
+        <v>407</v>
       </c>
       <c r="C218" s="3" t="s">
-        <v>458</v>
+        <v>408</v>
       </c>
       <c r="D218" s="4">
-        <v>4301070911</v>
+        <v>4301135111</v>
       </c>
       <c r="E218" s="3">
-        <v>4607111036278</v>
+        <v>4607111035028</v>
       </c>
       <c r="F218" s="5" t="s">
-        <v>456</v>
+        <v>409</v>
       </c>
       <c r="G218" s="1"/>
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A219" s="11" t="s">
-        <v>481</v>
+        <v>523</v>
       </c>
       <c r="B219" s="3" t="s">
-        <v>461</v>
+        <v>414</v>
       </c>
       <c r="C219" s="3" t="s">
-        <v>462</v>
+        <v>415</v>
       </c>
       <c r="D219" s="4">
-        <v>4301131019</v>
+        <v>4301130006</v>
       </c>
       <c r="E219" s="3">
-        <v>4640242180427</v>
+        <v>4607111034670</v>
       </c>
       <c r="F219" s="5" t="s">
-        <v>463</v>
+        <v>416</v>
       </c>
       <c r="G219" s="1"/>
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A220" s="11" t="s">
+        <v>413</v>
+      </c>
+      <c r="B220" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="C220" s="3" t="s">
+        <v>415</v>
+      </c>
+      <c r="D220" s="4">
+        <v>4301130006</v>
+      </c>
+      <c r="E220" s="3">
+        <v>4607111034670</v>
+      </c>
+      <c r="F220" s="5" t="s">
+        <v>416</v>
+      </c>
+      <c r="G220" s="1"/>
+    </row>
+    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A221" s="11" t="s">
+        <v>525</v>
+      </c>
+      <c r="B221" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="C221" s="3" t="s">
+        <v>421</v>
+      </c>
+      <c r="D221" s="4">
+        <v>4301070768</v>
+      </c>
+      <c r="E221" s="3">
+        <v>4607111035639</v>
+      </c>
+      <c r="F221" s="5" t="s">
+        <v>422</v>
+      </c>
+      <c r="G221" s="1"/>
+    </row>
+    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A222" s="11" t="s">
+        <v>419</v>
+      </c>
+      <c r="B222" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="C222" s="3" t="s">
+        <v>421</v>
+      </c>
+      <c r="D222" s="4">
+        <v>4301070768</v>
+      </c>
+      <c r="E222" s="3">
+        <v>4607111035639</v>
+      </c>
+      <c r="F222" s="5" t="s">
+        <v>422</v>
+      </c>
+      <c r="G222" s="1"/>
+    </row>
+    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A223" s="11" t="s">
+        <v>526</v>
+      </c>
+      <c r="B223" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="C223" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="D223" s="4">
+        <v>4301070797</v>
+      </c>
+      <c r="E223" s="3">
+        <v>4607111035646</v>
+      </c>
+      <c r="F223" s="5" t="s">
+        <v>426</v>
+      </c>
+      <c r="G223" s="1"/>
+    </row>
+    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A224" s="11" t="s">
+        <v>423</v>
+      </c>
+      <c r="B224" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="C224" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="D224" s="4">
+        <v>4301070797</v>
+      </c>
+      <c r="E224" s="3">
+        <v>4607111035646</v>
+      </c>
+      <c r="F224" s="5" t="s">
+        <v>426</v>
+      </c>
+      <c r="G224" s="1"/>
+    </row>
+    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A225" s="11" t="s">
+        <v>437</v>
+      </c>
+      <c r="B225" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="C225" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="D225" s="4">
+        <v>4301080154</v>
+      </c>
+      <c r="E225" s="3">
+        <v>4607111036834</v>
+      </c>
+      <c r="F225" s="5" t="s">
+        <v>440</v>
+      </c>
+      <c r="G225" s="1"/>
+    </row>
+    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A226" s="11" t="s">
+        <v>445</v>
+      </c>
+      <c r="B226" s="3" t="s">
+        <v>446</v>
+      </c>
+      <c r="C226" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="D226" s="4">
+        <v>4301070941</v>
+      </c>
+      <c r="E226" s="3">
+        <v>4607111036162</v>
+      </c>
+      <c r="F226" s="5" t="s">
+        <v>448</v>
+      </c>
+      <c r="G226" s="1"/>
+    </row>
+    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A227" s="11" t="s">
+        <v>449</v>
+      </c>
+      <c r="B227" s="3" t="s">
+        <v>450</v>
+      </c>
+      <c r="C227" s="3" t="s">
+        <v>451</v>
+      </c>
+      <c r="D227" s="4">
+        <v>4301070826</v>
+      </c>
+      <c r="E227" s="3">
+        <v>4607111035752</v>
+      </c>
+      <c r="F227" s="5" t="s">
+        <v>452</v>
+      </c>
+      <c r="G227" s="1"/>
+    </row>
+    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A228" s="11" t="s">
+        <v>492</v>
+      </c>
+      <c r="B228" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="C228" s="3" t="s">
+        <v>455</v>
+      </c>
+      <c r="D228" s="4">
+        <v>4301070966</v>
+      </c>
+      <c r="E228" s="3">
+        <v>4607111038135</v>
+      </c>
+      <c r="F228" s="5" t="s">
+        <v>453</v>
+      </c>
+      <c r="G228" s="1"/>
+    </row>
+    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A229" s="11" t="s">
+        <v>453</v>
+      </c>
+      <c r="B229" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="C229" s="3" t="s">
+        <v>455</v>
+      </c>
+      <c r="D229" s="4">
+        <v>4301070966</v>
+      </c>
+      <c r="E229" s="3">
+        <v>4607111038135</v>
+      </c>
+      <c r="F229" s="5" t="s">
+        <v>453</v>
+      </c>
+      <c r="G229" s="1"/>
+    </row>
+    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A230" s="11" t="s">
+        <v>456</v>
+      </c>
+      <c r="B230" s="3" t="s">
+        <v>457</v>
+      </c>
+      <c r="C230" s="3" t="s">
+        <v>458</v>
+      </c>
+      <c r="D230" s="4">
+        <v>4301070911</v>
+      </c>
+      <c r="E230" s="3">
+        <v>4607111036278</v>
+      </c>
+      <c r="F230" s="5" t="s">
+        <v>456</v>
+      </c>
+      <c r="G230" s="1"/>
+    </row>
+    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A231" s="11" t="s">
+        <v>481</v>
+      </c>
+      <c r="B231" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="C231" s="3" t="s">
+        <v>462</v>
+      </c>
+      <c r="D231" s="4">
+        <v>4301131019</v>
+      </c>
+      <c r="E231" s="3">
+        <v>4640242180427</v>
+      </c>
+      <c r="F231" s="5" t="s">
+        <v>463</v>
+      </c>
+      <c r="G231" s="1"/>
+    </row>
+    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A232" s="11" t="s">
         <v>460</v>
       </c>
-      <c r="B220" s="3" t="s">
+      <c r="B232" s="3" t="s">
         <v>461</v>
       </c>
-      <c r="C220" s="3" t="s">
+      <c r="C232" s="3" t="s">
         <v>462</v>
       </c>
-      <c r="D220" s="4">
+      <c r="D232" s="4">
         <v>4301131019</v>
       </c>
-      <c r="E220" s="3">
+      <c r="E232" s="3">
         <v>4640242180427</v>
       </c>
-      <c r="F220" s="5" t="s">
+      <c r="F232" s="5" t="s">
         <v>463</v>
       </c>
-      <c r="G220" s="1"/>
-    </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A221" s="11"/>
-      <c r="B221" s="3"/>
-      <c r="C221" s="3"/>
-      <c r="D221" s="4"/>
-      <c r="E221" s="3"/>
-      <c r="F221" s="5"/>
-      <c r="G221" s="1"/>
-    </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A222" s="11"/>
-      <c r="B222" s="3"/>
-      <c r="C222" s="3"/>
-      <c r="D222" s="4"/>
-      <c r="E222" s="3"/>
-      <c r="F222" s="5"/>
-      <c r="G222" s="1"/>
-    </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A223" s="11"/>
-      <c r="B223" s="3"/>
-      <c r="C223" s="3"/>
-      <c r="D223" s="4"/>
-      <c r="E223" s="3"/>
-      <c r="F223" s="5"/>
-      <c r="G223" s="1"/>
-    </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A224" s="11"/>
-      <c r="B224" s="3"/>
-      <c r="C224" s="3"/>
-      <c r="D224" s="4"/>
-      <c r="E224" s="3"/>
-      <c r="F224" s="5"/>
-      <c r="G224" s="1"/>
-    </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A225" s="11"/>
-      <c r="B225" s="3"/>
-      <c r="C225" s="3"/>
-      <c r="D225" s="4"/>
-      <c r="E225" s="3"/>
-      <c r="F225" s="5"/>
-      <c r="G225" s="1"/>
-    </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A226" s="11"/>
-      <c r="B226" s="3"/>
-      <c r="C226" s="3"/>
-      <c r="D226" s="4"/>
-      <c r="E226" s="3"/>
-      <c r="F226" s="5"/>
-      <c r="G226" s="1"/>
-    </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A227" s="11"/>
-      <c r="B227" s="3"/>
-      <c r="C227" s="3"/>
-      <c r="D227" s="4"/>
-      <c r="E227" s="3"/>
-      <c r="F227" s="5"/>
-      <c r="G227" s="1"/>
-    </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A228" s="11"/>
-      <c r="B228" s="3"/>
-      <c r="C228" s="3"/>
-      <c r="D228" s="4"/>
-      <c r="E228" s="3"/>
-      <c r="F228" s="5"/>
-      <c r="G228" s="1"/>
-    </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A229" s="11"/>
-      <c r="B229" s="3"/>
-      <c r="C229" s="3"/>
-      <c r="D229" s="4"/>
-      <c r="E229" s="3"/>
-      <c r="F229" s="5"/>
-      <c r="G229" s="1"/>
-    </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A230" s="11"/>
-      <c r="B230" s="3"/>
-      <c r="C230" s="3"/>
-      <c r="D230" s="4"/>
-      <c r="E230" s="3"/>
-      <c r="F230" s="5"/>
-      <c r="G230" s="1"/>
-    </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A231" s="11"/>
-      <c r="B231" s="3"/>
-      <c r="C231" s="3"/>
-      <c r="D231" s="4"/>
-      <c r="E231" s="3"/>
-      <c r="F231" s="5"/>
-      <c r="G231" s="1"/>
-    </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A232" s="11"/>
-      <c r="B232" s="13"/>
-      <c r="C232" s="13"/>
-      <c r="D232" s="14"/>
-      <c r="E232" s="15"/>
-      <c r="F232" s="16"/>
       <c r="G232" s="1"/>
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A233" s="11"/>
-      <c r="B233" s="3"/>
-      <c r="C233" s="3"/>
-      <c r="D233" s="4"/>
-      <c r="E233" s="3"/>
-      <c r="F233" s="5"/>
+      <c r="A233" s="11" t="s">
+        <v>517</v>
+      </c>
+      <c r="B233" s="3" t="s">
+        <v>518</v>
+      </c>
+      <c r="C233" s="3" t="s">
+        <v>519</v>
+      </c>
+      <c r="D233" s="4">
+        <v>4301132079</v>
+      </c>
+      <c r="E233" s="3">
+        <v>4607111038487</v>
+      </c>
+      <c r="F233" s="5" t="s">
+        <v>520</v>
+      </c>
       <c r="G233" s="1"/>
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A234" s="11"/>
-      <c r="B234" s="3"/>
-      <c r="C234" s="3"/>
-      <c r="D234" s="4"/>
-      <c r="E234" s="3"/>
-      <c r="F234" s="5"/>
+      <c r="A234" s="11" t="s">
+        <v>529</v>
+      </c>
+      <c r="B234" s="3" t="s">
+        <v>530</v>
+      </c>
+      <c r="C234" s="3" t="s">
+        <v>531</v>
+      </c>
+      <c r="D234" s="4">
+        <v>4301070884</v>
+      </c>
+      <c r="E234" s="3">
+        <v>4607111036315</v>
+      </c>
+      <c r="F234" s="5" t="s">
+        <v>532</v>
+      </c>
       <c r="G234" s="1"/>
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A235" s="11"/>
-      <c r="B235" s="3"/>
-      <c r="C235" s="3"/>
-      <c r="D235" s="4"/>
-      <c r="E235" s="3"/>
-      <c r="F235" s="5"/>
+      <c r="A235" s="11" t="s">
+        <v>534</v>
+      </c>
+      <c r="B235" s="3" t="s">
+        <v>535</v>
+      </c>
+      <c r="C235" s="3" t="s">
+        <v>536</v>
+      </c>
+      <c r="D235" s="4">
+        <v>4301133002</v>
+      </c>
+      <c r="E235" s="3">
+        <v>4607111035783</v>
+      </c>
+      <c r="F235" s="5" t="s">
+        <v>537</v>
+      </c>
       <c r="G235" s="1"/>
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.25">
@@ -6873,11 +7125,11 @@
     </row>
     <row r="241" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A241" s="11"/>
-      <c r="B241" s="13"/>
-      <c r="C241" s="13"/>
-      <c r="D241" s="14"/>
-      <c r="E241" s="15"/>
-      <c r="F241" s="16"/>
+      <c r="B241" s="3"/>
+      <c r="C241" s="3"/>
+      <c r="D241" s="4"/>
+      <c r="E241" s="3"/>
+      <c r="F241" s="5"/>
       <c r="G241" s="1"/>
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.25">
@@ -6900,11 +7152,11 @@
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A244" s="11"/>
-      <c r="B244" s="3"/>
-      <c r="C244" s="3"/>
-      <c r="D244" s="4"/>
-      <c r="E244" s="3"/>
-      <c r="F244" s="5"/>
+      <c r="B244" s="13"/>
+      <c r="C244" s="13"/>
+      <c r="D244" s="14"/>
+      <c r="E244" s="15"/>
+      <c r="F244" s="16"/>
       <c r="G244" s="1"/>
     </row>
     <row r="245" spans="1:7" x14ac:dyDescent="0.25">
@@ -6941,7 +7193,7 @@
       <c r="D248" s="4"/>
       <c r="E248" s="3"/>
       <c r="F248" s="5"/>
-      <c r="G248" s="6"/>
+      <c r="G248" s="1"/>
     </row>
     <row r="249" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A249" s="11"/>
@@ -6981,11 +7233,11 @@
     </row>
     <row r="253" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A253" s="11"/>
-      <c r="B253" s="3"/>
-      <c r="C253" s="3"/>
-      <c r="D253" s="4"/>
-      <c r="E253" s="3"/>
-      <c r="F253" s="5"/>
+      <c r="B253" s="13"/>
+      <c r="C253" s="13"/>
+      <c r="D253" s="14"/>
+      <c r="E253" s="15"/>
+      <c r="F253" s="16"/>
       <c r="G253" s="1"/>
     </row>
     <row r="254" spans="1:7" x14ac:dyDescent="0.25">
@@ -7049,7 +7301,7 @@
       <c r="D260" s="4"/>
       <c r="E260" s="3"/>
       <c r="F260" s="5"/>
-      <c r="G260" s="1"/>
+      <c r="G260" s="6"/>
     </row>
     <row r="261" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A261" s="11"/>
@@ -7566,35 +7818,143 @@
     </row>
     <row r="318" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A318" s="11"/>
-      <c r="B318" s="1"/>
-      <c r="C318" s="1"/>
-      <c r="D318" s="1"/>
-      <c r="E318" s="1"/>
-      <c r="F318" s="1"/>
+      <c r="B318" s="3"/>
+      <c r="C318" s="3"/>
+      <c r="D318" s="4"/>
+      <c r="E318" s="3"/>
+      <c r="F318" s="5"/>
       <c r="G318" s="1"/>
     </row>
     <row r="319" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A319" s="11"/>
-      <c r="B319" s="1"/>
-      <c r="C319" s="1"/>
-      <c r="D319" s="1"/>
-      <c r="E319" s="1"/>
-      <c r="F319" s="1"/>
+      <c r="B319" s="3"/>
+      <c r="C319" s="3"/>
+      <c r="D319" s="4"/>
+      <c r="E319" s="3"/>
+      <c r="F319" s="5"/>
       <c r="G319" s="1"/>
     </row>
     <row r="320" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A320" s="11"/>
-      <c r="B320" s="1"/>
-      <c r="C320" s="1"/>
-      <c r="D320" s="1"/>
-      <c r="E320" s="1"/>
-      <c r="F320" s="1"/>
+      <c r="B320" s="3"/>
+      <c r="C320" s="3"/>
+      <c r="D320" s="4"/>
+      <c r="E320" s="3"/>
+      <c r="F320" s="5"/>
       <c r="G320" s="1"/>
     </row>
+    <row r="321" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A321" s="11"/>
+      <c r="B321" s="3"/>
+      <c r="C321" s="3"/>
+      <c r="D321" s="4"/>
+      <c r="E321" s="3"/>
+      <c r="F321" s="5"/>
+      <c r="G321" s="1"/>
+    </row>
+    <row r="322" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A322" s="11"/>
+      <c r="B322" s="3"/>
+      <c r="C322" s="3"/>
+      <c r="D322" s="4"/>
+      <c r="E322" s="3"/>
+      <c r="F322" s="5"/>
+      <c r="G322" s="1"/>
+    </row>
+    <row r="323" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A323" s="11"/>
+      <c r="B323" s="3"/>
+      <c r="C323" s="3"/>
+      <c r="D323" s="4"/>
+      <c r="E323" s="3"/>
+      <c r="F323" s="5"/>
+      <c r="G323" s="1"/>
+    </row>
+    <row r="324" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A324" s="11"/>
+      <c r="B324" s="3"/>
+      <c r="C324" s="3"/>
+      <c r="D324" s="4"/>
+      <c r="E324" s="3"/>
+      <c r="F324" s="5"/>
+      <c r="G324" s="1"/>
+    </row>
+    <row r="325" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A325" s="11"/>
+      <c r="B325" s="3"/>
+      <c r="C325" s="3"/>
+      <c r="D325" s="4"/>
+      <c r="E325" s="3"/>
+      <c r="F325" s="5"/>
+      <c r="G325" s="1"/>
+    </row>
+    <row r="326" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A326" s="11"/>
+      <c r="B326" s="3"/>
+      <c r="C326" s="3"/>
+      <c r="D326" s="4"/>
+      <c r="E326" s="3"/>
+      <c r="F326" s="5"/>
+      <c r="G326" s="1"/>
+    </row>
+    <row r="327" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A327" s="11"/>
+      <c r="B327" s="3"/>
+      <c r="C327" s="3"/>
+      <c r="D327" s="4"/>
+      <c r="E327" s="3"/>
+      <c r="F327" s="5"/>
+      <c r="G327" s="1"/>
+    </row>
+    <row r="328" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A328" s="11"/>
+      <c r="B328" s="3"/>
+      <c r="C328" s="3"/>
+      <c r="D328" s="4"/>
+      <c r="E328" s="3"/>
+      <c r="F328" s="5"/>
+      <c r="G328" s="1"/>
+    </row>
+    <row r="329" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A329" s="11"/>
+      <c r="B329" s="3"/>
+      <c r="C329" s="3"/>
+      <c r="D329" s="4"/>
+      <c r="E329" s="3"/>
+      <c r="F329" s="5"/>
+      <c r="G329" s="1"/>
+    </row>
+    <row r="330" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A330" s="11"/>
+      <c r="B330" s="1"/>
+      <c r="C330" s="1"/>
+      <c r="D330" s="1"/>
+      <c r="E330" s="1"/>
+      <c r="F330" s="1"/>
+      <c r="G330" s="1"/>
+    </row>
+    <row r="331" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A331" s="11"/>
+      <c r="B331" s="1"/>
+      <c r="C331" s="1"/>
+      <c r="D331" s="1"/>
+      <c r="E331" s="1"/>
+      <c r="F331" s="1"/>
+      <c r="G331" s="1"/>
+    </row>
+    <row r="332" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A332" s="11"/>
+      <c r="B332" s="1"/>
+      <c r="C332" s="1"/>
+      <c r="D332" s="1"/>
+      <c r="E332" s="1"/>
+      <c r="F332" s="1"/>
+      <c r="G332" s="1"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:F220" xr:uid="{08353A06-E006-45C7-BD45-850F7C3953DF}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F188">
-      <sortCondition ref="A1:A130"/>
+  <autoFilter ref="A1:F235" xr:uid="{08353A06-E006-45C7-BD45-850F7C3953DF}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F197">
+      <sortCondition ref="A1:A137"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/moduls/1С.xlsx
+++ b/moduls/1С.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\перенос данных\ПОКОМ ЗПФ\pokom_zpf\moduls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5965408-7718-47E5-85F5-E940D2F43637}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{303EB87C-D5CA-422D-AB97-96F586E0021C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$F$235</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$F$241</definedName>
   </definedNames>
   <calcPr calcId="181029" refMode="R1C1"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1009" uniqueCount="539">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1033" uniqueCount="548">
   <si>
     <t>1С</t>
   </si>
@@ -1652,6 +1652,33 @@
   </si>
   <si>
     <t>Чебупели Курочка гриль Базовый ассортимент Фикс.вес 0,3 Пакет Горячая штучка  Поком</t>
+  </si>
+  <si>
+    <t>Жар-мени с картофелем и сочной грудинкой ТМ Зареченские ВЕС ПОКОМ</t>
+  </si>
+  <si>
+    <t>Пельмени Бульмени по-сибирски с говядиной и свининой ТМ Горячая штучка 0,8 кг ПОКОМ</t>
+  </si>
+  <si>
+    <t>SU002731</t>
+  </si>
+  <si>
+    <t>P003603</t>
+  </si>
+  <si>
+    <t>Пельмени «Бульмени по-сибирски с говядиной и свининой» 0,8 сфера ТМ «Горячая штучка»</t>
+  </si>
+  <si>
+    <t>Нагетосы Сочная курочка в хрустящей панировке Наггетсы ГШ Фикс.вес 0,25 Лоток Горячая штучка Поком</t>
+  </si>
+  <si>
+    <t>Пельмени Бигбули с мясом, Горячая штучка сфера 0,43 кг  ПОКОМ</t>
+  </si>
+  <si>
+    <t>Пельмени Мясорубские с рубленой грудинкой ТМ Стародворье фоу-пак классическая форма 0,7 кг.  Поком</t>
+  </si>
+  <si>
+    <t>Жар-ладушки с клубникой и вишней ТМ Зареченские ТС Зареченские продукты.  Поком</t>
   </si>
 </sst>
 </file>
@@ -2126,7 +2153,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G332"/>
+  <dimension ref="A1:G337"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -2901,7 +2928,7 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="11" t="s">
-        <v>161</v>
+        <v>547</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>346</v>
@@ -2922,28 +2949,28 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="11" t="s">
-        <v>434</v>
+        <v>161</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="D38" s="4">
-        <v>4301135189</v>
+        <v>4301135195</v>
       </c>
       <c r="E38" s="3">
-        <v>4640242180342</v>
+        <v>4640242180366</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="G38" s="1"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="11" t="s">
-        <v>475</v>
+        <v>434</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>349</v>
@@ -2964,7 +2991,7 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="11" t="s">
-        <v>162</v>
+        <v>475</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>349</v>
@@ -2985,28 +3012,28 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="11" t="s">
-        <v>485</v>
+        <v>162</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="D41" s="4">
-        <v>4301135188</v>
+        <v>4301135189</v>
       </c>
       <c r="E41" s="3">
-        <v>4640242180335</v>
+        <v>4640242180342</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="G41" s="1"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="11" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>352</v>
@@ -3027,7 +3054,7 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="11" t="s">
-        <v>504</v>
+        <v>491</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>352</v>
@@ -3048,7 +3075,7 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="11" t="s">
-        <v>163</v>
+        <v>504</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>352</v>
@@ -3069,28 +3096,28 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="11" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>376</v>
+        <v>352</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>377</v>
+        <v>353</v>
       </c>
       <c r="D45" s="4">
-        <v>4301135190</v>
+        <v>4301135188</v>
       </c>
       <c r="E45" s="3">
-        <v>4640242180359</v>
+        <v>4640242180335</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>378</v>
+        <v>354</v>
       </c>
       <c r="G45" s="1"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="11" t="s">
-        <v>484</v>
+        <v>164</v>
       </c>
       <c r="B46" s="3" t="s">
         <v>376</v>
@@ -3111,7 +3138,7 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="11" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>376</v>
@@ -3132,7 +3159,7 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="11" t="s">
-        <v>138</v>
+        <v>487</v>
       </c>
       <c r="B48" s="3" t="s">
         <v>376</v>
@@ -3153,28 +3180,28 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="11" t="s">
-        <v>91</v>
+        <v>138</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>364</v>
+        <v>376</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>365</v>
+        <v>377</v>
       </c>
       <c r="D49" s="4">
-        <v>4301135186</v>
+        <v>4301135190</v>
       </c>
       <c r="E49" s="3">
-        <v>4640242180311</v>
+        <v>4640242180359</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>366</v>
-      </c>
-      <c r="G49" s="6"/>
+        <v>378</v>
+      </c>
+      <c r="G49" s="1"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="11" t="s">
-        <v>387</v>
+        <v>91</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>364</v>
@@ -3195,7 +3222,7 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="11" t="s">
-        <v>476</v>
+        <v>387</v>
       </c>
       <c r="B51" s="3" t="s">
         <v>364</v>
@@ -3216,7 +3243,7 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="11" t="s">
-        <v>466</v>
+        <v>476</v>
       </c>
       <c r="B52" s="3" t="s">
         <v>364</v>
@@ -3237,7 +3264,7 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="11" t="s">
-        <v>230</v>
+        <v>466</v>
       </c>
       <c r="B53" s="3" t="s">
         <v>364</v>
@@ -3254,32 +3281,32 @@
       <c r="F53" s="5" t="s">
         <v>366</v>
       </c>
-      <c r="G53" s="1"/>
+      <c r="G53" s="6"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="11" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>355</v>
+        <v>364</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>356</v>
+        <v>365</v>
       </c>
       <c r="D54" s="4">
-        <v>4301135187</v>
+        <v>4301135186</v>
       </c>
       <c r="E54" s="3">
-        <v>4640242180328</v>
+        <v>4640242180311</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>357</v>
+        <v>366</v>
       </c>
       <c r="G54" s="1"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="11" t="s">
-        <v>205</v>
+        <v>231</v>
       </c>
       <c r="B55" s="3" t="s">
         <v>355</v>
@@ -3300,91 +3327,91 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="11" t="s">
-        <v>232</v>
+        <v>539</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>300</v>
+        <v>355</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>301</v>
+        <v>356</v>
       </c>
       <c r="D56" s="4">
-        <v>4301135115</v>
+        <v>4301135187</v>
       </c>
       <c r="E56" s="3">
-        <v>4607111034380</v>
+        <v>4640242180328</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>302</v>
+        <v>357</v>
       </c>
       <c r="G56" s="1"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="11" t="s">
-        <v>165</v>
+        <v>205</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>300</v>
+        <v>355</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>301</v>
+        <v>356</v>
       </c>
       <c r="D57" s="4">
-        <v>4301135115</v>
+        <v>4301135187</v>
       </c>
       <c r="E57" s="3">
-        <v>4607111034380</v>
+        <v>4640242180328</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>302</v>
+        <v>357</v>
       </c>
       <c r="G57" s="1"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="11" t="s">
-        <v>284</v>
+        <v>232</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>313</v>
+        <v>300</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>314</v>
+        <v>301</v>
       </c>
       <c r="D58" s="4">
-        <v>4301135114</v>
+        <v>4301135115</v>
       </c>
       <c r="E58" s="3">
-        <v>4607111034397</v>
+        <v>4607111034380</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>315</v>
+        <v>302</v>
       </c>
       <c r="G58" s="1"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="11" t="s">
-        <v>233</v>
+        <v>165</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>313</v>
+        <v>300</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>314</v>
+        <v>301</v>
       </c>
       <c r="D59" s="4">
-        <v>4301135114</v>
+        <v>4301135115</v>
       </c>
       <c r="E59" s="3">
-        <v>4607111034397</v>
+        <v>4607111034380</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>315</v>
+        <v>302</v>
       </c>
       <c r="G59" s="1"/>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="11" t="s">
-        <v>75</v>
+        <v>284</v>
       </c>
       <c r="B60" s="3" t="s">
         <v>313</v>
@@ -3405,49 +3432,49 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="11" t="s">
-        <v>139</v>
+        <v>233</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>285</v>
+        <v>313</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>286</v>
+        <v>314</v>
       </c>
       <c r="D61" s="4">
-        <v>4301131012</v>
+        <v>4301135114</v>
       </c>
       <c r="E61" s="3">
-        <v>4607111034137</v>
+        <v>4607111034397</v>
       </c>
       <c r="F61" s="5" t="s">
-        <v>144</v>
+        <v>315</v>
       </c>
       <c r="G61" s="1"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="11" t="s">
-        <v>144</v>
+        <v>75</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>285</v>
+        <v>313</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>286</v>
+        <v>314</v>
       </c>
       <c r="D62" s="4">
-        <v>4301131012</v>
+        <v>4301135114</v>
       </c>
       <c r="E62" s="3">
-        <v>4607111034137</v>
+        <v>4607111034397</v>
       </c>
       <c r="F62" s="5" t="s">
-        <v>144</v>
+        <v>315</v>
       </c>
       <c r="G62" s="1"/>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="11" t="s">
-        <v>234</v>
+        <v>139</v>
       </c>
       <c r="B63" s="3" t="s">
         <v>285</v>
@@ -3468,49 +3495,49 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="11" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>145</v>
+        <v>285</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>146</v>
+        <v>286</v>
       </c>
       <c r="D64" s="4">
-        <v>4301131011</v>
+        <v>4301131012</v>
       </c>
       <c r="E64" s="3">
-        <v>4607111034120</v>
+        <v>4607111034137</v>
       </c>
       <c r="F64" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="G64" s="6"/>
+        <v>144</v>
+      </c>
+      <c r="G64" s="1"/>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="11" t="s">
-        <v>147</v>
+        <v>234</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>145</v>
+        <v>285</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>146</v>
+        <v>286</v>
       </c>
       <c r="D65" s="4">
-        <v>4301131011</v>
+        <v>4301131012</v>
       </c>
       <c r="E65" s="3">
-        <v>4607111034120</v>
+        <v>4607111034137</v>
       </c>
       <c r="F65" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="G65" s="6"/>
+        <v>144</v>
+      </c>
+      <c r="G65" s="1"/>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="11" t="s">
-        <v>235</v>
+        <v>140</v>
       </c>
       <c r="B66" s="3" t="s">
         <v>145</v>
@@ -3527,53 +3554,53 @@
       <c r="F66" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="G66" s="1"/>
+      <c r="G66" s="6"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="11" t="s">
-        <v>236</v>
+        <v>147</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>358</v>
+        <v>145</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>359</v>
+        <v>146</v>
       </c>
       <c r="D67" s="4">
-        <v>4301135192</v>
+        <v>4301131011</v>
       </c>
       <c r="E67" s="3">
-        <v>4640242180380</v>
+        <v>4607111034120</v>
       </c>
       <c r="F67" s="5" t="s">
-        <v>360</v>
-      </c>
-      <c r="G67" s="1"/>
+        <v>147</v>
+      </c>
+      <c r="G67" s="6"/>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="11" t="s">
-        <v>282</v>
+        <v>235</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>358</v>
+        <v>145</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>359</v>
+        <v>146</v>
       </c>
       <c r="D68" s="4">
-        <v>4301135192</v>
+        <v>4301131011</v>
       </c>
       <c r="E68" s="3">
-        <v>4640242180380</v>
+        <v>4607111034120</v>
       </c>
       <c r="F68" s="5" t="s">
-        <v>360</v>
+        <v>147</v>
       </c>
       <c r="G68" s="1"/>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="11" t="s">
-        <v>431</v>
+        <v>236</v>
       </c>
       <c r="B69" s="3" t="s">
         <v>358</v>
@@ -3594,7 +3621,7 @@
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="11" t="s">
-        <v>459</v>
+        <v>282</v>
       </c>
       <c r="B70" s="3" t="s">
         <v>358</v>
@@ -3615,7 +3642,7 @@
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="11" t="s">
-        <v>76</v>
+        <v>431</v>
       </c>
       <c r="B71" s="3" t="s">
         <v>358</v>
@@ -3636,49 +3663,49 @@
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="11" t="s">
-        <v>265</v>
+        <v>459</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>263</v>
+        <v>358</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>264</v>
+        <v>359</v>
       </c>
       <c r="D72" s="4">
-        <v>4301132066</v>
+        <v>4301135192</v>
       </c>
       <c r="E72" s="3">
-        <v>4607111036520</v>
+        <v>4640242180380</v>
       </c>
       <c r="F72" s="5" t="s">
-        <v>265</v>
+        <v>360</v>
       </c>
       <c r="G72" s="1"/>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="11" t="s">
-        <v>392</v>
+        <v>76</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>263</v>
+        <v>358</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>264</v>
+        <v>359</v>
       </c>
       <c r="D73" s="4">
-        <v>4301132066</v>
+        <v>4301135192</v>
       </c>
       <c r="E73" s="3">
-        <v>4607111036520</v>
+        <v>4640242180380</v>
       </c>
       <c r="F73" s="5" t="s">
-        <v>265</v>
+        <v>360</v>
       </c>
       <c r="G73" s="1"/>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="11" t="s">
-        <v>237</v>
+        <v>265</v>
       </c>
       <c r="B74" s="3" t="s">
         <v>263</v>
@@ -3699,280 +3726,280 @@
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="11" t="s">
-        <v>527</v>
+        <v>392</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="D75" s="4">
-        <v>4301132065</v>
+        <v>4301132066</v>
       </c>
       <c r="E75" s="3">
-        <v>4607111036599</v>
+        <v>4607111036520</v>
       </c>
       <c r="F75" s="5" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="G75" s="1"/>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="11" t="s">
-        <v>238</v>
+        <v>544</v>
       </c>
       <c r="B76" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="D76" s="4">
+        <v>4301132066</v>
+      </c>
+      <c r="E76" s="3">
+        <v>4607111036520</v>
+      </c>
+      <c r="F76" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="G76" s="1"/>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77" s="11" t="s">
+        <v>237</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="D77" s="4">
+        <v>4301132066</v>
+      </c>
+      <c r="E77" s="3">
+        <v>4607111036520</v>
+      </c>
+      <c r="F77" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="G77" s="1"/>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78" s="11" t="s">
+        <v>527</v>
+      </c>
+      <c r="B78" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="C76" s="3" t="s">
+      <c r="C78" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="D76" s="4">
+      <c r="D78" s="4">
         <v>4301132065</v>
       </c>
-      <c r="E76" s="3">
+      <c r="E78" s="3">
         <v>4607111036599</v>
       </c>
-      <c r="F76" s="5" t="s">
+      <c r="F78" s="5" t="s">
         <v>268</v>
-      </c>
-      <c r="G76" s="1"/>
-    </row>
-    <row r="77" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A77" s="11" t="s">
-        <v>500</v>
-      </c>
-      <c r="B77" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="C77" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="D77" s="4">
-        <v>4301132063</v>
-      </c>
-      <c r="E77" s="3">
-        <v>4607111036605</v>
-      </c>
-      <c r="F77" s="5" t="s">
-        <v>271</v>
-      </c>
-      <c r="G77" s="1"/>
-    </row>
-    <row r="78" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A78" s="11" t="s">
-        <v>239</v>
-      </c>
-      <c r="B78" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="C78" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="D78" s="4">
-        <v>4301132063</v>
-      </c>
-      <c r="E78" s="3">
-        <v>4607111036605</v>
-      </c>
-      <c r="F78" s="5" t="s">
-        <v>271</v>
       </c>
       <c r="G78" s="1"/>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="11" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>102</v>
+        <v>266</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>103</v>
+        <v>267</v>
       </c>
       <c r="D79" s="4">
-        <v>4301132046</v>
+        <v>4301132065</v>
       </c>
       <c r="E79" s="3">
-        <v>4607111035691</v>
+        <v>4607111036599</v>
       </c>
       <c r="F79" s="5" t="s">
-        <v>104</v>
+        <v>268</v>
       </c>
       <c r="G79" s="1"/>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A80" s="11" t="s">
-        <v>104</v>
+        <v>500</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>102</v>
+        <v>269</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>103</v>
+        <v>270</v>
       </c>
       <c r="D80" s="4">
-        <v>4301132046</v>
+        <v>4301132063</v>
       </c>
       <c r="E80" s="3">
-        <v>4607111035691</v>
+        <v>4607111036605</v>
       </c>
       <c r="F80" s="5" t="s">
-        <v>104</v>
+        <v>271</v>
       </c>
       <c r="G80" s="1"/>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A81" s="11" t="s">
-        <v>77</v>
+        <v>239</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>102</v>
+        <v>269</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>103</v>
+        <v>270</v>
       </c>
       <c r="D81" s="4">
-        <v>4301132046</v>
+        <v>4301132063</v>
       </c>
       <c r="E81" s="3">
-        <v>4607111035691</v>
+        <v>4607111036605</v>
       </c>
       <c r="F81" s="5" t="s">
-        <v>104</v>
+        <v>271</v>
       </c>
       <c r="G81" s="1"/>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="11" t="s">
-        <v>107</v>
+        <v>240</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D82" s="4">
-        <v>4301132064</v>
+        <v>4301132046</v>
       </c>
       <c r="E82" s="3">
-        <v>4607111036537</v>
+        <v>4607111035691</v>
       </c>
       <c r="F82" s="5" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="G82" s="1"/>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="11" t="s">
-        <v>78</v>
+        <v>104</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D83" s="4">
-        <v>4301132064</v>
+        <v>4301132046</v>
       </c>
       <c r="E83" s="3">
-        <v>4607111036537</v>
+        <v>4607111035691</v>
       </c>
       <c r="F83" s="5" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="G83" s="1"/>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="11" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="D84" s="4">
-        <v>4301132048</v>
+        <v>4301132046</v>
       </c>
       <c r="E84" s="3">
-        <v>4607111035721</v>
+        <v>4607111035691</v>
       </c>
       <c r="F84" s="5" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="G84" s="1"/>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="11" t="s">
-        <v>465</v>
+        <v>107</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>361</v>
+        <v>105</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>362</v>
+        <v>106</v>
       </c>
       <c r="D85" s="4">
-        <v>4301132080</v>
+        <v>4301132064</v>
       </c>
       <c r="E85" s="3">
-        <v>4640242180397</v>
+        <v>4607111036537</v>
       </c>
       <c r="F85" s="5" t="s">
-        <v>363</v>
+        <v>107</v>
       </c>
       <c r="G85" s="1"/>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="11" t="s">
-        <v>467</v>
+        <v>78</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>361</v>
+        <v>105</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>362</v>
+        <v>106</v>
       </c>
       <c r="D86" s="4">
-        <v>4301132080</v>
+        <v>4301132064</v>
       </c>
       <c r="E86" s="3">
-        <v>4640242180397</v>
+        <v>4607111036537</v>
       </c>
       <c r="F86" s="5" t="s">
-        <v>363</v>
+        <v>107</v>
       </c>
       <c r="G86" s="1"/>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="11" t="s">
-        <v>477</v>
+        <v>79</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>361</v>
+        <v>108</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>362</v>
+        <v>109</v>
       </c>
       <c r="D87" s="4">
-        <v>4301132080</v>
+        <v>4301132048</v>
       </c>
       <c r="E87" s="3">
-        <v>4640242180397</v>
+        <v>4607111035721</v>
       </c>
       <c r="F87" s="5" t="s">
-        <v>363</v>
+        <v>110</v>
       </c>
       <c r="G87" s="1"/>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="11" t="s">
-        <v>80</v>
+        <v>465</v>
       </c>
       <c r="B88" s="3" t="s">
         <v>361</v>
@@ -3993,70 +4020,70 @@
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="11" t="s">
-        <v>418</v>
+        <v>467</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>272</v>
+        <v>361</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>273</v>
+        <v>362</v>
       </c>
       <c r="D89" s="4">
-        <v>4301135134</v>
+        <v>4301132080</v>
       </c>
       <c r="E89" s="3">
-        <v>4607111035806</v>
+        <v>4640242180397</v>
       </c>
       <c r="F89" s="5" t="s">
-        <v>274</v>
+        <v>363</v>
       </c>
       <c r="G89" s="1"/>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="11" t="s">
-        <v>430</v>
+        <v>477</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>272</v>
+        <v>361</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>273</v>
+        <v>362</v>
       </c>
       <c r="D90" s="4">
-        <v>4301135134</v>
+        <v>4301132080</v>
       </c>
       <c r="E90" s="3">
-        <v>4607111035806</v>
+        <v>4640242180397</v>
       </c>
       <c r="F90" s="5" t="s">
-        <v>274</v>
+        <v>363</v>
       </c>
       <c r="G90" s="1"/>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="11" t="s">
-        <v>511</v>
+        <v>80</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>272</v>
+        <v>361</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>273</v>
+        <v>362</v>
       </c>
       <c r="D91" s="4">
-        <v>4301135134</v>
+        <v>4301132080</v>
       </c>
       <c r="E91" s="3">
-        <v>4607111035806</v>
+        <v>4640242180397</v>
       </c>
       <c r="F91" s="5" t="s">
-        <v>274</v>
+        <v>363</v>
       </c>
       <c r="G91" s="1"/>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="11" t="s">
-        <v>522</v>
+        <v>418</v>
       </c>
       <c r="B92" s="3" t="s">
         <v>272</v>
@@ -4077,7 +4104,7 @@
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="11" t="s">
-        <v>241</v>
+        <v>430</v>
       </c>
       <c r="B93" s="3" t="s">
         <v>272</v>
@@ -4098,70 +4125,70 @@
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="11" t="s">
-        <v>393</v>
+        <v>511</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D94" s="4">
-        <v>4301070865</v>
+        <v>4301135134</v>
       </c>
       <c r="E94" s="3">
-        <v>4607111036285</v>
+        <v>4607111035806</v>
       </c>
       <c r="F94" s="5" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="G94" s="1"/>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="11" t="s">
-        <v>443</v>
+        <v>522</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D95" s="4">
-        <v>4301070865</v>
+        <v>4301135134</v>
       </c>
       <c r="E95" s="3">
-        <v>4607111036285</v>
+        <v>4607111035806</v>
       </c>
       <c r="F95" s="5" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="G95" s="1"/>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="11" t="s">
-        <v>277</v>
+        <v>241</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D96" s="4">
-        <v>4301070865</v>
+        <v>4301135134</v>
       </c>
       <c r="E96" s="3">
-        <v>4607111036285</v>
+        <v>4607111035806</v>
       </c>
       <c r="F96" s="5" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="G96" s="1"/>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="11" t="s">
-        <v>513</v>
+        <v>393</v>
       </c>
       <c r="B97" s="3" t="s">
         <v>275</v>
@@ -4182,7 +4209,7 @@
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="11" t="s">
-        <v>243</v>
+        <v>443</v>
       </c>
       <c r="B98" s="3" t="s">
         <v>275</v>
@@ -4203,70 +4230,70 @@
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="11" t="s">
-        <v>176</v>
+        <v>277</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>175</v>
+        <v>275</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>344</v>
+        <v>276</v>
       </c>
       <c r="D99" s="4">
-        <v>4301070970</v>
+        <v>4301070865</v>
       </c>
       <c r="E99" s="3">
-        <v>4607111037091</v>
+        <v>4607111036285</v>
       </c>
       <c r="F99" s="5" t="s">
-        <v>345</v>
-      </c>
-      <c r="G99" s="6"/>
+        <v>277</v>
+      </c>
+      <c r="G99" s="1"/>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="11" t="s">
-        <v>174</v>
+        <v>513</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>175</v>
+        <v>275</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>344</v>
+        <v>276</v>
       </c>
       <c r="D100" s="4">
-        <v>4301070970</v>
+        <v>4301070865</v>
       </c>
       <c r="E100" s="3">
-        <v>4607111037091</v>
+        <v>4607111036285</v>
       </c>
       <c r="F100" s="5" t="s">
-        <v>345</v>
-      </c>
-      <c r="G100" s="6"/>
+        <v>277</v>
+      </c>
+      <c r="G100" s="1"/>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="11" t="s">
-        <v>335</v>
+        <v>243</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>175</v>
+        <v>275</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>344</v>
+        <v>276</v>
       </c>
       <c r="D101" s="4">
-        <v>4301070970</v>
+        <v>4301070865</v>
       </c>
       <c r="E101" s="3">
-        <v>4607111037091</v>
+        <v>4607111036285</v>
       </c>
       <c r="F101" s="5" t="s">
-        <v>345</v>
+        <v>277</v>
       </c>
       <c r="G101" s="1"/>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="11" t="s">
-        <v>244</v>
+        <v>176</v>
       </c>
       <c r="B102" s="3" t="s">
         <v>175</v>
@@ -4283,683 +4310,683 @@
       <c r="F102" s="5" t="s">
         <v>345</v>
       </c>
-      <c r="G102" s="1"/>
+      <c r="G102" s="6"/>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="11" t="s">
-        <v>87</v>
+        <v>174</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>119</v>
+        <v>175</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>332</v>
+        <v>344</v>
       </c>
       <c r="D103" s="4">
-        <v>4301070973</v>
+        <v>4301070970</v>
       </c>
       <c r="E103" s="3">
-        <v>4607111033987</v>
+        <v>4607111037091</v>
       </c>
       <c r="F103" s="5" t="s">
-        <v>333</v>
+        <v>345</v>
       </c>
       <c r="G103" s="6"/>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="11" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>119</v>
+        <v>175</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>332</v>
+        <v>344</v>
       </c>
       <c r="D104" s="4">
-        <v>4301070973</v>
+        <v>4301070970</v>
       </c>
       <c r="E104" s="3">
-        <v>4607111033987</v>
+        <v>4607111037091</v>
       </c>
       <c r="F104" s="5" t="s">
-        <v>333</v>
-      </c>
-      <c r="G104" s="6"/>
+        <v>345</v>
+      </c>
+      <c r="G104" s="1"/>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="11" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>119</v>
+        <v>175</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>332</v>
+        <v>344</v>
       </c>
       <c r="D105" s="4">
-        <v>4301070973</v>
+        <v>4301070970</v>
       </c>
       <c r="E105" s="3">
-        <v>4607111033987</v>
+        <v>4607111037091</v>
       </c>
       <c r="F105" s="5" t="s">
-        <v>333</v>
+        <v>345</v>
       </c>
       <c r="G105" s="1"/>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="11" t="s">
-        <v>442</v>
+        <v>87</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>278</v>
+        <v>119</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>279</v>
+        <v>332</v>
       </c>
       <c r="D106" s="4">
-        <v>4301070861</v>
+        <v>4301070973</v>
       </c>
       <c r="E106" s="3">
-        <v>4607111036308</v>
+        <v>4607111033987</v>
       </c>
       <c r="F106" s="5" t="s">
-        <v>280</v>
-      </c>
-      <c r="G106" s="1"/>
+        <v>333</v>
+      </c>
+      <c r="G106" s="6"/>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="11" t="s">
-        <v>512</v>
+        <v>333</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>278</v>
+        <v>119</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>279</v>
+        <v>332</v>
       </c>
       <c r="D107" s="4">
-        <v>4301070861</v>
+        <v>4301070973</v>
       </c>
       <c r="E107" s="3">
-        <v>4607111036308</v>
+        <v>4607111033987</v>
       </c>
       <c r="F107" s="5" t="s">
-        <v>280</v>
-      </c>
-      <c r="G107" s="1"/>
+        <v>333</v>
+      </c>
+      <c r="G107" s="6"/>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="11" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>278</v>
+        <v>119</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>279</v>
+        <v>332</v>
       </c>
       <c r="D108" s="4">
-        <v>4301070861</v>
+        <v>4301070973</v>
       </c>
       <c r="E108" s="3">
-        <v>4607111036308</v>
+        <v>4607111033987</v>
       </c>
       <c r="F108" s="5" t="s">
-        <v>280</v>
+        <v>333</v>
       </c>
       <c r="G108" s="1"/>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="11" t="s">
-        <v>81</v>
+        <v>442</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>111</v>
+        <v>278</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>112</v>
+        <v>279</v>
       </c>
       <c r="D109" s="4">
-        <v>4301070864</v>
+        <v>4301070861</v>
       </c>
       <c r="E109" s="3">
-        <v>4607111036292</v>
+        <v>4607111036308</v>
       </c>
       <c r="F109" s="5" t="s">
-        <v>113</v>
+        <v>280</v>
       </c>
       <c r="G109" s="1"/>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="11" t="s">
-        <v>444</v>
+        <v>512</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>111</v>
+        <v>278</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>112</v>
+        <v>279</v>
       </c>
       <c r="D110" s="4">
-        <v>4301070864</v>
+        <v>4301070861</v>
       </c>
       <c r="E110" s="3">
-        <v>4607111036292</v>
+        <v>4607111036308</v>
       </c>
       <c r="F110" s="5" t="s">
-        <v>113</v>
+        <v>280</v>
       </c>
       <c r="G110" s="1"/>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="11" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>111</v>
+        <v>278</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>112</v>
+        <v>279</v>
       </c>
       <c r="D111" s="4">
-        <v>4301070864</v>
+        <v>4301070861</v>
       </c>
       <c r="E111" s="3">
-        <v>4607111036292</v>
+        <v>4607111036308</v>
       </c>
       <c r="F111" s="5" t="s">
-        <v>113</v>
+        <v>280</v>
       </c>
       <c r="G111" s="1"/>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="11" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>328</v>
+        <v>112</v>
       </c>
       <c r="D112" s="4">
-        <v>4301070974</v>
+        <v>4301070864</v>
       </c>
       <c r="E112" s="3">
-        <v>4607111034151</v>
+        <v>4607111036292</v>
       </c>
       <c r="F112" s="5" t="s">
-        <v>329</v>
-      </c>
-      <c r="G112" s="6"/>
+        <v>113</v>
+      </c>
+      <c r="G112" s="1"/>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="11" t="s">
-        <v>329</v>
+        <v>444</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>328</v>
+        <v>112</v>
       </c>
       <c r="D113" s="4">
-        <v>4301070974</v>
+        <v>4301070864</v>
       </c>
       <c r="E113" s="3">
-        <v>4607111034151</v>
+        <v>4607111036292</v>
       </c>
       <c r="F113" s="5" t="s">
-        <v>329</v>
-      </c>
-      <c r="G113" s="6"/>
+        <v>113</v>
+      </c>
+      <c r="G113" s="1"/>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="11" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>328</v>
+        <v>112</v>
       </c>
       <c r="D114" s="4">
-        <v>4301070974</v>
+        <v>4301070864</v>
       </c>
       <c r="E114" s="3">
-        <v>4607111034151</v>
+        <v>4607111036292</v>
       </c>
       <c r="F114" s="5" t="s">
-        <v>329</v>
+        <v>113</v>
       </c>
       <c r="G114" s="1"/>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="11" t="s">
-        <v>242</v>
+        <v>86</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>167</v>
+        <v>118</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>168</v>
+        <v>328</v>
       </c>
       <c r="D115" s="4">
-        <v>4301070935</v>
+        <v>4301070974</v>
       </c>
       <c r="E115" s="3">
-        <v>4607111037190</v>
+        <v>4607111034151</v>
       </c>
       <c r="F115" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="G115" s="1"/>
+        <v>329</v>
+      </c>
+      <c r="G115" s="6"/>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="11" t="s">
-        <v>533</v>
+        <v>329</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>167</v>
+        <v>118</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>168</v>
+        <v>328</v>
       </c>
       <c r="D116" s="4">
-        <v>4301070935</v>
+        <v>4301070974</v>
       </c>
       <c r="E116" s="3">
-        <v>4607111037190</v>
+        <v>4607111034151</v>
       </c>
       <c r="F116" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="G116" s="1"/>
+        <v>329</v>
+      </c>
+      <c r="G116" s="6"/>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="11" t="s">
-        <v>166</v>
+        <v>251</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>167</v>
+        <v>118</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>168</v>
+        <v>328</v>
       </c>
       <c r="D117" s="4">
-        <v>4301070935</v>
+        <v>4301070974</v>
       </c>
       <c r="E117" s="3">
-        <v>4607111037190</v>
+        <v>4607111034151</v>
       </c>
       <c r="F117" s="5" t="s">
-        <v>169</v>
+        <v>329</v>
       </c>
       <c r="G117" s="1"/>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="11" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>340</v>
+        <v>168</v>
       </c>
       <c r="D118" s="4">
-        <v>4301070972</v>
+        <v>4301070935</v>
       </c>
       <c r="E118" s="3">
-        <v>4607111037183</v>
+        <v>4607111037190</v>
       </c>
       <c r="F118" s="5" t="s">
-        <v>341</v>
+        <v>169</v>
       </c>
       <c r="G118" s="1"/>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="11" t="s">
-        <v>514</v>
+        <v>533</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>340</v>
+        <v>168</v>
       </c>
       <c r="D119" s="4">
-        <v>4301070972</v>
+        <v>4301070935</v>
       </c>
       <c r="E119" s="3">
-        <v>4607111037183</v>
+        <v>4607111037190</v>
       </c>
       <c r="F119" s="5" t="s">
-        <v>341</v>
+        <v>169</v>
       </c>
       <c r="G119" s="1"/>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="11" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>340</v>
+        <v>168</v>
       </c>
       <c r="D120" s="4">
-        <v>4301070972</v>
+        <v>4301070935</v>
       </c>
       <c r="E120" s="3">
-        <v>4607111037183</v>
+        <v>4607111037190</v>
       </c>
       <c r="F120" s="5" t="s">
-        <v>341</v>
+        <v>169</v>
       </c>
       <c r="G120" s="1"/>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="11" t="s">
-        <v>528</v>
+        <v>249</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="D121" s="4">
-        <v>4301070969</v>
+        <v>4301070972</v>
       </c>
       <c r="E121" s="3">
-        <v>4607111036858</v>
+        <v>4607111037183</v>
       </c>
       <c r="F121" s="5" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="G121" s="1"/>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="11" t="s">
-        <v>172</v>
+        <v>514</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="D122" s="4">
-        <v>4301070969</v>
+        <v>4301070972</v>
       </c>
       <c r="E122" s="3">
-        <v>4607111036858</v>
+        <v>4607111037183</v>
       </c>
       <c r="F122" s="5" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="G122" s="1"/>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" s="11" t="s">
-        <v>82</v>
+        <v>170</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>114</v>
+        <v>171</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>495</v>
+        <v>340</v>
       </c>
       <c r="D123" s="4">
-        <v>4301070968</v>
+        <v>4301070972</v>
       </c>
       <c r="E123" s="3">
-        <v>4607111036889</v>
+        <v>4607111037183</v>
       </c>
       <c r="F123" s="5" t="s">
-        <v>496</v>
-      </c>
-      <c r="G123" s="6"/>
+        <v>341</v>
+      </c>
+      <c r="G123" s="1"/>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" s="11" t="s">
-        <v>179</v>
+        <v>528</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>471</v>
+        <v>342</v>
       </c>
       <c r="D124" s="4">
-        <v>4301070971</v>
+        <v>4301070969</v>
       </c>
       <c r="E124" s="3">
-        <v>4607111036902</v>
+        <v>4607111036858</v>
       </c>
       <c r="F124" s="5" t="s">
-        <v>472</v>
-      </c>
-      <c r="G124" s="6"/>
+        <v>343</v>
+      </c>
+      <c r="G124" s="1"/>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="11" t="s">
-        <v>334</v>
+        <v>545</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>471</v>
+        <v>342</v>
       </c>
       <c r="D125" s="4">
-        <v>4301070971</v>
+        <v>4301070969</v>
       </c>
       <c r="E125" s="3">
-        <v>4607111036902</v>
+        <v>4607111036858</v>
       </c>
       <c r="F125" s="5" t="s">
-        <v>472</v>
-      </c>
-      <c r="G125" s="6"/>
+        <v>343</v>
+      </c>
+      <c r="G125" s="1"/>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" s="11" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>471</v>
+        <v>342</v>
       </c>
       <c r="D126" s="4">
-        <v>4301070971</v>
+        <v>4301070969</v>
       </c>
       <c r="E126" s="3">
-        <v>4607111036902</v>
+        <v>4607111036858</v>
       </c>
       <c r="F126" s="5" t="s">
-        <v>472</v>
-      </c>
-      <c r="G126" s="6"/>
+        <v>343</v>
+      </c>
+      <c r="G126" s="1"/>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" s="11" t="s">
-        <v>289</v>
+        <v>82</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>321</v>
+        <v>495</v>
       </c>
       <c r="D127" s="4">
-        <v>4301070976</v>
+        <v>4301070968</v>
       </c>
       <c r="E127" s="3">
-        <v>4607111034144</v>
+        <v>4607111036889</v>
       </c>
       <c r="F127" s="5" t="s">
-        <v>322</v>
+        <v>496</v>
       </c>
       <c r="G127" s="6"/>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" s="11" t="s">
-        <v>250</v>
+        <v>179</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>115</v>
+        <v>178</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>321</v>
+        <v>471</v>
       </c>
       <c r="D128" s="4">
-        <v>4301070976</v>
+        <v>4301070971</v>
       </c>
       <c r="E128" s="3">
-        <v>4607111034144</v>
+        <v>4607111036902</v>
       </c>
       <c r="F128" s="5" t="s">
-        <v>322</v>
-      </c>
-      <c r="G128" s="1"/>
+        <v>472</v>
+      </c>
+      <c r="G128" s="6"/>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" s="11" t="s">
-        <v>322</v>
+        <v>334</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>115</v>
+        <v>178</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>321</v>
+        <v>471</v>
       </c>
       <c r="D129" s="4">
-        <v>4301070976</v>
+        <v>4301070971</v>
       </c>
       <c r="E129" s="3">
-        <v>4607111034144</v>
+        <v>4607111036902</v>
       </c>
       <c r="F129" s="5" t="s">
-        <v>322</v>
-      </c>
-      <c r="G129" s="1"/>
+        <v>472</v>
+      </c>
+      <c r="G129" s="6"/>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" s="11" t="s">
-        <v>83</v>
+        <v>177</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>115</v>
+        <v>178</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>321</v>
+        <v>471</v>
       </c>
       <c r="D130" s="4">
-        <v>4301070976</v>
+        <v>4301070971</v>
       </c>
       <c r="E130" s="3">
-        <v>4607111034144</v>
+        <v>4607111036902</v>
       </c>
       <c r="F130" s="5" t="s">
-        <v>322</v>
+        <v>472</v>
       </c>
       <c r="G130" s="6"/>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" s="11" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="D131" s="4">
-        <v>4301070975</v>
+        <v>4301070976</v>
       </c>
       <c r="E131" s="3">
-        <v>4607111033970</v>
+        <v>4607111034144</v>
       </c>
       <c r="F131" s="5" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="G131" s="6"/>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" s="11" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="D132" s="4">
-        <v>4301070975</v>
+        <v>4301070976</v>
       </c>
       <c r="E132" s="3">
-        <v>4607111033970</v>
+        <v>4607111034144</v>
       </c>
       <c r="F132" s="5" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="G132" s="1"/>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" s="11" t="s">
-        <v>399</v>
+        <v>322</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="D133" s="4">
-        <v>4301070975</v>
+        <v>4301070976</v>
       </c>
       <c r="E133" s="3">
-        <v>4607111033970</v>
+        <v>4607111034144</v>
       </c>
       <c r="F133" s="5" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="G133" s="1"/>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" s="11" t="s">
-        <v>331</v>
+        <v>83</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="D134" s="4">
-        <v>4301070975</v>
+        <v>4301070976</v>
       </c>
       <c r="E134" s="3">
-        <v>4607111033970</v>
+        <v>4607111034144</v>
       </c>
       <c r="F134" s="5" t="s">
-        <v>331</v>
-      </c>
-      <c r="G134" s="1"/>
+        <v>322</v>
+      </c>
+      <c r="G134" s="6"/>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" s="11" t="s">
-        <v>84</v>
+        <v>288</v>
       </c>
       <c r="B135" s="3" t="s">
         <v>116</v>
@@ -4980,595 +5007,595 @@
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" s="11" t="s">
-        <v>398</v>
+        <v>245</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>323</v>
+        <v>330</v>
       </c>
       <c r="D136" s="4">
-        <v>4301070981</v>
+        <v>4301070975</v>
       </c>
       <c r="E136" s="3">
-        <v>4607111036728</v>
+        <v>4607111033970</v>
       </c>
       <c r="F136" s="5" t="s">
-        <v>324</v>
-      </c>
-      <c r="G136" s="6"/>
+        <v>331</v>
+      </c>
+      <c r="G136" s="1"/>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" s="11" t="s">
-        <v>85</v>
+        <v>399</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C137" s="3" t="s">
-        <v>323</v>
+        <v>330</v>
       </c>
       <c r="D137" s="4">
-        <v>4301070981</v>
+        <v>4301070975</v>
       </c>
       <c r="E137" s="3">
-        <v>4607111036728</v>
+        <v>4607111033970</v>
       </c>
       <c r="F137" s="5" t="s">
-        <v>324</v>
-      </c>
-      <c r="G137" s="6"/>
+        <v>331</v>
+      </c>
+      <c r="G137" s="1"/>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" s="11" t="s">
-        <v>412</v>
+        <v>331</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>206</v>
+        <v>116</v>
       </c>
       <c r="C138" s="3" t="s">
-        <v>207</v>
+        <v>330</v>
       </c>
       <c r="D138" s="4">
-        <v>4301071010</v>
+        <v>4301070975</v>
       </c>
       <c r="E138" s="3">
-        <v>4607111037701</v>
+        <v>4607111033970</v>
       </c>
       <c r="F138" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="G138" s="6"/>
+        <v>331</v>
+      </c>
+      <c r="G138" s="1"/>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" s="11" t="s">
-        <v>486</v>
+        <v>84</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>206</v>
+        <v>116</v>
       </c>
       <c r="C139" s="3" t="s">
-        <v>207</v>
+        <v>330</v>
       </c>
       <c r="D139" s="4">
-        <v>4301071010</v>
+        <v>4301070975</v>
       </c>
       <c r="E139" s="3">
-        <v>4607111037701</v>
+        <v>4607111033970</v>
       </c>
       <c r="F139" s="5" t="s">
-        <v>208</v>
+        <v>331</v>
       </c>
       <c r="G139" s="6"/>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" s="11" t="s">
-        <v>209</v>
+        <v>398</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>206</v>
+        <v>117</v>
       </c>
       <c r="C140" s="3" t="s">
-        <v>207</v>
+        <v>323</v>
       </c>
       <c r="D140" s="4">
-        <v>4301071010</v>
+        <v>4301070981</v>
       </c>
       <c r="E140" s="3">
-        <v>4607111037701</v>
+        <v>4607111036728</v>
       </c>
       <c r="F140" s="5" t="s">
-        <v>208</v>
+        <v>324</v>
       </c>
       <c r="G140" s="6"/>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" s="11" t="s">
-        <v>524</v>
+        <v>85</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>210</v>
+        <v>117</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>211</v>
+        <v>323</v>
       </c>
       <c r="D141" s="4">
-        <v>4301070870</v>
+        <v>4301070981</v>
       </c>
       <c r="E141" s="3">
-        <v>4607111036711</v>
+        <v>4607111036728</v>
       </c>
       <c r="F141" s="5" t="s">
-        <v>212</v>
+        <v>324</v>
       </c>
       <c r="G141" s="6"/>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" s="11" t="s">
-        <v>213</v>
+        <v>412</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="D142" s="4">
-        <v>4301070870</v>
+        <v>4301071010</v>
       </c>
       <c r="E142" s="3">
-        <v>4607111036711</v>
+        <v>4607111037701</v>
       </c>
       <c r="F142" s="5" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="G142" s="6"/>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" s="11" t="s">
-        <v>181</v>
+        <v>486</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>316</v>
+        <v>206</v>
       </c>
       <c r="C143" s="3" t="s">
-        <v>317</v>
+        <v>207</v>
       </c>
       <c r="D143" s="4">
-        <v>4301070948</v>
+        <v>4301071010</v>
       </c>
       <c r="E143" s="3">
-        <v>4607111037022</v>
+        <v>4607111037701</v>
       </c>
       <c r="F143" s="5" t="s">
-        <v>181</v>
+        <v>208</v>
       </c>
       <c r="G143" s="6"/>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" s="11" t="s">
-        <v>318</v>
+        <v>209</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>316</v>
+        <v>206</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>317</v>
+        <v>207</v>
       </c>
       <c r="D144" s="4">
-        <v>4301070948</v>
+        <v>4301071010</v>
       </c>
       <c r="E144" s="3">
-        <v>4607111037022</v>
+        <v>4607111037701</v>
       </c>
       <c r="F144" s="5" t="s">
-        <v>181</v>
+        <v>208</v>
       </c>
       <c r="G144" s="6"/>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" s="11" t="s">
-        <v>180</v>
+        <v>524</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>316</v>
+        <v>210</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>317</v>
+        <v>211</v>
       </c>
       <c r="D145" s="4">
-        <v>4301070948</v>
+        <v>4301070870</v>
       </c>
       <c r="E145" s="3">
-        <v>4607111037022</v>
+        <v>4607111036711</v>
       </c>
       <c r="F145" s="5" t="s">
-        <v>181</v>
+        <v>212</v>
       </c>
       <c r="G145" s="6"/>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" s="11" t="s">
-        <v>122</v>
+        <v>213</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>120</v>
+        <v>210</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>121</v>
+        <v>211</v>
       </c>
       <c r="D146" s="4">
-        <v>4301070920</v>
+        <v>4301070870</v>
       </c>
       <c r="E146" s="3">
-        <v>4607111035929</v>
+        <v>4607111036711</v>
       </c>
       <c r="F146" s="5" t="s">
-        <v>122</v>
+        <v>212</v>
       </c>
       <c r="G146" s="6"/>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" s="11" t="s">
-        <v>88</v>
+        <v>181</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>120</v>
+        <v>316</v>
       </c>
       <c r="C147" s="3" t="s">
-        <v>121</v>
+        <v>317</v>
       </c>
       <c r="D147" s="4">
-        <v>4301070920</v>
+        <v>4301070948</v>
       </c>
       <c r="E147" s="3">
-        <v>4607111035929</v>
+        <v>4607111037022</v>
       </c>
       <c r="F147" s="5" t="s">
-        <v>122</v>
+        <v>181</v>
       </c>
       <c r="G147" s="6"/>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" s="11" t="s">
-        <v>182</v>
+        <v>318</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>183</v>
+        <v>316</v>
       </c>
       <c r="C148" s="3" t="s">
-        <v>184</v>
+        <v>317</v>
       </c>
       <c r="D148" s="4">
-        <v>4301070921</v>
+        <v>4301070948</v>
       </c>
       <c r="E148" s="3">
-        <v>4607111035905</v>
+        <v>4607111037022</v>
       </c>
       <c r="F148" s="5" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="G148" s="6"/>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" s="11" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>183</v>
+        <v>316</v>
       </c>
       <c r="C149" s="3" t="s">
-        <v>184</v>
+        <v>317</v>
       </c>
       <c r="D149" s="4">
-        <v>4301070921</v>
+        <v>4301070948</v>
       </c>
       <c r="E149" s="3">
-        <v>4607111035905</v>
+        <v>4607111037022</v>
       </c>
       <c r="F149" s="5" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="G149" s="6"/>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" s="11" t="s">
-        <v>216</v>
+        <v>122</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>214</v>
+        <v>120</v>
       </c>
       <c r="C150" s="3" t="s">
-        <v>215</v>
+        <v>121</v>
       </c>
       <c r="D150" s="4">
-        <v>4301070917</v>
+        <v>4301070920</v>
       </c>
       <c r="E150" s="3">
-        <v>4607111035912</v>
+        <v>4607111035929</v>
       </c>
       <c r="F150" s="5" t="s">
-        <v>216</v>
+        <v>122</v>
       </c>
       <c r="G150" s="6"/>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" s="11" t="s">
-        <v>337</v>
+        <v>88</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>214</v>
+        <v>120</v>
       </c>
       <c r="C151" s="3" t="s">
-        <v>215</v>
+        <v>121</v>
       </c>
       <c r="D151" s="4">
-        <v>4301070917</v>
+        <v>4301070920</v>
       </c>
       <c r="E151" s="3">
-        <v>4607111035912</v>
+        <v>4607111035929</v>
       </c>
       <c r="F151" s="5" t="s">
-        <v>216</v>
+        <v>122</v>
       </c>
       <c r="G151" s="6"/>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" s="11" t="s">
-        <v>385</v>
+        <v>182</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>214</v>
+        <v>183</v>
       </c>
       <c r="C152" s="3" t="s">
-        <v>215</v>
+        <v>184</v>
       </c>
       <c r="D152" s="4">
-        <v>4301070917</v>
+        <v>4301070921</v>
       </c>
       <c r="E152" s="3">
-        <v>4607111035912</v>
+        <v>4607111035905</v>
       </c>
       <c r="F152" s="5" t="s">
-        <v>216</v>
+        <v>185</v>
       </c>
       <c r="G152" s="6"/>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" s="11" t="s">
-        <v>217</v>
+        <v>185</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>214</v>
+        <v>183</v>
       </c>
       <c r="C153" s="3" t="s">
-        <v>215</v>
+        <v>184</v>
       </c>
       <c r="D153" s="4">
-        <v>4301070917</v>
+        <v>4301070921</v>
       </c>
       <c r="E153" s="3">
-        <v>4607111035912</v>
+        <v>4607111035905</v>
       </c>
       <c r="F153" s="5" t="s">
-        <v>216</v>
+        <v>185</v>
       </c>
       <c r="G153" s="6"/>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" s="11" t="s">
-        <v>186</v>
+        <v>216</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>123</v>
+        <v>214</v>
       </c>
       <c r="C154" s="3" t="s">
-        <v>124</v>
+        <v>215</v>
       </c>
       <c r="D154" s="4">
-        <v>4301070827</v>
+        <v>4301070917</v>
       </c>
       <c r="E154" s="3">
-        <v>4607111036216</v>
+        <v>4607111035912</v>
       </c>
       <c r="F154" s="5" t="s">
-        <v>125</v>
+        <v>216</v>
       </c>
       <c r="G154" s="6"/>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" s="11" t="s">
-        <v>89</v>
+        <v>337</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>123</v>
+        <v>214</v>
       </c>
       <c r="C155" s="3" t="s">
-        <v>124</v>
+        <v>215</v>
       </c>
       <c r="D155" s="4">
-        <v>4301070827</v>
+        <v>4301070917</v>
       </c>
       <c r="E155" s="3">
-        <v>4607111036216</v>
+        <v>4607111035912</v>
       </c>
       <c r="F155" s="5" t="s">
-        <v>125</v>
+        <v>216</v>
       </c>
       <c r="G155" s="6"/>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" s="11" t="s">
-        <v>127</v>
+        <v>385</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>126</v>
+        <v>214</v>
       </c>
       <c r="C156" s="3" t="s">
-        <v>478</v>
+        <v>215</v>
       </c>
       <c r="D156" s="4">
-        <v>4301070965</v>
+        <v>4301070917</v>
       </c>
       <c r="E156" s="3">
-        <v>4607111035899</v>
+        <v>4607111035912</v>
       </c>
       <c r="F156" s="5" t="s">
-        <v>127</v>
+        <v>216</v>
       </c>
       <c r="G156" s="6"/>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" s="11" t="s">
-        <v>90</v>
+        <v>217</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>126</v>
+        <v>214</v>
       </c>
       <c r="C157" s="3" t="s">
-        <v>478</v>
+        <v>215</v>
       </c>
       <c r="D157" s="4">
-        <v>4301070965</v>
+        <v>4301070917</v>
       </c>
       <c r="E157" s="3">
-        <v>4607111035899</v>
+        <v>4607111035912</v>
       </c>
       <c r="F157" s="5" t="s">
-        <v>127</v>
+        <v>216</v>
       </c>
       <c r="G157" s="6"/>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" s="11" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>188</v>
+        <v>123</v>
       </c>
       <c r="C158" s="3" t="s">
-        <v>189</v>
+        <v>124</v>
       </c>
       <c r="D158" s="4">
-        <v>4301070873</v>
+        <v>4301070827</v>
       </c>
       <c r="E158" s="3">
-        <v>4607111035080</v>
+        <v>4607111036216</v>
       </c>
       <c r="F158" s="5" t="s">
-        <v>190</v>
+        <v>125</v>
       </c>
       <c r="G158" s="6"/>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" s="11" t="s">
-        <v>187</v>
+        <v>89</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>188</v>
+        <v>123</v>
       </c>
       <c r="C159" s="3" t="s">
-        <v>189</v>
+        <v>124</v>
       </c>
       <c r="D159" s="4">
-        <v>4301070873</v>
+        <v>4301070827</v>
       </c>
       <c r="E159" s="3">
-        <v>4607111035080</v>
+        <v>4607111036216</v>
       </c>
       <c r="F159" s="5" t="s">
-        <v>190</v>
+        <v>125</v>
       </c>
       <c r="G159" s="6"/>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" s="11" t="s">
-        <v>283</v>
+        <v>127</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>367</v>
+        <v>126</v>
       </c>
       <c r="C160" s="3" t="s">
-        <v>368</v>
+        <v>478</v>
       </c>
       <c r="D160" s="4">
-        <v>4301135193</v>
+        <v>4301070965</v>
       </c>
       <c r="E160" s="3">
-        <v>4640242180403</v>
+        <v>4607111035899</v>
       </c>
       <c r="F160" s="5" t="s">
-        <v>369</v>
+        <v>127</v>
       </c>
       <c r="G160" s="6"/>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" s="11" t="s">
-        <v>479</v>
+        <v>90</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>367</v>
+        <v>126</v>
       </c>
       <c r="C161" s="3" t="s">
-        <v>368</v>
+        <v>478</v>
       </c>
       <c r="D161" s="4">
-        <v>4301135193</v>
+        <v>4301070965</v>
       </c>
       <c r="E161" s="3">
-        <v>4640242180403</v>
+        <v>4607111035899</v>
       </c>
       <c r="F161" s="5" t="s">
-        <v>369</v>
+        <v>127</v>
       </c>
       <c r="G161" s="6"/>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" s="11" t="s">
-        <v>502</v>
+        <v>190</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>367</v>
+        <v>188</v>
       </c>
       <c r="C162" s="3" t="s">
-        <v>368</v>
+        <v>189</v>
       </c>
       <c r="D162" s="4">
-        <v>4301135193</v>
+        <v>4301070873</v>
       </c>
       <c r="E162" s="3">
-        <v>4640242180403</v>
+        <v>4607111035080</v>
       </c>
       <c r="F162" s="5" t="s">
-        <v>369</v>
+        <v>190</v>
       </c>
       <c r="G162" s="6"/>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" s="11" t="s">
-        <v>493</v>
+        <v>187</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>367</v>
+        <v>188</v>
       </c>
       <c r="C163" s="3" t="s">
-        <v>368</v>
+        <v>189</v>
       </c>
       <c r="D163" s="4">
-        <v>4301135193</v>
+        <v>4301070873</v>
       </c>
       <c r="E163" s="3">
-        <v>4640242180403</v>
+        <v>4607111035080</v>
       </c>
       <c r="F163" s="5" t="s">
-        <v>369</v>
+        <v>190</v>
       </c>
       <c r="G163" s="6"/>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" s="11" t="s">
-        <v>191</v>
+        <v>283</v>
       </c>
       <c r="B164" s="3" t="s">
         <v>367</v>
@@ -5589,1547 +5616,1619 @@
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" s="11" t="s">
-        <v>503</v>
+        <v>479</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>193</v>
+        <v>367</v>
       </c>
       <c r="C165" s="3" t="s">
-        <v>473</v>
+        <v>368</v>
       </c>
       <c r="D165" s="4">
-        <v>4301070956</v>
+        <v>4301135193</v>
       </c>
       <c r="E165" s="3">
-        <v>4640242180250</v>
+        <v>4640242180403</v>
       </c>
       <c r="F165" s="5" t="s">
-        <v>474</v>
+        <v>369</v>
       </c>
       <c r="G165" s="6"/>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" s="11" t="s">
-        <v>195</v>
+        <v>502</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>193</v>
+        <v>367</v>
       </c>
       <c r="C166" s="3" t="s">
-        <v>194</v>
+        <v>368</v>
       </c>
       <c r="D166" s="4">
-        <v>4301070858</v>
+        <v>4301135193</v>
       </c>
       <c r="E166" s="3">
-        <v>4607111036193</v>
+        <v>4640242180403</v>
       </c>
       <c r="F166" s="5" t="s">
-        <v>195</v>
+        <v>369</v>
       </c>
       <c r="G166" s="6"/>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" s="11" t="s">
-        <v>192</v>
+        <v>493</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>193</v>
+        <v>367</v>
       </c>
       <c r="C167" s="3" t="s">
-        <v>473</v>
+        <v>368</v>
       </c>
       <c r="D167" s="4">
-        <v>4301070956</v>
+        <v>4301135193</v>
       </c>
       <c r="E167" s="3">
-        <v>4640242180250</v>
+        <v>4640242180403</v>
       </c>
       <c r="F167" s="5" t="s">
-        <v>474</v>
+        <v>369</v>
       </c>
       <c r="G167" s="6"/>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" s="11" t="s">
-        <v>92</v>
+        <v>191</v>
       </c>
       <c r="B168" s="3" t="s">
-        <v>128</v>
+        <v>367</v>
       </c>
       <c r="C168" s="3" t="s">
-        <v>129</v>
+        <v>368</v>
       </c>
       <c r="D168" s="4">
-        <v>4301135112</v>
+        <v>4301135193</v>
       </c>
       <c r="E168" s="3">
-        <v>4607111034199</v>
+        <v>4640242180403</v>
       </c>
       <c r="F168" s="5" t="s">
-        <v>130</v>
+        <v>369</v>
       </c>
       <c r="G168" s="6"/>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" s="11" t="s">
-        <v>299</v>
+        <v>503</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>325</v>
+        <v>193</v>
       </c>
       <c r="C169" s="3" t="s">
-        <v>326</v>
+        <v>473</v>
       </c>
       <c r="D169" s="4">
-        <v>4301131018</v>
+        <v>4301070956</v>
       </c>
       <c r="E169" s="3">
-        <v>4607111037930</v>
+        <v>4640242180250</v>
       </c>
       <c r="F169" s="5" t="s">
-        <v>327</v>
+        <v>474</v>
       </c>
       <c r="G169" s="6"/>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" s="11" t="s">
-        <v>417</v>
+        <v>195</v>
       </c>
       <c r="B170" s="3" t="s">
-        <v>325</v>
+        <v>193</v>
       </c>
       <c r="C170" s="3" t="s">
-        <v>326</v>
+        <v>194</v>
       </c>
       <c r="D170" s="4">
-        <v>4301131018</v>
+        <v>4301070858</v>
       </c>
       <c r="E170" s="3">
-        <v>4607111037930</v>
+        <v>4607111036193</v>
       </c>
       <c r="F170" s="5" t="s">
-        <v>327</v>
+        <v>195</v>
       </c>
       <c r="G170" s="6"/>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" s="11" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B171" s="3" t="s">
-        <v>461</v>
+        <v>193</v>
       </c>
       <c r="C171" s="3" t="s">
-        <v>462</v>
+        <v>473</v>
       </c>
       <c r="D171" s="4">
-        <v>4301131019</v>
+        <v>4301070956</v>
       </c>
       <c r="E171" s="3">
-        <v>4640242180427</v>
+        <v>4640242180250</v>
       </c>
       <c r="F171" s="5" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
       <c r="G171" s="6"/>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" s="11" t="s">
-        <v>197</v>
+        <v>92</v>
       </c>
       <c r="B172" s="3" t="s">
-        <v>148</v>
+        <v>128</v>
       </c>
       <c r="C172" s="3" t="s">
-        <v>149</v>
+        <v>129</v>
       </c>
       <c r="D172" s="4">
-        <v>4301190014</v>
+        <v>4301135112</v>
       </c>
       <c r="E172" s="3">
-        <v>4607111037053</v>
+        <v>4607111034199</v>
       </c>
       <c r="F172" s="5" t="s">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="G172" s="6"/>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" s="11" t="s">
-        <v>427</v>
+        <v>299</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>148</v>
+        <v>325</v>
       </c>
       <c r="C173" s="3" t="s">
-        <v>149</v>
+        <v>326</v>
       </c>
       <c r="D173" s="4">
-        <v>4301190014</v>
+        <v>4301131018</v>
       </c>
       <c r="E173" s="3">
-        <v>4607111037053</v>
+        <v>4607111037930</v>
       </c>
       <c r="F173" s="5" t="s">
-        <v>150</v>
+        <v>327</v>
       </c>
       <c r="G173" s="6"/>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" s="11" t="s">
-        <v>141</v>
+        <v>417</v>
       </c>
       <c r="B174" s="3" t="s">
-        <v>148</v>
+        <v>325</v>
       </c>
       <c r="C174" s="3" t="s">
-        <v>149</v>
+        <v>326</v>
       </c>
       <c r="D174" s="4">
-        <v>4301190014</v>
+        <v>4301131018</v>
       </c>
       <c r="E174" s="3">
-        <v>4607111037053</v>
+        <v>4607111037930</v>
       </c>
       <c r="F174" s="5" t="s">
-        <v>150</v>
+        <v>327</v>
       </c>
       <c r="G174" s="6"/>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" s="11" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>506</v>
+        <v>461</v>
       </c>
       <c r="C175" s="3" t="s">
-        <v>507</v>
+        <v>462</v>
       </c>
       <c r="D175" s="4">
-        <v>4301190023</v>
+        <v>4301131019</v>
       </c>
       <c r="E175" s="3">
-        <v>4607111037060</v>
+        <v>4640242180427</v>
       </c>
       <c r="F175" s="5" t="s">
-        <v>508</v>
+        <v>463</v>
       </c>
       <c r="G175" s="6"/>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" s="11" t="s">
-        <v>428</v>
+        <v>197</v>
       </c>
       <c r="B176" s="3" t="s">
-        <v>506</v>
+        <v>148</v>
       </c>
       <c r="C176" s="3" t="s">
-        <v>507</v>
+        <v>149</v>
       </c>
       <c r="D176" s="4">
-        <v>4301190023</v>
+        <v>4301190014</v>
       </c>
       <c r="E176" s="3">
-        <v>4607111037060</v>
+        <v>4607111037053</v>
       </c>
       <c r="F176" s="5" t="s">
-        <v>508</v>
+        <v>150</v>
       </c>
       <c r="G176" s="6"/>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177" s="11" t="s">
-        <v>142</v>
+        <v>427</v>
       </c>
       <c r="B177" s="3" t="s">
-        <v>506</v>
+        <v>148</v>
       </c>
       <c r="C177" s="3" t="s">
-        <v>507</v>
+        <v>149</v>
       </c>
       <c r="D177" s="4">
-        <v>4301190023</v>
+        <v>4301190014</v>
       </c>
       <c r="E177" s="3">
-        <v>4607111037060</v>
+        <v>4607111037053</v>
       </c>
       <c r="F177" s="5" t="s">
-        <v>508</v>
-      </c>
-      <c r="G177" s="1"/>
+        <v>150</v>
+      </c>
+      <c r="G177" s="6"/>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178" s="11" t="s">
-        <v>538</v>
+        <v>141</v>
       </c>
       <c r="B178" s="3" t="s">
-        <v>218</v>
+        <v>148</v>
       </c>
       <c r="C178" s="3" t="s">
-        <v>219</v>
+        <v>149</v>
       </c>
       <c r="D178" s="4">
-        <v>4301135053</v>
+        <v>4301190014</v>
       </c>
       <c r="E178" s="3">
-        <v>4607111036407</v>
+        <v>4607111037053</v>
       </c>
       <c r="F178" s="5" t="s">
-        <v>220</v>
-      </c>
-      <c r="G178" s="1"/>
+        <v>150</v>
+      </c>
+      <c r="G178" s="6"/>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179" s="11" t="s">
-        <v>221</v>
+        <v>198</v>
       </c>
       <c r="B179" s="3" t="s">
-        <v>218</v>
+        <v>506</v>
       </c>
       <c r="C179" s="3" t="s">
-        <v>219</v>
+        <v>507</v>
       </c>
       <c r="D179" s="4">
-        <v>4301135053</v>
+        <v>4301190023</v>
       </c>
       <c r="E179" s="3">
-        <v>4607111036407</v>
+        <v>4607111037060</v>
       </c>
       <c r="F179" s="5" t="s">
-        <v>220</v>
-      </c>
-      <c r="G179" s="1"/>
+        <v>508</v>
+      </c>
+      <c r="G179" s="6"/>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180" s="11" t="s">
-        <v>93</v>
+        <v>428</v>
       </c>
       <c r="B180" s="3" t="s">
-        <v>131</v>
+        <v>506</v>
       </c>
       <c r="C180" s="3" t="s">
-        <v>199</v>
+        <v>507</v>
       </c>
       <c r="D180" s="4">
-        <v>4301135162</v>
+        <v>4301190023</v>
       </c>
       <c r="E180" s="3">
-        <v>4607111034014</v>
+        <v>4607111037060</v>
       </c>
       <c r="F180" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="G180" s="1"/>
+        <v>508</v>
+      </c>
+      <c r="G180" s="6"/>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181" s="11" t="s">
-        <v>435</v>
+        <v>142</v>
       </c>
       <c r="B181" s="3" t="s">
-        <v>131</v>
+        <v>506</v>
       </c>
       <c r="C181" s="3" t="s">
-        <v>199</v>
+        <v>507</v>
       </c>
       <c r="D181" s="4">
-        <v>4301135162</v>
+        <v>4301190023</v>
       </c>
       <c r="E181" s="3">
-        <v>4607111034014</v>
+        <v>4607111037060</v>
       </c>
       <c r="F181" s="5" t="s">
-        <v>132</v>
+        <v>508</v>
       </c>
       <c r="G181" s="1"/>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182" s="11" t="s">
-        <v>252</v>
+        <v>538</v>
       </c>
       <c r="B182" s="3" t="s">
-        <v>131</v>
+        <v>218</v>
       </c>
       <c r="C182" s="3" t="s">
-        <v>199</v>
+        <v>219</v>
       </c>
       <c r="D182" s="4">
-        <v>4301135162</v>
+        <v>4301135053</v>
       </c>
       <c r="E182" s="3">
-        <v>4607111034014</v>
+        <v>4607111036407</v>
       </c>
       <c r="F182" s="5" t="s">
-        <v>281</v>
+        <v>220</v>
       </c>
       <c r="G182" s="1"/>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183" s="11" t="s">
-        <v>253</v>
+        <v>221</v>
       </c>
       <c r="B183" s="3" t="s">
-        <v>133</v>
+        <v>218</v>
       </c>
       <c r="C183" s="3" t="s">
-        <v>134</v>
+        <v>219</v>
       </c>
       <c r="D183" s="4">
-        <v>4301135117</v>
+        <v>4301135053</v>
       </c>
       <c r="E183" s="3">
-        <v>4607111033994</v>
+        <v>4607111036407</v>
       </c>
       <c r="F183" s="5" t="s">
-        <v>135</v>
+        <v>220</v>
       </c>
       <c r="G183" s="1"/>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184" s="11" t="s">
-        <v>135</v>
+        <v>93</v>
       </c>
       <c r="B184" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C184" s="3" t="s">
-        <v>134</v>
+        <v>199</v>
       </c>
       <c r="D184" s="4">
-        <v>4301135117</v>
+        <v>4301135162</v>
       </c>
       <c r="E184" s="3">
-        <v>4607111033994</v>
+        <v>4607111034014</v>
       </c>
       <c r="F184" s="5" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="G184" s="1"/>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185" s="11" t="s">
-        <v>94</v>
+        <v>435</v>
       </c>
       <c r="B185" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C185" s="3" t="s">
-        <v>134</v>
+        <v>199</v>
       </c>
       <c r="D185" s="4">
-        <v>4301135117</v>
+        <v>4301135162</v>
       </c>
       <c r="E185" s="3">
-        <v>4607111033994</v>
+        <v>4607111034014</v>
       </c>
       <c r="F185" s="5" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="G185" s="1"/>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186" s="11" t="s">
-        <v>200</v>
+        <v>252</v>
       </c>
       <c r="B186" s="3" t="s">
-        <v>370</v>
+        <v>131</v>
       </c>
       <c r="C186" s="3" t="s">
-        <v>371</v>
+        <v>199</v>
       </c>
       <c r="D186" s="4">
-        <v>4301136028</v>
+        <v>4301135162</v>
       </c>
       <c r="E186" s="3">
-        <v>4640242180304</v>
+        <v>4607111034014</v>
       </c>
       <c r="F186" s="5" t="s">
-        <v>372</v>
+        <v>281</v>
       </c>
       <c r="G186" s="1"/>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187" s="11" t="s">
-        <v>433</v>
+        <v>253</v>
       </c>
       <c r="B187" s="3" t="s">
-        <v>370</v>
+        <v>133</v>
       </c>
       <c r="C187" s="3" t="s">
-        <v>371</v>
+        <v>134</v>
       </c>
       <c r="D187" s="4">
-        <v>4301136028</v>
+        <v>4301135117</v>
       </c>
       <c r="E187" s="3">
-        <v>4640242180304</v>
+        <v>4607111033994</v>
       </c>
       <c r="F187" s="5" t="s">
-        <v>372</v>
+        <v>135</v>
       </c>
       <c r="G187" s="1"/>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188" s="11" t="s">
-        <v>509</v>
+        <v>135</v>
       </c>
       <c r="B188" s="3" t="s">
-        <v>370</v>
+        <v>133</v>
       </c>
       <c r="C188" s="3" t="s">
-        <v>371</v>
+        <v>134</v>
       </c>
       <c r="D188" s="4">
-        <v>4301136028</v>
+        <v>4301135117</v>
       </c>
       <c r="E188" s="3">
-        <v>4640242180304</v>
+        <v>4607111033994</v>
       </c>
       <c r="F188" s="5" t="s">
-        <v>372</v>
+        <v>135</v>
       </c>
       <c r="G188" s="1"/>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189" s="11" t="s">
-        <v>143</v>
+        <v>94</v>
       </c>
       <c r="B189" s="3" t="s">
-        <v>370</v>
+        <v>133</v>
       </c>
       <c r="C189" s="3" t="s">
-        <v>371</v>
+        <v>134</v>
       </c>
       <c r="D189" s="4">
-        <v>4301136028</v>
+        <v>4301135117</v>
       </c>
       <c r="E189" s="3">
-        <v>4640242180304</v>
+        <v>4607111033994</v>
       </c>
       <c r="F189" s="5" t="s">
-        <v>372</v>
+        <v>135</v>
       </c>
       <c r="G189" s="1"/>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190" s="11" t="s">
-        <v>432</v>
+        <v>200</v>
       </c>
       <c r="B190" s="3" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="C190" s="3" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="D190" s="4">
-        <v>4301136026</v>
+        <v>4301136028</v>
       </c>
       <c r="E190" s="3">
-        <v>4640242180236</v>
+        <v>4640242180304</v>
       </c>
       <c r="F190" s="5" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G190" s="1"/>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191" s="11" t="s">
-        <v>480</v>
+        <v>433</v>
       </c>
       <c r="B191" s="3" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="C191" s="3" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="D191" s="4">
-        <v>4301136026</v>
+        <v>4301136028</v>
       </c>
       <c r="E191" s="3">
-        <v>4640242180236</v>
+        <v>4640242180304</v>
       </c>
       <c r="F191" s="5" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G191" s="1"/>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192" s="11" t="s">
-        <v>464</v>
+        <v>509</v>
       </c>
       <c r="B192" s="3" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="C192" s="3" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="D192" s="4">
-        <v>4301136026</v>
+        <v>4301136028</v>
       </c>
       <c r="E192" s="3">
-        <v>4640242180236</v>
+        <v>4640242180304</v>
       </c>
       <c r="F192" s="5" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G192" s="1"/>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193" s="11" t="s">
-        <v>95</v>
+        <v>143</v>
       </c>
       <c r="B193" s="3" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="C193" s="3" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="D193" s="4">
-        <v>4301136026</v>
+        <v>4301136028</v>
       </c>
       <c r="E193" s="3">
-        <v>4640242180236</v>
+        <v>4640242180304</v>
       </c>
       <c r="F193" s="5" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G193" s="1"/>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194" s="11" t="s">
-        <v>311</v>
+        <v>432</v>
       </c>
       <c r="B194" s="3" t="s">
-        <v>488</v>
+        <v>373</v>
       </c>
       <c r="C194" s="3" t="s">
-        <v>489</v>
+        <v>374</v>
       </c>
       <c r="D194" s="4">
-        <v>4301135194</v>
+        <v>4301136026</v>
       </c>
       <c r="E194" s="3">
-        <v>4640242180380</v>
+        <v>4640242180236</v>
       </c>
       <c r="F194" s="5" t="s">
-        <v>490</v>
+        <v>375</v>
       </c>
       <c r="G194" s="1"/>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195" s="11" t="s">
-        <v>494</v>
+        <v>480</v>
       </c>
       <c r="B195" s="3" t="s">
-        <v>488</v>
+        <v>373</v>
       </c>
       <c r="C195" s="3" t="s">
-        <v>489</v>
+        <v>374</v>
       </c>
       <c r="D195" s="4">
-        <v>4301135194</v>
+        <v>4301136026</v>
       </c>
       <c r="E195" s="3">
-        <v>4640242180380</v>
+        <v>4640242180236</v>
       </c>
       <c r="F195" s="5" t="s">
-        <v>490</v>
+        <v>375</v>
       </c>
       <c r="G195" s="1"/>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196" s="11" t="s">
-        <v>136</v>
+        <v>464</v>
       </c>
       <c r="B196" s="3" t="s">
-        <v>488</v>
+        <v>373</v>
       </c>
       <c r="C196" s="3" t="s">
-        <v>489</v>
+        <v>374</v>
       </c>
       <c r="D196" s="4">
-        <v>4301135194</v>
+        <v>4301136026</v>
       </c>
       <c r="E196" s="3">
-        <v>4640242180380</v>
+        <v>4640242180236</v>
       </c>
       <c r="F196" s="5" t="s">
-        <v>490</v>
+        <v>375</v>
       </c>
       <c r="G196" s="1"/>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197" s="11" t="s">
-        <v>287</v>
+        <v>95</v>
       </c>
       <c r="B197" s="3" t="s">
-        <v>488</v>
+        <v>373</v>
       </c>
       <c r="C197" s="3" t="s">
-        <v>489</v>
+        <v>374</v>
       </c>
       <c r="D197" s="4">
-        <v>4301135194</v>
+        <v>4301136026</v>
       </c>
       <c r="E197" s="3">
-        <v>4640242180380</v>
+        <v>4640242180236</v>
       </c>
       <c r="F197" s="5" t="s">
-        <v>490</v>
+        <v>375</v>
       </c>
       <c r="G197" s="1"/>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198" s="11" t="s">
-        <v>338</v>
+        <v>311</v>
       </c>
       <c r="B198" s="3" t="s">
-        <v>290</v>
+        <v>488</v>
       </c>
       <c r="C198" s="3" t="s">
-        <v>291</v>
+        <v>489</v>
       </c>
       <c r="D198" s="4">
-        <v>4301070915</v>
+        <v>4301135194</v>
       </c>
       <c r="E198" s="3">
-        <v>4607111035882</v>
+        <v>4640242180380</v>
       </c>
       <c r="F198" s="5" t="s">
-        <v>292</v>
+        <v>490</v>
       </c>
       <c r="G198" s="1"/>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A199" s="11" t="s">
-        <v>404</v>
+        <v>494</v>
       </c>
       <c r="B199" s="3" t="s">
-        <v>290</v>
+        <v>488</v>
       </c>
       <c r="C199" s="3" t="s">
-        <v>291</v>
+        <v>489</v>
       </c>
       <c r="D199" s="4">
-        <v>4301070915</v>
+        <v>4301135194</v>
       </c>
       <c r="E199" s="3">
-        <v>4607111035882</v>
+        <v>4640242180380</v>
       </c>
       <c r="F199" s="5" t="s">
-        <v>292</v>
+        <v>490</v>
       </c>
       <c r="G199" s="1"/>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200" s="11" t="s">
-        <v>292</v>
+        <v>136</v>
       </c>
       <c r="B200" s="3" t="s">
-        <v>290</v>
+        <v>488</v>
       </c>
       <c r="C200" s="3" t="s">
-        <v>291</v>
+        <v>489</v>
       </c>
       <c r="D200" s="4">
-        <v>4301070915</v>
+        <v>4301135194</v>
       </c>
       <c r="E200" s="3">
-        <v>4607111035882</v>
+        <v>4640242180380</v>
       </c>
       <c r="F200" s="5" t="s">
-        <v>292</v>
+        <v>490</v>
       </c>
       <c r="G200" s="1"/>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A201" s="11" t="s">
-        <v>405</v>
+        <v>287</v>
       </c>
       <c r="B201" s="3" t="s">
-        <v>293</v>
+        <v>488</v>
       </c>
       <c r="C201" s="3" t="s">
-        <v>294</v>
+        <v>489</v>
       </c>
       <c r="D201" s="4">
-        <v>4301070874</v>
+        <v>4301135194</v>
       </c>
       <c r="E201" s="3">
-        <v>4607111035332</v>
+        <v>4640242180380</v>
       </c>
       <c r="F201" s="5" t="s">
-        <v>295</v>
+        <v>490</v>
       </c>
       <c r="G201" s="1"/>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A202" s="11" t="s">
-        <v>497</v>
+        <v>338</v>
       </c>
       <c r="B202" s="3" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="C202" s="3" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="D202" s="4">
-        <v>4301070874</v>
+        <v>4301070915</v>
       </c>
       <c r="E202" s="3">
-        <v>4607111035332</v>
+        <v>4607111035882</v>
       </c>
       <c r="F202" s="5" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="G202" s="1"/>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A203" s="11" t="s">
-        <v>295</v>
+        <v>404</v>
       </c>
       <c r="B203" s="3" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="C203" s="3" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="D203" s="4">
-        <v>4301070874</v>
+        <v>4301070915</v>
       </c>
       <c r="E203" s="3">
-        <v>4607111035332</v>
+        <v>4607111035882</v>
       </c>
       <c r="F203" s="5" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="G203" s="1"/>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A204" s="11" t="s">
-        <v>320</v>
+        <v>292</v>
       </c>
       <c r="B204" s="3" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="C204" s="3" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="D204" s="4">
-        <v>4301136014</v>
+        <v>4301070915</v>
       </c>
       <c r="E204" s="3">
-        <v>4607111035370</v>
+        <v>4607111035882</v>
       </c>
       <c r="F204" s="5" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="G204" s="1"/>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A205" s="11" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="B205" s="3" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="C205" s="3" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="D205" s="4">
-        <v>4301136014</v>
+        <v>4301070874</v>
       </c>
       <c r="E205" s="3">
-        <v>4607111035370</v>
+        <v>4607111035332</v>
       </c>
       <c r="F205" s="5" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="G205" s="1"/>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A206" s="11" t="s">
-        <v>298</v>
+        <v>497</v>
       </c>
       <c r="B206" s="3" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="C206" s="3" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="D206" s="4">
-        <v>4301136014</v>
+        <v>4301070874</v>
       </c>
       <c r="E206" s="3">
-        <v>4607111035370</v>
+        <v>4607111035332</v>
       </c>
       <c r="F206" s="5" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="G206" s="1"/>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A207" s="11" t="s">
-        <v>319</v>
+        <v>295</v>
       </c>
       <c r="B207" s="3" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="C207" s="3" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="D207" s="4">
-        <v>4301051320</v>
+        <v>4301070874</v>
       </c>
       <c r="E207" s="3">
-        <v>4680115881334</v>
+        <v>4607111035332</v>
       </c>
       <c r="F207" s="5" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="G207" s="1"/>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A208" s="11" t="s">
-        <v>336</v>
+        <v>320</v>
       </c>
       <c r="B208" s="3" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="C208" s="3" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="D208" s="4">
-        <v>4301051320</v>
+        <v>4301136014</v>
       </c>
       <c r="E208" s="3">
-        <v>4680115881334</v>
+        <v>4607111035370</v>
       </c>
       <c r="F208" s="5" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="G208" s="1"/>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A209" s="11" t="s">
-        <v>306</v>
+        <v>410</v>
       </c>
       <c r="B209" s="3" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="C209" s="3" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="D209" s="4">
-        <v>4301051320</v>
+        <v>4301136014</v>
       </c>
       <c r="E209" s="3">
-        <v>4680115881334</v>
+        <v>4607111035370</v>
       </c>
       <c r="F209" s="5" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="G209" s="1"/>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A210" s="11" t="s">
-        <v>310</v>
+        <v>298</v>
       </c>
       <c r="B210" s="3" t="s">
-        <v>307</v>
+        <v>296</v>
       </c>
       <c r="C210" s="3" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="D210" s="4">
-        <v>4301051319</v>
+        <v>4301136014</v>
       </c>
       <c r="E210" s="3">
-        <v>4680115881204</v>
+        <v>4607111035370</v>
       </c>
       <c r="F210" s="5" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
       <c r="G210" s="1"/>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A211" s="11" t="s">
-        <v>339</v>
+        <v>319</v>
       </c>
       <c r="B211" s="3" t="s">
-        <v>379</v>
+        <v>303</v>
       </c>
       <c r="C211" s="3" t="s">
-        <v>380</v>
+        <v>304</v>
       </c>
       <c r="D211" s="4">
-        <v>4301136027</v>
+        <v>4301051320</v>
       </c>
       <c r="E211" s="3">
-        <v>4640242180298</v>
+        <v>4680115881334</v>
       </c>
       <c r="F211" s="5" t="s">
-        <v>381</v>
+        <v>305</v>
       </c>
       <c r="G211" s="1"/>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A212" s="11" t="s">
-        <v>499</v>
+        <v>336</v>
       </c>
       <c r="B212" s="3" t="s">
-        <v>389</v>
+        <v>303</v>
       </c>
       <c r="C212" s="3" t="s">
-        <v>390</v>
+        <v>304</v>
       </c>
       <c r="D212" s="4">
-        <v>4301130003</v>
+        <v>4301051320</v>
       </c>
       <c r="E212" s="3">
-        <v>4607111034687</v>
+        <v>4680115881334</v>
       </c>
       <c r="F212" s="5" t="s">
-        <v>391</v>
+        <v>305</v>
       </c>
       <c r="G212" s="1"/>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A213" s="11" t="s">
-        <v>388</v>
+        <v>306</v>
       </c>
       <c r="B213" s="3" t="s">
-        <v>389</v>
+        <v>303</v>
       </c>
       <c r="C213" s="3" t="s">
-        <v>390</v>
+        <v>304</v>
       </c>
       <c r="D213" s="4">
-        <v>4301130003</v>
+        <v>4301051320</v>
       </c>
       <c r="E213" s="3">
-        <v>4607111034687</v>
+        <v>4680115881334</v>
       </c>
       <c r="F213" s="5" t="s">
-        <v>391</v>
+        <v>305</v>
       </c>
       <c r="G213" s="1"/>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A214" s="11" t="s">
-        <v>394</v>
+        <v>310</v>
       </c>
       <c r="B214" s="3" t="s">
-        <v>395</v>
+        <v>307</v>
       </c>
       <c r="C214" s="3" t="s">
-        <v>396</v>
+        <v>308</v>
       </c>
       <c r="D214" s="4">
-        <v>4301070977</v>
+        <v>4301051319</v>
       </c>
       <c r="E214" s="3">
-        <v>4607111037411</v>
+        <v>4680115881204</v>
       </c>
       <c r="F214" s="5" t="s">
-        <v>397</v>
+        <v>309</v>
       </c>
       <c r="G214" s="1"/>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A215" s="11" t="s">
-        <v>441</v>
+        <v>339</v>
       </c>
       <c r="B215" s="3" t="s">
-        <v>401</v>
+        <v>379</v>
       </c>
       <c r="C215" s="3" t="s">
-        <v>402</v>
+        <v>380</v>
       </c>
       <c r="D215" s="4">
-        <v>4301070871</v>
+        <v>4301136027</v>
       </c>
       <c r="E215" s="3">
-        <v>4607111036384</v>
+        <v>4640242180298</v>
       </c>
       <c r="F215" s="5" t="s">
-        <v>403</v>
+        <v>381</v>
       </c>
       <c r="G215" s="1"/>
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A216" s="11" t="s">
-        <v>400</v>
+        <v>499</v>
       </c>
       <c r="B216" s="3" t="s">
-        <v>401</v>
+        <v>389</v>
       </c>
       <c r="C216" s="3" t="s">
-        <v>402</v>
+        <v>390</v>
       </c>
       <c r="D216" s="4">
-        <v>4301070871</v>
+        <v>4301130003</v>
       </c>
       <c r="E216" s="3">
-        <v>4607111036384</v>
+        <v>4607111034687</v>
       </c>
       <c r="F216" s="5" t="s">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="G216" s="1"/>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A217" s="11" t="s">
-        <v>501</v>
+        <v>388</v>
       </c>
       <c r="B217" s="3" t="s">
-        <v>407</v>
+        <v>389</v>
       </c>
       <c r="C217" s="3" t="s">
-        <v>408</v>
+        <v>390</v>
       </c>
       <c r="D217" s="4">
-        <v>4301135111</v>
+        <v>4301130003</v>
       </c>
       <c r="E217" s="3">
-        <v>4607111035028</v>
+        <v>4607111034687</v>
       </c>
       <c r="F217" s="5" t="s">
-        <v>409</v>
+        <v>391</v>
       </c>
       <c r="G217" s="1"/>
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A218" s="11" t="s">
-        <v>406</v>
+        <v>394</v>
       </c>
       <c r="B218" s="3" t="s">
-        <v>407</v>
+        <v>395</v>
       </c>
       <c r="C218" s="3" t="s">
-        <v>408</v>
+        <v>396</v>
       </c>
       <c r="D218" s="4">
-        <v>4301135111</v>
+        <v>4301070977</v>
       </c>
       <c r="E218" s="3">
-        <v>4607111035028</v>
+        <v>4607111037411</v>
       </c>
       <c r="F218" s="5" t="s">
-        <v>409</v>
+        <v>397</v>
       </c>
       <c r="G218" s="1"/>
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A219" s="11" t="s">
-        <v>523</v>
+        <v>441</v>
       </c>
       <c r="B219" s="3" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="C219" s="3" t="s">
-        <v>415</v>
+        <v>402</v>
       </c>
       <c r="D219" s="4">
-        <v>4301130006</v>
+        <v>4301070871</v>
       </c>
       <c r="E219" s="3">
-        <v>4607111034670</v>
+        <v>4607111036384</v>
       </c>
       <c r="F219" s="5" t="s">
-        <v>416</v>
+        <v>403</v>
       </c>
       <c r="G219" s="1"/>
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A220" s="11" t="s">
-        <v>413</v>
+        <v>400</v>
       </c>
       <c r="B220" s="3" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="C220" s="3" t="s">
-        <v>415</v>
+        <v>402</v>
       </c>
       <c r="D220" s="4">
-        <v>4301130006</v>
+        <v>4301070871</v>
       </c>
       <c r="E220" s="3">
-        <v>4607111034670</v>
+        <v>4607111036384</v>
       </c>
       <c r="F220" s="5" t="s">
-        <v>416</v>
+        <v>403</v>
       </c>
       <c r="G220" s="1"/>
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A221" s="11" t="s">
-        <v>525</v>
+        <v>501</v>
       </c>
       <c r="B221" s="3" t="s">
-        <v>420</v>
+        <v>407</v>
       </c>
       <c r="C221" s="3" t="s">
-        <v>421</v>
+        <v>408</v>
       </c>
       <c r="D221" s="4">
-        <v>4301070768</v>
+        <v>4301135111</v>
       </c>
       <c r="E221" s="3">
-        <v>4607111035639</v>
+        <v>4607111035028</v>
       </c>
       <c r="F221" s="5" t="s">
-        <v>422</v>
+        <v>409</v>
       </c>
       <c r="G221" s="1"/>
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A222" s="11" t="s">
-        <v>419</v>
+        <v>406</v>
       </c>
       <c r="B222" s="3" t="s">
-        <v>420</v>
+        <v>407</v>
       </c>
       <c r="C222" s="3" t="s">
-        <v>421</v>
+        <v>408</v>
       </c>
       <c r="D222" s="4">
-        <v>4301070768</v>
+        <v>4301135111</v>
       </c>
       <c r="E222" s="3">
-        <v>4607111035639</v>
+        <v>4607111035028</v>
       </c>
       <c r="F222" s="5" t="s">
-        <v>422</v>
+        <v>409</v>
       </c>
       <c r="G222" s="1"/>
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A223" s="11" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="B223" s="3" t="s">
-        <v>424</v>
+        <v>414</v>
       </c>
       <c r="C223" s="3" t="s">
-        <v>425</v>
+        <v>415</v>
       </c>
       <c r="D223" s="4">
-        <v>4301070797</v>
+        <v>4301130006</v>
       </c>
       <c r="E223" s="3">
-        <v>4607111035646</v>
+        <v>4607111034670</v>
       </c>
       <c r="F223" s="5" t="s">
-        <v>426</v>
+        <v>416</v>
       </c>
       <c r="G223" s="1"/>
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A224" s="11" t="s">
-        <v>423</v>
+        <v>413</v>
       </c>
       <c r="B224" s="3" t="s">
-        <v>424</v>
+        <v>414</v>
       </c>
       <c r="C224" s="3" t="s">
-        <v>425</v>
+        <v>415</v>
       </c>
       <c r="D224" s="4">
-        <v>4301070797</v>
+        <v>4301130006</v>
       </c>
       <c r="E224" s="3">
-        <v>4607111035646</v>
+        <v>4607111034670</v>
       </c>
       <c r="F224" s="5" t="s">
-        <v>426</v>
+        <v>416</v>
       </c>
       <c r="G224" s="1"/>
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A225" s="11" t="s">
-        <v>437</v>
+        <v>525</v>
       </c>
       <c r="B225" s="3" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="C225" s="3" t="s">
-        <v>439</v>
+        <v>421</v>
       </c>
       <c r="D225" s="4">
-        <v>4301080154</v>
+        <v>4301070768</v>
       </c>
       <c r="E225" s="3">
-        <v>4607111036834</v>
+        <v>4607111035639</v>
       </c>
       <c r="F225" s="5" t="s">
-        <v>440</v>
+        <v>422</v>
       </c>
       <c r="G225" s="1"/>
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A226" s="11" t="s">
-        <v>445</v>
+        <v>419</v>
       </c>
       <c r="B226" s="3" t="s">
-        <v>446</v>
+        <v>420</v>
       </c>
       <c r="C226" s="3" t="s">
-        <v>447</v>
+        <v>421</v>
       </c>
       <c r="D226" s="4">
-        <v>4301070941</v>
+        <v>4301070768</v>
       </c>
       <c r="E226" s="3">
-        <v>4607111036162</v>
+        <v>4607111035639</v>
       </c>
       <c r="F226" s="5" t="s">
-        <v>448</v>
+        <v>422</v>
       </c>
       <c r="G226" s="1"/>
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A227" s="11" t="s">
-        <v>449</v>
+        <v>526</v>
       </c>
       <c r="B227" s="3" t="s">
-        <v>450</v>
+        <v>424</v>
       </c>
       <c r="C227" s="3" t="s">
-        <v>451</v>
+        <v>425</v>
       </c>
       <c r="D227" s="4">
-        <v>4301070826</v>
+        <v>4301070797</v>
       </c>
       <c r="E227" s="3">
-        <v>4607111035752</v>
+        <v>4607111035646</v>
       </c>
       <c r="F227" s="5" t="s">
-        <v>452</v>
+        <v>426</v>
       </c>
       <c r="G227" s="1"/>
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A228" s="11" t="s">
-        <v>492</v>
+        <v>423</v>
       </c>
       <c r="B228" s="3" t="s">
-        <v>454</v>
+        <v>424</v>
       </c>
       <c r="C228" s="3" t="s">
-        <v>455</v>
+        <v>425</v>
       </c>
       <c r="D228" s="4">
-        <v>4301070966</v>
+        <v>4301070797</v>
       </c>
       <c r="E228" s="3">
-        <v>4607111038135</v>
+        <v>4607111035646</v>
       </c>
       <c r="F228" s="5" t="s">
-        <v>453</v>
+        <v>426</v>
       </c>
       <c r="G228" s="1"/>
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A229" s="11" t="s">
-        <v>453</v>
+        <v>437</v>
       </c>
       <c r="B229" s="3" t="s">
-        <v>454</v>
+        <v>438</v>
       </c>
       <c r="C229" s="3" t="s">
-        <v>455</v>
+        <v>439</v>
       </c>
       <c r="D229" s="4">
-        <v>4301070966</v>
+        <v>4301080154</v>
       </c>
       <c r="E229" s="3">
-        <v>4607111038135</v>
+        <v>4607111036834</v>
       </c>
       <c r="F229" s="5" t="s">
-        <v>453</v>
+        <v>440</v>
       </c>
       <c r="G229" s="1"/>
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A230" s="11" t="s">
-        <v>456</v>
+        <v>445</v>
       </c>
       <c r="B230" s="3" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="C230" s="3" t="s">
-        <v>458</v>
+        <v>447</v>
       </c>
       <c r="D230" s="4">
-        <v>4301070911</v>
+        <v>4301070941</v>
       </c>
       <c r="E230" s="3">
-        <v>4607111036278</v>
+        <v>4607111036162</v>
       </c>
       <c r="F230" s="5" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
       <c r="G230" s="1"/>
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A231" s="11" t="s">
-        <v>481</v>
+        <v>449</v>
       </c>
       <c r="B231" s="3" t="s">
-        <v>461</v>
+        <v>450</v>
       </c>
       <c r="C231" s="3" t="s">
-        <v>462</v>
+        <v>451</v>
       </c>
       <c r="D231" s="4">
-        <v>4301131019</v>
+        <v>4301070826</v>
       </c>
       <c r="E231" s="3">
-        <v>4640242180427</v>
+        <v>4607111035752</v>
       </c>
       <c r="F231" s="5" t="s">
-        <v>463</v>
+        <v>452</v>
       </c>
       <c r="G231" s="1"/>
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A232" s="11" t="s">
-        <v>460</v>
+        <v>492</v>
       </c>
       <c r="B232" s="3" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="C232" s="3" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="D232" s="4">
-        <v>4301131019</v>
+        <v>4301070966</v>
       </c>
       <c r="E232" s="3">
-        <v>4640242180427</v>
+        <v>4607111038135</v>
       </c>
       <c r="F232" s="5" t="s">
-        <v>463</v>
+        <v>453</v>
       </c>
       <c r="G232" s="1"/>
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A233" s="11" t="s">
-        <v>517</v>
+        <v>546</v>
       </c>
       <c r="B233" s="3" t="s">
-        <v>518</v>
+        <v>454</v>
       </c>
       <c r="C233" s="3" t="s">
-        <v>519</v>
+        <v>455</v>
       </c>
       <c r="D233" s="4">
-        <v>4301132079</v>
+        <v>4301070966</v>
       </c>
       <c r="E233" s="3">
-        <v>4607111038487</v>
+        <v>4607111038135</v>
       </c>
       <c r="F233" s="5" t="s">
-        <v>520</v>
+        <v>453</v>
       </c>
       <c r="G233" s="1"/>
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A234" s="11" t="s">
-        <v>529</v>
+        <v>453</v>
       </c>
       <c r="B234" s="3" t="s">
-        <v>530</v>
+        <v>454</v>
       </c>
       <c r="C234" s="3" t="s">
-        <v>531</v>
+        <v>455</v>
       </c>
       <c r="D234" s="4">
-        <v>4301070884</v>
+        <v>4301070966</v>
       </c>
       <c r="E234" s="3">
-        <v>4607111036315</v>
+        <v>4607111038135</v>
       </c>
       <c r="F234" s="5" t="s">
-        <v>532</v>
+        <v>453</v>
       </c>
       <c r="G234" s="1"/>
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A235" s="11" t="s">
+        <v>456</v>
+      </c>
+      <c r="B235" s="3" t="s">
+        <v>457</v>
+      </c>
+      <c r="C235" s="3" t="s">
+        <v>458</v>
+      </c>
+      <c r="D235" s="4">
+        <v>4301070911</v>
+      </c>
+      <c r="E235" s="3">
+        <v>4607111036278</v>
+      </c>
+      <c r="F235" s="5" t="s">
+        <v>456</v>
+      </c>
+      <c r="G235" s="1"/>
+    </row>
+    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A236" s="11" t="s">
+        <v>481</v>
+      </c>
+      <c r="B236" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="C236" s="3" t="s">
+        <v>462</v>
+      </c>
+      <c r="D236" s="4">
+        <v>4301131019</v>
+      </c>
+      <c r="E236" s="3">
+        <v>4640242180427</v>
+      </c>
+      <c r="F236" s="5" t="s">
+        <v>463</v>
+      </c>
+      <c r="G236" s="1"/>
+    </row>
+    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A237" s="11" t="s">
+        <v>460</v>
+      </c>
+      <c r="B237" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="C237" s="3" t="s">
+        <v>462</v>
+      </c>
+      <c r="D237" s="4">
+        <v>4301131019</v>
+      </c>
+      <c r="E237" s="3">
+        <v>4640242180427</v>
+      </c>
+      <c r="F237" s="5" t="s">
+        <v>463</v>
+      </c>
+      <c r="G237" s="1"/>
+    </row>
+    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A238" s="11" t="s">
+        <v>517</v>
+      </c>
+      <c r="B238" s="3" t="s">
+        <v>518</v>
+      </c>
+      <c r="C238" s="3" t="s">
+        <v>519</v>
+      </c>
+      <c r="D238" s="4">
+        <v>4301132079</v>
+      </c>
+      <c r="E238" s="3">
+        <v>4607111038487</v>
+      </c>
+      <c r="F238" s="5" t="s">
+        <v>520</v>
+      </c>
+      <c r="G238" s="1"/>
+    </row>
+    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A239" s="11" t="s">
+        <v>529</v>
+      </c>
+      <c r="B239" s="3" t="s">
+        <v>530</v>
+      </c>
+      <c r="C239" s="3" t="s">
+        <v>531</v>
+      </c>
+      <c r="D239" s="4">
+        <v>4301070884</v>
+      </c>
+      <c r="E239" s="3">
+        <v>4607111036315</v>
+      </c>
+      <c r="F239" s="5" t="s">
+        <v>532</v>
+      </c>
+      <c r="G239" s="1"/>
+    </row>
+    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A240" s="11" t="s">
         <v>534</v>
       </c>
-      <c r="B235" s="3" t="s">
+      <c r="B240" s="3" t="s">
         <v>535</v>
       </c>
-      <c r="C235" s="3" t="s">
+      <c r="C240" s="3" t="s">
         <v>536</v>
       </c>
-      <c r="D235" s="4">
+      <c r="D240" s="4">
         <v>4301133002</v>
       </c>
-      <c r="E235" s="3">
+      <c r="E240" s="3">
         <v>4607111035783</v>
       </c>
-      <c r="F235" s="5" t="s">
+      <c r="F240" s="5" t="s">
         <v>537</v>
       </c>
-      <c r="G235" s="1"/>
-    </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A236" s="11"/>
-      <c r="B236" s="3"/>
-      <c r="C236" s="3"/>
-      <c r="D236" s="4"/>
-      <c r="E236" s="3"/>
-      <c r="F236" s="5"/>
-      <c r="G236" s="1"/>
-    </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A237" s="11"/>
-      <c r="B237" s="3"/>
-      <c r="C237" s="3"/>
-      <c r="D237" s="4"/>
-      <c r="E237" s="3"/>
-      <c r="F237" s="5"/>
-      <c r="G237" s="1"/>
-    </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A238" s="11"/>
-      <c r="B238" s="3"/>
-      <c r="C238" s="3"/>
-      <c r="D238" s="4"/>
-      <c r="E238" s="3"/>
-      <c r="F238" s="5"/>
-      <c r="G238" s="1"/>
-    </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A239" s="11"/>
-      <c r="B239" s="3"/>
-      <c r="C239" s="3"/>
-      <c r="D239" s="4"/>
-      <c r="E239" s="3"/>
-      <c r="F239" s="5"/>
-      <c r="G239" s="1"/>
-    </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A240" s="11"/>
-      <c r="B240" s="3"/>
-      <c r="C240" s="3"/>
-      <c r="D240" s="4"/>
-      <c r="E240" s="3"/>
-      <c r="F240" s="5"/>
       <c r="G240" s="1"/>
     </row>
     <row r="241" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A241" s="11"/>
-      <c r="B241" s="3"/>
-      <c r="C241" s="3"/>
-      <c r="D241" s="4"/>
-      <c r="E241" s="3"/>
-      <c r="F241" s="5"/>
+      <c r="A241" s="11" t="s">
+        <v>540</v>
+      </c>
+      <c r="B241" s="3" t="s">
+        <v>541</v>
+      </c>
+      <c r="C241" s="3" t="s">
+        <v>542</v>
+      </c>
+      <c r="D241" s="4">
+        <v>4301070958</v>
+      </c>
+      <c r="E241" s="3">
+        <v>4607111038098</v>
+      </c>
+      <c r="F241" s="5" t="s">
+        <v>543</v>
+      </c>
       <c r="G241" s="1"/>
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.25">
@@ -7152,11 +7251,11 @@
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A244" s="11"/>
-      <c r="B244" s="13"/>
-      <c r="C244" s="13"/>
-      <c r="D244" s="14"/>
-      <c r="E244" s="15"/>
-      <c r="F244" s="16"/>
+      <c r="B244" s="3"/>
+      <c r="C244" s="3"/>
+      <c r="D244" s="4"/>
+      <c r="E244" s="3"/>
+      <c r="F244" s="5"/>
       <c r="G244" s="1"/>
     </row>
     <row r="245" spans="1:7" x14ac:dyDescent="0.25">
@@ -7197,11 +7296,11 @@
     </row>
     <row r="249" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A249" s="11"/>
-      <c r="B249" s="3"/>
-      <c r="C249" s="3"/>
-      <c r="D249" s="4"/>
-      <c r="E249" s="3"/>
-      <c r="F249" s="5"/>
+      <c r="B249" s="13"/>
+      <c r="C249" s="13"/>
+      <c r="D249" s="14"/>
+      <c r="E249" s="15"/>
+      <c r="F249" s="16"/>
       <c r="G249" s="1"/>
     </row>
     <row r="250" spans="1:7" x14ac:dyDescent="0.25">
@@ -7233,11 +7332,11 @@
     </row>
     <row r="253" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A253" s="11"/>
-      <c r="B253" s="13"/>
-      <c r="C253" s="13"/>
-      <c r="D253" s="14"/>
-      <c r="E253" s="15"/>
-      <c r="F253" s="16"/>
+      <c r="B253" s="3"/>
+      <c r="C253" s="3"/>
+      <c r="D253" s="4"/>
+      <c r="E253" s="3"/>
+      <c r="F253" s="5"/>
       <c r="G253" s="1"/>
     </row>
     <row r="254" spans="1:7" x14ac:dyDescent="0.25">
@@ -7278,11 +7377,11 @@
     </row>
     <row r="258" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A258" s="11"/>
-      <c r="B258" s="3"/>
-      <c r="C258" s="3"/>
-      <c r="D258" s="4"/>
-      <c r="E258" s="3"/>
-      <c r="F258" s="5"/>
+      <c r="B258" s="13"/>
+      <c r="C258" s="13"/>
+      <c r="D258" s="14"/>
+      <c r="E258" s="15"/>
+      <c r="F258" s="16"/>
       <c r="G258" s="1"/>
     </row>
     <row r="259" spans="1:7" x14ac:dyDescent="0.25">
@@ -7301,7 +7400,7 @@
       <c r="D260" s="4"/>
       <c r="E260" s="3"/>
       <c r="F260" s="5"/>
-      <c r="G260" s="6"/>
+      <c r="G260" s="1"/>
     </row>
     <row r="261" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A261" s="11"/>
@@ -7346,7 +7445,7 @@
       <c r="D265" s="4"/>
       <c r="E265" s="3"/>
       <c r="F265" s="5"/>
-      <c r="G265" s="1"/>
+      <c r="G265" s="6"/>
     </row>
     <row r="266" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A266" s="11"/>
@@ -7926,35 +8025,80 @@
     </row>
     <row r="330" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A330" s="11"/>
-      <c r="B330" s="1"/>
-      <c r="C330" s="1"/>
-      <c r="D330" s="1"/>
-      <c r="E330" s="1"/>
-      <c r="F330" s="1"/>
+      <c r="B330" s="3"/>
+      <c r="C330" s="3"/>
+      <c r="D330" s="4"/>
+      <c r="E330" s="3"/>
+      <c r="F330" s="5"/>
       <c r="G330" s="1"/>
     </row>
     <row r="331" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A331" s="11"/>
-      <c r="B331" s="1"/>
-      <c r="C331" s="1"/>
-      <c r="D331" s="1"/>
-      <c r="E331" s="1"/>
-      <c r="F331" s="1"/>
+      <c r="B331" s="3"/>
+      <c r="C331" s="3"/>
+      <c r="D331" s="4"/>
+      <c r="E331" s="3"/>
+      <c r="F331" s="5"/>
       <c r="G331" s="1"/>
     </row>
     <row r="332" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A332" s="11"/>
-      <c r="B332" s="1"/>
-      <c r="C332" s="1"/>
-      <c r="D332" s="1"/>
-      <c r="E332" s="1"/>
-      <c r="F332" s="1"/>
+      <c r="B332" s="3"/>
+      <c r="C332" s="3"/>
+      <c r="D332" s="4"/>
+      <c r="E332" s="3"/>
+      <c r="F332" s="5"/>
       <c r="G332" s="1"/>
     </row>
+    <row r="333" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A333" s="11"/>
+      <c r="B333" s="3"/>
+      <c r="C333" s="3"/>
+      <c r="D333" s="4"/>
+      <c r="E333" s="3"/>
+      <c r="F333" s="5"/>
+      <c r="G333" s="1"/>
+    </row>
+    <row r="334" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A334" s="11"/>
+      <c r="B334" s="3"/>
+      <c r="C334" s="3"/>
+      <c r="D334" s="4"/>
+      <c r="E334" s="3"/>
+      <c r="F334" s="5"/>
+      <c r="G334" s="1"/>
+    </row>
+    <row r="335" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A335" s="11"/>
+      <c r="B335" s="1"/>
+      <c r="C335" s="1"/>
+      <c r="D335" s="1"/>
+      <c r="E335" s="1"/>
+      <c r="F335" s="1"/>
+      <c r="G335" s="1"/>
+    </row>
+    <row r="336" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A336" s="11"/>
+      <c r="B336" s="1"/>
+      <c r="C336" s="1"/>
+      <c r="D336" s="1"/>
+      <c r="E336" s="1"/>
+      <c r="F336" s="1"/>
+      <c r="G336" s="1"/>
+    </row>
+    <row r="337" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A337" s="11"/>
+      <c r="B337" s="1"/>
+      <c r="C337" s="1"/>
+      <c r="D337" s="1"/>
+      <c r="E337" s="1"/>
+      <c r="F337" s="1"/>
+      <c r="G337" s="1"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:F235" xr:uid="{08353A06-E006-45C7-BD45-850F7C3953DF}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F197">
-      <sortCondition ref="A1:A137"/>
+  <autoFilter ref="A1:F241" xr:uid="{08353A06-E006-45C7-BD45-850F7C3953DF}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F201">
+      <sortCondition ref="A1:A141"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/moduls/1С.xlsx
+++ b/moduls/1С.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\перенос данных\ПОКОМ ЗПФ\pokom_zpf\moduls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{303EB87C-D5CA-422D-AB97-96F586E0021C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37CA1615-BBE9-467C-AC34-2B25F1A0D704}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$F$241</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$F$242</definedName>
   </definedNames>
   <calcPr calcId="181029" refMode="R1C1"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1033" uniqueCount="548">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1037" uniqueCount="548">
   <si>
     <t>1С</t>
   </si>
@@ -2153,11 +2153,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G337"/>
+  <dimension ref="A1:G338"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G7" sqref="G7"/>
+      <selection pane="bottomLeft" activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7149,7 +7149,7 @@
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A238" s="11" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="B238" s="3" t="s">
         <v>518</v>
@@ -7170,74 +7170,86 @@
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A239" s="11" t="s">
-        <v>529</v>
+        <v>517</v>
       </c>
       <c r="B239" s="3" t="s">
-        <v>530</v>
+        <v>518</v>
       </c>
       <c r="C239" s="3" t="s">
-        <v>531</v>
+        <v>519</v>
       </c>
       <c r="D239" s="4">
-        <v>4301070884</v>
+        <v>4301132079</v>
       </c>
       <c r="E239" s="3">
-        <v>4607111036315</v>
+        <v>4607111038487</v>
       </c>
       <c r="F239" s="5" t="s">
-        <v>532</v>
+        <v>520</v>
       </c>
       <c r="G239" s="1"/>
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A240" s="11" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="B240" s="3" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="C240" s="3" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="D240" s="4">
-        <v>4301133002</v>
+        <v>4301070884</v>
       </c>
       <c r="E240" s="3">
-        <v>4607111035783</v>
+        <v>4607111036315</v>
       </c>
       <c r="F240" s="5" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="G240" s="1"/>
     </row>
     <row r="241" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A241" s="11" t="s">
+        <v>534</v>
+      </c>
+      <c r="B241" s="3" t="s">
+        <v>535</v>
+      </c>
+      <c r="C241" s="3" t="s">
+        <v>536</v>
+      </c>
+      <c r="D241" s="4">
+        <v>4301133002</v>
+      </c>
+      <c r="E241" s="3">
+        <v>4607111035783</v>
+      </c>
+      <c r="F241" s="5" t="s">
+        <v>537</v>
+      </c>
+      <c r="G241" s="1"/>
+    </row>
+    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A242" s="11" t="s">
         <v>540</v>
       </c>
-      <c r="B241" s="3" t="s">
+      <c r="B242" s="3" t="s">
         <v>541</v>
       </c>
-      <c r="C241" s="3" t="s">
+      <c r="C242" s="3" t="s">
         <v>542</v>
       </c>
-      <c r="D241" s="4">
+      <c r="D242" s="4">
         <v>4301070958</v>
       </c>
-      <c r="E241" s="3">
+      <c r="E242" s="3">
         <v>4607111038098</v>
       </c>
-      <c r="F241" s="5" t="s">
+      <c r="F242" s="5" t="s">
         <v>543</v>
       </c>
-      <c r="G241" s="1"/>
-    </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A242" s="11"/>
-      <c r="B242" s="3"/>
-      <c r="C242" s="3"/>
-      <c r="D242" s="4"/>
-      <c r="E242" s="3"/>
-      <c r="F242" s="5"/>
       <c r="G242" s="1"/>
     </row>
     <row r="243" spans="1:7" x14ac:dyDescent="0.25">
@@ -7296,20 +7308,20 @@
     </row>
     <row r="249" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A249" s="11"/>
-      <c r="B249" s="13"/>
-      <c r="C249" s="13"/>
-      <c r="D249" s="14"/>
-      <c r="E249" s="15"/>
-      <c r="F249" s="16"/>
+      <c r="B249" s="3"/>
+      <c r="C249" s="3"/>
+      <c r="D249" s="4"/>
+      <c r="E249" s="3"/>
+      <c r="F249" s="5"/>
       <c r="G249" s="1"/>
     </row>
     <row r="250" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A250" s="11"/>
-      <c r="B250" s="3"/>
-      <c r="C250" s="3"/>
-      <c r="D250" s="4"/>
-      <c r="E250" s="3"/>
-      <c r="F250" s="5"/>
+      <c r="B250" s="13"/>
+      <c r="C250" s="13"/>
+      <c r="D250" s="14"/>
+      <c r="E250" s="15"/>
+      <c r="F250" s="16"/>
       <c r="G250" s="1"/>
     </row>
     <row r="251" spans="1:7" x14ac:dyDescent="0.25">
@@ -7377,20 +7389,20 @@
     </row>
     <row r="258" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A258" s="11"/>
-      <c r="B258" s="13"/>
-      <c r="C258" s="13"/>
-      <c r="D258" s="14"/>
-      <c r="E258" s="15"/>
-      <c r="F258" s="16"/>
+      <c r="B258" s="3"/>
+      <c r="C258" s="3"/>
+      <c r="D258" s="4"/>
+      <c r="E258" s="3"/>
+      <c r="F258" s="5"/>
       <c r="G258" s="1"/>
     </row>
     <row r="259" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A259" s="11"/>
-      <c r="B259" s="3"/>
-      <c r="C259" s="3"/>
-      <c r="D259" s="4"/>
-      <c r="E259" s="3"/>
-      <c r="F259" s="5"/>
+      <c r="B259" s="13"/>
+      <c r="C259" s="13"/>
+      <c r="D259" s="14"/>
+      <c r="E259" s="15"/>
+      <c r="F259" s="16"/>
       <c r="G259" s="1"/>
     </row>
     <row r="260" spans="1:7" x14ac:dyDescent="0.25">
@@ -7445,7 +7457,7 @@
       <c r="D265" s="4"/>
       <c r="E265" s="3"/>
       <c r="F265" s="5"/>
-      <c r="G265" s="6"/>
+      <c r="G265" s="1"/>
     </row>
     <row r="266" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A266" s="11"/>
@@ -7454,7 +7466,7 @@
       <c r="D266" s="4"/>
       <c r="E266" s="3"/>
       <c r="F266" s="5"/>
-      <c r="G266" s="1"/>
+      <c r="G266" s="6"/>
     </row>
     <row r="267" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A267" s="11"/>
@@ -8070,11 +8082,11 @@
     </row>
     <row r="335" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A335" s="11"/>
-      <c r="B335" s="1"/>
-      <c r="C335" s="1"/>
-      <c r="D335" s="1"/>
-      <c r="E335" s="1"/>
-      <c r="F335" s="1"/>
+      <c r="B335" s="3"/>
+      <c r="C335" s="3"/>
+      <c r="D335" s="4"/>
+      <c r="E335" s="3"/>
+      <c r="F335" s="5"/>
       <c r="G335" s="1"/>
     </row>
     <row r="336" spans="1:7" x14ac:dyDescent="0.25">
@@ -8095,8 +8107,17 @@
       <c r="F337" s="1"/>
       <c r="G337" s="1"/>
     </row>
+    <row r="338" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A338" s="11"/>
+      <c r="B338" s="1"/>
+      <c r="C338" s="1"/>
+      <c r="D338" s="1"/>
+      <c r="E338" s="1"/>
+      <c r="F338" s="1"/>
+      <c r="G338" s="1"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:F241" xr:uid="{08353A06-E006-45C7-BD45-850F7C3953DF}">
+  <autoFilter ref="A1:F242" xr:uid="{08353A06-E006-45C7-BD45-850F7C3953DF}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F201">
       <sortCondition ref="A1:A141"/>
     </sortState>

--- a/moduls/1С.xlsx
+++ b/moduls/1С.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\перенос данных\ПОКОМ ЗПФ\pokom_zpf\moduls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37CA1615-BBE9-467C-AC34-2B25F1A0D704}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBF26049-B742-4F1D-A353-C3BDF4AD7A06}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,9 +17,9 @@
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$F$242</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$F$245</definedName>
   </definedNames>
-  <calcPr calcId="181029" refMode="R1C1"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1037" uniqueCount="548">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1049" uniqueCount="551">
   <si>
     <t>1С</t>
   </si>
@@ -409,9 +409,6 @@
     <t>SU000197</t>
   </si>
   <si>
-    <t>P002413</t>
-  </si>
-  <si>
     <t>Пельмени Пуговки с говядиной и свининой No Name Весовые Сфера No Name 5 кг</t>
   </si>
   <si>
@@ -541,12 +538,6 @@
     <t>SU002771</t>
   </si>
   <si>
-    <t>P003155</t>
-  </si>
-  <si>
-    <t>Пельмени Бигбули #МЕГАВКУСИЩЕ с сочной грудинкой Бигбули ГШ 0,43 сфера Горячая штучка</t>
-  </si>
-  <si>
     <t>Пельмени Бигбули #МЕГАВКУСИЩЕ с сочной грудинкой 0,9 кг  ПОКОМ</t>
   </si>
   <si>
@@ -1679,6 +1670,24 @@
   </si>
   <si>
     <t>Жар-ладушки с клубникой и вишней ТМ Зареченские ТС Зареченские продукты.  Поком</t>
+  </si>
+  <si>
+    <t>P004077</t>
+  </si>
+  <si>
+    <t>Наггетсы с куриным филе и сыром ТМ Вязанка 0,25 кг ПОКОМ</t>
+  </si>
+  <si>
+    <t>P003728</t>
+  </si>
+  <si>
+    <t>Пельмени «Бигбули #МЕГАВКУСИЩЕ с сочной грудинкой» 0,43 сфера ТМ «Горячая штучка»</t>
+  </si>
+  <si>
+    <t>Наггетсы с куриным филе и сыром ТМ Вязанка ТС Из печи Сливушки 0,25 кг.  Поком</t>
+  </si>
+  <si>
+    <t>Пельмени Бигбули со сливочным маслом ТМ Горячая штучка ТС Бигбули ГШ флоу-пак сфера 0,43 УВС.  ПОКОМ</t>
   </si>
 </sst>
 </file>
@@ -2153,11 +2162,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G338"/>
+  <dimension ref="A1:G341"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G4" sqref="G4"/>
+      <selection pane="bottomLeft" activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2193,13 +2202,13 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>152</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>153</v>
       </c>
       <c r="D2" s="4">
         <v>4301080153</v>
@@ -2208,19 +2217,19 @@
         <v>4607111036827</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>152</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>153</v>
       </c>
       <c r="D3" s="4">
         <v>4301080153</v>
@@ -2229,19 +2238,19 @@
         <v>4607111036827</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>152</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>153</v>
       </c>
       <c r="D4" s="4">
         <v>4301080153</v>
@@ -2250,19 +2259,19 @@
         <v>4607111036827</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G4" s="1"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>152</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>153</v>
       </c>
       <c r="D5" s="4">
         <v>4301080153</v>
@@ -2271,19 +2280,19 @@
         <v>4607111036827</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G5" s="1"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="C6" s="3" t="s">
         <v>152</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>153</v>
       </c>
       <c r="D6" s="4">
         <v>4301080153</v>
@@ -2292,19 +2301,19 @@
         <v>4607111036827</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G6" s="1"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D7" s="4">
         <v>4301135113</v>
@@ -2313,19 +2322,19 @@
         <v>4607111033659</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="G7" s="1"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D8" s="4">
         <v>4301135113</v>
@@ -2334,19 +2343,19 @@
         <v>4607111033659</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="G8" s="1"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D9" s="4">
         <v>4301135113</v>
@@ -2355,19 +2364,19 @@
         <v>4607111033659</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="G9" s="1"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B10" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>128</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>129</v>
       </c>
       <c r="D10" s="4">
         <v>4301135112</v>
@@ -2376,19 +2385,19 @@
         <v>4607111034199</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G10" s="1"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>156</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>157</v>
       </c>
       <c r="D11" s="4">
         <v>4301135122</v>
@@ -2397,7 +2406,7 @@
         <v>4607111033628</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G11" s="1"/>
     </row>
@@ -2445,7 +2454,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>96</v>
@@ -2466,13 +2475,13 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="D15" s="4">
         <v>4301135120</v>
@@ -2481,19 +2490,19 @@
         <v>4607111035141</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="G15" s="1"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="D16" s="4">
         <v>4301135120</v>
@@ -2502,19 +2511,19 @@
         <v>4607111035141</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="G16" s="1"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="D17" s="4">
         <v>4301135120</v>
@@ -2523,19 +2532,19 @@
         <v>4607111035141</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="G17" s="1"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="D18" s="4">
         <v>4301135120</v>
@@ -2544,7 +2553,7 @@
         <v>4607111035141</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="G18" s="1"/>
     </row>
@@ -2592,7 +2601,7 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>99</v>
@@ -2613,13 +2622,13 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B22" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C22" s="3" t="s">
         <v>156</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>157</v>
       </c>
       <c r="D22" s="4">
         <v>4301135122</v>
@@ -2628,19 +2637,19 @@
         <v>4607111033628</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G22" s="1"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="B23" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="C23" s="3" t="s">
         <v>156</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>157</v>
       </c>
       <c r="D23" s="4">
         <v>4301135122</v>
@@ -2649,19 +2658,19 @@
         <v>4607111033628</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G23" s="1"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="11" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D24" s="4">
         <v>4301136013</v>
@@ -2670,19 +2679,19 @@
         <v>4607025784012</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="G24" s="1"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="11" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="D25" s="4">
         <v>4301136012</v>
@@ -2691,19 +2700,19 @@
         <v>4607025784319</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="G25" s="1"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="11" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="D26" s="4">
         <v>4301136012</v>
@@ -2712,19 +2721,19 @@
         <v>4607025784319</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="G26" s="1"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="11" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="D27" s="4">
         <v>4301136012</v>
@@ -2733,19 +2742,19 @@
         <v>4607025784319</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="G27" s="1"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="11" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D28" s="4">
         <v>4301136013</v>
@@ -2754,19 +2763,19 @@
         <v>4607025784012</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="G28" s="1"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="11" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D29" s="4">
         <v>4301136013</v>
@@ -2775,19 +2784,19 @@
         <v>4607025784012</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="G29" s="1"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="11" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="D30" s="4">
         <v>4301136029</v>
@@ -2796,19 +2805,19 @@
         <v>4640242180410</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="G30" s="1"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="11" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="D31" s="4">
         <v>4301136029</v>
@@ -2817,19 +2826,19 @@
         <v>4640242180410</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="G31" s="1"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="11" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="D32" s="4">
         <v>4301135191</v>
@@ -2838,19 +2847,19 @@
         <v>4640242180373</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="G32" s="1"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="11" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="D33" s="4">
         <v>4301135191</v>
@@ -2859,19 +2868,19 @@
         <v>4640242180373</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="G33" s="1"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="D34" s="4">
         <v>4301135191</v>
@@ -2880,19 +2889,19 @@
         <v>4640242180373</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="G34" s="1"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="11" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="D35" s="4">
         <v>4301135195</v>
@@ -2901,19 +2910,19 @@
         <v>4640242180366</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="G35" s="1"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="11" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="D36" s="4">
         <v>4301135195</v>
@@ -2922,19 +2931,19 @@
         <v>4640242180366</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="G36" s="1"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="11" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="D37" s="4">
         <v>4301135195</v>
@@ -2943,19 +2952,19 @@
         <v>4640242180366</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="G37" s="1"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="11" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="D38" s="4">
         <v>4301135195</v>
@@ -2964,19 +2973,19 @@
         <v>4640242180366</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="G38" s="1"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="11" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="D39" s="4">
         <v>4301135189</v>
@@ -2985,19 +2994,19 @@
         <v>4640242180342</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="G39" s="1"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="11" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="D40" s="4">
         <v>4301135189</v>
@@ -3006,19 +3015,19 @@
         <v>4640242180342</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="G40" s="1"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="11" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="D41" s="4">
         <v>4301135189</v>
@@ -3027,19 +3036,19 @@
         <v>4640242180342</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="G41" s="1"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="11" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="D42" s="4">
         <v>4301135188</v>
@@ -3048,19 +3057,19 @@
         <v>4640242180335</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="G42" s="1"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="11" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="D43" s="4">
         <v>4301135188</v>
@@ -3069,19 +3078,19 @@
         <v>4640242180335</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="G43" s="1"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="11" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="D44" s="4">
         <v>4301135188</v>
@@ -3090,19 +3099,19 @@
         <v>4640242180335</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="G44" s="1"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="11" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="D45" s="4">
         <v>4301135188</v>
@@ -3111,19 +3120,19 @@
         <v>4640242180335</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="G45" s="1"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="11" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="D46" s="4">
         <v>4301135190</v>
@@ -3132,19 +3141,19 @@
         <v>4640242180359</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="G46" s="1"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="11" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="D47" s="4">
         <v>4301135190</v>
@@ -3153,19 +3162,19 @@
         <v>4640242180359</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="G47" s="1"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="11" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="D48" s="4">
         <v>4301135190</v>
@@ -3174,19 +3183,19 @@
         <v>4640242180359</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="G48" s="1"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="11" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="D49" s="4">
         <v>4301135190</v>
@@ -3195,7 +3204,7 @@
         <v>4640242180359</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="G49" s="1"/>
     </row>
@@ -3204,10 +3213,10 @@
         <v>91</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="D50" s="4">
         <v>4301135186</v>
@@ -3216,19 +3225,19 @@
         <v>4640242180311</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="G50" s="6"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="11" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="D51" s="4">
         <v>4301135186</v>
@@ -3237,19 +3246,19 @@
         <v>4640242180311</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="G51" s="6"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="11" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="D52" s="4">
         <v>4301135186</v>
@@ -3258,19 +3267,19 @@
         <v>4640242180311</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="G52" s="6"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="11" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="D53" s="4">
         <v>4301135186</v>
@@ -3279,19 +3288,19 @@
         <v>4640242180311</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="G53" s="6"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="11" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="D54" s="4">
         <v>4301135186</v>
@@ -3300,19 +3309,19 @@
         <v>4640242180311</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="G54" s="1"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="11" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="D55" s="4">
         <v>4301135187</v>
@@ -3321,19 +3330,19 @@
         <v>4640242180328</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="G55" s="1"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="11" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="D56" s="4">
         <v>4301135187</v>
@@ -3342,19 +3351,19 @@
         <v>4640242180328</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="G56" s="1"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="11" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="D57" s="4">
         <v>4301135187</v>
@@ -3363,19 +3372,19 @@
         <v>4640242180328</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="G57" s="1"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="11" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="D58" s="4">
         <v>4301135115</v>
@@ -3384,19 +3393,19 @@
         <v>4607111034380</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="G58" s="1"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="11" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="D59" s="4">
         <v>4301135115</v>
@@ -3405,19 +3414,19 @@
         <v>4607111034380</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="G59" s="1"/>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="11" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="D60" s="4">
         <v>4301135114</v>
@@ -3426,19 +3435,19 @@
         <v>4607111034397</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="G60" s="1"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="11" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="D61" s="4">
         <v>4301135114</v>
@@ -3447,7 +3456,7 @@
         <v>4607111034397</v>
       </c>
       <c r="F61" s="5" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="G61" s="1"/>
     </row>
@@ -3456,10 +3465,10 @@
         <v>75</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="D62" s="4">
         <v>4301135114</v>
@@ -3468,19 +3477,19 @@
         <v>4607111034397</v>
       </c>
       <c r="F62" s="5" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="G62" s="1"/>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="D63" s="4">
         <v>4301131012</v>
@@ -3489,19 +3498,19 @@
         <v>4607111034137</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G63" s="1"/>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="D64" s="4">
         <v>4301131012</v>
@@ -3510,19 +3519,19 @@
         <v>4607111034137</v>
       </c>
       <c r="F64" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G64" s="1"/>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="11" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="D65" s="4">
         <v>4301131012</v>
@@ -3531,19 +3540,19 @@
         <v>4607111034137</v>
       </c>
       <c r="F65" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G65" s="1"/>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B66" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C66" s="3" t="s">
         <v>145</v>
-      </c>
-      <c r="C66" s="3" t="s">
-        <v>146</v>
       </c>
       <c r="D66" s="4">
         <v>4301131011</v>
@@ -3552,19 +3561,19 @@
         <v>4607111034120</v>
       </c>
       <c r="F66" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G66" s="6"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="11" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B67" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C67" s="3" t="s">
         <v>145</v>
-      </c>
-      <c r="C67" s="3" t="s">
-        <v>146</v>
       </c>
       <c r="D67" s="4">
         <v>4301131011</v>
@@ -3573,19 +3582,19 @@
         <v>4607111034120</v>
       </c>
       <c r="F67" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G67" s="6"/>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="11" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="B68" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C68" s="3" t="s">
         <v>145</v>
-      </c>
-      <c r="C68" s="3" t="s">
-        <v>146</v>
       </c>
       <c r="D68" s="4">
         <v>4301131011</v>
@@ -3594,19 +3603,19 @@
         <v>4607111034120</v>
       </c>
       <c r="F68" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G68" s="1"/>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="11" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="D69" s="4">
         <v>4301135192</v>
@@ -3615,19 +3624,19 @@
         <v>4640242180380</v>
       </c>
       <c r="F69" s="5" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="G69" s="1"/>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="11" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="D70" s="4">
         <v>4301135192</v>
@@ -3636,19 +3645,19 @@
         <v>4640242180380</v>
       </c>
       <c r="F70" s="5" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="G70" s="1"/>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="11" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="D71" s="4">
         <v>4301135192</v>
@@ -3657,19 +3666,19 @@
         <v>4640242180380</v>
       </c>
       <c r="F71" s="5" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="G71" s="1"/>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="11" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="D72" s="4">
         <v>4301135192</v>
@@ -3678,7 +3687,7 @@
         <v>4640242180380</v>
       </c>
       <c r="F72" s="5" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="G72" s="1"/>
     </row>
@@ -3687,10 +3696,10 @@
         <v>76</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="D73" s="4">
         <v>4301135192</v>
@@ -3699,19 +3708,19 @@
         <v>4640242180380</v>
       </c>
       <c r="F73" s="5" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="G73" s="1"/>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="11" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="D74" s="4">
         <v>4301132066</v>
@@ -3720,19 +3729,19 @@
         <v>4607111036520</v>
       </c>
       <c r="F74" s="5" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="G74" s="1"/>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="11" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="D75" s="4">
         <v>4301132066</v>
@@ -3741,19 +3750,19 @@
         <v>4607111036520</v>
       </c>
       <c r="F75" s="5" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="G75" s="1"/>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="11" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="D76" s="4">
         <v>4301132066</v>
@@ -3762,19 +3771,19 @@
         <v>4607111036520</v>
       </c>
       <c r="F76" s="5" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="G76" s="1"/>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="11" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="D77" s="4">
         <v>4301132066</v>
@@ -3783,19 +3792,19 @@
         <v>4607111036520</v>
       </c>
       <c r="F77" s="5" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="G77" s="1"/>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="11" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="D78" s="4">
         <v>4301132065</v>
@@ -3804,19 +3813,19 @@
         <v>4607111036599</v>
       </c>
       <c r="F78" s="5" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="G78" s="1"/>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="11" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="D79" s="4">
         <v>4301132065</v>
@@ -3825,19 +3834,19 @@
         <v>4607111036599</v>
       </c>
       <c r="F79" s="5" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="G79" s="1"/>
     </row>
     <row r="80" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A80" s="11" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="D80" s="4">
         <v>4301132063</v>
@@ -3846,19 +3855,19 @@
         <v>4607111036605</v>
       </c>
       <c r="F80" s="5" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="G80" s="1"/>
     </row>
     <row r="81" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A81" s="11" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="D81" s="4">
         <v>4301132063</v>
@@ -3867,13 +3876,13 @@
         <v>4607111036605</v>
       </c>
       <c r="F81" s="5" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="G81" s="1"/>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="11" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B82" s="3" t="s">
         <v>102</v>
@@ -3999,13 +4008,13 @@
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="11" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="D88" s="4">
         <v>4301132080</v>
@@ -4014,19 +4023,19 @@
         <v>4640242180397</v>
       </c>
       <c r="F88" s="5" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="G88" s="1"/>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="11" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="D89" s="4">
         <v>4301132080</v>
@@ -4035,19 +4044,19 @@
         <v>4640242180397</v>
       </c>
       <c r="F89" s="5" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="G89" s="1"/>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="11" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="D90" s="4">
         <v>4301132080</v>
@@ -4056,7 +4065,7 @@
         <v>4640242180397</v>
       </c>
       <c r="F90" s="5" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="G90" s="1"/>
     </row>
@@ -4065,10 +4074,10 @@
         <v>80</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="D91" s="4">
         <v>4301132080</v>
@@ -4077,19 +4086,19 @@
         <v>4640242180397</v>
       </c>
       <c r="F91" s="5" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="G91" s="1"/>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="11" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="D92" s="4">
         <v>4301135134</v>
@@ -4098,19 +4107,19 @@
         <v>4607111035806</v>
       </c>
       <c r="F92" s="5" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="G92" s="1"/>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="11" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="D93" s="4">
         <v>4301135134</v>
@@ -4119,19 +4128,19 @@
         <v>4607111035806</v>
       </c>
       <c r="F93" s="5" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="G93" s="1"/>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="11" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="D94" s="4">
         <v>4301135134</v>
@@ -4140,19 +4149,19 @@
         <v>4607111035806</v>
       </c>
       <c r="F94" s="5" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="G94" s="1"/>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="11" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="D95" s="4">
         <v>4301135134</v>
@@ -4161,19 +4170,19 @@
         <v>4607111035806</v>
       </c>
       <c r="F95" s="5" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="G95" s="1"/>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="11" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="D96" s="4">
         <v>4301135134</v>
@@ -4182,19 +4191,19 @@
         <v>4607111035806</v>
       </c>
       <c r="F96" s="5" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="G96" s="1"/>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="11" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D97" s="4">
         <v>4301070865</v>
@@ -4203,19 +4212,19 @@
         <v>4607111036285</v>
       </c>
       <c r="F97" s="5" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="G97" s="1"/>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="11" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D98" s="4">
         <v>4301070865</v>
@@ -4224,19 +4233,19 @@
         <v>4607111036285</v>
       </c>
       <c r="F98" s="5" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="G98" s="1"/>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="11" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D99" s="4">
         <v>4301070865</v>
@@ -4245,19 +4254,19 @@
         <v>4607111036285</v>
       </c>
       <c r="F99" s="5" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="G99" s="1"/>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="11" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D100" s="4">
         <v>4301070865</v>
@@ -4266,19 +4275,19 @@
         <v>4607111036285</v>
       </c>
       <c r="F100" s="5" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="G100" s="1"/>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="11" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D101" s="4">
         <v>4301070865</v>
@@ -4287,19 +4296,19 @@
         <v>4607111036285</v>
       </c>
       <c r="F101" s="5" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="G101" s="1"/>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="11" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="D102" s="4">
         <v>4301070970</v>
@@ -4308,19 +4317,19 @@
         <v>4607111037091</v>
       </c>
       <c r="F102" s="5" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="G102" s="6"/>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="11" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="D103" s="4">
         <v>4301070970</v>
@@ -4329,19 +4338,19 @@
         <v>4607111037091</v>
       </c>
       <c r="F103" s="5" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="G103" s="6"/>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="11" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="D104" s="4">
         <v>4301070970</v>
@@ -4350,19 +4359,19 @@
         <v>4607111037091</v>
       </c>
       <c r="F104" s="5" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="G104" s="1"/>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="11" t="s">
-        <v>244</v>
+        <v>550</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="D105" s="4">
         <v>4301070970</v>
@@ -4371,40 +4380,40 @@
         <v>4607111037091</v>
       </c>
       <c r="F105" s="5" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="G105" s="1"/>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="11" t="s">
-        <v>87</v>
+        <v>241</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>119</v>
+        <v>172</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>332</v>
+        <v>341</v>
       </c>
       <c r="D106" s="4">
-        <v>4301070973</v>
+        <v>4301070970</v>
       </c>
       <c r="E106" s="3">
-        <v>4607111033987</v>
+        <v>4607111037091</v>
       </c>
       <c r="F106" s="5" t="s">
-        <v>333</v>
-      </c>
-      <c r="G106" s="6"/>
+        <v>342</v>
+      </c>
+      <c r="G106" s="1"/>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="11" t="s">
-        <v>333</v>
+        <v>87</v>
       </c>
       <c r="B107" s="3" t="s">
         <v>119</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="D107" s="4">
         <v>4301070973</v>
@@ -4413,19 +4422,19 @@
         <v>4607111033987</v>
       </c>
       <c r="F107" s="5" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="G107" s="6"/>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="11" t="s">
-        <v>246</v>
+        <v>330</v>
       </c>
       <c r="B108" s="3" t="s">
         <v>119</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="D108" s="4">
         <v>4301070973</v>
@@ -4434,40 +4443,40 @@
         <v>4607111033987</v>
       </c>
       <c r="F108" s="5" t="s">
-        <v>333</v>
-      </c>
-      <c r="G108" s="1"/>
+        <v>330</v>
+      </c>
+      <c r="G108" s="6"/>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="11" t="s">
-        <v>442</v>
+        <v>243</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>278</v>
+        <v>119</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>279</v>
+        <v>329</v>
       </c>
       <c r="D109" s="4">
-        <v>4301070861</v>
+        <v>4301070973</v>
       </c>
       <c r="E109" s="3">
-        <v>4607111036308</v>
+        <v>4607111033987</v>
       </c>
       <c r="F109" s="5" t="s">
-        <v>280</v>
+        <v>330</v>
       </c>
       <c r="G109" s="1"/>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="11" t="s">
-        <v>512</v>
+        <v>439</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="D110" s="4">
         <v>4301070861</v>
@@ -4476,19 +4485,19 @@
         <v>4607111036308</v>
       </c>
       <c r="F110" s="5" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="G110" s="1"/>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="11" t="s">
-        <v>247</v>
+        <v>509</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="D111" s="4">
         <v>4301070861</v>
@@ -4497,34 +4506,34 @@
         <v>4607111036308</v>
       </c>
       <c r="F111" s="5" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="G111" s="1"/>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="11" t="s">
-        <v>81</v>
+        <v>244</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>111</v>
+        <v>275</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>112</v>
+        <v>276</v>
       </c>
       <c r="D112" s="4">
-        <v>4301070864</v>
+        <v>4301070861</v>
       </c>
       <c r="E112" s="3">
-        <v>4607111036292</v>
+        <v>4607111036308</v>
       </c>
       <c r="F112" s="5" t="s">
-        <v>113</v>
+        <v>277</v>
       </c>
       <c r="G112" s="1"/>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="11" t="s">
-        <v>444</v>
+        <v>81</v>
       </c>
       <c r="B113" s="3" t="s">
         <v>111</v>
@@ -4545,7 +4554,7 @@
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="11" t="s">
-        <v>248</v>
+        <v>441</v>
       </c>
       <c r="B114" s="3" t="s">
         <v>111</v>
@@ -4566,34 +4575,34 @@
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="11" t="s">
-        <v>86</v>
+        <v>245</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>328</v>
+        <v>112</v>
       </c>
       <c r="D115" s="4">
-        <v>4301070974</v>
+        <v>4301070864</v>
       </c>
       <c r="E115" s="3">
-        <v>4607111034151</v>
+        <v>4607111036292</v>
       </c>
       <c r="F115" s="5" t="s">
-        <v>329</v>
-      </c>
-      <c r="G115" s="6"/>
+        <v>113</v>
+      </c>
+      <c r="G115" s="1"/>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="11" t="s">
-        <v>329</v>
+        <v>86</v>
       </c>
       <c r="B116" s="3" t="s">
         <v>118</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="D116" s="4">
         <v>4301070974</v>
@@ -4602,19 +4611,19 @@
         <v>4607111034151</v>
       </c>
       <c r="F116" s="5" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="G116" s="6"/>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="11" t="s">
-        <v>251</v>
+        <v>326</v>
       </c>
       <c r="B117" s="3" t="s">
         <v>118</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="D117" s="4">
         <v>4301070974</v>
@@ -4623,103 +4632,103 @@
         <v>4607111034151</v>
       </c>
       <c r="F117" s="5" t="s">
-        <v>329</v>
-      </c>
-      <c r="G117" s="1"/>
+        <v>326</v>
+      </c>
+      <c r="G117" s="6"/>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="11" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>167</v>
+        <v>118</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>168</v>
+        <v>325</v>
       </c>
       <c r="D118" s="4">
-        <v>4301070935</v>
+        <v>4301070974</v>
       </c>
       <c r="E118" s="3">
-        <v>4607111037190</v>
+        <v>4607111034151</v>
       </c>
       <c r="F118" s="5" t="s">
-        <v>169</v>
+        <v>326</v>
       </c>
       <c r="G118" s="1"/>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="11" t="s">
-        <v>533</v>
+        <v>239</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>168</v>
+        <v>547</v>
       </c>
       <c r="D119" s="4">
-        <v>4301070935</v>
+        <v>4301070989</v>
       </c>
       <c r="E119" s="3">
         <v>4607111037190</v>
       </c>
       <c r="F119" s="5" t="s">
-        <v>169</v>
+        <v>548</v>
       </c>
       <c r="G119" s="1"/>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="11" t="s">
+        <v>530</v>
+      </c>
+      <c r="B120" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="B120" s="3" t="s">
-        <v>167</v>
-      </c>
       <c r="C120" s="3" t="s">
-        <v>168</v>
+        <v>547</v>
       </c>
       <c r="D120" s="4">
-        <v>4301070935</v>
+        <v>4301070989</v>
       </c>
       <c r="E120" s="3">
         <v>4607111037190</v>
       </c>
       <c r="F120" s="5" t="s">
-        <v>169</v>
+        <v>548</v>
       </c>
       <c r="G120" s="1"/>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="11" t="s">
-        <v>249</v>
+        <v>165</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>340</v>
+        <v>547</v>
       </c>
       <c r="D121" s="4">
-        <v>4301070972</v>
+        <v>4301070989</v>
       </c>
       <c r="E121" s="3">
-        <v>4607111037183</v>
+        <v>4607111037190</v>
       </c>
       <c r="F121" s="5" t="s">
-        <v>341</v>
+        <v>548</v>
       </c>
       <c r="G121" s="1"/>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="11" t="s">
-        <v>514</v>
+        <v>246</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="D122" s="4">
         <v>4301070972</v>
@@ -4728,19 +4737,19 @@
         <v>4607111037183</v>
       </c>
       <c r="F122" s="5" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="G122" s="1"/>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" s="11" t="s">
-        <v>170</v>
+        <v>511</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="D123" s="4">
         <v>4301070972</v>
@@ -4749,40 +4758,40 @@
         <v>4607111037183</v>
       </c>
       <c r="F123" s="5" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="G123" s="1"/>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" s="11" t="s">
-        <v>528</v>
+        <v>167</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="D124" s="4">
-        <v>4301070969</v>
+        <v>4301070972</v>
       </c>
       <c r="E124" s="3">
-        <v>4607111036858</v>
+        <v>4607111037183</v>
       </c>
       <c r="F124" s="5" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="G124" s="1"/>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="11" t="s">
-        <v>545</v>
+        <v>525</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="D125" s="4">
         <v>4301070969</v>
@@ -4791,19 +4800,19 @@
         <v>4607111036858</v>
       </c>
       <c r="F125" s="5" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="G125" s="1"/>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" s="11" t="s">
-        <v>172</v>
+        <v>542</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="D126" s="4">
         <v>4301070969</v>
@@ -4812,61 +4821,61 @@
         <v>4607111036858</v>
       </c>
       <c r="F126" s="5" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="G126" s="1"/>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" s="11" t="s">
-        <v>82</v>
+        <v>169</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>114</v>
+        <v>170</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>495</v>
+        <v>339</v>
       </c>
       <c r="D127" s="4">
-        <v>4301070968</v>
+        <v>4301070969</v>
       </c>
       <c r="E127" s="3">
-        <v>4607111036889</v>
+        <v>4607111036858</v>
       </c>
       <c r="F127" s="5" t="s">
-        <v>496</v>
-      </c>
-      <c r="G127" s="6"/>
+        <v>340</v>
+      </c>
+      <c r="G127" s="1"/>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" s="11" t="s">
-        <v>179</v>
+        <v>82</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>178</v>
+        <v>114</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>471</v>
+        <v>492</v>
       </c>
       <c r="D128" s="4">
-        <v>4301070971</v>
+        <v>4301070968</v>
       </c>
       <c r="E128" s="3">
-        <v>4607111036902</v>
+        <v>4607111036889</v>
       </c>
       <c r="F128" s="5" t="s">
-        <v>472</v>
+        <v>493</v>
       </c>
       <c r="G128" s="6"/>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" s="11" t="s">
-        <v>334</v>
+        <v>176</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="D129" s="4">
         <v>4301070971</v>
@@ -4875,19 +4884,19 @@
         <v>4607111036902</v>
       </c>
       <c r="F129" s="5" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="G129" s="6"/>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" s="11" t="s">
-        <v>177</v>
+        <v>331</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="D130" s="4">
         <v>4301070971</v>
@@ -4896,40 +4905,40 @@
         <v>4607111036902</v>
       </c>
       <c r="F130" s="5" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="G130" s="6"/>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" s="11" t="s">
-        <v>289</v>
+        <v>174</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>115</v>
+        <v>175</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>321</v>
+        <v>468</v>
       </c>
       <c r="D131" s="4">
-        <v>4301070976</v>
+        <v>4301070971</v>
       </c>
       <c r="E131" s="3">
-        <v>4607111034144</v>
+        <v>4607111036902</v>
       </c>
       <c r="F131" s="5" t="s">
-        <v>322</v>
+        <v>469</v>
       </c>
       <c r="G131" s="6"/>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" s="11" t="s">
-        <v>250</v>
+        <v>286</v>
       </c>
       <c r="B132" s="3" t="s">
         <v>115</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="D132" s="4">
         <v>4301070976</v>
@@ -4938,19 +4947,19 @@
         <v>4607111034144</v>
       </c>
       <c r="F132" s="5" t="s">
-        <v>322</v>
-      </c>
-      <c r="G132" s="1"/>
+        <v>319</v>
+      </c>
+      <c r="G132" s="6"/>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" s="11" t="s">
-        <v>322</v>
+        <v>247</v>
       </c>
       <c r="B133" s="3" t="s">
         <v>115</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="D133" s="4">
         <v>4301070976</v>
@@ -4959,19 +4968,19 @@
         <v>4607111034144</v>
       </c>
       <c r="F133" s="5" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="G133" s="1"/>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" s="11" t="s">
-        <v>83</v>
+        <v>319</v>
       </c>
       <c r="B134" s="3" t="s">
         <v>115</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="D134" s="4">
         <v>4301070976</v>
@@ -4980,40 +4989,40 @@
         <v>4607111034144</v>
       </c>
       <c r="F134" s="5" t="s">
-        <v>322</v>
-      </c>
-      <c r="G134" s="6"/>
+        <v>319</v>
+      </c>
+      <c r="G134" s="1"/>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" s="11" t="s">
-        <v>288</v>
+        <v>83</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="D135" s="4">
-        <v>4301070975</v>
+        <v>4301070976</v>
       </c>
       <c r="E135" s="3">
-        <v>4607111033970</v>
+        <v>4607111034144</v>
       </c>
       <c r="F135" s="5" t="s">
-        <v>331</v>
+        <v>319</v>
       </c>
       <c r="G135" s="6"/>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" s="11" t="s">
-        <v>245</v>
+        <v>285</v>
       </c>
       <c r="B136" s="3" t="s">
         <v>116</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="D136" s="4">
         <v>4301070975</v>
@@ -5022,19 +5031,19 @@
         <v>4607111033970</v>
       </c>
       <c r="F136" s="5" t="s">
-        <v>331</v>
-      </c>
-      <c r="G136" s="1"/>
+        <v>328</v>
+      </c>
+      <c r="G136" s="6"/>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" s="11" t="s">
-        <v>399</v>
+        <v>242</v>
       </c>
       <c r="B137" s="3" t="s">
         <v>116</v>
       </c>
       <c r="C137" s="3" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="D137" s="4">
         <v>4301070975</v>
@@ -5043,19 +5052,19 @@
         <v>4607111033970</v>
       </c>
       <c r="F137" s="5" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="G137" s="1"/>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" s="11" t="s">
-        <v>331</v>
+        <v>396</v>
       </c>
       <c r="B138" s="3" t="s">
         <v>116</v>
       </c>
       <c r="C138" s="3" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="D138" s="4">
         <v>4301070975</v>
@@ -5064,19 +5073,19 @@
         <v>4607111033970</v>
       </c>
       <c r="F138" s="5" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="G138" s="1"/>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" s="11" t="s">
-        <v>84</v>
+        <v>328</v>
       </c>
       <c r="B139" s="3" t="s">
         <v>116</v>
       </c>
       <c r="C139" s="3" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="D139" s="4">
         <v>4301070975</v>
@@ -5085,40 +5094,40 @@
         <v>4607111033970</v>
       </c>
       <c r="F139" s="5" t="s">
-        <v>331</v>
-      </c>
-      <c r="G139" s="6"/>
+        <v>328</v>
+      </c>
+      <c r="G139" s="1"/>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" s="11" t="s">
-        <v>398</v>
+        <v>84</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C140" s="3" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="D140" s="4">
-        <v>4301070981</v>
+        <v>4301070975</v>
       </c>
       <c r="E140" s="3">
-        <v>4607111036728</v>
+        <v>4607111033970</v>
       </c>
       <c r="F140" s="5" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="G140" s="6"/>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" s="11" t="s">
-        <v>85</v>
+        <v>395</v>
       </c>
       <c r="B141" s="3" t="s">
         <v>117</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="D141" s="4">
         <v>4301070981</v>
@@ -5127,40 +5136,40 @@
         <v>4607111036728</v>
       </c>
       <c r="F141" s="5" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="G141" s="6"/>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" s="11" t="s">
-        <v>412</v>
+        <v>85</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>206</v>
+        <v>117</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>207</v>
+        <v>320</v>
       </c>
       <c r="D142" s="4">
-        <v>4301071010</v>
+        <v>4301070981</v>
       </c>
       <c r="E142" s="3">
-        <v>4607111037701</v>
+        <v>4607111036728</v>
       </c>
       <c r="F142" s="5" t="s">
-        <v>208</v>
+        <v>321</v>
       </c>
       <c r="G142" s="6"/>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" s="11" t="s">
-        <v>486</v>
+        <v>409</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C143" s="3" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D143" s="4">
         <v>4301071010</v>
@@ -5169,19 +5178,19 @@
         <v>4607111037701</v>
       </c>
       <c r="F143" s="5" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="G143" s="6"/>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" s="11" t="s">
-        <v>209</v>
+        <v>483</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D144" s="4">
         <v>4301071010</v>
@@ -5190,40 +5199,40 @@
         <v>4607111037701</v>
       </c>
       <c r="F144" s="5" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="G144" s="6"/>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" s="11" t="s">
-        <v>524</v>
+        <v>206</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="D145" s="4">
-        <v>4301070870</v>
+        <v>4301071010</v>
       </c>
       <c r="E145" s="3">
-        <v>4607111036711</v>
+        <v>4607111037701</v>
       </c>
       <c r="F145" s="5" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="G145" s="6"/>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" s="11" t="s">
-        <v>213</v>
+        <v>521</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D146" s="4">
         <v>4301070870</v>
@@ -5232,40 +5241,40 @@
         <v>4607111036711</v>
       </c>
       <c r="F146" s="5" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="G146" s="6"/>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" s="11" t="s">
-        <v>181</v>
+        <v>210</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>316</v>
+        <v>207</v>
       </c>
       <c r="C147" s="3" t="s">
-        <v>317</v>
+        <v>208</v>
       </c>
       <c r="D147" s="4">
-        <v>4301070948</v>
+        <v>4301070870</v>
       </c>
       <c r="E147" s="3">
-        <v>4607111037022</v>
+        <v>4607111036711</v>
       </c>
       <c r="F147" s="5" t="s">
-        <v>181</v>
+        <v>209</v>
       </c>
       <c r="G147" s="6"/>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" s="11" t="s">
-        <v>318</v>
+        <v>178</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C148" s="3" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="D148" s="4">
         <v>4301070948</v>
@@ -5274,19 +5283,19 @@
         <v>4607111037022</v>
       </c>
       <c r="F148" s="5" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="G148" s="6"/>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" s="11" t="s">
-        <v>180</v>
+        <v>315</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C149" s="3" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="D149" s="4">
         <v>4301070948</v>
@@ -5295,34 +5304,34 @@
         <v>4607111037022</v>
       </c>
       <c r="F149" s="5" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="G149" s="6"/>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" s="11" t="s">
-        <v>122</v>
+        <v>177</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>120</v>
+        <v>313</v>
       </c>
       <c r="C150" s="3" t="s">
-        <v>121</v>
+        <v>314</v>
       </c>
       <c r="D150" s="4">
-        <v>4301070920</v>
+        <v>4301070948</v>
       </c>
       <c r="E150" s="3">
-        <v>4607111035929</v>
+        <v>4607111037022</v>
       </c>
       <c r="F150" s="5" t="s">
-        <v>122</v>
+        <v>178</v>
       </c>
       <c r="G150" s="6"/>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" s="11" t="s">
-        <v>88</v>
+        <v>122</v>
       </c>
       <c r="B151" s="3" t="s">
         <v>120</v>
@@ -5343,34 +5352,34 @@
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" s="11" t="s">
-        <v>182</v>
+        <v>88</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>183</v>
+        <v>120</v>
       </c>
       <c r="C152" s="3" t="s">
-        <v>184</v>
+        <v>121</v>
       </c>
       <c r="D152" s="4">
-        <v>4301070921</v>
+        <v>4301070920</v>
       </c>
       <c r="E152" s="3">
-        <v>4607111035905</v>
+        <v>4607111035929</v>
       </c>
       <c r="F152" s="5" t="s">
-        <v>185</v>
+        <v>122</v>
       </c>
       <c r="G152" s="6"/>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" s="11" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C153" s="3" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D153" s="4">
         <v>4301070921</v>
@@ -5379,40 +5388,40 @@
         <v>4607111035905</v>
       </c>
       <c r="F153" s="5" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="G153" s="6"/>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" s="11" t="s">
-        <v>216</v>
+        <v>182</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>214</v>
+        <v>180</v>
       </c>
       <c r="C154" s="3" t="s">
-        <v>215</v>
+        <v>181</v>
       </c>
       <c r="D154" s="4">
-        <v>4301070917</v>
+        <v>4301070921</v>
       </c>
       <c r="E154" s="3">
-        <v>4607111035912</v>
+        <v>4607111035905</v>
       </c>
       <c r="F154" s="5" t="s">
-        <v>216</v>
+        <v>182</v>
       </c>
       <c r="G154" s="6"/>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" s="11" t="s">
-        <v>337</v>
+        <v>213</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C155" s="3" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D155" s="4">
         <v>4301070917</v>
@@ -5421,19 +5430,19 @@
         <v>4607111035912</v>
       </c>
       <c r="F155" s="5" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="G155" s="6"/>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" s="11" t="s">
-        <v>385</v>
+        <v>334</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C156" s="3" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D156" s="4">
         <v>4301070917</v>
@@ -5442,19 +5451,19 @@
         <v>4607111035912</v>
       </c>
       <c r="F156" s="5" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="G156" s="6"/>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" s="11" t="s">
-        <v>217</v>
+        <v>382</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C157" s="3" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D157" s="4">
         <v>4301070917</v>
@@ -5463,82 +5472,82 @@
         <v>4607111035912</v>
       </c>
       <c r="F157" s="5" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="G157" s="6"/>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" s="11" t="s">
-        <v>186</v>
+        <v>214</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>123</v>
+        <v>211</v>
       </c>
       <c r="C158" s="3" t="s">
-        <v>124</v>
+        <v>212</v>
       </c>
       <c r="D158" s="4">
-        <v>4301070827</v>
+        <v>4301070917</v>
       </c>
       <c r="E158" s="3">
-        <v>4607111036216</v>
+        <v>4607111035912</v>
       </c>
       <c r="F158" s="5" t="s">
-        <v>125</v>
+        <v>213</v>
       </c>
       <c r="G158" s="6"/>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" s="11" t="s">
-        <v>89</v>
+        <v>183</v>
       </c>
       <c r="B159" s="3" t="s">
         <v>123</v>
       </c>
       <c r="C159" s="3" t="s">
-        <v>124</v>
+        <v>545</v>
       </c>
       <c r="D159" s="4">
-        <v>4301070827</v>
+        <v>4301071028</v>
       </c>
       <c r="E159" s="3">
         <v>4607111036216</v>
       </c>
       <c r="F159" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G159" s="6"/>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" s="11" t="s">
-        <v>127</v>
+        <v>89</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C160" s="3" t="s">
-        <v>478</v>
+        <v>545</v>
       </c>
       <c r="D160" s="4">
-        <v>4301070965</v>
+        <v>4301071028</v>
       </c>
       <c r="E160" s="3">
-        <v>4607111035899</v>
+        <v>4607111036216</v>
       </c>
       <c r="F160" s="5" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="G160" s="6"/>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" s="11" t="s">
-        <v>90</v>
+        <v>126</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C161" s="3" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="D161" s="4">
         <v>4301070965</v>
@@ -5547,28 +5556,28 @@
         <v>4607111035899</v>
       </c>
       <c r="F161" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G161" s="6"/>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" s="11" t="s">
-        <v>190</v>
+        <v>90</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>188</v>
+        <v>125</v>
       </c>
       <c r="C162" s="3" t="s">
-        <v>189</v>
+        <v>475</v>
       </c>
       <c r="D162" s="4">
-        <v>4301070873</v>
+        <v>4301070965</v>
       </c>
       <c r="E162" s="3">
-        <v>4607111035080</v>
+        <v>4607111035899</v>
       </c>
       <c r="F162" s="5" t="s">
-        <v>190</v>
+        <v>126</v>
       </c>
       <c r="G162" s="6"/>
     </row>
@@ -5577,10 +5586,10 @@
         <v>187</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C163" s="3" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D163" s="4">
         <v>4301070873</v>
@@ -5589,40 +5598,40 @@
         <v>4607111035080</v>
       </c>
       <c r="F163" s="5" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G163" s="6"/>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" s="11" t="s">
-        <v>283</v>
+        <v>184</v>
       </c>
       <c r="B164" s="3" t="s">
-        <v>367</v>
+        <v>185</v>
       </c>
       <c r="C164" s="3" t="s">
-        <v>368</v>
+        <v>186</v>
       </c>
       <c r="D164" s="4">
-        <v>4301135193</v>
+        <v>4301070873</v>
       </c>
       <c r="E164" s="3">
-        <v>4640242180403</v>
+        <v>4607111035080</v>
       </c>
       <c r="F164" s="5" t="s">
-        <v>369</v>
+        <v>187</v>
       </c>
       <c r="G164" s="6"/>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" s="11" t="s">
-        <v>479</v>
+        <v>280</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="C165" s="3" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="D165" s="4">
         <v>4301135193</v>
@@ -5631,19 +5640,19 @@
         <v>4640242180403</v>
       </c>
       <c r="F165" s="5" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="G165" s="6"/>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" s="11" t="s">
-        <v>502</v>
+        <v>476</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="C166" s="3" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="D166" s="4">
         <v>4301135193</v>
@@ -5652,19 +5661,19 @@
         <v>4640242180403</v>
       </c>
       <c r="F166" s="5" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="G166" s="6"/>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" s="11" t="s">
-        <v>493</v>
+        <v>499</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="C167" s="3" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="D167" s="4">
         <v>4301135193</v>
@@ -5673,19 +5682,19 @@
         <v>4640242180403</v>
       </c>
       <c r="F167" s="5" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="G167" s="6"/>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" s="11" t="s">
-        <v>191</v>
+        <v>490</v>
       </c>
       <c r="B168" s="3" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="C168" s="3" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="D168" s="4">
         <v>4301135193</v>
@@ -5694,49 +5703,49 @@
         <v>4640242180403</v>
       </c>
       <c r="F168" s="5" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="G168" s="6"/>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" s="11" t="s">
-        <v>503</v>
+        <v>188</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>193</v>
+        <v>364</v>
       </c>
       <c r="C169" s="3" t="s">
-        <v>473</v>
+        <v>365</v>
       </c>
       <c r="D169" s="4">
-        <v>4301070956</v>
+        <v>4301135193</v>
       </c>
       <c r="E169" s="3">
-        <v>4640242180250</v>
+        <v>4640242180403</v>
       </c>
       <c r="F169" s="5" t="s">
-        <v>474</v>
+        <v>366</v>
       </c>
       <c r="G169" s="6"/>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" s="11" t="s">
-        <v>195</v>
+        <v>500</v>
       </c>
       <c r="B170" s="3" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C170" s="3" t="s">
-        <v>194</v>
+        <v>470</v>
       </c>
       <c r="D170" s="4">
-        <v>4301070858</v>
+        <v>4301070956</v>
       </c>
       <c r="E170" s="3">
-        <v>4607111036193</v>
+        <v>4640242180250</v>
       </c>
       <c r="F170" s="5" t="s">
-        <v>195</v>
+        <v>471</v>
       </c>
       <c r="G170" s="6"/>
     </row>
@@ -5745,73 +5754,73 @@
         <v>192</v>
       </c>
       <c r="B171" s="3" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C171" s="3" t="s">
-        <v>473</v>
+        <v>191</v>
       </c>
       <c r="D171" s="4">
-        <v>4301070956</v>
+        <v>4301070858</v>
       </c>
       <c r="E171" s="3">
-        <v>4640242180250</v>
+        <v>4607111036193</v>
       </c>
       <c r="F171" s="5" t="s">
-        <v>474</v>
+        <v>192</v>
       </c>
       <c r="G171" s="6"/>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" s="11" t="s">
-        <v>92</v>
+        <v>189</v>
       </c>
       <c r="B172" s="3" t="s">
-        <v>128</v>
+        <v>190</v>
       </c>
       <c r="C172" s="3" t="s">
-        <v>129</v>
+        <v>470</v>
       </c>
       <c r="D172" s="4">
-        <v>4301135112</v>
+        <v>4301070956</v>
       </c>
       <c r="E172" s="3">
-        <v>4607111034199</v>
+        <v>4640242180250</v>
       </c>
       <c r="F172" s="5" t="s">
-        <v>130</v>
+        <v>471</v>
       </c>
       <c r="G172" s="6"/>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" s="11" t="s">
-        <v>299</v>
+        <v>92</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>325</v>
+        <v>127</v>
       </c>
       <c r="C173" s="3" t="s">
-        <v>326</v>
+        <v>128</v>
       </c>
       <c r="D173" s="4">
-        <v>4301131018</v>
+        <v>4301135112</v>
       </c>
       <c r="E173" s="3">
-        <v>4607111037930</v>
+        <v>4607111034199</v>
       </c>
       <c r="F173" s="5" t="s">
-        <v>327</v>
+        <v>129</v>
       </c>
       <c r="G173" s="6"/>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" s="11" t="s">
-        <v>417</v>
+        <v>296</v>
       </c>
       <c r="B174" s="3" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="C174" s="3" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="D174" s="4">
         <v>4301131018</v>
@@ -5820,61 +5829,61 @@
         <v>4607111037930</v>
       </c>
       <c r="F174" s="5" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="G174" s="6"/>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" s="11" t="s">
-        <v>196</v>
+        <v>414</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>461</v>
+        <v>322</v>
       </c>
       <c r="C175" s="3" t="s">
-        <v>462</v>
+        <v>323</v>
       </c>
       <c r="D175" s="4">
-        <v>4301131019</v>
+        <v>4301131018</v>
       </c>
       <c r="E175" s="3">
-        <v>4640242180427</v>
+        <v>4607111037930</v>
       </c>
       <c r="F175" s="5" t="s">
-        <v>463</v>
+        <v>324</v>
       </c>
       <c r="G175" s="6"/>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" s="11" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="B176" s="3" t="s">
-        <v>148</v>
+        <v>458</v>
       </c>
       <c r="C176" s="3" t="s">
-        <v>149</v>
+        <v>459</v>
       </c>
       <c r="D176" s="4">
-        <v>4301190014</v>
+        <v>4301131019</v>
       </c>
       <c r="E176" s="3">
-        <v>4607111037053</v>
+        <v>4640242180427</v>
       </c>
       <c r="F176" s="5" t="s">
-        <v>150</v>
+        <v>460</v>
       </c>
       <c r="G176" s="6"/>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177" s="11" t="s">
-        <v>427</v>
+        <v>194</v>
       </c>
       <c r="B177" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="C177" s="3" t="s">
         <v>148</v>
-      </c>
-      <c r="C177" s="3" t="s">
-        <v>149</v>
       </c>
       <c r="D177" s="4">
         <v>4301190014</v>
@@ -5883,19 +5892,19 @@
         <v>4607111037053</v>
       </c>
       <c r="F177" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G177" s="6"/>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178" s="11" t="s">
-        <v>141</v>
+        <v>424</v>
       </c>
       <c r="B178" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="C178" s="3" t="s">
         <v>148</v>
-      </c>
-      <c r="C178" s="3" t="s">
-        <v>149</v>
       </c>
       <c r="D178" s="4">
         <v>4301190014</v>
@@ -5904,40 +5913,40 @@
         <v>4607111037053</v>
       </c>
       <c r="F178" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G178" s="6"/>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179" s="11" t="s">
-        <v>198</v>
+        <v>140</v>
       </c>
       <c r="B179" s="3" t="s">
-        <v>506</v>
+        <v>147</v>
       </c>
       <c r="C179" s="3" t="s">
-        <v>507</v>
+        <v>148</v>
       </c>
       <c r="D179" s="4">
-        <v>4301190023</v>
+        <v>4301190014</v>
       </c>
       <c r="E179" s="3">
-        <v>4607111037060</v>
+        <v>4607111037053</v>
       </c>
       <c r="F179" s="5" t="s">
-        <v>508</v>
+        <v>149</v>
       </c>
       <c r="G179" s="6"/>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180" s="11" t="s">
-        <v>428</v>
+        <v>195</v>
       </c>
       <c r="B180" s="3" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="C180" s="3" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="D180" s="4">
         <v>4301190023</v>
@@ -5946,19 +5955,19 @@
         <v>4607111037060</v>
       </c>
       <c r="F180" s="5" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="G180" s="6"/>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181" s="11" t="s">
-        <v>142</v>
+        <v>425</v>
       </c>
       <c r="B181" s="3" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="C181" s="3" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="D181" s="4">
         <v>4301190023</v>
@@ -5967,40 +5976,40 @@
         <v>4607111037060</v>
       </c>
       <c r="F181" s="5" t="s">
-        <v>508</v>
-      </c>
-      <c r="G181" s="1"/>
+        <v>505</v>
+      </c>
+      <c r="G181" s="6"/>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182" s="11" t="s">
-        <v>538</v>
+        <v>141</v>
       </c>
       <c r="B182" s="3" t="s">
-        <v>218</v>
+        <v>503</v>
       </c>
       <c r="C182" s="3" t="s">
-        <v>219</v>
+        <v>504</v>
       </c>
       <c r="D182" s="4">
-        <v>4301135053</v>
+        <v>4301190023</v>
       </c>
       <c r="E182" s="3">
-        <v>4607111036407</v>
+        <v>4607111037060</v>
       </c>
       <c r="F182" s="5" t="s">
-        <v>220</v>
+        <v>505</v>
       </c>
       <c r="G182" s="1"/>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183" s="11" t="s">
-        <v>221</v>
+        <v>535</v>
       </c>
       <c r="B183" s="3" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C183" s="3" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D183" s="4">
         <v>4301135053</v>
@@ -6009,40 +6018,40 @@
         <v>4607111036407</v>
       </c>
       <c r="F183" s="5" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="G183" s="1"/>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184" s="11" t="s">
-        <v>93</v>
+        <v>218</v>
       </c>
       <c r="B184" s="3" t="s">
-        <v>131</v>
+        <v>215</v>
       </c>
       <c r="C184" s="3" t="s">
-        <v>199</v>
+        <v>216</v>
       </c>
       <c r="D184" s="4">
-        <v>4301135162</v>
+        <v>4301135053</v>
       </c>
       <c r="E184" s="3">
-        <v>4607111034014</v>
+        <v>4607111036407</v>
       </c>
       <c r="F184" s="5" t="s">
-        <v>132</v>
+        <v>217</v>
       </c>
       <c r="G184" s="1"/>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185" s="11" t="s">
-        <v>435</v>
+        <v>93</v>
       </c>
       <c r="B185" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C185" s="3" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D185" s="4">
         <v>4301135162</v>
@@ -6051,19 +6060,19 @@
         <v>4607111034014</v>
       </c>
       <c r="F185" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G185" s="1"/>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186" s="11" t="s">
-        <v>252</v>
+        <v>432</v>
       </c>
       <c r="B186" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C186" s="3" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D186" s="4">
         <v>4301135162</v>
@@ -6072,40 +6081,40 @@
         <v>4607111034014</v>
       </c>
       <c r="F186" s="5" t="s">
-        <v>281</v>
+        <v>131</v>
       </c>
       <c r="G186" s="1"/>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187" s="11" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="B187" s="3" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C187" s="3" t="s">
-        <v>134</v>
+        <v>196</v>
       </c>
       <c r="D187" s="4">
-        <v>4301135117</v>
+        <v>4301135162</v>
       </c>
       <c r="E187" s="3">
-        <v>4607111033994</v>
+        <v>4607111034014</v>
       </c>
       <c r="F187" s="5" t="s">
-        <v>135</v>
+        <v>278</v>
       </c>
       <c r="G187" s="1"/>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188" s="11" t="s">
-        <v>135</v>
+        <v>250</v>
       </c>
       <c r="B188" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C188" s="3" t="s">
         <v>133</v>
-      </c>
-      <c r="C188" s="3" t="s">
-        <v>134</v>
       </c>
       <c r="D188" s="4">
         <v>4301135117</v>
@@ -6114,19 +6123,19 @@
         <v>4607111033994</v>
       </c>
       <c r="F188" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G188" s="1"/>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189" s="11" t="s">
-        <v>94</v>
+        <v>134</v>
       </c>
       <c r="B189" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C189" s="3" t="s">
         <v>133</v>
-      </c>
-      <c r="C189" s="3" t="s">
-        <v>134</v>
       </c>
       <c r="D189" s="4">
         <v>4301135117</v>
@@ -6135,40 +6144,40 @@
         <v>4607111033994</v>
       </c>
       <c r="F189" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G189" s="1"/>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190" s="11" t="s">
-        <v>200</v>
+        <v>94</v>
       </c>
       <c r="B190" s="3" t="s">
-        <v>370</v>
+        <v>132</v>
       </c>
       <c r="C190" s="3" t="s">
-        <v>371</v>
+        <v>133</v>
       </c>
       <c r="D190" s="4">
-        <v>4301136028</v>
+        <v>4301135117</v>
       </c>
       <c r="E190" s="3">
-        <v>4640242180304</v>
+        <v>4607111033994</v>
       </c>
       <c r="F190" s="5" t="s">
-        <v>372</v>
+        <v>134</v>
       </c>
       <c r="G190" s="1"/>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191" s="11" t="s">
-        <v>433</v>
+        <v>197</v>
       </c>
       <c r="B191" s="3" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="C191" s="3" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="D191" s="4">
         <v>4301136028</v>
@@ -6177,19 +6186,19 @@
         <v>4640242180304</v>
       </c>
       <c r="F191" s="5" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="G191" s="1"/>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192" s="11" t="s">
-        <v>509</v>
+        <v>430</v>
       </c>
       <c r="B192" s="3" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="C192" s="3" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="D192" s="4">
         <v>4301136028</v>
@@ -6198,19 +6207,19 @@
         <v>4640242180304</v>
       </c>
       <c r="F192" s="5" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="G192" s="1"/>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193" s="11" t="s">
-        <v>143</v>
+        <v>506</v>
       </c>
       <c r="B193" s="3" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="C193" s="3" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="D193" s="4">
         <v>4301136028</v>
@@ -6219,40 +6228,40 @@
         <v>4640242180304</v>
       </c>
       <c r="F193" s="5" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="G193" s="1"/>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194" s="11" t="s">
-        <v>432</v>
+        <v>142</v>
       </c>
       <c r="B194" s="3" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="C194" s="3" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="D194" s="4">
-        <v>4301136026</v>
+        <v>4301136028</v>
       </c>
       <c r="E194" s="3">
-        <v>4640242180236</v>
+        <v>4640242180304</v>
       </c>
       <c r="F194" s="5" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="G194" s="1"/>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195" s="11" t="s">
-        <v>480</v>
+        <v>429</v>
       </c>
       <c r="B195" s="3" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="C195" s="3" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="D195" s="4">
         <v>4301136026</v>
@@ -6261,19 +6270,19 @@
         <v>4640242180236</v>
       </c>
       <c r="F195" s="5" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G195" s="1"/>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196" s="11" t="s">
-        <v>464</v>
+        <v>477</v>
       </c>
       <c r="B196" s="3" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="C196" s="3" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="D196" s="4">
         <v>4301136026</v>
@@ -6282,19 +6291,19 @@
         <v>4640242180236</v>
       </c>
       <c r="F196" s="5" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G196" s="1"/>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197" s="11" t="s">
-        <v>95</v>
+        <v>461</v>
       </c>
       <c r="B197" s="3" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="C197" s="3" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="D197" s="4">
         <v>4301136026</v>
@@ -6303,40 +6312,40 @@
         <v>4640242180236</v>
       </c>
       <c r="F197" s="5" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G197" s="1"/>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198" s="11" t="s">
-        <v>311</v>
+        <v>95</v>
       </c>
       <c r="B198" s="3" t="s">
-        <v>488</v>
+        <v>370</v>
       </c>
       <c r="C198" s="3" t="s">
-        <v>489</v>
+        <v>371</v>
       </c>
       <c r="D198" s="4">
-        <v>4301135194</v>
+        <v>4301136026</v>
       </c>
       <c r="E198" s="3">
-        <v>4640242180380</v>
+        <v>4640242180236</v>
       </c>
       <c r="F198" s="5" t="s">
-        <v>490</v>
+        <v>372</v>
       </c>
       <c r="G198" s="1"/>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A199" s="11" t="s">
-        <v>494</v>
+        <v>308</v>
       </c>
       <c r="B199" s="3" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="C199" s="3" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="D199" s="4">
         <v>4301135194</v>
@@ -6345,19 +6354,19 @@
         <v>4640242180380</v>
       </c>
       <c r="F199" s="5" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="G199" s="1"/>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200" s="11" t="s">
-        <v>136</v>
+        <v>491</v>
       </c>
       <c r="B200" s="3" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="C200" s="3" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="D200" s="4">
         <v>4301135194</v>
@@ -6366,19 +6375,19 @@
         <v>4640242180380</v>
       </c>
       <c r="F200" s="5" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="G200" s="1"/>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A201" s="11" t="s">
-        <v>287</v>
+        <v>135</v>
       </c>
       <c r="B201" s="3" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="C201" s="3" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="D201" s="4">
         <v>4301135194</v>
@@ -6387,40 +6396,40 @@
         <v>4640242180380</v>
       </c>
       <c r="F201" s="5" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="G201" s="1"/>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A202" s="11" t="s">
-        <v>338</v>
+        <v>284</v>
       </c>
       <c r="B202" s="3" t="s">
-        <v>290</v>
+        <v>485</v>
       </c>
       <c r="C202" s="3" t="s">
-        <v>291</v>
+        <v>486</v>
       </c>
       <c r="D202" s="4">
-        <v>4301070915</v>
+        <v>4301135194</v>
       </c>
       <c r="E202" s="3">
-        <v>4607111035882</v>
+        <v>4640242180380</v>
       </c>
       <c r="F202" s="5" t="s">
-        <v>292</v>
+        <v>487</v>
       </c>
       <c r="G202" s="1"/>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A203" s="11" t="s">
-        <v>404</v>
+        <v>335</v>
       </c>
       <c r="B203" s="3" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="C203" s="3" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="D203" s="4">
         <v>4301070915</v>
@@ -6429,19 +6438,19 @@
         <v>4607111035882</v>
       </c>
       <c r="F203" s="5" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="G203" s="1"/>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A204" s="11" t="s">
-        <v>292</v>
+        <v>401</v>
       </c>
       <c r="B204" s="3" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="C204" s="3" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="D204" s="4">
         <v>4301070915</v>
@@ -6450,40 +6459,40 @@
         <v>4607111035882</v>
       </c>
       <c r="F204" s="5" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="G204" s="1"/>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A205" s="11" t="s">
-        <v>405</v>
+        <v>289</v>
       </c>
       <c r="B205" s="3" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="C205" s="3" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="D205" s="4">
-        <v>4301070874</v>
+        <v>4301070915</v>
       </c>
       <c r="E205" s="3">
-        <v>4607111035332</v>
+        <v>4607111035882</v>
       </c>
       <c r="F205" s="5" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="G205" s="1"/>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A206" s="11" t="s">
-        <v>497</v>
+        <v>402</v>
       </c>
       <c r="B206" s="3" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="C206" s="3" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="D206" s="4">
         <v>4301070874</v>
@@ -6492,19 +6501,19 @@
         <v>4607111035332</v>
       </c>
       <c r="F206" s="5" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="G206" s="1"/>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A207" s="11" t="s">
-        <v>295</v>
+        <v>494</v>
       </c>
       <c r="B207" s="3" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="C207" s="3" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="D207" s="4">
         <v>4301070874</v>
@@ -6513,40 +6522,40 @@
         <v>4607111035332</v>
       </c>
       <c r="F207" s="5" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="G207" s="1"/>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A208" s="11" t="s">
-        <v>320</v>
+        <v>292</v>
       </c>
       <c r="B208" s="3" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="C208" s="3" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="D208" s="4">
-        <v>4301136014</v>
+        <v>4301070874</v>
       </c>
       <c r="E208" s="3">
-        <v>4607111035370</v>
+        <v>4607111035332</v>
       </c>
       <c r="F208" s="5" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="G208" s="1"/>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A209" s="11" t="s">
-        <v>410</v>
+        <v>317</v>
       </c>
       <c r="B209" s="3" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="C209" s="3" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="D209" s="4">
         <v>4301136014</v>
@@ -6555,19 +6564,19 @@
         <v>4607111035370</v>
       </c>
       <c r="F209" s="5" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="G209" s="1"/>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A210" s="11" t="s">
-        <v>298</v>
+        <v>407</v>
       </c>
       <c r="B210" s="3" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="C210" s="3" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="D210" s="4">
         <v>4301136014</v>
@@ -6576,40 +6585,40 @@
         <v>4607111035370</v>
       </c>
       <c r="F210" s="5" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="G210" s="1"/>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A211" s="11" t="s">
-        <v>319</v>
+        <v>295</v>
       </c>
       <c r="B211" s="3" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="C211" s="3" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="D211" s="4">
-        <v>4301051320</v>
+        <v>4301136014</v>
       </c>
       <c r="E211" s="3">
-        <v>4680115881334</v>
+        <v>4607111035370</v>
       </c>
       <c r="F211" s="5" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="G211" s="1"/>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A212" s="11" t="s">
-        <v>336</v>
+        <v>316</v>
       </c>
       <c r="B212" s="3" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C212" s="3" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="D212" s="4">
         <v>4301051320</v>
@@ -6618,19 +6627,19 @@
         <v>4680115881334</v>
       </c>
       <c r="F212" s="5" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="G212" s="1"/>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A213" s="11" t="s">
-        <v>306</v>
+        <v>333</v>
       </c>
       <c r="B213" s="3" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C213" s="3" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="D213" s="4">
         <v>4301051320</v>
@@ -6639,82 +6648,82 @@
         <v>4680115881334</v>
       </c>
       <c r="F213" s="5" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="G213" s="1"/>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A214" s="11" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="B214" s="3" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="C214" s="3" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="D214" s="4">
-        <v>4301051319</v>
+        <v>4301051320</v>
       </c>
       <c r="E214" s="3">
-        <v>4680115881204</v>
+        <v>4680115881334</v>
       </c>
       <c r="F214" s="5" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="G214" s="1"/>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A215" s="11" t="s">
-        <v>339</v>
+        <v>307</v>
       </c>
       <c r="B215" s="3" t="s">
-        <v>379</v>
+        <v>304</v>
       </c>
       <c r="C215" s="3" t="s">
-        <v>380</v>
+        <v>305</v>
       </c>
       <c r="D215" s="4">
-        <v>4301136027</v>
+        <v>4301051319</v>
       </c>
       <c r="E215" s="3">
-        <v>4640242180298</v>
+        <v>4680115881204</v>
       </c>
       <c r="F215" s="5" t="s">
-        <v>381</v>
+        <v>306</v>
       </c>
       <c r="G215" s="1"/>
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A216" s="11" t="s">
-        <v>499</v>
+        <v>336</v>
       </c>
       <c r="B216" s="3" t="s">
-        <v>389</v>
+        <v>376</v>
       </c>
       <c r="C216" s="3" t="s">
-        <v>390</v>
+        <v>377</v>
       </c>
       <c r="D216" s="4">
-        <v>4301130003</v>
+        <v>4301136027</v>
       </c>
       <c r="E216" s="3">
-        <v>4607111034687</v>
+        <v>4640242180298</v>
       </c>
       <c r="F216" s="5" t="s">
-        <v>391</v>
+        <v>378</v>
       </c>
       <c r="G216" s="1"/>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A217" s="11" t="s">
-        <v>388</v>
+        <v>496</v>
       </c>
       <c r="B217" s="3" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="C217" s="3" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="D217" s="4">
         <v>4301130003</v>
@@ -6723,61 +6732,61 @@
         <v>4607111034687</v>
       </c>
       <c r="F217" s="5" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="G217" s="1"/>
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A218" s="11" t="s">
-        <v>394</v>
+        <v>385</v>
       </c>
       <c r="B218" s="3" t="s">
-        <v>395</v>
+        <v>386</v>
       </c>
       <c r="C218" s="3" t="s">
-        <v>396</v>
+        <v>387</v>
       </c>
       <c r="D218" s="4">
-        <v>4301070977</v>
+        <v>4301130003</v>
       </c>
       <c r="E218" s="3">
-        <v>4607111037411</v>
+        <v>4607111034687</v>
       </c>
       <c r="F218" s="5" t="s">
-        <v>397</v>
+        <v>388</v>
       </c>
       <c r="G218" s="1"/>
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A219" s="11" t="s">
-        <v>441</v>
+        <v>391</v>
       </c>
       <c r="B219" s="3" t="s">
-        <v>401</v>
+        <v>392</v>
       </c>
       <c r="C219" s="3" t="s">
-        <v>402</v>
+        <v>393</v>
       </c>
       <c r="D219" s="4">
-        <v>4301070871</v>
+        <v>4301070977</v>
       </c>
       <c r="E219" s="3">
-        <v>4607111036384</v>
+        <v>4607111037411</v>
       </c>
       <c r="F219" s="5" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="G219" s="1"/>
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A220" s="11" t="s">
-        <v>400</v>
+        <v>438</v>
       </c>
       <c r="B220" s="3" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="C220" s="3" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="D220" s="4">
         <v>4301070871</v>
@@ -6786,40 +6795,40 @@
         <v>4607111036384</v>
       </c>
       <c r="F220" s="5" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="G220" s="1"/>
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A221" s="11" t="s">
-        <v>501</v>
+        <v>397</v>
       </c>
       <c r="B221" s="3" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="C221" s="3" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="D221" s="4">
-        <v>4301135111</v>
+        <v>4301070871</v>
       </c>
       <c r="E221" s="3">
-        <v>4607111035028</v>
+        <v>4607111036384</v>
       </c>
       <c r="F221" s="5" t="s">
-        <v>409</v>
+        <v>400</v>
       </c>
       <c r="G221" s="1"/>
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A222" s="11" t="s">
-        <v>406</v>
+        <v>498</v>
       </c>
       <c r="B222" s="3" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="C222" s="3" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="D222" s="4">
         <v>4301135111</v>
@@ -6828,40 +6837,40 @@
         <v>4607111035028</v>
       </c>
       <c r="F222" s="5" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="G222" s="1"/>
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A223" s="11" t="s">
-        <v>523</v>
+        <v>403</v>
       </c>
       <c r="B223" s="3" t="s">
-        <v>414</v>
+        <v>404</v>
       </c>
       <c r="C223" s="3" t="s">
-        <v>415</v>
+        <v>405</v>
       </c>
       <c r="D223" s="4">
-        <v>4301130006</v>
+        <v>4301135111</v>
       </c>
       <c r="E223" s="3">
-        <v>4607111034670</v>
+        <v>4607111035028</v>
       </c>
       <c r="F223" s="5" t="s">
-        <v>416</v>
+        <v>406</v>
       </c>
       <c r="G223" s="1"/>
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A224" s="11" t="s">
-        <v>413</v>
+        <v>520</v>
       </c>
       <c r="B224" s="3" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="C224" s="3" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="D224" s="4">
         <v>4301130006</v>
@@ -6870,40 +6879,40 @@
         <v>4607111034670</v>
       </c>
       <c r="F224" s="5" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="G224" s="1"/>
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A225" s="11" t="s">
-        <v>525</v>
+        <v>410</v>
       </c>
       <c r="B225" s="3" t="s">
-        <v>420</v>
+        <v>411</v>
       </c>
       <c r="C225" s="3" t="s">
-        <v>421</v>
+        <v>412</v>
       </c>
       <c r="D225" s="4">
-        <v>4301070768</v>
+        <v>4301130006</v>
       </c>
       <c r="E225" s="3">
-        <v>4607111035639</v>
+        <v>4607111034670</v>
       </c>
       <c r="F225" s="5" t="s">
-        <v>422</v>
+        <v>413</v>
       </c>
       <c r="G225" s="1"/>
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A226" s="11" t="s">
-        <v>419</v>
+        <v>522</v>
       </c>
       <c r="B226" s="3" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="C226" s="3" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="D226" s="4">
         <v>4301070768</v>
@@ -6912,40 +6921,40 @@
         <v>4607111035639</v>
       </c>
       <c r="F226" s="5" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="G226" s="1"/>
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A227" s="11" t="s">
-        <v>526</v>
+        <v>416</v>
       </c>
       <c r="B227" s="3" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="C227" s="3" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="D227" s="4">
-        <v>4301070797</v>
+        <v>4301070768</v>
       </c>
       <c r="E227" s="3">
-        <v>4607111035646</v>
+        <v>4607111035639</v>
       </c>
       <c r="F227" s="5" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="G227" s="1"/>
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A228" s="11" t="s">
-        <v>423</v>
+        <v>523</v>
       </c>
       <c r="B228" s="3" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="C228" s="3" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="D228" s="4">
         <v>4301070797</v>
@@ -6954,103 +6963,103 @@
         <v>4607111035646</v>
       </c>
       <c r="F228" s="5" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="G228" s="1"/>
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A229" s="11" t="s">
-        <v>437</v>
+        <v>420</v>
       </c>
       <c r="B229" s="3" t="s">
-        <v>438</v>
+        <v>421</v>
       </c>
       <c r="C229" s="3" t="s">
-        <v>439</v>
+        <v>422</v>
       </c>
       <c r="D229" s="4">
-        <v>4301080154</v>
+        <v>4301070797</v>
       </c>
       <c r="E229" s="3">
-        <v>4607111036834</v>
+        <v>4607111035646</v>
       </c>
       <c r="F229" s="5" t="s">
-        <v>440</v>
+        <v>423</v>
       </c>
       <c r="G229" s="1"/>
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A230" s="11" t="s">
-        <v>445</v>
+        <v>434</v>
       </c>
       <c r="B230" s="3" t="s">
-        <v>446</v>
+        <v>435</v>
       </c>
       <c r="C230" s="3" t="s">
-        <v>447</v>
+        <v>436</v>
       </c>
       <c r="D230" s="4">
-        <v>4301070941</v>
+        <v>4301080154</v>
       </c>
       <c r="E230" s="3">
-        <v>4607111036162</v>
+        <v>4607111036834</v>
       </c>
       <c r="F230" s="5" t="s">
-        <v>448</v>
+        <v>437</v>
       </c>
       <c r="G230" s="1"/>
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A231" s="11" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="B231" s="3" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="C231" s="3" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
       <c r="D231" s="4">
-        <v>4301070826</v>
+        <v>4301070941</v>
       </c>
       <c r="E231" s="3">
-        <v>4607111035752</v>
+        <v>4607111036162</v>
       </c>
       <c r="F231" s="5" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
       <c r="G231" s="1"/>
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A232" s="11" t="s">
-        <v>492</v>
+        <v>446</v>
       </c>
       <c r="B232" s="3" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="C232" s="3" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="D232" s="4">
-        <v>4301070966</v>
+        <v>4301070826</v>
       </c>
       <c r="E232" s="3">
-        <v>4607111038135</v>
+        <v>4607111035752</v>
       </c>
       <c r="F232" s="5" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="G232" s="1"/>
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A233" s="11" t="s">
-        <v>546</v>
+        <v>489</v>
       </c>
       <c r="B233" s="3" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="C233" s="3" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="D233" s="4">
         <v>4301070966</v>
@@ -7059,19 +7068,19 @@
         <v>4607111038135</v>
       </c>
       <c r="F233" s="5" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="G233" s="1"/>
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A234" s="11" t="s">
-        <v>453</v>
+        <v>543</v>
       </c>
       <c r="B234" s="3" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="C234" s="3" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="D234" s="4">
         <v>4301070966</v>
@@ -7080,61 +7089,61 @@
         <v>4607111038135</v>
       </c>
       <c r="F234" s="5" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="G234" s="1"/>
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A235" s="11" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="B235" s="3" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="C235" s="3" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="D235" s="4">
-        <v>4301070911</v>
+        <v>4301070966</v>
       </c>
       <c r="E235" s="3">
-        <v>4607111036278</v>
+        <v>4607111038135</v>
       </c>
       <c r="F235" s="5" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="G235" s="1"/>
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A236" s="11" t="s">
-        <v>481</v>
+        <v>453</v>
       </c>
       <c r="B236" s="3" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="C236" s="3" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="D236" s="4">
-        <v>4301131019</v>
+        <v>4301070911</v>
       </c>
       <c r="E236" s="3">
-        <v>4640242180427</v>
+        <v>4607111036278</v>
       </c>
       <c r="F236" s="5" t="s">
-        <v>463</v>
+        <v>453</v>
       </c>
       <c r="G236" s="1"/>
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A237" s="11" t="s">
-        <v>460</v>
+        <v>478</v>
       </c>
       <c r="B237" s="3" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="C237" s="3" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="D237" s="4">
         <v>4301131019</v>
@@ -7143,28 +7152,28 @@
         <v>4640242180427</v>
       </c>
       <c r="F237" s="5" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="G237" s="1"/>
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A238" s="11" t="s">
-        <v>520</v>
+        <v>457</v>
       </c>
       <c r="B238" s="3" t="s">
-        <v>518</v>
+        <v>458</v>
       </c>
       <c r="C238" s="3" t="s">
-        <v>519</v>
+        <v>459</v>
       </c>
       <c r="D238" s="4">
-        <v>4301132079</v>
+        <v>4301131019</v>
       </c>
       <c r="E238" s="3">
-        <v>4607111038487</v>
+        <v>4640242180427</v>
       </c>
       <c r="F238" s="5" t="s">
-        <v>520</v>
+        <v>460</v>
       </c>
       <c r="G238" s="1"/>
     </row>
@@ -7173,10 +7182,10 @@
         <v>517</v>
       </c>
       <c r="B239" s="3" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="C239" s="3" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="D239" s="4">
         <v>4301132079</v>
@@ -7185,98 +7194,134 @@
         <v>4607111038487</v>
       </c>
       <c r="F239" s="5" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="G239" s="1"/>
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A240" s="11" t="s">
-        <v>529</v>
+        <v>546</v>
       </c>
       <c r="B240" s="3" t="s">
-        <v>530</v>
+        <v>515</v>
       </c>
       <c r="C240" s="3" t="s">
-        <v>531</v>
+        <v>516</v>
       </c>
       <c r="D240" s="4">
-        <v>4301070884</v>
+        <v>4301132079</v>
       </c>
       <c r="E240" s="3">
-        <v>4607111036315</v>
+        <v>4607111038487</v>
       </c>
       <c r="F240" s="5" t="s">
-        <v>532</v>
+        <v>517</v>
       </c>
       <c r="G240" s="1"/>
     </row>
     <row r="241" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A241" s="11" t="s">
-        <v>534</v>
+        <v>549</v>
       </c>
       <c r="B241" s="3" t="s">
-        <v>535</v>
+        <v>515</v>
       </c>
       <c r="C241" s="3" t="s">
-        <v>536</v>
+        <v>516</v>
       </c>
       <c r="D241" s="4">
-        <v>4301133002</v>
+        <v>4301132079</v>
       </c>
       <c r="E241" s="3">
-        <v>4607111035783</v>
+        <v>4607111038487</v>
       </c>
       <c r="F241" s="5" t="s">
-        <v>537</v>
+        <v>517</v>
       </c>
       <c r="G241" s="1"/>
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A242" s="11" t="s">
+        <v>514</v>
+      </c>
+      <c r="B242" s="3" t="s">
+        <v>515</v>
+      </c>
+      <c r="C242" s="3" t="s">
+        <v>516</v>
+      </c>
+      <c r="D242" s="4">
+        <v>4301132079</v>
+      </c>
+      <c r="E242" s="3">
+        <v>4607111038487</v>
+      </c>
+      <c r="F242" s="5" t="s">
+        <v>517</v>
+      </c>
+      <c r="G242" s="1"/>
+    </row>
+    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A243" s="11" t="s">
+        <v>526</v>
+      </c>
+      <c r="B243" s="3" t="s">
+        <v>527</v>
+      </c>
+      <c r="C243" s="3" t="s">
+        <v>528</v>
+      </c>
+      <c r="D243" s="4">
+        <v>4301070884</v>
+      </c>
+      <c r="E243" s="3">
+        <v>4607111036315</v>
+      </c>
+      <c r="F243" s="5" t="s">
+        <v>529</v>
+      </c>
+      <c r="G243" s="1"/>
+    </row>
+    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A244" s="11" t="s">
+        <v>531</v>
+      </c>
+      <c r="B244" s="3" t="s">
+        <v>532</v>
+      </c>
+      <c r="C244" s="3" t="s">
+        <v>533</v>
+      </c>
+      <c r="D244" s="4">
+        <v>4301133002</v>
+      </c>
+      <c r="E244" s="3">
+        <v>4607111035783</v>
+      </c>
+      <c r="F244" s="5" t="s">
+        <v>534</v>
+      </c>
+      <c r="G244" s="1"/>
+    </row>
+    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A245" s="11" t="s">
+        <v>537</v>
+      </c>
+      <c r="B245" s="3" t="s">
+        <v>538</v>
+      </c>
+      <c r="C245" s="3" t="s">
+        <v>539</v>
+      </c>
+      <c r="D245" s="4">
+        <v>4301070958</v>
+      </c>
+      <c r="E245" s="3">
+        <v>4607111038098</v>
+      </c>
+      <c r="F245" s="5" t="s">
         <v>540</v>
       </c>
-      <c r="B242" s="3" t="s">
-        <v>541</v>
-      </c>
-      <c r="C242" s="3" t="s">
-        <v>542</v>
-      </c>
-      <c r="D242" s="4">
-        <v>4301070958</v>
-      </c>
-      <c r="E242" s="3">
-        <v>4607111038098</v>
-      </c>
-      <c r="F242" s="5" t="s">
-        <v>543</v>
-      </c>
-      <c r="G242" s="1"/>
-    </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A243" s="11"/>
-      <c r="B243" s="3"/>
-      <c r="C243" s="3"/>
-      <c r="D243" s="4"/>
-      <c r="E243" s="3"/>
-      <c r="F243" s="5"/>
-      <c r="G243" s="1"/>
-    </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A244" s="11"/>
-      <c r="B244" s="3"/>
-      <c r="C244" s="3"/>
-      <c r="D244" s="4"/>
-      <c r="E244" s="3"/>
-      <c r="F244" s="5"/>
-      <c r="G244" s="1"/>
-    </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A245" s="11"/>
-      <c r="B245" s="3"/>
-      <c r="C245" s="3"/>
-      <c r="D245" s="4"/>
-      <c r="E245" s="3"/>
-      <c r="F245" s="5"/>
       <c r="G245" s="1"/>
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.25">
@@ -7317,11 +7362,11 @@
     </row>
     <row r="250" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A250" s="11"/>
-      <c r="B250" s="13"/>
-      <c r="C250" s="13"/>
-      <c r="D250" s="14"/>
-      <c r="E250" s="15"/>
-      <c r="F250" s="16"/>
+      <c r="B250" s="3"/>
+      <c r="C250" s="3"/>
+      <c r="D250" s="4"/>
+      <c r="E250" s="3"/>
+      <c r="F250" s="5"/>
       <c r="G250" s="1"/>
     </row>
     <row r="251" spans="1:7" x14ac:dyDescent="0.25">
@@ -7344,11 +7389,11 @@
     </row>
     <row r="253" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A253" s="11"/>
-      <c r="B253" s="3"/>
-      <c r="C253" s="3"/>
-      <c r="D253" s="4"/>
-      <c r="E253" s="3"/>
-      <c r="F253" s="5"/>
+      <c r="B253" s="13"/>
+      <c r="C253" s="13"/>
+      <c r="D253" s="14"/>
+      <c r="E253" s="15"/>
+      <c r="F253" s="16"/>
       <c r="G253" s="1"/>
     </row>
     <row r="254" spans="1:7" x14ac:dyDescent="0.25">
@@ -7398,11 +7443,11 @@
     </row>
     <row r="259" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A259" s="11"/>
-      <c r="B259" s="13"/>
-      <c r="C259" s="13"/>
-      <c r="D259" s="14"/>
-      <c r="E259" s="15"/>
-      <c r="F259" s="16"/>
+      <c r="B259" s="3"/>
+      <c r="C259" s="3"/>
+      <c r="D259" s="4"/>
+      <c r="E259" s="3"/>
+      <c r="F259" s="5"/>
       <c r="G259" s="1"/>
     </row>
     <row r="260" spans="1:7" x14ac:dyDescent="0.25">
@@ -7425,11 +7470,11 @@
     </row>
     <row r="262" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A262" s="11"/>
-      <c r="B262" s="3"/>
-      <c r="C262" s="3"/>
-      <c r="D262" s="4"/>
-      <c r="E262" s="3"/>
-      <c r="F262" s="5"/>
+      <c r="B262" s="13"/>
+      <c r="C262" s="13"/>
+      <c r="D262" s="14"/>
+      <c r="E262" s="15"/>
+      <c r="F262" s="16"/>
       <c r="G262" s="1"/>
     </row>
     <row r="263" spans="1:7" x14ac:dyDescent="0.25">
@@ -7466,7 +7511,7 @@
       <c r="D266" s="4"/>
       <c r="E266" s="3"/>
       <c r="F266" s="5"/>
-      <c r="G266" s="6"/>
+      <c r="G266" s="1"/>
     </row>
     <row r="267" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A267" s="11"/>
@@ -7493,7 +7538,7 @@
       <c r="D269" s="4"/>
       <c r="E269" s="3"/>
       <c r="F269" s="5"/>
-      <c r="G269" s="1"/>
+      <c r="G269" s="6"/>
     </row>
     <row r="270" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A270" s="11"/>
@@ -8091,35 +8136,62 @@
     </row>
     <row r="336" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A336" s="11"/>
-      <c r="B336" s="1"/>
-      <c r="C336" s="1"/>
-      <c r="D336" s="1"/>
-      <c r="E336" s="1"/>
-      <c r="F336" s="1"/>
+      <c r="B336" s="3"/>
+      <c r="C336" s="3"/>
+      <c r="D336" s="4"/>
+      <c r="E336" s="3"/>
+      <c r="F336" s="5"/>
       <c r="G336" s="1"/>
     </row>
     <row r="337" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A337" s="11"/>
-      <c r="B337" s="1"/>
-      <c r="C337" s="1"/>
-      <c r="D337" s="1"/>
-      <c r="E337" s="1"/>
-      <c r="F337" s="1"/>
+      <c r="B337" s="3"/>
+      <c r="C337" s="3"/>
+      <c r="D337" s="4"/>
+      <c r="E337" s="3"/>
+      <c r="F337" s="5"/>
       <c r="G337" s="1"/>
     </row>
     <row r="338" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A338" s="11"/>
-      <c r="B338" s="1"/>
-      <c r="C338" s="1"/>
-      <c r="D338" s="1"/>
-      <c r="E338" s="1"/>
-      <c r="F338" s="1"/>
+      <c r="B338" s="3"/>
+      <c r="C338" s="3"/>
+      <c r="D338" s="4"/>
+      <c r="E338" s="3"/>
+      <c r="F338" s="5"/>
       <c r="G338" s="1"/>
     </row>
+    <row r="339" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A339" s="11"/>
+      <c r="B339" s="1"/>
+      <c r="C339" s="1"/>
+      <c r="D339" s="1"/>
+      <c r="E339" s="1"/>
+      <c r="F339" s="1"/>
+      <c r="G339" s="1"/>
+    </row>
+    <row r="340" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A340" s="11"/>
+      <c r="B340" s="1"/>
+      <c r="C340" s="1"/>
+      <c r="D340" s="1"/>
+      <c r="E340" s="1"/>
+      <c r="F340" s="1"/>
+      <c r="G340" s="1"/>
+    </row>
+    <row r="341" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A341" s="11"/>
+      <c r="B341" s="1"/>
+      <c r="C341" s="1"/>
+      <c r="D341" s="1"/>
+      <c r="E341" s="1"/>
+      <c r="F341" s="1"/>
+      <c r="G341" s="1"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:F242" xr:uid="{08353A06-E006-45C7-BD45-850F7C3953DF}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F201">
-      <sortCondition ref="A1:A141"/>
+  <autoFilter ref="A1:F245" xr:uid="{08353A06-E006-45C7-BD45-850F7C3953DF}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F202">
+      <sortCondition ref="A1:A142"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/moduls/1С.xlsx
+++ b/moduls/1С.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\перенос данных\ПОКОМ ЗПФ\pokom_zpf\moduls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBF26049-B742-4F1D-A353-C3BDF4AD7A06}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED177B49-FA56-4F1A-810E-CEAC8265AD3E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,8 +16,11 @@
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId3"/>
+  </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$F$245</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$F$246</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -35,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1049" uniqueCount="551">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1054" uniqueCount="553">
   <si>
     <t>1С</t>
   </si>
@@ -1688,6 +1691,12 @@
   </si>
   <si>
     <t>Пельмени Бигбули со сливочным маслом ТМ Горячая штучка ТС Бигбули ГШ флоу-пак сфера 0,43 УВС.  ПОКОМ</t>
+  </si>
+  <si>
+    <t>сроки</t>
+  </si>
+  <si>
+    <t>Мини-сосиски в тесте "Фрайпики" 1,8кг ВЕС, ТМ Зареченские  ПОКОМ</t>
   </si>
 </sst>
 </file>
@@ -1897,6 +1906,2764 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Лист1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="1">
+          <cell r="D1" t="str">
+            <v xml:space="preserve">  БЛАНК ЗАКАЗА </v>
+          </cell>
+          <cell r="G1" t="str">
+            <v>ЗПФ</v>
+          </cell>
+          <cell r="H1" t="str">
+            <v>на отгрузку продукции с ООО Трейд-Сервис с</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="F3" t="str">
+            <v>-поля, не обязательные к заполнению</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="F5" t="str">
+            <v>Комментарий к заказу:</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="D6" t="str">
+            <v>ЛП, ООО, Краснодарский край, Сочи г, Строительный пер, д. 10А,</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="D7" t="str">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="D9" t="str">
+            <v/>
+          </cell>
+          <cell r="F9" t="str">
+            <v/>
+          </cell>
+          <cell r="H9" t="str">
+            <v/>
+          </cell>
+          <cell r="J9" t="str">
+            <v/>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="F10" t="str">
+            <v/>
+          </cell>
+          <cell r="H10" t="str">
+            <v/>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="D17" t="str">
+            <v xml:space="preserve">Штрих-код </v>
+          </cell>
+          <cell r="F17" t="str">
+            <v>Вес нетто штуки, кг</v>
+          </cell>
+          <cell r="G17" t="str">
+            <v>Кол-во штук в коробе, шт</v>
+          </cell>
+          <cell r="H17" t="str">
+            <v>Вес нетто короба, кг</v>
+          </cell>
+          <cell r="I17" t="str">
+            <v>Вес брутто короба, кг</v>
+          </cell>
+          <cell r="J17" t="str">
+            <v>Кол-во кор. на паллте, шт</v>
+          </cell>
+          <cell r="K17" t="str">
+            <v>Коробок в слое</v>
+          </cell>
+          <cell r="L17" t="str">
+            <v>Завод</v>
+          </cell>
+          <cell r="M17" t="str">
+            <v>Срок годности, сут.</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="F18" t="str">
+            <v>пачки, кг</v>
+          </cell>
+          <cell r="G18" t="str">
+            <v>в кор, шт</v>
+          </cell>
+          <cell r="H18" t="str">
+            <v>коробки</v>
+          </cell>
+          <cell r="I18" t="str">
+            <v>коробки</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="D22">
+            <v>4607111035752</v>
+          </cell>
+          <cell r="F22">
+            <v>0.43</v>
+          </cell>
+          <cell r="G22">
+            <v>16</v>
+          </cell>
+          <cell r="H22">
+            <v>6.88</v>
+          </cell>
+          <cell r="I22">
+            <v>7.2539999999999996</v>
+          </cell>
+          <cell r="J22">
+            <v>84</v>
+          </cell>
+          <cell r="K22" t="str">
+            <v>12</v>
+          </cell>
+          <cell r="L22" t="str">
+            <v>МГ</v>
+          </cell>
+          <cell r="M22">
+            <v>180</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="D28">
+            <v>4607111036520</v>
+          </cell>
+          <cell r="F28">
+            <v>0.25</v>
+          </cell>
+          <cell r="G28">
+            <v>6</v>
+          </cell>
+          <cell r="H28">
+            <v>1.5</v>
+          </cell>
+          <cell r="I28">
+            <v>1.9218</v>
+          </cell>
+          <cell r="J28">
+            <v>126</v>
+          </cell>
+          <cell r="K28" t="str">
+            <v>14</v>
+          </cell>
+          <cell r="L28" t="str">
+            <v>МГ</v>
+          </cell>
+          <cell r="M28">
+            <v>180</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="D29">
+            <v>4607111036605</v>
+          </cell>
+          <cell r="F29">
+            <v>0.25</v>
+          </cell>
+          <cell r="G29">
+            <v>6</v>
+          </cell>
+          <cell r="H29">
+            <v>1.5</v>
+          </cell>
+          <cell r="I29">
+            <v>1.9218</v>
+          </cell>
+          <cell r="J29">
+            <v>126</v>
+          </cell>
+          <cell r="K29" t="str">
+            <v>14</v>
+          </cell>
+          <cell r="L29" t="str">
+            <v>МГ</v>
+          </cell>
+          <cell r="M29">
+            <v>180</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="D30">
+            <v>4607111036537</v>
+          </cell>
+          <cell r="F30">
+            <v>0.25</v>
+          </cell>
+          <cell r="G30">
+            <v>6</v>
+          </cell>
+          <cell r="H30">
+            <v>1.5</v>
+          </cell>
+          <cell r="I30">
+            <v>1.9218</v>
+          </cell>
+          <cell r="J30">
+            <v>126</v>
+          </cell>
+          <cell r="K30" t="str">
+            <v>14</v>
+          </cell>
+          <cell r="L30" t="str">
+            <v>МГ</v>
+          </cell>
+          <cell r="M30">
+            <v>180</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="D31">
+            <v>4607111036599</v>
+          </cell>
+          <cell r="F31">
+            <v>0.25</v>
+          </cell>
+          <cell r="G31">
+            <v>6</v>
+          </cell>
+          <cell r="H31">
+            <v>1.5</v>
+          </cell>
+          <cell r="I31">
+            <v>1.9218</v>
+          </cell>
+          <cell r="J31">
+            <v>126</v>
+          </cell>
+          <cell r="K31" t="str">
+            <v>14</v>
+          </cell>
+          <cell r="L31" t="str">
+            <v>МГ</v>
+          </cell>
+          <cell r="M31">
+            <v>180</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="D36">
+            <v>4607111036285</v>
+          </cell>
+          <cell r="F36">
+            <v>0.75</v>
+          </cell>
+          <cell r="G36">
+            <v>8</v>
+          </cell>
+          <cell r="H36">
+            <v>6</v>
+          </cell>
+          <cell r="I36">
+            <v>6.27</v>
+          </cell>
+          <cell r="J36">
+            <v>84</v>
+          </cell>
+          <cell r="K36" t="str">
+            <v>12</v>
+          </cell>
+          <cell r="L36" t="str">
+            <v>МГ</v>
+          </cell>
+          <cell r="M36">
+            <v>180</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="D37">
+            <v>4607111036308</v>
+          </cell>
+          <cell r="F37">
+            <v>0.75</v>
+          </cell>
+          <cell r="G37">
+            <v>8</v>
+          </cell>
+          <cell r="H37">
+            <v>6</v>
+          </cell>
+          <cell r="I37">
+            <v>6.27</v>
+          </cell>
+          <cell r="J37">
+            <v>84</v>
+          </cell>
+          <cell r="K37" t="str">
+            <v>12</v>
+          </cell>
+          <cell r="L37" t="str">
+            <v>МГ</v>
+          </cell>
+          <cell r="M37">
+            <v>180</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="D38">
+            <v>4607111036315</v>
+          </cell>
+          <cell r="F38">
+            <v>0.75</v>
+          </cell>
+          <cell r="G38">
+            <v>8</v>
+          </cell>
+          <cell r="H38">
+            <v>6</v>
+          </cell>
+          <cell r="I38">
+            <v>6.27</v>
+          </cell>
+          <cell r="J38">
+            <v>84</v>
+          </cell>
+          <cell r="K38" t="str">
+            <v>12</v>
+          </cell>
+          <cell r="L38" t="str">
+            <v>МГ</v>
+          </cell>
+          <cell r="M38">
+            <v>180</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="D39">
+            <v>4607111036292</v>
+          </cell>
+          <cell r="F39">
+            <v>0.75</v>
+          </cell>
+          <cell r="G39">
+            <v>8</v>
+          </cell>
+          <cell r="H39">
+            <v>6</v>
+          </cell>
+          <cell r="I39">
+            <v>6.27</v>
+          </cell>
+          <cell r="J39">
+            <v>84</v>
+          </cell>
+          <cell r="K39" t="str">
+            <v>12</v>
+          </cell>
+          <cell r="L39" t="str">
+            <v>МГ</v>
+          </cell>
+          <cell r="M39">
+            <v>180</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="D44">
+            <v>4607111037053</v>
+          </cell>
+          <cell r="F44">
+            <v>0.2</v>
+          </cell>
+          <cell r="G44">
+            <v>6</v>
+          </cell>
+          <cell r="H44">
+            <v>1.2</v>
+          </cell>
+          <cell r="I44">
+            <v>1.5918000000000001</v>
+          </cell>
+          <cell r="J44">
+            <v>130</v>
+          </cell>
+          <cell r="K44" t="str">
+            <v>10</v>
+          </cell>
+          <cell r="L44" t="str">
+            <v>МГ</v>
+          </cell>
+          <cell r="M44">
+            <v>365</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="D45">
+            <v>4607111037060</v>
+          </cell>
+          <cell r="F45">
+            <v>0.2</v>
+          </cell>
+          <cell r="G45">
+            <v>6</v>
+          </cell>
+          <cell r="H45">
+            <v>1.2</v>
+          </cell>
+          <cell r="I45">
+            <v>1.5918000000000001</v>
+          </cell>
+          <cell r="J45">
+            <v>130</v>
+          </cell>
+          <cell r="K45" t="str">
+            <v>10</v>
+          </cell>
+          <cell r="L45" t="str">
+            <v>МГ</v>
+          </cell>
+          <cell r="M45">
+            <v>365</v>
+          </cell>
+        </row>
+        <row r="50">
+          <cell r="D50">
+            <v>4607111037190</v>
+          </cell>
+          <cell r="F50">
+            <v>0.43</v>
+          </cell>
+          <cell r="G50">
+            <v>16</v>
+          </cell>
+          <cell r="H50">
+            <v>6.88</v>
+          </cell>
+          <cell r="I50">
+            <v>7.1996000000000002</v>
+          </cell>
+          <cell r="J50">
+            <v>84</v>
+          </cell>
+          <cell r="K50" t="str">
+            <v>12</v>
+          </cell>
+          <cell r="L50" t="str">
+            <v>МГ</v>
+          </cell>
+          <cell r="M50">
+            <v>180</v>
+          </cell>
+        </row>
+        <row r="51">
+          <cell r="D51">
+            <v>4607111037183</v>
+          </cell>
+          <cell r="F51">
+            <v>0.9</v>
+          </cell>
+          <cell r="G51">
+            <v>8</v>
+          </cell>
+          <cell r="H51">
+            <v>7.2</v>
+          </cell>
+          <cell r="I51">
+            <v>7.4859999999999998</v>
+          </cell>
+          <cell r="J51">
+            <v>84</v>
+          </cell>
+          <cell r="K51" t="str">
+            <v>12</v>
+          </cell>
+          <cell r="L51" t="str">
+            <v>МГ</v>
+          </cell>
+          <cell r="M51">
+            <v>180</v>
+          </cell>
+        </row>
+        <row r="52">
+          <cell r="D52">
+            <v>4607111037091</v>
+          </cell>
+          <cell r="F52">
+            <v>0.43</v>
+          </cell>
+          <cell r="G52">
+            <v>16</v>
+          </cell>
+          <cell r="H52">
+            <v>6.88</v>
+          </cell>
+          <cell r="I52">
+            <v>7.11</v>
+          </cell>
+          <cell r="J52">
+            <v>84</v>
+          </cell>
+          <cell r="K52" t="str">
+            <v>12</v>
+          </cell>
+          <cell r="L52" t="str">
+            <v>МГ</v>
+          </cell>
+          <cell r="M52">
+            <v>180</v>
+          </cell>
+        </row>
+        <row r="53">
+          <cell r="D53">
+            <v>4607111036902</v>
+          </cell>
+          <cell r="F53">
+            <v>0.9</v>
+          </cell>
+          <cell r="G53">
+            <v>8</v>
+          </cell>
+          <cell r="H53">
+            <v>7.2</v>
+          </cell>
+          <cell r="I53">
+            <v>7.43</v>
+          </cell>
+          <cell r="J53">
+            <v>84</v>
+          </cell>
+          <cell r="K53" t="str">
+            <v>12</v>
+          </cell>
+          <cell r="L53" t="str">
+            <v>МГ</v>
+          </cell>
+          <cell r="M53">
+            <v>180</v>
+          </cell>
+        </row>
+        <row r="54">
+          <cell r="D54">
+            <v>4607111036858</v>
+          </cell>
+          <cell r="F54">
+            <v>0.43</v>
+          </cell>
+          <cell r="G54">
+            <v>16</v>
+          </cell>
+          <cell r="H54">
+            <v>6.88</v>
+          </cell>
+          <cell r="I54">
+            <v>7.1996000000000002</v>
+          </cell>
+          <cell r="J54">
+            <v>84</v>
+          </cell>
+          <cell r="K54" t="str">
+            <v>12</v>
+          </cell>
+          <cell r="L54" t="str">
+            <v>МГ</v>
+          </cell>
+          <cell r="M54">
+            <v>180</v>
+          </cell>
+        </row>
+        <row r="55">
+          <cell r="D55">
+            <v>4607111036889</v>
+          </cell>
+          <cell r="F55">
+            <v>0.9</v>
+          </cell>
+          <cell r="G55">
+            <v>8</v>
+          </cell>
+          <cell r="H55">
+            <v>7.2</v>
+          </cell>
+          <cell r="I55">
+            <v>7.4859999999999998</v>
+          </cell>
+          <cell r="J55">
+            <v>84</v>
+          </cell>
+          <cell r="K55" t="str">
+            <v>12</v>
+          </cell>
+          <cell r="L55" t="str">
+            <v>МГ</v>
+          </cell>
+          <cell r="M55">
+            <v>180</v>
+          </cell>
+        </row>
+        <row r="60">
+          <cell r="D60">
+            <v>4607111037411</v>
+          </cell>
+          <cell r="F60">
+            <v>2.7</v>
+          </cell>
+          <cell r="G60">
+            <v>1</v>
+          </cell>
+          <cell r="H60">
+            <v>2.7</v>
+          </cell>
+          <cell r="I60">
+            <v>2.8132000000000001</v>
+          </cell>
+          <cell r="J60">
+            <v>234</v>
+          </cell>
+          <cell r="K60" t="str">
+            <v>18</v>
+          </cell>
+          <cell r="L60" t="str">
+            <v>МГ</v>
+          </cell>
+          <cell r="M60">
+            <v>180</v>
+          </cell>
+        </row>
+        <row r="61">
+          <cell r="D61">
+            <v>4607111036728</v>
+          </cell>
+          <cell r="F61">
+            <v>5</v>
+          </cell>
+          <cell r="G61">
+            <v>1</v>
+          </cell>
+          <cell r="H61">
+            <v>5</v>
+          </cell>
+          <cell r="I61">
+            <v>5.2131999999999996</v>
+          </cell>
+          <cell r="J61">
+            <v>144</v>
+          </cell>
+          <cell r="K61" t="str">
+            <v>12</v>
+          </cell>
+          <cell r="L61" t="str">
+            <v>МГ</v>
+          </cell>
+          <cell r="M61">
+            <v>180</v>
+          </cell>
+        </row>
+        <row r="66">
+          <cell r="D66">
+            <v>4607111033659</v>
+          </cell>
+          <cell r="F66">
+            <v>0.3</v>
+          </cell>
+          <cell r="G66">
+            <v>12</v>
+          </cell>
+          <cell r="H66">
+            <v>3.6</v>
+          </cell>
+          <cell r="I66">
+            <v>4.3036000000000003</v>
+          </cell>
+          <cell r="J66">
+            <v>70</v>
+          </cell>
+          <cell r="K66" t="str">
+            <v>14</v>
+          </cell>
+          <cell r="L66" t="str">
+            <v>МГ</v>
+          </cell>
+          <cell r="M66">
+            <v>180</v>
+          </cell>
+        </row>
+        <row r="71">
+          <cell r="D71">
+            <v>4607111034137</v>
+          </cell>
+          <cell r="F71">
+            <v>0.3</v>
+          </cell>
+          <cell r="G71">
+            <v>12</v>
+          </cell>
+          <cell r="H71">
+            <v>3.6</v>
+          </cell>
+          <cell r="I71">
+            <v>4.3036000000000003</v>
+          </cell>
+          <cell r="J71">
+            <v>70</v>
+          </cell>
+          <cell r="K71" t="str">
+            <v>14</v>
+          </cell>
+          <cell r="L71" t="str">
+            <v>МГ</v>
+          </cell>
+          <cell r="M71">
+            <v>180</v>
+          </cell>
+        </row>
+        <row r="72">
+          <cell r="D72">
+            <v>4607111034120</v>
+          </cell>
+          <cell r="F72">
+            <v>0.3</v>
+          </cell>
+          <cell r="G72">
+            <v>12</v>
+          </cell>
+          <cell r="H72">
+            <v>3.6</v>
+          </cell>
+          <cell r="I72">
+            <v>4.3036000000000003</v>
+          </cell>
+          <cell r="J72">
+            <v>70</v>
+          </cell>
+          <cell r="K72" t="str">
+            <v>14</v>
+          </cell>
+          <cell r="L72" t="str">
+            <v>МГ</v>
+          </cell>
+          <cell r="M72">
+            <v>180</v>
+          </cell>
+        </row>
+        <row r="77">
+          <cell r="D77">
+            <v>4607111036407</v>
+          </cell>
+          <cell r="F77">
+            <v>0.3</v>
+          </cell>
+          <cell r="G77">
+            <v>14</v>
+          </cell>
+          <cell r="H77">
+            <v>4.2</v>
+          </cell>
+          <cell r="I77">
+            <v>4.5292000000000003</v>
+          </cell>
+          <cell r="J77">
+            <v>70</v>
+          </cell>
+          <cell r="K77" t="str">
+            <v>14</v>
+          </cell>
+          <cell r="L77" t="str">
+            <v>МГ</v>
+          </cell>
+          <cell r="M77">
+            <v>180</v>
+          </cell>
+        </row>
+        <row r="78">
+          <cell r="D78">
+            <v>4607111033628</v>
+          </cell>
+          <cell r="F78">
+            <v>0.3</v>
+          </cell>
+          <cell r="G78">
+            <v>12</v>
+          </cell>
+          <cell r="H78">
+            <v>3.6</v>
+          </cell>
+          <cell r="I78">
+            <v>4.3036000000000003</v>
+          </cell>
+          <cell r="J78">
+            <v>70</v>
+          </cell>
+          <cell r="K78" t="str">
+            <v>14</v>
+          </cell>
+          <cell r="L78" t="str">
+            <v>МГ</v>
+          </cell>
+          <cell r="M78">
+            <v>180</v>
+          </cell>
+        </row>
+        <row r="79">
+          <cell r="D79">
+            <v>4607111033451</v>
+          </cell>
+          <cell r="F79">
+            <v>0.3</v>
+          </cell>
+          <cell r="G79">
+            <v>12</v>
+          </cell>
+          <cell r="H79">
+            <v>3.6</v>
+          </cell>
+          <cell r="I79">
+            <v>4.3036000000000003</v>
+          </cell>
+          <cell r="J79">
+            <v>70</v>
+          </cell>
+          <cell r="K79" t="str">
+            <v>14</v>
+          </cell>
+          <cell r="L79" t="str">
+            <v>МГ</v>
+          </cell>
+          <cell r="M79">
+            <v>180</v>
+          </cell>
+        </row>
+        <row r="80">
+          <cell r="D80">
+            <v>4607111035141</v>
+          </cell>
+          <cell r="F80">
+            <v>0.3</v>
+          </cell>
+          <cell r="G80">
+            <v>12</v>
+          </cell>
+          <cell r="H80">
+            <v>3.6</v>
+          </cell>
+          <cell r="I80">
+            <v>4.3036000000000003</v>
+          </cell>
+          <cell r="J80">
+            <v>70</v>
+          </cell>
+          <cell r="K80" t="str">
+            <v>14</v>
+          </cell>
+          <cell r="L80" t="str">
+            <v>МГ</v>
+          </cell>
+          <cell r="M80">
+            <v>180</v>
+          </cell>
+        </row>
+        <row r="81">
+          <cell r="D81">
+            <v>4607111035028</v>
+          </cell>
+          <cell r="F81">
+            <v>0.48</v>
+          </cell>
+          <cell r="G81">
+            <v>8</v>
+          </cell>
+          <cell r="H81">
+            <v>3.84</v>
+          </cell>
+          <cell r="I81">
+            <v>4.4488000000000003</v>
+          </cell>
+          <cell r="J81">
+            <v>70</v>
+          </cell>
+          <cell r="K81" t="str">
+            <v>14</v>
+          </cell>
+          <cell r="L81" t="str">
+            <v>МГ</v>
+          </cell>
+          <cell r="M81">
+            <v>180</v>
+          </cell>
+        </row>
+        <row r="82">
+          <cell r="D82">
+            <v>4607111033444</v>
+          </cell>
+          <cell r="F82">
+            <v>0.3</v>
+          </cell>
+          <cell r="G82">
+            <v>12</v>
+          </cell>
+          <cell r="H82">
+            <v>3.6</v>
+          </cell>
+          <cell r="I82">
+            <v>4.3036000000000003</v>
+          </cell>
+          <cell r="J82">
+            <v>70</v>
+          </cell>
+          <cell r="K82" t="str">
+            <v>14</v>
+          </cell>
+          <cell r="L82" t="str">
+            <v>МГ</v>
+          </cell>
+          <cell r="M82">
+            <v>180</v>
+          </cell>
+        </row>
+        <row r="87">
+          <cell r="D87">
+            <v>4607025784012</v>
+          </cell>
+          <cell r="F87">
+            <v>0.09</v>
+          </cell>
+          <cell r="G87">
+            <v>24</v>
+          </cell>
+          <cell r="H87">
+            <v>2.16</v>
+          </cell>
+          <cell r="I87">
+            <v>2.4912000000000001</v>
+          </cell>
+          <cell r="J87">
+            <v>126</v>
+          </cell>
+          <cell r="K87" t="str">
+            <v>14</v>
+          </cell>
+          <cell r="L87" t="str">
+            <v>МГ</v>
+          </cell>
+          <cell r="M87">
+            <v>180</v>
+          </cell>
+        </row>
+        <row r="88">
+          <cell r="D88">
+            <v>4607025784319</v>
+          </cell>
+          <cell r="F88">
+            <v>0.36</v>
+          </cell>
+          <cell r="G88">
+            <v>10</v>
+          </cell>
+          <cell r="H88">
+            <v>3.6</v>
+          </cell>
+          <cell r="I88">
+            <v>4.2439999999999998</v>
+          </cell>
+          <cell r="J88">
+            <v>70</v>
+          </cell>
+          <cell r="K88" t="str">
+            <v>14</v>
+          </cell>
+          <cell r="L88" t="str">
+            <v>МГ</v>
+          </cell>
+          <cell r="M88">
+            <v>180</v>
+          </cell>
+        </row>
+        <row r="89">
+          <cell r="D89">
+            <v>4607111035370</v>
+          </cell>
+          <cell r="F89">
+            <v>0.14000000000000001</v>
+          </cell>
+          <cell r="G89">
+            <v>22</v>
+          </cell>
+          <cell r="H89">
+            <v>3.08</v>
+          </cell>
+          <cell r="I89">
+            <v>3.464</v>
+          </cell>
+          <cell r="J89">
+            <v>84</v>
+          </cell>
+          <cell r="K89" t="str">
+            <v>12</v>
+          </cell>
+          <cell r="L89" t="str">
+            <v>МГ</v>
+          </cell>
+          <cell r="M89">
+            <v>180</v>
+          </cell>
+        </row>
+        <row r="94">
+          <cell r="D94">
+            <v>4607111033970</v>
+          </cell>
+          <cell r="F94">
+            <v>0.43</v>
+          </cell>
+          <cell r="G94">
+            <v>16</v>
+          </cell>
+          <cell r="H94">
+            <v>6.88</v>
+          </cell>
+          <cell r="I94">
+            <v>7.1996000000000002</v>
+          </cell>
+          <cell r="J94">
+            <v>84</v>
+          </cell>
+          <cell r="K94" t="str">
+            <v>12</v>
+          </cell>
+          <cell r="L94" t="str">
+            <v>МГ</v>
+          </cell>
+          <cell r="M94">
+            <v>180</v>
+          </cell>
+        </row>
+        <row r="95">
+          <cell r="D95">
+            <v>4607111034144</v>
+          </cell>
+          <cell r="F95">
+            <v>0.9</v>
+          </cell>
+          <cell r="G95">
+            <v>8</v>
+          </cell>
+          <cell r="H95">
+            <v>7.2</v>
+          </cell>
+          <cell r="I95">
+            <v>7.4859999999999998</v>
+          </cell>
+          <cell r="J95">
+            <v>84</v>
+          </cell>
+          <cell r="K95" t="str">
+            <v>12</v>
+          </cell>
+          <cell r="L95" t="str">
+            <v>МГ</v>
+          </cell>
+          <cell r="M95">
+            <v>180</v>
+          </cell>
+        </row>
+        <row r="96">
+          <cell r="D96">
+            <v>4607111033987</v>
+          </cell>
+          <cell r="F96">
+            <v>0.43</v>
+          </cell>
+          <cell r="G96">
+            <v>16</v>
+          </cell>
+          <cell r="H96">
+            <v>6.88</v>
+          </cell>
+          <cell r="I96">
+            <v>7.1996000000000002</v>
+          </cell>
+          <cell r="J96">
+            <v>84</v>
+          </cell>
+          <cell r="K96" t="str">
+            <v>12</v>
+          </cell>
+          <cell r="L96" t="str">
+            <v>МГ</v>
+          </cell>
+          <cell r="M96">
+            <v>180</v>
+          </cell>
+        </row>
+        <row r="97">
+          <cell r="D97">
+            <v>4607111034151</v>
+          </cell>
+          <cell r="F97">
+            <v>0.9</v>
+          </cell>
+          <cell r="G97">
+            <v>8</v>
+          </cell>
+          <cell r="H97">
+            <v>7.2</v>
+          </cell>
+          <cell r="I97">
+            <v>7.4859999999999998</v>
+          </cell>
+          <cell r="J97">
+            <v>84</v>
+          </cell>
+          <cell r="K97" t="str">
+            <v>12</v>
+          </cell>
+          <cell r="L97" t="str">
+            <v>МГ</v>
+          </cell>
+          <cell r="M97">
+            <v>180</v>
+          </cell>
+        </row>
+        <row r="98">
+          <cell r="D98">
+            <v>4607111038098</v>
+          </cell>
+          <cell r="F98">
+            <v>0.8</v>
+          </cell>
+          <cell r="G98">
+            <v>8</v>
+          </cell>
+          <cell r="H98">
+            <v>6.4</v>
+          </cell>
+          <cell r="I98">
+            <v>6.6859999999999999</v>
+          </cell>
+          <cell r="J98">
+            <v>84</v>
+          </cell>
+          <cell r="K98" t="str">
+            <v>12</v>
+          </cell>
+          <cell r="L98" t="str">
+            <v>МГ</v>
+          </cell>
+          <cell r="M98">
+            <v>180</v>
+          </cell>
+        </row>
+        <row r="103">
+          <cell r="D103">
+            <v>4607111034014</v>
+          </cell>
+          <cell r="F103">
+            <v>0.25</v>
+          </cell>
+          <cell r="G103">
+            <v>12</v>
+          </cell>
+          <cell r="H103">
+            <v>3</v>
+          </cell>
+          <cell r="I103">
+            <v>3.7035999999999998</v>
+          </cell>
+          <cell r="J103">
+            <v>70</v>
+          </cell>
+          <cell r="K103" t="str">
+            <v>14</v>
+          </cell>
+          <cell r="L103" t="str">
+            <v>МГ</v>
+          </cell>
+          <cell r="M103">
+            <v>180</v>
+          </cell>
+        </row>
+        <row r="104">
+          <cell r="D104">
+            <v>4607111033994</v>
+          </cell>
+          <cell r="F104">
+            <v>0.25</v>
+          </cell>
+          <cell r="G104">
+            <v>12</v>
+          </cell>
+          <cell r="H104">
+            <v>3</v>
+          </cell>
+          <cell r="I104">
+            <v>3.7035999999999998</v>
+          </cell>
+          <cell r="J104">
+            <v>70</v>
+          </cell>
+          <cell r="K104" t="str">
+            <v>14</v>
+          </cell>
+          <cell r="L104" t="str">
+            <v>МГ</v>
+          </cell>
+          <cell r="M104">
+            <v>180</v>
+          </cell>
+        </row>
+        <row r="109">
+          <cell r="D109">
+            <v>4607111034199</v>
+          </cell>
+          <cell r="F109">
+            <v>0.25</v>
+          </cell>
+          <cell r="G109">
+            <v>12</v>
+          </cell>
+          <cell r="H109">
+            <v>3</v>
+          </cell>
+          <cell r="I109">
+            <v>3.7035999999999998</v>
+          </cell>
+          <cell r="J109">
+            <v>70</v>
+          </cell>
+          <cell r="K109" t="str">
+            <v>14</v>
+          </cell>
+          <cell r="L109" t="str">
+            <v>МГ</v>
+          </cell>
+          <cell r="M109">
+            <v>180</v>
+          </cell>
+        </row>
+        <row r="114">
+          <cell r="D114">
+            <v>4607111034670</v>
+          </cell>
+          <cell r="F114">
+            <v>3</v>
+          </cell>
+          <cell r="G114">
+            <v>1</v>
+          </cell>
+          <cell r="H114">
+            <v>3</v>
+          </cell>
+          <cell r="I114">
+            <v>3.1949999999999998</v>
+          </cell>
+          <cell r="J114">
+            <v>126</v>
+          </cell>
+          <cell r="K114" t="str">
+            <v>14</v>
+          </cell>
+          <cell r="L114" t="str">
+            <v>МГ</v>
+          </cell>
+          <cell r="M114">
+            <v>180</v>
+          </cell>
+        </row>
+        <row r="115">
+          <cell r="D115">
+            <v>4607111034687</v>
+          </cell>
+          <cell r="F115">
+            <v>3</v>
+          </cell>
+          <cell r="G115">
+            <v>1</v>
+          </cell>
+          <cell r="H115">
+            <v>3</v>
+          </cell>
+          <cell r="I115">
+            <v>3.1949999999999998</v>
+          </cell>
+          <cell r="J115">
+            <v>126</v>
+          </cell>
+          <cell r="K115" t="str">
+            <v>14</v>
+          </cell>
+          <cell r="L115" t="str">
+            <v>МГ</v>
+          </cell>
+          <cell r="M115">
+            <v>180</v>
+          </cell>
+        </row>
+        <row r="116">
+          <cell r="D116">
+            <v>4607111034380</v>
+          </cell>
+          <cell r="F116">
+            <v>0.25</v>
+          </cell>
+          <cell r="G116">
+            <v>12</v>
+          </cell>
+          <cell r="H116">
+            <v>3</v>
+          </cell>
+          <cell r="I116">
+            <v>3.7035999999999998</v>
+          </cell>
+          <cell r="J116">
+            <v>70</v>
+          </cell>
+          <cell r="K116" t="str">
+            <v>14</v>
+          </cell>
+          <cell r="L116" t="str">
+            <v>МГ</v>
+          </cell>
+          <cell r="M116">
+            <v>180</v>
+          </cell>
+        </row>
+        <row r="117">
+          <cell r="D117">
+            <v>4607111034397</v>
+          </cell>
+          <cell r="F117">
+            <v>0.25</v>
+          </cell>
+          <cell r="G117">
+            <v>12</v>
+          </cell>
+          <cell r="H117">
+            <v>3</v>
+          </cell>
+          <cell r="I117">
+            <v>3.7035999999999998</v>
+          </cell>
+          <cell r="J117">
+            <v>70</v>
+          </cell>
+          <cell r="K117" t="str">
+            <v>14</v>
+          </cell>
+          <cell r="L117" t="str">
+            <v>МГ</v>
+          </cell>
+          <cell r="M117">
+            <v>180</v>
+          </cell>
+        </row>
+        <row r="122">
+          <cell r="D122">
+            <v>4607111035806</v>
+          </cell>
+          <cell r="F122">
+            <v>0.25</v>
+          </cell>
+          <cell r="G122">
+            <v>12</v>
+          </cell>
+          <cell r="H122">
+            <v>3</v>
+          </cell>
+          <cell r="I122">
+            <v>3.7035999999999998</v>
+          </cell>
+          <cell r="J122">
+            <v>70</v>
+          </cell>
+          <cell r="K122" t="str">
+            <v>14</v>
+          </cell>
+          <cell r="L122" t="str">
+            <v>МГ</v>
+          </cell>
+          <cell r="M122">
+            <v>180</v>
+          </cell>
+        </row>
+        <row r="127">
+          <cell r="D127">
+            <v>4607111035639</v>
+          </cell>
+          <cell r="F127">
+            <v>0.2</v>
+          </cell>
+          <cell r="G127">
+            <v>12</v>
+          </cell>
+          <cell r="H127">
+            <v>2.4</v>
+          </cell>
+          <cell r="I127">
+            <v>3.13</v>
+          </cell>
+          <cell r="J127">
+            <v>48</v>
+          </cell>
+          <cell r="K127" t="str">
+            <v>8</v>
+          </cell>
+          <cell r="L127" t="str">
+            <v>МГ</v>
+          </cell>
+          <cell r="M127">
+            <v>180</v>
+          </cell>
+        </row>
+        <row r="128">
+          <cell r="D128">
+            <v>4607111035646</v>
+          </cell>
+          <cell r="F128">
+            <v>0.2</v>
+          </cell>
+          <cell r="G128">
+            <v>8</v>
+          </cell>
+          <cell r="H128">
+            <v>1.6</v>
+          </cell>
+          <cell r="I128">
+            <v>2.12</v>
+          </cell>
+          <cell r="J128">
+            <v>72</v>
+          </cell>
+          <cell r="K128" t="str">
+            <v>6</v>
+          </cell>
+          <cell r="L128" t="str">
+            <v>МГ</v>
+          </cell>
+          <cell r="M128">
+            <v>180</v>
+          </cell>
+        </row>
+        <row r="133">
+          <cell r="D133">
+            <v>4607111036568</v>
+          </cell>
+          <cell r="F133">
+            <v>0.28000000000000003</v>
+          </cell>
+          <cell r="G133">
+            <v>6</v>
+          </cell>
+          <cell r="H133">
+            <v>1.68</v>
+          </cell>
+          <cell r="I133">
+            <v>2.1017999999999999</v>
+          </cell>
+          <cell r="J133">
+            <v>126</v>
+          </cell>
+          <cell r="K133" t="str">
+            <v>14</v>
+          </cell>
+          <cell r="L133" t="str">
+            <v>МГ</v>
+          </cell>
+          <cell r="M133">
+            <v>180</v>
+          </cell>
+        </row>
+        <row r="139">
+          <cell r="D139">
+            <v>4607111037701</v>
+          </cell>
+          <cell r="F139">
+            <v>5</v>
+          </cell>
+          <cell r="G139">
+            <v>1</v>
+          </cell>
+          <cell r="H139">
+            <v>5</v>
+          </cell>
+          <cell r="I139">
+            <v>5.2</v>
+          </cell>
+          <cell r="J139">
+            <v>144</v>
+          </cell>
+          <cell r="K139" t="str">
+            <v>12</v>
+          </cell>
+          <cell r="L139" t="str">
+            <v>МГ</v>
+          </cell>
+          <cell r="M139">
+            <v>180</v>
+          </cell>
+        </row>
+        <row r="144">
+          <cell r="D144">
+            <v>4607111036384</v>
+          </cell>
+          <cell r="F144">
+            <v>1</v>
+          </cell>
+          <cell r="G144">
+            <v>5</v>
+          </cell>
+          <cell r="H144">
+            <v>5</v>
+          </cell>
+          <cell r="I144">
+            <v>5.2530000000000001</v>
+          </cell>
+          <cell r="J144">
+            <v>144</v>
+          </cell>
+          <cell r="K144" t="str">
+            <v>12</v>
+          </cell>
+          <cell r="L144" t="str">
+            <v>МГ</v>
+          </cell>
+          <cell r="M144">
+            <v>180</v>
+          </cell>
+        </row>
+        <row r="145">
+          <cell r="D145">
+            <v>4640242180250</v>
+          </cell>
+          <cell r="F145">
+            <v>5</v>
+          </cell>
+          <cell r="G145">
+            <v>1</v>
+          </cell>
+          <cell r="H145">
+            <v>5</v>
+          </cell>
+          <cell r="I145">
+            <v>5.2131999999999996</v>
+          </cell>
+          <cell r="J145">
+            <v>144</v>
+          </cell>
+          <cell r="K145" t="str">
+            <v>12</v>
+          </cell>
+          <cell r="L145" t="str">
+            <v>МГ</v>
+          </cell>
+          <cell r="M145">
+            <v>180</v>
+          </cell>
+        </row>
+        <row r="146">
+          <cell r="D146">
+            <v>4607111036216</v>
+          </cell>
+          <cell r="F146">
+            <v>1</v>
+          </cell>
+          <cell r="G146">
+            <v>5</v>
+          </cell>
+          <cell r="H146">
+            <v>5</v>
+          </cell>
+          <cell r="I146">
+            <v>5.266</v>
+          </cell>
+          <cell r="J146">
+            <v>144</v>
+          </cell>
+          <cell r="K146" t="str">
+            <v>12</v>
+          </cell>
+          <cell r="L146" t="str">
+            <v>МГ</v>
+          </cell>
+          <cell r="M146">
+            <v>180</v>
+          </cell>
+        </row>
+        <row r="147">
+          <cell r="D147">
+            <v>4607111036278</v>
+          </cell>
+          <cell r="F147">
+            <v>1</v>
+          </cell>
+          <cell r="G147">
+            <v>5</v>
+          </cell>
+          <cell r="H147">
+            <v>5</v>
+          </cell>
+          <cell r="I147">
+            <v>5.2830000000000004</v>
+          </cell>
+          <cell r="J147">
+            <v>84</v>
+          </cell>
+          <cell r="K147" t="str">
+            <v>12</v>
+          </cell>
+          <cell r="L147" t="str">
+            <v>МГ</v>
+          </cell>
+          <cell r="M147">
+            <v>120</v>
+          </cell>
+        </row>
+        <row r="151">
+          <cell r="D151">
+            <v>4607111036827</v>
+          </cell>
+          <cell r="F151">
+            <v>1</v>
+          </cell>
+          <cell r="G151">
+            <v>5</v>
+          </cell>
+          <cell r="H151">
+            <v>5</v>
+          </cell>
+          <cell r="I151">
+            <v>5.2</v>
+          </cell>
+          <cell r="J151">
+            <v>144</v>
+          </cell>
+          <cell r="K151" t="str">
+            <v>12</v>
+          </cell>
+          <cell r="L151" t="str">
+            <v>МГ</v>
+          </cell>
+          <cell r="M151">
+            <v>90</v>
+          </cell>
+        </row>
+        <row r="152">
+          <cell r="D152">
+            <v>4607111036834</v>
+          </cell>
+          <cell r="F152">
+            <v>1</v>
+          </cell>
+          <cell r="G152">
+            <v>5</v>
+          </cell>
+          <cell r="H152">
+            <v>5</v>
+          </cell>
+          <cell r="I152">
+            <v>5.2530000000000001</v>
+          </cell>
+          <cell r="J152">
+            <v>144</v>
+          </cell>
+          <cell r="K152" t="str">
+            <v>12</v>
+          </cell>
+          <cell r="L152" t="str">
+            <v>МГ</v>
+          </cell>
+          <cell r="M152">
+            <v>90</v>
+          </cell>
+        </row>
+        <row r="158">
+          <cell r="D158">
+            <v>4607111035721</v>
+          </cell>
+          <cell r="F158">
+            <v>0.25</v>
+          </cell>
+          <cell r="G158">
+            <v>12</v>
+          </cell>
+          <cell r="H158">
+            <v>3</v>
+          </cell>
+          <cell r="I158">
+            <v>3.3879999999999999</v>
+          </cell>
+          <cell r="J158">
+            <v>70</v>
+          </cell>
+          <cell r="K158" t="str">
+            <v>14</v>
+          </cell>
+          <cell r="L158" t="str">
+            <v>МГ</v>
+          </cell>
+          <cell r="M158">
+            <v>180</v>
+          </cell>
+        </row>
+        <row r="159">
+          <cell r="D159">
+            <v>4607111035691</v>
+          </cell>
+          <cell r="F159">
+            <v>0.25</v>
+          </cell>
+          <cell r="G159">
+            <v>12</v>
+          </cell>
+          <cell r="H159">
+            <v>3</v>
+          </cell>
+          <cell r="I159">
+            <v>3.3879999999999999</v>
+          </cell>
+          <cell r="J159">
+            <v>70</v>
+          </cell>
+          <cell r="K159" t="str">
+            <v>14</v>
+          </cell>
+          <cell r="L159" t="str">
+            <v>МГ</v>
+          </cell>
+          <cell r="M159">
+            <v>180</v>
+          </cell>
+        </row>
+        <row r="164">
+          <cell r="D164">
+            <v>4607111035783</v>
+          </cell>
+          <cell r="F164">
+            <v>0.2</v>
+          </cell>
+          <cell r="G164">
+            <v>8</v>
+          </cell>
+          <cell r="H164">
+            <v>1.6</v>
+          </cell>
+          <cell r="I164">
+            <v>2.12</v>
+          </cell>
+          <cell r="J164">
+            <v>72</v>
+          </cell>
+          <cell r="K164" t="str">
+            <v>6</v>
+          </cell>
+          <cell r="L164" t="str">
+            <v>МГ</v>
+          </cell>
+          <cell r="M164">
+            <v>180</v>
+          </cell>
+        </row>
+        <row r="169">
+          <cell r="D169">
+            <v>4680115881204</v>
+          </cell>
+          <cell r="F169">
+            <v>0.33</v>
+          </cell>
+          <cell r="G169">
+            <v>6</v>
+          </cell>
+          <cell r="H169">
+            <v>1.98</v>
+          </cell>
+          <cell r="I169">
+            <v>2.246</v>
+          </cell>
+          <cell r="J169">
+            <v>156</v>
+          </cell>
+          <cell r="K169" t="str">
+            <v>12</v>
+          </cell>
+          <cell r="L169" t="str">
+            <v>СК2</v>
+          </cell>
+          <cell r="M169">
+            <v>365</v>
+          </cell>
+        </row>
+        <row r="174">
+          <cell r="D174">
+            <v>4607111038487</v>
+          </cell>
+          <cell r="F174">
+            <v>0.25</v>
+          </cell>
+          <cell r="G174">
+            <v>12</v>
+          </cell>
+          <cell r="H174">
+            <v>3</v>
+          </cell>
+          <cell r="I174">
+            <v>3.7360000000000002</v>
+          </cell>
+          <cell r="J174">
+            <v>70</v>
+          </cell>
+          <cell r="K174" t="str">
+            <v>14</v>
+          </cell>
+          <cell r="L174" t="str">
+            <v>МГ</v>
+          </cell>
+          <cell r="M174">
+            <v>180</v>
+          </cell>
+        </row>
+        <row r="180">
+          <cell r="D180">
+            <v>4607111037022</v>
+          </cell>
+          <cell r="F180">
+            <v>0.7</v>
+          </cell>
+          <cell r="G180">
+            <v>8</v>
+          </cell>
+          <cell r="H180">
+            <v>5.6</v>
+          </cell>
+          <cell r="I180">
+            <v>5.87</v>
+          </cell>
+          <cell r="J180">
+            <v>84</v>
+          </cell>
+          <cell r="K180" t="str">
+            <v>12</v>
+          </cell>
+          <cell r="L180" t="str">
+            <v>МГ</v>
+          </cell>
+          <cell r="M180">
+            <v>180</v>
+          </cell>
+        </row>
+        <row r="185">
+          <cell r="D185">
+            <v>4607111038494</v>
+          </cell>
+          <cell r="F185">
+            <v>0.7</v>
+          </cell>
+          <cell r="G185">
+            <v>8</v>
+          </cell>
+          <cell r="H185">
+            <v>5.6</v>
+          </cell>
+          <cell r="I185">
+            <v>5.87</v>
+          </cell>
+          <cell r="J185">
+            <v>84</v>
+          </cell>
+          <cell r="K185" t="str">
+            <v>12</v>
+          </cell>
+          <cell r="L185" t="str">
+            <v>МГ</v>
+          </cell>
+          <cell r="M185">
+            <v>180</v>
+          </cell>
+        </row>
+        <row r="186">
+          <cell r="D186">
+            <v>4607111038135</v>
+          </cell>
+          <cell r="F186">
+            <v>0.7</v>
+          </cell>
+          <cell r="G186">
+            <v>8</v>
+          </cell>
+          <cell r="H186">
+            <v>5.6</v>
+          </cell>
+          <cell r="I186">
+            <v>5.87</v>
+          </cell>
+          <cell r="J186">
+            <v>84</v>
+          </cell>
+          <cell r="K186" t="str">
+            <v>12</v>
+          </cell>
+          <cell r="L186" t="str">
+            <v>МГ</v>
+          </cell>
+          <cell r="M186">
+            <v>180</v>
+          </cell>
+        </row>
+        <row r="191">
+          <cell r="D191">
+            <v>4607111035882</v>
+          </cell>
+          <cell r="F191">
+            <v>0.43</v>
+          </cell>
+          <cell r="G191">
+            <v>16</v>
+          </cell>
+          <cell r="H191">
+            <v>6.88</v>
+          </cell>
+          <cell r="I191">
+            <v>7.19</v>
+          </cell>
+          <cell r="J191">
+            <v>84</v>
+          </cell>
+          <cell r="K191" t="str">
+            <v>12</v>
+          </cell>
+          <cell r="L191" t="str">
+            <v>МГ</v>
+          </cell>
+          <cell r="M191">
+            <v>180</v>
+          </cell>
+        </row>
+        <row r="192">
+          <cell r="D192">
+            <v>4607111035905</v>
+          </cell>
+          <cell r="F192">
+            <v>0.9</v>
+          </cell>
+          <cell r="G192">
+            <v>8</v>
+          </cell>
+          <cell r="H192">
+            <v>7.2</v>
+          </cell>
+          <cell r="I192">
+            <v>7.47</v>
+          </cell>
+          <cell r="J192">
+            <v>84</v>
+          </cell>
+          <cell r="K192" t="str">
+            <v>12</v>
+          </cell>
+          <cell r="L192" t="str">
+            <v>МГ</v>
+          </cell>
+          <cell r="M192">
+            <v>180</v>
+          </cell>
+        </row>
+        <row r="193">
+          <cell r="D193">
+            <v>4607111035912</v>
+          </cell>
+          <cell r="F193">
+            <v>0.43</v>
+          </cell>
+          <cell r="G193">
+            <v>16</v>
+          </cell>
+          <cell r="H193">
+            <v>6.88</v>
+          </cell>
+          <cell r="I193">
+            <v>7.19</v>
+          </cell>
+          <cell r="J193">
+            <v>84</v>
+          </cell>
+          <cell r="K193" t="str">
+            <v>12</v>
+          </cell>
+          <cell r="L193" t="str">
+            <v>МГ</v>
+          </cell>
+          <cell r="M193">
+            <v>180</v>
+          </cell>
+        </row>
+        <row r="194">
+          <cell r="D194">
+            <v>4607111035929</v>
+          </cell>
+          <cell r="F194">
+            <v>0.9</v>
+          </cell>
+          <cell r="G194">
+            <v>8</v>
+          </cell>
+          <cell r="H194">
+            <v>7.2</v>
+          </cell>
+          <cell r="I194">
+            <v>7.47</v>
+          </cell>
+          <cell r="J194">
+            <v>84</v>
+          </cell>
+          <cell r="K194" t="str">
+            <v>12</v>
+          </cell>
+          <cell r="L194" t="str">
+            <v>МГ</v>
+          </cell>
+          <cell r="M194">
+            <v>180</v>
+          </cell>
+        </row>
+        <row r="199">
+          <cell r="D199">
+            <v>4680115881334</v>
+          </cell>
+          <cell r="F199">
+            <v>0.33</v>
+          </cell>
+          <cell r="G199">
+            <v>6</v>
+          </cell>
+          <cell r="H199">
+            <v>1.98</v>
+          </cell>
+          <cell r="I199">
+            <v>2.27</v>
+          </cell>
+          <cell r="J199">
+            <v>156</v>
+          </cell>
+          <cell r="K199" t="str">
+            <v>12</v>
+          </cell>
+          <cell r="L199" t="str">
+            <v>СК2</v>
+          </cell>
+          <cell r="M199">
+            <v>365</v>
+          </cell>
+        </row>
+        <row r="204">
+          <cell r="D204">
+            <v>4607111035332</v>
+          </cell>
+          <cell r="F204">
+            <v>0.43</v>
+          </cell>
+          <cell r="G204">
+            <v>16</v>
+          </cell>
+          <cell r="H204">
+            <v>6.88</v>
+          </cell>
+          <cell r="I204">
+            <v>7.2060000000000004</v>
+          </cell>
+          <cell r="J204">
+            <v>84</v>
+          </cell>
+          <cell r="K204" t="str">
+            <v>12</v>
+          </cell>
+          <cell r="L204" t="str">
+            <v>МГ</v>
+          </cell>
+          <cell r="M204">
+            <v>180</v>
+          </cell>
+        </row>
+        <row r="205">
+          <cell r="D205">
+            <v>4607111035080</v>
+          </cell>
+          <cell r="F205">
+            <v>0.9</v>
+          </cell>
+          <cell r="G205">
+            <v>8</v>
+          </cell>
+          <cell r="H205">
+            <v>7.2</v>
+          </cell>
+          <cell r="I205">
+            <v>7.47</v>
+          </cell>
+          <cell r="J205">
+            <v>84</v>
+          </cell>
+          <cell r="K205" t="str">
+            <v>12</v>
+          </cell>
+          <cell r="L205" t="str">
+            <v>МГ</v>
+          </cell>
+          <cell r="M205">
+            <v>180</v>
+          </cell>
+        </row>
+        <row r="211">
+          <cell r="D211">
+            <v>4607111036162</v>
+          </cell>
+          <cell r="F211">
+            <v>0.8</v>
+          </cell>
+          <cell r="G211">
+            <v>8</v>
+          </cell>
+          <cell r="H211">
+            <v>6.4</v>
+          </cell>
+          <cell r="I211">
+            <v>6.6811999999999996</v>
+          </cell>
+          <cell r="J211">
+            <v>84</v>
+          </cell>
+          <cell r="K211" t="str">
+            <v>12</v>
+          </cell>
+          <cell r="L211" t="str">
+            <v>МГ</v>
+          </cell>
+          <cell r="M211">
+            <v>90</v>
+          </cell>
+        </row>
+        <row r="217">
+          <cell r="D217">
+            <v>4607111035899</v>
+          </cell>
+          <cell r="F217">
+            <v>1</v>
+          </cell>
+          <cell r="G217">
+            <v>5</v>
+          </cell>
+          <cell r="H217">
+            <v>5</v>
+          </cell>
+          <cell r="I217">
+            <v>5.2619999999999996</v>
+          </cell>
+          <cell r="J217">
+            <v>84</v>
+          </cell>
+          <cell r="K217" t="str">
+            <v>12</v>
+          </cell>
+          <cell r="L217" t="str">
+            <v>МГ</v>
+          </cell>
+          <cell r="M217">
+            <v>180</v>
+          </cell>
+        </row>
+        <row r="222">
+          <cell r="D222">
+            <v>4607111036711</v>
+          </cell>
+          <cell r="F222">
+            <v>0.8</v>
+          </cell>
+          <cell r="G222">
+            <v>8</v>
+          </cell>
+          <cell r="H222">
+            <v>6.4</v>
+          </cell>
+          <cell r="I222">
+            <v>6.67</v>
+          </cell>
+          <cell r="J222">
+            <v>84</v>
+          </cell>
+          <cell r="K222" t="str">
+            <v>12</v>
+          </cell>
+          <cell r="L222" t="str">
+            <v>МГ</v>
+          </cell>
+          <cell r="M222">
+            <v>90</v>
+          </cell>
+        </row>
+        <row r="228">
+          <cell r="D228">
+            <v>4640242180427</v>
+          </cell>
+          <cell r="F228">
+            <v>1.8</v>
+          </cell>
+          <cell r="G228">
+            <v>1</v>
+          </cell>
+          <cell r="H228">
+            <v>1.8</v>
+          </cell>
+          <cell r="I228">
+            <v>1.915</v>
+          </cell>
+          <cell r="J228">
+            <v>234</v>
+          </cell>
+          <cell r="K228" t="str">
+            <v>18</v>
+          </cell>
+          <cell r="L228" t="str">
+            <v>МГ</v>
+          </cell>
+          <cell r="M228">
+            <v>180</v>
+          </cell>
+        </row>
+        <row r="232">
+          <cell r="D232">
+            <v>4640242180397</v>
+          </cell>
+          <cell r="F232">
+            <v>1</v>
+          </cell>
+          <cell r="G232">
+            <v>6</v>
+          </cell>
+          <cell r="H232">
+            <v>6</v>
+          </cell>
+          <cell r="I232">
+            <v>6.26</v>
+          </cell>
+          <cell r="J232">
+            <v>84</v>
+          </cell>
+          <cell r="K232" t="str">
+            <v>12</v>
+          </cell>
+          <cell r="L232" t="str">
+            <v>МГ</v>
+          </cell>
+          <cell r="M232">
+            <v>180</v>
+          </cell>
+        </row>
+        <row r="236">
+          <cell r="D236">
+            <v>4640242180304</v>
+          </cell>
+          <cell r="F236">
+            <v>2.7</v>
+          </cell>
+          <cell r="G236">
+            <v>1</v>
+          </cell>
+          <cell r="H236">
+            <v>2.7</v>
+          </cell>
+          <cell r="I236">
+            <v>2.8906000000000001</v>
+          </cell>
+          <cell r="J236">
+            <v>126</v>
+          </cell>
+          <cell r="K236" t="str">
+            <v>14</v>
+          </cell>
+          <cell r="L236" t="str">
+            <v>МГ</v>
+          </cell>
+          <cell r="M236">
+            <v>180</v>
+          </cell>
+        </row>
+        <row r="237">
+          <cell r="D237">
+            <v>4640242180298</v>
+          </cell>
+          <cell r="F237">
+            <v>2.7</v>
+          </cell>
+          <cell r="G237">
+            <v>1</v>
+          </cell>
+          <cell r="H237">
+            <v>2.7</v>
+          </cell>
+          <cell r="I237">
+            <v>2.8919999999999999</v>
+          </cell>
+          <cell r="J237">
+            <v>126</v>
+          </cell>
+          <cell r="K237" t="str">
+            <v>14</v>
+          </cell>
+          <cell r="L237" t="str">
+            <v>МГ</v>
+          </cell>
+          <cell r="M237">
+            <v>180</v>
+          </cell>
+        </row>
+        <row r="238">
+          <cell r="D238">
+            <v>4640242180236</v>
+          </cell>
+          <cell r="F238">
+            <v>5</v>
+          </cell>
+          <cell r="G238">
+            <v>1</v>
+          </cell>
+          <cell r="H238">
+            <v>5</v>
+          </cell>
+          <cell r="I238">
+            <v>5.2350000000000003</v>
+          </cell>
+          <cell r="J238">
+            <v>84</v>
+          </cell>
+          <cell r="K238" t="str">
+            <v>12</v>
+          </cell>
+          <cell r="L238" t="str">
+            <v>МГ</v>
+          </cell>
+          <cell r="M238">
+            <v>180</v>
+          </cell>
+        </row>
+        <row r="239">
+          <cell r="D239">
+            <v>4640242180410</v>
+          </cell>
+          <cell r="F239">
+            <v>2.2400000000000002</v>
+          </cell>
+          <cell r="G239">
+            <v>1</v>
+          </cell>
+          <cell r="H239">
+            <v>2.2400000000000002</v>
+          </cell>
+          <cell r="I239">
+            <v>2.4319999999999999</v>
+          </cell>
+          <cell r="J239">
+            <v>126</v>
+          </cell>
+          <cell r="K239" t="str">
+            <v>14</v>
+          </cell>
+          <cell r="L239" t="str">
+            <v>МГ</v>
+          </cell>
+          <cell r="M239">
+            <v>180</v>
+          </cell>
+        </row>
+        <row r="243">
+          <cell r="D243">
+            <v>4640242180373</v>
+          </cell>
+          <cell r="F243">
+            <v>3</v>
+          </cell>
+          <cell r="G243">
+            <v>1</v>
+          </cell>
+          <cell r="H243">
+            <v>3</v>
+          </cell>
+          <cell r="I243">
+            <v>3.1920000000000002</v>
+          </cell>
+          <cell r="J243">
+            <v>126</v>
+          </cell>
+          <cell r="K243" t="str">
+            <v>14</v>
+          </cell>
+          <cell r="L243" t="str">
+            <v>МГ</v>
+          </cell>
+          <cell r="M243">
+            <v>180</v>
+          </cell>
+        </row>
+        <row r="244">
+          <cell r="D244">
+            <v>4640242180366</v>
+          </cell>
+          <cell r="F244">
+            <v>3.7</v>
+          </cell>
+          <cell r="G244">
+            <v>1</v>
+          </cell>
+          <cell r="H244">
+            <v>3.7</v>
+          </cell>
+          <cell r="I244">
+            <v>3.8919999999999999</v>
+          </cell>
+          <cell r="J244">
+            <v>126</v>
+          </cell>
+          <cell r="K244" t="str">
+            <v>14</v>
+          </cell>
+          <cell r="L244" t="str">
+            <v>МГ</v>
+          </cell>
+          <cell r="M244">
+            <v>180</v>
+          </cell>
+        </row>
+        <row r="245">
+          <cell r="D245">
+            <v>4640242180335</v>
+          </cell>
+          <cell r="F245">
+            <v>3.7</v>
+          </cell>
+          <cell r="G245">
+            <v>1</v>
+          </cell>
+          <cell r="H245">
+            <v>3.7</v>
+          </cell>
+          <cell r="I245">
+            <v>3.8919999999999999</v>
+          </cell>
+          <cell r="J245">
+            <v>126</v>
+          </cell>
+          <cell r="K245" t="str">
+            <v>14</v>
+          </cell>
+          <cell r="L245" t="str">
+            <v>МГ</v>
+          </cell>
+          <cell r="M245">
+            <v>180</v>
+          </cell>
+        </row>
+        <row r="246">
+          <cell r="D246">
+            <v>4640242180342</v>
+          </cell>
+          <cell r="F246">
+            <v>3.7</v>
+          </cell>
+          <cell r="G246">
+            <v>1</v>
+          </cell>
+          <cell r="H246">
+            <v>3.7</v>
+          </cell>
+          <cell r="I246">
+            <v>3.8919999999999999</v>
+          </cell>
+          <cell r="J246">
+            <v>126</v>
+          </cell>
+          <cell r="K246" t="str">
+            <v>14</v>
+          </cell>
+          <cell r="L246" t="str">
+            <v>МГ</v>
+          </cell>
+          <cell r="M246">
+            <v>180</v>
+          </cell>
+        </row>
+        <row r="247">
+          <cell r="D247">
+            <v>4640242180359</v>
+          </cell>
+          <cell r="F247">
+            <v>3.7</v>
+          </cell>
+          <cell r="G247">
+            <v>1</v>
+          </cell>
+          <cell r="H247">
+            <v>3.7</v>
+          </cell>
+          <cell r="I247">
+            <v>3.8919999999999999</v>
+          </cell>
+          <cell r="J247">
+            <v>126</v>
+          </cell>
+          <cell r="K247" t="str">
+            <v>14</v>
+          </cell>
+          <cell r="L247" t="str">
+            <v>МГ</v>
+          </cell>
+          <cell r="M247">
+            <v>180</v>
+          </cell>
+        </row>
+        <row r="248">
+          <cell r="D248">
+            <v>4640242180380</v>
+          </cell>
+          <cell r="F248">
+            <v>3.7</v>
+          </cell>
+          <cell r="G248">
+            <v>1</v>
+          </cell>
+          <cell r="H248">
+            <v>3.7</v>
+          </cell>
+          <cell r="I248">
+            <v>3.8919999999999999</v>
+          </cell>
+          <cell r="J248">
+            <v>126</v>
+          </cell>
+          <cell r="K248" t="str">
+            <v>14</v>
+          </cell>
+          <cell r="L248" t="str">
+            <v>МГ</v>
+          </cell>
+          <cell r="M248">
+            <v>180</v>
+          </cell>
+        </row>
+        <row r="249">
+          <cell r="D249">
+            <v>4640242180311</v>
+          </cell>
+          <cell r="F249">
+            <v>5.5</v>
+          </cell>
+          <cell r="G249">
+            <v>1</v>
+          </cell>
+          <cell r="H249">
+            <v>5.5</v>
+          </cell>
+          <cell r="I249">
+            <v>5.7350000000000003</v>
+          </cell>
+          <cell r="J249">
+            <v>84</v>
+          </cell>
+          <cell r="K249" t="str">
+            <v>12</v>
+          </cell>
+          <cell r="L249" t="str">
+            <v>МГ</v>
+          </cell>
+          <cell r="M249">
+            <v>180</v>
+          </cell>
+        </row>
+        <row r="250">
+          <cell r="D250">
+            <v>4640242180328</v>
+          </cell>
+          <cell r="F250">
+            <v>3.5</v>
+          </cell>
+          <cell r="G250">
+            <v>1</v>
+          </cell>
+          <cell r="H250">
+            <v>3.5</v>
+          </cell>
+          <cell r="I250">
+            <v>3.6920000000000002</v>
+          </cell>
+          <cell r="J250">
+            <v>126</v>
+          </cell>
+          <cell r="K250" t="str">
+            <v>14</v>
+          </cell>
+          <cell r="L250" t="str">
+            <v>МГ</v>
+          </cell>
+          <cell r="M250">
+            <v>180</v>
+          </cell>
+        </row>
+        <row r="251">
+          <cell r="D251">
+            <v>4640242180380</v>
+          </cell>
+          <cell r="F251">
+            <v>1.8</v>
+          </cell>
+          <cell r="G251">
+            <v>1</v>
+          </cell>
+          <cell r="H251">
+            <v>1.8</v>
+          </cell>
+          <cell r="I251">
+            <v>1.9119999999999999</v>
+          </cell>
+          <cell r="J251">
+            <v>234</v>
+          </cell>
+          <cell r="K251" t="str">
+            <v>18</v>
+          </cell>
+          <cell r="L251" t="str">
+            <v>МГ</v>
+          </cell>
+          <cell r="M251">
+            <v>180</v>
+          </cell>
+        </row>
+        <row r="252">
+          <cell r="D252">
+            <v>4640242180403</v>
+          </cell>
+          <cell r="F252">
+            <v>3</v>
+          </cell>
+          <cell r="G252">
+            <v>1</v>
+          </cell>
+          <cell r="H252">
+            <v>3</v>
+          </cell>
+          <cell r="I252">
+            <v>3.1920000000000002</v>
+          </cell>
+          <cell r="J252">
+            <v>126</v>
+          </cell>
+          <cell r="K252" t="str">
+            <v>14</v>
+          </cell>
+          <cell r="L252" t="str">
+            <v>МГ</v>
+          </cell>
+          <cell r="M252">
+            <v>180</v>
+          </cell>
+        </row>
+        <row r="262">
+          <cell r="D262" t="str">
+            <v>Горячая штучка</v>
+          </cell>
+          <cell r="E262" t="str">
+            <v>Горячая штучка</v>
+          </cell>
+          <cell r="F262" t="str">
+            <v>Горячая штучка</v>
+          </cell>
+          <cell r="G262" t="str">
+            <v>Горячая штучка</v>
+          </cell>
+          <cell r="H262" t="str">
+            <v>Горячая штучка</v>
+          </cell>
+          <cell r="I262" t="str">
+            <v>Горячая штучка</v>
+          </cell>
+          <cell r="J262" t="str">
+            <v>Горячая штучка</v>
+          </cell>
+          <cell r="K262" t="str">
+            <v>Горячая штучка</v>
+          </cell>
+          <cell r="L262" t="str">
+            <v>Горячая штучка</v>
+          </cell>
+          <cell r="M262" t="str">
+            <v>Горячая штучка</v>
+          </cell>
+        </row>
+        <row r="263">
+          <cell r="D263" t="str">
+            <v>Grandmeni</v>
+          </cell>
+          <cell r="E263" t="str">
+            <v>Чебупай</v>
+          </cell>
+          <cell r="F263" t="str">
+            <v>Бигбули ГШ</v>
+          </cell>
+          <cell r="G263" t="str">
+            <v>Бульмени вес ГШ</v>
+          </cell>
+          <cell r="H263" t="str">
+            <v>Бельмеши</v>
+          </cell>
+          <cell r="I263" t="str">
+            <v>Крылышки ГШ</v>
+          </cell>
+          <cell r="J263" t="str">
+            <v>Чебупели</v>
+          </cell>
+          <cell r="K263" t="str">
+            <v>Чебуреки</v>
+          </cell>
+          <cell r="L263" t="str">
+            <v>Бульмени ГШ</v>
+          </cell>
+          <cell r="M263" t="str">
+            <v>Чебупицца</v>
+          </cell>
+        </row>
+        <row r="265">
+          <cell r="D265">
+            <v>0</v>
+          </cell>
+          <cell r="E265">
+            <v>0</v>
+          </cell>
+          <cell r="F265">
+            <v>0</v>
+          </cell>
+          <cell r="G265">
+            <v>0</v>
+          </cell>
+          <cell r="H265">
+            <v>0</v>
+          </cell>
+          <cell r="I265">
+            <v>0</v>
+          </cell>
+          <cell r="J265">
+            <v>0</v>
+          </cell>
+          <cell r="K265">
+            <v>0</v>
+          </cell>
+          <cell r="L265">
+            <v>0</v>
+          </cell>
+          <cell r="M265">
+            <v>0</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2162,11 +4929,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G341"/>
+  <dimension ref="A1:G342"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G6" sqref="G6"/>
+      <selection pane="bottomLeft" activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2198,7 +4965,9 @@
       <c r="F1" s="2">
         <v>5</v>
       </c>
-      <c r="G1" s="1"/>
+      <c r="G1" s="1" t="s">
+        <v>551</v>
+      </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
@@ -2219,7 +4988,10 @@
       <c r="F2" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="G2" s="1"/>
+      <c r="G2" s="1">
+        <f>VLOOKUP(E2,[1]Лист1!$D:$M,10,0)</f>
+        <v>90</v>
+      </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
@@ -2240,7 +5012,10 @@
       <c r="F3" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="G3" s="1"/>
+      <c r="G3" s="1">
+        <f>VLOOKUP(E3,[1]Лист1!$D:$M,10,0)</f>
+        <v>90</v>
+      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
@@ -2261,7 +5036,10 @@
       <c r="F4" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="G4" s="1"/>
+      <c r="G4" s="1">
+        <f>VLOOKUP(E4,[1]Лист1!$D:$M,10,0)</f>
+        <v>90</v>
+      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
@@ -2282,7 +5060,10 @@
       <c r="F5" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="G5" s="1"/>
+      <c r="G5" s="1">
+        <f>VLOOKUP(E5,[1]Лист1!$D:$M,10,0)</f>
+        <v>90</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
@@ -2303,7 +5084,10 @@
       <c r="F6" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="G6" s="1"/>
+      <c r="G6" s="1">
+        <f>VLOOKUP(E6,[1]Лист1!$D:$M,10,0)</f>
+        <v>90</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
@@ -2324,7 +5108,10 @@
       <c r="F7" s="5" t="s">
         <v>253</v>
       </c>
-      <c r="G7" s="1"/>
+      <c r="G7" s="1">
+        <f>VLOOKUP(E7,[1]Лист1!$D:$M,10,0)</f>
+        <v>180</v>
+      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
@@ -2345,7 +5132,10 @@
       <c r="F8" s="5" t="s">
         <v>253</v>
       </c>
-      <c r="G8" s="1"/>
+      <c r="G8" s="1">
+        <f>VLOOKUP(E8,[1]Лист1!$D:$M,10,0)</f>
+        <v>180</v>
+      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
@@ -2366,7 +5156,10 @@
       <c r="F9" s="5" t="s">
         <v>253</v>
       </c>
-      <c r="G9" s="1"/>
+      <c r="G9" s="1">
+        <f>VLOOKUP(E9,[1]Лист1!$D:$M,10,0)</f>
+        <v>180</v>
+      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
@@ -2387,7 +5180,10 @@
       <c r="F10" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="G10" s="1"/>
+      <c r="G10" s="1">
+        <f>VLOOKUP(E10,[1]Лист1!$D:$M,10,0)</f>
+        <v>180</v>
+      </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
@@ -2408,7 +5204,10 @@
       <c r="F11" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="G11" s="1"/>
+      <c r="G11" s="1">
+        <f>VLOOKUP(E11,[1]Лист1!$D:$M,10,0)</f>
+        <v>180</v>
+      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
@@ -2429,7 +5228,10 @@
       <c r="F12" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="G12" s="1"/>
+      <c r="G12" s="1">
+        <f>VLOOKUP(E12,[1]Лист1!$D:$M,10,0)</f>
+        <v>180</v>
+      </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
@@ -2450,7 +5252,10 @@
       <c r="F13" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="G13" s="1"/>
+      <c r="G13" s="1">
+        <f>VLOOKUP(E13,[1]Лист1!$D:$M,10,0)</f>
+        <v>180</v>
+      </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
@@ -2471,7 +5276,10 @@
       <c r="F14" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="G14" s="1"/>
+      <c r="G14" s="1">
+        <f>VLOOKUP(E14,[1]Лист1!$D:$M,10,0)</f>
+        <v>180</v>
+      </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
@@ -2492,7 +5300,10 @@
       <c r="F15" s="5" t="s">
         <v>256</v>
       </c>
-      <c r="G15" s="1"/>
+      <c r="G15" s="1">
+        <f>VLOOKUP(E15,[1]Лист1!$D:$M,10,0)</f>
+        <v>180</v>
+      </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
@@ -2513,7 +5324,10 @@
       <c r="F16" s="5" t="s">
         <v>256</v>
       </c>
-      <c r="G16" s="1"/>
+      <c r="G16" s="1">
+        <f>VLOOKUP(E16,[1]Лист1!$D:$M,10,0)</f>
+        <v>180</v>
+      </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
@@ -2534,7 +5348,10 @@
       <c r="F17" s="5" t="s">
         <v>256</v>
       </c>
-      <c r="G17" s="1"/>
+      <c r="G17" s="1">
+        <f>VLOOKUP(E17,[1]Лист1!$D:$M,10,0)</f>
+        <v>180</v>
+      </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
@@ -2555,7 +5372,10 @@
       <c r="F18" s="5" t="s">
         <v>256</v>
       </c>
-      <c r="G18" s="1"/>
+      <c r="G18" s="1">
+        <f>VLOOKUP(E18,[1]Лист1!$D:$M,10,0)</f>
+        <v>180</v>
+      </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
@@ -2576,7 +5396,10 @@
       <c r="F19" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="G19" s="1"/>
+      <c r="G19" s="1">
+        <f>VLOOKUP(E19,[1]Лист1!$D:$M,10,0)</f>
+        <v>180</v>
+      </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
@@ -2597,7 +5420,10 @@
       <c r="F20" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="G20" s="1"/>
+      <c r="G20" s="1">
+        <f>VLOOKUP(E20,[1]Лист1!$D:$M,10,0)</f>
+        <v>180</v>
+      </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
@@ -2618,7 +5444,10 @@
       <c r="F21" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="G21" s="1"/>
+      <c r="G21" s="1">
+        <f>VLOOKUP(E21,[1]Лист1!$D:$M,10,0)</f>
+        <v>180</v>
+      </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
@@ -2639,7 +5468,10 @@
       <c r="F22" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="G22" s="1"/>
+      <c r="G22" s="1">
+        <f>VLOOKUP(E22,[1]Лист1!$D:$M,10,0)</f>
+        <v>180</v>
+      </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
@@ -2660,7 +5492,10 @@
       <c r="F23" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="G23" s="1"/>
+      <c r="G23" s="1">
+        <f>VLOOKUP(E23,[1]Лист1!$D:$M,10,0)</f>
+        <v>180</v>
+      </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="11" t="s">
@@ -2681,7 +5516,10 @@
       <c r="F24" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="G24" s="1"/>
+      <c r="G24" s="1">
+        <f>VLOOKUP(E24,[1]Лист1!$D:$M,10,0)</f>
+        <v>180</v>
+      </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="11" t="s">
@@ -2702,7 +5540,10 @@
       <c r="F25" s="5" t="s">
         <v>259</v>
       </c>
-      <c r="G25" s="1"/>
+      <c r="G25" s="1">
+        <f>VLOOKUP(E25,[1]Лист1!$D:$M,10,0)</f>
+        <v>180</v>
+      </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="11" t="s">
@@ -2723,7 +5564,10 @@
       <c r="F26" s="5" t="s">
         <v>259</v>
       </c>
-      <c r="G26" s="1"/>
+      <c r="G26" s="1">
+        <f>VLOOKUP(E26,[1]Лист1!$D:$M,10,0)</f>
+        <v>180</v>
+      </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="11" t="s">
@@ -2744,7 +5588,10 @@
       <c r="F27" s="5" t="s">
         <v>259</v>
       </c>
-      <c r="G27" s="1"/>
+      <c r="G27" s="1">
+        <f>VLOOKUP(E27,[1]Лист1!$D:$M,10,0)</f>
+        <v>180</v>
+      </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="11" t="s">
@@ -2765,7 +5612,10 @@
       <c r="F28" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="G28" s="1"/>
+      <c r="G28" s="1">
+        <f>VLOOKUP(E28,[1]Лист1!$D:$M,10,0)</f>
+        <v>180</v>
+      </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="11" t="s">
@@ -2786,7 +5636,10 @@
       <c r="F29" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="G29" s="1"/>
+      <c r="G29" s="1">
+        <f>VLOOKUP(E29,[1]Лист1!$D:$M,10,0)</f>
+        <v>180</v>
+      </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="11" t="s">
@@ -2807,7 +5660,10 @@
       <c r="F30" s="5" t="s">
         <v>467</v>
       </c>
-      <c r="G30" s="1"/>
+      <c r="G30" s="1">
+        <f>VLOOKUP(E30,[1]Лист1!$D:$M,10,0)</f>
+        <v>180</v>
+      </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="11" t="s">
@@ -2828,7 +5684,10 @@
       <c r="F31" s="5" t="s">
         <v>467</v>
       </c>
-      <c r="G31" s="1"/>
+      <c r="G31" s="1">
+        <f>VLOOKUP(E31,[1]Лист1!$D:$M,10,0)</f>
+        <v>180</v>
+      </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="11" t="s">
@@ -2849,7 +5708,10 @@
       <c r="F32" s="5" t="s">
         <v>381</v>
       </c>
-      <c r="G32" s="1"/>
+      <c r="G32" s="1">
+        <f>VLOOKUP(E32,[1]Лист1!$D:$M,10,0)</f>
+        <v>180</v>
+      </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="11" t="s">
@@ -2870,7 +5732,10 @@
       <c r="F33" s="5" t="s">
         <v>381</v>
       </c>
-      <c r="G33" s="1"/>
+      <c r="G33" s="1">
+        <f>VLOOKUP(E33,[1]Лист1!$D:$M,10,0)</f>
+        <v>180</v>
+      </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="11" t="s">
@@ -2891,7 +5756,10 @@
       <c r="F34" s="5" t="s">
         <v>381</v>
       </c>
-      <c r="G34" s="1"/>
+      <c r="G34" s="1">
+        <f>VLOOKUP(E34,[1]Лист1!$D:$M,10,0)</f>
+        <v>180</v>
+      </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="11" t="s">
@@ -2912,7 +5780,10 @@
       <c r="F35" s="5" t="s">
         <v>345</v>
       </c>
-      <c r="G35" s="1"/>
+      <c r="G35" s="1">
+        <f>VLOOKUP(E35,[1]Лист1!$D:$M,10,0)</f>
+        <v>180</v>
+      </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="11" t="s">
@@ -2933,7 +5804,10 @@
       <c r="F36" s="5" t="s">
         <v>345</v>
       </c>
-      <c r="G36" s="1"/>
+      <c r="G36" s="1">
+        <f>VLOOKUP(E36,[1]Лист1!$D:$M,10,0)</f>
+        <v>180</v>
+      </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="11" t="s">
@@ -2954,7 +5828,10 @@
       <c r="F37" s="5" t="s">
         <v>345</v>
       </c>
-      <c r="G37" s="1"/>
+      <c r="G37" s="1">
+        <f>VLOOKUP(E37,[1]Лист1!$D:$M,10,0)</f>
+        <v>180</v>
+      </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="11" t="s">
@@ -2975,7 +5852,10 @@
       <c r="F38" s="5" t="s">
         <v>345</v>
       </c>
-      <c r="G38" s="1"/>
+      <c r="G38" s="1">
+        <f>VLOOKUP(E38,[1]Лист1!$D:$M,10,0)</f>
+        <v>180</v>
+      </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="11" t="s">
@@ -2996,7 +5876,10 @@
       <c r="F39" s="5" t="s">
         <v>348</v>
       </c>
-      <c r="G39" s="1"/>
+      <c r="G39" s="1">
+        <f>VLOOKUP(E39,[1]Лист1!$D:$M,10,0)</f>
+        <v>180</v>
+      </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="11" t="s">
@@ -3017,7 +5900,10 @@
       <c r="F40" s="5" t="s">
         <v>348</v>
       </c>
-      <c r="G40" s="1"/>
+      <c r="G40" s="1">
+        <f>VLOOKUP(E40,[1]Лист1!$D:$M,10,0)</f>
+        <v>180</v>
+      </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="11" t="s">
@@ -3038,7 +5924,10 @@
       <c r="F41" s="5" t="s">
         <v>348</v>
       </c>
-      <c r="G41" s="1"/>
+      <c r="G41" s="1">
+        <f>VLOOKUP(E41,[1]Лист1!$D:$M,10,0)</f>
+        <v>180</v>
+      </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="11" t="s">
@@ -3059,7 +5948,10 @@
       <c r="F42" s="5" t="s">
         <v>351</v>
       </c>
-      <c r="G42" s="1"/>
+      <c r="G42" s="1">
+        <f>VLOOKUP(E42,[1]Лист1!$D:$M,10,0)</f>
+        <v>180</v>
+      </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="11" t="s">
@@ -3080,7 +5972,10 @@
       <c r="F43" s="5" t="s">
         <v>351</v>
       </c>
-      <c r="G43" s="1"/>
+      <c r="G43" s="1">
+        <f>VLOOKUP(E43,[1]Лист1!$D:$M,10,0)</f>
+        <v>180</v>
+      </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="11" t="s">
@@ -3101,7 +5996,10 @@
       <c r="F44" s="5" t="s">
         <v>351</v>
       </c>
-      <c r="G44" s="1"/>
+      <c r="G44" s="1">
+        <f>VLOOKUP(E44,[1]Лист1!$D:$M,10,0)</f>
+        <v>180</v>
+      </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="11" t="s">
@@ -3122,7 +6020,10 @@
       <c r="F45" s="5" t="s">
         <v>351</v>
       </c>
-      <c r="G45" s="1"/>
+      <c r="G45" s="1">
+        <f>VLOOKUP(E45,[1]Лист1!$D:$M,10,0)</f>
+        <v>180</v>
+      </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="11" t="s">
@@ -3143,7 +6044,10 @@
       <c r="F46" s="5" t="s">
         <v>375</v>
       </c>
-      <c r="G46" s="1"/>
+      <c r="G46" s="1">
+        <f>VLOOKUP(E46,[1]Лист1!$D:$M,10,0)</f>
+        <v>180</v>
+      </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="11" t="s">
@@ -3164,7 +6068,10 @@
       <c r="F47" s="5" t="s">
         <v>375</v>
       </c>
-      <c r="G47" s="1"/>
+      <c r="G47" s="1">
+        <f>VLOOKUP(E47,[1]Лист1!$D:$M,10,0)</f>
+        <v>180</v>
+      </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="11" t="s">
@@ -3185,7 +6092,10 @@
       <c r="F48" s="5" t="s">
         <v>375</v>
       </c>
-      <c r="G48" s="1"/>
+      <c r="G48" s="1">
+        <f>VLOOKUP(E48,[1]Лист1!$D:$M,10,0)</f>
+        <v>180</v>
+      </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="11" t="s">
@@ -3206,7 +6116,10 @@
       <c r="F49" s="5" t="s">
         <v>375</v>
       </c>
-      <c r="G49" s="1"/>
+      <c r="G49" s="1">
+        <f>VLOOKUP(E49,[1]Лист1!$D:$M,10,0)</f>
+        <v>180</v>
+      </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="11" t="s">
@@ -3227,7 +6140,10 @@
       <c r="F50" s="5" t="s">
         <v>363</v>
       </c>
-      <c r="G50" s="6"/>
+      <c r="G50" s="1">
+        <f>VLOOKUP(E50,[1]Лист1!$D:$M,10,0)</f>
+        <v>180</v>
+      </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="11" t="s">
@@ -3248,7 +6164,10 @@
       <c r="F51" s="5" t="s">
         <v>363</v>
       </c>
-      <c r="G51" s="6"/>
+      <c r="G51" s="1">
+        <f>VLOOKUP(E51,[1]Лист1!$D:$M,10,0)</f>
+        <v>180</v>
+      </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="11" t="s">
@@ -3269,7 +6188,10 @@
       <c r="F52" s="5" t="s">
         <v>363</v>
       </c>
-      <c r="G52" s="6"/>
+      <c r="G52" s="1">
+        <f>VLOOKUP(E52,[1]Лист1!$D:$M,10,0)</f>
+        <v>180</v>
+      </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="11" t="s">
@@ -3290,7 +6212,10 @@
       <c r="F53" s="5" t="s">
         <v>363</v>
       </c>
-      <c r="G53" s="6"/>
+      <c r="G53" s="1">
+        <f>VLOOKUP(E53,[1]Лист1!$D:$M,10,0)</f>
+        <v>180</v>
+      </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="11" t="s">
@@ -3311,7 +6236,10 @@
       <c r="F54" s="5" t="s">
         <v>363</v>
       </c>
-      <c r="G54" s="1"/>
+      <c r="G54" s="1">
+        <f>VLOOKUP(E54,[1]Лист1!$D:$M,10,0)</f>
+        <v>180</v>
+      </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="11" t="s">
@@ -3332,7 +6260,10 @@
       <c r="F55" s="5" t="s">
         <v>354</v>
       </c>
-      <c r="G55" s="1"/>
+      <c r="G55" s="1">
+        <f>VLOOKUP(E55,[1]Лист1!$D:$M,10,0)</f>
+        <v>180</v>
+      </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="11" t="s">
@@ -3353,7 +6284,10 @@
       <c r="F56" s="5" t="s">
         <v>354</v>
       </c>
-      <c r="G56" s="1"/>
+      <c r="G56" s="1">
+        <f>VLOOKUP(E56,[1]Лист1!$D:$M,10,0)</f>
+        <v>180</v>
+      </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="11" t="s">
@@ -3374,7 +6308,10 @@
       <c r="F57" s="5" t="s">
         <v>354</v>
       </c>
-      <c r="G57" s="1"/>
+      <c r="G57" s="1">
+        <f>VLOOKUP(E57,[1]Лист1!$D:$M,10,0)</f>
+        <v>180</v>
+      </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="11" t="s">
@@ -3395,7 +6332,10 @@
       <c r="F58" s="5" t="s">
         <v>299</v>
       </c>
-      <c r="G58" s="1"/>
+      <c r="G58" s="1">
+        <f>VLOOKUP(E58,[1]Лист1!$D:$M,10,0)</f>
+        <v>180</v>
+      </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="11" t="s">
@@ -3416,7 +6356,10 @@
       <c r="F59" s="5" t="s">
         <v>299</v>
       </c>
-      <c r="G59" s="1"/>
+      <c r="G59" s="1">
+        <f>VLOOKUP(E59,[1]Лист1!$D:$M,10,0)</f>
+        <v>180</v>
+      </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="11" t="s">
@@ -3437,7 +6380,10 @@
       <c r="F60" s="5" t="s">
         <v>312</v>
       </c>
-      <c r="G60" s="1"/>
+      <c r="G60" s="1">
+        <f>VLOOKUP(E60,[1]Лист1!$D:$M,10,0)</f>
+        <v>180</v>
+      </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="11" t="s">
@@ -3458,7 +6404,10 @@
       <c r="F61" s="5" t="s">
         <v>312</v>
       </c>
-      <c r="G61" s="1"/>
+      <c r="G61" s="1">
+        <f>VLOOKUP(E61,[1]Лист1!$D:$M,10,0)</f>
+        <v>180</v>
+      </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="11" t="s">
@@ -3479,7 +6428,10 @@
       <c r="F62" s="5" t="s">
         <v>312</v>
       </c>
-      <c r="G62" s="1"/>
+      <c r="G62" s="1">
+        <f>VLOOKUP(E62,[1]Лист1!$D:$M,10,0)</f>
+        <v>180</v>
+      </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="11" t="s">
@@ -3500,7 +6452,10 @@
       <c r="F63" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="G63" s="1"/>
+      <c r="G63" s="1">
+        <f>VLOOKUP(E63,[1]Лист1!$D:$M,10,0)</f>
+        <v>180</v>
+      </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="11" t="s">
@@ -3521,7 +6476,10 @@
       <c r="F64" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="G64" s="1"/>
+      <c r="G64" s="1">
+        <f>VLOOKUP(E64,[1]Лист1!$D:$M,10,0)</f>
+        <v>180</v>
+      </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="11" t="s">
@@ -3542,7 +6500,10 @@
       <c r="F65" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="G65" s="1"/>
+      <c r="G65" s="1">
+        <f>VLOOKUP(E65,[1]Лист1!$D:$M,10,0)</f>
+        <v>180</v>
+      </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="11" t="s">
@@ -3563,7 +6524,10 @@
       <c r="F66" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="G66" s="6"/>
+      <c r="G66" s="1">
+        <f>VLOOKUP(E66,[1]Лист1!$D:$M,10,0)</f>
+        <v>180</v>
+      </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="11" t="s">
@@ -3584,7 +6548,10 @@
       <c r="F67" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="G67" s="6"/>
+      <c r="G67" s="1">
+        <f>VLOOKUP(E67,[1]Лист1!$D:$M,10,0)</f>
+        <v>180</v>
+      </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="11" t="s">
@@ -3605,7 +6572,10 @@
       <c r="F68" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="G68" s="1"/>
+      <c r="G68" s="1">
+        <f>VLOOKUP(E68,[1]Лист1!$D:$M,10,0)</f>
+        <v>180</v>
+      </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="11" t="s">
@@ -3626,7 +6596,10 @@
       <c r="F69" s="5" t="s">
         <v>357</v>
       </c>
-      <c r="G69" s="1"/>
+      <c r="G69" s="1">
+        <f>VLOOKUP(E69,[1]Лист1!$D:$M,10,0)</f>
+        <v>180</v>
+      </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="11" t="s">
@@ -3647,7 +6620,10 @@
       <c r="F70" s="5" t="s">
         <v>357</v>
       </c>
-      <c r="G70" s="1"/>
+      <c r="G70" s="1">
+        <f>VLOOKUP(E70,[1]Лист1!$D:$M,10,0)</f>
+        <v>180</v>
+      </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="11" t="s">
@@ -3668,7 +6644,10 @@
       <c r="F71" s="5" t="s">
         <v>357</v>
       </c>
-      <c r="G71" s="1"/>
+      <c r="G71" s="1">
+        <f>VLOOKUP(E71,[1]Лист1!$D:$M,10,0)</f>
+        <v>180</v>
+      </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="11" t="s">
@@ -3689,7 +6668,10 @@
       <c r="F72" s="5" t="s">
         <v>357</v>
       </c>
-      <c r="G72" s="1"/>
+      <c r="G72" s="1">
+        <f>VLOOKUP(E72,[1]Лист1!$D:$M,10,0)</f>
+        <v>180</v>
+      </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="11" t="s">
@@ -3710,7 +6692,10 @@
       <c r="F73" s="5" t="s">
         <v>357</v>
       </c>
-      <c r="G73" s="1"/>
+      <c r="G73" s="1">
+        <f>VLOOKUP(E73,[1]Лист1!$D:$M,10,0)</f>
+        <v>180</v>
+      </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="11" t="s">
@@ -3731,7 +6716,10 @@
       <c r="F74" s="5" t="s">
         <v>262</v>
       </c>
-      <c r="G74" s="1"/>
+      <c r="G74" s="1">
+        <f>VLOOKUP(E74,[1]Лист1!$D:$M,10,0)</f>
+        <v>180</v>
+      </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="11" t="s">
@@ -3752,7 +6740,10 @@
       <c r="F75" s="5" t="s">
         <v>262</v>
       </c>
-      <c r="G75" s="1"/>
+      <c r="G75" s="1">
+        <f>VLOOKUP(E75,[1]Лист1!$D:$M,10,0)</f>
+        <v>180</v>
+      </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="11" t="s">
@@ -3773,7 +6764,10 @@
       <c r="F76" s="5" t="s">
         <v>262</v>
       </c>
-      <c r="G76" s="1"/>
+      <c r="G76" s="1">
+        <f>VLOOKUP(E76,[1]Лист1!$D:$M,10,0)</f>
+        <v>180</v>
+      </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="11" t="s">
@@ -3794,7 +6788,10 @@
       <c r="F77" s="5" t="s">
         <v>262</v>
       </c>
-      <c r="G77" s="1"/>
+      <c r="G77" s="1">
+        <f>VLOOKUP(E77,[1]Лист1!$D:$M,10,0)</f>
+        <v>180</v>
+      </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="11" t="s">
@@ -3815,7 +6812,10 @@
       <c r="F78" s="5" t="s">
         <v>265</v>
       </c>
-      <c r="G78" s="1"/>
+      <c r="G78" s="1">
+        <f>VLOOKUP(E78,[1]Лист1!$D:$M,10,0)</f>
+        <v>180</v>
+      </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="11" t="s">
@@ -3836,7 +6836,10 @@
       <c r="F79" s="5" t="s">
         <v>265</v>
       </c>
-      <c r="G79" s="1"/>
+      <c r="G79" s="1">
+        <f>VLOOKUP(E79,[1]Лист1!$D:$M,10,0)</f>
+        <v>180</v>
+      </c>
     </row>
     <row r="80" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A80" s="11" t="s">
@@ -3857,7 +6860,10 @@
       <c r="F80" s="5" t="s">
         <v>268</v>
       </c>
-      <c r="G80" s="1"/>
+      <c r="G80" s="1">
+        <f>VLOOKUP(E80,[1]Лист1!$D:$M,10,0)</f>
+        <v>180</v>
+      </c>
     </row>
     <row r="81" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A81" s="11" t="s">
@@ -3878,7 +6884,10 @@
       <c r="F81" s="5" t="s">
         <v>268</v>
       </c>
-      <c r="G81" s="1"/>
+      <c r="G81" s="1">
+        <f>VLOOKUP(E81,[1]Лист1!$D:$M,10,0)</f>
+        <v>180</v>
+      </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="11" t="s">
@@ -3899,7 +6908,10 @@
       <c r="F82" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="G82" s="1"/>
+      <c r="G82" s="1">
+        <f>VLOOKUP(E82,[1]Лист1!$D:$M,10,0)</f>
+        <v>180</v>
+      </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="11" t="s">
@@ -3920,7 +6932,10 @@
       <c r="F83" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="G83" s="1"/>
+      <c r="G83" s="1">
+        <f>VLOOKUP(E83,[1]Лист1!$D:$M,10,0)</f>
+        <v>180</v>
+      </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="11" t="s">
@@ -3941,7 +6956,10 @@
       <c r="F84" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="G84" s="1"/>
+      <c r="G84" s="1">
+        <f>VLOOKUP(E84,[1]Лист1!$D:$M,10,0)</f>
+        <v>180</v>
+      </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="11" t="s">
@@ -3962,7 +6980,10 @@
       <c r="F85" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="G85" s="1"/>
+      <c r="G85" s="1">
+        <f>VLOOKUP(E85,[1]Лист1!$D:$M,10,0)</f>
+        <v>180</v>
+      </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="11" t="s">
@@ -3983,7 +7004,10 @@
       <c r="F86" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="G86" s="1"/>
+      <c r="G86" s="1">
+        <f>VLOOKUP(E86,[1]Лист1!$D:$M,10,0)</f>
+        <v>180</v>
+      </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="11" t="s">
@@ -4004,7 +7028,10 @@
       <c r="F87" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="G87" s="1"/>
+      <c r="G87" s="1">
+        <f>VLOOKUP(E87,[1]Лист1!$D:$M,10,0)</f>
+        <v>180</v>
+      </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="11" t="s">
@@ -4025,7 +7052,10 @@
       <c r="F88" s="5" t="s">
         <v>360</v>
       </c>
-      <c r="G88" s="1"/>
+      <c r="G88" s="1">
+        <f>VLOOKUP(E88,[1]Лист1!$D:$M,10,0)</f>
+        <v>180</v>
+      </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="11" t="s">
@@ -4046,7 +7076,10 @@
       <c r="F89" s="5" t="s">
         <v>360</v>
       </c>
-      <c r="G89" s="1"/>
+      <c r="G89" s="1">
+        <f>VLOOKUP(E89,[1]Лист1!$D:$M,10,0)</f>
+        <v>180</v>
+      </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="11" t="s">
@@ -4067,7 +7100,10 @@
       <c r="F90" s="5" t="s">
         <v>360</v>
       </c>
-      <c r="G90" s="1"/>
+      <c r="G90" s="1">
+        <f>VLOOKUP(E90,[1]Лист1!$D:$M,10,0)</f>
+        <v>180</v>
+      </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="11" t="s">
@@ -4088,7 +7124,10 @@
       <c r="F91" s="5" t="s">
         <v>360</v>
       </c>
-      <c r="G91" s="1"/>
+      <c r="G91" s="1">
+        <f>VLOOKUP(E91,[1]Лист1!$D:$M,10,0)</f>
+        <v>180</v>
+      </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="11" t="s">
@@ -4109,7 +7148,10 @@
       <c r="F92" s="5" t="s">
         <v>271</v>
       </c>
-      <c r="G92" s="1"/>
+      <c r="G92" s="1">
+        <f>VLOOKUP(E92,[1]Лист1!$D:$M,10,0)</f>
+        <v>180</v>
+      </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="11" t="s">
@@ -4130,7 +7172,10 @@
       <c r="F93" s="5" t="s">
         <v>271</v>
       </c>
-      <c r="G93" s="1"/>
+      <c r="G93" s="1">
+        <f>VLOOKUP(E93,[1]Лист1!$D:$M,10,0)</f>
+        <v>180</v>
+      </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="11" t="s">
@@ -4151,7 +7196,10 @@
       <c r="F94" s="5" t="s">
         <v>271</v>
       </c>
-      <c r="G94" s="1"/>
+      <c r="G94" s="1">
+        <f>VLOOKUP(E94,[1]Лист1!$D:$M,10,0)</f>
+        <v>180</v>
+      </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="11" t="s">
@@ -4172,7 +7220,10 @@
       <c r="F95" s="5" t="s">
         <v>271</v>
       </c>
-      <c r="G95" s="1"/>
+      <c r="G95" s="1">
+        <f>VLOOKUP(E95,[1]Лист1!$D:$M,10,0)</f>
+        <v>180</v>
+      </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="11" t="s">
@@ -4193,7 +7244,10 @@
       <c r="F96" s="5" t="s">
         <v>271</v>
       </c>
-      <c r="G96" s="1"/>
+      <c r="G96" s="1">
+        <f>VLOOKUP(E96,[1]Лист1!$D:$M,10,0)</f>
+        <v>180</v>
+      </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="11" t="s">
@@ -4214,7 +7268,10 @@
       <c r="F97" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="G97" s="1"/>
+      <c r="G97" s="1">
+        <f>VLOOKUP(E97,[1]Лист1!$D:$M,10,0)</f>
+        <v>180</v>
+      </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="11" t="s">
@@ -4235,7 +7292,10 @@
       <c r="F98" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="G98" s="1"/>
+      <c r="G98" s="1">
+        <f>VLOOKUP(E98,[1]Лист1!$D:$M,10,0)</f>
+        <v>180</v>
+      </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="11" t="s">
@@ -4256,7 +7316,10 @@
       <c r="F99" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="G99" s="1"/>
+      <c r="G99" s="1">
+        <f>VLOOKUP(E99,[1]Лист1!$D:$M,10,0)</f>
+        <v>180</v>
+      </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="11" t="s">
@@ -4277,7 +7340,10 @@
       <c r="F100" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="G100" s="1"/>
+      <c r="G100" s="1">
+        <f>VLOOKUP(E100,[1]Лист1!$D:$M,10,0)</f>
+        <v>180</v>
+      </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="11" t="s">
@@ -4298,7 +7364,10 @@
       <c r="F101" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="G101" s="1"/>
+      <c r="G101" s="1">
+        <f>VLOOKUP(E101,[1]Лист1!$D:$M,10,0)</f>
+        <v>180</v>
+      </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="11" t="s">
@@ -4319,7 +7388,10 @@
       <c r="F102" s="5" t="s">
         <v>342</v>
       </c>
-      <c r="G102" s="6"/>
+      <c r="G102" s="1">
+        <f>VLOOKUP(E102,[1]Лист1!$D:$M,10,0)</f>
+        <v>180</v>
+      </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="11" t="s">
@@ -4340,7 +7412,10 @@
       <c r="F103" s="5" t="s">
         <v>342</v>
       </c>
-      <c r="G103" s="6"/>
+      <c r="G103" s="1">
+        <f>VLOOKUP(E103,[1]Лист1!$D:$M,10,0)</f>
+        <v>180</v>
+      </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="11" t="s">
@@ -4361,7 +7436,10 @@
       <c r="F104" s="5" t="s">
         <v>342</v>
       </c>
-      <c r="G104" s="1"/>
+      <c r="G104" s="1">
+        <f>VLOOKUP(E104,[1]Лист1!$D:$M,10,0)</f>
+        <v>180</v>
+      </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="11" t="s">
@@ -4382,7 +7460,10 @@
       <c r="F105" s="5" t="s">
         <v>342</v>
       </c>
-      <c r="G105" s="1"/>
+      <c r="G105" s="1">
+        <f>VLOOKUP(E105,[1]Лист1!$D:$M,10,0)</f>
+        <v>180</v>
+      </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="11" t="s">
@@ -4403,7 +7484,10 @@
       <c r="F106" s="5" t="s">
         <v>342</v>
       </c>
-      <c r="G106" s="1"/>
+      <c r="G106" s="1">
+        <f>VLOOKUP(E106,[1]Лист1!$D:$M,10,0)</f>
+        <v>180</v>
+      </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="11" t="s">
@@ -4424,7 +7508,10 @@
       <c r="F107" s="5" t="s">
         <v>330</v>
       </c>
-      <c r="G107" s="6"/>
+      <c r="G107" s="1">
+        <f>VLOOKUP(E107,[1]Лист1!$D:$M,10,0)</f>
+        <v>180</v>
+      </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="11" t="s">
@@ -4445,7 +7532,10 @@
       <c r="F108" s="5" t="s">
         <v>330</v>
       </c>
-      <c r="G108" s="6"/>
+      <c r="G108" s="1">
+        <f>VLOOKUP(E108,[1]Лист1!$D:$M,10,0)</f>
+        <v>180</v>
+      </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="11" t="s">
@@ -4466,7 +7556,10 @@
       <c r="F109" s="5" t="s">
         <v>330</v>
       </c>
-      <c r="G109" s="1"/>
+      <c r="G109" s="1">
+        <f>VLOOKUP(E109,[1]Лист1!$D:$M,10,0)</f>
+        <v>180</v>
+      </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="11" t="s">
@@ -4487,7 +7580,10 @@
       <c r="F110" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="G110" s="1"/>
+      <c r="G110" s="1">
+        <f>VLOOKUP(E110,[1]Лист1!$D:$M,10,0)</f>
+        <v>180</v>
+      </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="11" t="s">
@@ -4508,7 +7604,10 @@
       <c r="F111" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="G111" s="1"/>
+      <c r="G111" s="1">
+        <f>VLOOKUP(E111,[1]Лист1!$D:$M,10,0)</f>
+        <v>180</v>
+      </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="11" t="s">
@@ -4529,7 +7628,10 @@
       <c r="F112" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="G112" s="1"/>
+      <c r="G112" s="1">
+        <f>VLOOKUP(E112,[1]Лист1!$D:$M,10,0)</f>
+        <v>180</v>
+      </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="11" t="s">
@@ -4550,7 +7652,10 @@
       <c r="F113" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="G113" s="1"/>
+      <c r="G113" s="1">
+        <f>VLOOKUP(E113,[1]Лист1!$D:$M,10,0)</f>
+        <v>180</v>
+      </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="11" t="s">
@@ -4571,7 +7676,10 @@
       <c r="F114" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="G114" s="1"/>
+      <c r="G114" s="1">
+        <f>VLOOKUP(E114,[1]Лист1!$D:$M,10,0)</f>
+        <v>180</v>
+      </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="11" t="s">
@@ -4592,7 +7700,10 @@
       <c r="F115" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="G115" s="1"/>
+      <c r="G115" s="1">
+        <f>VLOOKUP(E115,[1]Лист1!$D:$M,10,0)</f>
+        <v>180</v>
+      </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="11" t="s">
@@ -4613,7 +7724,10 @@
       <c r="F116" s="5" t="s">
         <v>326</v>
       </c>
-      <c r="G116" s="6"/>
+      <c r="G116" s="1">
+        <f>VLOOKUP(E116,[1]Лист1!$D:$M,10,0)</f>
+        <v>180</v>
+      </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="11" t="s">
@@ -4634,7 +7748,10 @@
       <c r="F117" s="5" t="s">
         <v>326</v>
       </c>
-      <c r="G117" s="6"/>
+      <c r="G117" s="1">
+        <f>VLOOKUP(E117,[1]Лист1!$D:$M,10,0)</f>
+        <v>180</v>
+      </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="11" t="s">
@@ -4655,7 +7772,10 @@
       <c r="F118" s="5" t="s">
         <v>326</v>
       </c>
-      <c r="G118" s="1"/>
+      <c r="G118" s="1">
+        <f>VLOOKUP(E118,[1]Лист1!$D:$M,10,0)</f>
+        <v>180</v>
+      </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="11" t="s">
@@ -4676,7 +7796,10 @@
       <c r="F119" s="5" t="s">
         <v>548</v>
       </c>
-      <c r="G119" s="1"/>
+      <c r="G119" s="1">
+        <f>VLOOKUP(E119,[1]Лист1!$D:$M,10,0)</f>
+        <v>180</v>
+      </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="11" t="s">
@@ -4697,7 +7820,10 @@
       <c r="F120" s="5" t="s">
         <v>548</v>
       </c>
-      <c r="G120" s="1"/>
+      <c r="G120" s="1">
+        <f>VLOOKUP(E120,[1]Лист1!$D:$M,10,0)</f>
+        <v>180</v>
+      </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="11" t="s">
@@ -4718,7 +7844,10 @@
       <c r="F121" s="5" t="s">
         <v>548</v>
       </c>
-      <c r="G121" s="1"/>
+      <c r="G121" s="1">
+        <f>VLOOKUP(E121,[1]Лист1!$D:$M,10,0)</f>
+        <v>180</v>
+      </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="11" t="s">
@@ -4739,7 +7868,10 @@
       <c r="F122" s="5" t="s">
         <v>338</v>
       </c>
-      <c r="G122" s="1"/>
+      <c r="G122" s="1">
+        <f>VLOOKUP(E122,[1]Лист1!$D:$M,10,0)</f>
+        <v>180</v>
+      </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" s="11" t="s">
@@ -4760,7 +7892,10 @@
       <c r="F123" s="5" t="s">
         <v>338</v>
       </c>
-      <c r="G123" s="1"/>
+      <c r="G123" s="1">
+        <f>VLOOKUP(E123,[1]Лист1!$D:$M,10,0)</f>
+        <v>180</v>
+      </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" s="11" t="s">
@@ -4781,7 +7916,10 @@
       <c r="F124" s="5" t="s">
         <v>338</v>
       </c>
-      <c r="G124" s="1"/>
+      <c r="G124" s="1">
+        <f>VLOOKUP(E124,[1]Лист1!$D:$M,10,0)</f>
+        <v>180</v>
+      </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="11" t="s">
@@ -4802,7 +7940,10 @@
       <c r="F125" s="5" t="s">
         <v>340</v>
       </c>
-      <c r="G125" s="1"/>
+      <c r="G125" s="1">
+        <f>VLOOKUP(E125,[1]Лист1!$D:$M,10,0)</f>
+        <v>180</v>
+      </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" s="11" t="s">
@@ -4823,7 +7964,10 @@
       <c r="F126" s="5" t="s">
         <v>340</v>
       </c>
-      <c r="G126" s="1"/>
+      <c r="G126" s="1">
+        <f>VLOOKUP(E126,[1]Лист1!$D:$M,10,0)</f>
+        <v>180</v>
+      </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" s="11" t="s">
@@ -4844,7 +7988,10 @@
       <c r="F127" s="5" t="s">
         <v>340</v>
       </c>
-      <c r="G127" s="1"/>
+      <c r="G127" s="1">
+        <f>VLOOKUP(E127,[1]Лист1!$D:$M,10,0)</f>
+        <v>180</v>
+      </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" s="11" t="s">
@@ -4865,7 +8012,10 @@
       <c r="F128" s="5" t="s">
         <v>493</v>
       </c>
-      <c r="G128" s="6"/>
+      <c r="G128" s="1">
+        <f>VLOOKUP(E128,[1]Лист1!$D:$M,10,0)</f>
+        <v>180</v>
+      </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" s="11" t="s">
@@ -4886,7 +8036,10 @@
       <c r="F129" s="5" t="s">
         <v>469</v>
       </c>
-      <c r="G129" s="6"/>
+      <c r="G129" s="1">
+        <f>VLOOKUP(E129,[1]Лист1!$D:$M,10,0)</f>
+        <v>180</v>
+      </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" s="11" t="s">
@@ -4907,7 +8060,10 @@
       <c r="F130" s="5" t="s">
         <v>469</v>
       </c>
-      <c r="G130" s="6"/>
+      <c r="G130" s="1">
+        <f>VLOOKUP(E130,[1]Лист1!$D:$M,10,0)</f>
+        <v>180</v>
+      </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" s="11" t="s">
@@ -4928,7 +8084,10 @@
       <c r="F131" s="5" t="s">
         <v>469</v>
       </c>
-      <c r="G131" s="6"/>
+      <c r="G131" s="1">
+        <f>VLOOKUP(E131,[1]Лист1!$D:$M,10,0)</f>
+        <v>180</v>
+      </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" s="11" t="s">
@@ -4949,7 +8108,10 @@
       <c r="F132" s="5" t="s">
         <v>319</v>
       </c>
-      <c r="G132" s="6"/>
+      <c r="G132" s="1">
+        <f>VLOOKUP(E132,[1]Лист1!$D:$M,10,0)</f>
+        <v>180</v>
+      </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" s="11" t="s">
@@ -4970,7 +8132,10 @@
       <c r="F133" s="5" t="s">
         <v>319</v>
       </c>
-      <c r="G133" s="1"/>
+      <c r="G133" s="1">
+        <f>VLOOKUP(E133,[1]Лист1!$D:$M,10,0)</f>
+        <v>180</v>
+      </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" s="11" t="s">
@@ -4991,7 +8156,10 @@
       <c r="F134" s="5" t="s">
         <v>319</v>
       </c>
-      <c r="G134" s="1"/>
+      <c r="G134" s="1">
+        <f>VLOOKUP(E134,[1]Лист1!$D:$M,10,0)</f>
+        <v>180</v>
+      </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" s="11" t="s">
@@ -5012,7 +8180,10 @@
       <c r="F135" s="5" t="s">
         <v>319</v>
       </c>
-      <c r="G135" s="6"/>
+      <c r="G135" s="1">
+        <f>VLOOKUP(E135,[1]Лист1!$D:$M,10,0)</f>
+        <v>180</v>
+      </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" s="11" t="s">
@@ -5033,7 +8204,10 @@
       <c r="F136" s="5" t="s">
         <v>328</v>
       </c>
-      <c r="G136" s="6"/>
+      <c r="G136" s="1">
+        <f>VLOOKUP(E136,[1]Лист1!$D:$M,10,0)</f>
+        <v>180</v>
+      </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" s="11" t="s">
@@ -5054,7 +8228,10 @@
       <c r="F137" s="5" t="s">
         <v>328</v>
       </c>
-      <c r="G137" s="1"/>
+      <c r="G137" s="1">
+        <f>VLOOKUP(E137,[1]Лист1!$D:$M,10,0)</f>
+        <v>180</v>
+      </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" s="11" t="s">
@@ -5075,7 +8252,10 @@
       <c r="F138" s="5" t="s">
         <v>328</v>
       </c>
-      <c r="G138" s="1"/>
+      <c r="G138" s="1">
+        <f>VLOOKUP(E138,[1]Лист1!$D:$M,10,0)</f>
+        <v>180</v>
+      </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" s="11" t="s">
@@ -5096,7 +8276,10 @@
       <c r="F139" s="5" t="s">
         <v>328</v>
       </c>
-      <c r="G139" s="1"/>
+      <c r="G139" s="1">
+        <f>VLOOKUP(E139,[1]Лист1!$D:$M,10,0)</f>
+        <v>180</v>
+      </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" s="11" t="s">
@@ -5117,7 +8300,10 @@
       <c r="F140" s="5" t="s">
         <v>328</v>
       </c>
-      <c r="G140" s="6"/>
+      <c r="G140" s="1">
+        <f>VLOOKUP(E140,[1]Лист1!$D:$M,10,0)</f>
+        <v>180</v>
+      </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" s="11" t="s">
@@ -5138,7 +8324,10 @@
       <c r="F141" s="5" t="s">
         <v>321</v>
       </c>
-      <c r="G141" s="6"/>
+      <c r="G141" s="1">
+        <f>VLOOKUP(E141,[1]Лист1!$D:$M,10,0)</f>
+        <v>180</v>
+      </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" s="11" t="s">
@@ -5159,7 +8348,10 @@
       <c r="F142" s="5" t="s">
         <v>321</v>
       </c>
-      <c r="G142" s="6"/>
+      <c r="G142" s="1">
+        <f>VLOOKUP(E142,[1]Лист1!$D:$M,10,0)</f>
+        <v>180</v>
+      </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" s="11" t="s">
@@ -5180,7 +8372,10 @@
       <c r="F143" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="G143" s="6"/>
+      <c r="G143" s="1">
+        <f>VLOOKUP(E143,[1]Лист1!$D:$M,10,0)</f>
+        <v>180</v>
+      </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" s="11" t="s">
@@ -5201,7 +8396,10 @@
       <c r="F144" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="G144" s="6"/>
+      <c r="G144" s="1">
+        <f>VLOOKUP(E144,[1]Лист1!$D:$M,10,0)</f>
+        <v>180</v>
+      </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" s="11" t="s">
@@ -5222,7 +8420,10 @@
       <c r="F145" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="G145" s="6"/>
+      <c r="G145" s="1">
+        <f>VLOOKUP(E145,[1]Лист1!$D:$M,10,0)</f>
+        <v>180</v>
+      </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" s="11" t="s">
@@ -5243,7 +8444,10 @@
       <c r="F146" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="G146" s="6"/>
+      <c r="G146" s="1">
+        <f>VLOOKUP(E146,[1]Лист1!$D:$M,10,0)</f>
+        <v>90</v>
+      </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" s="11" t="s">
@@ -5264,7 +8468,10 @@
       <c r="F147" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="G147" s="6"/>
+      <c r="G147" s="1">
+        <f>VLOOKUP(E147,[1]Лист1!$D:$M,10,0)</f>
+        <v>90</v>
+      </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" s="11" t="s">
@@ -5285,7 +8492,10 @@
       <c r="F148" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="G148" s="6"/>
+      <c r="G148" s="1">
+        <f>VLOOKUP(E148,[1]Лист1!$D:$M,10,0)</f>
+        <v>180</v>
+      </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" s="11" t="s">
@@ -5306,7 +8516,10 @@
       <c r="F149" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="G149" s="6"/>
+      <c r="G149" s="1">
+        <f>VLOOKUP(E149,[1]Лист1!$D:$M,10,0)</f>
+        <v>180</v>
+      </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" s="11" t="s">
@@ -5327,7 +8540,10 @@
       <c r="F150" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="G150" s="6"/>
+      <c r="G150" s="1">
+        <f>VLOOKUP(E150,[1]Лист1!$D:$M,10,0)</f>
+        <v>180</v>
+      </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" s="11" t="s">
@@ -5348,7 +8564,10 @@
       <c r="F151" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="G151" s="6"/>
+      <c r="G151" s="1">
+        <f>VLOOKUP(E151,[1]Лист1!$D:$M,10,0)</f>
+        <v>180</v>
+      </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" s="11" t="s">
@@ -5369,7 +8588,10 @@
       <c r="F152" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="G152" s="6"/>
+      <c r="G152" s="1">
+        <f>VLOOKUP(E152,[1]Лист1!$D:$M,10,0)</f>
+        <v>180</v>
+      </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" s="11" t="s">
@@ -5390,7 +8612,10 @@
       <c r="F153" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="G153" s="6"/>
+      <c r="G153" s="1">
+        <f>VLOOKUP(E153,[1]Лист1!$D:$M,10,0)</f>
+        <v>180</v>
+      </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" s="11" t="s">
@@ -5411,7 +8636,10 @@
       <c r="F154" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="G154" s="6"/>
+      <c r="G154" s="1">
+        <f>VLOOKUP(E154,[1]Лист1!$D:$M,10,0)</f>
+        <v>180</v>
+      </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" s="11" t="s">
@@ -5432,7 +8660,10 @@
       <c r="F155" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="G155" s="6"/>
+      <c r="G155" s="1">
+        <f>VLOOKUP(E155,[1]Лист1!$D:$M,10,0)</f>
+        <v>180</v>
+      </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" s="11" t="s">
@@ -5453,7 +8684,10 @@
       <c r="F156" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="G156" s="6"/>
+      <c r="G156" s="1">
+        <f>VLOOKUP(E156,[1]Лист1!$D:$M,10,0)</f>
+        <v>180</v>
+      </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" s="11" t="s">
@@ -5474,7 +8708,10 @@
       <c r="F157" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="G157" s="6"/>
+      <c r="G157" s="1">
+        <f>VLOOKUP(E157,[1]Лист1!$D:$M,10,0)</f>
+        <v>180</v>
+      </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" s="11" t="s">
@@ -5495,7 +8732,10 @@
       <c r="F158" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="G158" s="6"/>
+      <c r="G158" s="1">
+        <f>VLOOKUP(E158,[1]Лист1!$D:$M,10,0)</f>
+        <v>180</v>
+      </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" s="11" t="s">
@@ -5516,7 +8756,10 @@
       <c r="F159" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="G159" s="6"/>
+      <c r="G159" s="1">
+        <f>VLOOKUP(E159,[1]Лист1!$D:$M,10,0)</f>
+        <v>180</v>
+      </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" s="11" t="s">
@@ -5537,7 +8780,10 @@
       <c r="F160" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="G160" s="6"/>
+      <c r="G160" s="1">
+        <f>VLOOKUP(E160,[1]Лист1!$D:$M,10,0)</f>
+        <v>180</v>
+      </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" s="11" t="s">
@@ -5558,7 +8804,10 @@
       <c r="F161" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="G161" s="6"/>
+      <c r="G161" s="1">
+        <f>VLOOKUP(E161,[1]Лист1!$D:$M,10,0)</f>
+        <v>180</v>
+      </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" s="11" t="s">
@@ -5579,7 +8828,10 @@
       <c r="F162" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="G162" s="6"/>
+      <c r="G162" s="1">
+        <f>VLOOKUP(E162,[1]Лист1!$D:$M,10,0)</f>
+        <v>180</v>
+      </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" s="11" t="s">
@@ -5600,7 +8852,10 @@
       <c r="F163" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="G163" s="6"/>
+      <c r="G163" s="1">
+        <f>VLOOKUP(E163,[1]Лист1!$D:$M,10,0)</f>
+        <v>180</v>
+      </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" s="11" t="s">
@@ -5621,7 +8876,10 @@
       <c r="F164" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="G164" s="6"/>
+      <c r="G164" s="1">
+        <f>VLOOKUP(E164,[1]Лист1!$D:$M,10,0)</f>
+        <v>180</v>
+      </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" s="11" t="s">
@@ -5642,7 +8900,10 @@
       <c r="F165" s="5" t="s">
         <v>366</v>
       </c>
-      <c r="G165" s="6"/>
+      <c r="G165" s="1">
+        <f>VLOOKUP(E165,[1]Лист1!$D:$M,10,0)</f>
+        <v>180</v>
+      </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" s="11" t="s">
@@ -5663,7 +8924,10 @@
       <c r="F166" s="5" t="s">
         <v>366</v>
       </c>
-      <c r="G166" s="6"/>
+      <c r="G166" s="1">
+        <f>VLOOKUP(E166,[1]Лист1!$D:$M,10,0)</f>
+        <v>180</v>
+      </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" s="11" t="s">
@@ -5684,7 +8948,10 @@
       <c r="F167" s="5" t="s">
         <v>366</v>
       </c>
-      <c r="G167" s="6"/>
+      <c r="G167" s="1">
+        <f>VLOOKUP(E167,[1]Лист1!$D:$M,10,0)</f>
+        <v>180</v>
+      </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" s="11" t="s">
@@ -5705,7 +8972,10 @@
       <c r="F168" s="5" t="s">
         <v>366</v>
       </c>
-      <c r="G168" s="6"/>
+      <c r="G168" s="1">
+        <f>VLOOKUP(E168,[1]Лист1!$D:$M,10,0)</f>
+        <v>180</v>
+      </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" s="11" t="s">
@@ -5726,7 +8996,10 @@
       <c r="F169" s="5" t="s">
         <v>366</v>
       </c>
-      <c r="G169" s="6"/>
+      <c r="G169" s="1">
+        <f>VLOOKUP(E169,[1]Лист1!$D:$M,10,0)</f>
+        <v>180</v>
+      </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" s="11" t="s">
@@ -5747,7 +9020,10 @@
       <c r="F170" s="5" t="s">
         <v>471</v>
       </c>
-      <c r="G170" s="6"/>
+      <c r="G170" s="1">
+        <f>VLOOKUP(E170,[1]Лист1!$D:$M,10,0)</f>
+        <v>180</v>
+      </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" s="11" t="s">
@@ -5768,7 +9044,10 @@
       <c r="F171" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="G171" s="6"/>
+      <c r="G171" s="1" t="e">
+        <f>VLOOKUP(E171,[1]Лист1!$D:$M,10,0)</f>
+        <v>#N/A</v>
+      </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" s="11" t="s">
@@ -5789,7 +9068,10 @@
       <c r="F172" s="5" t="s">
         <v>471</v>
       </c>
-      <c r="G172" s="6"/>
+      <c r="G172" s="1">
+        <f>VLOOKUP(E172,[1]Лист1!$D:$M,10,0)</f>
+        <v>180</v>
+      </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" s="11" t="s">
@@ -5810,7 +9092,10 @@
       <c r="F173" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="G173" s="6"/>
+      <c r="G173" s="1">
+        <f>VLOOKUP(E173,[1]Лист1!$D:$M,10,0)</f>
+        <v>180</v>
+      </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" s="11" t="s">
@@ -5831,7 +9116,10 @@
       <c r="F174" s="5" t="s">
         <v>324</v>
       </c>
-      <c r="G174" s="6"/>
+      <c r="G174" s="1" t="e">
+        <f>VLOOKUP(E174,[1]Лист1!$D:$M,10,0)</f>
+        <v>#N/A</v>
+      </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" s="11" t="s">
@@ -5852,7 +9140,10 @@
       <c r="F175" s="5" t="s">
         <v>324</v>
       </c>
-      <c r="G175" s="6"/>
+      <c r="G175" s="1" t="e">
+        <f>VLOOKUP(E175,[1]Лист1!$D:$M,10,0)</f>
+        <v>#N/A</v>
+      </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" s="11" t="s">
@@ -5873,7 +9164,10 @@
       <c r="F176" s="5" t="s">
         <v>460</v>
       </c>
-      <c r="G176" s="6"/>
+      <c r="G176" s="1">
+        <f>VLOOKUP(E176,[1]Лист1!$D:$M,10,0)</f>
+        <v>180</v>
+      </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177" s="11" t="s">
@@ -5894,7 +9188,10 @@
       <c r="F177" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="G177" s="6"/>
+      <c r="G177" s="1">
+        <f>VLOOKUP(E177,[1]Лист1!$D:$M,10,0)</f>
+        <v>365</v>
+      </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178" s="11" t="s">
@@ -5915,7 +9212,10 @@
       <c r="F178" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="G178" s="6"/>
+      <c r="G178" s="1">
+        <f>VLOOKUP(E178,[1]Лист1!$D:$M,10,0)</f>
+        <v>365</v>
+      </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179" s="11" t="s">
@@ -5936,7 +9236,10 @@
       <c r="F179" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="G179" s="6"/>
+      <c r="G179" s="1">
+        <f>VLOOKUP(E179,[1]Лист1!$D:$M,10,0)</f>
+        <v>365</v>
+      </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180" s="11" t="s">
@@ -5957,7 +9260,10 @@
       <c r="F180" s="5" t="s">
         <v>505</v>
       </c>
-      <c r="G180" s="6"/>
+      <c r="G180" s="1">
+        <f>VLOOKUP(E180,[1]Лист1!$D:$M,10,0)</f>
+        <v>365</v>
+      </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181" s="11" t="s">
@@ -5978,7 +9284,10 @@
       <c r="F181" s="5" t="s">
         <v>505</v>
       </c>
-      <c r="G181" s="6"/>
+      <c r="G181" s="1">
+        <f>VLOOKUP(E181,[1]Лист1!$D:$M,10,0)</f>
+        <v>365</v>
+      </c>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182" s="11" t="s">
@@ -5999,7 +9308,10 @@
       <c r="F182" s="5" t="s">
         <v>505</v>
       </c>
-      <c r="G182" s="1"/>
+      <c r="G182" s="1">
+        <f>VLOOKUP(E182,[1]Лист1!$D:$M,10,0)</f>
+        <v>365</v>
+      </c>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183" s="11" t="s">
@@ -6020,7 +9332,10 @@
       <c r="F183" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="G183" s="1"/>
+      <c r="G183" s="1">
+        <f>VLOOKUP(E183,[1]Лист1!$D:$M,10,0)</f>
+        <v>180</v>
+      </c>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184" s="11" t="s">
@@ -6041,7 +9356,10 @@
       <c r="F184" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="G184" s="1"/>
+      <c r="G184" s="1">
+        <f>VLOOKUP(E184,[1]Лист1!$D:$M,10,0)</f>
+        <v>180</v>
+      </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185" s="11" t="s">
@@ -6062,7 +9380,10 @@
       <c r="F185" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="G185" s="1"/>
+      <c r="G185" s="1">
+        <f>VLOOKUP(E185,[1]Лист1!$D:$M,10,0)</f>
+        <v>180</v>
+      </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186" s="11" t="s">
@@ -6083,7 +9404,10 @@
       <c r="F186" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="G186" s="1"/>
+      <c r="G186" s="1">
+        <f>VLOOKUP(E186,[1]Лист1!$D:$M,10,0)</f>
+        <v>180</v>
+      </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187" s="11" t="s">
@@ -6104,7 +9428,10 @@
       <c r="F187" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="G187" s="1"/>
+      <c r="G187" s="1">
+        <f>VLOOKUP(E187,[1]Лист1!$D:$M,10,0)</f>
+        <v>180</v>
+      </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188" s="11" t="s">
@@ -6125,7 +9452,10 @@
       <c r="F188" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="G188" s="1"/>
+      <c r="G188" s="1">
+        <f>VLOOKUP(E188,[1]Лист1!$D:$M,10,0)</f>
+        <v>180</v>
+      </c>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189" s="11" t="s">
@@ -6146,7 +9476,10 @@
       <c r="F189" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="G189" s="1"/>
+      <c r="G189" s="1">
+        <f>VLOOKUP(E189,[1]Лист1!$D:$M,10,0)</f>
+        <v>180</v>
+      </c>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190" s="11" t="s">
@@ -6167,7 +9500,10 @@
       <c r="F190" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="G190" s="1"/>
+      <c r="G190" s="1">
+        <f>VLOOKUP(E190,[1]Лист1!$D:$M,10,0)</f>
+        <v>180</v>
+      </c>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191" s="11" t="s">
@@ -6188,7 +9524,10 @@
       <c r="F191" s="5" t="s">
         <v>369</v>
       </c>
-      <c r="G191" s="1"/>
+      <c r="G191" s="1">
+        <f>VLOOKUP(E191,[1]Лист1!$D:$M,10,0)</f>
+        <v>180</v>
+      </c>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192" s="11" t="s">
@@ -6209,7 +9548,10 @@
       <c r="F192" s="5" t="s">
         <v>369</v>
       </c>
-      <c r="G192" s="1"/>
+      <c r="G192" s="1">
+        <f>VLOOKUP(E192,[1]Лист1!$D:$M,10,0)</f>
+        <v>180</v>
+      </c>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193" s="11" t="s">
@@ -6230,7 +9572,10 @@
       <c r="F193" s="5" t="s">
         <v>369</v>
       </c>
-      <c r="G193" s="1"/>
+      <c r="G193" s="1">
+        <f>VLOOKUP(E193,[1]Лист1!$D:$M,10,0)</f>
+        <v>180</v>
+      </c>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194" s="11" t="s">
@@ -6251,7 +9596,10 @@
       <c r="F194" s="5" t="s">
         <v>369</v>
       </c>
-      <c r="G194" s="1"/>
+      <c r="G194" s="1">
+        <f>VLOOKUP(E194,[1]Лист1!$D:$M,10,0)</f>
+        <v>180</v>
+      </c>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195" s="11" t="s">
@@ -6272,7 +9620,10 @@
       <c r="F195" s="5" t="s">
         <v>372</v>
       </c>
-      <c r="G195" s="1"/>
+      <c r="G195" s="1">
+        <f>VLOOKUP(E195,[1]Лист1!$D:$M,10,0)</f>
+        <v>180</v>
+      </c>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196" s="11" t="s">
@@ -6293,7 +9644,10 @@
       <c r="F196" s="5" t="s">
         <v>372</v>
       </c>
-      <c r="G196" s="1"/>
+      <c r="G196" s="1">
+        <f>VLOOKUP(E196,[1]Лист1!$D:$M,10,0)</f>
+        <v>180</v>
+      </c>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197" s="11" t="s">
@@ -6314,7 +9668,10 @@
       <c r="F197" s="5" t="s">
         <v>372</v>
       </c>
-      <c r="G197" s="1"/>
+      <c r="G197" s="1">
+        <f>VLOOKUP(E197,[1]Лист1!$D:$M,10,0)</f>
+        <v>180</v>
+      </c>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198" s="11" t="s">
@@ -6335,7 +9692,10 @@
       <c r="F198" s="5" t="s">
         <v>372</v>
       </c>
-      <c r="G198" s="1"/>
+      <c r="G198" s="1">
+        <f>VLOOKUP(E198,[1]Лист1!$D:$M,10,0)</f>
+        <v>180</v>
+      </c>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A199" s="11" t="s">
@@ -6356,7 +9716,10 @@
       <c r="F199" s="5" t="s">
         <v>487</v>
       </c>
-      <c r="G199" s="1"/>
+      <c r="G199" s="1">
+        <f>VLOOKUP(E199,[1]Лист1!$D:$M,10,0)</f>
+        <v>180</v>
+      </c>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200" s="11" t="s">
@@ -6377,11 +9740,14 @@
       <c r="F200" s="5" t="s">
         <v>487</v>
       </c>
-      <c r="G200" s="1"/>
+      <c r="G200" s="1">
+        <f>VLOOKUP(E200,[1]Лист1!$D:$M,10,0)</f>
+        <v>180</v>
+      </c>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A201" s="11" t="s">
-        <v>135</v>
+        <v>552</v>
       </c>
       <c r="B201" s="3" t="s">
         <v>485</v>
@@ -6398,11 +9764,14 @@
       <c r="F201" s="5" t="s">
         <v>487</v>
       </c>
-      <c r="G201" s="1"/>
+      <c r="G201" s="1">
+        <f>VLOOKUP(E201,[1]Лист1!$D:$M,10,0)</f>
+        <v>180</v>
+      </c>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A202" s="11" t="s">
-        <v>284</v>
+        <v>135</v>
       </c>
       <c r="B202" s="3" t="s">
         <v>485</v>
@@ -6419,32 +9788,38 @@
       <c r="F202" s="5" t="s">
         <v>487</v>
       </c>
-      <c r="G202" s="1"/>
+      <c r="G202" s="1">
+        <f>VLOOKUP(E202,[1]Лист1!$D:$M,10,0)</f>
+        <v>180</v>
+      </c>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A203" s="11" t="s">
-        <v>335</v>
+        <v>284</v>
       </c>
       <c r="B203" s="3" t="s">
-        <v>287</v>
+        <v>485</v>
       </c>
       <c r="C203" s="3" t="s">
-        <v>288</v>
+        <v>486</v>
       </c>
       <c r="D203" s="4">
-        <v>4301070915</v>
+        <v>4301135194</v>
       </c>
       <c r="E203" s="3">
-        <v>4607111035882</v>
+        <v>4640242180380</v>
       </c>
       <c r="F203" s="5" t="s">
-        <v>289</v>
-      </c>
-      <c r="G203" s="1"/>
+        <v>487</v>
+      </c>
+      <c r="G203" s="1">
+        <f>VLOOKUP(E203,[1]Лист1!$D:$M,10,0)</f>
+        <v>180</v>
+      </c>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A204" s="11" t="s">
-        <v>401</v>
+        <v>335</v>
       </c>
       <c r="B204" s="3" t="s">
         <v>287</v>
@@ -6461,11 +9836,14 @@
       <c r="F204" s="5" t="s">
         <v>289</v>
       </c>
-      <c r="G204" s="1"/>
+      <c r="G204" s="1">
+        <f>VLOOKUP(E204,[1]Лист1!$D:$M,10,0)</f>
+        <v>180</v>
+      </c>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A205" s="11" t="s">
-        <v>289</v>
+        <v>401</v>
       </c>
       <c r="B205" s="3" t="s">
         <v>287</v>
@@ -6482,32 +9860,38 @@
       <c r="F205" s="5" t="s">
         <v>289</v>
       </c>
-      <c r="G205" s="1"/>
+      <c r="G205" s="1">
+        <f>VLOOKUP(E205,[1]Лист1!$D:$M,10,0)</f>
+        <v>180</v>
+      </c>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A206" s="11" t="s">
-        <v>402</v>
+        <v>289</v>
       </c>
       <c r="B206" s="3" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="C206" s="3" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="D206" s="4">
-        <v>4301070874</v>
+        <v>4301070915</v>
       </c>
       <c r="E206" s="3">
-        <v>4607111035332</v>
+        <v>4607111035882</v>
       </c>
       <c r="F206" s="5" t="s">
-        <v>292</v>
-      </c>
-      <c r="G206" s="1"/>
+        <v>289</v>
+      </c>
+      <c r="G206" s="1">
+        <f>VLOOKUP(E206,[1]Лист1!$D:$M,10,0)</f>
+        <v>180</v>
+      </c>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A207" s="11" t="s">
-        <v>494</v>
+        <v>402</v>
       </c>
       <c r="B207" s="3" t="s">
         <v>290</v>
@@ -6524,11 +9908,14 @@
       <c r="F207" s="5" t="s">
         <v>292</v>
       </c>
-      <c r="G207" s="1"/>
+      <c r="G207" s="1">
+        <f>VLOOKUP(E207,[1]Лист1!$D:$M,10,0)</f>
+        <v>180</v>
+      </c>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A208" s="11" t="s">
-        <v>292</v>
+        <v>494</v>
       </c>
       <c r="B208" s="3" t="s">
         <v>290</v>
@@ -6545,32 +9932,38 @@
       <c r="F208" s="5" t="s">
         <v>292</v>
       </c>
-      <c r="G208" s="1"/>
+      <c r="G208" s="1">
+        <f>VLOOKUP(E208,[1]Лист1!$D:$M,10,0)</f>
+        <v>180</v>
+      </c>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A209" s="11" t="s">
-        <v>317</v>
+        <v>292</v>
       </c>
       <c r="B209" s="3" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="C209" s="3" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="D209" s="4">
-        <v>4301136014</v>
+        <v>4301070874</v>
       </c>
       <c r="E209" s="3">
-        <v>4607111035370</v>
+        <v>4607111035332</v>
       </c>
       <c r="F209" s="5" t="s">
-        <v>295</v>
-      </c>
-      <c r="G209" s="1"/>
+        <v>292</v>
+      </c>
+      <c r="G209" s="1">
+        <f>VLOOKUP(E209,[1]Лист1!$D:$M,10,0)</f>
+        <v>180</v>
+      </c>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A210" s="11" t="s">
-        <v>407</v>
+        <v>317</v>
       </c>
       <c r="B210" s="3" t="s">
         <v>293</v>
@@ -6587,11 +9980,14 @@
       <c r="F210" s="5" t="s">
         <v>295</v>
       </c>
-      <c r="G210" s="1"/>
+      <c r="G210" s="1">
+        <f>VLOOKUP(E210,[1]Лист1!$D:$M,10,0)</f>
+        <v>180</v>
+      </c>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A211" s="11" t="s">
-        <v>295</v>
+        <v>407</v>
       </c>
       <c r="B211" s="3" t="s">
         <v>293</v>
@@ -6608,32 +10004,38 @@
       <c r="F211" s="5" t="s">
         <v>295</v>
       </c>
-      <c r="G211" s="1"/>
+      <c r="G211" s="1">
+        <f>VLOOKUP(E211,[1]Лист1!$D:$M,10,0)</f>
+        <v>180</v>
+      </c>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A212" s="11" t="s">
-        <v>316</v>
+        <v>295</v>
       </c>
       <c r="B212" s="3" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="C212" s="3" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="D212" s="4">
-        <v>4301051320</v>
+        <v>4301136014</v>
       </c>
       <c r="E212" s="3">
-        <v>4680115881334</v>
+        <v>4607111035370</v>
       </c>
       <c r="F212" s="5" t="s">
-        <v>302</v>
-      </c>
-      <c r="G212" s="1"/>
+        <v>295</v>
+      </c>
+      <c r="G212" s="1">
+        <f>VLOOKUP(E212,[1]Лист1!$D:$M,10,0)</f>
+        <v>180</v>
+      </c>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A213" s="11" t="s">
-        <v>333</v>
+        <v>316</v>
       </c>
       <c r="B213" s="3" t="s">
         <v>300</v>
@@ -6650,11 +10052,14 @@
       <c r="F213" s="5" t="s">
         <v>302</v>
       </c>
-      <c r="G213" s="1"/>
+      <c r="G213" s="1">
+        <f>VLOOKUP(E213,[1]Лист1!$D:$M,10,0)</f>
+        <v>365</v>
+      </c>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A214" s="11" t="s">
-        <v>303</v>
+        <v>333</v>
       </c>
       <c r="B214" s="3" t="s">
         <v>300</v>
@@ -6671,74 +10076,86 @@
       <c r="F214" s="5" t="s">
         <v>302</v>
       </c>
-      <c r="G214" s="1"/>
+      <c r="G214" s="1">
+        <f>VLOOKUP(E214,[1]Лист1!$D:$M,10,0)</f>
+        <v>365</v>
+      </c>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A215" s="11" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="B215" s="3" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="C215" s="3" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="D215" s="4">
-        <v>4301051319</v>
+        <v>4301051320</v>
       </c>
       <c r="E215" s="3">
-        <v>4680115881204</v>
+        <v>4680115881334</v>
       </c>
       <c r="F215" s="5" t="s">
-        <v>306</v>
-      </c>
-      <c r="G215" s="1"/>
+        <v>302</v>
+      </c>
+      <c r="G215" s="1">
+        <f>VLOOKUP(E215,[1]Лист1!$D:$M,10,0)</f>
+        <v>365</v>
+      </c>
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A216" s="11" t="s">
-        <v>336</v>
+        <v>307</v>
       </c>
       <c r="B216" s="3" t="s">
-        <v>376</v>
+        <v>304</v>
       </c>
       <c r="C216" s="3" t="s">
-        <v>377</v>
+        <v>305</v>
       </c>
       <c r="D216" s="4">
-        <v>4301136027</v>
+        <v>4301051319</v>
       </c>
       <c r="E216" s="3">
-        <v>4640242180298</v>
+        <v>4680115881204</v>
       </c>
       <c r="F216" s="5" t="s">
-        <v>378</v>
-      </c>
-      <c r="G216" s="1"/>
+        <v>306</v>
+      </c>
+      <c r="G216" s="1">
+        <f>VLOOKUP(E216,[1]Лист1!$D:$M,10,0)</f>
+        <v>365</v>
+      </c>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A217" s="11" t="s">
-        <v>496</v>
+        <v>336</v>
       </c>
       <c r="B217" s="3" t="s">
-        <v>386</v>
+        <v>376</v>
       </c>
       <c r="C217" s="3" t="s">
-        <v>387</v>
+        <v>377</v>
       </c>
       <c r="D217" s="4">
-        <v>4301130003</v>
+        <v>4301136027</v>
       </c>
       <c r="E217" s="3">
-        <v>4607111034687</v>
+        <v>4640242180298</v>
       </c>
       <c r="F217" s="5" t="s">
-        <v>388</v>
-      </c>
-      <c r="G217" s="1"/>
+        <v>378</v>
+      </c>
+      <c r="G217" s="1">
+        <f>VLOOKUP(E217,[1]Лист1!$D:$M,10,0)</f>
+        <v>180</v>
+      </c>
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A218" s="11" t="s">
-        <v>385</v>
+        <v>496</v>
       </c>
       <c r="B218" s="3" t="s">
         <v>386</v>
@@ -6755,53 +10172,62 @@
       <c r="F218" s="5" t="s">
         <v>388</v>
       </c>
-      <c r="G218" s="1"/>
+      <c r="G218" s="1">
+        <f>VLOOKUP(E218,[1]Лист1!$D:$M,10,0)</f>
+        <v>180</v>
+      </c>
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A219" s="11" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="B219" s="3" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="C219" s="3" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="D219" s="4">
-        <v>4301070977</v>
+        <v>4301130003</v>
       </c>
       <c r="E219" s="3">
-        <v>4607111037411</v>
+        <v>4607111034687</v>
       </c>
       <c r="F219" s="5" t="s">
-        <v>394</v>
-      </c>
-      <c r="G219" s="1"/>
+        <v>388</v>
+      </c>
+      <c r="G219" s="1">
+        <f>VLOOKUP(E219,[1]Лист1!$D:$M,10,0)</f>
+        <v>180</v>
+      </c>
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A220" s="11" t="s">
-        <v>438</v>
+        <v>391</v>
       </c>
       <c r="B220" s="3" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="C220" s="3" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="D220" s="4">
-        <v>4301070871</v>
+        <v>4301070977</v>
       </c>
       <c r="E220" s="3">
-        <v>4607111036384</v>
+        <v>4607111037411</v>
       </c>
       <c r="F220" s="5" t="s">
-        <v>400</v>
-      </c>
-      <c r="G220" s="1"/>
+        <v>394</v>
+      </c>
+      <c r="G220" s="1">
+        <f>VLOOKUP(E220,[1]Лист1!$D:$M,10,0)</f>
+        <v>180</v>
+      </c>
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A221" s="11" t="s">
-        <v>397</v>
+        <v>438</v>
       </c>
       <c r="B221" s="3" t="s">
         <v>398</v>
@@ -6818,32 +10244,38 @@
       <c r="F221" s="5" t="s">
         <v>400</v>
       </c>
-      <c r="G221" s="1"/>
+      <c r="G221" s="1">
+        <f>VLOOKUP(E221,[1]Лист1!$D:$M,10,0)</f>
+        <v>180</v>
+      </c>
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A222" s="11" t="s">
-        <v>498</v>
+        <v>397</v>
       </c>
       <c r="B222" s="3" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="C222" s="3" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="D222" s="4">
-        <v>4301135111</v>
+        <v>4301070871</v>
       </c>
       <c r="E222" s="3">
-        <v>4607111035028</v>
+        <v>4607111036384</v>
       </c>
       <c r="F222" s="5" t="s">
-        <v>406</v>
-      </c>
-      <c r="G222" s="1"/>
+        <v>400</v>
+      </c>
+      <c r="G222" s="1">
+        <f>VLOOKUP(E222,[1]Лист1!$D:$M,10,0)</f>
+        <v>180</v>
+      </c>
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A223" s="11" t="s">
-        <v>403</v>
+        <v>498</v>
       </c>
       <c r="B223" s="3" t="s">
         <v>404</v>
@@ -6860,32 +10292,38 @@
       <c r="F223" s="5" t="s">
         <v>406</v>
       </c>
-      <c r="G223" s="1"/>
+      <c r="G223" s="1">
+        <f>VLOOKUP(E223,[1]Лист1!$D:$M,10,0)</f>
+        <v>180</v>
+      </c>
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A224" s="11" t="s">
-        <v>520</v>
+        <v>403</v>
       </c>
       <c r="B224" s="3" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="C224" s="3" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="D224" s="4">
-        <v>4301130006</v>
+        <v>4301135111</v>
       </c>
       <c r="E224" s="3">
-        <v>4607111034670</v>
+        <v>4607111035028</v>
       </c>
       <c r="F224" s="5" t="s">
-        <v>413</v>
-      </c>
-      <c r="G224" s="1"/>
+        <v>406</v>
+      </c>
+      <c r="G224" s="1">
+        <f>VLOOKUP(E224,[1]Лист1!$D:$M,10,0)</f>
+        <v>180</v>
+      </c>
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A225" s="11" t="s">
-        <v>410</v>
+        <v>520</v>
       </c>
       <c r="B225" s="3" t="s">
         <v>411</v>
@@ -6902,32 +10340,38 @@
       <c r="F225" s="5" t="s">
         <v>413</v>
       </c>
-      <c r="G225" s="1"/>
+      <c r="G225" s="1">
+        <f>VLOOKUP(E225,[1]Лист1!$D:$M,10,0)</f>
+        <v>180</v>
+      </c>
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A226" s="11" t="s">
-        <v>522</v>
+        <v>410</v>
       </c>
       <c r="B226" s="3" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="C226" s="3" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="D226" s="4">
-        <v>4301070768</v>
+        <v>4301130006</v>
       </c>
       <c r="E226" s="3">
-        <v>4607111035639</v>
+        <v>4607111034670</v>
       </c>
       <c r="F226" s="5" t="s">
-        <v>419</v>
-      </c>
-      <c r="G226" s="1"/>
+        <v>413</v>
+      </c>
+      <c r="G226" s="1">
+        <f>VLOOKUP(E226,[1]Лист1!$D:$M,10,0)</f>
+        <v>180</v>
+      </c>
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A227" s="11" t="s">
-        <v>416</v>
+        <v>522</v>
       </c>
       <c r="B227" s="3" t="s">
         <v>417</v>
@@ -6944,32 +10388,38 @@
       <c r="F227" s="5" t="s">
         <v>419</v>
       </c>
-      <c r="G227" s="1"/>
+      <c r="G227" s="1">
+        <f>VLOOKUP(E227,[1]Лист1!$D:$M,10,0)</f>
+        <v>180</v>
+      </c>
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A228" s="11" t="s">
-        <v>523</v>
+        <v>416</v>
       </c>
       <c r="B228" s="3" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="C228" s="3" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="D228" s="4">
-        <v>4301070797</v>
+        <v>4301070768</v>
       </c>
       <c r="E228" s="3">
-        <v>4607111035646</v>
+        <v>4607111035639</v>
       </c>
       <c r="F228" s="5" t="s">
-        <v>423</v>
-      </c>
-      <c r="G228" s="1"/>
+        <v>419</v>
+      </c>
+      <c r="G228" s="1">
+        <f>VLOOKUP(E228,[1]Лист1!$D:$M,10,0)</f>
+        <v>180</v>
+      </c>
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A229" s="11" t="s">
-        <v>420</v>
+        <v>523</v>
       </c>
       <c r="B229" s="3" t="s">
         <v>421</v>
@@ -6986,95 +10436,110 @@
       <c r="F229" s="5" t="s">
         <v>423</v>
       </c>
-      <c r="G229" s="1"/>
+      <c r="G229" s="1">
+        <f>VLOOKUP(E229,[1]Лист1!$D:$M,10,0)</f>
+        <v>180</v>
+      </c>
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A230" s="11" t="s">
-        <v>434</v>
+        <v>420</v>
       </c>
       <c r="B230" s="3" t="s">
-        <v>435</v>
+        <v>421</v>
       </c>
       <c r="C230" s="3" t="s">
-        <v>436</v>
+        <v>422</v>
       </c>
       <c r="D230" s="4">
-        <v>4301080154</v>
+        <v>4301070797</v>
       </c>
       <c r="E230" s="3">
-        <v>4607111036834</v>
+        <v>4607111035646</v>
       </c>
       <c r="F230" s="5" t="s">
-        <v>437</v>
-      </c>
-      <c r="G230" s="1"/>
+        <v>423</v>
+      </c>
+      <c r="G230" s="1">
+        <f>VLOOKUP(E230,[1]Лист1!$D:$M,10,0)</f>
+        <v>180</v>
+      </c>
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A231" s="11" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
       <c r="B231" s="3" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
       <c r="C231" s="3" t="s">
-        <v>444</v>
+        <v>436</v>
       </c>
       <c r="D231" s="4">
-        <v>4301070941</v>
+        <v>4301080154</v>
       </c>
       <c r="E231" s="3">
-        <v>4607111036162</v>
+        <v>4607111036834</v>
       </c>
       <c r="F231" s="5" t="s">
-        <v>445</v>
-      </c>
-      <c r="G231" s="1"/>
+        <v>437</v>
+      </c>
+      <c r="G231" s="1">
+        <f>VLOOKUP(E231,[1]Лист1!$D:$M,10,0)</f>
+        <v>90</v>
+      </c>
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A232" s="11" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="B232" s="3" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="C232" s="3" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="D232" s="4">
-        <v>4301070826</v>
+        <v>4301070941</v>
       </c>
       <c r="E232" s="3">
-        <v>4607111035752</v>
+        <v>4607111036162</v>
       </c>
       <c r="F232" s="5" t="s">
-        <v>449</v>
-      </c>
-      <c r="G232" s="1"/>
+        <v>445</v>
+      </c>
+      <c r="G232" s="1">
+        <f>VLOOKUP(E232,[1]Лист1!$D:$M,10,0)</f>
+        <v>90</v>
+      </c>
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A233" s="11" t="s">
-        <v>489</v>
+        <v>446</v>
       </c>
       <c r="B233" s="3" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="C233" s="3" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="D233" s="4">
-        <v>4301070966</v>
+        <v>4301070826</v>
       </c>
       <c r="E233" s="3">
-        <v>4607111038135</v>
+        <v>4607111035752</v>
       </c>
       <c r="F233" s="5" t="s">
-        <v>450</v>
-      </c>
-      <c r="G233" s="1"/>
+        <v>449</v>
+      </c>
+      <c r="G233" s="1">
+        <f>VLOOKUP(E233,[1]Лист1!$D:$M,10,0)</f>
+        <v>180</v>
+      </c>
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A234" s="11" t="s">
-        <v>543</v>
+        <v>489</v>
       </c>
       <c r="B234" s="3" t="s">
         <v>451</v>
@@ -7091,11 +10556,14 @@
       <c r="F234" s="5" t="s">
         <v>450</v>
       </c>
-      <c r="G234" s="1"/>
+      <c r="G234" s="1">
+        <f>VLOOKUP(E234,[1]Лист1!$D:$M,10,0)</f>
+        <v>180</v>
+      </c>
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A235" s="11" t="s">
-        <v>450</v>
+        <v>543</v>
       </c>
       <c r="B235" s="3" t="s">
         <v>451</v>
@@ -7112,53 +10580,62 @@
       <c r="F235" s="5" t="s">
         <v>450</v>
       </c>
-      <c r="G235" s="1"/>
+      <c r="G235" s="1">
+        <f>VLOOKUP(E235,[1]Лист1!$D:$M,10,0)</f>
+        <v>180</v>
+      </c>
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A236" s="11" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="B236" s="3" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="C236" s="3" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="D236" s="4">
-        <v>4301070911</v>
+        <v>4301070966</v>
       </c>
       <c r="E236" s="3">
-        <v>4607111036278</v>
+        <v>4607111038135</v>
       </c>
       <c r="F236" s="5" t="s">
-        <v>453</v>
-      </c>
-      <c r="G236" s="1"/>
+        <v>450</v>
+      </c>
+      <c r="G236" s="1">
+        <f>VLOOKUP(E236,[1]Лист1!$D:$M,10,0)</f>
+        <v>180</v>
+      </c>
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A237" s="11" t="s">
-        <v>478</v>
+        <v>453</v>
       </c>
       <c r="B237" s="3" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="C237" s="3" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="D237" s="4">
-        <v>4301131019</v>
+        <v>4301070911</v>
       </c>
       <c r="E237" s="3">
-        <v>4640242180427</v>
+        <v>4607111036278</v>
       </c>
       <c r="F237" s="5" t="s">
-        <v>460</v>
-      </c>
-      <c r="G237" s="1"/>
+        <v>453</v>
+      </c>
+      <c r="G237" s="1">
+        <f>VLOOKUP(E237,[1]Лист1!$D:$M,10,0)</f>
+        <v>120</v>
+      </c>
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A238" s="11" t="s">
-        <v>457</v>
+        <v>478</v>
       </c>
       <c r="B238" s="3" t="s">
         <v>458</v>
@@ -7175,32 +10652,38 @@
       <c r="F238" s="5" t="s">
         <v>460</v>
       </c>
-      <c r="G238" s="1"/>
+      <c r="G238" s="1">
+        <f>VLOOKUP(E238,[1]Лист1!$D:$M,10,0)</f>
+        <v>180</v>
+      </c>
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A239" s="11" t="s">
-        <v>517</v>
+        <v>457</v>
       </c>
       <c r="B239" s="3" t="s">
-        <v>515</v>
+        <v>458</v>
       </c>
       <c r="C239" s="3" t="s">
-        <v>516</v>
+        <v>459</v>
       </c>
       <c r="D239" s="4">
-        <v>4301132079</v>
+        <v>4301131019</v>
       </c>
       <c r="E239" s="3">
-        <v>4607111038487</v>
+        <v>4640242180427</v>
       </c>
       <c r="F239" s="5" t="s">
-        <v>517</v>
-      </c>
-      <c r="G239" s="1"/>
+        <v>460</v>
+      </c>
+      <c r="G239" s="1">
+        <f>VLOOKUP(E239,[1]Лист1!$D:$M,10,0)</f>
+        <v>180</v>
+      </c>
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A240" s="11" t="s">
-        <v>546</v>
+        <v>517</v>
       </c>
       <c r="B240" s="3" t="s">
         <v>515</v>
@@ -7217,11 +10700,14 @@
       <c r="F240" s="5" t="s">
         <v>517</v>
       </c>
-      <c r="G240" s="1"/>
+      <c r="G240" s="1">
+        <f>VLOOKUP(E240,[1]Лист1!$D:$M,10,0)</f>
+        <v>180</v>
+      </c>
     </row>
     <row r="241" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A241" s="11" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="B241" s="3" t="s">
         <v>515</v>
@@ -7238,11 +10724,14 @@
       <c r="F241" s="5" t="s">
         <v>517</v>
       </c>
-      <c r="G241" s="1"/>
+      <c r="G241" s="1">
+        <f>VLOOKUP(E241,[1]Лист1!$D:$M,10,0)</f>
+        <v>180</v>
+      </c>
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A242" s="11" t="s">
-        <v>514</v>
+        <v>549</v>
       </c>
       <c r="B242" s="3" t="s">
         <v>515</v>
@@ -7259,79 +10748,106 @@
       <c r="F242" s="5" t="s">
         <v>517</v>
       </c>
-      <c r="G242" s="1"/>
+      <c r="G242" s="1">
+        <f>VLOOKUP(E242,[1]Лист1!$D:$M,10,0)</f>
+        <v>180</v>
+      </c>
     </row>
     <row r="243" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A243" s="11" t="s">
-        <v>526</v>
+        <v>514</v>
       </c>
       <c r="B243" s="3" t="s">
-        <v>527</v>
+        <v>515</v>
       </c>
       <c r="C243" s="3" t="s">
-        <v>528</v>
+        <v>516</v>
       </c>
       <c r="D243" s="4">
-        <v>4301070884</v>
+        <v>4301132079</v>
       </c>
       <c r="E243" s="3">
-        <v>4607111036315</v>
+        <v>4607111038487</v>
       </c>
       <c r="F243" s="5" t="s">
-        <v>529</v>
-      </c>
-      <c r="G243" s="1"/>
+        <v>517</v>
+      </c>
+      <c r="G243" s="1">
+        <f>VLOOKUP(E243,[1]Лист1!$D:$M,10,0)</f>
+        <v>180</v>
+      </c>
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A244" s="11" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="B244" s="3" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="C244" s="3" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="D244" s="4">
-        <v>4301133002</v>
+        <v>4301070884</v>
       </c>
       <c r="E244" s="3">
-        <v>4607111035783</v>
+        <v>4607111036315</v>
       </c>
       <c r="F244" s="5" t="s">
-        <v>534</v>
-      </c>
-      <c r="G244" s="1"/>
+        <v>529</v>
+      </c>
+      <c r="G244" s="1">
+        <f>VLOOKUP(E244,[1]Лист1!$D:$M,10,0)</f>
+        <v>180</v>
+      </c>
     </row>
     <row r="245" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A245" s="11" t="s">
+        <v>531</v>
+      </c>
+      <c r="B245" s="3" t="s">
+        <v>532</v>
+      </c>
+      <c r="C245" s="3" t="s">
+        <v>533</v>
+      </c>
+      <c r="D245" s="4">
+        <v>4301133002</v>
+      </c>
+      <c r="E245" s="3">
+        <v>4607111035783</v>
+      </c>
+      <c r="F245" s="5" t="s">
+        <v>534</v>
+      </c>
+      <c r="G245" s="1">
+        <f>VLOOKUP(E245,[1]Лист1!$D:$M,10,0)</f>
+        <v>180</v>
+      </c>
+    </row>
+    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A246" s="11" t="s">
         <v>537</v>
       </c>
-      <c r="B245" s="3" t="s">
+      <c r="B246" s="3" t="s">
         <v>538</v>
       </c>
-      <c r="C245" s="3" t="s">
+      <c r="C246" s="3" t="s">
         <v>539</v>
       </c>
-      <c r="D245" s="4">
+      <c r="D246" s="4">
         <v>4301070958</v>
       </c>
-      <c r="E245" s="3">
+      <c r="E246" s="3">
         <v>4607111038098</v>
       </c>
-      <c r="F245" s="5" t="s">
+      <c r="F246" s="5" t="s">
         <v>540</v>
       </c>
-      <c r="G245" s="1"/>
-    </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A246" s="11"/>
-      <c r="B246" s="3"/>
-      <c r="C246" s="3"/>
-      <c r="D246" s="4"/>
-      <c r="E246" s="3"/>
-      <c r="F246" s="5"/>
-      <c r="G246" s="1"/>
+      <c r="G246" s="1">
+        <f>VLOOKUP(E246,[1]Лист1!$D:$M,10,0)</f>
+        <v>180</v>
+      </c>
     </row>
     <row r="247" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A247" s="11"/>
@@ -7389,20 +10905,20 @@
     </row>
     <row r="253" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A253" s="11"/>
-      <c r="B253" s="13"/>
-      <c r="C253" s="13"/>
-      <c r="D253" s="14"/>
-      <c r="E253" s="15"/>
-      <c r="F253" s="16"/>
+      <c r="B253" s="3"/>
+      <c r="C253" s="3"/>
+      <c r="D253" s="4"/>
+      <c r="E253" s="3"/>
+      <c r="F253" s="5"/>
       <c r="G253" s="1"/>
     </row>
     <row r="254" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A254" s="11"/>
-      <c r="B254" s="3"/>
-      <c r="C254" s="3"/>
-      <c r="D254" s="4"/>
-      <c r="E254" s="3"/>
-      <c r="F254" s="5"/>
+      <c r="B254" s="13"/>
+      <c r="C254" s="13"/>
+      <c r="D254" s="14"/>
+      <c r="E254" s="15"/>
+      <c r="F254" s="16"/>
       <c r="G254" s="1"/>
     </row>
     <row r="255" spans="1:7" x14ac:dyDescent="0.25">
@@ -7470,20 +10986,20 @@
     </row>
     <row r="262" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A262" s="11"/>
-      <c r="B262" s="13"/>
-      <c r="C262" s="13"/>
-      <c r="D262" s="14"/>
-      <c r="E262" s="15"/>
-      <c r="F262" s="16"/>
+      <c r="B262" s="3"/>
+      <c r="C262" s="3"/>
+      <c r="D262" s="4"/>
+      <c r="E262" s="3"/>
+      <c r="F262" s="5"/>
       <c r="G262" s="1"/>
     </row>
     <row r="263" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A263" s="11"/>
-      <c r="B263" s="3"/>
-      <c r="C263" s="3"/>
-      <c r="D263" s="4"/>
-      <c r="E263" s="3"/>
-      <c r="F263" s="5"/>
+      <c r="B263" s="13"/>
+      <c r="C263" s="13"/>
+      <c r="D263" s="14"/>
+      <c r="E263" s="15"/>
+      <c r="F263" s="16"/>
       <c r="G263" s="1"/>
     </row>
     <row r="264" spans="1:7" x14ac:dyDescent="0.25">
@@ -7538,7 +11054,7 @@
       <c r="D269" s="4"/>
       <c r="E269" s="3"/>
       <c r="F269" s="5"/>
-      <c r="G269" s="6"/>
+      <c r="G269" s="1"/>
     </row>
     <row r="270" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A270" s="11"/>
@@ -7547,7 +11063,7 @@
       <c r="D270" s="4"/>
       <c r="E270" s="3"/>
       <c r="F270" s="5"/>
-      <c r="G270" s="1"/>
+      <c r="G270" s="6"/>
     </row>
     <row r="271" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A271" s="11"/>
@@ -8163,11 +11679,11 @@
     </row>
     <row r="339" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A339" s="11"/>
-      <c r="B339" s="1"/>
-      <c r="C339" s="1"/>
-      <c r="D339" s="1"/>
-      <c r="E339" s="1"/>
-      <c r="F339" s="1"/>
+      <c r="B339" s="3"/>
+      <c r="C339" s="3"/>
+      <c r="D339" s="4"/>
+      <c r="E339" s="3"/>
+      <c r="F339" s="5"/>
       <c r="G339" s="1"/>
     </row>
     <row r="340" spans="1:7" x14ac:dyDescent="0.25">
@@ -8188,9 +11704,18 @@
       <c r="F341" s="1"/>
       <c r="G341" s="1"/>
     </row>
+    <row r="342" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A342" s="11"/>
+      <c r="B342" s="1"/>
+      <c r="C342" s="1"/>
+      <c r="D342" s="1"/>
+      <c r="E342" s="1"/>
+      <c r="F342" s="1"/>
+      <c r="G342" s="1"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:F245" xr:uid="{08353A06-E006-45C7-BD45-850F7C3953DF}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F202">
+  <autoFilter ref="A1:F246" xr:uid="{08353A06-E006-45C7-BD45-850F7C3953DF}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F203">
       <sortCondition ref="A1:A142"/>
     </sortState>
   </autoFilter>

--- a/moduls/1С.xlsx
+++ b/moduls/1С.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\перенос данных\ПОКОМ ЗПФ\pokom_zpf\moduls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED177B49-FA56-4F1A-810E-CEAC8265AD3E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04C6BACA-DBFB-4EB4-B71E-ACA64DA8DEBB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
     <externalReference r:id="rId3"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$F$246</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$F$249</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1054" uniqueCount="553">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1066" uniqueCount="556">
   <si>
     <t>1С</t>
   </si>
@@ -1697,6 +1697,15 @@
   </si>
   <si>
     <t>Мини-сосиски в тесте "Фрайпики" 1,8кг ВЕС, ТМ Зареченские  ПОКОМ</t>
+  </si>
+  <si>
+    <t>Сочный мегачебурек ТМ Зареченские ВЕС ПОКОМ</t>
+  </si>
+  <si>
+    <t>Круггетсы с сырным соусом ТМ Горячая штучка 3 кг зам вес ПОКОМ</t>
+  </si>
+  <si>
+    <t>Круггетсы сочные ТМ Горячая штучка ТС Круггетсы 3 кг. Изделия кулинарные рубленые в тесте куриные</t>
   </si>
 </sst>
 </file>
@@ -4929,11 +4938,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G342"/>
+  <dimension ref="A1:G345"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I8" sqref="I8"/>
+      <selection pane="bottomLeft" activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5667,7 +5676,7 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="11" t="s">
-        <v>158</v>
+        <v>553</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>465</v>
@@ -5691,22 +5700,22 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="11" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>379</v>
+        <v>465</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>380</v>
+        <v>466</v>
       </c>
       <c r="D32" s="4">
-        <v>4301135191</v>
+        <v>4301136029</v>
       </c>
       <c r="E32" s="3">
-        <v>4640242180373</v>
+        <v>4640242180410</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>381</v>
+        <v>467</v>
       </c>
       <c r="G32" s="1">
         <f>VLOOKUP(E32,[1]Лист1!$D:$M,10,0)</f>
@@ -5715,7 +5724,7 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="11" t="s">
-        <v>502</v>
+        <v>159</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>379</v>
@@ -5739,7 +5748,7 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="11" t="s">
-        <v>136</v>
+        <v>502</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>379</v>
@@ -5763,22 +5772,22 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="11" t="s">
-        <v>309</v>
+        <v>136</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>343</v>
+        <v>379</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>344</v>
+        <v>380</v>
       </c>
       <c r="D35" s="4">
-        <v>4301135195</v>
+        <v>4301135191</v>
       </c>
       <c r="E35" s="3">
-        <v>4640242180366</v>
+        <v>4640242180373</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>345</v>
+        <v>381</v>
       </c>
       <c r="G35" s="1">
         <f>VLOOKUP(E35,[1]Лист1!$D:$M,10,0)</f>
@@ -5787,7 +5796,7 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="11" t="s">
-        <v>480</v>
+        <v>309</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>343</v>
@@ -5811,7 +5820,7 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="11" t="s">
-        <v>544</v>
+        <v>480</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>343</v>
@@ -5835,7 +5844,7 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="11" t="s">
-        <v>160</v>
+        <v>544</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>343</v>
@@ -5859,22 +5868,22 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="11" t="s">
-        <v>431</v>
+        <v>160</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="D39" s="4">
-        <v>4301135189</v>
+        <v>4301135195</v>
       </c>
       <c r="E39" s="3">
-        <v>4640242180342</v>
+        <v>4640242180366</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="G39" s="1">
         <f>VLOOKUP(E39,[1]Лист1!$D:$M,10,0)</f>
@@ -5883,7 +5892,7 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="11" t="s">
-        <v>472</v>
+        <v>431</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>346</v>
@@ -5907,7 +5916,7 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="11" t="s">
-        <v>161</v>
+        <v>472</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>346</v>
@@ -5931,22 +5940,22 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="11" t="s">
-        <v>482</v>
+        <v>161</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="D42" s="4">
-        <v>4301135188</v>
+        <v>4301135189</v>
       </c>
       <c r="E42" s="3">
-        <v>4640242180335</v>
+        <v>4640242180342</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="G42" s="1">
         <f>VLOOKUP(E42,[1]Лист1!$D:$M,10,0)</f>
@@ -5955,7 +5964,7 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="11" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>349</v>
@@ -5979,7 +5988,7 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="11" t="s">
-        <v>501</v>
+        <v>488</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>349</v>
@@ -6003,7 +6012,7 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="11" t="s">
-        <v>162</v>
+        <v>501</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>349</v>
@@ -6027,22 +6036,22 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="11" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>373</v>
+        <v>349</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>374</v>
+        <v>350</v>
       </c>
       <c r="D46" s="4">
-        <v>4301135190</v>
+        <v>4301135188</v>
       </c>
       <c r="E46" s="3">
-        <v>4640242180359</v>
+        <v>4640242180335</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>375</v>
+        <v>351</v>
       </c>
       <c r="G46" s="1">
         <f>VLOOKUP(E46,[1]Лист1!$D:$M,10,0)</f>
@@ -6051,7 +6060,7 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="11" t="s">
-        <v>481</v>
+        <v>163</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>373</v>
@@ -6075,7 +6084,7 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="11" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="B48" s="3" t="s">
         <v>373</v>
@@ -6099,7 +6108,7 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="11" t="s">
-        <v>137</v>
+        <v>484</v>
       </c>
       <c r="B49" s="3" t="s">
         <v>373</v>
@@ -6123,22 +6132,22 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="11" t="s">
-        <v>91</v>
+        <v>137</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>361</v>
+        <v>373</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>362</v>
+        <v>374</v>
       </c>
       <c r="D50" s="4">
-        <v>4301135186</v>
+        <v>4301135190</v>
       </c>
       <c r="E50" s="3">
-        <v>4640242180311</v>
+        <v>4640242180359</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>363</v>
+        <v>375</v>
       </c>
       <c r="G50" s="1">
         <f>VLOOKUP(E50,[1]Лист1!$D:$M,10,0)</f>
@@ -6147,7 +6156,7 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="11" t="s">
-        <v>384</v>
+        <v>91</v>
       </c>
       <c r="B51" s="3" t="s">
         <v>361</v>
@@ -6171,7 +6180,7 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="11" t="s">
-        <v>473</v>
+        <v>384</v>
       </c>
       <c r="B52" s="3" t="s">
         <v>361</v>
@@ -6195,7 +6204,7 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="11" t="s">
-        <v>463</v>
+        <v>473</v>
       </c>
       <c r="B53" s="3" t="s">
         <v>361</v>
@@ -6219,7 +6228,7 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="11" t="s">
-        <v>227</v>
+        <v>463</v>
       </c>
       <c r="B54" s="3" t="s">
         <v>361</v>
@@ -6243,22 +6252,22 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="11" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>352</v>
+        <v>361</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>353</v>
+        <v>362</v>
       </c>
       <c r="D55" s="4">
-        <v>4301135187</v>
+        <v>4301135186</v>
       </c>
       <c r="E55" s="3">
-        <v>4640242180328</v>
+        <v>4640242180311</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>354</v>
+        <v>363</v>
       </c>
       <c r="G55" s="1">
         <f>VLOOKUP(E55,[1]Лист1!$D:$M,10,0)</f>
@@ -6267,7 +6276,7 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="11" t="s">
-        <v>536</v>
+        <v>228</v>
       </c>
       <c r="B56" s="3" t="s">
         <v>352</v>
@@ -6291,7 +6300,7 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="11" t="s">
-        <v>202</v>
+        <v>536</v>
       </c>
       <c r="B57" s="3" t="s">
         <v>352</v>
@@ -6315,22 +6324,22 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="11" t="s">
-        <v>229</v>
+        <v>202</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>297</v>
+        <v>352</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>298</v>
+        <v>353</v>
       </c>
       <c r="D58" s="4">
-        <v>4301135115</v>
+        <v>4301135187</v>
       </c>
       <c r="E58" s="3">
-        <v>4607111034380</v>
+        <v>4640242180328</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>299</v>
+        <v>354</v>
       </c>
       <c r="G58" s="1">
         <f>VLOOKUP(E58,[1]Лист1!$D:$M,10,0)</f>
@@ -6339,7 +6348,7 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="11" t="s">
-        <v>164</v>
+        <v>229</v>
       </c>
       <c r="B59" s="3" t="s">
         <v>297</v>
@@ -6363,22 +6372,22 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="11" t="s">
-        <v>281</v>
+        <v>164</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>310</v>
+        <v>297</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>311</v>
+        <v>298</v>
       </c>
       <c r="D60" s="4">
-        <v>4301135114</v>
+        <v>4301135115</v>
       </c>
       <c r="E60" s="3">
-        <v>4607111034397</v>
+        <v>4607111034380</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>312</v>
+        <v>299</v>
       </c>
       <c r="G60" s="1">
         <f>VLOOKUP(E60,[1]Лист1!$D:$M,10,0)</f>
@@ -6387,7 +6396,7 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="11" t="s">
-        <v>230</v>
+        <v>281</v>
       </c>
       <c r="B61" s="3" t="s">
         <v>310</v>
@@ -6411,7 +6420,7 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="11" t="s">
-        <v>75</v>
+        <v>230</v>
       </c>
       <c r="B62" s="3" t="s">
         <v>310</v>
@@ -6435,22 +6444,22 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="11" t="s">
-        <v>138</v>
+        <v>75</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>282</v>
+        <v>310</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>283</v>
+        <v>311</v>
       </c>
       <c r="D63" s="4">
-        <v>4301131012</v>
+        <v>4301135114</v>
       </c>
       <c r="E63" s="3">
-        <v>4607111034137</v>
+        <v>4607111034397</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>143</v>
+        <v>312</v>
       </c>
       <c r="G63" s="1">
         <f>VLOOKUP(E63,[1]Лист1!$D:$M,10,0)</f>
@@ -6459,7 +6468,7 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="11" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="B64" s="3" t="s">
         <v>282</v>
@@ -6483,7 +6492,7 @@
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="11" t="s">
-        <v>231</v>
+        <v>143</v>
       </c>
       <c r="B65" s="3" t="s">
         <v>282</v>
@@ -6507,22 +6516,22 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="11" t="s">
-        <v>139</v>
+        <v>231</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>144</v>
+        <v>282</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>145</v>
+        <v>283</v>
       </c>
       <c r="D66" s="4">
-        <v>4301131011</v>
+        <v>4301131012</v>
       </c>
       <c r="E66" s="3">
-        <v>4607111034120</v>
+        <v>4607111034137</v>
       </c>
       <c r="F66" s="5" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="G66" s="1">
         <f>VLOOKUP(E66,[1]Лист1!$D:$M,10,0)</f>
@@ -6531,7 +6540,7 @@
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="11" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="B67" s="3" t="s">
         <v>144</v>
@@ -6555,7 +6564,7 @@
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="11" t="s">
-        <v>232</v>
+        <v>146</v>
       </c>
       <c r="B68" s="3" t="s">
         <v>144</v>
@@ -6579,22 +6588,22 @@
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="11" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>355</v>
+        <v>144</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>356</v>
+        <v>145</v>
       </c>
       <c r="D69" s="4">
-        <v>4301135192</v>
+        <v>4301131011</v>
       </c>
       <c r="E69" s="3">
-        <v>4640242180380</v>
+        <v>4607111034120</v>
       </c>
       <c r="F69" s="5" t="s">
-        <v>357</v>
+        <v>146</v>
       </c>
       <c r="G69" s="1">
         <f>VLOOKUP(E69,[1]Лист1!$D:$M,10,0)</f>
@@ -6603,7 +6612,7 @@
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="11" t="s">
-        <v>279</v>
+        <v>233</v>
       </c>
       <c r="B70" s="3" t="s">
         <v>355</v>
@@ -6627,7 +6636,7 @@
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="11" t="s">
-        <v>428</v>
+        <v>279</v>
       </c>
       <c r="B71" s="3" t="s">
         <v>355</v>
@@ -6651,7 +6660,7 @@
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="11" t="s">
-        <v>456</v>
+        <v>428</v>
       </c>
       <c r="B72" s="3" t="s">
         <v>355</v>
@@ -6675,7 +6684,7 @@
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="11" t="s">
-        <v>76</v>
+        <v>456</v>
       </c>
       <c r="B73" s="3" t="s">
         <v>355</v>
@@ -6699,22 +6708,22 @@
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="11" t="s">
-        <v>262</v>
+        <v>76</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>260</v>
+        <v>355</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>261</v>
+        <v>356</v>
       </c>
       <c r="D74" s="4">
-        <v>4301132066</v>
+        <v>4301135192</v>
       </c>
       <c r="E74" s="3">
-        <v>4607111036520</v>
+        <v>4640242180380</v>
       </c>
       <c r="F74" s="5" t="s">
-        <v>262</v>
+        <v>357</v>
       </c>
       <c r="G74" s="1">
         <f>VLOOKUP(E74,[1]Лист1!$D:$M,10,0)</f>
@@ -6723,7 +6732,7 @@
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="11" t="s">
-        <v>389</v>
+        <v>262</v>
       </c>
       <c r="B75" s="3" t="s">
         <v>260</v>
@@ -6747,7 +6756,7 @@
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="11" t="s">
-        <v>541</v>
+        <v>389</v>
       </c>
       <c r="B76" s="3" t="s">
         <v>260</v>
@@ -6771,7 +6780,7 @@
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="11" t="s">
-        <v>234</v>
+        <v>541</v>
       </c>
       <c r="B77" s="3" t="s">
         <v>260</v>
@@ -6795,22 +6804,22 @@
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="11" t="s">
-        <v>524</v>
+        <v>234</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="D78" s="4">
-        <v>4301132065</v>
+        <v>4301132066</v>
       </c>
       <c r="E78" s="3">
-        <v>4607111036599</v>
+        <v>4607111036520</v>
       </c>
       <c r="F78" s="5" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="G78" s="1">
         <f>VLOOKUP(E78,[1]Лист1!$D:$M,10,0)</f>
@@ -6819,7 +6828,7 @@
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="11" t="s">
-        <v>235</v>
+        <v>524</v>
       </c>
       <c r="B79" s="3" t="s">
         <v>263</v>
@@ -6841,24 +6850,24 @@
         <v>180</v>
       </c>
     </row>
-    <row r="80" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="11" t="s">
-        <v>497</v>
+        <v>235</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="D80" s="4">
-        <v>4301132063</v>
+        <v>4301132065</v>
       </c>
       <c r="E80" s="3">
-        <v>4607111036605</v>
+        <v>4607111036599</v>
       </c>
       <c r="F80" s="5" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="G80" s="1">
         <f>VLOOKUP(E80,[1]Лист1!$D:$M,10,0)</f>
@@ -6867,7 +6876,7 @@
     </row>
     <row r="81" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A81" s="11" t="s">
-        <v>236</v>
+        <v>497</v>
       </c>
       <c r="B81" s="3" t="s">
         <v>266</v>
@@ -6889,24 +6898,24 @@
         <v>180</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A82" s="11" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>102</v>
+        <v>266</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>103</v>
+        <v>267</v>
       </c>
       <c r="D82" s="4">
-        <v>4301132046</v>
+        <v>4301132063</v>
       </c>
       <c r="E82" s="3">
-        <v>4607111035691</v>
+        <v>4607111036605</v>
       </c>
       <c r="F82" s="5" t="s">
-        <v>104</v>
+        <v>268</v>
       </c>
       <c r="G82" s="1">
         <f>VLOOKUP(E82,[1]Лист1!$D:$M,10,0)</f>
@@ -6915,7 +6924,7 @@
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="11" t="s">
-        <v>104</v>
+        <v>237</v>
       </c>
       <c r="B83" s="3" t="s">
         <v>102</v>
@@ -6939,7 +6948,7 @@
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="11" t="s">
-        <v>77</v>
+        <v>104</v>
       </c>
       <c r="B84" s="3" t="s">
         <v>102</v>
@@ -6963,22 +6972,22 @@
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="11" t="s">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D85" s="4">
-        <v>4301132064</v>
+        <v>4301132046</v>
       </c>
       <c r="E85" s="3">
-        <v>4607111036537</v>
+        <v>4607111035691</v>
       </c>
       <c r="F85" s="5" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="G85" s="1">
         <f>VLOOKUP(E85,[1]Лист1!$D:$M,10,0)</f>
@@ -6987,7 +6996,7 @@
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="11" t="s">
-        <v>78</v>
+        <v>107</v>
       </c>
       <c r="B86" s="3" t="s">
         <v>105</v>
@@ -7011,22 +7020,22 @@
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D87" s="4">
-        <v>4301132048</v>
+        <v>4301132064</v>
       </c>
       <c r="E87" s="3">
-        <v>4607111035721</v>
+        <v>4607111036537</v>
       </c>
       <c r="F87" s="5" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G87" s="1">
         <f>VLOOKUP(E87,[1]Лист1!$D:$M,10,0)</f>
@@ -7035,22 +7044,22 @@
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="11" t="s">
-        <v>462</v>
+        <v>79</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>358</v>
+        <v>108</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>359</v>
+        <v>109</v>
       </c>
       <c r="D88" s="4">
-        <v>4301132080</v>
+        <v>4301132048</v>
       </c>
       <c r="E88" s="3">
-        <v>4640242180397</v>
+        <v>4607111035721</v>
       </c>
       <c r="F88" s="5" t="s">
-        <v>360</v>
+        <v>110</v>
       </c>
       <c r="G88" s="1">
         <f>VLOOKUP(E88,[1]Лист1!$D:$M,10,0)</f>
@@ -7059,7 +7068,7 @@
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="11" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B89" s="3" t="s">
         <v>358</v>
@@ -7083,7 +7092,7 @@
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="11" t="s">
-        <v>474</v>
+        <v>464</v>
       </c>
       <c r="B90" s="3" t="s">
         <v>358</v>
@@ -7107,7 +7116,7 @@
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="11" t="s">
-        <v>80</v>
+        <v>474</v>
       </c>
       <c r="B91" s="3" t="s">
         <v>358</v>
@@ -7131,22 +7140,22 @@
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="11" t="s">
-        <v>415</v>
+        <v>80</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>269</v>
+        <v>358</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>270</v>
+        <v>359</v>
       </c>
       <c r="D92" s="4">
-        <v>4301135134</v>
+        <v>4301132080</v>
       </c>
       <c r="E92" s="3">
-        <v>4607111035806</v>
+        <v>4640242180397</v>
       </c>
       <c r="F92" s="5" t="s">
-        <v>271</v>
+        <v>360</v>
       </c>
       <c r="G92" s="1">
         <f>VLOOKUP(E92,[1]Лист1!$D:$M,10,0)</f>
@@ -7155,7 +7164,7 @@
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="11" t="s">
-        <v>427</v>
+        <v>415</v>
       </c>
       <c r="B93" s="3" t="s">
         <v>269</v>
@@ -7179,7 +7188,7 @@
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="11" t="s">
-        <v>508</v>
+        <v>427</v>
       </c>
       <c r="B94" s="3" t="s">
         <v>269</v>
@@ -7203,7 +7212,7 @@
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="11" t="s">
-        <v>519</v>
+        <v>508</v>
       </c>
       <c r="B95" s="3" t="s">
         <v>269</v>
@@ -7227,7 +7236,7 @@
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="11" t="s">
-        <v>238</v>
+        <v>519</v>
       </c>
       <c r="B96" s="3" t="s">
         <v>269</v>
@@ -7251,22 +7260,22 @@
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="11" t="s">
-        <v>390</v>
+        <v>238</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="D97" s="4">
-        <v>4301070865</v>
+        <v>4301135134</v>
       </c>
       <c r="E97" s="3">
-        <v>4607111036285</v>
+        <v>4607111035806</v>
       </c>
       <c r="F97" s="5" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="G97" s="1">
         <f>VLOOKUP(E97,[1]Лист1!$D:$M,10,0)</f>
@@ -7275,7 +7284,7 @@
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="11" t="s">
-        <v>440</v>
+        <v>390</v>
       </c>
       <c r="B98" s="3" t="s">
         <v>272</v>
@@ -7299,7 +7308,7 @@
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="11" t="s">
-        <v>274</v>
+        <v>440</v>
       </c>
       <c r="B99" s="3" t="s">
         <v>272</v>
@@ -7323,7 +7332,7 @@
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="11" t="s">
-        <v>510</v>
+        <v>274</v>
       </c>
       <c r="B100" s="3" t="s">
         <v>272</v>
@@ -7347,7 +7356,7 @@
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="11" t="s">
-        <v>240</v>
+        <v>510</v>
       </c>
       <c r="B101" s="3" t="s">
         <v>272</v>
@@ -7371,22 +7380,22 @@
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="11" t="s">
-        <v>173</v>
+        <v>240</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>172</v>
+        <v>272</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>341</v>
+        <v>273</v>
       </c>
       <c r="D102" s="4">
-        <v>4301070970</v>
+        <v>4301070865</v>
       </c>
       <c r="E102" s="3">
-        <v>4607111037091</v>
+        <v>4607111036285</v>
       </c>
       <c r="F102" s="5" t="s">
-        <v>342</v>
+        <v>274</v>
       </c>
       <c r="G102" s="1">
         <f>VLOOKUP(E102,[1]Лист1!$D:$M,10,0)</f>
@@ -7395,7 +7404,7 @@
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="11" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B103" s="3" t="s">
         <v>172</v>
@@ -7419,7 +7428,7 @@
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="11" t="s">
-        <v>332</v>
+        <v>171</v>
       </c>
       <c r="B104" s="3" t="s">
         <v>172</v>
@@ -7443,7 +7452,7 @@
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="11" t="s">
-        <v>550</v>
+        <v>332</v>
       </c>
       <c r="B105" s="3" t="s">
         <v>172</v>
@@ -7467,7 +7476,7 @@
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="11" t="s">
-        <v>241</v>
+        <v>550</v>
       </c>
       <c r="B106" s="3" t="s">
         <v>172</v>
@@ -7491,22 +7500,22 @@
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="11" t="s">
-        <v>87</v>
+        <v>241</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>119</v>
+        <v>172</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>329</v>
+        <v>341</v>
       </c>
       <c r="D107" s="4">
-        <v>4301070973</v>
+        <v>4301070970</v>
       </c>
       <c r="E107" s="3">
-        <v>4607111033987</v>
+        <v>4607111037091</v>
       </c>
       <c r="F107" s="5" t="s">
-        <v>330</v>
+        <v>342</v>
       </c>
       <c r="G107" s="1">
         <f>VLOOKUP(E107,[1]Лист1!$D:$M,10,0)</f>
@@ -7515,7 +7524,7 @@
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="11" t="s">
-        <v>330</v>
+        <v>87</v>
       </c>
       <c r="B108" s="3" t="s">
         <v>119</v>
@@ -7539,7 +7548,7 @@
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="11" t="s">
-        <v>243</v>
+        <v>330</v>
       </c>
       <c r="B109" s="3" t="s">
         <v>119</v>
@@ -7563,22 +7572,22 @@
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="11" t="s">
-        <v>439</v>
+        <v>243</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>275</v>
+        <v>119</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>276</v>
+        <v>329</v>
       </c>
       <c r="D110" s="4">
-        <v>4301070861</v>
+        <v>4301070973</v>
       </c>
       <c r="E110" s="3">
-        <v>4607111036308</v>
+        <v>4607111033987</v>
       </c>
       <c r="F110" s="5" t="s">
-        <v>277</v>
+        <v>330</v>
       </c>
       <c r="G110" s="1">
         <f>VLOOKUP(E110,[1]Лист1!$D:$M,10,0)</f>
@@ -7587,7 +7596,7 @@
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="11" t="s">
-        <v>509</v>
+        <v>439</v>
       </c>
       <c r="B111" s="3" t="s">
         <v>275</v>
@@ -7611,7 +7620,7 @@
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="11" t="s">
-        <v>244</v>
+        <v>509</v>
       </c>
       <c r="B112" s="3" t="s">
         <v>275</v>
@@ -7635,22 +7644,22 @@
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="11" t="s">
-        <v>81</v>
+        <v>244</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>111</v>
+        <v>275</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>112</v>
+        <v>276</v>
       </c>
       <c r="D113" s="4">
-        <v>4301070864</v>
+        <v>4301070861</v>
       </c>
       <c r="E113" s="3">
-        <v>4607111036292</v>
+        <v>4607111036308</v>
       </c>
       <c r="F113" s="5" t="s">
-        <v>113</v>
+        <v>277</v>
       </c>
       <c r="G113" s="1">
         <f>VLOOKUP(E113,[1]Лист1!$D:$M,10,0)</f>
@@ -7659,7 +7668,7 @@
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="11" t="s">
-        <v>441</v>
+        <v>81</v>
       </c>
       <c r="B114" s="3" t="s">
         <v>111</v>
@@ -7683,7 +7692,7 @@
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="11" t="s">
-        <v>245</v>
+        <v>441</v>
       </c>
       <c r="B115" s="3" t="s">
         <v>111</v>
@@ -7707,22 +7716,22 @@
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="11" t="s">
-        <v>86</v>
+        <v>245</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>325</v>
+        <v>112</v>
       </c>
       <c r="D116" s="4">
-        <v>4301070974</v>
+        <v>4301070864</v>
       </c>
       <c r="E116" s="3">
-        <v>4607111034151</v>
+        <v>4607111036292</v>
       </c>
       <c r="F116" s="5" t="s">
-        <v>326</v>
+        <v>113</v>
       </c>
       <c r="G116" s="1">
         <f>VLOOKUP(E116,[1]Лист1!$D:$M,10,0)</f>
@@ -7731,7 +7740,7 @@
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="11" t="s">
-        <v>326</v>
+        <v>86</v>
       </c>
       <c r="B117" s="3" t="s">
         <v>118</v>
@@ -7755,7 +7764,7 @@
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="11" t="s">
-        <v>248</v>
+        <v>326</v>
       </c>
       <c r="B118" s="3" t="s">
         <v>118</v>
@@ -7779,22 +7788,22 @@
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="11" t="s">
-        <v>239</v>
+        <v>248</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>166</v>
+        <v>118</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>547</v>
+        <v>325</v>
       </c>
       <c r="D119" s="4">
-        <v>4301070989</v>
+        <v>4301070974</v>
       </c>
       <c r="E119" s="3">
-        <v>4607111037190</v>
+        <v>4607111034151</v>
       </c>
       <c r="F119" s="5" t="s">
-        <v>548</v>
+        <v>326</v>
       </c>
       <c r="G119" s="1">
         <f>VLOOKUP(E119,[1]Лист1!$D:$M,10,0)</f>
@@ -7803,7 +7812,7 @@
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="11" t="s">
-        <v>530</v>
+        <v>239</v>
       </c>
       <c r="B120" s="3" t="s">
         <v>166</v>
@@ -7827,7 +7836,7 @@
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="11" t="s">
-        <v>165</v>
+        <v>530</v>
       </c>
       <c r="B121" s="3" t="s">
         <v>166</v>
@@ -7851,22 +7860,22 @@
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="11" t="s">
-        <v>246</v>
+        <v>165</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>337</v>
+        <v>547</v>
       </c>
       <c r="D122" s="4">
-        <v>4301070972</v>
+        <v>4301070989</v>
       </c>
       <c r="E122" s="3">
-        <v>4607111037183</v>
+        <v>4607111037190</v>
       </c>
       <c r="F122" s="5" t="s">
-        <v>338</v>
+        <v>548</v>
       </c>
       <c r="G122" s="1">
         <f>VLOOKUP(E122,[1]Лист1!$D:$M,10,0)</f>
@@ -7875,7 +7884,7 @@
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" s="11" t="s">
-        <v>511</v>
+        <v>246</v>
       </c>
       <c r="B123" s="3" t="s">
         <v>168</v>
@@ -7899,7 +7908,7 @@
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" s="11" t="s">
-        <v>167</v>
+        <v>511</v>
       </c>
       <c r="B124" s="3" t="s">
         <v>168</v>
@@ -7923,22 +7932,22 @@
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="11" t="s">
-        <v>525</v>
+        <v>167</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="D125" s="4">
-        <v>4301070969</v>
+        <v>4301070972</v>
       </c>
       <c r="E125" s="3">
-        <v>4607111036858</v>
+        <v>4607111037183</v>
       </c>
       <c r="F125" s="5" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="G125" s="1">
         <f>VLOOKUP(E125,[1]Лист1!$D:$M,10,0)</f>
@@ -7947,7 +7956,7 @@
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" s="11" t="s">
-        <v>542</v>
+        <v>525</v>
       </c>
       <c r="B126" s="3" t="s">
         <v>170</v>
@@ -7971,7 +7980,7 @@
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" s="11" t="s">
-        <v>169</v>
+        <v>542</v>
       </c>
       <c r="B127" s="3" t="s">
         <v>170</v>
@@ -7995,22 +8004,22 @@
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" s="11" t="s">
-        <v>82</v>
+        <v>169</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>114</v>
+        <v>170</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>492</v>
+        <v>339</v>
       </c>
       <c r="D128" s="4">
-        <v>4301070968</v>
+        <v>4301070969</v>
       </c>
       <c r="E128" s="3">
-        <v>4607111036889</v>
+        <v>4607111036858</v>
       </c>
       <c r="F128" s="5" t="s">
-        <v>493</v>
+        <v>340</v>
       </c>
       <c r="G128" s="1">
         <f>VLOOKUP(E128,[1]Лист1!$D:$M,10,0)</f>
@@ -8019,22 +8028,22 @@
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" s="11" t="s">
-        <v>176</v>
+        <v>82</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>175</v>
+        <v>114</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>468</v>
+        <v>492</v>
       </c>
       <c r="D129" s="4">
-        <v>4301070971</v>
+        <v>4301070968</v>
       </c>
       <c r="E129" s="3">
-        <v>4607111036902</v>
+        <v>4607111036889</v>
       </c>
       <c r="F129" s="5" t="s">
-        <v>469</v>
+        <v>493</v>
       </c>
       <c r="G129" s="1">
         <f>VLOOKUP(E129,[1]Лист1!$D:$M,10,0)</f>
@@ -8043,7 +8052,7 @@
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" s="11" t="s">
-        <v>331</v>
+        <v>176</v>
       </c>
       <c r="B130" s="3" t="s">
         <v>175</v>
@@ -8067,7 +8076,7 @@
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" s="11" t="s">
-        <v>174</v>
+        <v>331</v>
       </c>
       <c r="B131" s="3" t="s">
         <v>175</v>
@@ -8091,22 +8100,22 @@
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" s="11" t="s">
-        <v>286</v>
+        <v>174</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>115</v>
+        <v>175</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>318</v>
+        <v>468</v>
       </c>
       <c r="D132" s="4">
-        <v>4301070976</v>
+        <v>4301070971</v>
       </c>
       <c r="E132" s="3">
-        <v>4607111034144</v>
+        <v>4607111036902</v>
       </c>
       <c r="F132" s="5" t="s">
-        <v>319</v>
+        <v>469</v>
       </c>
       <c r="G132" s="1">
         <f>VLOOKUP(E132,[1]Лист1!$D:$M,10,0)</f>
@@ -8115,7 +8124,7 @@
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" s="11" t="s">
-        <v>247</v>
+        <v>286</v>
       </c>
       <c r="B133" s="3" t="s">
         <v>115</v>
@@ -8139,7 +8148,7 @@
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" s="11" t="s">
-        <v>319</v>
+        <v>247</v>
       </c>
       <c r="B134" s="3" t="s">
         <v>115</v>
@@ -8163,7 +8172,7 @@
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" s="11" t="s">
-        <v>83</v>
+        <v>319</v>
       </c>
       <c r="B135" s="3" t="s">
         <v>115</v>
@@ -8187,22 +8196,22 @@
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" s="11" t="s">
-        <v>285</v>
+        <v>83</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
       <c r="D136" s="4">
-        <v>4301070975</v>
+        <v>4301070976</v>
       </c>
       <c r="E136" s="3">
-        <v>4607111033970</v>
+        <v>4607111034144</v>
       </c>
       <c r="F136" s="5" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="G136" s="1">
         <f>VLOOKUP(E136,[1]Лист1!$D:$M,10,0)</f>
@@ -8211,7 +8220,7 @@
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" s="11" t="s">
-        <v>242</v>
+        <v>285</v>
       </c>
       <c r="B137" s="3" t="s">
         <v>116</v>
@@ -8235,7 +8244,7 @@
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" s="11" t="s">
-        <v>396</v>
+        <v>242</v>
       </c>
       <c r="B138" s="3" t="s">
         <v>116</v>
@@ -8259,7 +8268,7 @@
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" s="11" t="s">
-        <v>328</v>
+        <v>396</v>
       </c>
       <c r="B139" s="3" t="s">
         <v>116</v>
@@ -8283,7 +8292,7 @@
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" s="11" t="s">
-        <v>84</v>
+        <v>328</v>
       </c>
       <c r="B140" s="3" t="s">
         <v>116</v>
@@ -8307,22 +8316,22 @@
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" s="11" t="s">
-        <v>395</v>
+        <v>84</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>320</v>
+        <v>327</v>
       </c>
       <c r="D141" s="4">
-        <v>4301070981</v>
+        <v>4301070975</v>
       </c>
       <c r="E141" s="3">
-        <v>4607111036728</v>
+        <v>4607111033970</v>
       </c>
       <c r="F141" s="5" t="s">
-        <v>321</v>
+        <v>328</v>
       </c>
       <c r="G141" s="1">
         <f>VLOOKUP(E141,[1]Лист1!$D:$M,10,0)</f>
@@ -8331,7 +8340,7 @@
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" s="11" t="s">
-        <v>85</v>
+        <v>395</v>
       </c>
       <c r="B142" s="3" t="s">
         <v>117</v>
@@ -8355,22 +8364,22 @@
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" s="11" t="s">
-        <v>409</v>
+        <v>85</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>203</v>
+        <v>117</v>
       </c>
       <c r="C143" s="3" t="s">
-        <v>204</v>
+        <v>320</v>
       </c>
       <c r="D143" s="4">
-        <v>4301071010</v>
+        <v>4301070981</v>
       </c>
       <c r="E143" s="3">
-        <v>4607111037701</v>
+        <v>4607111036728</v>
       </c>
       <c r="F143" s="5" t="s">
-        <v>205</v>
+        <v>321</v>
       </c>
       <c r="G143" s="1">
         <f>VLOOKUP(E143,[1]Лист1!$D:$M,10,0)</f>
@@ -8379,7 +8388,7 @@
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" s="11" t="s">
-        <v>483</v>
+        <v>409</v>
       </c>
       <c r="B144" s="3" t="s">
         <v>203</v>
@@ -8403,7 +8412,7 @@
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" s="11" t="s">
-        <v>206</v>
+        <v>483</v>
       </c>
       <c r="B145" s="3" t="s">
         <v>203</v>
@@ -8427,31 +8436,31 @@
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" s="11" t="s">
-        <v>521</v>
+        <v>206</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="D146" s="4">
-        <v>4301070870</v>
+        <v>4301071010</v>
       </c>
       <c r="E146" s="3">
-        <v>4607111036711</v>
+        <v>4607111037701</v>
       </c>
       <c r="F146" s="5" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="G146" s="1">
         <f>VLOOKUP(E146,[1]Лист1!$D:$M,10,0)</f>
-        <v>90</v>
+        <v>180</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" s="11" t="s">
-        <v>210</v>
+        <v>521</v>
       </c>
       <c r="B147" s="3" t="s">
         <v>207</v>
@@ -8475,31 +8484,31 @@
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" s="11" t="s">
-        <v>178</v>
+        <v>210</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>313</v>
+        <v>207</v>
       </c>
       <c r="C148" s="3" t="s">
-        <v>314</v>
+        <v>208</v>
       </c>
       <c r="D148" s="4">
-        <v>4301070948</v>
+        <v>4301070870</v>
       </c>
       <c r="E148" s="3">
-        <v>4607111037022</v>
+        <v>4607111036711</v>
       </c>
       <c r="F148" s="5" t="s">
-        <v>178</v>
+        <v>209</v>
       </c>
       <c r="G148" s="1">
         <f>VLOOKUP(E148,[1]Лист1!$D:$M,10,0)</f>
-        <v>180</v>
+        <v>90</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" s="11" t="s">
-        <v>315</v>
+        <v>178</v>
       </c>
       <c r="B149" s="3" t="s">
         <v>313</v>
@@ -8523,7 +8532,7 @@
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" s="11" t="s">
-        <v>177</v>
+        <v>315</v>
       </c>
       <c r="B150" s="3" t="s">
         <v>313</v>
@@ -8547,22 +8556,22 @@
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" s="11" t="s">
-        <v>122</v>
+        <v>177</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>120</v>
+        <v>313</v>
       </c>
       <c r="C151" s="3" t="s">
-        <v>121</v>
+        <v>314</v>
       </c>
       <c r="D151" s="4">
-        <v>4301070920</v>
+        <v>4301070948</v>
       </c>
       <c r="E151" s="3">
-        <v>4607111035929</v>
+        <v>4607111037022</v>
       </c>
       <c r="F151" s="5" t="s">
-        <v>122</v>
+        <v>178</v>
       </c>
       <c r="G151" s="1">
         <f>VLOOKUP(E151,[1]Лист1!$D:$M,10,0)</f>
@@ -8571,7 +8580,7 @@
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" s="11" t="s">
-        <v>88</v>
+        <v>122</v>
       </c>
       <c r="B152" s="3" t="s">
         <v>120</v>
@@ -8595,22 +8604,22 @@
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" s="11" t="s">
-        <v>179</v>
+        <v>88</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="C153" s="3" t="s">
-        <v>181</v>
+        <v>121</v>
       </c>
       <c r="D153" s="4">
-        <v>4301070921</v>
+        <v>4301070920</v>
       </c>
       <c r="E153" s="3">
-        <v>4607111035905</v>
+        <v>4607111035929</v>
       </c>
       <c r="F153" s="5" t="s">
-        <v>182</v>
+        <v>122</v>
       </c>
       <c r="G153" s="1">
         <f>VLOOKUP(E153,[1]Лист1!$D:$M,10,0)</f>
@@ -8619,7 +8628,7 @@
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" s="11" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B154" s="3" t="s">
         <v>180</v>
@@ -8643,22 +8652,22 @@
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" s="11" t="s">
-        <v>213</v>
+        <v>182</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>211</v>
+        <v>180</v>
       </c>
       <c r="C155" s="3" t="s">
-        <v>212</v>
+        <v>181</v>
       </c>
       <c r="D155" s="4">
-        <v>4301070917</v>
+        <v>4301070921</v>
       </c>
       <c r="E155" s="3">
-        <v>4607111035912</v>
+        <v>4607111035905</v>
       </c>
       <c r="F155" s="5" t="s">
-        <v>213</v>
+        <v>182</v>
       </c>
       <c r="G155" s="1">
         <f>VLOOKUP(E155,[1]Лист1!$D:$M,10,0)</f>
@@ -8667,7 +8676,7 @@
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" s="11" t="s">
-        <v>334</v>
+        <v>213</v>
       </c>
       <c r="B156" s="3" t="s">
         <v>211</v>
@@ -8691,7 +8700,7 @@
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" s="11" t="s">
-        <v>382</v>
+        <v>334</v>
       </c>
       <c r="B157" s="3" t="s">
         <v>211</v>
@@ -8715,7 +8724,7 @@
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" s="11" t="s">
-        <v>214</v>
+        <v>382</v>
       </c>
       <c r="B158" s="3" t="s">
         <v>211</v>
@@ -8739,22 +8748,22 @@
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" s="11" t="s">
-        <v>183</v>
+        <v>214</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>123</v>
+        <v>211</v>
       </c>
       <c r="C159" s="3" t="s">
-        <v>545</v>
+        <v>212</v>
       </c>
       <c r="D159" s="4">
-        <v>4301071028</v>
+        <v>4301070917</v>
       </c>
       <c r="E159" s="3">
-        <v>4607111036216</v>
+        <v>4607111035912</v>
       </c>
       <c r="F159" s="5" t="s">
-        <v>124</v>
+        <v>213</v>
       </c>
       <c r="G159" s="1">
         <f>VLOOKUP(E159,[1]Лист1!$D:$M,10,0)</f>
@@ -8763,7 +8772,7 @@
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" s="11" t="s">
-        <v>89</v>
+        <v>183</v>
       </c>
       <c r="B160" s="3" t="s">
         <v>123</v>
@@ -8787,22 +8796,22 @@
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" s="11" t="s">
-        <v>126</v>
+        <v>89</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C161" s="3" t="s">
-        <v>475</v>
+        <v>545</v>
       </c>
       <c r="D161" s="4">
-        <v>4301070965</v>
+        <v>4301071028</v>
       </c>
       <c r="E161" s="3">
-        <v>4607111035899</v>
+        <v>4607111036216</v>
       </c>
       <c r="F161" s="5" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G161" s="1">
         <f>VLOOKUP(E161,[1]Лист1!$D:$M,10,0)</f>
@@ -8811,7 +8820,7 @@
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" s="11" t="s">
-        <v>90</v>
+        <v>126</v>
       </c>
       <c r="B162" s="3" t="s">
         <v>125</v>
@@ -8835,22 +8844,22 @@
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" s="11" t="s">
-        <v>187</v>
+        <v>90</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>185</v>
+        <v>125</v>
       </c>
       <c r="C163" s="3" t="s">
-        <v>186</v>
+        <v>475</v>
       </c>
       <c r="D163" s="4">
-        <v>4301070873</v>
+        <v>4301070965</v>
       </c>
       <c r="E163" s="3">
-        <v>4607111035080</v>
+        <v>4607111035899</v>
       </c>
       <c r="F163" s="5" t="s">
-        <v>187</v>
+        <v>126</v>
       </c>
       <c r="G163" s="1">
         <f>VLOOKUP(E163,[1]Лист1!$D:$M,10,0)</f>
@@ -8859,7 +8868,7 @@
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" s="11" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="B164" s="3" t="s">
         <v>185</v>
@@ -8883,22 +8892,22 @@
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" s="11" t="s">
-        <v>280</v>
+        <v>184</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>364</v>
+        <v>185</v>
       </c>
       <c r="C165" s="3" t="s">
-        <v>365</v>
+        <v>186</v>
       </c>
       <c r="D165" s="4">
-        <v>4301135193</v>
+        <v>4301070873</v>
       </c>
       <c r="E165" s="3">
-        <v>4640242180403</v>
+        <v>4607111035080</v>
       </c>
       <c r="F165" s="5" t="s">
-        <v>366</v>
+        <v>187</v>
       </c>
       <c r="G165" s="1">
         <f>VLOOKUP(E165,[1]Лист1!$D:$M,10,0)</f>
@@ -8907,7 +8916,7 @@
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" s="11" t="s">
-        <v>476</v>
+        <v>280</v>
       </c>
       <c r="B166" s="3" t="s">
         <v>364</v>
@@ -8931,7 +8940,7 @@
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" s="11" t="s">
-        <v>499</v>
+        <v>476</v>
       </c>
       <c r="B167" s="3" t="s">
         <v>364</v>
@@ -8955,7 +8964,7 @@
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" s="11" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
       <c r="B168" s="3" t="s">
         <v>364</v>
@@ -8979,7 +8988,7 @@
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" s="11" t="s">
-        <v>188</v>
+        <v>490</v>
       </c>
       <c r="B169" s="3" t="s">
         <v>364</v>
@@ -9003,22 +9012,22 @@
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" s="11" t="s">
-        <v>500</v>
+        <v>188</v>
       </c>
       <c r="B170" s="3" t="s">
-        <v>190</v>
+        <v>364</v>
       </c>
       <c r="C170" s="3" t="s">
-        <v>470</v>
+        <v>365</v>
       </c>
       <c r="D170" s="4">
-        <v>4301070956</v>
+        <v>4301135193</v>
       </c>
       <c r="E170" s="3">
-        <v>4640242180250</v>
+        <v>4640242180403</v>
       </c>
       <c r="F170" s="5" t="s">
-        <v>471</v>
+        <v>366</v>
       </c>
       <c r="G170" s="1">
         <f>VLOOKUP(E170,[1]Лист1!$D:$M,10,0)</f>
@@ -9027,70 +9036,70 @@
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" s="11" t="s">
-        <v>192</v>
+        <v>500</v>
       </c>
       <c r="B171" s="3" t="s">
         <v>190</v>
       </c>
       <c r="C171" s="3" t="s">
-        <v>191</v>
+        <v>470</v>
       </c>
       <c r="D171" s="4">
-        <v>4301070858</v>
+        <v>4301070956</v>
       </c>
       <c r="E171" s="3">
-        <v>4607111036193</v>
+        <v>4640242180250</v>
       </c>
       <c r="F171" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="G171" s="1" t="e">
+        <v>471</v>
+      </c>
+      <c r="G171" s="1">
         <f>VLOOKUP(E171,[1]Лист1!$D:$M,10,0)</f>
-        <v>#N/A</v>
+        <v>180</v>
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" s="11" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="B172" s="3" t="s">
         <v>190</v>
       </c>
       <c r="C172" s="3" t="s">
-        <v>470</v>
+        <v>191</v>
       </c>
       <c r="D172" s="4">
-        <v>4301070956</v>
+        <v>4301070858</v>
       </c>
       <c r="E172" s="3">
-        <v>4640242180250</v>
+        <v>4607111036193</v>
       </c>
       <c r="F172" s="5" t="s">
-        <v>471</v>
-      </c>
-      <c r="G172" s="1">
+        <v>192</v>
+      </c>
+      <c r="G172" s="1" t="e">
         <f>VLOOKUP(E172,[1]Лист1!$D:$M,10,0)</f>
-        <v>180</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" s="11" t="s">
-        <v>92</v>
+        <v>189</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>127</v>
+        <v>190</v>
       </c>
       <c r="C173" s="3" t="s">
-        <v>128</v>
+        <v>470</v>
       </c>
       <c r="D173" s="4">
-        <v>4301135112</v>
+        <v>4301070956</v>
       </c>
       <c r="E173" s="3">
-        <v>4607111034199</v>
+        <v>4640242180250</v>
       </c>
       <c r="F173" s="5" t="s">
-        <v>129</v>
+        <v>471</v>
       </c>
       <c r="G173" s="1">
         <f>VLOOKUP(E173,[1]Лист1!$D:$M,10,0)</f>
@@ -9099,31 +9108,31 @@
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" s="11" t="s">
-        <v>296</v>
+        <v>92</v>
       </c>
       <c r="B174" s="3" t="s">
-        <v>322</v>
+        <v>127</v>
       </c>
       <c r="C174" s="3" t="s">
-        <v>323</v>
+        <v>128</v>
       </c>
       <c r="D174" s="4">
-        <v>4301131018</v>
+        <v>4301135112</v>
       </c>
       <c r="E174" s="3">
-        <v>4607111037930</v>
+        <v>4607111034199</v>
       </c>
       <c r="F174" s="5" t="s">
-        <v>324</v>
-      </c>
-      <c r="G174" s="1" t="e">
+        <v>129</v>
+      </c>
+      <c r="G174" s="1">
         <f>VLOOKUP(E174,[1]Лист1!$D:$M,10,0)</f>
-        <v>#N/A</v>
+        <v>180</v>
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" s="11" t="s">
-        <v>414</v>
+        <v>296</v>
       </c>
       <c r="B175" s="3" t="s">
         <v>322</v>
@@ -9147,55 +9156,55 @@
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" s="11" t="s">
-        <v>193</v>
+        <v>414</v>
       </c>
       <c r="B176" s="3" t="s">
-        <v>458</v>
+        <v>322</v>
       </c>
       <c r="C176" s="3" t="s">
-        <v>459</v>
+        <v>323</v>
       </c>
       <c r="D176" s="4">
-        <v>4301131019</v>
+        <v>4301131018</v>
       </c>
       <c r="E176" s="3">
-        <v>4640242180427</v>
+        <v>4607111037930</v>
       </c>
       <c r="F176" s="5" t="s">
-        <v>460</v>
-      </c>
-      <c r="G176" s="1">
+        <v>324</v>
+      </c>
+      <c r="G176" s="1" t="e">
         <f>VLOOKUP(E176,[1]Лист1!$D:$M,10,0)</f>
-        <v>180</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B177" s="3" t="s">
-        <v>147</v>
+        <v>458</v>
       </c>
       <c r="C177" s="3" t="s">
-        <v>148</v>
+        <v>459</v>
       </c>
       <c r="D177" s="4">
-        <v>4301190014</v>
+        <v>4301131019</v>
       </c>
       <c r="E177" s="3">
-        <v>4607111037053</v>
+        <v>4640242180427</v>
       </c>
       <c r="F177" s="5" t="s">
-        <v>149</v>
+        <v>460</v>
       </c>
       <c r="G177" s="1">
         <f>VLOOKUP(E177,[1]Лист1!$D:$M,10,0)</f>
-        <v>365</v>
+        <v>180</v>
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178" s="11" t="s">
-        <v>424</v>
+        <v>194</v>
       </c>
       <c r="B178" s="3" t="s">
         <v>147</v>
@@ -9219,7 +9228,7 @@
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179" s="11" t="s">
-        <v>140</v>
+        <v>424</v>
       </c>
       <c r="B179" s="3" t="s">
         <v>147</v>
@@ -9243,22 +9252,22 @@
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180" s="11" t="s">
-        <v>195</v>
+        <v>140</v>
       </c>
       <c r="B180" s="3" t="s">
-        <v>503</v>
+        <v>147</v>
       </c>
       <c r="C180" s="3" t="s">
-        <v>504</v>
+        <v>148</v>
       </c>
       <c r="D180" s="4">
-        <v>4301190023</v>
+        <v>4301190014</v>
       </c>
       <c r="E180" s="3">
-        <v>4607111037060</v>
+        <v>4607111037053</v>
       </c>
       <c r="F180" s="5" t="s">
-        <v>505</v>
+        <v>149</v>
       </c>
       <c r="G180" s="1">
         <f>VLOOKUP(E180,[1]Лист1!$D:$M,10,0)</f>
@@ -9267,7 +9276,7 @@
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181" s="11" t="s">
-        <v>425</v>
+        <v>195</v>
       </c>
       <c r="B181" s="3" t="s">
         <v>503</v>
@@ -9291,7 +9300,7 @@
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182" s="11" t="s">
-        <v>141</v>
+        <v>425</v>
       </c>
       <c r="B182" s="3" t="s">
         <v>503</v>
@@ -9315,31 +9324,31 @@
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183" s="11" t="s">
-        <v>535</v>
+        <v>141</v>
       </c>
       <c r="B183" s="3" t="s">
-        <v>215</v>
+        <v>503</v>
       </c>
       <c r="C183" s="3" t="s">
-        <v>216</v>
+        <v>504</v>
       </c>
       <c r="D183" s="4">
-        <v>4301135053</v>
+        <v>4301190023</v>
       </c>
       <c r="E183" s="3">
-        <v>4607111036407</v>
+        <v>4607111037060</v>
       </c>
       <c r="F183" s="5" t="s">
-        <v>217</v>
+        <v>505</v>
       </c>
       <c r="G183" s="1">
         <f>VLOOKUP(E183,[1]Лист1!$D:$M,10,0)</f>
-        <v>180</v>
+        <v>365</v>
       </c>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184" s="11" t="s">
-        <v>218</v>
+        <v>535</v>
       </c>
       <c r="B184" s="3" t="s">
         <v>215</v>
@@ -9363,22 +9372,22 @@
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185" s="11" t="s">
-        <v>93</v>
+        <v>218</v>
       </c>
       <c r="B185" s="3" t="s">
-        <v>130</v>
+        <v>215</v>
       </c>
       <c r="C185" s="3" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
       <c r="D185" s="4">
-        <v>4301135162</v>
+        <v>4301135053</v>
       </c>
       <c r="E185" s="3">
-        <v>4607111034014</v>
+        <v>4607111036407</v>
       </c>
       <c r="F185" s="5" t="s">
-        <v>131</v>
+        <v>217</v>
       </c>
       <c r="G185" s="1">
         <f>VLOOKUP(E185,[1]Лист1!$D:$M,10,0)</f>
@@ -9387,7 +9396,7 @@
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186" s="11" t="s">
-        <v>432</v>
+        <v>93</v>
       </c>
       <c r="B186" s="3" t="s">
         <v>130</v>
@@ -9411,7 +9420,7 @@
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187" s="11" t="s">
-        <v>249</v>
+        <v>432</v>
       </c>
       <c r="B187" s="3" t="s">
         <v>130</v>
@@ -9426,7 +9435,7 @@
         <v>4607111034014</v>
       </c>
       <c r="F187" s="5" t="s">
-        <v>278</v>
+        <v>131</v>
       </c>
       <c r="G187" s="1">
         <f>VLOOKUP(E187,[1]Лист1!$D:$M,10,0)</f>
@@ -9435,22 +9444,22 @@
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188" s="11" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B188" s="3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C188" s="3" t="s">
-        <v>133</v>
+        <v>196</v>
       </c>
       <c r="D188" s="4">
-        <v>4301135117</v>
+        <v>4301135162</v>
       </c>
       <c r="E188" s="3">
-        <v>4607111033994</v>
+        <v>4607111034014</v>
       </c>
       <c r="F188" s="5" t="s">
-        <v>134</v>
+        <v>278</v>
       </c>
       <c r="G188" s="1">
         <f>VLOOKUP(E188,[1]Лист1!$D:$M,10,0)</f>
@@ -9459,7 +9468,7 @@
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189" s="11" t="s">
-        <v>134</v>
+        <v>250</v>
       </c>
       <c r="B189" s="3" t="s">
         <v>132</v>
@@ -9483,7 +9492,7 @@
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190" s="11" t="s">
-        <v>94</v>
+        <v>134</v>
       </c>
       <c r="B190" s="3" t="s">
         <v>132</v>
@@ -9507,22 +9516,22 @@
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191" s="11" t="s">
-        <v>197</v>
+        <v>94</v>
       </c>
       <c r="B191" s="3" t="s">
-        <v>367</v>
+        <v>132</v>
       </c>
       <c r="C191" s="3" t="s">
-        <v>368</v>
+        <v>133</v>
       </c>
       <c r="D191" s="4">
-        <v>4301136028</v>
+        <v>4301135117</v>
       </c>
       <c r="E191" s="3">
-        <v>4640242180304</v>
+        <v>4607111033994</v>
       </c>
       <c r="F191" s="5" t="s">
-        <v>369</v>
+        <v>134</v>
       </c>
       <c r="G191" s="1">
         <f>VLOOKUP(E191,[1]Лист1!$D:$M,10,0)</f>
@@ -9531,7 +9540,7 @@
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192" s="11" t="s">
-        <v>430</v>
+        <v>197</v>
       </c>
       <c r="B192" s="3" t="s">
         <v>367</v>
@@ -9555,7 +9564,7 @@
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193" s="11" t="s">
-        <v>506</v>
+        <v>430</v>
       </c>
       <c r="B193" s="3" t="s">
         <v>367</v>
@@ -9579,7 +9588,7 @@
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194" s="11" t="s">
-        <v>142</v>
+        <v>506</v>
       </c>
       <c r="B194" s="3" t="s">
         <v>367</v>
@@ -9603,22 +9612,22 @@
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195" s="11" t="s">
-        <v>429</v>
+        <v>142</v>
       </c>
       <c r="B195" s="3" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="C195" s="3" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="D195" s="4">
-        <v>4301136026</v>
+        <v>4301136028</v>
       </c>
       <c r="E195" s="3">
-        <v>4640242180236</v>
+        <v>4640242180304</v>
       </c>
       <c r="F195" s="5" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="G195" s="1">
         <f>VLOOKUP(E195,[1]Лист1!$D:$M,10,0)</f>
@@ -9627,7 +9636,7 @@
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196" s="11" t="s">
-        <v>477</v>
+        <v>429</v>
       </c>
       <c r="B196" s="3" t="s">
         <v>370</v>
@@ -9651,7 +9660,7 @@
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197" s="11" t="s">
-        <v>461</v>
+        <v>477</v>
       </c>
       <c r="B197" s="3" t="s">
         <v>370</v>
@@ -9675,7 +9684,7 @@
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198" s="11" t="s">
-        <v>95</v>
+        <v>461</v>
       </c>
       <c r="B198" s="3" t="s">
         <v>370</v>
@@ -9699,22 +9708,22 @@
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A199" s="11" t="s">
-        <v>308</v>
+        <v>95</v>
       </c>
       <c r="B199" s="3" t="s">
-        <v>485</v>
+        <v>370</v>
       </c>
       <c r="C199" s="3" t="s">
-        <v>486</v>
+        <v>371</v>
       </c>
       <c r="D199" s="4">
-        <v>4301135194</v>
+        <v>4301136026</v>
       </c>
       <c r="E199" s="3">
-        <v>4640242180380</v>
+        <v>4640242180236</v>
       </c>
       <c r="F199" s="5" t="s">
-        <v>487</v>
+        <v>372</v>
       </c>
       <c r="G199" s="1">
         <f>VLOOKUP(E199,[1]Лист1!$D:$M,10,0)</f>
@@ -9723,7 +9732,7 @@
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200" s="11" t="s">
-        <v>491</v>
+        <v>308</v>
       </c>
       <c r="B200" s="3" t="s">
         <v>485</v>
@@ -9747,7 +9756,7 @@
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A201" s="11" t="s">
-        <v>552</v>
+        <v>491</v>
       </c>
       <c r="B201" s="3" t="s">
         <v>485</v>
@@ -9771,7 +9780,7 @@
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A202" s="11" t="s">
-        <v>135</v>
+        <v>552</v>
       </c>
       <c r="B202" s="3" t="s">
         <v>485</v>
@@ -9795,7 +9804,7 @@
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A203" s="11" t="s">
-        <v>284</v>
+        <v>135</v>
       </c>
       <c r="B203" s="3" t="s">
         <v>485</v>
@@ -9819,22 +9828,22 @@
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A204" s="11" t="s">
-        <v>335</v>
+        <v>284</v>
       </c>
       <c r="B204" s="3" t="s">
-        <v>287</v>
+        <v>485</v>
       </c>
       <c r="C204" s="3" t="s">
-        <v>288</v>
+        <v>486</v>
       </c>
       <c r="D204" s="4">
-        <v>4301070915</v>
+        <v>4301135194</v>
       </c>
       <c r="E204" s="3">
-        <v>4607111035882</v>
+        <v>4640242180380</v>
       </c>
       <c r="F204" s="5" t="s">
-        <v>289</v>
+        <v>487</v>
       </c>
       <c r="G204" s="1">
         <f>VLOOKUP(E204,[1]Лист1!$D:$M,10,0)</f>
@@ -9843,7 +9852,7 @@
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A205" s="11" t="s">
-        <v>401</v>
+        <v>335</v>
       </c>
       <c r="B205" s="3" t="s">
         <v>287</v>
@@ -9867,7 +9876,7 @@
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A206" s="11" t="s">
-        <v>289</v>
+        <v>401</v>
       </c>
       <c r="B206" s="3" t="s">
         <v>287</v>
@@ -9891,22 +9900,22 @@
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A207" s="11" t="s">
-        <v>402</v>
+        <v>289</v>
       </c>
       <c r="B207" s="3" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="C207" s="3" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="D207" s="4">
-        <v>4301070874</v>
+        <v>4301070915</v>
       </c>
       <c r="E207" s="3">
-        <v>4607111035332</v>
+        <v>4607111035882</v>
       </c>
       <c r="F207" s="5" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="G207" s="1">
         <f>VLOOKUP(E207,[1]Лист1!$D:$M,10,0)</f>
@@ -9915,7 +9924,7 @@
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A208" s="11" t="s">
-        <v>494</v>
+        <v>402</v>
       </c>
       <c r="B208" s="3" t="s">
         <v>290</v>
@@ -9939,7 +9948,7 @@
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A209" s="11" t="s">
-        <v>292</v>
+        <v>494</v>
       </c>
       <c r="B209" s="3" t="s">
         <v>290</v>
@@ -9963,22 +9972,22 @@
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A210" s="11" t="s">
-        <v>317</v>
+        <v>292</v>
       </c>
       <c r="B210" s="3" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="C210" s="3" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="D210" s="4">
-        <v>4301136014</v>
+        <v>4301070874</v>
       </c>
       <c r="E210" s="3">
-        <v>4607111035370</v>
+        <v>4607111035332</v>
       </c>
       <c r="F210" s="5" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="G210" s="1">
         <f>VLOOKUP(E210,[1]Лист1!$D:$M,10,0)</f>
@@ -9987,7 +9996,7 @@
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A211" s="11" t="s">
-        <v>407</v>
+        <v>317</v>
       </c>
       <c r="B211" s="3" t="s">
         <v>293</v>
@@ -10011,7 +10020,7 @@
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A212" s="11" t="s">
-        <v>295</v>
+        <v>407</v>
       </c>
       <c r="B212" s="3" t="s">
         <v>293</v>
@@ -10035,31 +10044,31 @@
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A213" s="11" t="s">
-        <v>316</v>
+        <v>295</v>
       </c>
       <c r="B213" s="3" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="C213" s="3" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="D213" s="4">
-        <v>4301051320</v>
+        <v>4301136014</v>
       </c>
       <c r="E213" s="3">
-        <v>4680115881334</v>
+        <v>4607111035370</v>
       </c>
       <c r="F213" s="5" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="G213" s="1">
         <f>VLOOKUP(E213,[1]Лист1!$D:$M,10,0)</f>
-        <v>365</v>
+        <v>180</v>
       </c>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A214" s="11" t="s">
-        <v>333</v>
+        <v>316</v>
       </c>
       <c r="B214" s="3" t="s">
         <v>300</v>
@@ -10083,7 +10092,7 @@
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A215" s="11" t="s">
-        <v>303</v>
+        <v>333</v>
       </c>
       <c r="B215" s="3" t="s">
         <v>300</v>
@@ -10107,22 +10116,22 @@
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A216" s="11" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="B216" s="3" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="C216" s="3" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="D216" s="4">
-        <v>4301051319</v>
+        <v>4301051320</v>
       </c>
       <c r="E216" s="3">
-        <v>4680115881204</v>
+        <v>4680115881334</v>
       </c>
       <c r="F216" s="5" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="G216" s="1">
         <f>VLOOKUP(E216,[1]Лист1!$D:$M,10,0)</f>
@@ -10131,46 +10140,46 @@
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A217" s="11" t="s">
-        <v>336</v>
+        <v>307</v>
       </c>
       <c r="B217" s="3" t="s">
-        <v>376</v>
+        <v>304</v>
       </c>
       <c r="C217" s="3" t="s">
-        <v>377</v>
+        <v>305</v>
       </c>
       <c r="D217" s="4">
-        <v>4301136027</v>
+        <v>4301051319</v>
       </c>
       <c r="E217" s="3">
-        <v>4640242180298</v>
+        <v>4680115881204</v>
       </c>
       <c r="F217" s="5" t="s">
-        <v>378</v>
+        <v>306</v>
       </c>
       <c r="G217" s="1">
         <f>VLOOKUP(E217,[1]Лист1!$D:$M,10,0)</f>
-        <v>180</v>
+        <v>365</v>
       </c>
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A218" s="11" t="s">
-        <v>496</v>
+        <v>336</v>
       </c>
       <c r="B218" s="3" t="s">
-        <v>386</v>
+        <v>376</v>
       </c>
       <c r="C218" s="3" t="s">
-        <v>387</v>
+        <v>377</v>
       </c>
       <c r="D218" s="4">
-        <v>4301130003</v>
+        <v>4301136027</v>
       </c>
       <c r="E218" s="3">
-        <v>4607111034687</v>
+        <v>4640242180298</v>
       </c>
       <c r="F218" s="5" t="s">
-        <v>388</v>
+        <v>378</v>
       </c>
       <c r="G218" s="1">
         <f>VLOOKUP(E218,[1]Лист1!$D:$M,10,0)</f>
@@ -10179,7 +10188,7 @@
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A219" s="11" t="s">
-        <v>385</v>
+        <v>496</v>
       </c>
       <c r="B219" s="3" t="s">
         <v>386</v>
@@ -10203,22 +10212,22 @@
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A220" s="11" t="s">
-        <v>391</v>
+        <v>555</v>
       </c>
       <c r="B220" s="3" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="C220" s="3" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="D220" s="4">
-        <v>4301070977</v>
+        <v>4301130003</v>
       </c>
       <c r="E220" s="3">
-        <v>4607111037411</v>
+        <v>4607111034687</v>
       </c>
       <c r="F220" s="5" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="G220" s="1">
         <f>VLOOKUP(E220,[1]Лист1!$D:$M,10,0)</f>
@@ -10227,22 +10236,22 @@
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A221" s="11" t="s">
-        <v>438</v>
+        <v>385</v>
       </c>
       <c r="B221" s="3" t="s">
-        <v>398</v>
+        <v>386</v>
       </c>
       <c r="C221" s="3" t="s">
-        <v>399</v>
+        <v>387</v>
       </c>
       <c r="D221" s="4">
-        <v>4301070871</v>
+        <v>4301130003</v>
       </c>
       <c r="E221" s="3">
-        <v>4607111036384</v>
+        <v>4607111034687</v>
       </c>
       <c r="F221" s="5" t="s">
-        <v>400</v>
+        <v>388</v>
       </c>
       <c r="G221" s="1">
         <f>VLOOKUP(E221,[1]Лист1!$D:$M,10,0)</f>
@@ -10251,22 +10260,22 @@
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A222" s="11" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="B222" s="3" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="C222" s="3" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="D222" s="4">
-        <v>4301070871</v>
+        <v>4301070977</v>
       </c>
       <c r="E222" s="3">
-        <v>4607111036384</v>
+        <v>4607111037411</v>
       </c>
       <c r="F222" s="5" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="G222" s="1">
         <f>VLOOKUP(E222,[1]Лист1!$D:$M,10,0)</f>
@@ -10275,22 +10284,22 @@
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A223" s="11" t="s">
-        <v>498</v>
+        <v>438</v>
       </c>
       <c r="B223" s="3" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="C223" s="3" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="D223" s="4">
-        <v>4301135111</v>
+        <v>4301070871</v>
       </c>
       <c r="E223" s="3">
-        <v>4607111035028</v>
+        <v>4607111036384</v>
       </c>
       <c r="F223" s="5" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="G223" s="1">
         <f>VLOOKUP(E223,[1]Лист1!$D:$M,10,0)</f>
@@ -10299,22 +10308,22 @@
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A224" s="11" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="B224" s="3" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="C224" s="3" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="D224" s="4">
-        <v>4301135111</v>
+        <v>4301070871</v>
       </c>
       <c r="E224" s="3">
-        <v>4607111035028</v>
+        <v>4607111036384</v>
       </c>
       <c r="F224" s="5" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="G224" s="1">
         <f>VLOOKUP(E224,[1]Лист1!$D:$M,10,0)</f>
@@ -10323,22 +10332,22 @@
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A225" s="11" t="s">
-        <v>520</v>
+        <v>498</v>
       </c>
       <c r="B225" s="3" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="C225" s="3" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="D225" s="4">
-        <v>4301130006</v>
+        <v>4301135111</v>
       </c>
       <c r="E225" s="3">
-        <v>4607111034670</v>
+        <v>4607111035028</v>
       </c>
       <c r="F225" s="5" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="G225" s="1">
         <f>VLOOKUP(E225,[1]Лист1!$D:$M,10,0)</f>
@@ -10347,22 +10356,22 @@
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A226" s="11" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="B226" s="3" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="C226" s="3" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="D226" s="4">
-        <v>4301130006</v>
+        <v>4301135111</v>
       </c>
       <c r="E226" s="3">
-        <v>4607111034670</v>
+        <v>4607111035028</v>
       </c>
       <c r="F226" s="5" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="G226" s="1">
         <f>VLOOKUP(E226,[1]Лист1!$D:$M,10,0)</f>
@@ -10371,22 +10380,22 @@
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A227" s="11" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="B227" s="3" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="C227" s="3" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="D227" s="4">
-        <v>4301070768</v>
+        <v>4301130006</v>
       </c>
       <c r="E227" s="3">
-        <v>4607111035639</v>
+        <v>4607111034670</v>
       </c>
       <c r="F227" s="5" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="G227" s="1">
         <f>VLOOKUP(E227,[1]Лист1!$D:$M,10,0)</f>
@@ -10395,22 +10404,22 @@
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A228" s="11" t="s">
-        <v>416</v>
+        <v>554</v>
       </c>
       <c r="B228" s="3" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="C228" s="3" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="D228" s="4">
-        <v>4301070768</v>
+        <v>4301130006</v>
       </c>
       <c r="E228" s="3">
-        <v>4607111035639</v>
+        <v>4607111034670</v>
       </c>
       <c r="F228" s="5" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="G228" s="1">
         <f>VLOOKUP(E228,[1]Лист1!$D:$M,10,0)</f>
@@ -10419,22 +10428,22 @@
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A229" s="11" t="s">
-        <v>523</v>
+        <v>410</v>
       </c>
       <c r="B229" s="3" t="s">
-        <v>421</v>
+        <v>411</v>
       </c>
       <c r="C229" s="3" t="s">
-        <v>422</v>
+        <v>412</v>
       </c>
       <c r="D229" s="4">
-        <v>4301070797</v>
+        <v>4301130006</v>
       </c>
       <c r="E229" s="3">
-        <v>4607111035646</v>
+        <v>4607111034670</v>
       </c>
       <c r="F229" s="5" t="s">
-        <v>423</v>
+        <v>413</v>
       </c>
       <c r="G229" s="1">
         <f>VLOOKUP(E229,[1]Лист1!$D:$M,10,0)</f>
@@ -10443,22 +10452,22 @@
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A230" s="11" t="s">
-        <v>420</v>
+        <v>522</v>
       </c>
       <c r="B230" s="3" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="C230" s="3" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="D230" s="4">
-        <v>4301070797</v>
+        <v>4301070768</v>
       </c>
       <c r="E230" s="3">
-        <v>4607111035646</v>
+        <v>4607111035639</v>
       </c>
       <c r="F230" s="5" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="G230" s="1">
         <f>VLOOKUP(E230,[1]Лист1!$D:$M,10,0)</f>
@@ -10467,70 +10476,70 @@
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A231" s="11" t="s">
-        <v>434</v>
+        <v>416</v>
       </c>
       <c r="B231" s="3" t="s">
-        <v>435</v>
+        <v>417</v>
       </c>
       <c r="C231" s="3" t="s">
-        <v>436</v>
+        <v>418</v>
       </c>
       <c r="D231" s="4">
-        <v>4301080154</v>
+        <v>4301070768</v>
       </c>
       <c r="E231" s="3">
-        <v>4607111036834</v>
+        <v>4607111035639</v>
       </c>
       <c r="F231" s="5" t="s">
-        <v>437</v>
+        <v>419</v>
       </c>
       <c r="G231" s="1">
         <f>VLOOKUP(E231,[1]Лист1!$D:$M,10,0)</f>
-        <v>90</v>
+        <v>180</v>
       </c>
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A232" s="11" t="s">
-        <v>442</v>
+        <v>523</v>
       </c>
       <c r="B232" s="3" t="s">
-        <v>443</v>
+        <v>421</v>
       </c>
       <c r="C232" s="3" t="s">
-        <v>444</v>
+        <v>422</v>
       </c>
       <c r="D232" s="4">
-        <v>4301070941</v>
+        <v>4301070797</v>
       </c>
       <c r="E232" s="3">
-        <v>4607111036162</v>
+        <v>4607111035646</v>
       </c>
       <c r="F232" s="5" t="s">
-        <v>445</v>
+        <v>423</v>
       </c>
       <c r="G232" s="1">
         <f>VLOOKUP(E232,[1]Лист1!$D:$M,10,0)</f>
-        <v>90</v>
+        <v>180</v>
       </c>
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A233" s="11" t="s">
-        <v>446</v>
+        <v>420</v>
       </c>
       <c r="B233" s="3" t="s">
-        <v>447</v>
+        <v>421</v>
       </c>
       <c r="C233" s="3" t="s">
-        <v>448</v>
+        <v>422</v>
       </c>
       <c r="D233" s="4">
-        <v>4301070826</v>
+        <v>4301070797</v>
       </c>
       <c r="E233" s="3">
-        <v>4607111035752</v>
+        <v>4607111035646</v>
       </c>
       <c r="F233" s="5" t="s">
-        <v>449</v>
+        <v>423</v>
       </c>
       <c r="G233" s="1">
         <f>VLOOKUP(E233,[1]Лист1!$D:$M,10,0)</f>
@@ -10539,70 +10548,70 @@
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A234" s="11" t="s">
-        <v>489</v>
+        <v>434</v>
       </c>
       <c r="B234" s="3" t="s">
-        <v>451</v>
+        <v>435</v>
       </c>
       <c r="C234" s="3" t="s">
-        <v>452</v>
+        <v>436</v>
       </c>
       <c r="D234" s="4">
-        <v>4301070966</v>
+        <v>4301080154</v>
       </c>
       <c r="E234" s="3">
-        <v>4607111038135</v>
+        <v>4607111036834</v>
       </c>
       <c r="F234" s="5" t="s">
-        <v>450</v>
+        <v>437</v>
       </c>
       <c r="G234" s="1">
         <f>VLOOKUP(E234,[1]Лист1!$D:$M,10,0)</f>
-        <v>180</v>
+        <v>90</v>
       </c>
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A235" s="11" t="s">
-        <v>543</v>
+        <v>442</v>
       </c>
       <c r="B235" s="3" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="C235" s="3" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="D235" s="4">
-        <v>4301070966</v>
+        <v>4301070941</v>
       </c>
       <c r="E235" s="3">
-        <v>4607111038135</v>
+        <v>4607111036162</v>
       </c>
       <c r="F235" s="5" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="G235" s="1">
         <f>VLOOKUP(E235,[1]Лист1!$D:$M,10,0)</f>
-        <v>180</v>
+        <v>90</v>
       </c>
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A236" s="11" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="B236" s="3" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="C236" s="3" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="D236" s="4">
-        <v>4301070966</v>
+        <v>4301070826</v>
       </c>
       <c r="E236" s="3">
-        <v>4607111038135</v>
+        <v>4607111035752</v>
       </c>
       <c r="F236" s="5" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="G236" s="1">
         <f>VLOOKUP(E236,[1]Лист1!$D:$M,10,0)</f>
@@ -10611,46 +10620,46 @@
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A237" s="11" t="s">
-        <v>453</v>
+        <v>489</v>
       </c>
       <c r="B237" s="3" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="C237" s="3" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="D237" s="4">
-        <v>4301070911</v>
+        <v>4301070966</v>
       </c>
       <c r="E237" s="3">
-        <v>4607111036278</v>
+        <v>4607111038135</v>
       </c>
       <c r="F237" s="5" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="G237" s="1">
         <f>VLOOKUP(E237,[1]Лист1!$D:$M,10,0)</f>
-        <v>120</v>
+        <v>180</v>
       </c>
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A238" s="11" t="s">
-        <v>478</v>
+        <v>543</v>
       </c>
       <c r="B238" s="3" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="C238" s="3" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="D238" s="4">
-        <v>4301131019</v>
+        <v>4301070966</v>
       </c>
       <c r="E238" s="3">
-        <v>4640242180427</v>
+        <v>4607111038135</v>
       </c>
       <c r="F238" s="5" t="s">
-        <v>460</v>
+        <v>450</v>
       </c>
       <c r="G238" s="1">
         <f>VLOOKUP(E238,[1]Лист1!$D:$M,10,0)</f>
@@ -10659,22 +10668,22 @@
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A239" s="11" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="B239" s="3" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="C239" s="3" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="D239" s="4">
-        <v>4301131019</v>
+        <v>4301070966</v>
       </c>
       <c r="E239" s="3">
-        <v>4640242180427</v>
+        <v>4607111038135</v>
       </c>
       <c r="F239" s="5" t="s">
-        <v>460</v>
+        <v>450</v>
       </c>
       <c r="G239" s="1">
         <f>VLOOKUP(E239,[1]Лист1!$D:$M,10,0)</f>
@@ -10683,46 +10692,46 @@
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A240" s="11" t="s">
-        <v>517</v>
+        <v>453</v>
       </c>
       <c r="B240" s="3" t="s">
-        <v>515</v>
+        <v>454</v>
       </c>
       <c r="C240" s="3" t="s">
-        <v>516</v>
+        <v>455</v>
       </c>
       <c r="D240" s="4">
-        <v>4301132079</v>
+        <v>4301070911</v>
       </c>
       <c r="E240" s="3">
-        <v>4607111038487</v>
+        <v>4607111036278</v>
       </c>
       <c r="F240" s="5" t="s">
-        <v>517</v>
+        <v>453</v>
       </c>
       <c r="G240" s="1">
         <f>VLOOKUP(E240,[1]Лист1!$D:$M,10,0)</f>
-        <v>180</v>
+        <v>120</v>
       </c>
     </row>
     <row r="241" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A241" s="11" t="s">
-        <v>546</v>
+        <v>478</v>
       </c>
       <c r="B241" s="3" t="s">
-        <v>515</v>
+        <v>458</v>
       </c>
       <c r="C241" s="3" t="s">
-        <v>516</v>
+        <v>459</v>
       </c>
       <c r="D241" s="4">
-        <v>4301132079</v>
+        <v>4301131019</v>
       </c>
       <c r="E241" s="3">
-        <v>4607111038487</v>
+        <v>4640242180427</v>
       </c>
       <c r="F241" s="5" t="s">
-        <v>517</v>
+        <v>460</v>
       </c>
       <c r="G241" s="1">
         <f>VLOOKUP(E241,[1]Лист1!$D:$M,10,0)</f>
@@ -10731,22 +10740,22 @@
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A242" s="11" t="s">
-        <v>549</v>
+        <v>457</v>
       </c>
       <c r="B242" s="3" t="s">
-        <v>515</v>
+        <v>458</v>
       </c>
       <c r="C242" s="3" t="s">
-        <v>516</v>
+        <v>459</v>
       </c>
       <c r="D242" s="4">
-        <v>4301132079</v>
+        <v>4301131019</v>
       </c>
       <c r="E242" s="3">
-        <v>4607111038487</v>
+        <v>4640242180427</v>
       </c>
       <c r="F242" s="5" t="s">
-        <v>517</v>
+        <v>460</v>
       </c>
       <c r="G242" s="1">
         <f>VLOOKUP(E242,[1]Лист1!$D:$M,10,0)</f>
@@ -10755,7 +10764,7 @@
     </row>
     <row r="243" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A243" s="11" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="B243" s="3" t="s">
         <v>515</v>
@@ -10779,22 +10788,22 @@
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A244" s="11" t="s">
-        <v>526</v>
+        <v>546</v>
       </c>
       <c r="B244" s="3" t="s">
-        <v>527</v>
+        <v>515</v>
       </c>
       <c r="C244" s="3" t="s">
-        <v>528</v>
+        <v>516</v>
       </c>
       <c r="D244" s="4">
-        <v>4301070884</v>
+        <v>4301132079</v>
       </c>
       <c r="E244" s="3">
-        <v>4607111036315</v>
+        <v>4607111038487</v>
       </c>
       <c r="F244" s="5" t="s">
-        <v>529</v>
+        <v>517</v>
       </c>
       <c r="G244" s="1">
         <f>VLOOKUP(E244,[1]Лист1!$D:$M,10,0)</f>
@@ -10803,22 +10812,22 @@
     </row>
     <row r="245" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A245" s="11" t="s">
-        <v>531</v>
+        <v>549</v>
       </c>
       <c r="B245" s="3" t="s">
-        <v>532</v>
+        <v>515</v>
       </c>
       <c r="C245" s="3" t="s">
-        <v>533</v>
+        <v>516</v>
       </c>
       <c r="D245" s="4">
-        <v>4301133002</v>
+        <v>4301132079</v>
       </c>
       <c r="E245" s="3">
-        <v>4607111035783</v>
+        <v>4607111038487</v>
       </c>
       <c r="F245" s="5" t="s">
-        <v>534</v>
+        <v>517</v>
       </c>
       <c r="G245" s="1">
         <f>VLOOKUP(E245,[1]Лист1!$D:$M,10,0)</f>
@@ -10827,22 +10836,22 @@
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A246" s="11" t="s">
-        <v>537</v>
+        <v>514</v>
       </c>
       <c r="B246" s="3" t="s">
-        <v>538</v>
+        <v>515</v>
       </c>
       <c r="C246" s="3" t="s">
-        <v>539</v>
+        <v>516</v>
       </c>
       <c r="D246" s="4">
-        <v>4301070958</v>
+        <v>4301132079</v>
       </c>
       <c r="E246" s="3">
-        <v>4607111038098</v>
+        <v>4607111038487</v>
       </c>
       <c r="F246" s="5" t="s">
-        <v>540</v>
+        <v>517</v>
       </c>
       <c r="G246" s="1">
         <f>VLOOKUP(E246,[1]Лист1!$D:$M,10,0)</f>
@@ -10850,31 +10859,76 @@
       </c>
     </row>
     <row r="247" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A247" s="11"/>
-      <c r="B247" s="3"/>
-      <c r="C247" s="3"/>
-      <c r="D247" s="4"/>
-      <c r="E247" s="3"/>
-      <c r="F247" s="5"/>
-      <c r="G247" s="1"/>
+      <c r="A247" s="11" t="s">
+        <v>526</v>
+      </c>
+      <c r="B247" s="3" t="s">
+        <v>527</v>
+      </c>
+      <c r="C247" s="3" t="s">
+        <v>528</v>
+      </c>
+      <c r="D247" s="4">
+        <v>4301070884</v>
+      </c>
+      <c r="E247" s="3">
+        <v>4607111036315</v>
+      </c>
+      <c r="F247" s="5" t="s">
+        <v>529</v>
+      </c>
+      <c r="G247" s="1">
+        <f>VLOOKUP(E247,[1]Лист1!$D:$M,10,0)</f>
+        <v>180</v>
+      </c>
     </row>
     <row r="248" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A248" s="11"/>
-      <c r="B248" s="3"/>
-      <c r="C248" s="3"/>
-      <c r="D248" s="4"/>
-      <c r="E248" s="3"/>
-      <c r="F248" s="5"/>
-      <c r="G248" s="1"/>
+      <c r="A248" s="11" t="s">
+        <v>531</v>
+      </c>
+      <c r="B248" s="3" t="s">
+        <v>532</v>
+      </c>
+      <c r="C248" s="3" t="s">
+        <v>533</v>
+      </c>
+      <c r="D248" s="4">
+        <v>4301133002</v>
+      </c>
+      <c r="E248" s="3">
+        <v>4607111035783</v>
+      </c>
+      <c r="F248" s="5" t="s">
+        <v>534</v>
+      </c>
+      <c r="G248" s="1">
+        <f>VLOOKUP(E248,[1]Лист1!$D:$M,10,0)</f>
+        <v>180</v>
+      </c>
     </row>
     <row r="249" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A249" s="11"/>
-      <c r="B249" s="3"/>
-      <c r="C249" s="3"/>
-      <c r="D249" s="4"/>
-      <c r="E249" s="3"/>
-      <c r="F249" s="5"/>
-      <c r="G249" s="1"/>
+      <c r="A249" s="11" t="s">
+        <v>537</v>
+      </c>
+      <c r="B249" s="3" t="s">
+        <v>538</v>
+      </c>
+      <c r="C249" s="3" t="s">
+        <v>539</v>
+      </c>
+      <c r="D249" s="4">
+        <v>4301070958</v>
+      </c>
+      <c r="E249" s="3">
+        <v>4607111038098</v>
+      </c>
+      <c r="F249" s="5" t="s">
+        <v>540</v>
+      </c>
+      <c r="G249" s="1">
+        <f>VLOOKUP(E249,[1]Лист1!$D:$M,10,0)</f>
+        <v>180</v>
+      </c>
     </row>
     <row r="250" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A250" s="11"/>
@@ -10914,11 +10968,11 @@
     </row>
     <row r="254" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A254" s="11"/>
-      <c r="B254" s="13"/>
-      <c r="C254" s="13"/>
-      <c r="D254" s="14"/>
-      <c r="E254" s="15"/>
-      <c r="F254" s="16"/>
+      <c r="B254" s="3"/>
+      <c r="C254" s="3"/>
+      <c r="D254" s="4"/>
+      <c r="E254" s="3"/>
+      <c r="F254" s="5"/>
       <c r="G254" s="1"/>
     </row>
     <row r="255" spans="1:7" x14ac:dyDescent="0.25">
@@ -10941,11 +10995,11 @@
     </row>
     <row r="257" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A257" s="11"/>
-      <c r="B257" s="3"/>
-      <c r="C257" s="3"/>
-      <c r="D257" s="4"/>
-      <c r="E257" s="3"/>
-      <c r="F257" s="5"/>
+      <c r="B257" s="13"/>
+      <c r="C257" s="13"/>
+      <c r="D257" s="14"/>
+      <c r="E257" s="15"/>
+      <c r="F257" s="16"/>
       <c r="G257" s="1"/>
     </row>
     <row r="258" spans="1:7" x14ac:dyDescent="0.25">
@@ -10995,11 +11049,11 @@
     </row>
     <row r="263" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A263" s="11"/>
-      <c r="B263" s="13"/>
-      <c r="C263" s="13"/>
-      <c r="D263" s="14"/>
-      <c r="E263" s="15"/>
-      <c r="F263" s="16"/>
+      <c r="B263" s="3"/>
+      <c r="C263" s="3"/>
+      <c r="D263" s="4"/>
+      <c r="E263" s="3"/>
+      <c r="F263" s="5"/>
       <c r="G263" s="1"/>
     </row>
     <row r="264" spans="1:7" x14ac:dyDescent="0.25">
@@ -11022,11 +11076,11 @@
     </row>
     <row r="266" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A266" s="11"/>
-      <c r="B266" s="3"/>
-      <c r="C266" s="3"/>
-      <c r="D266" s="4"/>
-      <c r="E266" s="3"/>
-      <c r="F266" s="5"/>
+      <c r="B266" s="13"/>
+      <c r="C266" s="13"/>
+      <c r="D266" s="14"/>
+      <c r="E266" s="15"/>
+      <c r="F266" s="16"/>
       <c r="G266" s="1"/>
     </row>
     <row r="267" spans="1:7" x14ac:dyDescent="0.25">
@@ -11063,7 +11117,7 @@
       <c r="D270" s="4"/>
       <c r="E270" s="3"/>
       <c r="F270" s="5"/>
-      <c r="G270" s="6"/>
+      <c r="G270" s="1"/>
     </row>
     <row r="271" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A271" s="11"/>
@@ -11090,7 +11144,7 @@
       <c r="D273" s="4"/>
       <c r="E273" s="3"/>
       <c r="F273" s="5"/>
-      <c r="G273" s="1"/>
+      <c r="G273" s="6"/>
     </row>
     <row r="274" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A274" s="11"/>
@@ -11688,35 +11742,62 @@
     </row>
     <row r="340" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A340" s="11"/>
-      <c r="B340" s="1"/>
-      <c r="C340" s="1"/>
-      <c r="D340" s="1"/>
-      <c r="E340" s="1"/>
-      <c r="F340" s="1"/>
+      <c r="B340" s="3"/>
+      <c r="C340" s="3"/>
+      <c r="D340" s="4"/>
+      <c r="E340" s="3"/>
+      <c r="F340" s="5"/>
       <c r="G340" s="1"/>
     </row>
     <row r="341" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A341" s="11"/>
-      <c r="B341" s="1"/>
-      <c r="C341" s="1"/>
-      <c r="D341" s="1"/>
-      <c r="E341" s="1"/>
-      <c r="F341" s="1"/>
+      <c r="B341" s="3"/>
+      <c r="C341" s="3"/>
+      <c r="D341" s="4"/>
+      <c r="E341" s="3"/>
+      <c r="F341" s="5"/>
       <c r="G341" s="1"/>
     </row>
     <row r="342" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A342" s="11"/>
-      <c r="B342" s="1"/>
-      <c r="C342" s="1"/>
-      <c r="D342" s="1"/>
-      <c r="E342" s="1"/>
-      <c r="F342" s="1"/>
+      <c r="B342" s="3"/>
+      <c r="C342" s="3"/>
+      <c r="D342" s="4"/>
+      <c r="E342" s="3"/>
+      <c r="F342" s="5"/>
       <c r="G342" s="1"/>
     </row>
+    <row r="343" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A343" s="11"/>
+      <c r="B343" s="1"/>
+      <c r="C343" s="1"/>
+      <c r="D343" s="1"/>
+      <c r="E343" s="1"/>
+      <c r="F343" s="1"/>
+      <c r="G343" s="1"/>
+    </row>
+    <row r="344" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A344" s="11"/>
+      <c r="B344" s="1"/>
+      <c r="C344" s="1"/>
+      <c r="D344" s="1"/>
+      <c r="E344" s="1"/>
+      <c r="F344" s="1"/>
+      <c r="G344" s="1"/>
+    </row>
+    <row r="345" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A345" s="11"/>
+      <c r="B345" s="1"/>
+      <c r="C345" s="1"/>
+      <c r="D345" s="1"/>
+      <c r="E345" s="1"/>
+      <c r="F345" s="1"/>
+      <c r="G345" s="1"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:F246" xr:uid="{08353A06-E006-45C7-BD45-850F7C3953DF}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F203">
-      <sortCondition ref="A1:A142"/>
+  <autoFilter ref="A1:F249" xr:uid="{08353A06-E006-45C7-BD45-850F7C3953DF}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F204">
+      <sortCondition ref="A1:A143"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/moduls/1С.xlsx
+++ b/moduls/1С.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\перенос данных\ПОКОМ ЗПФ\pokom_zpf\moduls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04C6BACA-DBFB-4EB4-B71E-ACA64DA8DEBB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{924880C5-2907-4C18-AE68-E37565970183}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
     <externalReference r:id="rId3"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$F$249</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$F$251</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1066" uniqueCount="556">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1074" uniqueCount="564">
   <si>
     <t>1С</t>
   </si>
@@ -931,15 +931,6 @@
     <t>Хрустящие крылышки. Изделия кулинарные кусковые в панировке куриные жареные первый сорт.</t>
   </si>
   <si>
-    <t>SU002566</t>
-  </si>
-  <si>
-    <t>P002880</t>
-  </si>
-  <si>
-    <t>Круггетсы с сырным соусом Фикс.вес 0,25 Лоток ТМ "Горячая штучка"</t>
-  </si>
-  <si>
     <t>SU002678</t>
   </si>
   <si>
@@ -1706,6 +1697,39 @@
   </si>
   <si>
     <t>Круггетсы сочные ТМ Горячая штучка ТС Круггетсы 3 кг. Изделия кулинарные рубленые в тесте куриные</t>
+  </si>
+  <si>
+    <t>Смак-мени с картофелем и сочной грудинкой ТМ Зареченские ПОКОМ</t>
+  </si>
+  <si>
+    <t>SU002766</t>
+  </si>
+  <si>
+    <t>P003151</t>
+  </si>
+  <si>
+    <t>Смак-мени с картофелем и сочной грудинкой Зареченские продукты Фикс.вес 1 Зареченские</t>
+  </si>
+  <si>
+    <t>Смак-мени с мясом ТМ Зареченские ПОКОМ</t>
+  </si>
+  <si>
+    <t>SU002767</t>
+  </si>
+  <si>
+    <t>P003150</t>
+  </si>
+  <si>
+    <t>Снеки Смак-мени с мясом ТМ Зареченские ТС Зареченские продукты ф/п ф/в 1,0</t>
+  </si>
+  <si>
+    <t>SU000194</t>
+  </si>
+  <si>
+    <t>P003379</t>
+  </si>
+  <si>
+    <t>«Круггетсы с сырным соусом» Фикс.вес 0,25 ф/п ТМ «Горячая штучка»</t>
   </si>
 </sst>
 </file>
@@ -4942,7 +4966,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J10" sqref="J10"/>
+      <selection pane="bottomLeft" activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4975,12 +4999,12 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>151</v>
@@ -5004,7 +5028,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>151</v>
@@ -5052,7 +5076,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>151</v>
@@ -5100,7 +5124,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>251</v>
@@ -5124,7 +5148,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>251</v>
@@ -5316,7 +5340,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>254</v>
@@ -5340,7 +5364,7 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>254</v>
@@ -5532,7 +5556,7 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="11" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>257</v>
@@ -5556,7 +5580,7 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="11" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>257</v>
@@ -5652,13 +5676,13 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="11" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="D30" s="4">
         <v>4301136029</v>
@@ -5667,7 +5691,7 @@
         <v>4640242180410</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="G30" s="1">
         <f>VLOOKUP(E30,[1]Лист1!$D:$M,10,0)</f>
@@ -5676,13 +5700,13 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="11" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="D31" s="4">
         <v>4301136029</v>
@@ -5691,7 +5715,7 @@
         <v>4640242180410</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="G31" s="1">
         <f>VLOOKUP(E31,[1]Лист1!$D:$M,10,0)</f>
@@ -5703,10 +5727,10 @@
         <v>158</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="D32" s="4">
         <v>4301136029</v>
@@ -5715,7 +5739,7 @@
         <v>4640242180410</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="G32" s="1">
         <f>VLOOKUP(E32,[1]Лист1!$D:$M,10,0)</f>
@@ -5727,10 +5751,10 @@
         <v>159</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="D33" s="4">
         <v>4301135191</v>
@@ -5739,7 +5763,7 @@
         <v>4640242180373</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="G33" s="1">
         <f>VLOOKUP(E33,[1]Лист1!$D:$M,10,0)</f>
@@ -5748,13 +5772,13 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="11" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="D34" s="4">
         <v>4301135191</v>
@@ -5763,7 +5787,7 @@
         <v>4640242180373</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="G34" s="1">
         <f>VLOOKUP(E34,[1]Лист1!$D:$M,10,0)</f>
@@ -5775,10 +5799,10 @@
         <v>136</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="D35" s="4">
         <v>4301135191</v>
@@ -5787,7 +5811,7 @@
         <v>4640242180373</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="G35" s="1">
         <f>VLOOKUP(E35,[1]Лист1!$D:$M,10,0)</f>
@@ -5796,13 +5820,13 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="11" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="D36" s="4">
         <v>4301135195</v>
@@ -5811,7 +5835,7 @@
         <v>4640242180366</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="G36" s="1">
         <f>VLOOKUP(E36,[1]Лист1!$D:$M,10,0)</f>
@@ -5820,13 +5844,13 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="11" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="D37" s="4">
         <v>4301135195</v>
@@ -5835,7 +5859,7 @@
         <v>4640242180366</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="G37" s="1">
         <f>VLOOKUP(E37,[1]Лист1!$D:$M,10,0)</f>
@@ -5844,13 +5868,13 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="11" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="D38" s="4">
         <v>4301135195</v>
@@ -5859,7 +5883,7 @@
         <v>4640242180366</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="G38" s="1">
         <f>VLOOKUP(E38,[1]Лист1!$D:$M,10,0)</f>
@@ -5871,10 +5895,10 @@
         <v>160</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="D39" s="4">
         <v>4301135195</v>
@@ -5883,7 +5907,7 @@
         <v>4640242180366</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="G39" s="1">
         <f>VLOOKUP(E39,[1]Лист1!$D:$M,10,0)</f>
@@ -5892,13 +5916,13 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="11" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="D40" s="4">
         <v>4301135189</v>
@@ -5907,7 +5931,7 @@
         <v>4640242180342</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="G40" s="1">
         <f>VLOOKUP(E40,[1]Лист1!$D:$M,10,0)</f>
@@ -5916,13 +5940,13 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="11" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="D41" s="4">
         <v>4301135189</v>
@@ -5931,7 +5955,7 @@
         <v>4640242180342</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="G41" s="1">
         <f>VLOOKUP(E41,[1]Лист1!$D:$M,10,0)</f>
@@ -5943,10 +5967,10 @@
         <v>161</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="D42" s="4">
         <v>4301135189</v>
@@ -5955,7 +5979,7 @@
         <v>4640242180342</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="G42" s="1">
         <f>VLOOKUP(E42,[1]Лист1!$D:$M,10,0)</f>
@@ -5964,13 +5988,13 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="11" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="D43" s="4">
         <v>4301135188</v>
@@ -5979,7 +6003,7 @@
         <v>4640242180335</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="G43" s="1">
         <f>VLOOKUP(E43,[1]Лист1!$D:$M,10,0)</f>
@@ -5988,13 +6012,13 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="11" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="D44" s="4">
         <v>4301135188</v>
@@ -6003,7 +6027,7 @@
         <v>4640242180335</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="G44" s="1">
         <f>VLOOKUP(E44,[1]Лист1!$D:$M,10,0)</f>
@@ -6012,13 +6036,13 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="11" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="D45" s="4">
         <v>4301135188</v>
@@ -6027,7 +6051,7 @@
         <v>4640242180335</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="G45" s="1">
         <f>VLOOKUP(E45,[1]Лист1!$D:$M,10,0)</f>
@@ -6039,10 +6063,10 @@
         <v>162</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="D46" s="4">
         <v>4301135188</v>
@@ -6051,7 +6075,7 @@
         <v>4640242180335</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="G46" s="1">
         <f>VLOOKUP(E46,[1]Лист1!$D:$M,10,0)</f>
@@ -6063,10 +6087,10 @@
         <v>163</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="D47" s="4">
         <v>4301135190</v>
@@ -6075,7 +6099,7 @@
         <v>4640242180359</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G47" s="1">
         <f>VLOOKUP(E47,[1]Лист1!$D:$M,10,0)</f>
@@ -6084,13 +6108,13 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="11" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="D48" s="4">
         <v>4301135190</v>
@@ -6099,7 +6123,7 @@
         <v>4640242180359</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G48" s="1">
         <f>VLOOKUP(E48,[1]Лист1!$D:$M,10,0)</f>
@@ -6108,13 +6132,13 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="11" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="D49" s="4">
         <v>4301135190</v>
@@ -6123,7 +6147,7 @@
         <v>4640242180359</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G49" s="1">
         <f>VLOOKUP(E49,[1]Лист1!$D:$M,10,0)</f>
@@ -6135,10 +6159,10 @@
         <v>137</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="D50" s="4">
         <v>4301135190</v>
@@ -6147,7 +6171,7 @@
         <v>4640242180359</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G50" s="1">
         <f>VLOOKUP(E50,[1]Лист1!$D:$M,10,0)</f>
@@ -6159,10 +6183,10 @@
         <v>91</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="D51" s="4">
         <v>4301135186</v>
@@ -6171,7 +6195,7 @@
         <v>4640242180311</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="G51" s="1">
         <f>VLOOKUP(E51,[1]Лист1!$D:$M,10,0)</f>
@@ -6180,13 +6204,13 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="11" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="D52" s="4">
         <v>4301135186</v>
@@ -6195,7 +6219,7 @@
         <v>4640242180311</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="G52" s="1">
         <f>VLOOKUP(E52,[1]Лист1!$D:$M,10,0)</f>
@@ -6204,13 +6228,13 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="11" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="D53" s="4">
         <v>4301135186</v>
@@ -6219,7 +6243,7 @@
         <v>4640242180311</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="G53" s="1">
         <f>VLOOKUP(E53,[1]Лист1!$D:$M,10,0)</f>
@@ -6228,13 +6252,13 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="11" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="D54" s="4">
         <v>4301135186</v>
@@ -6243,7 +6267,7 @@
         <v>4640242180311</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="G54" s="1">
         <f>VLOOKUP(E54,[1]Лист1!$D:$M,10,0)</f>
@@ -6255,10 +6279,10 @@
         <v>227</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="D55" s="4">
         <v>4301135186</v>
@@ -6267,7 +6291,7 @@
         <v>4640242180311</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="G55" s="1">
         <f>VLOOKUP(E55,[1]Лист1!$D:$M,10,0)</f>
@@ -6279,10 +6303,10 @@
         <v>228</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="D56" s="4">
         <v>4301135187</v>
@@ -6291,7 +6315,7 @@
         <v>4640242180328</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="G56" s="1">
         <f>VLOOKUP(E56,[1]Лист1!$D:$M,10,0)</f>
@@ -6300,13 +6324,13 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="11" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="D57" s="4">
         <v>4301135187</v>
@@ -6315,7 +6339,7 @@
         <v>4640242180328</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="G57" s="1">
         <f>VLOOKUP(E57,[1]Лист1!$D:$M,10,0)</f>
@@ -6327,10 +6351,10 @@
         <v>202</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="D58" s="4">
         <v>4301135187</v>
@@ -6339,7 +6363,7 @@
         <v>4640242180328</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="G58" s="1">
         <f>VLOOKUP(E58,[1]Лист1!$D:$M,10,0)</f>
@@ -6351,19 +6375,19 @@
         <v>229</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>297</v>
+        <v>561</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>298</v>
+        <v>562</v>
       </c>
       <c r="D59" s="4">
-        <v>4301135115</v>
+        <v>4301135181</v>
       </c>
       <c r="E59" s="3">
         <v>4607111034380</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>299</v>
+        <v>563</v>
       </c>
       <c r="G59" s="1">
         <f>VLOOKUP(E59,[1]Лист1!$D:$M,10,0)</f>
@@ -6375,19 +6399,19 @@
         <v>164</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>297</v>
+        <v>561</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>298</v>
+        <v>562</v>
       </c>
       <c r="D60" s="4">
-        <v>4301135115</v>
+        <v>4301135181</v>
       </c>
       <c r="E60" s="3">
         <v>4607111034380</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>299</v>
+        <v>563</v>
       </c>
       <c r="G60" s="1">
         <f>VLOOKUP(E60,[1]Лист1!$D:$M,10,0)</f>
@@ -6399,10 +6423,10 @@
         <v>281</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="D61" s="4">
         <v>4301135114</v>
@@ -6411,7 +6435,7 @@
         <v>4607111034397</v>
       </c>
       <c r="F61" s="5" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="G61" s="1">
         <f>VLOOKUP(E61,[1]Лист1!$D:$M,10,0)</f>
@@ -6423,10 +6447,10 @@
         <v>230</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="D62" s="4">
         <v>4301135114</v>
@@ -6435,7 +6459,7 @@
         <v>4607111034397</v>
       </c>
       <c r="F62" s="5" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="G62" s="1">
         <f>VLOOKUP(E62,[1]Лист1!$D:$M,10,0)</f>
@@ -6447,10 +6471,10 @@
         <v>75</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="D63" s="4">
         <v>4301135114</v>
@@ -6459,7 +6483,7 @@
         <v>4607111034397</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="G63" s="1">
         <f>VLOOKUP(E63,[1]Лист1!$D:$M,10,0)</f>
@@ -6615,10 +6639,10 @@
         <v>233</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="D70" s="4">
         <v>4301135192</v>
@@ -6627,7 +6651,7 @@
         <v>4640242180380</v>
       </c>
       <c r="F70" s="5" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="G70" s="1">
         <f>VLOOKUP(E70,[1]Лист1!$D:$M,10,0)</f>
@@ -6639,10 +6663,10 @@
         <v>279</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="D71" s="4">
         <v>4301135192</v>
@@ -6651,7 +6675,7 @@
         <v>4640242180380</v>
       </c>
       <c r="F71" s="5" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="G71" s="1">
         <f>VLOOKUP(E71,[1]Лист1!$D:$M,10,0)</f>
@@ -6660,13 +6684,13 @@
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="11" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="D72" s="4">
         <v>4301135192</v>
@@ -6675,7 +6699,7 @@
         <v>4640242180380</v>
       </c>
       <c r="F72" s="5" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="G72" s="1">
         <f>VLOOKUP(E72,[1]Лист1!$D:$M,10,0)</f>
@@ -6684,13 +6708,13 @@
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="11" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="D73" s="4">
         <v>4301135192</v>
@@ -6699,7 +6723,7 @@
         <v>4640242180380</v>
       </c>
       <c r="F73" s="5" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="G73" s="1">
         <f>VLOOKUP(E73,[1]Лист1!$D:$M,10,0)</f>
@@ -6711,10 +6735,10 @@
         <v>76</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="D74" s="4">
         <v>4301135192</v>
@@ -6723,7 +6747,7 @@
         <v>4640242180380</v>
       </c>
       <c r="F74" s="5" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="G74" s="1">
         <f>VLOOKUP(E74,[1]Лист1!$D:$M,10,0)</f>
@@ -6756,7 +6780,7 @@
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="11" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="B76" s="3" t="s">
         <v>260</v>
@@ -6780,7 +6804,7 @@
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="11" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="B77" s="3" t="s">
         <v>260</v>
@@ -6828,7 +6852,7 @@
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="11" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="B79" s="3" t="s">
         <v>263</v>
@@ -6876,7 +6900,7 @@
     </row>
     <row r="81" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A81" s="11" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="B81" s="3" t="s">
         <v>266</v>
@@ -7068,13 +7092,13 @@
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="11" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="D89" s="4">
         <v>4301132080</v>
@@ -7083,7 +7107,7 @@
         <v>4640242180397</v>
       </c>
       <c r="F89" s="5" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="G89" s="1">
         <f>VLOOKUP(E89,[1]Лист1!$D:$M,10,0)</f>
@@ -7092,13 +7116,13 @@
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="11" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="D90" s="4">
         <v>4301132080</v>
@@ -7107,7 +7131,7 @@
         <v>4640242180397</v>
       </c>
       <c r="F90" s="5" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="G90" s="1">
         <f>VLOOKUP(E90,[1]Лист1!$D:$M,10,0)</f>
@@ -7116,13 +7140,13 @@
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="11" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="D91" s="4">
         <v>4301132080</v>
@@ -7131,7 +7155,7 @@
         <v>4640242180397</v>
       </c>
       <c r="F91" s="5" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="G91" s="1">
         <f>VLOOKUP(E91,[1]Лист1!$D:$M,10,0)</f>
@@ -7143,10 +7167,10 @@
         <v>80</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="D92" s="4">
         <v>4301132080</v>
@@ -7155,7 +7179,7 @@
         <v>4640242180397</v>
       </c>
       <c r="F92" s="5" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="G92" s="1">
         <f>VLOOKUP(E92,[1]Лист1!$D:$M,10,0)</f>
@@ -7164,7 +7188,7 @@
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="11" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="B93" s="3" t="s">
         <v>269</v>
@@ -7188,7 +7212,7 @@
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="11" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="B94" s="3" t="s">
         <v>269</v>
@@ -7212,7 +7236,7 @@
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="11" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="B95" s="3" t="s">
         <v>269</v>
@@ -7236,7 +7260,7 @@
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="11" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="B96" s="3" t="s">
         <v>269</v>
@@ -7284,7 +7308,7 @@
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="11" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="B98" s="3" t="s">
         <v>272</v>
@@ -7308,7 +7332,7 @@
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="11" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="B99" s="3" t="s">
         <v>272</v>
@@ -7356,7 +7380,7 @@
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="11" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="B101" s="3" t="s">
         <v>272</v>
@@ -7410,7 +7434,7 @@
         <v>172</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="D103" s="4">
         <v>4301070970</v>
@@ -7419,7 +7443,7 @@
         <v>4607111037091</v>
       </c>
       <c r="F103" s="5" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="G103" s="1">
         <f>VLOOKUP(E103,[1]Лист1!$D:$M,10,0)</f>
@@ -7434,7 +7458,7 @@
         <v>172</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="D104" s="4">
         <v>4301070970</v>
@@ -7443,7 +7467,7 @@
         <v>4607111037091</v>
       </c>
       <c r="F104" s="5" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="G104" s="1">
         <f>VLOOKUP(E104,[1]Лист1!$D:$M,10,0)</f>
@@ -7452,13 +7476,13 @@
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="11" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="B105" s="3" t="s">
         <v>172</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="D105" s="4">
         <v>4301070970</v>
@@ -7467,7 +7491,7 @@
         <v>4607111037091</v>
       </c>
       <c r="F105" s="5" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="G105" s="1">
         <f>VLOOKUP(E105,[1]Лист1!$D:$M,10,0)</f>
@@ -7476,13 +7500,13 @@
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="11" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="B106" s="3" t="s">
         <v>172</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="D106" s="4">
         <v>4301070970</v>
@@ -7491,7 +7515,7 @@
         <v>4607111037091</v>
       </c>
       <c r="F106" s="5" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="G106" s="1">
         <f>VLOOKUP(E106,[1]Лист1!$D:$M,10,0)</f>
@@ -7506,7 +7530,7 @@
         <v>172</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="D107" s="4">
         <v>4301070970</v>
@@ -7515,7 +7539,7 @@
         <v>4607111037091</v>
       </c>
       <c r="F107" s="5" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="G107" s="1">
         <f>VLOOKUP(E107,[1]Лист1!$D:$M,10,0)</f>
@@ -7530,7 +7554,7 @@
         <v>119</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="D108" s="4">
         <v>4301070973</v>
@@ -7539,7 +7563,7 @@
         <v>4607111033987</v>
       </c>
       <c r="F108" s="5" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="G108" s="1">
         <f>VLOOKUP(E108,[1]Лист1!$D:$M,10,0)</f>
@@ -7548,13 +7572,13 @@
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="11" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="B109" s="3" t="s">
         <v>119</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="D109" s="4">
         <v>4301070973</v>
@@ -7563,7 +7587,7 @@
         <v>4607111033987</v>
       </c>
       <c r="F109" s="5" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="G109" s="1">
         <f>VLOOKUP(E109,[1]Лист1!$D:$M,10,0)</f>
@@ -7578,7 +7602,7 @@
         <v>119</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="D110" s="4">
         <v>4301070973</v>
@@ -7587,7 +7611,7 @@
         <v>4607111033987</v>
       </c>
       <c r="F110" s="5" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="G110" s="1">
         <f>VLOOKUP(E110,[1]Лист1!$D:$M,10,0)</f>
@@ -7596,7 +7620,7 @@
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="11" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="B111" s="3" t="s">
         <v>275</v>
@@ -7620,7 +7644,7 @@
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="11" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="B112" s="3" t="s">
         <v>275</v>
@@ -7692,7 +7716,7 @@
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="11" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="B115" s="3" t="s">
         <v>111</v>
@@ -7746,7 +7770,7 @@
         <v>118</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="D117" s="4">
         <v>4301070974</v>
@@ -7755,7 +7779,7 @@
         <v>4607111034151</v>
       </c>
       <c r="F117" s="5" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="G117" s="1">
         <f>VLOOKUP(E117,[1]Лист1!$D:$M,10,0)</f>
@@ -7764,13 +7788,13 @@
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="11" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="B118" s="3" t="s">
         <v>118</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="D118" s="4">
         <v>4301070974</v>
@@ -7779,7 +7803,7 @@
         <v>4607111034151</v>
       </c>
       <c r="F118" s="5" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="G118" s="1">
         <f>VLOOKUP(E118,[1]Лист1!$D:$M,10,0)</f>
@@ -7794,7 +7818,7 @@
         <v>118</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="D119" s="4">
         <v>4301070974</v>
@@ -7803,7 +7827,7 @@
         <v>4607111034151</v>
       </c>
       <c r="F119" s="5" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="G119" s="1">
         <f>VLOOKUP(E119,[1]Лист1!$D:$M,10,0)</f>
@@ -7818,7 +7842,7 @@
         <v>166</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="D120" s="4">
         <v>4301070989</v>
@@ -7827,7 +7851,7 @@
         <v>4607111037190</v>
       </c>
       <c r="F120" s="5" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="G120" s="1">
         <f>VLOOKUP(E120,[1]Лист1!$D:$M,10,0)</f>
@@ -7836,13 +7860,13 @@
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="11" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="B121" s="3" t="s">
         <v>166</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="D121" s="4">
         <v>4301070989</v>
@@ -7851,7 +7875,7 @@
         <v>4607111037190</v>
       </c>
       <c r="F121" s="5" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="G121" s="1">
         <f>VLOOKUP(E121,[1]Лист1!$D:$M,10,0)</f>
@@ -7866,7 +7890,7 @@
         <v>166</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="D122" s="4">
         <v>4301070989</v>
@@ -7875,7 +7899,7 @@
         <v>4607111037190</v>
       </c>
       <c r="F122" s="5" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="G122" s="1">
         <f>VLOOKUP(E122,[1]Лист1!$D:$M,10,0)</f>
@@ -7890,7 +7914,7 @@
         <v>168</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="D123" s="4">
         <v>4301070972</v>
@@ -7899,7 +7923,7 @@
         <v>4607111037183</v>
       </c>
       <c r="F123" s="5" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="G123" s="1">
         <f>VLOOKUP(E123,[1]Лист1!$D:$M,10,0)</f>
@@ -7908,13 +7932,13 @@
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" s="11" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="B124" s="3" t="s">
         <v>168</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="D124" s="4">
         <v>4301070972</v>
@@ -7923,7 +7947,7 @@
         <v>4607111037183</v>
       </c>
       <c r="F124" s="5" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="G124" s="1">
         <f>VLOOKUP(E124,[1]Лист1!$D:$M,10,0)</f>
@@ -7938,7 +7962,7 @@
         <v>168</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="D125" s="4">
         <v>4301070972</v>
@@ -7947,7 +7971,7 @@
         <v>4607111037183</v>
       </c>
       <c r="F125" s="5" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="G125" s="1">
         <f>VLOOKUP(E125,[1]Лист1!$D:$M,10,0)</f>
@@ -7956,13 +7980,13 @@
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" s="11" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="B126" s="3" t="s">
         <v>170</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="D126" s="4">
         <v>4301070969</v>
@@ -7971,7 +7995,7 @@
         <v>4607111036858</v>
       </c>
       <c r="F126" s="5" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="G126" s="1">
         <f>VLOOKUP(E126,[1]Лист1!$D:$M,10,0)</f>
@@ -7980,13 +8004,13 @@
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" s="11" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="B127" s="3" t="s">
         <v>170</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="D127" s="4">
         <v>4301070969</v>
@@ -7995,7 +8019,7 @@
         <v>4607111036858</v>
       </c>
       <c r="F127" s="5" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="G127" s="1">
         <f>VLOOKUP(E127,[1]Лист1!$D:$M,10,0)</f>
@@ -8010,7 +8034,7 @@
         <v>170</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="D128" s="4">
         <v>4301070969</v>
@@ -8019,7 +8043,7 @@
         <v>4607111036858</v>
       </c>
       <c r="F128" s="5" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="G128" s="1">
         <f>VLOOKUP(E128,[1]Лист1!$D:$M,10,0)</f>
@@ -8034,7 +8058,7 @@
         <v>114</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="D129" s="4">
         <v>4301070968</v>
@@ -8043,7 +8067,7 @@
         <v>4607111036889</v>
       </c>
       <c r="F129" s="5" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="G129" s="1">
         <f>VLOOKUP(E129,[1]Лист1!$D:$M,10,0)</f>
@@ -8058,7 +8082,7 @@
         <v>175</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="D130" s="4">
         <v>4301070971</v>
@@ -8067,7 +8091,7 @@
         <v>4607111036902</v>
       </c>
       <c r="F130" s="5" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="G130" s="1">
         <f>VLOOKUP(E130,[1]Лист1!$D:$M,10,0)</f>
@@ -8076,13 +8100,13 @@
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" s="11" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="B131" s="3" t="s">
         <v>175</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="D131" s="4">
         <v>4301070971</v>
@@ -8091,7 +8115,7 @@
         <v>4607111036902</v>
       </c>
       <c r="F131" s="5" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="G131" s="1">
         <f>VLOOKUP(E131,[1]Лист1!$D:$M,10,0)</f>
@@ -8106,7 +8130,7 @@
         <v>175</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="D132" s="4">
         <v>4301070971</v>
@@ -8115,7 +8139,7 @@
         <v>4607111036902</v>
       </c>
       <c r="F132" s="5" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="G132" s="1">
         <f>VLOOKUP(E132,[1]Лист1!$D:$M,10,0)</f>
@@ -8130,7 +8154,7 @@
         <v>115</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="D133" s="4">
         <v>4301070976</v>
@@ -8139,7 +8163,7 @@
         <v>4607111034144</v>
       </c>
       <c r="F133" s="5" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="G133" s="1">
         <f>VLOOKUP(E133,[1]Лист1!$D:$M,10,0)</f>
@@ -8154,7 +8178,7 @@
         <v>115</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="D134" s="4">
         <v>4301070976</v>
@@ -8163,7 +8187,7 @@
         <v>4607111034144</v>
       </c>
       <c r="F134" s="5" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="G134" s="1">
         <f>VLOOKUP(E134,[1]Лист1!$D:$M,10,0)</f>
@@ -8172,13 +8196,13 @@
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" s="11" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="B135" s="3" t="s">
         <v>115</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="D135" s="4">
         <v>4301070976</v>
@@ -8187,7 +8211,7 @@
         <v>4607111034144</v>
       </c>
       <c r="F135" s="5" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="G135" s="1">
         <f>VLOOKUP(E135,[1]Лист1!$D:$M,10,0)</f>
@@ -8202,7 +8226,7 @@
         <v>115</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="D136" s="4">
         <v>4301070976</v>
@@ -8211,7 +8235,7 @@
         <v>4607111034144</v>
       </c>
       <c r="F136" s="5" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="G136" s="1">
         <f>VLOOKUP(E136,[1]Лист1!$D:$M,10,0)</f>
@@ -8226,7 +8250,7 @@
         <v>116</v>
       </c>
       <c r="C137" s="3" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="D137" s="4">
         <v>4301070975</v>
@@ -8235,7 +8259,7 @@
         <v>4607111033970</v>
       </c>
       <c r="F137" s="5" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="G137" s="1">
         <f>VLOOKUP(E137,[1]Лист1!$D:$M,10,0)</f>
@@ -8250,7 +8274,7 @@
         <v>116</v>
       </c>
       <c r="C138" s="3" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="D138" s="4">
         <v>4301070975</v>
@@ -8259,7 +8283,7 @@
         <v>4607111033970</v>
       </c>
       <c r="F138" s="5" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="G138" s="1">
         <f>VLOOKUP(E138,[1]Лист1!$D:$M,10,0)</f>
@@ -8268,13 +8292,13 @@
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" s="11" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="B139" s="3" t="s">
         <v>116</v>
       </c>
       <c r="C139" s="3" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="D139" s="4">
         <v>4301070975</v>
@@ -8283,7 +8307,7 @@
         <v>4607111033970</v>
       </c>
       <c r="F139" s="5" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="G139" s="1">
         <f>VLOOKUP(E139,[1]Лист1!$D:$M,10,0)</f>
@@ -8292,13 +8316,13 @@
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" s="11" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="B140" s="3" t="s">
         <v>116</v>
       </c>
       <c r="C140" s="3" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="D140" s="4">
         <v>4301070975</v>
@@ -8307,7 +8331,7 @@
         <v>4607111033970</v>
       </c>
       <c r="F140" s="5" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="G140" s="1">
         <f>VLOOKUP(E140,[1]Лист1!$D:$M,10,0)</f>
@@ -8322,7 +8346,7 @@
         <v>116</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="D141" s="4">
         <v>4301070975</v>
@@ -8331,7 +8355,7 @@
         <v>4607111033970</v>
       </c>
       <c r="F141" s="5" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="G141" s="1">
         <f>VLOOKUP(E141,[1]Лист1!$D:$M,10,0)</f>
@@ -8340,13 +8364,13 @@
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" s="11" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="B142" s="3" t="s">
         <v>117</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="D142" s="4">
         <v>4301070981</v>
@@ -8355,7 +8379,7 @@
         <v>4607111036728</v>
       </c>
       <c r="F142" s="5" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="G142" s="1">
         <f>VLOOKUP(E142,[1]Лист1!$D:$M,10,0)</f>
@@ -8370,7 +8394,7 @@
         <v>117</v>
       </c>
       <c r="C143" s="3" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="D143" s="4">
         <v>4301070981</v>
@@ -8379,7 +8403,7 @@
         <v>4607111036728</v>
       </c>
       <c r="F143" s="5" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="G143" s="1">
         <f>VLOOKUP(E143,[1]Лист1!$D:$M,10,0)</f>
@@ -8388,7 +8412,7 @@
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" s="11" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="B144" s="3" t="s">
         <v>203</v>
@@ -8412,7 +8436,7 @@
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" s="11" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="B145" s="3" t="s">
         <v>203</v>
@@ -8460,7 +8484,7 @@
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" s="11" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="B147" s="3" t="s">
         <v>207</v>
@@ -8511,10 +8535,10 @@
         <v>178</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="C149" s="3" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="D149" s="4">
         <v>4301070948</v>
@@ -8532,13 +8556,13 @@
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" s="11" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="C150" s="3" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="D150" s="4">
         <v>4301070948</v>
@@ -8559,10 +8583,10 @@
         <v>177</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="C151" s="3" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="D151" s="4">
         <v>4301070948</v>
@@ -8700,7 +8724,7 @@
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" s="11" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="B157" s="3" t="s">
         <v>211</v>
@@ -8724,7 +8748,7 @@
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" s="11" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="B158" s="3" t="s">
         <v>211</v>
@@ -8778,7 +8802,7 @@
         <v>123</v>
       </c>
       <c r="C160" s="3" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="D160" s="4">
         <v>4301071028</v>
@@ -8802,7 +8826,7 @@
         <v>123</v>
       </c>
       <c r="C161" s="3" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="D161" s="4">
         <v>4301071028</v>
@@ -8826,7 +8850,7 @@
         <v>125</v>
       </c>
       <c r="C162" s="3" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="D162" s="4">
         <v>4301070965</v>
@@ -8850,7 +8874,7 @@
         <v>125</v>
       </c>
       <c r="C163" s="3" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="D163" s="4">
         <v>4301070965</v>
@@ -8919,10 +8943,10 @@
         <v>280</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C166" s="3" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="D166" s="4">
         <v>4301135193</v>
@@ -8931,7 +8955,7 @@
         <v>4640242180403</v>
       </c>
       <c r="F166" s="5" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="G166" s="1">
         <f>VLOOKUP(E166,[1]Лист1!$D:$M,10,0)</f>
@@ -8940,13 +8964,13 @@
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" s="11" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C167" s="3" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="D167" s="4">
         <v>4301135193</v>
@@ -8955,7 +8979,7 @@
         <v>4640242180403</v>
       </c>
       <c r="F167" s="5" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="G167" s="1">
         <f>VLOOKUP(E167,[1]Лист1!$D:$M,10,0)</f>
@@ -8964,13 +8988,13 @@
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" s="11" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="B168" s="3" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C168" s="3" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="D168" s="4">
         <v>4301135193</v>
@@ -8979,7 +9003,7 @@
         <v>4640242180403</v>
       </c>
       <c r="F168" s="5" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="G168" s="1">
         <f>VLOOKUP(E168,[1]Лист1!$D:$M,10,0)</f>
@@ -8988,13 +9012,13 @@
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" s="11" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C169" s="3" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="D169" s="4">
         <v>4301135193</v>
@@ -9003,7 +9027,7 @@
         <v>4640242180403</v>
       </c>
       <c r="F169" s="5" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="G169" s="1">
         <f>VLOOKUP(E169,[1]Лист1!$D:$M,10,0)</f>
@@ -9015,10 +9039,10 @@
         <v>188</v>
       </c>
       <c r="B170" s="3" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C170" s="3" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="D170" s="4">
         <v>4301135193</v>
@@ -9027,7 +9051,7 @@
         <v>4640242180403</v>
       </c>
       <c r="F170" s="5" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="G170" s="1">
         <f>VLOOKUP(E170,[1]Лист1!$D:$M,10,0)</f>
@@ -9036,13 +9060,13 @@
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" s="11" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="B171" s="3" t="s">
         <v>190</v>
       </c>
       <c r="C171" s="3" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="D171" s="4">
         <v>4301070956</v>
@@ -9051,7 +9075,7 @@
         <v>4640242180250</v>
       </c>
       <c r="F171" s="5" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="G171" s="1">
         <f>VLOOKUP(E171,[1]Лист1!$D:$M,10,0)</f>
@@ -9090,7 +9114,7 @@
         <v>190</v>
       </c>
       <c r="C173" s="3" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="D173" s="4">
         <v>4301070956</v>
@@ -9099,7 +9123,7 @@
         <v>4640242180250</v>
       </c>
       <c r="F173" s="5" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="G173" s="1">
         <f>VLOOKUP(E173,[1]Лист1!$D:$M,10,0)</f>
@@ -9135,10 +9159,10 @@
         <v>296</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="C175" s="3" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="D175" s="4">
         <v>4301131018</v>
@@ -9147,7 +9171,7 @@
         <v>4607111037930</v>
       </c>
       <c r="F175" s="5" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="G175" s="1" t="e">
         <f>VLOOKUP(E175,[1]Лист1!$D:$M,10,0)</f>
@@ -9156,13 +9180,13 @@
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" s="11" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="B176" s="3" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="C176" s="3" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="D176" s="4">
         <v>4301131018</v>
@@ -9171,7 +9195,7 @@
         <v>4607111037930</v>
       </c>
       <c r="F176" s="5" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="G176" s="1" t="e">
         <f>VLOOKUP(E176,[1]Лист1!$D:$M,10,0)</f>
@@ -9183,10 +9207,10 @@
         <v>193</v>
       </c>
       <c r="B177" s="3" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="C177" s="3" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="D177" s="4">
         <v>4301131019</v>
@@ -9195,7 +9219,7 @@
         <v>4640242180427</v>
       </c>
       <c r="F177" s="5" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="G177" s="1">
         <f>VLOOKUP(E177,[1]Лист1!$D:$M,10,0)</f>
@@ -9228,7 +9252,7 @@
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179" s="11" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="B179" s="3" t="s">
         <v>147</v>
@@ -9279,10 +9303,10 @@
         <v>195</v>
       </c>
       <c r="B181" s="3" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="C181" s="3" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="D181" s="4">
         <v>4301190023</v>
@@ -9291,7 +9315,7 @@
         <v>4607111037060</v>
       </c>
       <c r="F181" s="5" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="G181" s="1">
         <f>VLOOKUP(E181,[1]Лист1!$D:$M,10,0)</f>
@@ -9300,13 +9324,13 @@
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182" s="11" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="B182" s="3" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="C182" s="3" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="D182" s="4">
         <v>4301190023</v>
@@ -9315,7 +9339,7 @@
         <v>4607111037060</v>
       </c>
       <c r="F182" s="5" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="G182" s="1">
         <f>VLOOKUP(E182,[1]Лист1!$D:$M,10,0)</f>
@@ -9327,10 +9351,10 @@
         <v>141</v>
       </c>
       <c r="B183" s="3" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="C183" s="3" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="D183" s="4">
         <v>4301190023</v>
@@ -9339,7 +9363,7 @@
         <v>4607111037060</v>
       </c>
       <c r="F183" s="5" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="G183" s="1">
         <f>VLOOKUP(E183,[1]Лист1!$D:$M,10,0)</f>
@@ -9348,7 +9372,7 @@
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184" s="11" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="B184" s="3" t="s">
         <v>215</v>
@@ -9420,7 +9444,7 @@
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187" s="11" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="B187" s="3" t="s">
         <v>130</v>
@@ -9543,10 +9567,10 @@
         <v>197</v>
       </c>
       <c r="B192" s="3" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="C192" s="3" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="D192" s="4">
         <v>4301136028</v>
@@ -9555,7 +9579,7 @@
         <v>4640242180304</v>
       </c>
       <c r="F192" s="5" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="G192" s="1">
         <f>VLOOKUP(E192,[1]Лист1!$D:$M,10,0)</f>
@@ -9564,13 +9588,13 @@
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193" s="11" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="B193" s="3" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="C193" s="3" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="D193" s="4">
         <v>4301136028</v>
@@ -9579,7 +9603,7 @@
         <v>4640242180304</v>
       </c>
       <c r="F193" s="5" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="G193" s="1">
         <f>VLOOKUP(E193,[1]Лист1!$D:$M,10,0)</f>
@@ -9588,13 +9612,13 @@
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194" s="11" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="B194" s="3" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="C194" s="3" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="D194" s="4">
         <v>4301136028</v>
@@ -9603,7 +9627,7 @@
         <v>4640242180304</v>
       </c>
       <c r="F194" s="5" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="G194" s="1">
         <f>VLOOKUP(E194,[1]Лист1!$D:$M,10,0)</f>
@@ -9615,10 +9639,10 @@
         <v>142</v>
       </c>
       <c r="B195" s="3" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="C195" s="3" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="D195" s="4">
         <v>4301136028</v>
@@ -9627,7 +9651,7 @@
         <v>4640242180304</v>
       </c>
       <c r="F195" s="5" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="G195" s="1">
         <f>VLOOKUP(E195,[1]Лист1!$D:$M,10,0)</f>
@@ -9636,13 +9660,13 @@
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196" s="11" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="B196" s="3" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="C196" s="3" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="D196" s="4">
         <v>4301136026</v>
@@ -9651,7 +9675,7 @@
         <v>4640242180236</v>
       </c>
       <c r="F196" s="5" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="G196" s="1">
         <f>VLOOKUP(E196,[1]Лист1!$D:$M,10,0)</f>
@@ -9660,13 +9684,13 @@
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197" s="11" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="B197" s="3" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="C197" s="3" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="D197" s="4">
         <v>4301136026</v>
@@ -9675,7 +9699,7 @@
         <v>4640242180236</v>
       </c>
       <c r="F197" s="5" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="G197" s="1">
         <f>VLOOKUP(E197,[1]Лист1!$D:$M,10,0)</f>
@@ -9684,13 +9708,13 @@
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198" s="11" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="B198" s="3" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="C198" s="3" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="D198" s="4">
         <v>4301136026</v>
@@ -9699,7 +9723,7 @@
         <v>4640242180236</v>
       </c>
       <c r="F198" s="5" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="G198" s="1">
         <f>VLOOKUP(E198,[1]Лист1!$D:$M,10,0)</f>
@@ -9711,10 +9735,10 @@
         <v>95</v>
       </c>
       <c r="B199" s="3" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="C199" s="3" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="D199" s="4">
         <v>4301136026</v>
@@ -9723,7 +9747,7 @@
         <v>4640242180236</v>
       </c>
       <c r="F199" s="5" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="G199" s="1">
         <f>VLOOKUP(E199,[1]Лист1!$D:$M,10,0)</f>
@@ -9732,13 +9756,13 @@
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200" s="11" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="B200" s="3" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="C200" s="3" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="D200" s="4">
         <v>4301135194</v>
@@ -9747,7 +9771,7 @@
         <v>4640242180380</v>
       </c>
       <c r="F200" s="5" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="G200" s="1">
         <f>VLOOKUP(E200,[1]Лист1!$D:$M,10,0)</f>
@@ -9756,13 +9780,13 @@
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A201" s="11" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="B201" s="3" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="C201" s="3" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="D201" s="4">
         <v>4301135194</v>
@@ -9771,7 +9795,7 @@
         <v>4640242180380</v>
       </c>
       <c r="F201" s="5" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="G201" s="1">
         <f>VLOOKUP(E201,[1]Лист1!$D:$M,10,0)</f>
@@ -9780,13 +9804,13 @@
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A202" s="11" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="B202" s="3" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="C202" s="3" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="D202" s="4">
         <v>4301135194</v>
@@ -9795,7 +9819,7 @@
         <v>4640242180380</v>
       </c>
       <c r="F202" s="5" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="G202" s="1">
         <f>VLOOKUP(E202,[1]Лист1!$D:$M,10,0)</f>
@@ -9807,10 +9831,10 @@
         <v>135</v>
       </c>
       <c r="B203" s="3" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="C203" s="3" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="D203" s="4">
         <v>4301135194</v>
@@ -9819,7 +9843,7 @@
         <v>4640242180380</v>
       </c>
       <c r="F203" s="5" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="G203" s="1">
         <f>VLOOKUP(E203,[1]Лист1!$D:$M,10,0)</f>
@@ -9831,10 +9855,10 @@
         <v>284</v>
       </c>
       <c r="B204" s="3" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="C204" s="3" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="D204" s="4">
         <v>4301135194</v>
@@ -9843,7 +9867,7 @@
         <v>4640242180380</v>
       </c>
       <c r="F204" s="5" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="G204" s="1">
         <f>VLOOKUP(E204,[1]Лист1!$D:$M,10,0)</f>
@@ -9852,7 +9876,7 @@
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A205" s="11" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="B205" s="3" t="s">
         <v>287</v>
@@ -9876,7 +9900,7 @@
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A206" s="11" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="B206" s="3" t="s">
         <v>287</v>
@@ -9924,7 +9948,7 @@
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A208" s="11" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="B208" s="3" t="s">
         <v>290</v>
@@ -9948,7 +9972,7 @@
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A209" s="11" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="B209" s="3" t="s">
         <v>290</v>
@@ -9996,7 +10020,7 @@
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A211" s="11" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="B211" s="3" t="s">
         <v>293</v>
@@ -10020,7 +10044,7 @@
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A212" s="11" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="B212" s="3" t="s">
         <v>293</v>
@@ -10068,13 +10092,13 @@
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A214" s="11" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="B214" s="3" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C214" s="3" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="D214" s="4">
         <v>4301051320</v>
@@ -10083,7 +10107,7 @@
         <v>4680115881334</v>
       </c>
       <c r="F214" s="5" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="G214" s="1">
         <f>VLOOKUP(E214,[1]Лист1!$D:$M,10,0)</f>
@@ -10092,13 +10116,13 @@
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A215" s="11" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="B215" s="3" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C215" s="3" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="D215" s="4">
         <v>4301051320</v>
@@ -10107,7 +10131,7 @@
         <v>4680115881334</v>
       </c>
       <c r="F215" s="5" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="G215" s="1">
         <f>VLOOKUP(E215,[1]Лист1!$D:$M,10,0)</f>
@@ -10116,13 +10140,13 @@
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A216" s="11" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="B216" s="3" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C216" s="3" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="D216" s="4">
         <v>4301051320</v>
@@ -10131,7 +10155,7 @@
         <v>4680115881334</v>
       </c>
       <c r="F216" s="5" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="G216" s="1">
         <f>VLOOKUP(E216,[1]Лист1!$D:$M,10,0)</f>
@@ -10140,13 +10164,13 @@
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A217" s="11" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="B217" s="3" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="C217" s="3" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="D217" s="4">
         <v>4301051319</v>
@@ -10155,7 +10179,7 @@
         <v>4680115881204</v>
       </c>
       <c r="F217" s="5" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="G217" s="1">
         <f>VLOOKUP(E217,[1]Лист1!$D:$M,10,0)</f>
@@ -10164,13 +10188,13 @@
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A218" s="11" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="B218" s="3" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="C218" s="3" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="D218" s="4">
         <v>4301136027</v>
@@ -10179,7 +10203,7 @@
         <v>4640242180298</v>
       </c>
       <c r="F218" s="5" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="G218" s="1">
         <f>VLOOKUP(E218,[1]Лист1!$D:$M,10,0)</f>
@@ -10188,13 +10212,13 @@
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A219" s="11" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="B219" s="3" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="C219" s="3" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="D219" s="4">
         <v>4301130003</v>
@@ -10203,7 +10227,7 @@
         <v>4607111034687</v>
       </c>
       <c r="F219" s="5" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="G219" s="1">
         <f>VLOOKUP(E219,[1]Лист1!$D:$M,10,0)</f>
@@ -10212,13 +10236,13 @@
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A220" s="11" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="B220" s="3" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="C220" s="3" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="D220" s="4">
         <v>4301130003</v>
@@ -10227,7 +10251,7 @@
         <v>4607111034687</v>
       </c>
       <c r="F220" s="5" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="G220" s="1">
         <f>VLOOKUP(E220,[1]Лист1!$D:$M,10,0)</f>
@@ -10236,13 +10260,13 @@
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A221" s="11" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="B221" s="3" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="C221" s="3" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="D221" s="4">
         <v>4301130003</v>
@@ -10251,7 +10275,7 @@
         <v>4607111034687</v>
       </c>
       <c r="F221" s="5" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="G221" s="1">
         <f>VLOOKUP(E221,[1]Лист1!$D:$M,10,0)</f>
@@ -10260,13 +10284,13 @@
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A222" s="11" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B222" s="3" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="C222" s="3" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="D222" s="4">
         <v>4301070977</v>
@@ -10275,7 +10299,7 @@
         <v>4607111037411</v>
       </c>
       <c r="F222" s="5" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="G222" s="1">
         <f>VLOOKUP(E222,[1]Лист1!$D:$M,10,0)</f>
@@ -10284,13 +10308,13 @@
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A223" s="11" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="B223" s="3" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="C223" s="3" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="D223" s="4">
         <v>4301070871</v>
@@ -10299,7 +10323,7 @@
         <v>4607111036384</v>
       </c>
       <c r="F223" s="5" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="G223" s="1">
         <f>VLOOKUP(E223,[1]Лист1!$D:$M,10,0)</f>
@@ -10308,13 +10332,13 @@
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A224" s="11" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="B224" s="3" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="C224" s="3" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="D224" s="4">
         <v>4301070871</v>
@@ -10323,7 +10347,7 @@
         <v>4607111036384</v>
       </c>
       <c r="F224" s="5" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="G224" s="1">
         <f>VLOOKUP(E224,[1]Лист1!$D:$M,10,0)</f>
@@ -10332,13 +10356,13 @@
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A225" s="11" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="B225" s="3" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="C225" s="3" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="D225" s="4">
         <v>4301135111</v>
@@ -10347,7 +10371,7 @@
         <v>4607111035028</v>
       </c>
       <c r="F225" s="5" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="G225" s="1">
         <f>VLOOKUP(E225,[1]Лист1!$D:$M,10,0)</f>
@@ -10356,13 +10380,13 @@
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A226" s="11" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="B226" s="3" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="C226" s="3" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="D226" s="4">
         <v>4301135111</v>
@@ -10371,7 +10395,7 @@
         <v>4607111035028</v>
       </c>
       <c r="F226" s="5" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="G226" s="1">
         <f>VLOOKUP(E226,[1]Лист1!$D:$M,10,0)</f>
@@ -10380,13 +10404,13 @@
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A227" s="11" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="B227" s="3" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="C227" s="3" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="D227" s="4">
         <v>4301130006</v>
@@ -10395,7 +10419,7 @@
         <v>4607111034670</v>
       </c>
       <c r="F227" s="5" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="G227" s="1">
         <f>VLOOKUP(E227,[1]Лист1!$D:$M,10,0)</f>
@@ -10404,13 +10428,13 @@
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A228" s="11" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="B228" s="3" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="C228" s="3" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="D228" s="4">
         <v>4301130006</v>
@@ -10419,7 +10443,7 @@
         <v>4607111034670</v>
       </c>
       <c r="F228" s="5" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="G228" s="1">
         <f>VLOOKUP(E228,[1]Лист1!$D:$M,10,0)</f>
@@ -10428,13 +10452,13 @@
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A229" s="11" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="B229" s="3" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="C229" s="3" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="D229" s="4">
         <v>4301130006</v>
@@ -10443,7 +10467,7 @@
         <v>4607111034670</v>
       </c>
       <c r="F229" s="5" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="G229" s="1">
         <f>VLOOKUP(E229,[1]Лист1!$D:$M,10,0)</f>
@@ -10452,13 +10476,13 @@
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A230" s="11" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="B230" s="3" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="C230" s="3" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="D230" s="4">
         <v>4301070768</v>
@@ -10467,7 +10491,7 @@
         <v>4607111035639</v>
       </c>
       <c r="F230" s="5" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="G230" s="1">
         <f>VLOOKUP(E230,[1]Лист1!$D:$M,10,0)</f>
@@ -10476,13 +10500,13 @@
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A231" s="11" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="B231" s="3" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="C231" s="3" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="D231" s="4">
         <v>4301070768</v>
@@ -10491,7 +10515,7 @@
         <v>4607111035639</v>
       </c>
       <c r="F231" s="5" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="G231" s="1">
         <f>VLOOKUP(E231,[1]Лист1!$D:$M,10,0)</f>
@@ -10500,13 +10524,13 @@
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A232" s="11" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="B232" s="3" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="C232" s="3" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="D232" s="4">
         <v>4301070797</v>
@@ -10515,7 +10539,7 @@
         <v>4607111035646</v>
       </c>
       <c r="F232" s="5" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="G232" s="1">
         <f>VLOOKUP(E232,[1]Лист1!$D:$M,10,0)</f>
@@ -10524,13 +10548,13 @@
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A233" s="11" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="B233" s="3" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="C233" s="3" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="D233" s="4">
         <v>4301070797</v>
@@ -10539,7 +10563,7 @@
         <v>4607111035646</v>
       </c>
       <c r="F233" s="5" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="G233" s="1">
         <f>VLOOKUP(E233,[1]Лист1!$D:$M,10,0)</f>
@@ -10548,13 +10572,13 @@
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A234" s="11" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="B234" s="3" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="C234" s="3" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="D234" s="4">
         <v>4301080154</v>
@@ -10563,7 +10587,7 @@
         <v>4607111036834</v>
       </c>
       <c r="F234" s="5" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="G234" s="1">
         <f>VLOOKUP(E234,[1]Лист1!$D:$M,10,0)</f>
@@ -10572,13 +10596,13 @@
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A235" s="11" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="B235" s="3" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="C235" s="3" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="D235" s="4">
         <v>4301070941</v>
@@ -10587,7 +10611,7 @@
         <v>4607111036162</v>
       </c>
       <c r="F235" s="5" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="G235" s="1">
         <f>VLOOKUP(E235,[1]Лист1!$D:$M,10,0)</f>
@@ -10596,13 +10620,13 @@
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A236" s="11" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="B236" s="3" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="C236" s="3" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="D236" s="4">
         <v>4301070826</v>
@@ -10611,7 +10635,7 @@
         <v>4607111035752</v>
       </c>
       <c r="F236" s="5" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="G236" s="1">
         <f>VLOOKUP(E236,[1]Лист1!$D:$M,10,0)</f>
@@ -10620,13 +10644,13 @@
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A237" s="11" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="B237" s="3" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="C237" s="3" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="D237" s="4">
         <v>4301070966</v>
@@ -10635,7 +10659,7 @@
         <v>4607111038135</v>
       </c>
       <c r="F237" s="5" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="G237" s="1">
         <f>VLOOKUP(E237,[1]Лист1!$D:$M,10,0)</f>
@@ -10644,13 +10668,13 @@
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A238" s="11" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="B238" s="3" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="C238" s="3" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="D238" s="4">
         <v>4301070966</v>
@@ -10659,7 +10683,7 @@
         <v>4607111038135</v>
       </c>
       <c r="F238" s="5" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="G238" s="1">
         <f>VLOOKUP(E238,[1]Лист1!$D:$M,10,0)</f>
@@ -10668,13 +10692,13 @@
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A239" s="11" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="B239" s="3" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="C239" s="3" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="D239" s="4">
         <v>4301070966</v>
@@ -10683,7 +10707,7 @@
         <v>4607111038135</v>
       </c>
       <c r="F239" s="5" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="G239" s="1">
         <f>VLOOKUP(E239,[1]Лист1!$D:$M,10,0)</f>
@@ -10692,13 +10716,13 @@
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A240" s="11" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="B240" s="3" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="C240" s="3" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="D240" s="4">
         <v>4301070911</v>
@@ -10707,7 +10731,7 @@
         <v>4607111036278</v>
       </c>
       <c r="F240" s="5" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="G240" s="1">
         <f>VLOOKUP(E240,[1]Лист1!$D:$M,10,0)</f>
@@ -10716,13 +10740,13 @@
     </row>
     <row r="241" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A241" s="11" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="B241" s="3" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="C241" s="3" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="D241" s="4">
         <v>4301131019</v>
@@ -10731,7 +10755,7 @@
         <v>4640242180427</v>
       </c>
       <c r="F241" s="5" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="G241" s="1">
         <f>VLOOKUP(E241,[1]Лист1!$D:$M,10,0)</f>
@@ -10740,13 +10764,13 @@
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A242" s="11" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="B242" s="3" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="C242" s="3" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="D242" s="4">
         <v>4301131019</v>
@@ -10755,7 +10779,7 @@
         <v>4640242180427</v>
       </c>
       <c r="F242" s="5" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="G242" s="1">
         <f>VLOOKUP(E242,[1]Лист1!$D:$M,10,0)</f>
@@ -10764,13 +10788,13 @@
     </row>
     <row r="243" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A243" s="11" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="B243" s="3" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="C243" s="3" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="D243" s="4">
         <v>4301132079</v>
@@ -10779,7 +10803,7 @@
         <v>4607111038487</v>
       </c>
       <c r="F243" s="5" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="G243" s="1">
         <f>VLOOKUP(E243,[1]Лист1!$D:$M,10,0)</f>
@@ -10788,13 +10812,13 @@
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A244" s="11" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="B244" s="3" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="C244" s="3" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="D244" s="4">
         <v>4301132079</v>
@@ -10803,7 +10827,7 @@
         <v>4607111038487</v>
       </c>
       <c r="F244" s="5" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="G244" s="1">
         <f>VLOOKUP(E244,[1]Лист1!$D:$M,10,0)</f>
@@ -10812,13 +10836,13 @@
     </row>
     <row r="245" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A245" s="11" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="B245" s="3" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="C245" s="3" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="D245" s="4">
         <v>4301132079</v>
@@ -10827,7 +10851,7 @@
         <v>4607111038487</v>
       </c>
       <c r="F245" s="5" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="G245" s="1">
         <f>VLOOKUP(E245,[1]Лист1!$D:$M,10,0)</f>
@@ -10836,13 +10860,13 @@
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A246" s="11" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="B246" s="3" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="C246" s="3" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="D246" s="4">
         <v>4301132079</v>
@@ -10851,7 +10875,7 @@
         <v>4607111038487</v>
       </c>
       <c r="F246" s="5" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="G246" s="1">
         <f>VLOOKUP(E246,[1]Лист1!$D:$M,10,0)</f>
@@ -10860,13 +10884,13 @@
     </row>
     <row r="247" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A247" s="11" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="B247" s="3" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="C247" s="3" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="D247" s="4">
         <v>4301070884</v>
@@ -10875,7 +10899,7 @@
         <v>4607111036315</v>
       </c>
       <c r="F247" s="5" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="G247" s="1">
         <f>VLOOKUP(E247,[1]Лист1!$D:$M,10,0)</f>
@@ -10884,13 +10908,13 @@
     </row>
     <row r="248" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A248" s="11" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="B248" s="3" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="C248" s="3" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="D248" s="4">
         <v>4301133002</v>
@@ -10899,7 +10923,7 @@
         <v>4607111035783</v>
       </c>
       <c r="F248" s="5" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="G248" s="1">
         <f>VLOOKUP(E248,[1]Лист1!$D:$M,10,0)</f>
@@ -10908,13 +10932,13 @@
     </row>
     <row r="249" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A249" s="11" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="B249" s="3" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="C249" s="3" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="D249" s="4">
         <v>4301070958</v>
@@ -10923,7 +10947,7 @@
         <v>4607111038098</v>
       </c>
       <c r="F249" s="5" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="G249" s="1">
         <f>VLOOKUP(E249,[1]Лист1!$D:$M,10,0)</f>
@@ -10931,22 +10955,50 @@
       </c>
     </row>
     <row r="250" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A250" s="11"/>
-      <c r="B250" s="3"/>
-      <c r="C250" s="3"/>
-      <c r="D250" s="4"/>
-      <c r="E250" s="3"/>
-      <c r="F250" s="5"/>
-      <c r="G250" s="1"/>
+      <c r="A250" s="11" t="s">
+        <v>553</v>
+      </c>
+      <c r="B250" s="3" t="s">
+        <v>554</v>
+      </c>
+      <c r="C250" s="3" t="s">
+        <v>555</v>
+      </c>
+      <c r="D250" s="4">
+        <v>4301135153</v>
+      </c>
+      <c r="E250" s="3">
+        <v>4607111037480</v>
+      </c>
+      <c r="F250" s="5" t="s">
+        <v>556</v>
+      </c>
+      <c r="G250" s="1">
+        <v>180</v>
+      </c>
     </row>
     <row r="251" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A251" s="11"/>
-      <c r="B251" s="3"/>
-      <c r="C251" s="3"/>
-      <c r="D251" s="4"/>
-      <c r="E251" s="3"/>
-      <c r="F251" s="5"/>
-      <c r="G251" s="1"/>
+      <c r="A251" s="11" t="s">
+        <v>557</v>
+      </c>
+      <c r="B251" s="3" t="s">
+        <v>558</v>
+      </c>
+      <c r="C251" s="3" t="s">
+        <v>559</v>
+      </c>
+      <c r="D251" s="4">
+        <v>4301135152</v>
+      </c>
+      <c r="E251" s="3">
+        <v>4607111037473</v>
+      </c>
+      <c r="F251" s="5" t="s">
+        <v>560</v>
+      </c>
+      <c r="G251" s="1">
+        <v>180</v>
+      </c>
     </row>
     <row r="252" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A252" s="11"/>
@@ -11795,7 +11847,7 @@
       <c r="G345" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F249" xr:uid="{08353A06-E006-45C7-BD45-850F7C3953DF}">
+  <autoFilter ref="A1:F251" xr:uid="{08353A06-E006-45C7-BD45-850F7C3953DF}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F204">
       <sortCondition ref="A1:A143"/>
     </sortState>

--- a/moduls/1С.xlsx
+++ b/moduls/1С.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\перенос данных\ПОКОМ ЗПФ\pokom_zpf\moduls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{924880C5-2907-4C18-AE68-E37565970183}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{839BBEAC-6BF5-4C32-B460-3E6F6FC00AB0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
     <externalReference r:id="rId3"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$F$251</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$F$253</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1074" uniqueCount="564">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1082" uniqueCount="566">
   <si>
     <t>1С</t>
   </si>
@@ -481,15 +481,6 @@
     <t>Крылья Хрустящие крылышки Базовый ассортимент Фикс.вес 0,3 Лоток Горячая штучка</t>
   </si>
   <si>
-    <t>SU002492</t>
-  </si>
-  <si>
-    <t>P003183</t>
-  </si>
-  <si>
-    <t>Чебупай сочное яблоко Чебупай Фикс.вес 0,2 Лоток Горячая штучка</t>
-  </si>
-  <si>
     <t>Вареники замороженные "Благолепные" с картофелем и грибами. ВЕС  ПОКОМ</t>
   </si>
   <si>
@@ -613,12 +604,6 @@
     <t>SU002314</t>
   </si>
   <si>
-    <t>P002579</t>
-  </si>
-  <si>
-    <t>Пельмени Классические No name Весовые Хинкали No name 5 кг</t>
-  </si>
-  <si>
     <t>Хрустящие крылышки. В панировке куриные жареные.ВЕС  ПОКОМ</t>
   </si>
   <si>
@@ -1730,6 +1715,27 @@
   </si>
   <si>
     <t>«Круггетсы с сырным соусом» Фикс.вес 0,25 ф/п ТМ «Горячая штучка»</t>
+  </si>
+  <si>
+    <t>Смаколадьи с яблоком и грушей ТМ Зареченские,0,9 кг ПОКОМ</t>
+  </si>
+  <si>
+    <t>SU003085</t>
+  </si>
+  <si>
+    <t>P003651</t>
+  </si>
+  <si>
+    <t>Снеки «Смаколадьи с яблоком и грушей» ф/в 0,9 ТМ «Зареченские»</t>
+  </si>
+  <si>
+    <t>SU002914</t>
+  </si>
+  <si>
+    <t>P003337</t>
+  </si>
+  <si>
+    <t>«Чебупай сочное яблоко» Фикс.вес 0,2 Лоток ТМ «Горячая штучка»</t>
   </si>
 </sst>
 </file>
@@ -1948,7 +1954,7 @@
       <sheetName val="Лист1"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0">
+      <sheetData sheetId="0" refreshError="1">
         <row r="1">
           <cell r="D1" t="str">
             <v xml:space="preserve">  БЛАНК ЗАКАЗА </v>
@@ -4962,11 +4968,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G345"/>
+  <dimension ref="A1:G346"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J8" sqref="J8"/>
+      <selection pane="bottomLeft" activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4999,18 +5005,18 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D2" s="4">
         <v>4301080153</v>
@@ -5019,7 +5025,7 @@
         <v>4607111036827</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="G2" s="1">
         <f>VLOOKUP(E2,[1]Лист1!$D:$M,10,0)</f>
@@ -5028,13 +5034,13 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D3" s="4">
         <v>4301080153</v>
@@ -5043,7 +5049,7 @@
         <v>4607111036827</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="G3" s="1">
         <f>VLOOKUP(E3,[1]Лист1!$D:$M,10,0)</f>
@@ -5052,13 +5058,13 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D4" s="4">
         <v>4301080153</v>
@@ -5067,7 +5073,7 @@
         <v>4607111036827</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="G4" s="1">
         <f>VLOOKUP(E4,[1]Лист1!$D:$M,10,0)</f>
@@ -5076,13 +5082,13 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D5" s="4">
         <v>4301080153</v>
@@ -5091,7 +5097,7 @@
         <v>4607111036827</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="G5" s="1">
         <f>VLOOKUP(E5,[1]Лист1!$D:$M,10,0)</f>
@@ -5100,13 +5106,13 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D6" s="4">
         <v>4301080153</v>
@@ -5115,7 +5121,7 @@
         <v>4607111036827</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="G6" s="1">
         <f>VLOOKUP(E6,[1]Лист1!$D:$M,10,0)</f>
@@ -5124,13 +5130,13 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="D7" s="4">
         <v>4301135113</v>
@@ -5139,7 +5145,7 @@
         <v>4607111033659</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="G7" s="1">
         <f>VLOOKUP(E7,[1]Лист1!$D:$M,10,0)</f>
@@ -5148,13 +5154,13 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="D8" s="4">
         <v>4301135113</v>
@@ -5163,7 +5169,7 @@
         <v>4607111033659</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="G8" s="1">
         <f>VLOOKUP(E8,[1]Лист1!$D:$M,10,0)</f>
@@ -5172,13 +5178,13 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="D9" s="4">
         <v>4301135113</v>
@@ -5187,7 +5193,7 @@
         <v>4607111033659</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="G9" s="1">
         <f>VLOOKUP(E9,[1]Лист1!$D:$M,10,0)</f>
@@ -5196,7 +5202,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>127</v>
@@ -5220,13 +5226,13 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D11" s="4">
         <v>4301135122</v>
@@ -5235,7 +5241,7 @@
         <v>4607111033628</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="G11" s="1">
         <f>VLOOKUP(E11,[1]Лист1!$D:$M,10,0)</f>
@@ -5292,7 +5298,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>96</v>
@@ -5316,13 +5322,13 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="D15" s="4">
         <v>4301135120</v>
@@ -5331,7 +5337,7 @@
         <v>4607111035141</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="G15" s="1">
         <f>VLOOKUP(E15,[1]Лист1!$D:$M,10,0)</f>
@@ -5340,13 +5346,13 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="D16" s="4">
         <v>4301135120</v>
@@ -5355,7 +5361,7 @@
         <v>4607111035141</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="G16" s="1">
         <f>VLOOKUP(E16,[1]Лист1!$D:$M,10,0)</f>
@@ -5364,13 +5370,13 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="D17" s="4">
         <v>4301135120</v>
@@ -5379,7 +5385,7 @@
         <v>4607111035141</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="G17" s="1">
         <f>VLOOKUP(E17,[1]Лист1!$D:$M,10,0)</f>
@@ -5388,13 +5394,13 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="D18" s="4">
         <v>4301135120</v>
@@ -5403,7 +5409,7 @@
         <v>4607111035141</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="G18" s="1">
         <f>VLOOKUP(E18,[1]Лист1!$D:$M,10,0)</f>
@@ -5460,7 +5466,7 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>99</v>
@@ -5484,13 +5490,13 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D22" s="4">
         <v>4301135122</v>
@@ -5499,7 +5505,7 @@
         <v>4607111033628</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="G22" s="1">
         <f>VLOOKUP(E22,[1]Лист1!$D:$M,10,0)</f>
@@ -5508,13 +5514,13 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D23" s="4">
         <v>4301135122</v>
@@ -5523,7 +5529,7 @@
         <v>4607111033628</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="G23" s="1">
         <f>VLOOKUP(E23,[1]Лист1!$D:$M,10,0)</f>
@@ -5532,13 +5538,13 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="11" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="D24" s="4">
         <v>4301136013</v>
@@ -5547,7 +5553,7 @@
         <v>4607025784012</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="G24" s="1">
         <f>VLOOKUP(E24,[1]Лист1!$D:$M,10,0)</f>
@@ -5556,13 +5562,13 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="11" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="D25" s="4">
         <v>4301136012</v>
@@ -5571,7 +5577,7 @@
         <v>4607025784319</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="G25" s="1">
         <f>VLOOKUP(E25,[1]Лист1!$D:$M,10,0)</f>
@@ -5580,13 +5586,13 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="11" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="D26" s="4">
         <v>4301136012</v>
@@ -5595,7 +5601,7 @@
         <v>4607025784319</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="G26" s="1">
         <f>VLOOKUP(E26,[1]Лист1!$D:$M,10,0)</f>
@@ -5604,13 +5610,13 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="11" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="D27" s="4">
         <v>4301136012</v>
@@ -5619,7 +5625,7 @@
         <v>4607025784319</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="G27" s="1">
         <f>VLOOKUP(E27,[1]Лист1!$D:$M,10,0)</f>
@@ -5628,13 +5634,13 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="11" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="D28" s="4">
         <v>4301136013</v>
@@ -5643,7 +5649,7 @@
         <v>4607025784012</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="G28" s="1">
         <f>VLOOKUP(E28,[1]Лист1!$D:$M,10,0)</f>
@@ -5652,13 +5658,13 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="11" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="D29" s="4">
         <v>4301136013</v>
@@ -5667,7 +5673,7 @@
         <v>4607025784012</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="G29" s="1">
         <f>VLOOKUP(E29,[1]Лист1!$D:$M,10,0)</f>
@@ -5676,13 +5682,13 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="11" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="D30" s="4">
         <v>4301136029</v>
@@ -5691,7 +5697,7 @@
         <v>4640242180410</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="G30" s="1">
         <f>VLOOKUP(E30,[1]Лист1!$D:$M,10,0)</f>
@@ -5700,13 +5706,13 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="11" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="D31" s="4">
         <v>4301136029</v>
@@ -5715,7 +5721,7 @@
         <v>4640242180410</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="G31" s="1">
         <f>VLOOKUP(E31,[1]Лист1!$D:$M,10,0)</f>
@@ -5724,13 +5730,13 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="11" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="D32" s="4">
         <v>4301136029</v>
@@ -5739,7 +5745,7 @@
         <v>4640242180410</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="G32" s="1">
         <f>VLOOKUP(E32,[1]Лист1!$D:$M,10,0)</f>
@@ -5748,13 +5754,13 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="11" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="D33" s="4">
         <v>4301135191</v>
@@ -5763,7 +5769,7 @@
         <v>4640242180373</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="G33" s="1">
         <f>VLOOKUP(E33,[1]Лист1!$D:$M,10,0)</f>
@@ -5772,13 +5778,13 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="11" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="D34" s="4">
         <v>4301135191</v>
@@ -5787,7 +5793,7 @@
         <v>4640242180373</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="G34" s="1">
         <f>VLOOKUP(E34,[1]Лист1!$D:$M,10,0)</f>
@@ -5799,10 +5805,10 @@
         <v>136</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="D35" s="4">
         <v>4301135191</v>
@@ -5811,7 +5817,7 @@
         <v>4640242180373</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="G35" s="1">
         <f>VLOOKUP(E35,[1]Лист1!$D:$M,10,0)</f>
@@ -5820,13 +5826,13 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="11" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="D36" s="4">
         <v>4301135195</v>
@@ -5835,7 +5841,7 @@
         <v>4640242180366</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="G36" s="1">
         <f>VLOOKUP(E36,[1]Лист1!$D:$M,10,0)</f>
@@ -5844,13 +5850,13 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="11" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="D37" s="4">
         <v>4301135195</v>
@@ -5859,7 +5865,7 @@
         <v>4640242180366</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="G37" s="1">
         <f>VLOOKUP(E37,[1]Лист1!$D:$M,10,0)</f>
@@ -5868,13 +5874,13 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="11" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="D38" s="4">
         <v>4301135195</v>
@@ -5883,7 +5889,7 @@
         <v>4640242180366</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="G38" s="1">
         <f>VLOOKUP(E38,[1]Лист1!$D:$M,10,0)</f>
@@ -5892,13 +5898,13 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="11" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="D39" s="4">
         <v>4301135195</v>
@@ -5907,7 +5913,7 @@
         <v>4640242180366</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="G39" s="1">
         <f>VLOOKUP(E39,[1]Лист1!$D:$M,10,0)</f>
@@ -5916,13 +5922,13 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="11" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="D40" s="4">
         <v>4301135189</v>
@@ -5931,7 +5937,7 @@
         <v>4640242180342</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="G40" s="1">
         <f>VLOOKUP(E40,[1]Лист1!$D:$M,10,0)</f>
@@ -5940,13 +5946,13 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="11" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="D41" s="4">
         <v>4301135189</v>
@@ -5955,7 +5961,7 @@
         <v>4640242180342</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="G41" s="1">
         <f>VLOOKUP(E41,[1]Лист1!$D:$M,10,0)</f>
@@ -5964,13 +5970,13 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="11" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="D42" s="4">
         <v>4301135189</v>
@@ -5979,7 +5985,7 @@
         <v>4640242180342</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="G42" s="1">
         <f>VLOOKUP(E42,[1]Лист1!$D:$M,10,0)</f>
@@ -5988,13 +5994,13 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="11" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="D43" s="4">
         <v>4301135188</v>
@@ -6003,7 +6009,7 @@
         <v>4640242180335</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="G43" s="1">
         <f>VLOOKUP(E43,[1]Лист1!$D:$M,10,0)</f>
@@ -6012,13 +6018,13 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="11" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="D44" s="4">
         <v>4301135188</v>
@@ -6027,7 +6033,7 @@
         <v>4640242180335</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="G44" s="1">
         <f>VLOOKUP(E44,[1]Лист1!$D:$M,10,0)</f>
@@ -6036,13 +6042,13 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="11" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="D45" s="4">
         <v>4301135188</v>
@@ -6051,7 +6057,7 @@
         <v>4640242180335</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="G45" s="1">
         <f>VLOOKUP(E45,[1]Лист1!$D:$M,10,0)</f>
@@ -6060,13 +6066,13 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="11" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="D46" s="4">
         <v>4301135188</v>
@@ -6075,7 +6081,7 @@
         <v>4640242180335</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="G46" s="1">
         <f>VLOOKUP(E46,[1]Лист1!$D:$M,10,0)</f>
@@ -6084,13 +6090,13 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="11" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="D47" s="4">
         <v>4301135190</v>
@@ -6099,7 +6105,7 @@
         <v>4640242180359</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="G47" s="1">
         <f>VLOOKUP(E47,[1]Лист1!$D:$M,10,0)</f>
@@ -6108,13 +6114,13 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="11" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="D48" s="4">
         <v>4301135190</v>
@@ -6123,7 +6129,7 @@
         <v>4640242180359</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="G48" s="1">
         <f>VLOOKUP(E48,[1]Лист1!$D:$M,10,0)</f>
@@ -6132,13 +6138,13 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="11" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="D49" s="4">
         <v>4301135190</v>
@@ -6147,7 +6153,7 @@
         <v>4640242180359</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="G49" s="1">
         <f>VLOOKUP(E49,[1]Лист1!$D:$M,10,0)</f>
@@ -6159,10 +6165,10 @@
         <v>137</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="D50" s="4">
         <v>4301135190</v>
@@ -6171,7 +6177,7 @@
         <v>4640242180359</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="G50" s="1">
         <f>VLOOKUP(E50,[1]Лист1!$D:$M,10,0)</f>
@@ -6183,10 +6189,10 @@
         <v>91</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="D51" s="4">
         <v>4301135186</v>
@@ -6195,7 +6201,7 @@
         <v>4640242180311</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="G51" s="1">
         <f>VLOOKUP(E51,[1]Лист1!$D:$M,10,0)</f>
@@ -6204,13 +6210,13 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="11" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="D52" s="4">
         <v>4301135186</v>
@@ -6219,7 +6225,7 @@
         <v>4640242180311</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="G52" s="1">
         <f>VLOOKUP(E52,[1]Лист1!$D:$M,10,0)</f>
@@ -6228,13 +6234,13 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="11" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="D53" s="4">
         <v>4301135186</v>
@@ -6243,7 +6249,7 @@
         <v>4640242180311</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="G53" s="1">
         <f>VLOOKUP(E53,[1]Лист1!$D:$M,10,0)</f>
@@ -6252,13 +6258,13 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="11" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="D54" s="4">
         <v>4301135186</v>
@@ -6267,7 +6273,7 @@
         <v>4640242180311</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="G54" s="1">
         <f>VLOOKUP(E54,[1]Лист1!$D:$M,10,0)</f>
@@ -6276,13 +6282,13 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="11" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="D55" s="4">
         <v>4301135186</v>
@@ -6291,7 +6297,7 @@
         <v>4640242180311</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="G55" s="1">
         <f>VLOOKUP(E55,[1]Лист1!$D:$M,10,0)</f>
@@ -6300,13 +6306,13 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="11" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="D56" s="4">
         <v>4301135187</v>
@@ -6315,7 +6321,7 @@
         <v>4640242180328</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="G56" s="1">
         <f>VLOOKUP(E56,[1]Лист1!$D:$M,10,0)</f>
@@ -6324,13 +6330,13 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="11" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="D57" s="4">
         <v>4301135187</v>
@@ -6339,7 +6345,7 @@
         <v>4640242180328</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="G57" s="1">
         <f>VLOOKUP(E57,[1]Лист1!$D:$M,10,0)</f>
@@ -6348,13 +6354,13 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="11" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="D58" s="4">
         <v>4301135187</v>
@@ -6363,7 +6369,7 @@
         <v>4640242180328</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="G58" s="1">
         <f>VLOOKUP(E58,[1]Лист1!$D:$M,10,0)</f>
@@ -6372,13 +6378,13 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="11" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="D59" s="4">
         <v>4301135181</v>
@@ -6387,7 +6393,7 @@
         <v>4607111034380</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="G59" s="1">
         <f>VLOOKUP(E59,[1]Лист1!$D:$M,10,0)</f>
@@ -6396,13 +6402,13 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="11" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="D60" s="4">
         <v>4301135181</v>
@@ -6411,7 +6417,7 @@
         <v>4607111034380</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="G60" s="1">
         <f>VLOOKUP(E60,[1]Лист1!$D:$M,10,0)</f>
@@ -6420,13 +6426,13 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="11" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="D61" s="4">
         <v>4301135114</v>
@@ -6435,7 +6441,7 @@
         <v>4607111034397</v>
       </c>
       <c r="F61" s="5" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="G61" s="1">
         <f>VLOOKUP(E61,[1]Лист1!$D:$M,10,0)</f>
@@ -6444,13 +6450,13 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="11" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="D62" s="4">
         <v>4301135114</v>
@@ -6459,7 +6465,7 @@
         <v>4607111034397</v>
       </c>
       <c r="F62" s="5" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="G62" s="1">
         <f>VLOOKUP(E62,[1]Лист1!$D:$M,10,0)</f>
@@ -6471,10 +6477,10 @@
         <v>75</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="D63" s="4">
         <v>4301135114</v>
@@ -6483,7 +6489,7 @@
         <v>4607111034397</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="G63" s="1">
         <f>VLOOKUP(E63,[1]Лист1!$D:$M,10,0)</f>
@@ -6495,10 +6501,10 @@
         <v>138</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="D64" s="4">
         <v>4301131012</v>
@@ -6519,10 +6525,10 @@
         <v>143</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="D65" s="4">
         <v>4301131012</v>
@@ -6540,13 +6546,13 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="11" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="D66" s="4">
         <v>4301131012</v>
@@ -6612,7 +6618,7 @@
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="11" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="B69" s="3" t="s">
         <v>144</v>
@@ -6636,13 +6642,13 @@
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="11" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="D70" s="4">
         <v>4301135192</v>
@@ -6651,7 +6657,7 @@
         <v>4640242180380</v>
       </c>
       <c r="F70" s="5" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="G70" s="1">
         <f>VLOOKUP(E70,[1]Лист1!$D:$M,10,0)</f>
@@ -6660,13 +6666,13 @@
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="11" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="D71" s="4">
         <v>4301135192</v>
@@ -6675,7 +6681,7 @@
         <v>4640242180380</v>
       </c>
       <c r="F71" s="5" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="G71" s="1">
         <f>VLOOKUP(E71,[1]Лист1!$D:$M,10,0)</f>
@@ -6684,13 +6690,13 @@
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="11" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="D72" s="4">
         <v>4301135192</v>
@@ -6699,7 +6705,7 @@
         <v>4640242180380</v>
       </c>
       <c r="F72" s="5" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="G72" s="1">
         <f>VLOOKUP(E72,[1]Лист1!$D:$M,10,0)</f>
@@ -6708,13 +6714,13 @@
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="11" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="D73" s="4">
         <v>4301135192</v>
@@ -6723,7 +6729,7 @@
         <v>4640242180380</v>
       </c>
       <c r="F73" s="5" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="G73" s="1">
         <f>VLOOKUP(E73,[1]Лист1!$D:$M,10,0)</f>
@@ -6735,10 +6741,10 @@
         <v>76</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="D74" s="4">
         <v>4301135192</v>
@@ -6747,7 +6753,7 @@
         <v>4640242180380</v>
       </c>
       <c r="F74" s="5" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="G74" s="1">
         <f>VLOOKUP(E74,[1]Лист1!$D:$M,10,0)</f>
@@ -6756,13 +6762,13 @@
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="11" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="D75" s="4">
         <v>4301132066</v>
@@ -6771,7 +6777,7 @@
         <v>4607111036520</v>
       </c>
       <c r="F75" s="5" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="G75" s="1">
         <f>VLOOKUP(E75,[1]Лист1!$D:$M,10,0)</f>
@@ -6780,13 +6786,13 @@
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="11" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="D76" s="4">
         <v>4301132066</v>
@@ -6795,7 +6801,7 @@
         <v>4607111036520</v>
       </c>
       <c r="F76" s="5" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="G76" s="1">
         <f>VLOOKUP(E76,[1]Лист1!$D:$M,10,0)</f>
@@ -6804,13 +6810,13 @@
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="11" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="D77" s="4">
         <v>4301132066</v>
@@ -6819,7 +6825,7 @@
         <v>4607111036520</v>
       </c>
       <c r="F77" s="5" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="G77" s="1">
         <f>VLOOKUP(E77,[1]Лист1!$D:$M,10,0)</f>
@@ -6828,13 +6834,13 @@
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="11" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="D78" s="4">
         <v>4301132066</v>
@@ -6843,7 +6849,7 @@
         <v>4607111036520</v>
       </c>
       <c r="F78" s="5" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="G78" s="1">
         <f>VLOOKUP(E78,[1]Лист1!$D:$M,10,0)</f>
@@ -6852,13 +6858,13 @@
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="11" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="D79" s="4">
         <v>4301132065</v>
@@ -6867,7 +6873,7 @@
         <v>4607111036599</v>
       </c>
       <c r="F79" s="5" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="G79" s="1">
         <f>VLOOKUP(E79,[1]Лист1!$D:$M,10,0)</f>
@@ -6876,13 +6882,13 @@
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="11" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="D80" s="4">
         <v>4301132065</v>
@@ -6891,7 +6897,7 @@
         <v>4607111036599</v>
       </c>
       <c r="F80" s="5" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="G80" s="1">
         <f>VLOOKUP(E80,[1]Лист1!$D:$M,10,0)</f>
@@ -6900,13 +6906,13 @@
     </row>
     <row r="81" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A81" s="11" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="D81" s="4">
         <v>4301132063</v>
@@ -6915,7 +6921,7 @@
         <v>4607111036605</v>
       </c>
       <c r="F81" s="5" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="G81" s="1">
         <f>VLOOKUP(E81,[1]Лист1!$D:$M,10,0)</f>
@@ -6924,13 +6930,13 @@
     </row>
     <row r="82" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A82" s="11" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="D82" s="4">
         <v>4301132063</v>
@@ -6939,7 +6945,7 @@
         <v>4607111036605</v>
       </c>
       <c r="F82" s="5" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="G82" s="1">
         <f>VLOOKUP(E82,[1]Лист1!$D:$M,10,0)</f>
@@ -6948,7 +6954,7 @@
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="11" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="B83" s="3" t="s">
         <v>102</v>
@@ -7092,13 +7098,13 @@
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="11" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="D89" s="4">
         <v>4301132080</v>
@@ -7107,7 +7113,7 @@
         <v>4640242180397</v>
       </c>
       <c r="F89" s="5" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="G89" s="1">
         <f>VLOOKUP(E89,[1]Лист1!$D:$M,10,0)</f>
@@ -7116,13 +7122,13 @@
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="11" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="D90" s="4">
         <v>4301132080</v>
@@ -7131,7 +7137,7 @@
         <v>4640242180397</v>
       </c>
       <c r="F90" s="5" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="G90" s="1">
         <f>VLOOKUP(E90,[1]Лист1!$D:$M,10,0)</f>
@@ -7140,13 +7146,13 @@
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="11" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="D91" s="4">
         <v>4301132080</v>
@@ -7155,7 +7161,7 @@
         <v>4640242180397</v>
       </c>
       <c r="F91" s="5" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="G91" s="1">
         <f>VLOOKUP(E91,[1]Лист1!$D:$M,10,0)</f>
@@ -7167,10 +7173,10 @@
         <v>80</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="D92" s="4">
         <v>4301132080</v>
@@ -7179,7 +7185,7 @@
         <v>4640242180397</v>
       </c>
       <c r="F92" s="5" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="G92" s="1">
         <f>VLOOKUP(E92,[1]Лист1!$D:$M,10,0)</f>
@@ -7188,13 +7194,13 @@
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="11" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="D93" s="4">
         <v>4301135134</v>
@@ -7203,7 +7209,7 @@
         <v>4607111035806</v>
       </c>
       <c r="F93" s="5" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="G93" s="1">
         <f>VLOOKUP(E93,[1]Лист1!$D:$M,10,0)</f>
@@ -7212,13 +7218,13 @@
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="11" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="D94" s="4">
         <v>4301135134</v>
@@ -7227,7 +7233,7 @@
         <v>4607111035806</v>
       </c>
       <c r="F94" s="5" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="G94" s="1">
         <f>VLOOKUP(E94,[1]Лист1!$D:$M,10,0)</f>
@@ -7236,13 +7242,13 @@
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="11" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="D95" s="4">
         <v>4301135134</v>
@@ -7251,7 +7257,7 @@
         <v>4607111035806</v>
       </c>
       <c r="F95" s="5" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="G95" s="1">
         <f>VLOOKUP(E95,[1]Лист1!$D:$M,10,0)</f>
@@ -7260,13 +7266,13 @@
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="11" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="D96" s="4">
         <v>4301135134</v>
@@ -7275,7 +7281,7 @@
         <v>4607111035806</v>
       </c>
       <c r="F96" s="5" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="G96" s="1">
         <f>VLOOKUP(E96,[1]Лист1!$D:$M,10,0)</f>
@@ -7284,13 +7290,13 @@
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="11" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="D97" s="4">
         <v>4301135134</v>
@@ -7299,7 +7305,7 @@
         <v>4607111035806</v>
       </c>
       <c r="F97" s="5" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="G97" s="1">
         <f>VLOOKUP(E97,[1]Лист1!$D:$M,10,0)</f>
@@ -7308,13 +7314,13 @@
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="11" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="D98" s="4">
         <v>4301070865</v>
@@ -7323,7 +7329,7 @@
         <v>4607111036285</v>
       </c>
       <c r="F98" s="5" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="G98" s="1">
         <f>VLOOKUP(E98,[1]Лист1!$D:$M,10,0)</f>
@@ -7332,13 +7338,13 @@
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="11" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="D99" s="4">
         <v>4301070865</v>
@@ -7347,7 +7353,7 @@
         <v>4607111036285</v>
       </c>
       <c r="F99" s="5" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="G99" s="1">
         <f>VLOOKUP(E99,[1]Лист1!$D:$M,10,0)</f>
@@ -7356,13 +7362,13 @@
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="11" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="D100" s="4">
         <v>4301070865</v>
@@ -7371,7 +7377,7 @@
         <v>4607111036285</v>
       </c>
       <c r="F100" s="5" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="G100" s="1">
         <f>VLOOKUP(E100,[1]Лист1!$D:$M,10,0)</f>
@@ -7380,13 +7386,13 @@
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="11" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="D101" s="4">
         <v>4301070865</v>
@@ -7395,7 +7401,7 @@
         <v>4607111036285</v>
       </c>
       <c r="F101" s="5" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="G101" s="1">
         <f>VLOOKUP(E101,[1]Лист1!$D:$M,10,0)</f>
@@ -7404,13 +7410,13 @@
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="11" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="D102" s="4">
         <v>4301070865</v>
@@ -7419,7 +7425,7 @@
         <v>4607111036285</v>
       </c>
       <c r="F102" s="5" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="G102" s="1">
         <f>VLOOKUP(E102,[1]Лист1!$D:$M,10,0)</f>
@@ -7428,13 +7434,13 @@
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="11" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="D103" s="4">
         <v>4301070970</v>
@@ -7443,7 +7449,7 @@
         <v>4607111037091</v>
       </c>
       <c r="F103" s="5" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="G103" s="1">
         <f>VLOOKUP(E103,[1]Лист1!$D:$M,10,0)</f>
@@ -7452,13 +7458,13 @@
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="11" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="D104" s="4">
         <v>4301070970</v>
@@ -7467,7 +7473,7 @@
         <v>4607111037091</v>
       </c>
       <c r="F104" s="5" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="G104" s="1">
         <f>VLOOKUP(E104,[1]Лист1!$D:$M,10,0)</f>
@@ -7476,13 +7482,13 @@
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="11" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="D105" s="4">
         <v>4301070970</v>
@@ -7491,7 +7497,7 @@
         <v>4607111037091</v>
       </c>
       <c r="F105" s="5" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="G105" s="1">
         <f>VLOOKUP(E105,[1]Лист1!$D:$M,10,0)</f>
@@ -7500,13 +7506,13 @@
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="11" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="D106" s="4">
         <v>4301070970</v>
@@ -7515,7 +7521,7 @@
         <v>4607111037091</v>
       </c>
       <c r="F106" s="5" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="G106" s="1">
         <f>VLOOKUP(E106,[1]Лист1!$D:$M,10,0)</f>
@@ -7524,13 +7530,13 @@
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="11" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="D107" s="4">
         <v>4301070970</v>
@@ -7539,7 +7545,7 @@
         <v>4607111037091</v>
       </c>
       <c r="F107" s="5" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="G107" s="1">
         <f>VLOOKUP(E107,[1]Лист1!$D:$M,10,0)</f>
@@ -7554,7 +7560,7 @@
         <v>119</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="D108" s="4">
         <v>4301070973</v>
@@ -7563,7 +7569,7 @@
         <v>4607111033987</v>
       </c>
       <c r="F108" s="5" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="G108" s="1">
         <f>VLOOKUP(E108,[1]Лист1!$D:$M,10,0)</f>
@@ -7572,13 +7578,13 @@
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="11" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="B109" s="3" t="s">
         <v>119</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="D109" s="4">
         <v>4301070973</v>
@@ -7587,7 +7593,7 @@
         <v>4607111033987</v>
       </c>
       <c r="F109" s="5" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="G109" s="1">
         <f>VLOOKUP(E109,[1]Лист1!$D:$M,10,0)</f>
@@ -7596,13 +7602,13 @@
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="11" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="B110" s="3" t="s">
         <v>119</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="D110" s="4">
         <v>4301070973</v>
@@ -7611,7 +7617,7 @@
         <v>4607111033987</v>
       </c>
       <c r="F110" s="5" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="G110" s="1">
         <f>VLOOKUP(E110,[1]Лист1!$D:$M,10,0)</f>
@@ -7620,13 +7626,13 @@
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="11" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="D111" s="4">
         <v>4301070861</v>
@@ -7635,7 +7641,7 @@
         <v>4607111036308</v>
       </c>
       <c r="F111" s="5" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="G111" s="1">
         <f>VLOOKUP(E111,[1]Лист1!$D:$M,10,0)</f>
@@ -7644,13 +7650,13 @@
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="11" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="D112" s="4">
         <v>4301070861</v>
@@ -7659,7 +7665,7 @@
         <v>4607111036308</v>
       </c>
       <c r="F112" s="5" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="G112" s="1">
         <f>VLOOKUP(E112,[1]Лист1!$D:$M,10,0)</f>
@@ -7668,13 +7674,13 @@
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="11" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="D113" s="4">
         <v>4301070861</v>
@@ -7683,7 +7689,7 @@
         <v>4607111036308</v>
       </c>
       <c r="F113" s="5" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="G113" s="1">
         <f>VLOOKUP(E113,[1]Лист1!$D:$M,10,0)</f>
@@ -7716,7 +7722,7 @@
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="11" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="B115" s="3" t="s">
         <v>111</v>
@@ -7740,7 +7746,7 @@
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="11" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="B116" s="3" t="s">
         <v>111</v>
@@ -7770,7 +7776,7 @@
         <v>118</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="D117" s="4">
         <v>4301070974</v>
@@ -7779,7 +7785,7 @@
         <v>4607111034151</v>
       </c>
       <c r="F117" s="5" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="G117" s="1">
         <f>VLOOKUP(E117,[1]Лист1!$D:$M,10,0)</f>
@@ -7788,13 +7794,13 @@
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="11" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="B118" s="3" t="s">
         <v>118</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="D118" s="4">
         <v>4301070974</v>
@@ -7803,7 +7809,7 @@
         <v>4607111034151</v>
       </c>
       <c r="F118" s="5" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="G118" s="1">
         <f>VLOOKUP(E118,[1]Лист1!$D:$M,10,0)</f>
@@ -7812,13 +7818,13 @@
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="11" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="B119" s="3" t="s">
         <v>118</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="D119" s="4">
         <v>4301070974</v>
@@ -7827,7 +7833,7 @@
         <v>4607111034151</v>
       </c>
       <c r="F119" s="5" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="G119" s="1">
         <f>VLOOKUP(E119,[1]Лист1!$D:$M,10,0)</f>
@@ -7836,13 +7842,13 @@
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="11" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="D120" s="4">
         <v>4301070989</v>
@@ -7851,7 +7857,7 @@
         <v>4607111037190</v>
       </c>
       <c r="F120" s="5" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="G120" s="1">
         <f>VLOOKUP(E120,[1]Лист1!$D:$M,10,0)</f>
@@ -7860,13 +7866,13 @@
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="11" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="D121" s="4">
         <v>4301070989</v>
@@ -7875,7 +7881,7 @@
         <v>4607111037190</v>
       </c>
       <c r="F121" s="5" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="G121" s="1">
         <f>VLOOKUP(E121,[1]Лист1!$D:$M,10,0)</f>
@@ -7884,13 +7890,13 @@
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="11" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="D122" s="4">
         <v>4301070989</v>
@@ -7899,7 +7905,7 @@
         <v>4607111037190</v>
       </c>
       <c r="F122" s="5" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="G122" s="1">
         <f>VLOOKUP(E122,[1]Лист1!$D:$M,10,0)</f>
@@ -7908,13 +7914,13 @@
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" s="11" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="D123" s="4">
         <v>4301070972</v>
@@ -7923,7 +7929,7 @@
         <v>4607111037183</v>
       </c>
       <c r="F123" s="5" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="G123" s="1">
         <f>VLOOKUP(E123,[1]Лист1!$D:$M,10,0)</f>
@@ -7932,13 +7938,13 @@
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" s="11" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="D124" s="4">
         <v>4301070972</v>
@@ -7947,7 +7953,7 @@
         <v>4607111037183</v>
       </c>
       <c r="F124" s="5" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="G124" s="1">
         <f>VLOOKUP(E124,[1]Лист1!$D:$M,10,0)</f>
@@ -7956,13 +7962,13 @@
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="11" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="D125" s="4">
         <v>4301070972</v>
@@ -7971,7 +7977,7 @@
         <v>4607111037183</v>
       </c>
       <c r="F125" s="5" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="G125" s="1">
         <f>VLOOKUP(E125,[1]Лист1!$D:$M,10,0)</f>
@@ -7980,13 +7986,13 @@
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" s="11" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="D126" s="4">
         <v>4301070969</v>
@@ -7995,7 +8001,7 @@
         <v>4607111036858</v>
       </c>
       <c r="F126" s="5" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="G126" s="1">
         <f>VLOOKUP(E126,[1]Лист1!$D:$M,10,0)</f>
@@ -8004,13 +8010,13 @@
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" s="11" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="D127" s="4">
         <v>4301070969</v>
@@ -8019,7 +8025,7 @@
         <v>4607111036858</v>
       </c>
       <c r="F127" s="5" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="G127" s="1">
         <f>VLOOKUP(E127,[1]Лист1!$D:$M,10,0)</f>
@@ -8028,13 +8034,13 @@
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" s="11" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="D128" s="4">
         <v>4301070969</v>
@@ -8043,7 +8049,7 @@
         <v>4607111036858</v>
       </c>
       <c r="F128" s="5" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="G128" s="1">
         <f>VLOOKUP(E128,[1]Лист1!$D:$M,10,0)</f>
@@ -8058,7 +8064,7 @@
         <v>114</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="D129" s="4">
         <v>4301070968</v>
@@ -8067,7 +8073,7 @@
         <v>4607111036889</v>
       </c>
       <c r="F129" s="5" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="G129" s="1">
         <f>VLOOKUP(E129,[1]Лист1!$D:$M,10,0)</f>
@@ -8076,13 +8082,13 @@
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" s="11" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="D130" s="4">
         <v>4301070971</v>
@@ -8091,7 +8097,7 @@
         <v>4607111036902</v>
       </c>
       <c r="F130" s="5" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="G130" s="1">
         <f>VLOOKUP(E130,[1]Лист1!$D:$M,10,0)</f>
@@ -8100,13 +8106,13 @@
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" s="11" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="D131" s="4">
         <v>4301070971</v>
@@ -8115,7 +8121,7 @@
         <v>4607111036902</v>
       </c>
       <c r="F131" s="5" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="G131" s="1">
         <f>VLOOKUP(E131,[1]Лист1!$D:$M,10,0)</f>
@@ -8124,13 +8130,13 @@
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" s="11" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="D132" s="4">
         <v>4301070971</v>
@@ -8139,7 +8145,7 @@
         <v>4607111036902</v>
       </c>
       <c r="F132" s="5" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="G132" s="1">
         <f>VLOOKUP(E132,[1]Лист1!$D:$M,10,0)</f>
@@ -8148,13 +8154,13 @@
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" s="11" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="B133" s="3" t="s">
         <v>115</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="D133" s="4">
         <v>4301070976</v>
@@ -8163,7 +8169,7 @@
         <v>4607111034144</v>
       </c>
       <c r="F133" s="5" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="G133" s="1">
         <f>VLOOKUP(E133,[1]Лист1!$D:$M,10,0)</f>
@@ -8172,13 +8178,13 @@
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" s="11" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="B134" s="3" t="s">
         <v>115</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="D134" s="4">
         <v>4301070976</v>
@@ -8187,7 +8193,7 @@
         <v>4607111034144</v>
       </c>
       <c r="F134" s="5" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="G134" s="1">
         <f>VLOOKUP(E134,[1]Лист1!$D:$M,10,0)</f>
@@ -8196,13 +8202,13 @@
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" s="11" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="B135" s="3" t="s">
         <v>115</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="D135" s="4">
         <v>4301070976</v>
@@ -8211,7 +8217,7 @@
         <v>4607111034144</v>
       </c>
       <c r="F135" s="5" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="G135" s="1">
         <f>VLOOKUP(E135,[1]Лист1!$D:$M,10,0)</f>
@@ -8226,7 +8232,7 @@
         <v>115</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="D136" s="4">
         <v>4301070976</v>
@@ -8235,7 +8241,7 @@
         <v>4607111034144</v>
       </c>
       <c r="F136" s="5" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="G136" s="1">
         <f>VLOOKUP(E136,[1]Лист1!$D:$M,10,0)</f>
@@ -8244,13 +8250,13 @@
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" s="11" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="B137" s="3" t="s">
         <v>116</v>
       </c>
       <c r="C137" s="3" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="D137" s="4">
         <v>4301070975</v>
@@ -8259,7 +8265,7 @@
         <v>4607111033970</v>
       </c>
       <c r="F137" s="5" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="G137" s="1">
         <f>VLOOKUP(E137,[1]Лист1!$D:$M,10,0)</f>
@@ -8268,13 +8274,13 @@
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" s="11" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="B138" s="3" t="s">
         <v>116</v>
       </c>
       <c r="C138" s="3" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="D138" s="4">
         <v>4301070975</v>
@@ -8283,7 +8289,7 @@
         <v>4607111033970</v>
       </c>
       <c r="F138" s="5" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="G138" s="1">
         <f>VLOOKUP(E138,[1]Лист1!$D:$M,10,0)</f>
@@ -8292,13 +8298,13 @@
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" s="11" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="B139" s="3" t="s">
         <v>116</v>
       </c>
       <c r="C139" s="3" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="D139" s="4">
         <v>4301070975</v>
@@ -8307,7 +8313,7 @@
         <v>4607111033970</v>
       </c>
       <c r="F139" s="5" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="G139" s="1">
         <f>VLOOKUP(E139,[1]Лист1!$D:$M,10,0)</f>
@@ -8316,13 +8322,13 @@
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" s="11" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="B140" s="3" t="s">
         <v>116</v>
       </c>
       <c r="C140" s="3" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="D140" s="4">
         <v>4301070975</v>
@@ -8331,7 +8337,7 @@
         <v>4607111033970</v>
       </c>
       <c r="F140" s="5" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="G140" s="1">
         <f>VLOOKUP(E140,[1]Лист1!$D:$M,10,0)</f>
@@ -8346,7 +8352,7 @@
         <v>116</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="D141" s="4">
         <v>4301070975</v>
@@ -8355,7 +8361,7 @@
         <v>4607111033970</v>
       </c>
       <c r="F141" s="5" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="G141" s="1">
         <f>VLOOKUP(E141,[1]Лист1!$D:$M,10,0)</f>
@@ -8364,13 +8370,13 @@
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" s="11" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="B142" s="3" t="s">
         <v>117</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="D142" s="4">
         <v>4301070981</v>
@@ -8379,7 +8385,7 @@
         <v>4607111036728</v>
       </c>
       <c r="F142" s="5" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="G142" s="1">
         <f>VLOOKUP(E142,[1]Лист1!$D:$M,10,0)</f>
@@ -8394,7 +8400,7 @@
         <v>117</v>
       </c>
       <c r="C143" s="3" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="D143" s="4">
         <v>4301070981</v>
@@ -8403,7 +8409,7 @@
         <v>4607111036728</v>
       </c>
       <c r="F143" s="5" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="G143" s="1">
         <f>VLOOKUP(E143,[1]Лист1!$D:$M,10,0)</f>
@@ -8412,13 +8418,13 @@
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" s="11" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="D144" s="4">
         <v>4301071010</v>
@@ -8427,7 +8433,7 @@
         <v>4607111037701</v>
       </c>
       <c r="F144" s="5" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="G144" s="1">
         <f>VLOOKUP(E144,[1]Лист1!$D:$M,10,0)</f>
@@ -8436,13 +8442,13 @@
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" s="11" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="D145" s="4">
         <v>4301071010</v>
@@ -8451,7 +8457,7 @@
         <v>4607111037701</v>
       </c>
       <c r="F145" s="5" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="G145" s="1">
         <f>VLOOKUP(E145,[1]Лист1!$D:$M,10,0)</f>
@@ -8460,13 +8466,13 @@
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" s="11" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="D146" s="4">
         <v>4301071010</v>
@@ -8475,7 +8481,7 @@
         <v>4607111037701</v>
       </c>
       <c r="F146" s="5" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="G146" s="1">
         <f>VLOOKUP(E146,[1]Лист1!$D:$M,10,0)</f>
@@ -8484,13 +8490,13 @@
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" s="11" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C147" s="3" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="D147" s="4">
         <v>4301070870</v>
@@ -8499,7 +8505,7 @@
         <v>4607111036711</v>
       </c>
       <c r="F147" s="5" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="G147" s="1">
         <f>VLOOKUP(E147,[1]Лист1!$D:$M,10,0)</f>
@@ -8508,13 +8514,13 @@
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" s="11" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C148" s="3" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="D148" s="4">
         <v>4301070870</v>
@@ -8523,7 +8529,7 @@
         <v>4607111036711</v>
       </c>
       <c r="F148" s="5" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="G148" s="1">
         <f>VLOOKUP(E148,[1]Лист1!$D:$M,10,0)</f>
@@ -8532,13 +8538,13 @@
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" s="11" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="C149" s="3" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="D149" s="4">
         <v>4301070948</v>
@@ -8547,7 +8553,7 @@
         <v>4607111037022</v>
       </c>
       <c r="F149" s="5" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="G149" s="1">
         <f>VLOOKUP(E149,[1]Лист1!$D:$M,10,0)</f>
@@ -8556,13 +8562,13 @@
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" s="11" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="C150" s="3" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="D150" s="4">
         <v>4301070948</v>
@@ -8571,7 +8577,7 @@
         <v>4607111037022</v>
       </c>
       <c r="F150" s="5" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="G150" s="1">
         <f>VLOOKUP(E150,[1]Лист1!$D:$M,10,0)</f>
@@ -8580,13 +8586,13 @@
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" s="11" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="C151" s="3" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="D151" s="4">
         <v>4301070948</v>
@@ -8595,7 +8601,7 @@
         <v>4607111037022</v>
       </c>
       <c r="F151" s="5" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="G151" s="1">
         <f>VLOOKUP(E151,[1]Лист1!$D:$M,10,0)</f>
@@ -8652,13 +8658,13 @@
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" s="11" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C154" s="3" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D154" s="4">
         <v>4301070921</v>
@@ -8667,7 +8673,7 @@
         <v>4607111035905</v>
       </c>
       <c r="F154" s="5" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="G154" s="1">
         <f>VLOOKUP(E154,[1]Лист1!$D:$M,10,0)</f>
@@ -8676,13 +8682,13 @@
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" s="11" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C155" s="3" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D155" s="4">
         <v>4301070921</v>
@@ -8691,7 +8697,7 @@
         <v>4607111035905</v>
       </c>
       <c r="F155" s="5" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="G155" s="1">
         <f>VLOOKUP(E155,[1]Лист1!$D:$M,10,0)</f>
@@ -8700,13 +8706,13 @@
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" s="11" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C156" s="3" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="D156" s="4">
         <v>4301070917</v>
@@ -8715,7 +8721,7 @@
         <v>4607111035912</v>
       </c>
       <c r="F156" s="5" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="G156" s="1">
         <f>VLOOKUP(E156,[1]Лист1!$D:$M,10,0)</f>
@@ -8724,13 +8730,13 @@
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" s="11" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C157" s="3" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="D157" s="4">
         <v>4301070917</v>
@@ -8739,7 +8745,7 @@
         <v>4607111035912</v>
       </c>
       <c r="F157" s="5" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="G157" s="1">
         <f>VLOOKUP(E157,[1]Лист1!$D:$M,10,0)</f>
@@ -8748,13 +8754,13 @@
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" s="11" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C158" s="3" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="D158" s="4">
         <v>4301070917</v>
@@ -8763,7 +8769,7 @@
         <v>4607111035912</v>
       </c>
       <c r="F158" s="5" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="G158" s="1">
         <f>VLOOKUP(E158,[1]Лист1!$D:$M,10,0)</f>
@@ -8772,13 +8778,13 @@
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" s="11" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C159" s="3" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="D159" s="4">
         <v>4301070917</v>
@@ -8787,7 +8793,7 @@
         <v>4607111035912</v>
       </c>
       <c r="F159" s="5" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="G159" s="1">
         <f>VLOOKUP(E159,[1]Лист1!$D:$M,10,0)</f>
@@ -8796,13 +8802,13 @@
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" s="11" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B160" s="3" t="s">
         <v>123</v>
       </c>
       <c r="C160" s="3" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="D160" s="4">
         <v>4301071028</v>
@@ -8826,7 +8832,7 @@
         <v>123</v>
       </c>
       <c r="C161" s="3" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="D161" s="4">
         <v>4301071028</v>
@@ -8850,7 +8856,7 @@
         <v>125</v>
       </c>
       <c r="C162" s="3" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="D162" s="4">
         <v>4301070965</v>
@@ -8874,7 +8880,7 @@
         <v>125</v>
       </c>
       <c r="C163" s="3" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="D163" s="4">
         <v>4301070965</v>
@@ -8892,13 +8898,13 @@
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" s="11" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B164" s="3" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C164" s="3" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D164" s="4">
         <v>4301070873</v>
@@ -8907,7 +8913,7 @@
         <v>4607111035080</v>
       </c>
       <c r="F164" s="5" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="G164" s="1">
         <f>VLOOKUP(E164,[1]Лист1!$D:$M,10,0)</f>
@@ -8916,13 +8922,13 @@
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" s="11" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C165" s="3" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D165" s="4">
         <v>4301070873</v>
@@ -8931,7 +8937,7 @@
         <v>4607111035080</v>
       </c>
       <c r="F165" s="5" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="G165" s="1">
         <f>VLOOKUP(E165,[1]Лист1!$D:$M,10,0)</f>
@@ -8940,13 +8946,13 @@
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" s="11" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="C166" s="3" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="D166" s="4">
         <v>4301135193</v>
@@ -8955,7 +8961,7 @@
         <v>4640242180403</v>
       </c>
       <c r="F166" s="5" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="G166" s="1">
         <f>VLOOKUP(E166,[1]Лист1!$D:$M,10,0)</f>
@@ -8964,13 +8970,13 @@
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" s="11" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="C167" s="3" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="D167" s="4">
         <v>4301135193</v>
@@ -8979,7 +8985,7 @@
         <v>4640242180403</v>
       </c>
       <c r="F167" s="5" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="G167" s="1">
         <f>VLOOKUP(E167,[1]Лист1!$D:$M,10,0)</f>
@@ -8988,13 +8994,13 @@
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" s="11" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="B168" s="3" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="C168" s="3" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="D168" s="4">
         <v>4301135193</v>
@@ -9003,7 +9009,7 @@
         <v>4640242180403</v>
       </c>
       <c r="F168" s="5" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="G168" s="1">
         <f>VLOOKUP(E168,[1]Лист1!$D:$M,10,0)</f>
@@ -9012,13 +9018,13 @@
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" s="11" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="C169" s="3" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="D169" s="4">
         <v>4301135193</v>
@@ -9027,7 +9033,7 @@
         <v>4640242180403</v>
       </c>
       <c r="F169" s="5" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="G169" s="1">
         <f>VLOOKUP(E169,[1]Лист1!$D:$M,10,0)</f>
@@ -9036,13 +9042,13 @@
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" s="11" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B170" s="3" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="C170" s="3" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="D170" s="4">
         <v>4301135193</v>
@@ -9051,7 +9057,7 @@
         <v>4640242180403</v>
       </c>
       <c r="F170" s="5" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="G170" s="1">
         <f>VLOOKUP(E170,[1]Лист1!$D:$M,10,0)</f>
@@ -9060,13 +9066,13 @@
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" s="11" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="B171" s="3" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C171" s="3" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="D171" s="4">
         <v>4301070956</v>
@@ -9075,7 +9081,7 @@
         <v>4640242180250</v>
       </c>
       <c r="F171" s="5" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="G171" s="1">
         <f>VLOOKUP(E171,[1]Лист1!$D:$M,10,0)</f>
@@ -9084,37 +9090,37 @@
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" s="11" t="s">
-        <v>192</v>
+        <v>463</v>
       </c>
       <c r="B172" s="3" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C172" s="3" t="s">
-        <v>191</v>
+        <v>462</v>
       </c>
       <c r="D172" s="4">
-        <v>4301070858</v>
+        <v>4301070956</v>
       </c>
       <c r="E172" s="3">
-        <v>4607111036193</v>
+        <v>4640242180250</v>
       </c>
       <c r="F172" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="G172" s="1" t="e">
+        <v>463</v>
+      </c>
+      <c r="G172" s="1">
         <f>VLOOKUP(E172,[1]Лист1!$D:$M,10,0)</f>
-        <v>#N/A</v>
+        <v>180</v>
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" s="11" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C173" s="3" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="D173" s="4">
         <v>4301070956</v>
@@ -9123,7 +9129,7 @@
         <v>4640242180250</v>
       </c>
       <c r="F173" s="5" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="G173" s="1">
         <f>VLOOKUP(E173,[1]Лист1!$D:$M,10,0)</f>
@@ -9156,13 +9162,13 @@
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" s="11" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="C175" s="3" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="D175" s="4">
         <v>4301131018</v>
@@ -9171,7 +9177,7 @@
         <v>4607111037930</v>
       </c>
       <c r="F175" s="5" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="G175" s="1" t="e">
         <f>VLOOKUP(E175,[1]Лист1!$D:$M,10,0)</f>
@@ -9180,13 +9186,13 @@
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" s="11" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="B176" s="3" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="C176" s="3" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="D176" s="4">
         <v>4301131018</v>
@@ -9195,7 +9201,7 @@
         <v>4607111037930</v>
       </c>
       <c r="F176" s="5" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="G176" s="1" t="e">
         <f>VLOOKUP(E176,[1]Лист1!$D:$M,10,0)</f>
@@ -9204,13 +9210,13 @@
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177" s="11" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="B177" s="3" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="C177" s="3" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="D177" s="4">
         <v>4301131019</v>
@@ -9219,7 +9225,7 @@
         <v>4640242180427</v>
       </c>
       <c r="F177" s="5" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="G177" s="1">
         <f>VLOOKUP(E177,[1]Лист1!$D:$M,10,0)</f>
@@ -9228,46 +9234,45 @@
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178" s="11" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="B178" s="3" t="s">
-        <v>147</v>
+        <v>563</v>
       </c>
       <c r="C178" s="3" t="s">
-        <v>148</v>
+        <v>564</v>
       </c>
       <c r="D178" s="4">
-        <v>4301190014</v>
+        <v>4301190022</v>
       </c>
       <c r="E178" s="3">
         <v>4607111037053</v>
       </c>
       <c r="F178" s="5" t="s">
-        <v>149</v>
+        <v>565</v>
       </c>
       <c r="G178" s="1">
-        <f>VLOOKUP(E178,[1]Лист1!$D:$M,10,0)</f>
         <v>365</v>
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179" s="11" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="B179" s="3" t="s">
-        <v>147</v>
+        <v>563</v>
       </c>
       <c r="C179" s="3" t="s">
-        <v>148</v>
+        <v>564</v>
       </c>
       <c r="D179" s="4">
-        <v>4301190014</v>
+        <v>4301190022</v>
       </c>
       <c r="E179" s="3">
         <v>4607111037053</v>
       </c>
       <c r="F179" s="5" t="s">
-        <v>149</v>
+        <v>565</v>
       </c>
       <c r="G179" s="1">
         <f>VLOOKUP(E179,[1]Лист1!$D:$M,10,0)</f>
@@ -9279,19 +9284,19 @@
         <v>140</v>
       </c>
       <c r="B180" s="3" t="s">
-        <v>147</v>
+        <v>563</v>
       </c>
       <c r="C180" s="3" t="s">
-        <v>148</v>
+        <v>564</v>
       </c>
       <c r="D180" s="4">
-        <v>4301190014</v>
+        <v>4301190022</v>
       </c>
       <c r="E180" s="3">
         <v>4607111037053</v>
       </c>
       <c r="F180" s="5" t="s">
-        <v>149</v>
+        <v>565</v>
       </c>
       <c r="G180" s="1">
         <f>VLOOKUP(E180,[1]Лист1!$D:$M,10,0)</f>
@@ -9300,13 +9305,13 @@
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181" s="11" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="B181" s="3" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="C181" s="3" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="D181" s="4">
         <v>4301190023</v>
@@ -9315,7 +9320,7 @@
         <v>4607111037060</v>
       </c>
       <c r="F181" s="5" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="G181" s="1">
         <f>VLOOKUP(E181,[1]Лист1!$D:$M,10,0)</f>
@@ -9324,13 +9329,13 @@
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182" s="11" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="B182" s="3" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="C182" s="3" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="D182" s="4">
         <v>4301190023</v>
@@ -9339,7 +9344,7 @@
         <v>4607111037060</v>
       </c>
       <c r="F182" s="5" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="G182" s="1">
         <f>VLOOKUP(E182,[1]Лист1!$D:$M,10,0)</f>
@@ -9351,10 +9356,10 @@
         <v>141</v>
       </c>
       <c r="B183" s="3" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="C183" s="3" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="D183" s="4">
         <v>4301190023</v>
@@ -9363,7 +9368,7 @@
         <v>4607111037060</v>
       </c>
       <c r="F183" s="5" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="G183" s="1">
         <f>VLOOKUP(E183,[1]Лист1!$D:$M,10,0)</f>
@@ -9372,13 +9377,13 @@
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184" s="11" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="B184" s="3" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="C184" s="3" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="D184" s="4">
         <v>4301135053</v>
@@ -9387,7 +9392,7 @@
         <v>4607111036407</v>
       </c>
       <c r="F184" s="5" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="G184" s="1">
         <f>VLOOKUP(E184,[1]Лист1!$D:$M,10,0)</f>
@@ -9396,13 +9401,13 @@
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185" s="11" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="B185" s="3" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="C185" s="3" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="D185" s="4">
         <v>4301135053</v>
@@ -9411,7 +9416,7 @@
         <v>4607111036407</v>
       </c>
       <c r="F185" s="5" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="G185" s="1">
         <f>VLOOKUP(E185,[1]Лист1!$D:$M,10,0)</f>
@@ -9426,7 +9431,7 @@
         <v>130</v>
       </c>
       <c r="C186" s="3" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="D186" s="4">
         <v>4301135162</v>
@@ -9444,13 +9449,13 @@
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187" s="11" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="B187" s="3" t="s">
         <v>130</v>
       </c>
       <c r="C187" s="3" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="D187" s="4">
         <v>4301135162</v>
@@ -9468,13 +9473,13 @@
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188" s="11" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="B188" s="3" t="s">
         <v>130</v>
       </c>
       <c r="C188" s="3" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="D188" s="4">
         <v>4301135162</v>
@@ -9483,7 +9488,7 @@
         <v>4607111034014</v>
       </c>
       <c r="F188" s="5" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="G188" s="1">
         <f>VLOOKUP(E188,[1]Лист1!$D:$M,10,0)</f>
@@ -9492,7 +9497,7 @@
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189" s="11" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="B189" s="3" t="s">
         <v>132</v>
@@ -9564,13 +9569,13 @@
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192" s="11" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="B192" s="3" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="C192" s="3" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="D192" s="4">
         <v>4301136028</v>
@@ -9579,7 +9584,7 @@
         <v>4640242180304</v>
       </c>
       <c r="F192" s="5" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="G192" s="1">
         <f>VLOOKUP(E192,[1]Лист1!$D:$M,10,0)</f>
@@ -9588,13 +9593,13 @@
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193" s="11" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="B193" s="3" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="C193" s="3" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="D193" s="4">
         <v>4301136028</v>
@@ -9603,7 +9608,7 @@
         <v>4640242180304</v>
       </c>
       <c r="F193" s="5" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="G193" s="1">
         <f>VLOOKUP(E193,[1]Лист1!$D:$M,10,0)</f>
@@ -9612,13 +9617,13 @@
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194" s="11" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="B194" s="3" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="C194" s="3" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="D194" s="4">
         <v>4301136028</v>
@@ -9627,7 +9632,7 @@
         <v>4640242180304</v>
       </c>
       <c r="F194" s="5" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="G194" s="1">
         <f>VLOOKUP(E194,[1]Лист1!$D:$M,10,0)</f>
@@ -9639,10 +9644,10 @@
         <v>142</v>
       </c>
       <c r="B195" s="3" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="C195" s="3" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="D195" s="4">
         <v>4301136028</v>
@@ -9651,7 +9656,7 @@
         <v>4640242180304</v>
       </c>
       <c r="F195" s="5" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="G195" s="1">
         <f>VLOOKUP(E195,[1]Лист1!$D:$M,10,0)</f>
@@ -9660,13 +9665,13 @@
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196" s="11" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="B196" s="3" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="C196" s="3" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="D196" s="4">
         <v>4301136026</v>
@@ -9675,7 +9680,7 @@
         <v>4640242180236</v>
       </c>
       <c r="F196" s="5" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="G196" s="1">
         <f>VLOOKUP(E196,[1]Лист1!$D:$M,10,0)</f>
@@ -9684,13 +9689,13 @@
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197" s="11" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="B197" s="3" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="C197" s="3" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="D197" s="4">
         <v>4301136026</v>
@@ -9699,7 +9704,7 @@
         <v>4640242180236</v>
       </c>
       <c r="F197" s="5" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="G197" s="1">
         <f>VLOOKUP(E197,[1]Лист1!$D:$M,10,0)</f>
@@ -9708,13 +9713,13 @@
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198" s="11" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="B198" s="3" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="C198" s="3" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="D198" s="4">
         <v>4301136026</v>
@@ -9723,7 +9728,7 @@
         <v>4640242180236</v>
       </c>
       <c r="F198" s="5" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="G198" s="1">
         <f>VLOOKUP(E198,[1]Лист1!$D:$M,10,0)</f>
@@ -9735,10 +9740,10 @@
         <v>95</v>
       </c>
       <c r="B199" s="3" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="C199" s="3" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="D199" s="4">
         <v>4301136026</v>
@@ -9747,7 +9752,7 @@
         <v>4640242180236</v>
       </c>
       <c r="F199" s="5" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="G199" s="1">
         <f>VLOOKUP(E199,[1]Лист1!$D:$M,10,0)</f>
@@ -9756,13 +9761,13 @@
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200" s="11" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="B200" s="3" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="C200" s="3" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="D200" s="4">
         <v>4301135194</v>
@@ -9771,7 +9776,7 @@
         <v>4640242180380</v>
       </c>
       <c r="F200" s="5" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="G200" s="1">
         <f>VLOOKUP(E200,[1]Лист1!$D:$M,10,0)</f>
@@ -9780,13 +9785,13 @@
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A201" s="11" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="B201" s="3" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="C201" s="3" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="D201" s="4">
         <v>4301135194</v>
@@ -9795,7 +9800,7 @@
         <v>4640242180380</v>
       </c>
       <c r="F201" s="5" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="G201" s="1">
         <f>VLOOKUP(E201,[1]Лист1!$D:$M,10,0)</f>
@@ -9804,13 +9809,13 @@
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A202" s="11" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="B202" s="3" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="C202" s="3" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="D202" s="4">
         <v>4301135194</v>
@@ -9819,7 +9824,7 @@
         <v>4640242180380</v>
       </c>
       <c r="F202" s="5" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="G202" s="1">
         <f>VLOOKUP(E202,[1]Лист1!$D:$M,10,0)</f>
@@ -9831,10 +9836,10 @@
         <v>135</v>
       </c>
       <c r="B203" s="3" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="C203" s="3" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="D203" s="4">
         <v>4301135194</v>
@@ -9843,7 +9848,7 @@
         <v>4640242180380</v>
       </c>
       <c r="F203" s="5" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="G203" s="1">
         <f>VLOOKUP(E203,[1]Лист1!$D:$M,10,0)</f>
@@ -9852,13 +9857,13 @@
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A204" s="11" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="B204" s="3" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="C204" s="3" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="D204" s="4">
         <v>4301135194</v>
@@ -9867,7 +9872,7 @@
         <v>4640242180380</v>
       </c>
       <c r="F204" s="5" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="G204" s="1">
         <f>VLOOKUP(E204,[1]Лист1!$D:$M,10,0)</f>
@@ -9876,13 +9881,13 @@
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A205" s="11" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="B205" s="3" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="C205" s="3" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="D205" s="4">
         <v>4301070915</v>
@@ -9891,7 +9896,7 @@
         <v>4607111035882</v>
       </c>
       <c r="F205" s="5" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="G205" s="1">
         <f>VLOOKUP(E205,[1]Лист1!$D:$M,10,0)</f>
@@ -9900,13 +9905,13 @@
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A206" s="11" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="B206" s="3" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="C206" s="3" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="D206" s="4">
         <v>4301070915</v>
@@ -9915,7 +9920,7 @@
         <v>4607111035882</v>
       </c>
       <c r="F206" s="5" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="G206" s="1">
         <f>VLOOKUP(E206,[1]Лист1!$D:$M,10,0)</f>
@@ -9924,13 +9929,13 @@
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A207" s="11" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="B207" s="3" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="C207" s="3" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="D207" s="4">
         <v>4301070915</v>
@@ -9939,7 +9944,7 @@
         <v>4607111035882</v>
       </c>
       <c r="F207" s="5" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="G207" s="1">
         <f>VLOOKUP(E207,[1]Лист1!$D:$M,10,0)</f>
@@ -9948,13 +9953,13 @@
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A208" s="11" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="B208" s="3" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="C208" s="3" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="D208" s="4">
         <v>4301070874</v>
@@ -9963,7 +9968,7 @@
         <v>4607111035332</v>
       </c>
       <c r="F208" s="5" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="G208" s="1">
         <f>VLOOKUP(E208,[1]Лист1!$D:$M,10,0)</f>
@@ -9972,13 +9977,13 @@
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A209" s="11" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="B209" s="3" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="C209" s="3" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="D209" s="4">
         <v>4301070874</v>
@@ -9987,7 +9992,7 @@
         <v>4607111035332</v>
       </c>
       <c r="F209" s="5" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="G209" s="1">
         <f>VLOOKUP(E209,[1]Лист1!$D:$M,10,0)</f>
@@ -9996,13 +10001,13 @@
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A210" s="11" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="B210" s="3" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="C210" s="3" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="D210" s="4">
         <v>4301070874</v>
@@ -10011,7 +10016,7 @@
         <v>4607111035332</v>
       </c>
       <c r="F210" s="5" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="G210" s="1">
         <f>VLOOKUP(E210,[1]Лист1!$D:$M,10,0)</f>
@@ -10020,13 +10025,13 @@
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A211" s="11" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="B211" s="3" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="C211" s="3" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="D211" s="4">
         <v>4301136014</v>
@@ -10035,7 +10040,7 @@
         <v>4607111035370</v>
       </c>
       <c r="F211" s="5" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="G211" s="1">
         <f>VLOOKUP(E211,[1]Лист1!$D:$M,10,0)</f>
@@ -10044,13 +10049,13 @@
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A212" s="11" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="B212" s="3" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="C212" s="3" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="D212" s="4">
         <v>4301136014</v>
@@ -10059,7 +10064,7 @@
         <v>4607111035370</v>
       </c>
       <c r="F212" s="5" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="G212" s="1">
         <f>VLOOKUP(E212,[1]Лист1!$D:$M,10,0)</f>
@@ -10068,13 +10073,13 @@
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A213" s="11" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="B213" s="3" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="C213" s="3" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="D213" s="4">
         <v>4301136014</v>
@@ -10083,7 +10088,7 @@
         <v>4607111035370</v>
       </c>
       <c r="F213" s="5" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="G213" s="1">
         <f>VLOOKUP(E213,[1]Лист1!$D:$M,10,0)</f>
@@ -10092,13 +10097,13 @@
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A214" s="11" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="B214" s="3" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="C214" s="3" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="D214" s="4">
         <v>4301051320</v>
@@ -10107,7 +10112,7 @@
         <v>4680115881334</v>
       </c>
       <c r="F214" s="5" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="G214" s="1">
         <f>VLOOKUP(E214,[1]Лист1!$D:$M,10,0)</f>
@@ -10116,13 +10121,13 @@
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A215" s="11" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="B215" s="3" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="C215" s="3" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="D215" s="4">
         <v>4301051320</v>
@@ -10131,7 +10136,7 @@
         <v>4680115881334</v>
       </c>
       <c r="F215" s="5" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="G215" s="1">
         <f>VLOOKUP(E215,[1]Лист1!$D:$M,10,0)</f>
@@ -10140,13 +10145,13 @@
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A216" s="11" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="B216" s="3" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="C216" s="3" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="D216" s="4">
         <v>4301051320</v>
@@ -10155,7 +10160,7 @@
         <v>4680115881334</v>
       </c>
       <c r="F216" s="5" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="G216" s="1">
         <f>VLOOKUP(E216,[1]Лист1!$D:$M,10,0)</f>
@@ -10164,13 +10169,13 @@
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A217" s="11" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="B217" s="3" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="C217" s="3" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="D217" s="4">
         <v>4301051319</v>
@@ -10179,7 +10184,7 @@
         <v>4680115881204</v>
       </c>
       <c r="F217" s="5" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="G217" s="1">
         <f>VLOOKUP(E217,[1]Лист1!$D:$M,10,0)</f>
@@ -10188,13 +10193,13 @@
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A218" s="11" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="B218" s="3" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="C218" s="3" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="D218" s="4">
         <v>4301136027</v>
@@ -10203,7 +10208,7 @@
         <v>4640242180298</v>
       </c>
       <c r="F218" s="5" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="G218" s="1">
         <f>VLOOKUP(E218,[1]Лист1!$D:$M,10,0)</f>
@@ -10212,13 +10217,13 @@
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A219" s="11" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="B219" s="3" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="C219" s="3" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="D219" s="4">
         <v>4301130003</v>
@@ -10227,7 +10232,7 @@
         <v>4607111034687</v>
       </c>
       <c r="F219" s="5" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="G219" s="1">
         <f>VLOOKUP(E219,[1]Лист1!$D:$M,10,0)</f>
@@ -10236,13 +10241,13 @@
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A220" s="11" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="B220" s="3" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="C220" s="3" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="D220" s="4">
         <v>4301130003</v>
@@ -10251,7 +10256,7 @@
         <v>4607111034687</v>
       </c>
       <c r="F220" s="5" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="G220" s="1">
         <f>VLOOKUP(E220,[1]Лист1!$D:$M,10,0)</f>
@@ -10260,13 +10265,13 @@
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A221" s="11" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="B221" s="3" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="C221" s="3" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="D221" s="4">
         <v>4301130003</v>
@@ -10275,7 +10280,7 @@
         <v>4607111034687</v>
       </c>
       <c r="F221" s="5" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="G221" s="1">
         <f>VLOOKUP(E221,[1]Лист1!$D:$M,10,0)</f>
@@ -10284,13 +10289,13 @@
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A222" s="11" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="B222" s="3" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="C222" s="3" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="D222" s="4">
         <v>4301070977</v>
@@ -10299,7 +10304,7 @@
         <v>4607111037411</v>
       </c>
       <c r="F222" s="5" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="G222" s="1">
         <f>VLOOKUP(E222,[1]Лист1!$D:$M,10,0)</f>
@@ -10308,13 +10313,13 @@
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A223" s="11" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="B223" s="3" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="C223" s="3" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="D223" s="4">
         <v>4301070871</v>
@@ -10323,7 +10328,7 @@
         <v>4607111036384</v>
       </c>
       <c r="F223" s="5" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="G223" s="1">
         <f>VLOOKUP(E223,[1]Лист1!$D:$M,10,0)</f>
@@ -10332,13 +10337,13 @@
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A224" s="11" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="B224" s="3" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="C224" s="3" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="D224" s="4">
         <v>4301070871</v>
@@ -10347,7 +10352,7 @@
         <v>4607111036384</v>
       </c>
       <c r="F224" s="5" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="G224" s="1">
         <f>VLOOKUP(E224,[1]Лист1!$D:$M,10,0)</f>
@@ -10356,13 +10361,13 @@
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A225" s="11" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="B225" s="3" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="C225" s="3" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="D225" s="4">
         <v>4301135111</v>
@@ -10371,7 +10376,7 @@
         <v>4607111035028</v>
       </c>
       <c r="F225" s="5" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="G225" s="1">
         <f>VLOOKUP(E225,[1]Лист1!$D:$M,10,0)</f>
@@ -10380,13 +10385,13 @@
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A226" s="11" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="B226" s="3" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="C226" s="3" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="D226" s="4">
         <v>4301135111</v>
@@ -10395,7 +10400,7 @@
         <v>4607111035028</v>
       </c>
       <c r="F226" s="5" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="G226" s="1">
         <f>VLOOKUP(E226,[1]Лист1!$D:$M,10,0)</f>
@@ -10404,13 +10409,13 @@
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A227" s="11" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="B227" s="3" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="C227" s="3" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="D227" s="4">
         <v>4301130006</v>
@@ -10419,7 +10424,7 @@
         <v>4607111034670</v>
       </c>
       <c r="F227" s="5" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="G227" s="1">
         <f>VLOOKUP(E227,[1]Лист1!$D:$M,10,0)</f>
@@ -10428,13 +10433,13 @@
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A228" s="11" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="B228" s="3" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="C228" s="3" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="D228" s="4">
         <v>4301130006</v>
@@ -10443,7 +10448,7 @@
         <v>4607111034670</v>
       </c>
       <c r="F228" s="5" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="G228" s="1">
         <f>VLOOKUP(E228,[1]Лист1!$D:$M,10,0)</f>
@@ -10452,13 +10457,13 @@
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A229" s="11" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="B229" s="3" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="C229" s="3" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="D229" s="4">
         <v>4301130006</v>
@@ -10467,7 +10472,7 @@
         <v>4607111034670</v>
       </c>
       <c r="F229" s="5" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="G229" s="1">
         <f>VLOOKUP(E229,[1]Лист1!$D:$M,10,0)</f>
@@ -10476,13 +10481,13 @@
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A230" s="11" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="B230" s="3" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="C230" s="3" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="D230" s="4">
         <v>4301070768</v>
@@ -10491,7 +10496,7 @@
         <v>4607111035639</v>
       </c>
       <c r="F230" s="5" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="G230" s="1">
         <f>VLOOKUP(E230,[1]Лист1!$D:$M,10,0)</f>
@@ -10500,13 +10505,13 @@
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A231" s="11" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="B231" s="3" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="C231" s="3" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="D231" s="4">
         <v>4301070768</v>
@@ -10515,7 +10520,7 @@
         <v>4607111035639</v>
       </c>
       <c r="F231" s="5" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="G231" s="1">
         <f>VLOOKUP(E231,[1]Лист1!$D:$M,10,0)</f>
@@ -10524,13 +10529,13 @@
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A232" s="11" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="B232" s="3" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="C232" s="3" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="D232" s="4">
         <v>4301070797</v>
@@ -10539,7 +10544,7 @@
         <v>4607111035646</v>
       </c>
       <c r="F232" s="5" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="G232" s="1">
         <f>VLOOKUP(E232,[1]Лист1!$D:$M,10,0)</f>
@@ -10548,13 +10553,13 @@
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A233" s="11" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="B233" s="3" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="C233" s="3" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="D233" s="4">
         <v>4301070797</v>
@@ -10563,7 +10568,7 @@
         <v>4607111035646</v>
       </c>
       <c r="F233" s="5" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="G233" s="1">
         <f>VLOOKUP(E233,[1]Лист1!$D:$M,10,0)</f>
@@ -10572,13 +10577,13 @@
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A234" s="11" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="B234" s="3" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="C234" s="3" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="D234" s="4">
         <v>4301080154</v>
@@ -10587,7 +10592,7 @@
         <v>4607111036834</v>
       </c>
       <c r="F234" s="5" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="G234" s="1">
         <f>VLOOKUP(E234,[1]Лист1!$D:$M,10,0)</f>
@@ -10596,22 +10601,22 @@
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A235" s="11" t="s">
-        <v>439</v>
+        <v>426</v>
       </c>
       <c r="B235" s="3" t="s">
-        <v>440</v>
+        <v>427</v>
       </c>
       <c r="C235" s="3" t="s">
-        <v>441</v>
+        <v>428</v>
       </c>
       <c r="D235" s="4">
-        <v>4301070941</v>
+        <v>4301080154</v>
       </c>
       <c r="E235" s="3">
-        <v>4607111036162</v>
+        <v>4607111036834</v>
       </c>
       <c r="F235" s="5" t="s">
-        <v>442</v>
+        <v>429</v>
       </c>
       <c r="G235" s="1">
         <f>VLOOKUP(E235,[1]Лист1!$D:$M,10,0)</f>
@@ -10620,46 +10625,46 @@
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A236" s="11" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
       <c r="B236" s="3" t="s">
-        <v>444</v>
+        <v>435</v>
       </c>
       <c r="C236" s="3" t="s">
-        <v>445</v>
+        <v>436</v>
       </c>
       <c r="D236" s="4">
-        <v>4301070826</v>
+        <v>4301070941</v>
       </c>
       <c r="E236" s="3">
-        <v>4607111035752</v>
+        <v>4607111036162</v>
       </c>
       <c r="F236" s="5" t="s">
-        <v>446</v>
+        <v>437</v>
       </c>
       <c r="G236" s="1">
         <f>VLOOKUP(E236,[1]Лист1!$D:$M,10,0)</f>
-        <v>180</v>
+        <v>90</v>
       </c>
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A237" s="11" t="s">
-        <v>486</v>
+        <v>438</v>
       </c>
       <c r="B237" s="3" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
       <c r="C237" s="3" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
       <c r="D237" s="4">
-        <v>4301070966</v>
+        <v>4301070826</v>
       </c>
       <c r="E237" s="3">
-        <v>4607111038135</v>
+        <v>4607111035752</v>
       </c>
       <c r="F237" s="5" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="G237" s="1">
         <f>VLOOKUP(E237,[1]Лист1!$D:$M,10,0)</f>
@@ -10668,13 +10673,13 @@
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A238" s="11" t="s">
-        <v>540</v>
+        <v>481</v>
       </c>
       <c r="B238" s="3" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="C238" s="3" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="D238" s="4">
         <v>4301070966</v>
@@ -10683,7 +10688,7 @@
         <v>4607111038135</v>
       </c>
       <c r="F238" s="5" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="G238" s="1">
         <f>VLOOKUP(E238,[1]Лист1!$D:$M,10,0)</f>
@@ -10692,13 +10697,13 @@
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A239" s="11" t="s">
-        <v>447</v>
+        <v>535</v>
       </c>
       <c r="B239" s="3" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="C239" s="3" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="D239" s="4">
         <v>4301070966</v>
@@ -10707,7 +10712,7 @@
         <v>4607111038135</v>
       </c>
       <c r="F239" s="5" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="G239" s="1">
         <f>VLOOKUP(E239,[1]Лист1!$D:$M,10,0)</f>
@@ -10716,61 +10721,61 @@
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A240" s="11" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="B240" s="3" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="C240" s="3" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="D240" s="4">
-        <v>4301070911</v>
+        <v>4301070966</v>
       </c>
       <c r="E240" s="3">
-        <v>4607111036278</v>
+        <v>4607111038135</v>
       </c>
       <c r="F240" s="5" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="G240" s="1">
         <f>VLOOKUP(E240,[1]Лист1!$D:$M,10,0)</f>
-        <v>120</v>
+        <v>180</v>
       </c>
     </row>
     <row r="241" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A241" s="11" t="s">
-        <v>475</v>
+        <v>445</v>
       </c>
       <c r="B241" s="3" t="s">
-        <v>455</v>
+        <v>446</v>
       </c>
       <c r="C241" s="3" t="s">
-        <v>456</v>
+        <v>447</v>
       </c>
       <c r="D241" s="4">
-        <v>4301131019</v>
+        <v>4301070911</v>
       </c>
       <c r="E241" s="3">
-        <v>4640242180427</v>
+        <v>4607111036278</v>
       </c>
       <c r="F241" s="5" t="s">
-        <v>457</v>
+        <v>445</v>
       </c>
       <c r="G241" s="1">
         <f>VLOOKUP(E241,[1]Лист1!$D:$M,10,0)</f>
-        <v>180</v>
+        <v>120</v>
       </c>
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A242" s="11" t="s">
-        <v>454</v>
+        <v>470</v>
       </c>
       <c r="B242" s="3" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="C242" s="3" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="D242" s="4">
         <v>4301131019</v>
@@ -10779,7 +10784,7 @@
         <v>4640242180427</v>
       </c>
       <c r="F242" s="5" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="G242" s="1">
         <f>VLOOKUP(E242,[1]Лист1!$D:$M,10,0)</f>
@@ -10788,22 +10793,22 @@
     </row>
     <row r="243" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A243" s="11" t="s">
-        <v>514</v>
+        <v>449</v>
       </c>
       <c r="B243" s="3" t="s">
-        <v>512</v>
+        <v>450</v>
       </c>
       <c r="C243" s="3" t="s">
-        <v>513</v>
+        <v>451</v>
       </c>
       <c r="D243" s="4">
-        <v>4301132079</v>
+        <v>4301131019</v>
       </c>
       <c r="E243" s="3">
-        <v>4607111038487</v>
+        <v>4640242180427</v>
       </c>
       <c r="F243" s="5" t="s">
-        <v>514</v>
+        <v>452</v>
       </c>
       <c r="G243" s="1">
         <f>VLOOKUP(E243,[1]Лист1!$D:$M,10,0)</f>
@@ -10812,13 +10817,13 @@
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A244" s="11" t="s">
-        <v>543</v>
+        <v>509</v>
       </c>
       <c r="B244" s="3" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="C244" s="3" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="D244" s="4">
         <v>4301132079</v>
@@ -10827,7 +10832,7 @@
         <v>4607111038487</v>
       </c>
       <c r="F244" s="5" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="G244" s="1">
         <f>VLOOKUP(E244,[1]Лист1!$D:$M,10,0)</f>
@@ -10836,13 +10841,13 @@
     </row>
     <row r="245" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A245" s="11" t="s">
-        <v>546</v>
+        <v>538</v>
       </c>
       <c r="B245" s="3" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="C245" s="3" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="D245" s="4">
         <v>4301132079</v>
@@ -10851,7 +10856,7 @@
         <v>4607111038487</v>
       </c>
       <c r="F245" s="5" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="G245" s="1">
         <f>VLOOKUP(E245,[1]Лист1!$D:$M,10,0)</f>
@@ -10860,13 +10865,13 @@
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A246" s="11" t="s">
-        <v>511</v>
+        <v>541</v>
       </c>
       <c r="B246" s="3" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="C246" s="3" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="D246" s="4">
         <v>4301132079</v>
@@ -10875,7 +10880,7 @@
         <v>4607111038487</v>
       </c>
       <c r="F246" s="5" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="G246" s="1">
         <f>VLOOKUP(E246,[1]Лист1!$D:$M,10,0)</f>
@@ -10884,22 +10889,22 @@
     </row>
     <row r="247" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A247" s="11" t="s">
-        <v>523</v>
+        <v>506</v>
       </c>
       <c r="B247" s="3" t="s">
-        <v>524</v>
+        <v>507</v>
       </c>
       <c r="C247" s="3" t="s">
-        <v>525</v>
+        <v>508</v>
       </c>
       <c r="D247" s="4">
-        <v>4301070884</v>
+        <v>4301132079</v>
       </c>
       <c r="E247" s="3">
-        <v>4607111036315</v>
+        <v>4607111038487</v>
       </c>
       <c r="F247" s="5" t="s">
-        <v>526</v>
+        <v>509</v>
       </c>
       <c r="G247" s="1">
         <f>VLOOKUP(E247,[1]Лист1!$D:$M,10,0)</f>
@@ -10908,22 +10913,22 @@
     </row>
     <row r="248" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A248" s="11" t="s">
-        <v>528</v>
+        <v>518</v>
       </c>
       <c r="B248" s="3" t="s">
-        <v>529</v>
+        <v>519</v>
       </c>
       <c r="C248" s="3" t="s">
-        <v>530</v>
+        <v>520</v>
       </c>
       <c r="D248" s="4">
-        <v>4301133002</v>
+        <v>4301070884</v>
       </c>
       <c r="E248" s="3">
-        <v>4607111035783</v>
+        <v>4607111036315</v>
       </c>
       <c r="F248" s="5" t="s">
-        <v>531</v>
+        <v>521</v>
       </c>
       <c r="G248" s="1">
         <f>VLOOKUP(E248,[1]Лист1!$D:$M,10,0)</f>
@@ -10932,22 +10937,22 @@
     </row>
     <row r="249" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A249" s="11" t="s">
-        <v>534</v>
+        <v>523</v>
       </c>
       <c r="B249" s="3" t="s">
-        <v>535</v>
+        <v>524</v>
       </c>
       <c r="C249" s="3" t="s">
-        <v>536</v>
+        <v>525</v>
       </c>
       <c r="D249" s="4">
-        <v>4301070958</v>
+        <v>4301133002</v>
       </c>
       <c r="E249" s="3">
-        <v>4607111038098</v>
+        <v>4607111035783</v>
       </c>
       <c r="F249" s="5" t="s">
-        <v>537</v>
+        <v>526</v>
       </c>
       <c r="G249" s="1">
         <f>VLOOKUP(E249,[1]Лист1!$D:$M,10,0)</f>
@@ -10956,66 +10961,93 @@
     </row>
     <row r="250" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A250" s="11" t="s">
-        <v>553</v>
+        <v>529</v>
       </c>
       <c r="B250" s="3" t="s">
-        <v>554</v>
+        <v>530</v>
       </c>
       <c r="C250" s="3" t="s">
-        <v>555</v>
+        <v>531</v>
       </c>
       <c r="D250" s="4">
-        <v>4301135153</v>
+        <v>4301070958</v>
       </c>
       <c r="E250" s="3">
-        <v>4607111037480</v>
+        <v>4607111038098</v>
       </c>
       <c r="F250" s="5" t="s">
-        <v>556</v>
+        <v>532</v>
       </c>
       <c r="G250" s="1">
+        <f>VLOOKUP(E250,[1]Лист1!$D:$M,10,0)</f>
         <v>180</v>
       </c>
     </row>
     <row r="251" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A251" s="11" t="s">
-        <v>557</v>
+        <v>548</v>
       </c>
       <c r="B251" s="3" t="s">
-        <v>558</v>
+        <v>549</v>
       </c>
       <c r="C251" s="3" t="s">
+        <v>550</v>
+      </c>
+      <c r="D251" s="4">
+        <v>4301135153</v>
+      </c>
+      <c r="E251" s="3">
+        <v>4607111037480</v>
+      </c>
+      <c r="F251" s="5" t="s">
+        <v>551</v>
+      </c>
+      <c r="G251" s="1">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A252" s="11" t="s">
+        <v>552</v>
+      </c>
+      <c r="B252" s="3" t="s">
+        <v>553</v>
+      </c>
+      <c r="C252" s="3" t="s">
+        <v>554</v>
+      </c>
+      <c r="D252" s="4">
+        <v>4301135152</v>
+      </c>
+      <c r="E252" s="3">
+        <v>4607111037473</v>
+      </c>
+      <c r="F252" s="5" t="s">
+        <v>555</v>
+      </c>
+      <c r="G252" s="1">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A253" s="11" t="s">
         <v>559</v>
       </c>
-      <c r="D251" s="4">
-        <v>4301135152</v>
-      </c>
-      <c r="E251" s="3">
-        <v>4607111037473</v>
-      </c>
-      <c r="F251" s="5" t="s">
+      <c r="B253" s="3" t="s">
         <v>560</v>
       </c>
-      <c r="G251" s="1">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A252" s="11"/>
-      <c r="B252" s="3"/>
-      <c r="C252" s="3"/>
-      <c r="D252" s="4"/>
-      <c r="E252" s="3"/>
-      <c r="F252" s="5"/>
-      <c r="G252" s="1"/>
-    </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A253" s="11"/>
-      <c r="B253" s="3"/>
-      <c r="C253" s="3"/>
-      <c r="D253" s="4"/>
-      <c r="E253" s="3"/>
-      <c r="F253" s="5"/>
+      <c r="C253" s="3" t="s">
+        <v>561</v>
+      </c>
+      <c r="D253" s="4">
+        <v>4301135198</v>
+      </c>
+      <c r="E253" s="3">
+        <v>4640242180663</v>
+      </c>
+      <c r="F253" s="5" t="s">
+        <v>562</v>
+      </c>
       <c r="G253" s="1"/>
     </row>
     <row r="254" spans="1:7" x14ac:dyDescent="0.25">
@@ -11047,20 +11079,20 @@
     </row>
     <row r="257" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A257" s="11"/>
-      <c r="B257" s="13"/>
-      <c r="C257" s="13"/>
-      <c r="D257" s="14"/>
-      <c r="E257" s="15"/>
-      <c r="F257" s="16"/>
+      <c r="B257" s="3"/>
+      <c r="C257" s="3"/>
+      <c r="D257" s="4"/>
+      <c r="E257" s="3"/>
+      <c r="F257" s="5"/>
       <c r="G257" s="1"/>
     </row>
     <row r="258" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A258" s="11"/>
-      <c r="B258" s="3"/>
-      <c r="C258" s="3"/>
-      <c r="D258" s="4"/>
-      <c r="E258" s="3"/>
-      <c r="F258" s="5"/>
+      <c r="B258" s="13"/>
+      <c r="C258" s="13"/>
+      <c r="D258" s="14"/>
+      <c r="E258" s="15"/>
+      <c r="F258" s="16"/>
       <c r="G258" s="1"/>
     </row>
     <row r="259" spans="1:7" x14ac:dyDescent="0.25">
@@ -11128,20 +11160,20 @@
     </row>
     <row r="266" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A266" s="11"/>
-      <c r="B266" s="13"/>
-      <c r="C266" s="13"/>
-      <c r="D266" s="14"/>
-      <c r="E266" s="15"/>
-      <c r="F266" s="16"/>
+      <c r="B266" s="3"/>
+      <c r="C266" s="3"/>
+      <c r="D266" s="4"/>
+      <c r="E266" s="3"/>
+      <c r="F266" s="5"/>
       <c r="G266" s="1"/>
     </row>
     <row r="267" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A267" s="11"/>
-      <c r="B267" s="3"/>
-      <c r="C267" s="3"/>
-      <c r="D267" s="4"/>
-      <c r="E267" s="3"/>
-      <c r="F267" s="5"/>
+      <c r="B267" s="13"/>
+      <c r="C267" s="13"/>
+      <c r="D267" s="14"/>
+      <c r="E267" s="15"/>
+      <c r="F267" s="16"/>
       <c r="G267" s="1"/>
     </row>
     <row r="268" spans="1:7" x14ac:dyDescent="0.25">
@@ -11196,7 +11228,7 @@
       <c r="D273" s="4"/>
       <c r="E273" s="3"/>
       <c r="F273" s="5"/>
-      <c r="G273" s="6"/>
+      <c r="G273" s="1"/>
     </row>
     <row r="274" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A274" s="11"/>
@@ -11205,7 +11237,7 @@
       <c r="D274" s="4"/>
       <c r="E274" s="3"/>
       <c r="F274" s="5"/>
-      <c r="G274" s="1"/>
+      <c r="G274" s="6"/>
     </row>
     <row r="275" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A275" s="11"/>
@@ -11821,11 +11853,11 @@
     </row>
     <row r="343" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A343" s="11"/>
-      <c r="B343" s="1"/>
-      <c r="C343" s="1"/>
-      <c r="D343" s="1"/>
-      <c r="E343" s="1"/>
-      <c r="F343" s="1"/>
+      <c r="B343" s="3"/>
+      <c r="C343" s="3"/>
+      <c r="D343" s="4"/>
+      <c r="E343" s="3"/>
+      <c r="F343" s="5"/>
       <c r="G343" s="1"/>
     </row>
     <row r="344" spans="1:7" x14ac:dyDescent="0.25">
@@ -11846,8 +11878,17 @@
       <c r="F345" s="1"/>
       <c r="G345" s="1"/>
     </row>
+    <row r="346" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A346" s="11"/>
+      <c r="B346" s="1"/>
+      <c r="C346" s="1"/>
+      <c r="D346" s="1"/>
+      <c r="E346" s="1"/>
+      <c r="F346" s="1"/>
+      <c r="G346" s="1"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:F251" xr:uid="{08353A06-E006-45C7-BD45-850F7C3953DF}">
+  <autoFilter ref="A1:F253" xr:uid="{08353A06-E006-45C7-BD45-850F7C3953DF}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F204">
       <sortCondition ref="A1:A143"/>
     </sortState>

--- a/moduls/1С.xlsx
+++ b/moduls/1С.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\перенос данных\ПОКОМ ЗПФ\pokom_zpf\moduls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{839BBEAC-6BF5-4C32-B460-3E6F6FC00AB0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34C7E09D-D85B-4F79-94CA-66394DBB7E88}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -946,15 +946,6 @@
     <t>Жар-ладушки с клубникой и вишней. Изделия хлебобулочные жареные с начинкой замороженные</t>
   </si>
   <si>
-    <t>SU002567</t>
-  </si>
-  <si>
-    <t>P002879</t>
-  </si>
-  <si>
-    <t>«Круггетсы Сочные» Фикс.вес 0,25 Лоток ТМ «Горячая штучка»</t>
-  </si>
-  <si>
     <t>SU002920</t>
   </si>
   <si>
@@ -1736,6 +1727,15 @@
   </si>
   <si>
     <t>«Чебупай сочное яблоко» Фикс.вес 0,2 Лоток ТМ «Горячая штучка»</t>
+  </si>
+  <si>
+    <t>SU000195</t>
+  </si>
+  <si>
+    <t>P003378</t>
+  </si>
+  <si>
+    <t>«Круггетсы Сочные» Фикс.вес 0,25 ф/п ТМ «Горячая штучка»</t>
   </si>
 </sst>
 </file>
@@ -4968,11 +4968,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:G346"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I4" sqref="I4"/>
+      <selection pane="bottomLeft" activeCell="F263" sqref="F263"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5005,12 +5006,12 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>148</v>
@@ -5032,9 +5033,9 @@
         <v>90</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>148</v>
@@ -5056,7 +5057,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>150</v>
       </c>
@@ -5080,9 +5081,9 @@
         <v>90</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>148</v>
@@ -5104,7 +5105,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>147</v>
       </c>
@@ -5128,9 +5129,9 @@
         <v>90</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>246</v>
@@ -5152,9 +5153,9 @@
         <v>180</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>246</v>
@@ -5176,7 +5177,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>214</v>
       </c>
@@ -5200,7 +5201,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
         <v>215</v>
       </c>
@@ -5224,7 +5225,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
         <v>216</v>
       </c>
@@ -5248,7 +5249,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
         <v>73</v>
       </c>
@@ -5272,7 +5273,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
         <v>98</v>
       </c>
@@ -5296,7 +5297,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
         <v>217</v>
       </c>
@@ -5320,7 +5321,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
         <v>251</v>
       </c>
@@ -5344,9 +5345,9 @@
         <v>180</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>249</v>
@@ -5368,9 +5369,9 @@
         <v>180</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>249</v>
@@ -5392,7 +5393,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
         <v>218</v>
       </c>
@@ -5416,7 +5417,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
         <v>74</v>
       </c>
@@ -5440,7 +5441,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
         <v>101</v>
       </c>
@@ -5464,7 +5465,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
         <v>219</v>
       </c>
@@ -5488,7 +5489,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
         <v>154</v>
       </c>
@@ -5512,7 +5513,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
         <v>151</v>
       </c>
@@ -5536,7 +5537,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="11" t="s">
         <v>220</v>
       </c>
@@ -5560,9 +5561,9 @@
         <v>180</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="11" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>252</v>
@@ -5584,9 +5585,9 @@
         <v>180</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="11" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>252</v>
@@ -5608,7 +5609,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="11" t="s">
         <v>221</v>
       </c>
@@ -5632,7 +5633,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="11" t="s">
         <v>195</v>
       </c>
@@ -5656,7 +5657,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="11" t="s">
         <v>196</v>
       </c>
@@ -5680,15 +5681,15 @@
         <v>180</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="11" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="D30" s="4">
         <v>4301136029</v>
@@ -5697,22 +5698,22 @@
         <v>4640242180410</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="G30" s="1">
         <f>VLOOKUP(E30,[1]Лист1!$D:$M,10,0)</f>
         <v>180</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="11" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="D31" s="4">
         <v>4301136029</v>
@@ -5721,22 +5722,22 @@
         <v>4640242180410</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="G31" s="1">
         <f>VLOOKUP(E31,[1]Лист1!$D:$M,10,0)</f>
         <v>180</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="11" t="s">
         <v>155</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="D32" s="4">
         <v>4301136029</v>
@@ -5745,22 +5746,22 @@
         <v>4640242180410</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="G32" s="1">
         <f>VLOOKUP(E32,[1]Лист1!$D:$M,10,0)</f>
         <v>180</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="11" t="s">
         <v>156</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="D33" s="4">
         <v>4301135191</v>
@@ -5769,22 +5770,22 @@
         <v>4640242180373</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="G33" s="1">
         <f>VLOOKUP(E33,[1]Лист1!$D:$M,10,0)</f>
         <v>180</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="11" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="D34" s="4">
         <v>4301135191</v>
@@ -5793,22 +5794,22 @@
         <v>4640242180373</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="G34" s="1">
         <f>VLOOKUP(E34,[1]Лист1!$D:$M,10,0)</f>
         <v>180</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="11" t="s">
         <v>136</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="D35" s="4">
         <v>4301135191</v>
@@ -5817,22 +5818,22 @@
         <v>4640242180373</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="G35" s="1">
         <f>VLOOKUP(E35,[1]Лист1!$D:$M,10,0)</f>
         <v>180</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="11" t="s">
         <v>301</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="D36" s="4">
         <v>4301135195</v>
@@ -5841,22 +5842,22 @@
         <v>4640242180366</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="G36" s="1">
         <f>VLOOKUP(E36,[1]Лист1!$D:$M,10,0)</f>
         <v>180</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="11" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="D37" s="4">
         <v>4301135195</v>
@@ -5865,22 +5866,22 @@
         <v>4640242180366</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="G37" s="1">
         <f>VLOOKUP(E37,[1]Лист1!$D:$M,10,0)</f>
         <v>180</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="11" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="D38" s="4">
         <v>4301135195</v>
@@ -5889,22 +5890,22 @@
         <v>4640242180366</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="G38" s="1">
         <f>VLOOKUP(E38,[1]Лист1!$D:$M,10,0)</f>
         <v>180</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="11" t="s">
         <v>157</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="D39" s="4">
         <v>4301135195</v>
@@ -5913,22 +5914,22 @@
         <v>4640242180366</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="G39" s="1">
         <f>VLOOKUP(E39,[1]Лист1!$D:$M,10,0)</f>
         <v>180</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="11" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="D40" s="4">
         <v>4301135189</v>
@@ -5937,22 +5938,22 @@
         <v>4640242180342</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="G40" s="1">
         <f>VLOOKUP(E40,[1]Лист1!$D:$M,10,0)</f>
         <v>180</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="11" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="D41" s="4">
         <v>4301135189</v>
@@ -5961,22 +5962,22 @@
         <v>4640242180342</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="G41" s="1">
         <f>VLOOKUP(E41,[1]Лист1!$D:$M,10,0)</f>
         <v>180</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="11" t="s">
         <v>158</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="D42" s="4">
         <v>4301135189</v>
@@ -5985,22 +5986,22 @@
         <v>4640242180342</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="G42" s="1">
         <f>VLOOKUP(E42,[1]Лист1!$D:$M,10,0)</f>
         <v>180</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="11" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="D43" s="4">
         <v>4301135188</v>
@@ -6009,22 +6010,22 @@
         <v>4640242180335</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="G43" s="1">
         <f>VLOOKUP(E43,[1]Лист1!$D:$M,10,0)</f>
         <v>180</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="11" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="D44" s="4">
         <v>4301135188</v>
@@ -6033,22 +6034,22 @@
         <v>4640242180335</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="G44" s="1">
         <f>VLOOKUP(E44,[1]Лист1!$D:$M,10,0)</f>
         <v>180</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="11" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="D45" s="4">
         <v>4301135188</v>
@@ -6057,22 +6058,22 @@
         <v>4640242180335</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="G45" s="1">
         <f>VLOOKUP(E45,[1]Лист1!$D:$M,10,0)</f>
         <v>180</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="11" t="s">
         <v>159</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="D46" s="4">
         <v>4301135188</v>
@@ -6081,22 +6082,22 @@
         <v>4640242180335</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="G46" s="1">
         <f>VLOOKUP(E46,[1]Лист1!$D:$M,10,0)</f>
         <v>180</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="11" t="s">
         <v>160</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="D47" s="4">
         <v>4301135190</v>
@@ -6105,22 +6106,22 @@
         <v>4640242180359</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="G47" s="1">
         <f>VLOOKUP(E47,[1]Лист1!$D:$M,10,0)</f>
         <v>180</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="11" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="D48" s="4">
         <v>4301135190</v>
@@ -6129,22 +6130,22 @@
         <v>4640242180359</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="G48" s="1">
         <f>VLOOKUP(E48,[1]Лист1!$D:$M,10,0)</f>
         <v>180</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="11" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="D49" s="4">
         <v>4301135190</v>
@@ -6153,22 +6154,22 @@
         <v>4640242180359</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="G49" s="1">
         <f>VLOOKUP(E49,[1]Лист1!$D:$M,10,0)</f>
         <v>180</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="11" t="s">
         <v>137</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="D50" s="4">
         <v>4301135190</v>
@@ -6177,22 +6178,22 @@
         <v>4640242180359</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="G50" s="1">
         <f>VLOOKUP(E50,[1]Лист1!$D:$M,10,0)</f>
         <v>180</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="11" t="s">
         <v>91</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="D51" s="4">
         <v>4301135186</v>
@@ -6201,22 +6202,22 @@
         <v>4640242180311</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="G51" s="1">
         <f>VLOOKUP(E51,[1]Лист1!$D:$M,10,0)</f>
         <v>180</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="11" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="D52" s="4">
         <v>4301135186</v>
@@ -6225,22 +6226,22 @@
         <v>4640242180311</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="G52" s="1">
         <f>VLOOKUP(E52,[1]Лист1!$D:$M,10,0)</f>
         <v>180</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="11" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="D53" s="4">
         <v>4301135186</v>
@@ -6249,22 +6250,22 @@
         <v>4640242180311</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="G53" s="1">
         <f>VLOOKUP(E53,[1]Лист1!$D:$M,10,0)</f>
         <v>180</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="11" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="D54" s="4">
         <v>4301135186</v>
@@ -6273,22 +6274,22 @@
         <v>4640242180311</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="G54" s="1">
         <f>VLOOKUP(E54,[1]Лист1!$D:$M,10,0)</f>
         <v>180</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="11" t="s">
         <v>222</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="D55" s="4">
         <v>4301135186</v>
@@ -6297,22 +6298,22 @@
         <v>4640242180311</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="G55" s="1">
         <f>VLOOKUP(E55,[1]Лист1!$D:$M,10,0)</f>
         <v>180</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="11" t="s">
         <v>223</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="D56" s="4">
         <v>4301135187</v>
@@ -6321,22 +6322,22 @@
         <v>4640242180328</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="G56" s="1">
         <f>VLOOKUP(E56,[1]Лист1!$D:$M,10,0)</f>
         <v>180</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="11" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="D57" s="4">
         <v>4301135187</v>
@@ -6345,22 +6346,22 @@
         <v>4640242180328</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="G57" s="1">
         <f>VLOOKUP(E57,[1]Лист1!$D:$M,10,0)</f>
         <v>180</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="11" t="s">
         <v>197</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="D58" s="4">
         <v>4301135187</v>
@@ -6369,22 +6370,22 @@
         <v>4640242180328</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="G58" s="1">
         <f>VLOOKUP(E58,[1]Лист1!$D:$M,10,0)</f>
         <v>180</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="11" t="s">
         <v>224</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="D59" s="4">
         <v>4301135181</v>
@@ -6393,22 +6394,22 @@
         <v>4607111034380</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="G59" s="1">
         <f>VLOOKUP(E59,[1]Лист1!$D:$M,10,0)</f>
         <v>180</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="11" t="s">
         <v>161</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="D60" s="4">
         <v>4301135181</v>
@@ -6417,7 +6418,7 @@
         <v>4607111034380</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="G60" s="1">
         <f>VLOOKUP(E60,[1]Лист1!$D:$M,10,0)</f>
@@ -6429,19 +6430,19 @@
         <v>276</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>302</v>
+        <v>563</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>303</v>
+        <v>564</v>
       </c>
       <c r="D61" s="4">
-        <v>4301135114</v>
+        <v>4301135180</v>
       </c>
       <c r="E61" s="3">
         <v>4607111034397</v>
       </c>
       <c r="F61" s="5" t="s">
-        <v>304</v>
+        <v>565</v>
       </c>
       <c r="G61" s="1">
         <f>VLOOKUP(E61,[1]Лист1!$D:$M,10,0)</f>
@@ -6453,19 +6454,19 @@
         <v>225</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>302</v>
+        <v>563</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>303</v>
+        <v>564</v>
       </c>
       <c r="D62" s="4">
-        <v>4301135114</v>
+        <v>4301135180</v>
       </c>
       <c r="E62" s="3">
         <v>4607111034397</v>
       </c>
       <c r="F62" s="5" t="s">
-        <v>304</v>
+        <v>565</v>
       </c>
       <c r="G62" s="1">
         <f>VLOOKUP(E62,[1]Лист1!$D:$M,10,0)</f>
@@ -6477,26 +6478,26 @@
         <v>75</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>302</v>
+        <v>563</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>303</v>
+        <v>564</v>
       </c>
       <c r="D63" s="4">
-        <v>4301135114</v>
+        <v>4301135180</v>
       </c>
       <c r="E63" s="3">
         <v>4607111034397</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>304</v>
+        <v>565</v>
       </c>
       <c r="G63" s="1">
         <f>VLOOKUP(E63,[1]Лист1!$D:$M,10,0)</f>
         <v>180</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="11" t="s">
         <v>138</v>
       </c>
@@ -6520,7 +6521,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="11" t="s">
         <v>143</v>
       </c>
@@ -6544,7 +6545,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="11" t="s">
         <v>226</v>
       </c>
@@ -6568,7 +6569,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="11" t="s">
         <v>139</v>
       </c>
@@ -6592,7 +6593,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="11" t="s">
         <v>146</v>
       </c>
@@ -6616,7 +6617,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="11" t="s">
         <v>227</v>
       </c>
@@ -6640,15 +6641,15 @@
         <v>180</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="11" t="s">
         <v>228</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="D70" s="4">
         <v>4301135192</v>
@@ -6657,22 +6658,22 @@
         <v>4640242180380</v>
       </c>
       <c r="F70" s="5" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="G70" s="1">
         <f>VLOOKUP(E70,[1]Лист1!$D:$M,10,0)</f>
         <v>180</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="11" t="s">
         <v>274</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="D71" s="4">
         <v>4301135192</v>
@@ -6681,22 +6682,22 @@
         <v>4640242180380</v>
       </c>
       <c r="F71" s="5" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="G71" s="1">
         <f>VLOOKUP(E71,[1]Лист1!$D:$M,10,0)</f>
         <v>180</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="11" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="D72" s="4">
         <v>4301135192</v>
@@ -6705,22 +6706,22 @@
         <v>4640242180380</v>
       </c>
       <c r="F72" s="5" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="G72" s="1">
         <f>VLOOKUP(E72,[1]Лист1!$D:$M,10,0)</f>
         <v>180</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="11" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="D73" s="4">
         <v>4301135192</v>
@@ -6729,22 +6730,22 @@
         <v>4640242180380</v>
       </c>
       <c r="F73" s="5" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="G73" s="1">
         <f>VLOOKUP(E73,[1]Лист1!$D:$M,10,0)</f>
         <v>180</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="11" t="s">
         <v>76</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="D74" s="4">
         <v>4301135192</v>
@@ -6753,14 +6754,14 @@
         <v>4640242180380</v>
       </c>
       <c r="F74" s="5" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="G74" s="1">
         <f>VLOOKUP(E74,[1]Лист1!$D:$M,10,0)</f>
         <v>180</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="11" t="s">
         <v>257</v>
       </c>
@@ -6784,9 +6785,9 @@
         <v>180</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="11" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="B76" s="3" t="s">
         <v>255</v>
@@ -6808,9 +6809,9 @@
         <v>180</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="11" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="B77" s="3" t="s">
         <v>255</v>
@@ -6832,7 +6833,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="11" t="s">
         <v>229</v>
       </c>
@@ -6856,9 +6857,9 @@
         <v>180</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="11" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="B79" s="3" t="s">
         <v>258</v>
@@ -6880,7 +6881,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="11" t="s">
         <v>230</v>
       </c>
@@ -6904,9 +6905,9 @@
         <v>180</v>
       </c>
     </row>
-    <row r="81" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="11" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="B81" s="3" t="s">
         <v>261</v>
@@ -6928,7 +6929,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="82" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="11" t="s">
         <v>231</v>
       </c>
@@ -6952,7 +6953,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="11" t="s">
         <v>232</v>
       </c>
@@ -6976,7 +6977,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="11" t="s">
         <v>104</v>
       </c>
@@ -7000,7 +7001,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="11" t="s">
         <v>77</v>
       </c>
@@ -7024,7 +7025,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="11" t="s">
         <v>107</v>
       </c>
@@ -7048,7 +7049,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="11" t="s">
         <v>78</v>
       </c>
@@ -7072,7 +7073,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="11" t="s">
         <v>79</v>
       </c>
@@ -7096,15 +7097,15 @@
         <v>180</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="11" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="D89" s="4">
         <v>4301132080</v>
@@ -7113,22 +7114,22 @@
         <v>4640242180397</v>
       </c>
       <c r="F89" s="5" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="G89" s="1">
         <f>VLOOKUP(E89,[1]Лист1!$D:$M,10,0)</f>
         <v>180</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="11" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="D90" s="4">
         <v>4301132080</v>
@@ -7137,22 +7138,22 @@
         <v>4640242180397</v>
       </c>
       <c r="F90" s="5" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="G90" s="1">
         <f>VLOOKUP(E90,[1]Лист1!$D:$M,10,0)</f>
         <v>180</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="11" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="D91" s="4">
         <v>4301132080</v>
@@ -7161,22 +7162,22 @@
         <v>4640242180397</v>
       </c>
       <c r="F91" s="5" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="G91" s="1">
         <f>VLOOKUP(E91,[1]Лист1!$D:$M,10,0)</f>
         <v>180</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" s="11" t="s">
         <v>80</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="D92" s="4">
         <v>4301132080</v>
@@ -7185,16 +7186,16 @@
         <v>4640242180397</v>
       </c>
       <c r="F92" s="5" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="G92" s="1">
         <f>VLOOKUP(E92,[1]Лист1!$D:$M,10,0)</f>
         <v>180</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" s="11" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="B93" s="3" t="s">
         <v>264</v>
@@ -7216,9 +7217,9 @@
         <v>180</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="11" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="B94" s="3" t="s">
         <v>264</v>
@@ -7240,9 +7241,9 @@
         <v>180</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" s="11" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="B95" s="3" t="s">
         <v>264</v>
@@ -7264,9 +7265,9 @@
         <v>180</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" s="11" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="B96" s="3" t="s">
         <v>264</v>
@@ -7288,7 +7289,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" s="11" t="s">
         <v>233</v>
       </c>
@@ -7312,9 +7313,9 @@
         <v>180</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="11" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="B98" s="3" t="s">
         <v>267</v>
@@ -7336,9 +7337,9 @@
         <v>180</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" s="11" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="B99" s="3" t="s">
         <v>267</v>
@@ -7360,7 +7361,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" s="11" t="s">
         <v>269</v>
       </c>
@@ -7384,9 +7385,9 @@
         <v>180</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" s="11" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="B101" s="3" t="s">
         <v>267</v>
@@ -7408,7 +7409,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" s="11" t="s">
         <v>235</v>
       </c>
@@ -7432,7 +7433,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="11" t="s">
         <v>170</v>
       </c>
@@ -7440,7 +7441,7 @@
         <v>169</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="D103" s="4">
         <v>4301070970</v>
@@ -7449,14 +7450,14 @@
         <v>4607111037091</v>
       </c>
       <c r="F103" s="5" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="G103" s="1">
         <f>VLOOKUP(E103,[1]Лист1!$D:$M,10,0)</f>
         <v>180</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" s="11" t="s">
         <v>168</v>
       </c>
@@ -7464,7 +7465,7 @@
         <v>169</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="D104" s="4">
         <v>4301070970</v>
@@ -7473,22 +7474,22 @@
         <v>4607111037091</v>
       </c>
       <c r="F104" s="5" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="G104" s="1">
         <f>VLOOKUP(E104,[1]Лист1!$D:$M,10,0)</f>
         <v>180</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" s="11" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="B105" s="3" t="s">
         <v>169</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="D105" s="4">
         <v>4301070970</v>
@@ -7497,22 +7498,22 @@
         <v>4607111037091</v>
       </c>
       <c r="F105" s="5" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="G105" s="1">
         <f>VLOOKUP(E105,[1]Лист1!$D:$M,10,0)</f>
         <v>180</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" s="11" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="B106" s="3" t="s">
         <v>169</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="D106" s="4">
         <v>4301070970</v>
@@ -7521,14 +7522,14 @@
         <v>4607111037091</v>
       </c>
       <c r="F106" s="5" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="G106" s="1">
         <f>VLOOKUP(E106,[1]Лист1!$D:$M,10,0)</f>
         <v>180</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" s="11" t="s">
         <v>236</v>
       </c>
@@ -7536,7 +7537,7 @@
         <v>169</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="D107" s="4">
         <v>4301070970</v>
@@ -7545,14 +7546,14 @@
         <v>4607111037091</v>
       </c>
       <c r="F107" s="5" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="G107" s="1">
         <f>VLOOKUP(E107,[1]Лист1!$D:$M,10,0)</f>
         <v>180</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" s="11" t="s">
         <v>87</v>
       </c>
@@ -7560,7 +7561,7 @@
         <v>119</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="D108" s="4">
         <v>4301070973</v>
@@ -7569,22 +7570,22 @@
         <v>4607111033987</v>
       </c>
       <c r="F108" s="5" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="G108" s="1">
         <f>VLOOKUP(E108,[1]Лист1!$D:$M,10,0)</f>
         <v>180</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" s="11" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="B109" s="3" t="s">
         <v>119</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="D109" s="4">
         <v>4301070973</v>
@@ -7593,14 +7594,14 @@
         <v>4607111033987</v>
       </c>
       <c r="F109" s="5" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="G109" s="1">
         <f>VLOOKUP(E109,[1]Лист1!$D:$M,10,0)</f>
         <v>180</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="11" t="s">
         <v>238</v>
       </c>
@@ -7608,7 +7609,7 @@
         <v>119</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="D110" s="4">
         <v>4301070973</v>
@@ -7617,16 +7618,16 @@
         <v>4607111033987</v>
       </c>
       <c r="F110" s="5" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="G110" s="1">
         <f>VLOOKUP(E110,[1]Лист1!$D:$M,10,0)</f>
         <v>180</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" s="11" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="B111" s="3" t="s">
         <v>270</v>
@@ -7648,9 +7649,9 @@
         <v>180</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" s="11" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="B112" s="3" t="s">
         <v>270</v>
@@ -7672,7 +7673,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" s="11" t="s">
         <v>239</v>
       </c>
@@ -7696,7 +7697,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" s="11" t="s">
         <v>81</v>
       </c>
@@ -7720,9 +7721,9 @@
         <v>180</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" s="11" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="B115" s="3" t="s">
         <v>111</v>
@@ -7744,7 +7745,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" s="11" t="s">
         <v>240</v>
       </c>
@@ -7768,7 +7769,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="11" t="s">
         <v>86</v>
       </c>
@@ -7776,7 +7777,7 @@
         <v>118</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="D117" s="4">
         <v>4301070974</v>
@@ -7785,22 +7786,22 @@
         <v>4607111034151</v>
       </c>
       <c r="F117" s="5" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="G117" s="1">
         <f>VLOOKUP(E117,[1]Лист1!$D:$M,10,0)</f>
         <v>180</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" s="11" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="B118" s="3" t="s">
         <v>118</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="D118" s="4">
         <v>4301070974</v>
@@ -7809,14 +7810,14 @@
         <v>4607111034151</v>
       </c>
       <c r="F118" s="5" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="G118" s="1">
         <f>VLOOKUP(E118,[1]Лист1!$D:$M,10,0)</f>
         <v>180</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" s="11" t="s">
         <v>243</v>
       </c>
@@ -7824,7 +7825,7 @@
         <v>118</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="D119" s="4">
         <v>4301070974</v>
@@ -7833,14 +7834,14 @@
         <v>4607111034151</v>
       </c>
       <c r="F119" s="5" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="G119" s="1">
         <f>VLOOKUP(E119,[1]Лист1!$D:$M,10,0)</f>
         <v>180</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" s="11" t="s">
         <v>234</v>
       </c>
@@ -7848,7 +7849,7 @@
         <v>163</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="D120" s="4">
         <v>4301070989</v>
@@ -7857,22 +7858,22 @@
         <v>4607111037190</v>
       </c>
       <c r="F120" s="5" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="G120" s="1">
         <f>VLOOKUP(E120,[1]Лист1!$D:$M,10,0)</f>
         <v>180</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" s="11" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="B121" s="3" t="s">
         <v>163</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="D121" s="4">
         <v>4301070989</v>
@@ -7881,14 +7882,14 @@
         <v>4607111037190</v>
       </c>
       <c r="F121" s="5" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="G121" s="1">
         <f>VLOOKUP(E121,[1]Лист1!$D:$M,10,0)</f>
         <v>180</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" s="11" t="s">
         <v>162</v>
       </c>
@@ -7896,7 +7897,7 @@
         <v>163</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="D122" s="4">
         <v>4301070989</v>
@@ -7905,14 +7906,14 @@
         <v>4607111037190</v>
       </c>
       <c r="F122" s="5" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="G122" s="1">
         <f>VLOOKUP(E122,[1]Лист1!$D:$M,10,0)</f>
         <v>180</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" s="11" t="s">
         <v>241</v>
       </c>
@@ -7920,7 +7921,7 @@
         <v>165</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="D123" s="4">
         <v>4301070972</v>
@@ -7929,22 +7930,22 @@
         <v>4607111037183</v>
       </c>
       <c r="F123" s="5" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="G123" s="1">
         <f>VLOOKUP(E123,[1]Лист1!$D:$M,10,0)</f>
         <v>180</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" s="11" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="B124" s="3" t="s">
         <v>165</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="D124" s="4">
         <v>4301070972</v>
@@ -7953,14 +7954,14 @@
         <v>4607111037183</v>
       </c>
       <c r="F124" s="5" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="G124" s="1">
         <f>VLOOKUP(E124,[1]Лист1!$D:$M,10,0)</f>
         <v>180</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" s="11" t="s">
         <v>164</v>
       </c>
@@ -7968,7 +7969,7 @@
         <v>165</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="D125" s="4">
         <v>4301070972</v>
@@ -7977,22 +7978,22 @@
         <v>4607111037183</v>
       </c>
       <c r="F125" s="5" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="G125" s="1">
         <f>VLOOKUP(E125,[1]Лист1!$D:$M,10,0)</f>
         <v>180</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" s="11" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="B126" s="3" t="s">
         <v>167</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="D126" s="4">
         <v>4301070969</v>
@@ -8001,22 +8002,22 @@
         <v>4607111036858</v>
       </c>
       <c r="F126" s="5" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="G126" s="1">
         <f>VLOOKUP(E126,[1]Лист1!$D:$M,10,0)</f>
         <v>180</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" s="11" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="B127" s="3" t="s">
         <v>167</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="D127" s="4">
         <v>4301070969</v>
@@ -8025,14 +8026,14 @@
         <v>4607111036858</v>
       </c>
       <c r="F127" s="5" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="G127" s="1">
         <f>VLOOKUP(E127,[1]Лист1!$D:$M,10,0)</f>
         <v>180</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" s="11" t="s">
         <v>166</v>
       </c>
@@ -8040,7 +8041,7 @@
         <v>167</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="D128" s="4">
         <v>4301070969</v>
@@ -8049,14 +8050,14 @@
         <v>4607111036858</v>
       </c>
       <c r="F128" s="5" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="G128" s="1">
         <f>VLOOKUP(E128,[1]Лист1!$D:$M,10,0)</f>
         <v>180</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" s="11" t="s">
         <v>82</v>
       </c>
@@ -8064,7 +8065,7 @@
         <v>114</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="D129" s="4">
         <v>4301070968</v>
@@ -8073,14 +8074,14 @@
         <v>4607111036889</v>
       </c>
       <c r="F129" s="5" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="G129" s="1">
         <f>VLOOKUP(E129,[1]Лист1!$D:$M,10,0)</f>
         <v>180</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" s="11" t="s">
         <v>173</v>
       </c>
@@ -8088,7 +8089,7 @@
         <v>172</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="D130" s="4">
         <v>4301070971</v>
@@ -8097,22 +8098,22 @@
         <v>4607111036902</v>
       </c>
       <c r="F130" s="5" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="G130" s="1">
         <f>VLOOKUP(E130,[1]Лист1!$D:$M,10,0)</f>
         <v>180</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" s="11" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B131" s="3" t="s">
         <v>172</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="D131" s="4">
         <v>4301070971</v>
@@ -8121,14 +8122,14 @@
         <v>4607111036902</v>
       </c>
       <c r="F131" s="5" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="G131" s="1">
         <f>VLOOKUP(E131,[1]Лист1!$D:$M,10,0)</f>
         <v>180</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" s="11" t="s">
         <v>171</v>
       </c>
@@ -8136,7 +8137,7 @@
         <v>172</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="D132" s="4">
         <v>4301070971</v>
@@ -8145,14 +8146,14 @@
         <v>4607111036902</v>
       </c>
       <c r="F132" s="5" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="G132" s="1">
         <f>VLOOKUP(E132,[1]Лист1!$D:$M,10,0)</f>
         <v>180</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" s="11" t="s">
         <v>281</v>
       </c>
@@ -8160,7 +8161,7 @@
         <v>115</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="D133" s="4">
         <v>4301070976</v>
@@ -8169,14 +8170,14 @@
         <v>4607111034144</v>
       </c>
       <c r="F133" s="5" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="G133" s="1">
         <f>VLOOKUP(E133,[1]Лист1!$D:$M,10,0)</f>
         <v>180</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" s="11" t="s">
         <v>242</v>
       </c>
@@ -8184,7 +8185,7 @@
         <v>115</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="D134" s="4">
         <v>4301070976</v>
@@ -8193,22 +8194,22 @@
         <v>4607111034144</v>
       </c>
       <c r="F134" s="5" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="G134" s="1">
         <f>VLOOKUP(E134,[1]Лист1!$D:$M,10,0)</f>
         <v>180</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" s="11" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="B135" s="3" t="s">
         <v>115</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="D135" s="4">
         <v>4301070976</v>
@@ -8217,14 +8218,14 @@
         <v>4607111034144</v>
       </c>
       <c r="F135" s="5" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="G135" s="1">
         <f>VLOOKUP(E135,[1]Лист1!$D:$M,10,0)</f>
         <v>180</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" s="11" t="s">
         <v>83</v>
       </c>
@@ -8232,7 +8233,7 @@
         <v>115</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="D136" s="4">
         <v>4301070976</v>
@@ -8241,14 +8242,14 @@
         <v>4607111034144</v>
       </c>
       <c r="F136" s="5" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="G136" s="1">
         <f>VLOOKUP(E136,[1]Лист1!$D:$M,10,0)</f>
         <v>180</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" s="11" t="s">
         <v>280</v>
       </c>
@@ -8256,7 +8257,7 @@
         <v>116</v>
       </c>
       <c r="C137" s="3" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="D137" s="4">
         <v>4301070975</v>
@@ -8265,14 +8266,14 @@
         <v>4607111033970</v>
       </c>
       <c r="F137" s="5" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="G137" s="1">
         <f>VLOOKUP(E137,[1]Лист1!$D:$M,10,0)</f>
         <v>180</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" s="11" t="s">
         <v>237</v>
       </c>
@@ -8280,7 +8281,7 @@
         <v>116</v>
       </c>
       <c r="C138" s="3" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="D138" s="4">
         <v>4301070975</v>
@@ -8289,22 +8290,22 @@
         <v>4607111033970</v>
       </c>
       <c r="F138" s="5" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="G138" s="1">
         <f>VLOOKUP(E138,[1]Лист1!$D:$M,10,0)</f>
         <v>180</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" s="11" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="B139" s="3" t="s">
         <v>116</v>
       </c>
       <c r="C139" s="3" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="D139" s="4">
         <v>4301070975</v>
@@ -8313,22 +8314,22 @@
         <v>4607111033970</v>
       </c>
       <c r="F139" s="5" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="G139" s="1">
         <f>VLOOKUP(E139,[1]Лист1!$D:$M,10,0)</f>
         <v>180</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" s="11" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="B140" s="3" t="s">
         <v>116</v>
       </c>
       <c r="C140" s="3" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="D140" s="4">
         <v>4301070975</v>
@@ -8337,14 +8338,14 @@
         <v>4607111033970</v>
       </c>
       <c r="F140" s="5" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="G140" s="1">
         <f>VLOOKUP(E140,[1]Лист1!$D:$M,10,0)</f>
         <v>180</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" s="11" t="s">
         <v>84</v>
       </c>
@@ -8352,7 +8353,7 @@
         <v>116</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="D141" s="4">
         <v>4301070975</v>
@@ -8361,22 +8362,22 @@
         <v>4607111033970</v>
       </c>
       <c r="F141" s="5" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="G141" s="1">
         <f>VLOOKUP(E141,[1]Лист1!$D:$M,10,0)</f>
         <v>180</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" s="11" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="B142" s="3" t="s">
         <v>117</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="D142" s="4">
         <v>4301070981</v>
@@ -8385,14 +8386,14 @@
         <v>4607111036728</v>
       </c>
       <c r="F142" s="5" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="G142" s="1">
         <f>VLOOKUP(E142,[1]Лист1!$D:$M,10,0)</f>
         <v>180</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" s="11" t="s">
         <v>85</v>
       </c>
@@ -8400,7 +8401,7 @@
         <v>117</v>
       </c>
       <c r="C143" s="3" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="D143" s="4">
         <v>4301070981</v>
@@ -8409,16 +8410,16 @@
         <v>4607111036728</v>
       </c>
       <c r="F143" s="5" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="G143" s="1">
         <f>VLOOKUP(E143,[1]Лист1!$D:$M,10,0)</f>
         <v>180</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" s="11" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="B144" s="3" t="s">
         <v>198</v>
@@ -8440,9 +8441,9 @@
         <v>180</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" s="11" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="B145" s="3" t="s">
         <v>198</v>
@@ -8464,7 +8465,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" s="11" t="s">
         <v>201</v>
       </c>
@@ -8488,9 +8489,9 @@
         <v>180</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" s="11" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="B147" s="3" t="s">
         <v>202</v>
@@ -8512,7 +8513,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" s="11" t="s">
         <v>205</v>
       </c>
@@ -8536,15 +8537,15 @@
         <v>90</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" s="11" t="s">
         <v>175</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C149" s="3" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="D149" s="4">
         <v>4301070948</v>
@@ -8560,15 +8561,15 @@
         <v>180</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" s="11" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C150" s="3" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="D150" s="4">
         <v>4301070948</v>
@@ -8584,15 +8585,15 @@
         <v>180</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" s="11" t="s">
         <v>174</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C151" s="3" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="D151" s="4">
         <v>4301070948</v>
@@ -8608,7 +8609,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" s="11" t="s">
         <v>122</v>
       </c>
@@ -8632,7 +8633,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" s="11" t="s">
         <v>88</v>
       </c>
@@ -8656,7 +8657,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" s="11" t="s">
         <v>176</v>
       </c>
@@ -8680,7 +8681,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" s="11" t="s">
         <v>179</v>
       </c>
@@ -8704,7 +8705,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" s="11" t="s">
         <v>208</v>
       </c>
@@ -8728,9 +8729,9 @@
         <v>180</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" s="11" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="B157" s="3" t="s">
         <v>206</v>
@@ -8752,9 +8753,9 @@
         <v>180</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" s="11" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="B158" s="3" t="s">
         <v>206</v>
@@ -8776,7 +8777,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" s="11" t="s">
         <v>209</v>
       </c>
@@ -8800,7 +8801,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" s="11" t="s">
         <v>180</v>
       </c>
@@ -8808,7 +8809,7 @@
         <v>123</v>
       </c>
       <c r="C160" s="3" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="D160" s="4">
         <v>4301071028</v>
@@ -8824,7 +8825,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" s="11" t="s">
         <v>89</v>
       </c>
@@ -8832,7 +8833,7 @@
         <v>123</v>
       </c>
       <c r="C161" s="3" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="D161" s="4">
         <v>4301071028</v>
@@ -8848,7 +8849,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" s="11" t="s">
         <v>126</v>
       </c>
@@ -8856,7 +8857,7 @@
         <v>125</v>
       </c>
       <c r="C162" s="3" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="D162" s="4">
         <v>4301070965</v>
@@ -8872,7 +8873,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" s="11" t="s">
         <v>90</v>
       </c>
@@ -8880,7 +8881,7 @@
         <v>125</v>
       </c>
       <c r="C163" s="3" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="D163" s="4">
         <v>4301070965</v>
@@ -8896,7 +8897,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" s="11" t="s">
         <v>184</v>
       </c>
@@ -8920,7 +8921,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" s="11" t="s">
         <v>181</v>
       </c>
@@ -8944,15 +8945,15 @@
         <v>180</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" s="11" t="s">
         <v>275</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="C166" s="3" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="D166" s="4">
         <v>4301135193</v>
@@ -8961,22 +8962,22 @@
         <v>4640242180403</v>
       </c>
       <c r="F166" s="5" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="G166" s="1">
         <f>VLOOKUP(E166,[1]Лист1!$D:$M,10,0)</f>
         <v>180</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" s="11" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="C167" s="3" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="D167" s="4">
         <v>4301135193</v>
@@ -8985,22 +8986,22 @@
         <v>4640242180403</v>
       </c>
       <c r="F167" s="5" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="G167" s="1">
         <f>VLOOKUP(E167,[1]Лист1!$D:$M,10,0)</f>
         <v>180</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168" s="11" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="B168" s="3" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="C168" s="3" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="D168" s="4">
         <v>4301135193</v>
@@ -9009,22 +9010,22 @@
         <v>4640242180403</v>
       </c>
       <c r="F168" s="5" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="G168" s="1">
         <f>VLOOKUP(E168,[1]Лист1!$D:$M,10,0)</f>
         <v>180</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169" s="11" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="C169" s="3" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="D169" s="4">
         <v>4301135193</v>
@@ -9033,22 +9034,22 @@
         <v>4640242180403</v>
       </c>
       <c r="F169" s="5" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="G169" s="1">
         <f>VLOOKUP(E169,[1]Лист1!$D:$M,10,0)</f>
         <v>180</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" s="11" t="s">
         <v>185</v>
       </c>
       <c r="B170" s="3" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="C170" s="3" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="D170" s="4">
         <v>4301135193</v>
@@ -9057,22 +9058,22 @@
         <v>4640242180403</v>
       </c>
       <c r="F170" s="5" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="G170" s="1">
         <f>VLOOKUP(E170,[1]Лист1!$D:$M,10,0)</f>
         <v>180</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" s="11" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="B171" s="3" t="s">
         <v>187</v>
       </c>
       <c r="C171" s="3" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="D171" s="4">
         <v>4301070956</v>
@@ -9081,22 +9082,22 @@
         <v>4640242180250</v>
       </c>
       <c r="F171" s="5" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="G171" s="1">
         <f>VLOOKUP(E171,[1]Лист1!$D:$M,10,0)</f>
         <v>180</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" s="11" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="B172" s="3" t="s">
         <v>187</v>
       </c>
       <c r="C172" s="3" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="D172" s="4">
         <v>4301070956</v>
@@ -9105,14 +9106,14 @@
         <v>4640242180250</v>
       </c>
       <c r="F172" s="5" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="G172" s="1">
         <f>VLOOKUP(E172,[1]Лист1!$D:$M,10,0)</f>
         <v>180</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" s="11" t="s">
         <v>186</v>
       </c>
@@ -9120,7 +9121,7 @@
         <v>187</v>
       </c>
       <c r="C173" s="3" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="D173" s="4">
         <v>4301070956</v>
@@ -9129,14 +9130,14 @@
         <v>4640242180250</v>
       </c>
       <c r="F173" s="5" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="G173" s="1">
         <f>VLOOKUP(E173,[1]Лист1!$D:$M,10,0)</f>
         <v>180</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" s="11" t="s">
         <v>92</v>
       </c>
@@ -9160,15 +9161,15 @@
         <v>180</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175" s="11" t="s">
         <v>291</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="C175" s="3" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="D175" s="4">
         <v>4301131018</v>
@@ -9177,22 +9178,22 @@
         <v>4607111037930</v>
       </c>
       <c r="F175" s="5" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="G175" s="1" t="e">
         <f>VLOOKUP(E175,[1]Лист1!$D:$M,10,0)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" s="11" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="B176" s="3" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="C176" s="3" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="D176" s="4">
         <v>4301131018</v>
@@ -9201,22 +9202,22 @@
         <v>4607111037930</v>
       </c>
       <c r="F176" s="5" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="G176" s="1" t="e">
         <f>VLOOKUP(E176,[1]Лист1!$D:$M,10,0)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" s="11" t="s">
         <v>188</v>
       </c>
       <c r="B177" s="3" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="C177" s="3" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="D177" s="4">
         <v>4301131019</v>
@@ -9225,22 +9226,22 @@
         <v>4640242180427</v>
       </c>
       <c r="F177" s="5" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="G177" s="1">
         <f>VLOOKUP(E177,[1]Лист1!$D:$M,10,0)</f>
         <v>180</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178" s="11" t="s">
         <v>189</v>
       </c>
       <c r="B178" s="3" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="C178" s="3" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="D178" s="4">
         <v>4301190022</v>
@@ -9249,21 +9250,21 @@
         <v>4607111037053</v>
       </c>
       <c r="F178" s="5" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="G178" s="1">
         <v>365</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179" s="11" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="B179" s="3" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="C179" s="3" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="D179" s="4">
         <v>4301190022</v>
@@ -9272,22 +9273,22 @@
         <v>4607111037053</v>
       </c>
       <c r="F179" s="5" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="G179" s="1">
         <f>VLOOKUP(E179,[1]Лист1!$D:$M,10,0)</f>
         <v>365</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180" s="11" t="s">
         <v>140</v>
       </c>
       <c r="B180" s="3" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="C180" s="3" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="D180" s="4">
         <v>4301190022</v>
@@ -9296,22 +9297,22 @@
         <v>4607111037053</v>
       </c>
       <c r="F180" s="5" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="G180" s="1">
         <f>VLOOKUP(E180,[1]Лист1!$D:$M,10,0)</f>
         <v>365</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" s="11" t="s">
         <v>190</v>
       </c>
       <c r="B181" s="3" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="C181" s="3" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="D181" s="4">
         <v>4301190023</v>
@@ -9320,22 +9321,22 @@
         <v>4607111037060</v>
       </c>
       <c r="F181" s="5" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="G181" s="1">
         <f>VLOOKUP(E181,[1]Лист1!$D:$M,10,0)</f>
         <v>365</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182" s="11" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="B182" s="3" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="C182" s="3" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="D182" s="4">
         <v>4301190023</v>
@@ -9344,22 +9345,22 @@
         <v>4607111037060</v>
       </c>
       <c r="F182" s="5" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="G182" s="1">
         <f>VLOOKUP(E182,[1]Лист1!$D:$M,10,0)</f>
         <v>365</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" s="11" t="s">
         <v>141</v>
       </c>
       <c r="B183" s="3" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="C183" s="3" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="D183" s="4">
         <v>4301190023</v>
@@ -9368,16 +9369,16 @@
         <v>4607111037060</v>
       </c>
       <c r="F183" s="5" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="G183" s="1">
         <f>VLOOKUP(E183,[1]Лист1!$D:$M,10,0)</f>
         <v>365</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" s="11" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="B184" s="3" t="s">
         <v>210</v>
@@ -9399,7 +9400,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185" s="11" t="s">
         <v>213</v>
       </c>
@@ -9423,7 +9424,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186" s="11" t="s">
         <v>93</v>
       </c>
@@ -9447,9 +9448,9 @@
         <v>180</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187" s="11" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="B187" s="3" t="s">
         <v>130</v>
@@ -9471,7 +9472,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188" s="11" t="s">
         <v>244</v>
       </c>
@@ -9495,7 +9496,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189" s="11" t="s">
         <v>245</v>
       </c>
@@ -9519,7 +9520,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190" s="11" t="s">
         <v>134</v>
       </c>
@@ -9543,7 +9544,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191" s="11" t="s">
         <v>94</v>
       </c>
@@ -9567,15 +9568,15 @@
         <v>180</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192" s="11" t="s">
         <v>192</v>
       </c>
       <c r="B192" s="3" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="C192" s="3" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="D192" s="4">
         <v>4301136028</v>
@@ -9584,22 +9585,22 @@
         <v>4640242180304</v>
       </c>
       <c r="F192" s="5" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="G192" s="1">
         <f>VLOOKUP(E192,[1]Лист1!$D:$M,10,0)</f>
         <v>180</v>
       </c>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193" s="11" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="B193" s="3" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="C193" s="3" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="D193" s="4">
         <v>4301136028</v>
@@ -9608,22 +9609,22 @@
         <v>4640242180304</v>
       </c>
       <c r="F193" s="5" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="G193" s="1">
         <f>VLOOKUP(E193,[1]Лист1!$D:$M,10,0)</f>
         <v>180</v>
       </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194" s="11" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="B194" s="3" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="C194" s="3" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="D194" s="4">
         <v>4301136028</v>
@@ -9632,22 +9633,22 @@
         <v>4640242180304</v>
       </c>
       <c r="F194" s="5" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="G194" s="1">
         <f>VLOOKUP(E194,[1]Лист1!$D:$M,10,0)</f>
         <v>180</v>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195" s="11" t="s">
         <v>142</v>
       </c>
       <c r="B195" s="3" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="C195" s="3" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="D195" s="4">
         <v>4301136028</v>
@@ -9656,22 +9657,22 @@
         <v>4640242180304</v>
       </c>
       <c r="F195" s="5" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="G195" s="1">
         <f>VLOOKUP(E195,[1]Лист1!$D:$M,10,0)</f>
         <v>180</v>
       </c>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196" s="11" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="B196" s="3" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="C196" s="3" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="D196" s="4">
         <v>4301136026</v>
@@ -9680,22 +9681,22 @@
         <v>4640242180236</v>
       </c>
       <c r="F196" s="5" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="G196" s="1">
         <f>VLOOKUP(E196,[1]Лист1!$D:$M,10,0)</f>
         <v>180</v>
       </c>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197" s="11" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="B197" s="3" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="C197" s="3" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="D197" s="4">
         <v>4301136026</v>
@@ -9704,22 +9705,22 @@
         <v>4640242180236</v>
       </c>
       <c r="F197" s="5" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="G197" s="1">
         <f>VLOOKUP(E197,[1]Лист1!$D:$M,10,0)</f>
         <v>180</v>
       </c>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198" s="11" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="B198" s="3" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="C198" s="3" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="D198" s="4">
         <v>4301136026</v>
@@ -9728,22 +9729,22 @@
         <v>4640242180236</v>
       </c>
       <c r="F198" s="5" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="G198" s="1">
         <f>VLOOKUP(E198,[1]Лист1!$D:$M,10,0)</f>
         <v>180</v>
       </c>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A199" s="11" t="s">
         <v>95</v>
       </c>
       <c r="B199" s="3" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="C199" s="3" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="D199" s="4">
         <v>4301136026</v>
@@ -9752,22 +9753,22 @@
         <v>4640242180236</v>
       </c>
       <c r="F199" s="5" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="G199" s="1">
         <f>VLOOKUP(E199,[1]Лист1!$D:$M,10,0)</f>
         <v>180</v>
       </c>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A200" s="11" t="s">
         <v>300</v>
       </c>
       <c r="B200" s="3" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="C200" s="3" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="D200" s="4">
         <v>4301135194</v>
@@ -9776,22 +9777,22 @@
         <v>4640242180380</v>
       </c>
       <c r="F200" s="5" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="G200" s="1">
         <f>VLOOKUP(E200,[1]Лист1!$D:$M,10,0)</f>
         <v>180</v>
       </c>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201" s="11" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="B201" s="3" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="C201" s="3" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="D201" s="4">
         <v>4301135194</v>
@@ -9800,22 +9801,22 @@
         <v>4640242180380</v>
       </c>
       <c r="F201" s="5" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="G201" s="1">
         <f>VLOOKUP(E201,[1]Лист1!$D:$M,10,0)</f>
         <v>180</v>
       </c>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202" s="11" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="B202" s="3" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="C202" s="3" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="D202" s="4">
         <v>4301135194</v>
@@ -9824,22 +9825,22 @@
         <v>4640242180380</v>
       </c>
       <c r="F202" s="5" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="G202" s="1">
         <f>VLOOKUP(E202,[1]Лист1!$D:$M,10,0)</f>
         <v>180</v>
       </c>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203" s="11" t="s">
         <v>135</v>
       </c>
       <c r="B203" s="3" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="C203" s="3" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="D203" s="4">
         <v>4301135194</v>
@@ -9848,22 +9849,22 @@
         <v>4640242180380</v>
       </c>
       <c r="F203" s="5" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="G203" s="1">
         <f>VLOOKUP(E203,[1]Лист1!$D:$M,10,0)</f>
         <v>180</v>
       </c>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204" s="11" t="s">
         <v>279</v>
       </c>
       <c r="B204" s="3" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="C204" s="3" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="D204" s="4">
         <v>4301135194</v>
@@ -9872,16 +9873,16 @@
         <v>4640242180380</v>
       </c>
       <c r="F204" s="5" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="G204" s="1">
         <f>VLOOKUP(E204,[1]Лист1!$D:$M,10,0)</f>
         <v>180</v>
       </c>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A205" s="11" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="B205" s="3" t="s">
         <v>282</v>
@@ -9903,9 +9904,9 @@
         <v>180</v>
       </c>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A206" s="11" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="B206" s="3" t="s">
         <v>282</v>
@@ -9927,7 +9928,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A207" s="11" t="s">
         <v>284</v>
       </c>
@@ -9951,9 +9952,9 @@
         <v>180</v>
       </c>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208" s="11" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="B208" s="3" t="s">
         <v>285</v>
@@ -9975,9 +9976,9 @@
         <v>180</v>
       </c>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A209" s="11" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="B209" s="3" t="s">
         <v>285</v>
@@ -9999,7 +10000,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A210" s="11" t="s">
         <v>287</v>
       </c>
@@ -10023,9 +10024,9 @@
         <v>180</v>
       </c>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A211" s="11" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="B211" s="3" t="s">
         <v>288</v>
@@ -10047,9 +10048,9 @@
         <v>180</v>
       </c>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A212" s="11" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="B212" s="3" t="s">
         <v>288</v>
@@ -10071,7 +10072,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A213" s="11" t="s">
         <v>290</v>
       </c>
@@ -10095,9 +10096,9 @@
         <v>180</v>
       </c>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A214" s="11" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="B214" s="3" t="s">
         <v>292</v>
@@ -10119,9 +10120,9 @@
         <v>365</v>
       </c>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A215" s="11" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="B215" s="3" t="s">
         <v>292</v>
@@ -10143,7 +10144,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A216" s="11" t="s">
         <v>295</v>
       </c>
@@ -10167,7 +10168,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A217" s="11" t="s">
         <v>299</v>
       </c>
@@ -10191,15 +10192,15 @@
         <v>365</v>
       </c>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <